--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -767,7 +767,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.47)</t>
+          <t>maa://22742 (91.51)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (90.91), maa://45854 (85.11)</t>
+          <t>maa://24617 (90.98), maa://45854 (84.21)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="AF7" s="14" t="inlineStr">
         <is>
-          <t>maa://45272 (97.06)</t>
+          <t>maa://45272 (97.14)</t>
         </is>
       </c>
       <c r="AG7" s="27" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.12 13:21:11</t>
+          <t>更新日期：2025.06.13 13:21:05</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="AB11" s="14" t="inlineStr">
         <is>
-          <t>maa://29912 (97.8), maa://22516 (87.36)</t>
+          <t>maa://29912 (97.85), maa://22516 (87.36)</t>
         </is>
       </c>
       <c r="AC11" s="11" t="n"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AF12" s="14" t="inlineStr">
         <is>
-          <t>*maa://28932 (79.1), *maa://20106 (64.29), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (79.21), *maa://20106 (64.29), *maa://22769 (64.29)</t>
         </is>
       </c>
       <c r="AG12" s="27" t="n"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.71), maa://36673 (91.95), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.74), maa://36673 (91.95), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.84), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (73.93), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.34), maa://26245 (96.7), maa://21288 (96.3), maa://36682 (95.92)</t>
+          <t>maa://39841 (94.38), maa://26245 (96.7), maa://21288 (96.3), maa://36682 (95.92)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.93), maa://22734 (84.55), *maa://30808 (64.79), *maa://36048 (69.64), maa://45058 (84.21)</t>
+          <t>*maa://22743 (78.93), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.3), maa://36666 (81.99), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.3), maa://36666 (82.1), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H17" s="14" t="inlineStr">
         <is>
-          <t>maa://22430 (89.67), maa://39599 (86.59)</t>
+          <t>maa://22430 (89.67), maa://39599 (86.75)</t>
         </is>
       </c>
       <c r="I17" s="11" t="n"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="X18" s="14" t="inlineStr">
         <is>
-          <t>maa://21917 (97.12), maa://22741 (87.5)</t>
+          <t>maa://21917 (97.14), maa://22741 (87.5)</t>
         </is>
       </c>
       <c r="Y18" s="11" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AB19" s="14" t="inlineStr">
         <is>
-          <t>*maa://30709 (68.6), *maa://36668 (57.32)</t>
+          <t>*maa://30709 (68.66), *maa://36668 (57.32)</t>
         </is>
       </c>
       <c r="AC19" s="11" t="n"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="H20" s="14" t="inlineStr">
         <is>
-          <t>maa://22864 (90.81)</t>
+          <t>maa://22864 (90.86)</t>
         </is>
       </c>
       <c r="I20" s="11" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>maa://41331 (86.4)</t>
+          <t>maa://41331 (86.11)</t>
         </is>
       </c>
       <c r="M20" s="11" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (87.77), maa://49976 (86.59), maa://56241 (88.89)</t>
+          <t>maa://50085 (87.94), maa://49976 (86.59), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.77), ***maa://23820 (30.0), **maa://52223 (40.62)</t>
+          <t>maa://21443 (82.81), ***maa://23820 (30.0), **maa://52223 (40.62)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="AF22" s="14" t="inlineStr">
         <is>
-          <t>maa://29658 (94.44)</t>
+          <t>maa://29658 (94.55)</t>
         </is>
       </c>
       <c r="AG22" s="27" t="n"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.77), maa://39875 (94.81)</t>
+          <t>maa://39756 (95.77), maa://39875 (94.87)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.18), *maa://46650 (61.29)</t>
+          <t>*maa://24368 (79.23), *maa://46650 (61.29)</t>
         </is>
       </c>
       <c r="E24" s="11" t="n"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (85.15), maa://23504 (93.68), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (85.2), maa://23504 (93.68), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="AF24" s="14" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (75.38), maa://29910 (93.75), maa://45831 (85.71)</t>
+          <t>maa://22523 (81.74), *maa://36672 (75.38), maa://29910 (93.75), maa://45831 (86.67)</t>
         </is>
       </c>
       <c r="AG24" s="27" t="n"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>*maa://29063 (72.82), *maa://25311 (74.11), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (72.96), *maa://25311 (74.11), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="11" t="n"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.44), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.51), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="AF25" s="14" t="inlineStr">
         <is>
-          <t>maa://20108 (95.89), maa://24621 (97.16), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (95.89), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="27" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.03)</t>
+          <t>maa://42235 (96.05)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AF29" s="14" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), maa://42865 (80.18), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (69.17), maa://42865 (80.36), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="27" t="n"/>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
-          <t>maa://24526 (92.36)</t>
+          <t>maa://24526 (92.39)</t>
         </is>
       </c>
       <c r="U34" s="11" t="n"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.36)</t>
+          <t>maa://41296 (97.37)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="P39" s="14" t="inlineStr">
         <is>
-          <t>maa://24709 (91.95), maa://47093 (100.0)</t>
+          <t>maa://24709 (92.0), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="11" t="n"/>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
-          <t>maa://47079 (95.96), *maa://45788 (73.11), maa://45790 (82.76)</t>
+          <t>maa://47079 (96.0), *maa://45788 (72.5), maa://45790 (82.76)</t>
         </is>
       </c>
       <c r="U39" s="11" t="n"/>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>maa://29768 (97.95), maa://27728 (96.19)</t>
+          <t>maa://29768 (97.97), maa://27728 (96.19)</t>
         </is>
       </c>
       <c r="I44" s="11" t="n"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
-          <t>**maa://39364 (44.07)</t>
+          <t>**maa://39364 (45.0)</t>
         </is>
       </c>
       <c r="U45" s="11" t="n"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.65), maa://43901 (94.74)</t>
+          <t>maa://35931 (92.67), maa://43901 (94.74)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (100.0), maa://59394 (100.0)</t>
+          <t>maa://59378 (96.77), maa://59394 (100.0)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
-          <t>maa://31270 (94.67), maa://27746 (82.91)</t>
+          <t>maa://31270 (94.74), maa://27746 (82.91)</t>
         </is>
       </c>
       <c r="I59" s="11" t="n"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (97.37), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.44), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.12 13:21:11</t>
+          <t>更新日期：2025.06.13 13:21:05</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (89.03), maa://20832 (99.07), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.08), maa://20832 (99.07), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.36), maa://36866 (96.15), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.42), maa://36866 (96.15), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="D34" s="20" t="inlineStr">
         <is>
-          <t>maa://20916 (82.35), maa://52658 (83.33)</t>
+          <t>maa://20916 (82.86), maa://52658 (85.71)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.19), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.2), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="D71" s="20" t="inlineStr">
         <is>
-          <t>maa://20943 (99.37), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
+          <t>maa://20943 (99.38), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="D121" s="20" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (94.12)</t>
+          <t>maa://20869 (100.0), maa://44690 (94.44)</t>
         </is>
       </c>
       <c r="E121" s="21" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.32), maa://36865 (96.3), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.36), maa://36865 (96.32), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.19), maa://35854 (85.06), maa://50388 (97.83), maa://25760 (86.84), ***maa://43911 (14.29), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.19), maa://35854 (85.06), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="D240" s="20" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.63), maa://30666 (83.41), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.46)</t>
+          <t>*maa://30667 (78.63), maa://30666 (83.41), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.68)</t>
         </is>
       </c>
       <c r="E240" s="21" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="D351" s="17" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.56), **maa://39217 (41.18), maa://47349 (93.75)</t>
+          <t>maa://36868 (100.0), maa://35996 (97.59), **maa://39217 (41.18), maa://47349 (93.75)</t>
         </is>
       </c>
       <c r="E351" s="17" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.32), maa://44635 (87.74), maa://48026 (96.39), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
+          <t>maa://40957 (93.36), maa://44635 (87.74), maa://48026 (96.39), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="D369" s="17" t="inlineStr">
         <is>
-          <t>maa://41110 (98.29), maa://45605 (100.0)</t>
+          <t>maa://41110 (98.31), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E369" s="17" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.86), maa://44745 (98.15), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.86), maa://44745 (98.17), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.62), maa://51876 (98.75), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.63), maa://51876 (98.75), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (95.59), maa://59603 (100.0)</t>
+          <t>maa://59493 (95.83), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -897,7 +897,7 @@
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (90.98), maa://45854 (84.21)</t>
+          <t>maa://24617 (91.04), maa://45854 (84.38)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.13 13:21:05</t>
+          <t>更新日期：2025.06.14 13:21:08</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="X8" s="14" t="inlineStr">
         <is>
-          <t>maa://21411 (96.07)</t>
+          <t>maa://21411 (96.09)</t>
         </is>
       </c>
       <c r="Y8" s="11" t="n"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AF9" s="14" t="inlineStr">
         <is>
-          <t>maa://26206 (89.2), *maa://22865 (53.57)</t>
+          <t>maa://26206 (89.27), *maa://22865 (53.57)</t>
         </is>
       </c>
       <c r="AG9" s="27" t="n"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://39951 (11.84), ***maa://34206 (22.22), *maa://45271 (60.26), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
+          <t>***maa://25695 (18.72), ***maa://39951 (11.84), ***maa://34206 (22.22), *maa://45271 (60.76), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="11" t="n"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="X10" s="14" t="inlineStr">
         <is>
-          <t>maa://22301 (97.9), maa://45828 (93.48), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.91), maa://45828 (93.48), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="11" t="n"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
-          <t>maa://22747 (90.96), maa://22501 (98.23), maa://45521 (91.67)</t>
+          <t>maa://22747 (90.45), maa://22501 (98.25), maa://45521 (91.67)</t>
         </is>
       </c>
       <c r="U11" s="11" t="n"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.93), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.02), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.38), maa://26245 (96.7), maa://21288 (96.3), maa://36682 (95.92)</t>
+          <t>maa://39841 (94.41), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.93), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
+          <t>*maa://22743 (79.01), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (87.19)</t>
+          <t>maa://24421 (86.88)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="T19" s="14" t="inlineStr">
         <is>
-          <t>maa://24386 (98.66)</t>
+          <t>maa://24386 (98.67)</t>
         </is>
       </c>
       <c r="U19" s="11" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>maa://41331 (86.11)</t>
+          <t>maa://41331 (86.17)</t>
         </is>
       </c>
       <c r="M20" s="11" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (87.94), maa://49976 (86.59), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.03), maa://49976 (86.59), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.76), maa://22432 (83.21)</t>
+          <t>maa://22524 (88.8), maa://22432 (83.21)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="X22" s="14" t="inlineStr">
         <is>
-          <t>maa://21282 (98.72), *maa://37649 (73.17)</t>
+          <t>maa://21282 (98.72), *maa://37649 (73.81)</t>
         </is>
       </c>
       <c r="Y22" s="11" t="n"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="X23" s="14" t="inlineStr">
         <is>
-          <t>*maa://28503 (65.26)</t>
+          <t>*maa://28503 (64.58)</t>
         </is>
       </c>
       <c r="Y23" s="11" t="n"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.23), *maa://46650 (61.29)</t>
+          <t>*maa://24368 (79.23), *maa://46650 (59.38)</t>
         </is>
       </c>
       <c r="E24" s="11" t="n"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (85.2), maa://23504 (93.68), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (84.92), maa://23504 (93.7), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="AF24" s="14" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (75.38), maa://29910 (93.75), maa://45831 (86.67)</t>
+          <t>maa://22523 (81.74), *maa://36672 (75.76), maa://29910 (93.75), maa://45831 (86.67)</t>
         </is>
       </c>
       <c r="AG24" s="27" t="n"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>maa://24465 (90.66), maa://25725 (82.83)</t>
+          <t>maa://24465 (90.67), maa://25725 (82.83)</t>
         </is>
       </c>
       <c r="E28" s="11" t="n"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.62), maa://36667 (97.32), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.63), maa://36667 (97.32), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="P33" s="14" t="inlineStr">
         <is>
-          <t>maa://21956 (81.48), *maa://22730 (71.88)</t>
+          <t>maa://21956 (81.6), *maa://22730 (71.88)</t>
         </is>
       </c>
       <c r="Q33" s="11" t="n"/>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.45), maa://47069 (81.82), maa://56336 (87.5), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (87.5), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.27)</t>
+          <t>maa://36697 (89.31)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>maa://29768 (97.97), maa://27728 (96.19)</t>
+          <t>maa://29768 (97.97), maa://27728 (96.19), maa://56386 (100.0)</t>
         </is>
       </c>
       <c r="I44" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (96.77), maa://59394 (100.0)</t>
+          <t>maa://59378 (96.88), maa://59394 (91.67)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (97.44), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.5), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.13 13:21:05</t>
+          <t>更新日期：2025.06.14 13:21:08</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (89.08), maa://20832 (99.07), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.12), maa://20832 (99.07), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="D34" s="20" t="inlineStr">
         <is>
-          <t>maa://20916 (82.86), maa://52658 (85.71)</t>
+          <t>maa://20916 (82.86), maa://52658 (87.5)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.2), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.21), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="D97" s="20" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (83.33)</t>
+          <t>maa://20991 (100.0), maa://51015 (85.71)</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.61), maa://51881 (99.16), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (93.75), maa://32653 (85.71), maa://45194 (87.5), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.63), maa://51881 (99.16), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.12), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="D121" s="20" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (94.44)</t>
+          <t>maa://20869 (100.0), maa://44690 (94.74)</t>
         </is>
       </c>
       <c r="E121" s="21" t="inlineStr">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="D150" s="20" t="inlineStr">
         <is>
-          <t>maa://51549 (97.44), maa://51923 (95.45)</t>
+          <t>maa://51549 (95.12), maa://51923 (95.65)</t>
         </is>
       </c>
       <c r="E150" s="21" t="inlineStr">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="D159" s="20" t="inlineStr">
         <is>
-          <t>maa://44232 (98.55), maa://45603 (90.32), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.56), maa://45603 (90.62), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E159" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.19), maa://35854 (85.06), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.25), maa://35854 (85.23), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -18308,7 +18308,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.77), *maa://20830 (80.0), maa://44703 (90.91)</t>
+          <t>maa://20956 (95.81), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.24), maa://45570 (97.87), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.48), maa://45570 (97.87), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.16), maa://51630 (96.59), maa://56588 (93.75), *maa://55171 (55.0), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.16), maa://51630 (96.59), maa://56588 (94.12), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.46), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.52), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="D336" s="22" t="inlineStr">
         <is>
-          <t>maa://30671 (81.58), maa://30669 (99.21), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.58), maa://30669 (99.22), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="22" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="D351" s="17" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.59), **maa://39217 (41.18), maa://47349 (93.75)</t>
+          <t>maa://36868 (100.0), maa://35996 (97.62), **maa://39217 (41.18), maa://47349 (93.94)</t>
         </is>
       </c>
       <c r="E351" s="17" t="inlineStr">
@@ -26084,7 +26084,7 @@
       </c>
       <c r="D355" s="17" t="inlineStr">
         <is>
-          <t>maa://49648 (95.45), *maa://49662 (71.43)</t>
+          <t>maa://49648 (95.56), *maa://49662 (71.43)</t>
         </is>
       </c>
       <c r="E355" s="17" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="D369" s="17" t="inlineStr">
         <is>
-          <t>maa://41110 (98.31), maa://45605 (100.0)</t>
+          <t>maa://41110 (98.32), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E369" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.63), maa://51876 (98.75), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.65), maa://51876 (98.77), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (95.83), maa://59603 (100.0)</t>
+          <t>maa://59493 (96.3), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>maa://25390 (95.47), maa://24702 (94.84), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.48), maa://24702 (94.84), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="11" t="n"/>
@@ -730,12 +730,12 @@
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (94.87), *maa://30515 (70.37), *maa://34787 (73.91)</t>
+          <t>maa://39402 (94.87), *maa://34787 (73.91)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.51)</t>
+          <t>maa://22742 (91.55)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>maa://40192 (96.23), maa://36987 (96.23), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.26), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="11" t="n"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="H3" s="14" t="inlineStr">
         <is>
-          <t>maa://21247 (98.46)</t>
+          <t>maa://21247 (98.47)</t>
         </is>
       </c>
       <c r="I3" s="11" t="n"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.95), maa://20276 (88.63), *maa://22749 (77.78)</t>
+          <t>*maa://22880 (66.24), maa://20276 (88.63), *maa://22749 (77.78)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="AB3" s="14" t="inlineStr">
         <is>
-          <t>maa://24390 (95.6), maa://52241 (100.0)</t>
+          <t>maa://24390 (95.7), maa://52241 (100.0)</t>
         </is>
       </c>
       <c r="AC3" s="11" t="n"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="T4" s="14" t="inlineStr">
         <is>
-          <t>maa://32509 (93.98), maa://27295 (88.3), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (93.98), maa://27295 (88.42), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="11" t="n"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (93.8)</t>
+          <t>maa://43217 (93.85)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>maa://21245 (84.56), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (84.62), maa://22744 (82.14), maa://54105 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="11" t="n"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="L6" s="14" t="inlineStr">
         <is>
-          <t>maa://24839 (98.83)</t>
+          <t>maa://24839 (98.84)</t>
         </is>
       </c>
       <c r="M6" s="11" t="n"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="X6" s="14" t="inlineStr">
         <is>
-          <t>maa://52754 (82.35)</t>
+          <t>maa://52754 (83.33)</t>
         </is>
       </c>
       <c r="Y6" s="11" t="n"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AF6" s="14" t="inlineStr">
         <is>
-          <t>*maa://33152 (63.93), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (64.52), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="27" t="n"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
-          <t>maa://28624 (93.84), maa://24957 (97.78)</t>
+          <t>maa://28624 (93.88), maa://24957 (97.78)</t>
         </is>
       </c>
       <c r="M7" s="11" t="n"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="T7" s="14" t="inlineStr">
         <is>
-          <t>maa://21291 (86.67)</t>
+          <t>maa://21291 (87.1)</t>
         </is>
       </c>
       <c r="U7" s="11" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.14 13:21:08</t>
+          <t>更新日期：2025.06.17 13:22:20</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H8" s="14" t="inlineStr">
         <is>
-          <t>*maa://24371 (55.13)</t>
+          <t>*maa://24371 (55.7)</t>
         </is>
       </c>
       <c r="I8" s="11" t="n"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>maa://22765 (90.1), *maa://21915 (71.88)</t>
+          <t>maa://22765 (90.2), *maa://21915 (71.88)</t>
         </is>
       </c>
       <c r="E9" s="11" t="n"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>maa://22762 (92.93), maa://39552 (83.33)</t>
+          <t>maa://22762 (93.07), maa://39552 (83.33)</t>
         </is>
       </c>
       <c r="M9" s="11" t="n"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="P9" s="14" t="inlineStr">
         <is>
-          <t>maa://22736 (83.33)</t>
+          <t>maa://22736 (83.48)</t>
         </is>
       </c>
       <c r="Q9" s="11" t="n"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="T9" s="14" t="inlineStr">
         <is>
-          <t>maa://26222 (98.33)</t>
+          <t>maa://26222 (98.36)</t>
         </is>
       </c>
       <c r="U9" s="11" t="n"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="AB9" s="14" t="inlineStr">
         <is>
-          <t>maa://28711 (87.32), maa://40166 (93.88)</t>
+          <t>maa://28711 (87.41), maa://40166 (93.88)</t>
         </is>
       </c>
       <c r="AC9" s="11" t="n"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="AF9" s="14" t="inlineStr">
         <is>
-          <t>maa://26206 (89.27), *maa://22865 (53.57)</t>
+          <t>maa://26206 (89.33), *maa://22865 (53.57)</t>
         </is>
       </c>
       <c r="AG9" s="27" t="n"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.72), ***maa://39951 (11.84), ***maa://34206 (22.22), *maa://45271 (60.76), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
+          <t>***maa://25695 (18.63), ***maa://39951 (11.84), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="11" t="n"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>maa://28977 (87.63), maa://36669 (81.48), *maa://23264 (61.4)</t>
+          <t>maa://28977 (87.63), *maa://36669 (80.0), *maa://23264 (62.07)</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
-          <t>maa://27395 (96.75), maa://22755 (89.15)</t>
+          <t>maa://27395 (96.77), maa://22755 (89.15)</t>
         </is>
       </c>
       <c r="U10" s="11" t="n"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="X10" s="14" t="inlineStr">
         <is>
-          <t>maa://22301 (97.91), maa://45828 (93.48), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.93), maa://45828 (93.48), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="11" t="n"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AF10" s="14" t="inlineStr">
         <is>
-          <t>*maa://25021 (54.21), *maa://22733 (64.29), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.7), *maa://22733 (64.29), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="27" t="n"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="X12" s="14" t="inlineStr">
         <is>
-          <t>maa://22753 (91.94), *maa://21485 (75.84), maa://37962 (92.65)</t>
+          <t>maa://22753 (91.98), *maa://21485 (76.0), maa://37962 (92.75)</t>
         </is>
       </c>
       <c r="Y12" s="11" t="n"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB12" s="14" t="inlineStr">
         <is>
-          <t>maa://23669 (95.67), maa://36677 (95.35), maa://39872 (93.1)</t>
+          <t>maa://23669 (95.68), maa://36677 (95.35), maa://39872 (93.1)</t>
         </is>
       </c>
       <c r="AC12" s="11" t="n"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.74), maa://36673 (91.95), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.76), maa://36673 (91.95), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.02), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.11), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>maa://30764 (89.86)</t>
+          <t>maa://30764 (90.0)</t>
         </is>
       </c>
       <c r="E14" s="11" t="n"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.41), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
+          <t>maa://39841 (94.44), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="P14" s="14" t="inlineStr">
         <is>
-          <t>maa://23250 (98.87), maa://20107 (87.1), maa://22772 (100.0)</t>
+          <t>maa://23250 (98.88), maa://20107 (87.1), maa://22772 (100.0)</t>
         </is>
       </c>
       <c r="Q14" s="11" t="n"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="T14" s="14" t="inlineStr">
         <is>
-          <t>maa://22521 (94.87), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.92), maa://42751 (100.0)</t>
         </is>
       </c>
       <c r="U14" s="11" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="X14" s="14" t="inlineStr">
         <is>
-          <t>maa://37468 (92.0)</t>
+          <t>maa://37468 (92.31)</t>
         </is>
       </c>
       <c r="Y14" s="11" t="n"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.06), maa://21478 (90.0)</t>
+          <t>maa://24304 (87.16), maa://21478 (90.0)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="P15" s="14" t="inlineStr">
         <is>
-          <t>maa://24762 (91.35), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.4), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="11" t="n"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="T15" s="14" t="inlineStr">
         <is>
-          <t>maa://23892 (96.63)</t>
+          <t>maa://23892 (96.67)</t>
         </is>
       </c>
       <c r="U15" s="11" t="n"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.3), maa://36666 (82.1), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.35), maa://36666 (82.1), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.48), *maa://28648 (73.75), maa://36674 (80.33)</t>
+          <t>maa://22729 (94.48), *maa://28648 (73.75), maa://36674 (80.65)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H17" s="14" t="inlineStr">
         <is>
-          <t>maa://22430 (89.67), maa://39599 (86.75)</t>
+          <t>maa://22430 (89.72), maa://39599 (86.9)</t>
         </is>
       </c>
       <c r="I17" s="11" t="n"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="AF17" s="14" t="inlineStr">
         <is>
-          <t>maa://50136 (95.45)</t>
+          <t>maa://50136 (96.0)</t>
         </is>
       </c>
       <c r="AG17" s="27" t="n"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.07)</t>
+          <t>maa://24570 (97.08)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>maa://22466 (92.12), maa://52226 (95.65)</t>
+          <t>maa://22466 (92.16), maa://52226 (95.65)</t>
         </is>
       </c>
       <c r="M18" s="11" t="n"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="AB18" s="14" t="inlineStr">
         <is>
-          <t>maa://24393 (98.18)</t>
+          <t>maa://24393 (98.21)</t>
         </is>
       </c>
       <c r="AC18" s="11" t="n"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="T19" s="14" t="inlineStr">
         <is>
-          <t>maa://24386 (98.67)</t>
+          <t>maa://24386 (98.68)</t>
         </is>
       </c>
       <c r="U19" s="11" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AB19" s="14" t="inlineStr">
         <is>
-          <t>*maa://30709 (68.66), *maa://36668 (57.32)</t>
+          <t>*maa://30709 (68.85), *maa://36668 (57.32)</t>
         </is>
       </c>
       <c r="AC19" s="11" t="n"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="H20" s="14" t="inlineStr">
         <is>
-          <t>maa://22864 (90.86)</t>
+          <t>maa://22864 (90.37)</t>
         </is>
       </c>
       <c r="I20" s="11" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>maa://41331 (86.17)</t>
+          <t>maa://41331 (86.27)</t>
         </is>
       </c>
       <c r="M20" s="11" t="n"/>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="P20" s="14" t="inlineStr">
         <is>
-          <t>maa://37442 (96.15)</t>
+          <t>maa://37442 (96.23)</t>
         </is>
       </c>
       <c r="Q20" s="11" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.03), maa://49976 (86.59), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.51), maa://49976 (86.59), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>maa://21261 (98.0)</t>
+          <t>maa://21261 (98.08)</t>
         </is>
       </c>
       <c r="E21" s="11" t="n"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H21" s="14" t="inlineStr">
         <is>
-          <t>maa://24372 (97.17)</t>
+          <t>maa://24372 (97.2)</t>
         </is>
       </c>
       <c r="I21" s="11" t="n"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="P21" s="14" t="inlineStr">
         <is>
-          <t>maa://24381 (81.82)</t>
+          <t>maa://24381 (82.61)</t>
         </is>
       </c>
       <c r="Q21" s="11" t="n"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.81), ***maa://23820 (30.0), **maa://52223 (40.62)</t>
+          <t>maa://21443 (82.81), ***maa://23820 (30.0), **maa://52223 (39.39)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="X22" s="14" t="inlineStr">
         <is>
-          <t>maa://21282 (98.72), *maa://37649 (73.81)</t>
+          <t>maa://21282 (98.73), *maa://37649 (73.81)</t>
         </is>
       </c>
       <c r="Y22" s="11" t="n"/>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.75), **maa://41753 (50.0)</t>
+          <t>***maa://28036 (28.4), **maa://41753 (50.0)</t>
         </is>
       </c>
       <c r="E23" s="11" t="n"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.77), maa://39875 (94.87)</t>
+          <t>maa://39756 (95.78), maa://39875 (94.87)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P23" s="14" t="inlineStr">
         <is>
-          <t>maa://30587 (92.09), *maa://29748 (76.3), *maa://37566 (78.26)</t>
+          <t>maa://30587 (92.13), *maa://29748 (76.3), *maa://37566 (78.72)</t>
         </is>
       </c>
       <c r="Q23" s="11" t="n"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="T23" s="14" t="inlineStr">
         <is>
-          <t>maa://31212 (89.47), maa://24387 (82.93)</t>
+          <t>maa://31212 (89.74), maa://24387 (82.93)</t>
         </is>
       </c>
       <c r="U23" s="11" t="n"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (84.92), maa://23504 (93.7), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (84.92), maa://23504 (93.71), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="AF24" s="14" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (75.76), maa://29910 (93.75), maa://45831 (86.67)</t>
+          <t>maa://22523 (81.74), *maa://36672 (74.63), maa://29910 (93.85), maa://45831 (87.5)</t>
         </is>
       </c>
       <c r="AG24" s="27" t="n"/>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>maa://29753 (95.47)</t>
+          <t>maa://29753 (95.48)</t>
         </is>
       </c>
       <c r="E25" s="11" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P25" s="14" t="inlineStr">
         <is>
-          <t>maa://24382 (94.29)</t>
+          <t>maa://24382 (94.44)</t>
         </is>
       </c>
       <c r="Q25" s="11" t="n"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.51), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.66), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="AF25" s="14" t="inlineStr">
         <is>
-          <t>maa://20108 (95.89), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (95.92), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="27" t="n"/>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="X26" s="14" t="inlineStr">
         <is>
-          <t>maa://24389 (96.88)</t>
+          <t>maa://24389 (96.97)</t>
         </is>
       </c>
       <c r="Y26" s="11" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.05)</t>
+          <t>maa://42235 (96.1)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="AF26" s="14" t="inlineStr">
         <is>
-          <t>*maa://30511 (75.0), *maa://29760 (52.94)</t>
+          <t>*maa://30511 (75.47), *maa://29760 (52.94)</t>
         </is>
       </c>
       <c r="AG26" s="27" t="n"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
-          <t>*maa://39601 (79.17), maa://34494 (97.3)</t>
+          <t>maa://39601 (80.77), maa://34494 (97.3)</t>
         </is>
       </c>
       <c r="I27" s="11" t="n"/>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="AF27" s="14" t="inlineStr">
         <is>
-          <t>maa://24023 (96.15)</t>
+          <t>maa://24023 (96.2)</t>
         </is>
       </c>
       <c r="AG27" s="27" t="n"/>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>maa://24465 (90.67), maa://25725 (82.83)</t>
+          <t>maa://24465 (90.68), maa://25725 (82.83)</t>
         </is>
       </c>
       <c r="E28" s="11" t="n"/>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="T28" s="14" t="inlineStr">
         <is>
-          <t>maa://23263 (95.45)</t>
+          <t>maa://23263 (95.5)</t>
         </is>
       </c>
       <c r="U28" s="11" t="n"/>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="X28" s="14" t="inlineStr">
         <is>
-          <t>maa://39929 (91.97), maa://41749 (92.25)</t>
+          <t>maa://39929 (91.98), maa://41749 (92.31)</t>
         </is>
       </c>
       <c r="Y28" s="11" t="n"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="AF28" s="14" t="inlineStr">
         <is>
-          <t>maa://36660 (92.54)</t>
+          <t>maa://36660 (92.58)</t>
         </is>
       </c>
       <c r="AG28" s="27" t="n"/>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.05), maa://31400 (98.89), maa://28440 (83.94), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.05), maa://31400 (98.89), maa://28440 (84.17), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AF29" s="14" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), maa://42865 (80.36), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (69.17), maa://42865 (80.53), ***maa://34960 (8.33)</t>
         </is>
       </c>
       <c r="AG29" s="27" t="n"/>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>maa://45792 (89.66)</t>
+          <t>maa://45792 (90.0)</t>
         </is>
       </c>
       <c r="E30" s="11" t="n"/>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="T30" s="14" t="inlineStr">
         <is>
-          <t>*maa://32940 (72.73), maa://24388 (94.74)</t>
+          <t>*maa://32940 (72.73), maa://24388 (95.0)</t>
         </is>
       </c>
       <c r="U30" s="11" t="n"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AB30" s="14" t="inlineStr">
         <is>
-          <t>maa://42979 (97.08), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.1), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="11" t="n"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.75), maa://36258 (87.88), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.75), maa://36258 (87.95), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.63), maa://36667 (97.32), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.64), maa://36667 (97.32), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (96.98), maa://41108 (86.27), maa://41238 (97.99), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.01), maa://41108 (86.27), maa://41238 (98.01), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="P34" s="14" t="inlineStr">
         <is>
-          <t>maa://48817 (96.88), maa://56235 (100.0)</t>
+          <t>maa://48817 (96.92), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="11" t="n"/>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
-          <t>maa://24526 (92.39)</t>
+          <t>maa://24526 (92.42)</t>
         </is>
       </c>
       <c r="U34" s="11" t="n"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.37)</t>
+          <t>maa://41296 (97.38)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="H36" s="14" t="inlineStr">
         <is>
-          <t>maa://24375 (90.7)</t>
+          <t>maa://24375 (90.91)</t>
         </is>
       </c>
       <c r="I36" s="11" t="n"/>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (87.5), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (88.89), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.31)</t>
+          <t>maa://36697 (89.1)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>maa://36670 (89.57), maa://25199 (85.22), maa://30434 (93.13), *maa://45059 (79.41)</t>
+          <t>maa://36670 (89.66), maa://25199 (85.34), maa://30434 (93.18), *maa://45059 (79.41)</t>
         </is>
       </c>
       <c r="I39" s="11" t="n"/>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
-          <t>maa://47079 (96.0), *maa://45788 (72.5), maa://45790 (82.76)</t>
+          <t>maa://47079 (95.05), *maa://45788 (72.5), maa://45790 (82.76)</t>
         </is>
       </c>
       <c r="U39" s="11" t="n"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="H41" s="14" t="inlineStr">
         <is>
-          <t>maa://24466 (93.88)</t>
+          <t>maa://24466 (94.0)</t>
         </is>
       </c>
       <c r="I41" s="11" t="n"/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>maa://21229 (84.42), maa://30807 (93.51), maa://42459 (89.47)</t>
+          <t>maa://21229 (84.42), maa://30807 (93.51), maa://42459 (87.18)</t>
         </is>
       </c>
       <c r="I45" s="11" t="n"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="P45" s="14" t="inlineStr">
         <is>
-          <t>*maa://36237 (76.19)</t>
+          <t>*maa://36237 (77.27)</t>
         </is>
       </c>
       <c r="Q45" s="11" t="n"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
-          <t>**maa://39364 (45.0)</t>
+          <t>**maa://39364 (44.26)</t>
         </is>
       </c>
       <c r="U45" s="11" t="n"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.67), maa://43901 (94.74)</t>
+          <t>maa://35931 (92.71), maa://43901 (94.74)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (96.88), maa://59394 (91.67)</t>
+          <t>maa://59378 (96.88), maa://59394 (93.75)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.13)</t>
+          <t>maa://32534 (95.16)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
-          <t>maa://31270 (94.74), maa://27746 (82.91)</t>
+          <t>maa://31270 (94.77), maa://27746 (82.91)</t>
         </is>
       </c>
       <c r="I59" s="11" t="n"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H60" s="14" t="inlineStr">
         <is>
-          <t>*maa://40438 (74.68)</t>
+          <t>*maa://40438 (75.0)</t>
         </is>
       </c>
       <c r="I60" s="11" t="n"/>
@@ -6661,12 +6661,12 @@
       </c>
       <c r="G63" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (97.5), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.73), maa://59693 (100.0), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.14 13:21:08</t>
+          <t>更新日期：2025.06.17 13:22:20</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="D23" s="20" t="inlineStr">
         <is>
-          <t>maa://20876 (96.77)</t>
+          <t>maa://20876 (96.88)</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (89.12), maa://20832 (99.07), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.17), maa://20832 (99.08), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.42), maa://36866 (96.15), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.42), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="D34" s="20" t="inlineStr">
         <is>
-          <t>maa://20916 (82.86), maa://52658 (87.5)</t>
+          <t>maa://20916 (82.86), maa://52658 (88.89)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="D41" s="20" t="inlineStr">
         <is>
-          <t>maa://20892 (80.22)</t>
+          <t>maa://20892 (80.43)</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="D65" s="20" t="inlineStr">
         <is>
-          <t>maa://28567 (96.88), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (96.92), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="D68" s="20" t="inlineStr">
         <is>
-          <t>maa://20976 (97.82), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.83), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="D88" s="20" t="inlineStr">
         <is>
-          <t>maa://24472 (88.29), *maa://35841 (62.5)</t>
+          <t>maa://24472 (88.41), *maa://35841 (64.71)</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="D97" s="20" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (85.71)</t>
+          <t>maa://20991 (100.0), maa://51015 (86.36)</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="D99" s="20" t="inlineStr">
         <is>
-          <t>maa://20929 (94.74)</t>
+          <t>maa://20929 (95.0)</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="D103" s="20" t="inlineStr">
         <is>
-          <t>*maa://29094 (70.45), maa://28904 (88.57), **maa://20931 (44.83)</t>
+          <t>*maa://29094 (71.11), maa://28904 (88.57), **maa://20931 (44.83)</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.63), maa://51881 (99.16), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.12), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.66), maa://51881 (99.18), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="D113" s="20" t="inlineStr">
         <is>
-          <t>maa://29037 (98.46)</t>
+          <t>maa://29037 (98.48)</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="D121" s="20" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (94.74)</t>
+          <t>maa://20869 (100.0), maa://44690 (95.0)</t>
         </is>
       </c>
       <c r="E121" s="21" t="inlineStr">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="D122" s="20" t="inlineStr">
         <is>
-          <t>maa://29650 (98.31), maa://45570 (97.87)</t>
+          <t>maa://29650 (98.31), maa://45570 (97.92)</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="D139" s="20" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (92.86)</t>
+          <t>**maa://30679 (50.0), maa://45258 (93.33)</t>
         </is>
       </c>
       <c r="E139" s="21" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="D142" s="20" t="inlineStr">
         <is>
-          <t>maa://28484 (97.08), **maa://23736 (43.28), maa://31185 (83.33), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.1), **maa://23736 (43.28), maa://31185 (85.71), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="21" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D143" s="20" t="inlineStr">
         <is>
-          <t>maa://30670 (96.6), maa://31470 (96.67), *maa://45066 (66.67), **maa://30867 (40.0)</t>
+          <t>maa://30670 (96.64), maa://31470 (96.67), *maa://45066 (66.67), **maa://30867 (40.0)</t>
         </is>
       </c>
       <c r="E143" s="21" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.36), maa://36865 (96.32), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.39), maa://36865 (96.34), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="D150" s="20" t="inlineStr">
         <is>
-          <t>maa://51549 (95.12), maa://51923 (95.65)</t>
+          <t>maa://51549 (95.24), maa://51923 (95.65)</t>
         </is>
       </c>
       <c r="E150" s="21" t="inlineStr">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="D159" s="20" t="inlineStr">
         <is>
-          <t>maa://44232 (98.56), maa://45603 (90.62), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.57), maa://45603 (90.62), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E159" s="21" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.28), maa://29627 (92.69), maa://29659 (85.29), maa://49074 (97.56), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.29), maa://49074 (97.62), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="D168" s="20" t="inlineStr">
         <is>
-          <t>maa://49867 (90.0), maa://49655 (96.3)</t>
+          <t>maa://49867 (90.32), maa://49655 (96.3)</t>
         </is>
       </c>
       <c r="E168" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.25), maa://35854 (85.23), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.25), maa://35854 (85.39), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="D201" s="20" t="inlineStr">
         <is>
-          <t>maa://42223 (99.59), maa://49077 (94.29), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.6), maa://49077 (94.29), maa://42292 (97.22), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E201" s="21" t="inlineStr">
@@ -18897,12 +18897,12 @@
       </c>
       <c r="C222" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" s="20" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0)</t>
+          <t>maa://39695 (100.0), **maa://39911 (33.33)</t>
         </is>
       </c>
       <c r="E222" s="21" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="D227" s="20" t="inlineStr">
         <is>
-          <t>maa://20987 (93.55), *maa://35801 (77.78)</t>
+          <t>maa://20987 (93.62), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E227" s="21" t="inlineStr">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="D236" s="20" t="inlineStr">
         <is>
-          <t>maa://20917 (98.28)</t>
+          <t>maa://20917 (98.31)</t>
         </is>
       </c>
       <c r="E236" s="21" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="D240" s="20" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.63), maa://30666 (83.41), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.68)</t>
+          <t>*maa://30667 (78.68), maa://30666 (83.41), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.89)</t>
         </is>
       </c>
       <c r="E240" s="21" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.48), maa://45570 (97.87), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.7), maa://45570 (97.92), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -21332,7 +21332,7 @@
       </c>
       <c r="D267" s="20" t="inlineStr">
         <is>
-          <t>maa://49643 (86.36)</t>
+          <t>maa://49643 (86.96)</t>
         </is>
       </c>
       <c r="E267" s="21" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.16), maa://51630 (96.59), maa://56588 (94.12), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.18), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="D282" s="20" t="inlineStr">
         <is>
-          <t>*maa://39165 (66.67)</t>
+          <t>*maa://39165 (70.0)</t>
         </is>
       </c>
       <c r="E282" s="21" t="inlineStr">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="D289" s="20" t="inlineStr">
         <is>
-          <t>maa://30710 (97.87), maa://36845 (95.59), maa://31558 (97.06), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://30710 (97.87), maa://36845 (95.62), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E289" s="21" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="D292" s="20" t="inlineStr">
         <is>
-          <t>maa://25774 (97.1), maa://28133 (92.86), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://25774 (97.14), maa://28133 (92.86), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E292" s="21" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.52), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.56), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="D308" s="20" t="inlineStr">
         <is>
-          <t>maa://36005 (91.67)</t>
+          <t>maa://36005 (92.31)</t>
         </is>
       </c>
       <c r="E308" s="21" t="inlineStr">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="D321" s="20" t="inlineStr">
         <is>
-          <t>maa://39692 (99.61), maa://39810 (86.36)</t>
+          <t>maa://39692 (99.62), maa://39810 (86.36)</t>
         </is>
       </c>
       <c r="E321" s="21" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="D330" s="20" t="inlineStr">
         <is>
-          <t>maa://34205 (87.5), **maa://39541 (50.0)</t>
+          <t>maa://34205 (87.5), *maa://39541 (66.67)</t>
         </is>
       </c>
       <c r="E330" s="21" t="inlineStr">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="D332" s="22" t="inlineStr">
         <is>
-          <t>maa://44234 (99.03)</t>
+          <t>maa://44234 (99.04)</t>
         </is>
       </c>
       <c r="E332" s="22" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="D333" s="22" t="inlineStr">
         <is>
-          <t>maa://42968 (99.18), maa://49245 (100.0)</t>
+          <t>maa://42968 (99.19), maa://49245 (100.0)</t>
         </is>
       </c>
       <c r="E333" s="22" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="D336" s="22" t="inlineStr">
         <is>
-          <t>maa://30671 (81.58), maa://30669 (99.22), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.58), maa://30669 (99.23), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="22" t="inlineStr">
@@ -25112,7 +25112,7 @@
       </c>
       <c r="D337" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (94.57), maa://49332 (100.0)</t>
+          <t>maa://38295 (94.62), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E337" s="22" t="inlineStr">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="D347" s="17" t="inlineStr">
         <is>
-          <t>maa://34865 (97.81), maa://34717 (94.03), *maa://45066 (66.67)</t>
+          <t>maa://34865 (97.82), maa://34717 (94.03), *maa://45066 (66.67)</t>
         </is>
       </c>
       <c r="E347" s="17" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="D351" s="17" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.62), **maa://39217 (41.18), maa://47349 (93.94)</t>
+          <t>maa://36868 (100.0), maa://35996 (97.67), **maa://39217 (41.18), maa://47349 (94.12)</t>
         </is>
       </c>
       <c r="E351" s="17" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="D354" s="17" t="inlineStr">
         <is>
-          <t>maa://42299 (97.56), maa://42224 (81.25)</t>
+          <t>maa://42299 (97.62), maa://42224 (81.25)</t>
         </is>
       </c>
       <c r="E354" s="17" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="D356" s="17" t="inlineStr">
         <is>
-          <t>maa://36646 (98.79), maa://36845 (95.59), **maa://39217 (41.18), maa://51007 (98.15)</t>
+          <t>maa://36646 (98.8), maa://36845 (95.62), **maa://39217 (41.18), maa://51007 (98.18)</t>
         </is>
       </c>
       <c r="E356" s="17" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.36), maa://44635 (87.74), maa://48026 (96.39), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
+          <t>maa://40957 (93.39), maa://44635 (87.74), maa://48026 (96.43), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="D367" s="17" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://41977 (100.0), maa://50518 (100.0)</t>
+          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
         </is>
       </c>
       <c r="E367" s="17" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="D369" s="17" t="inlineStr">
         <is>
-          <t>maa://41110 (98.32), maa://45605 (100.0)</t>
+          <t>maa://41110 (98.35), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E369" s="17" t="inlineStr">
@@ -27002,7 +27002,7 @@
       </c>
       <c r="D372" s="17" t="inlineStr">
         <is>
-          <t>maa://44233 (92.16), maa://45570 (97.87)</t>
+          <t>maa://44233 (92.16), maa://45570 (97.92)</t>
         </is>
       </c>
       <c r="E372" s="17" t="inlineStr">
@@ -27164,7 +27164,7 @@
       </c>
       <c r="D375" s="17" t="inlineStr">
         <is>
-          <t>*maa://53307 (69.23)</t>
+          <t>*maa://53307 (64.29)</t>
         </is>
       </c>
       <c r="E375" s="17" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.86), maa://44745 (98.17), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.59), maa://44745 (98.2), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.65), maa://51876 (98.77), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.72), maa://51876 (98.78), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (96.3), maa://59603 (100.0)</t>
+          <t>maa://59493 (96.97), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -767,7 +767,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.55)</t>
+          <t>maa://22742 (91.63)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -799,7 +799,7 @@
       </c>
       <c r="AB2" s="14" t="inlineStr">
         <is>
-          <t>maa://21246 (91.48), maa://36684 (93.17)</t>
+          <t>maa://21246 (91.48), maa://36684 (93.21)</t>
         </is>
       </c>
       <c r="AC2" s="11" t="n"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>maa://40192 (96.26), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.3), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="11" t="n"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.24), maa://20276 (88.63), *maa://22749 (77.78)</t>
+          <t>*maa://22880 (66.38), maa://20276 (88.63), *maa://22749 (77.78)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.72), maa://26254 (97.22)</t>
+          <t>maa://21249 (94.74), maa://26254 (97.22)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (91.04), maa://45854 (84.38)</t>
+          <t>maa://24617 (91.11), maa://45854 (84.54)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>maa://24632 (93.63), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.66), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="11" t="n"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.1), maa://50121 (94.87)</t>
+          <t>maa://49983 (96.1), maa://50121 (95.0)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="T4" s="14" t="inlineStr">
         <is>
-          <t>maa://32509 (93.98), maa://27295 (88.42), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.03), maa://27295 (88.42), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="11" t="n"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (93.85)</t>
+          <t>maa://43217 (93.94)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AF6" s="14" t="inlineStr">
         <is>
-          <t>*maa://33152 (64.52), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (65.08), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="27" t="n"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
-          <t>maa://28624 (93.88), maa://24957 (97.78)</t>
+          <t>maa://28624 (93.96), maa://24957 (97.78)</t>
         </is>
       </c>
       <c r="M7" s="11" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.17 13:22:20</t>
+          <t>更新日期：2025.06.18 13:21:34</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="P8" s="14" t="inlineStr">
         <is>
-          <t>maa://32931 (83.8), maa://23252 (91.67), maa://37496 (97.44)</t>
+          <t>maa://32931 (83.92), maa://23252 (91.67), maa://37496 (97.44)</t>
         </is>
       </c>
       <c r="Q8" s="11" t="n"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>maa://22765 (90.2), *maa://21915 (71.88)</t>
+          <t>maa://22765 (90.38), *maa://21915 (71.88)</t>
         </is>
       </c>
       <c r="E9" s="11" t="n"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.63), ***maa://39951 (11.84), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
+          <t>***maa://25695 (18.54), ***maa://39951 (11.69), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
         </is>
       </c>
       <c r="E10" s="11" t="n"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>maa://28977 (87.63), *maa://36669 (80.0), *maa://23264 (62.07)</t>
+          <t>maa://28977 (87.63), maa://36669 (80.36), *maa://23264 (62.07)</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
-          <t>maa://27395 (96.77), maa://22755 (89.15)</t>
+          <t>maa://27395 (96.77), maa://22755 (89.23)</t>
         </is>
       </c>
       <c r="U10" s="11" t="n"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="X11" s="14" t="inlineStr">
         <is>
-          <t>maa://36713 (98.16)</t>
+          <t>maa://36713 (98.17)</t>
         </is>
       </c>
       <c r="Y11" s="11" t="n"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="X12" s="14" t="inlineStr">
         <is>
-          <t>maa://22753 (91.98), *maa://21485 (76.0), maa://37962 (92.75)</t>
+          <t>maa://22753 (91.98), *maa://21485 (76.0), maa://37962 (92.96)</t>
         </is>
       </c>
       <c r="Y12" s="11" t="n"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB12" s="14" t="inlineStr">
         <is>
-          <t>maa://23669 (95.68), maa://36677 (95.35), maa://39872 (93.1)</t>
+          <t>maa://23669 (95.68), maa://36677 (95.4), maa://39872 (93.1)</t>
         </is>
       </c>
       <c r="AC12" s="11" t="n"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.76), maa://36673 (91.95), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.76), maa://36673 (92.05), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="P13" s="14" t="inlineStr">
         <is>
-          <t>maa://22676 (93.66), *maa://22583 (78.05), maa://48321 (92.31)</t>
+          <t>maa://22676 (93.66), *maa://22583 (78.05), maa://48321 (85.71)</t>
         </is>
       </c>
       <c r="Q13" s="11" t="n"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="X13" s="14" t="inlineStr">
         <is>
-          <t>maa://34957 (83.78), **maa://22768 (50.0)</t>
+          <t>maa://34957 (83.93), **maa://22768 (50.0)</t>
         </is>
       </c>
       <c r="Y13" s="11" t="n"/>
@@ -2250,12 +2250,12 @@
       </c>
       <c r="AE13" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" s="14" t="inlineStr">
         <is>
-          <t>**maa://22737 (38.61), maa://39883 (87.3), **maa://39885 (50.0)</t>
+          <t>maa://39883 (87.3), **maa://39885 (50.0)</t>
         </is>
       </c>
       <c r="AG13" s="27" t="n"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.44), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
+          <t>maa://39841 (94.48), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.16), maa://21478 (90.0)</t>
+          <t>maa://24304 (87.21), maa://21478 (90.0)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.48), *maa://28648 (73.75), maa://36674 (80.65)</t>
+          <t>maa://22729 (94.51), *maa://28648 (73.75), maa://36674 (80.65)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (86.88)</t>
+          <t>maa://24421 (86.93)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AB19" s="14" t="inlineStr">
         <is>
-          <t>*maa://30709 (68.85), *maa://36668 (57.32)</t>
+          <t>*maa://30709 (68.85), *maa://36668 (57.83)</t>
         </is>
       </c>
       <c r="AC19" s="11" t="n"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="H20" s="14" t="inlineStr">
         <is>
-          <t>maa://22864 (90.37)</t>
+          <t>maa://22864 (90.43)</t>
         </is>
       </c>
       <c r="I20" s="11" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.51), maa://49976 (86.59), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.59), maa://49976 (86.59), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="AA21" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.81), ***maa://23820 (30.0), **maa://52223 (39.39)</t>
+          <t>maa://21443 (82.85)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.8), maa://22432 (83.21)</t>
+          <t>maa://22524 (88.84), maa://22432 (83.33)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H22" s="14" t="inlineStr">
         <is>
-          <t>maa://25236 (96.23)</t>
+          <t>maa://25236 (96.26)</t>
         </is>
       </c>
       <c r="I22" s="11" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="X22" s="14" t="inlineStr">
         <is>
-          <t>maa://21282 (98.73), *maa://37649 (73.81)</t>
+          <t>maa://21282 (98.73), *maa://37649 (74.42)</t>
         </is>
       </c>
       <c r="Y22" s="11" t="n"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.78), maa://39875 (94.87)</t>
+          <t>maa://39756 (95.78), maa://39875 (94.94)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (84.92), maa://23504 (93.71), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (84.92), maa://23504 (93.72), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="AB24" s="14" t="inlineStr">
         <is>
-          <t>maa://39349 (87.5)</t>
+          <t>maa://39349 (88.89)</t>
         </is>
       </c>
       <c r="AC24" s="11" t="n"/>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="AF24" s="14" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (74.63), maa://29910 (93.85), maa://45831 (87.5)</t>
+          <t>maa://22523 (81.74), *maa://36672 (75.0), maa://29910 (93.85), maa://45831 (87.5)</t>
         </is>
       </c>
       <c r="AG24" s="27" t="n"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>*maa://29063 (72.96), *maa://25311 (74.11), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (72.59), *maa://25311 (74.11), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="11" t="n"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.66), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.73), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.1)</t>
+          <t>maa://42235 (96.13)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.05), maa://31400 (98.89), maa://28440 (84.17), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.07), maa://31400 (98.89), maa://28440 (84.17), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4330,12 +4330,12 @@
       </c>
       <c r="AE29" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF29" s="14" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), maa://42865 (80.53), ***maa://34960 (8.33)</t>
+          <t>*maa://24080 (69.17), maa://42865 (80.7)</t>
         </is>
       </c>
       <c r="AG29" s="27" t="n"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AB30" s="14" t="inlineStr">
         <is>
-          <t>maa://42979 (97.1), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.12), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="11" t="n"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.64), maa://36667 (97.32), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.65), maa://36667 (97.32), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.01), maa://41108 (86.27), maa://41238 (98.01), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.03), maa://41108 (86.27), maa://41238 (98.01), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="AF32" s="14" t="inlineStr">
         <is>
-          <t>maa://42408 (88.24)</t>
+          <t>maa://42408 (88.89)</t>
         </is>
       </c>
       <c r="AG32" s="27" t="n"/>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="P33" s="14" t="inlineStr">
         <is>
-          <t>maa://21956 (81.6), *maa://22730 (71.88)</t>
+          <t>maa://21956 (81.71), *maa://22730 (71.88)</t>
         </is>
       </c>
       <c r="Q33" s="11" t="n"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.38)</t>
+          <t>maa://41296 (97.39)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (88.89), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="T37" s="14" t="inlineStr">
         <is>
-          <t>**maa://39354 (41.67)</t>
+          <t>**maa://39354 (38.46)</t>
         </is>
       </c>
       <c r="U37" s="11" t="n"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.1)</t>
+          <t>maa://36697 (89.13)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
-          <t>maa://47079 (95.05), *maa://45788 (72.5), maa://45790 (82.76)</t>
+          <t>maa://47079 (95.05), *maa://45788 (71.9), maa://45790 (82.76)</t>
         </is>
       </c>
       <c r="U39" s="11" t="n"/>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="P40" s="14" t="inlineStr">
         <is>
-          <t>maa://23278 (95.27), maa://21386 (95.83), maa://36664 (90.0), maa://45550 (87.5)</t>
+          <t>maa://23278 (95.27), maa://21386 (95.83), maa://36664 (90.16), maa://45550 (87.5)</t>
         </is>
       </c>
       <c r="Q40" s="11" t="n"/>
@@ -5694,12 +5694,12 @@
       </c>
       <c r="O41" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P41" s="14" t="inlineStr">
         <is>
-          <t>**maa://35616 (40.54), maa://43177 (87.88)</t>
+          <t>maa://43177 (87.88)</t>
         </is>
       </c>
       <c r="Q41" s="11" t="n"/>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>maa://29768 (97.97), maa://27728 (96.19), maa://56386 (100.0)</t>
+          <t>maa://29768 (97.64), maa://27728 (96.19), maa://56386 (100.0)</t>
         </is>
       </c>
       <c r="I44" s="11" t="n"/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>maa://21229 (84.42), maa://30807 (93.51), maa://42459 (87.18)</t>
+          <t>maa://21229 (84.42), maa://30807 (93.51), maa://42459 (87.5)</t>
         </is>
       </c>
       <c r="I45" s="11" t="n"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.71), maa://43901 (94.74)</t>
+          <t>maa://35931 (92.71), maa://43901 (94.83)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="P49" s="14" t="inlineStr">
         <is>
-          <t>*maa://39643 (55.32)</t>
+          <t>*maa://39643 (56.25)</t>
         </is>
       </c>
       <c r="Q49" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (96.88), maa://59394 (93.75)</t>
+          <t>maa://59378 (96.88), maa://59394 (94.12)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.16)</t>
+          <t>maa://32534 (95.17)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
-          <t>maa://32532 (93.39)</t>
+          <t>maa://32532 (93.42)</t>
         </is>
       </c>
       <c r="I55" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.17 13:22:20</t>
+          <t>更新日期：2025.06.18 13:21:34</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="D37" s="20" t="inlineStr">
         <is>
-          <t>maa://27376 (91.49), maa://42635 (95.56), *maa://20838 (52.63)</t>
+          <t>maa://27376 (91.49), maa://42635 (95.65), *maa://20838 (52.63)</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="D42" s="20" t="inlineStr">
         <is>
-          <t>maa://20918 (95.24), maa://34883 (93.75), maa://20824 (100.0)</t>
+          <t>maa://20918 (95.45), maa://34883 (93.75), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.21), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.22), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="D72" s="20" t="inlineStr">
         <is>
-          <t>maa://36643 (98.24), maa://36864 (98.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.25), maa://36864 (98.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.18), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.66), maa://51881 (99.19), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="D122" s="20" t="inlineStr">
         <is>
-          <t>maa://29650 (98.31), maa://45570 (97.92)</t>
+          <t>maa://29650 (98.31), maa://45570 (98.0)</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.25), maa://35854 (85.39), maa://50388 (97.84), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.25), maa://35854 (85.56), maa://50388 (97.86), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="D210" s="20" t="inlineStr">
         <is>
-          <t>maa://28133 (92.86), **maa://39217 (41.18), maa://25369 (94.29)</t>
+          <t>maa://28133 (92.98), **maa://39217 (41.18), maa://25369 (94.29)</t>
         </is>
       </c>
       <c r="E210" s="21" t="inlineStr">
@@ -18740,7 +18740,7 @@
       </c>
       <c r="D219" s="20" t="inlineStr">
         <is>
-          <t>**maa://26496 (33.33), **maa://20995 (50.0)</t>
+          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
         </is>
       </c>
       <c r="E219" s="21" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="D244" s="20" t="inlineStr">
         <is>
-          <t>maa://20867 (93.33), maa://38485 (95.65), *maa://32202 (80.0)</t>
+          <t>maa://20867 (93.33), maa://38485 (95.83), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E244" s="21" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.7), maa://45570 (97.92), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.8), maa://45570 (98.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="D251" s="20" t="inlineStr">
         <is>
-          <t>maa://20923 (92.31)</t>
+          <t>maa://20923 (92.59)</t>
         </is>
       </c>
       <c r="E251" s="21" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.18), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.19), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="D277" s="20" t="inlineStr">
         <is>
-          <t>maa://28133 (92.86), maa://33394 (100.0)</t>
+          <t>maa://28133 (92.98), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E277" s="21" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="D292" s="20" t="inlineStr">
         <is>
-          <t>maa://25774 (97.14), maa://28133 (92.86), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://25774 (97.14), maa://28133 (92.98), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E292" s="21" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.56), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.58), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="D324" s="20" t="inlineStr">
         <is>
-          <t>maa://34867 (97.87), maa://34715 (100.0)</t>
+          <t>maa://34867 (97.96), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="21" t="inlineStr">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="D328" s="20" t="inlineStr">
         <is>
-          <t>maa://40956 (93.51)</t>
+          <t>maa://40956 (93.59)</t>
         </is>
       </c>
       <c r="E328" s="21" t="inlineStr">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="D332" s="22" t="inlineStr">
         <is>
-          <t>maa://44234 (99.04)</t>
+          <t>maa://44234 (99.05)</t>
         </is>
       </c>
       <c r="E332" s="22" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="D336" s="22" t="inlineStr">
         <is>
-          <t>maa://30671 (81.58), maa://30669 (99.23), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.15), maa://30669 (99.23), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="22" t="inlineStr">
@@ -26246,7 +26246,7 @@
       </c>
       <c r="D358" s="17" t="inlineStr">
         <is>
-          <t>maa://42635 (95.56), maa://50629 (100.0), maa://48859 (100.0)</t>
+          <t>maa://42635 (95.65), maa://50629 (100.0), maa://48859 (100.0)</t>
         </is>
       </c>
       <c r="E358" s="17" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.39), maa://44635 (87.74), maa://48026 (96.43), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
+          <t>maa://40957 (93.39), maa://44635 (87.74), maa://48026 (96.47), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="D369" s="17" t="inlineStr">
         <is>
-          <t>maa://41110 (98.35), maa://45605 (100.0)</t>
+          <t>maa://41110 (98.36), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E369" s="17" t="inlineStr">
@@ -27002,7 +27002,7 @@
       </c>
       <c r="D372" s="17" t="inlineStr">
         <is>
-          <t>maa://44233 (92.16), maa://45570 (97.92)</t>
+          <t>maa://44233 (92.31), maa://45570 (98.0)</t>
         </is>
       </c>
       <c r="E372" s="17" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.59), maa://44745 (98.2), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.59), maa://44745 (98.21), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.72), maa://51876 (98.78), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.73), maa://51876 (98.78), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (96.97), maa://59603 (100.0)</t>
+          <t>maa://59493 (97.12), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (94.87), *maa://34787 (73.91)</t>
+          <t>maa://39402 (94.92), *maa://34787 (73.91)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.63)</t>
+          <t>maa://22742 (91.67)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.74), maa://26254 (97.22)</t>
+          <t>maa://21249 (94.76), maa://26254 (97.22)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (91.11), maa://45854 (84.54)</t>
+          <t>maa://24617 (91.18), maa://45854 (83.67)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -913,7 +913,7 @@
       </c>
       <c r="X3" s="14" t="inlineStr">
         <is>
-          <t>maa://27396 (84.03), maa://27484 (96.32), maa://27480 (84.62)</t>
+          <t>maa://27396 (84.03), maa://27484 (96.35), maa://27480 (84.62)</t>
         </is>
       </c>
       <c r="Y3" s="11" t="n"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>maa://21245 (84.62), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (84.67), maa://22744 (82.14), maa://54105 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="11" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.18 13:21:34</t>
+          <t>更新日期：2025.06.19 13:20:55</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="X8" s="14" t="inlineStr">
         <is>
-          <t>maa://21411 (96.09)</t>
+          <t>maa://21411 (95.87)</t>
         </is>
       </c>
       <c r="Y8" s="11" t="n"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
-          <t>maa://27395 (96.77), maa://22755 (89.23)</t>
+          <t>maa://27395 (96.79), maa://22755 (89.23)</t>
         </is>
       </c>
       <c r="U10" s="11" t="n"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.21), maa://21478 (90.0)</t>
+          <t>maa://24304 (87.26), maa://21478 (90.0)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="P15" s="14" t="inlineStr">
         <is>
-          <t>maa://24762 (91.4), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.44), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="11" t="n"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.35), maa://36666 (82.1), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.35), maa://36666 (82.21), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.51), *maa://28648 (73.75), maa://36674 (80.65)</t>
+          <t>maa://22729 (94.51), *maa://28648 (74.07), maa://36674 (80.65)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.08)</t>
+          <t>maa://24570 (97.09)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>maa://22466 (92.16), maa://52226 (95.65)</t>
+          <t>maa://22466 (92.16), maa://52226 (95.83)</t>
         </is>
       </c>
       <c r="M18" s="11" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="AB19" s="14" t="inlineStr">
         <is>
-          <t>*maa://30709 (68.85), *maa://36668 (57.83)</t>
+          <t>*maa://30709 (68.98), *maa://36668 (57.83)</t>
         </is>
       </c>
       <c r="AC19" s="11" t="n"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H22" s="14" t="inlineStr">
         <is>
-          <t>maa://25236 (96.26)</t>
+          <t>maa://25236 (96.3)</t>
         </is>
       </c>
       <c r="I22" s="11" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="L22" s="14" t="inlineStr">
         <is>
-          <t>*maa://27127 (78.2), *maa://22751 (70.67)</t>
+          <t>*maa://27127 (77.61), *maa://22751 (70.67)</t>
         </is>
       </c>
       <c r="M22" s="11" t="n"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.73), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.8), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="AF25" s="14" t="inlineStr">
         <is>
-          <t>maa://20108 (95.92), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (95.95), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="27" t="n"/>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="T27" s="14" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.33)</t>
+          <t>*maa://30624 (77.63)</t>
         </is>
       </c>
       <c r="U27" s="11" t="n"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="AF28" s="14" t="inlineStr">
         <is>
-          <t>maa://36660 (92.58)</t>
+          <t>maa://36660 (92.59)</t>
         </is>
       </c>
       <c r="AG28" s="27" t="n"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.75), maa://36258 (87.95), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.77), maa://36258 (88.1), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.39)</t>
+          <t>maa://41296 (97.41)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="AF35" s="14" t="inlineStr">
         <is>
-          <t>maa://39479 (91.67)</t>
+          <t>maa://39479 (92.0)</t>
         </is>
       </c>
       <c r="AG35" s="27" t="n"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.13)</t>
+          <t>maa://36697 (89.16)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
-          <t>**maa://39364 (44.26)</t>
+          <t>**maa://39364 (43.55)</t>
         </is>
       </c>
       <c r="U45" s="11" t="n"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.71), maa://43901 (94.83)</t>
+          <t>maa://35931 (92.75), maa://43901 (94.83)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (96.88), maa://59394 (94.12)</t>
+          <t>maa://59378 (96.97), maa://59394 (94.74)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.17)</t>
+          <t>maa://32534 (95.18)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
-          <t>maa://32532 (93.42)</t>
+          <t>maa://32532 (93.44)</t>
         </is>
       </c>
       <c r="I55" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.18 13:21:34</t>
+          <t>更新日期：2025.06.19 13:20:55</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="D61" s="20" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.29), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="D71" s="20" t="inlineStr">
         <is>
-          <t>maa://20943 (99.38), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
+          <t>maa://20943 (99.39), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="D121" s="20" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (95.0)</t>
+          <t>maa://20869 (100.0), maa://44690 (95.45)</t>
         </is>
       </c>
       <c r="E121" s="21" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.39), maa://36865 (96.34), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.44), maa://36865 (96.34), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.25), maa://35854 (85.56), maa://50388 (97.86), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.27), maa://35854 (85.56), maa://50388 (97.87), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="D210" s="20" t="inlineStr">
         <is>
-          <t>maa://28133 (92.98), **maa://39217 (41.18), maa://25369 (94.29)</t>
+          <t>maa://28133 (92.98), **maa://39217 (41.18), maa://25369 (94.44)</t>
         </is>
       </c>
       <c r="E210" s="21" t="inlineStr">
@@ -18308,7 +18308,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.81), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (95.83), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="D244" s="20" t="inlineStr">
         <is>
-          <t>maa://20867 (93.33), maa://38485 (95.83), *maa://32202 (80.0)</t>
+          <t>maa://20867 (93.33), maa://38485 (96.0), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E244" s="21" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="D252" s="20" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.29), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E252" s="21" t="inlineStr">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D268" s="20" t="inlineStr">
         <is>
-          <t>maa://48265 (82.35)</t>
+          <t>*maa://48265 (77.78)</t>
         </is>
       </c>
       <c r="E268" s="21" t="inlineStr">
@@ -21440,7 +21440,7 @@
       </c>
       <c r="D269" s="20" t="inlineStr">
         <is>
-          <t>*maa://20825 (71.43), *maa://21445 (72.22), *maa://35726 (63.64), ***maa://20891 (30.0)</t>
+          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (63.64), ***maa://20891 (30.0)</t>
         </is>
       </c>
       <c r="E269" s="21" t="inlineStr">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="D324" s="20" t="inlineStr">
         <is>
-          <t>maa://34867 (97.96), maa://34715 (100.0)</t>
+          <t>maa://34867 (98.0), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="21" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="D351" s="17" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.67), **maa://39217 (41.18), maa://47349 (94.12)</t>
+          <t>maa://36868 (100.0), maa://35996 (97.67), **maa://39217 (41.18), maa://47349 (94.29)</t>
         </is>
       </c>
       <c r="E351" s="17" t="inlineStr">
@@ -25922,7 +25922,7 @@
       </c>
       <c r="D352" s="17" t="inlineStr">
         <is>
-          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://52357 (71.43), *maa://59402 (66.67)</t>
+          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (70.0), *maa://52357 (71.43)</t>
         </is>
       </c>
       <c r="E352" s="17" t="inlineStr">
@@ -26192,7 +26192,7 @@
       </c>
       <c r="D357" s="17" t="inlineStr">
         <is>
-          <t>maa://36645 (98.36), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
+          <t>maa://36645 (98.37), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
         </is>
       </c>
       <c r="E357" s="17" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.39), maa://44635 (87.74), maa://48026 (96.47), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
+          <t>maa://40957 (93.44), maa://44635 (87.74), maa://48026 (96.47), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.59), maa://44745 (98.21), **maa://49516 (42.11), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.27), maa://44745 (98.21), **maa://49516 (40.0), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.73), maa://51876 (98.78), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.73), maa://51876 (98.8), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (97.12), maa://59603 (100.0)</t>
+          <t>maa://59493 (97.2), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -730,12 +730,12 @@
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (94.92), *maa://34787 (73.91)</t>
+          <t>maa://39402 (94.96), *maa://34787 (73.91), *maa://58660 (80.0)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.67)</t>
+          <t>maa://22742 (91.71)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>maa://40192 (96.3), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.4), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="11" t="n"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="H3" s="14" t="inlineStr">
         <is>
-          <t>maa://21247 (98.47)</t>
+          <t>maa://21247 (98.48)</t>
         </is>
       </c>
       <c r="I3" s="11" t="n"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.76), maa://26254 (97.22)</t>
+          <t>maa://21249 (94.77), maa://26254 (97.22)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (91.18), maa://45854 (83.67)</t>
+          <t>maa://24617 (91.18), maa://45854 (83.84)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>maa://24632 (93.66), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.69), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="11" t="n"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.1), maa://50121 (95.0)</t>
+          <t>maa://49983 (96.1), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (93.94)</t>
+          <t>maa://43217 (93.98)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="AB4" s="14" t="inlineStr">
         <is>
-          <t>*maa://32658 (76.92)</t>
+          <t>*maa://32658 (77.78)</t>
         </is>
       </c>
       <c r="AC4" s="11" t="n"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>maa://42407 (95.06)</t>
+          <t>maa://42407 (92.77)</t>
         </is>
       </c>
       <c r="E6" s="11" t="n"/>
@@ -1478,7 +1478,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.19 13:20:55</t>
+          <t>更新日期：2025.06.21 13:21:26</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="P8" s="14" t="inlineStr">
         <is>
-          <t>maa://32931 (83.92), maa://23252 (91.67), maa://37496 (97.44)</t>
+          <t>maa://32931 (83.92), maa://23252 (91.67), maa://37496 (97.5)</t>
         </is>
       </c>
       <c r="Q8" s="11" t="n"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="X8" s="14" t="inlineStr">
         <is>
-          <t>maa://21411 (95.87)</t>
+          <t>maa://21411 (95.89)</t>
         </is>
       </c>
       <c r="Y8" s="11" t="n"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>maa://22762 (93.07), maa://39552 (83.33)</t>
+          <t>maa://22762 (93.14), maa://39552 (83.33)</t>
         </is>
       </c>
       <c r="M9" s="11" t="n"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
-          <t>maa://27395 (96.79), maa://22755 (89.23)</t>
+          <t>maa://27395 (96.8), maa://22755 (89.23)</t>
         </is>
       </c>
       <c r="U10" s="11" t="n"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="X13" s="14" t="inlineStr">
         <is>
-          <t>maa://34957 (83.93), **maa://22768 (50.0)</t>
+          <t>maa://34957 (84.07), **maa://22768 (50.0)</t>
         </is>
       </c>
       <c r="Y13" s="11" t="n"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.48), maa://26245 (96.72), maa://21288 (96.3), maa://36682 (95.92)</t>
+          <t>maa://39841 (94.51), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.0)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="P14" s="14" t="inlineStr">
         <is>
-          <t>maa://23250 (98.88), maa://20107 (87.1), maa://22772 (100.0)</t>
+          <t>maa://23250 (98.89), maa://20107 (87.1), maa://22772 (100.0)</t>
         </is>
       </c>
       <c r="Q14" s="11" t="n"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (79.01), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
+          <t>*maa://22743 (78.69), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.26), maa://21478 (90.0)</t>
+          <t>maa://24304 (87.36), maa://21478 (90.0)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.35), maa://36666 (82.21), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.4), maa://36666 (82.21), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="AB16" s="14" t="inlineStr">
         <is>
-          <t>maa://26228 (95.61)</t>
+          <t>maa://26228 (95.65)</t>
         </is>
       </c>
       <c r="AC16" s="11" t="n"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="T17" s="14" t="inlineStr">
         <is>
-          <t>*maa://42324 (58.0)</t>
+          <t>*maa://42324 (58.82)</t>
         </is>
       </c>
       <c r="U17" s="11" t="n"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.09)</t>
+          <t>maa://24570 (97.1)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>maa://22466 (92.16), maa://52226 (95.83)</t>
+          <t>maa://22466 (92.2), maa://52226 (95.83)</t>
         </is>
       </c>
       <c r="M18" s="11" t="n"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>maa://21432 (90.73), maa://25198 (93.89), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.78), maa://25198 (93.89), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="11" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>maa://41331 (86.27)</t>
+          <t>maa://41331 (86.33)</t>
         </is>
       </c>
       <c r="M20" s="11" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.59), maa://49976 (86.59), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.59), maa://49976 (86.75), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.84), maa://22432 (83.33)</t>
+          <t>maa://22524 (88.49), maa://22432 (83.33)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.78), maa://39875 (94.94)</t>
+          <t>maa://39756 (95.8), maa://39875 (94.94)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="X23" s="14" t="inlineStr">
         <is>
-          <t>*maa://28503 (64.58)</t>
+          <t>*maa://28503 (63.92)</t>
         </is>
       </c>
       <c r="Y23" s="11" t="n"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.23), *maa://46650 (59.38)</t>
+          <t>*maa://24368 (79.33), *maa://46650 (59.38)</t>
         </is>
       </c>
       <c r="E24" s="11" t="n"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (84.92), maa://23504 (93.72), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (84.97), maa://23504 (93.74), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="AF28" s="14" t="inlineStr">
         <is>
-          <t>maa://36660 (92.59)</t>
+          <t>maa://36660 (92.61)</t>
         </is>
       </c>
       <c r="AG28" s="27" t="n"/>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>maa://31694 (98.36)</t>
+          <t>maa://31694 (98.39)</t>
         </is>
       </c>
       <c r="E29" s="11" t="n"/>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.07), maa://31400 (98.89), maa://28440 (84.17), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.07), maa://31400 (98.9), maa://28440 (84.4), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AF29" s="14" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.17), maa://42865 (80.7)</t>
+          <t>*maa://24080 (69.17), maa://42865 (81.03)</t>
         </is>
       </c>
       <c r="AG29" s="27" t="n"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AB30" s="14" t="inlineStr">
         <is>
-          <t>maa://42979 (97.12), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.13), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="11" t="n"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.77), maa://36258 (88.1), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.79), maa://36258 (88.17), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.65), maa://36667 (97.32), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.67), maa://36667 (97.32), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>maa://28065 (96.0)</t>
+          <t>maa://28065 (96.08)</t>
         </is>
       </c>
       <c r="M32" s="11" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.03), maa://41108 (86.27), maa://41238 (98.01), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.03), maa://41108 (86.27), maa://41238 (98.03), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.41)</t>
+          <t>maa://41296 (97.42)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.16)</t>
+          <t>maa://36697 (89.2)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>maa://36670 (89.66), maa://25199 (85.34), maa://30434 (93.18), *maa://45059 (79.41)</t>
+          <t>maa://36670 (89.66), maa://25199 (85.34), maa://30434 (93.23), *maa://45059 (79.41)</t>
         </is>
       </c>
       <c r="I39" s="11" t="n"/>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H44" s="14" t="inlineStr">
         <is>
-          <t>maa://29768 (97.64), maa://27728 (96.19), maa://56386 (100.0)</t>
+          <t>maa://29768 (97.66), maa://27728 (96.19), maa://56386 (100.0)</t>
         </is>
       </c>
       <c r="I44" s="11" t="n"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.75), maa://43901 (94.83)</t>
+          <t>maa://35931 (92.76), maa://43901 (94.83)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (96.97), maa://59394 (94.74)</t>
+          <t>maa://59378 (97.14), maa://59394 (95.45)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.18)</t>
+          <t>maa://32534 (95.19)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
-          <t>maa://32532 (93.44)</t>
+          <t>maa://32532 (93.49)</t>
         </is>
       </c>
       <c r="I55" s="11" t="n"/>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H58" s="14" t="inlineStr">
         <is>
-          <t>*maa://37964 (56.14)</t>
+          <t>*maa://37964 (55.17)</t>
         </is>
       </c>
       <c r="I58" s="11" t="n"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (97.73), maa://59693 (100.0), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.83), maa://59693 (100.0), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6968,7 +6968,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.19 13:20:55</t>
+          <t>更新日期：2025.06.21 13:21:26</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="D33" s="20" t="inlineStr">
         <is>
-          <t>maa://30500 (98.88), *maa://27290 (70.59), ***maa://42154 (8.33)</t>
+          <t>maa://30500 (98.89), *maa://27290 (70.59), ***maa://42154 (8.33)</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="D39" s="20" t="inlineStr">
         <is>
-          <t>*maa://29012 (80.0), maa://20928 (100.0)</t>
+          <t>maa://29012 (83.33), maa://20928 (100.0)</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="D43" s="20" t="inlineStr">
         <is>
-          <t>maa://20889 (90.91)</t>
+          <t>maa://20889 (91.67)</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="D46" s="20" t="inlineStr">
         <is>
-          <t>maa://39025 (85.71)</t>
+          <t>maa://39025 (87.5)</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="D53" s="20" t="inlineStr">
         <is>
-          <t>maa://20953 (95.83), maa://31173 (96.15)</t>
+          <t>maa://20953 (96.0), maa://31173 (96.3)</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="D61" s="20" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="D63" s="20" t="inlineStr">
         <is>
-          <t>*maa://20845 (68.0), maa://38727 (87.5)</t>
+          <t>*maa://20845 (68.0), maa://38727 (88.89)</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="D69" s="20" t="inlineStr">
         <is>
-          <t>maa://20974 (96.43), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.33), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.43), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="D103" s="20" t="inlineStr">
         <is>
-          <t>*maa://29094 (71.11), maa://28904 (88.57), **maa://20931 (44.83)</t>
+          <t>*maa://29094 (71.74), maa://28904 (88.57), **maa://20931 (44.83)</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.19), maa://25776 (92.11), maa://28361 (97.37), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.66), maa://51881 (99.2), maa://25776 (92.11), maa://28361 (97.44), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="D111" s="20" t="inlineStr">
         <is>
-          <t>*maa://28554 (79.17)</t>
+          <t>*maa://28554 (80.0)</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="D130" s="20" t="inlineStr">
         <is>
-          <t>maa://21422 (99.09)</t>
+          <t>maa://21422 (99.1)</t>
         </is>
       </c>
       <c r="E130" s="21" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="D133" s="20" t="inlineStr">
         <is>
-          <t>maa://29023 (100.0), maa://39515 (90.91)</t>
+          <t>maa://29023 (100.0), maa://39515 (91.67)</t>
         </is>
       </c>
       <c r="E133" s="21" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="D148" s="20" t="inlineStr">
         <is>
-          <t>maa://28828 (88.24), maa://20846 (95.83), **maa://47286 (50.0)</t>
+          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (66.67)</t>
         </is>
       </c>
       <c r="E148" s="21" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.44), maa://36865 (96.34), maa://44635 (87.74), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.6), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="D159" s="20" t="inlineStr">
         <is>
-          <t>maa://44232 (98.57), maa://45603 (90.62), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.58), maa://45603 (90.62), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E159" s="21" t="inlineStr">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="D161" s="20" t="inlineStr">
         <is>
-          <t>maa://20855 (93.33)</t>
+          <t>maa://20855 (93.75)</t>
         </is>
       </c>
       <c r="E161" s="21" t="inlineStr">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="D168" s="20" t="inlineStr">
         <is>
-          <t>maa://49867 (90.32), maa://49655 (96.3)</t>
+          <t>maa://49867 (90.62), maa://49655 (96.3)</t>
         </is>
       </c>
       <c r="E168" s="21" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="D179" s="20" t="inlineStr">
         <is>
-          <t>maa://20911 (95.65), *maa://29012 (80.0)</t>
+          <t>maa://20911 (95.65), maa://29012 (83.33)</t>
         </is>
       </c>
       <c r="E179" s="21" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.27), maa://35854 (85.56), maa://50388 (97.87), maa://25760 (86.84), ***maa://43911 (13.64), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.27), maa://35854 (85.71), maa://50388 (97.89), maa://25760 (86.84), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="D201" s="20" t="inlineStr">
         <is>
-          <t>maa://42223 (99.6), maa://49077 (94.29), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.6), maa://49077 (94.44), maa://42292 (97.22), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E201" s="21" t="inlineStr">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="D212" s="20" t="inlineStr">
         <is>
-          <t>*maa://20955 (79.49)</t>
+          <t>*maa://20955 (80.0)</t>
         </is>
       </c>
       <c r="E212" s="21" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="D213" s="20" t="inlineStr">
         <is>
-          <t>maa://39238 (99.49)</t>
+          <t>maa://39238 (99.5)</t>
         </is>
       </c>
       <c r="E213" s="21" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="D227" s="20" t="inlineStr">
         <is>
-          <t>maa://20987 (93.62), *maa://35801 (77.78)</t>
+          <t>maa://20987 (93.68), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E227" s="21" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="D228" s="20" t="inlineStr">
         <is>
-          <t>*maa://29644 (73.91), maa://39159 (96.55), ***maa://30061 (30.0)</t>
+          <t>*maa://29644 (74.47), maa://39159 (96.55), ***maa://30061 (30.0)</t>
         </is>
       </c>
       <c r="E228" s="21" t="inlineStr">
@@ -19442,7 +19442,7 @@
       </c>
       <c r="D232" s="20" t="inlineStr">
         <is>
-          <t>*maa://48263 (77.78)</t>
+          <t>*maa://48263 (73.68)</t>
         </is>
       </c>
       <c r="E232" s="21" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="D240" s="20" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.68), maa://30666 (83.41), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.89)</t>
+          <t>*maa://30667 (78.68), maa://30666 (83.48), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.89)</t>
         </is>
       </c>
       <c r="E240" s="21" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="D248" s="20" t="inlineStr">
         <is>
-          <t>maa://28923 (92.19), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (92.23), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E248" s="21" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="D252" s="20" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E252" s="21" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.19), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.2), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="D286" s="20" t="inlineStr">
         <is>
-          <t>maa://20899 (89.41), maa://46332 (94.74), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.41), maa://46332 (95.0), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E286" s="21" t="inlineStr">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="D289" s="20" t="inlineStr">
         <is>
-          <t>maa://30710 (97.87), maa://36845 (95.62), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://30710 (97.87), maa://36845 (95.65), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E289" s="21" t="inlineStr">
@@ -22790,7 +22790,7 @@
       </c>
       <c r="D294" s="20" t="inlineStr">
         <is>
-          <t>maa://32414 (98.78), maa://32505 (100.0), maa://39155 (97.44)</t>
+          <t>maa://32414 (98.79), maa://32505 (100.0), maa://39155 (97.44)</t>
         </is>
       </c>
       <c r="E294" s="21" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.58), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.61), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="D328" s="20" t="inlineStr">
         <is>
-          <t>maa://40956 (93.59)</t>
+          <t>maa://40956 (93.67)</t>
         </is>
       </c>
       <c r="E328" s="21" t="inlineStr">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="D332" s="22" t="inlineStr">
         <is>
-          <t>maa://44234 (99.05)</t>
+          <t>maa://44234 (99.06)</t>
         </is>
       </c>
       <c r="E332" s="22" t="inlineStr">
@@ -24950,7 +24950,7 @@
       </c>
       <c r="D334" s="22" t="inlineStr">
         <is>
-          <t>*maa://40162 (66.67)</t>
+          <t>*maa://40162 (71.43)</t>
         </is>
       </c>
       <c r="E334" s="22" t="inlineStr">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="D351" s="17" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.67), **maa://39217 (41.18), maa://47349 (94.29)</t>
+          <t>maa://36868 (100.0), maa://35996 (97.7), **maa://39217 (41.18), maa://47349 (94.29)</t>
         </is>
       </c>
       <c r="E351" s="17" t="inlineStr">
@@ -25922,7 +25922,7 @@
       </c>
       <c r="D352" s="17" t="inlineStr">
         <is>
-          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (70.0), *maa://52357 (71.43)</t>
+          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (66.67), *maa://52357 (75.0)</t>
         </is>
       </c>
       <c r="E352" s="17" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="D356" s="17" t="inlineStr">
         <is>
-          <t>maa://36646 (98.8), maa://36845 (95.62), **maa://39217 (41.18), maa://51007 (98.18)</t>
+          <t>maa://36646 (98.8), maa://36845 (95.65), **maa://39217 (41.18), maa://51007 (98.18)</t>
         </is>
       </c>
       <c r="E356" s="17" t="inlineStr">
@@ -26403,12 +26403,12 @@
       </c>
       <c r="C361" s="19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.44), maa://44635 (87.74), maa://48026 (96.47), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78)</t>
+          <t>maa://40957 (93.6), maa://44635 (87.85), maa://48026 (95.65), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.27), maa://44745 (98.21), **maa://49516 (40.0), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.33), maa://44745 (98.23), **maa://49516 (40.0), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -27974,7 +27974,7 @@
       </c>
       <c r="D390" s="17" t="inlineStr">
         <is>
-          <t>maa://51880 (99.22), maa://51878 (100.0), maa://56651 (100.0)</t>
+          <t>maa://51880 (99.23), maa://51878 (100.0), maa://56651 (100.0)</t>
         </is>
       </c>
       <c r="E390" s="17" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.73), maa://51876 (98.8), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.75), maa://51876 (98.81), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
@@ -28077,12 +28077,12 @@
       </c>
       <c r="C392" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (97.2), maa://59603 (100.0)</t>
+          <t>maa://59493 (96.49), maa://59603 (100.0), maa://60449 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -87,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +706,7 @@
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>maa://25390 (95.48), maa://24702 (94.84), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.52), maa://24702 (94.87), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="11" t="n"/>
@@ -735,7 +738,7 @@
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (94.96), *maa://34787 (73.91), *maa://58660 (80.0)</t>
+          <t>maa://39402 (95.0), *maa://34787 (73.91), maa://58660 (83.33)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -767,7 +770,7 @@
       </c>
       <c r="T2" s="14" t="inlineStr">
         <is>
-          <t>maa://22742 (91.71)</t>
+          <t>maa://22742 (91.74)</t>
         </is>
       </c>
       <c r="U2" s="11" t="n"/>
@@ -799,7 +802,7 @@
       </c>
       <c r="AB2" s="14" t="inlineStr">
         <is>
-          <t>maa://21246 (91.48), maa://36684 (93.21)</t>
+          <t>maa://21246 (91.48), maa://36684 (93.25)</t>
         </is>
       </c>
       <c r="AC2" s="11" t="n"/>
@@ -815,7 +818,7 @@
       </c>
       <c r="AF2" s="14" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (100.0)</t>
+          <t>maa://25251 (91.91), maa://59087 (92.31)</t>
         </is>
       </c>
       <c r="AG2" s="27" t="n"/>
@@ -865,7 +868,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.38), maa://20276 (88.63), *maa://22749 (77.78)</t>
+          <t>*maa://22880 (66.1), maa://20276 (88.68), *maa://22749 (77.78)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -881,7 +884,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.77), maa://26254 (97.22)</t>
+          <t>maa://21249 (94.77), maa://26254 (97.3)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -892,12 +895,12 @@
       </c>
       <c r="S3" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="14" t="inlineStr">
         <is>
-          <t>maa://24617 (91.18), maa://45854 (83.84)</t>
+          <t>maa://24617 (91.18), maa://45854 (83.0), maa://60545 (100.0)</t>
         </is>
       </c>
       <c r="U3" s="11" t="n"/>
@@ -929,7 +932,7 @@
       </c>
       <c r="AB3" s="14" t="inlineStr">
         <is>
-          <t>maa://24390 (95.7), maa://52241 (100.0)</t>
+          <t>maa://24390 (95.7), maa://52241 (91.67)</t>
         </is>
       </c>
       <c r="AC3" s="11" t="n"/>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.1), maa://50121 (95.12)</t>
+          <t>maa://49983 (96.2), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1027,7 +1030,7 @@
       </c>
       <c r="T4" s="14" t="inlineStr">
         <is>
-          <t>maa://32509 (94.03), maa://27295 (88.42), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.03), maa://27295 (88.54), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="11" t="n"/>
@@ -1043,7 +1046,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (93.98)</t>
+          <t>maa://43217 (94.03)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>maa://21245 (84.67), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (84.43), maa://22744 (82.14), maa://54105 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="11" t="n"/>
@@ -1390,7 +1393,7 @@
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
-          <t>maa://28624 (93.96), maa://24957 (97.78)</t>
+          <t>maa://28624 (94.04), maa://24957 (97.78)</t>
         </is>
       </c>
       <c r="M7" s="11" t="n"/>
@@ -1438,7 +1441,7 @@
       </c>
       <c r="X7" s="14" t="inlineStr">
         <is>
-          <t>maa://22399 (96.2), *maa://22758 (77.5)</t>
+          <t>maa://22399 (96.22), *maa://22758 (77.5)</t>
         </is>
       </c>
       <c r="Y7" s="11" t="n"/>
@@ -1478,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.21 13:21:26</t>
+          <t>更新日期：2025.06.23 13:23:39</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1541,7 +1544,7 @@
       </c>
       <c r="P8" s="14" t="inlineStr">
         <is>
-          <t>maa://32931 (83.92), maa://23252 (91.67), maa://37496 (97.5)</t>
+          <t>maa://32931 (83.92), maa://23252 (91.67), maa://37496 (97.56)</t>
         </is>
       </c>
       <c r="Q8" s="11" t="n"/>
@@ -1573,7 +1576,7 @@
       </c>
       <c r="X8" s="14" t="inlineStr">
         <is>
-          <t>maa://21411 (95.89)</t>
+          <t>maa://21411 (95.69)</t>
         </is>
       </c>
       <c r="Y8" s="11" t="n"/>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="AB9" s="14" t="inlineStr">
         <is>
-          <t>maa://28711 (87.41), maa://40166 (93.88)</t>
+          <t>maa://28711 (87.5), maa://40166 (93.88)</t>
         </is>
       </c>
       <c r="AC9" s="11" t="n"/>
@@ -1735,7 +1738,7 @@
       </c>
       <c r="AF9" s="14" t="inlineStr">
         <is>
-          <t>maa://26206 (89.33), *maa://22865 (53.57)</t>
+          <t>maa://26206 (89.33), *maa://22865 (52.63)</t>
         </is>
       </c>
       <c r="AG9" s="27" t="n"/>
@@ -1753,7 +1756,7 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.54), ***maa://39951 (11.69), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (33.33)</t>
+          <t>***maa://25695 (18.54), ***maa://39951 (11.69), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="11" t="n"/>
@@ -1817,7 +1820,7 @@
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
-          <t>maa://27395 (96.8), maa://22755 (89.23)</t>
+          <t>maa://27395 (96.81), maa://22755 (89.31)</t>
         </is>
       </c>
       <c r="U10" s="11" t="n"/>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="X10" s="14" t="inlineStr">
         <is>
-          <t>maa://22301 (97.93), maa://45828 (93.48), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.93), maa://45828 (93.75), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="11" t="n"/>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>maa://36707 (99.39)</t>
+          <t>maa://36707 (99.4)</t>
         </is>
       </c>
       <c r="E11" s="11" t="n"/>
@@ -1947,7 +1950,7 @@
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
-          <t>maa://22747 (90.45), maa://22501 (98.25), maa://45521 (91.67)</t>
+          <t>maa://22747 (90.45), maa://22501 (98.26), maa://45521 (91.67)</t>
         </is>
       </c>
       <c r="U11" s="11" t="n"/>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="AB11" s="14" t="inlineStr">
         <is>
-          <t>maa://29912 (97.85), maa://22516 (87.36)</t>
+          <t>maa://29912 (97.87), maa://22516 (87.36)</t>
         </is>
       </c>
       <c r="AC11" s="11" t="n"/>
@@ -2093,7 +2096,7 @@
       </c>
       <c r="X12" s="14" t="inlineStr">
         <is>
-          <t>maa://22753 (91.98), *maa://21485 (76.0), maa://37962 (92.96)</t>
+          <t>maa://22753 (92.02), *maa://21485 (76.0), maa://37962 (92.96)</t>
         </is>
       </c>
       <c r="Y12" s="11" t="n"/>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="AB12" s="14" t="inlineStr">
         <is>
-          <t>maa://23669 (95.68), maa://36677 (95.4), maa://39872 (93.1)</t>
+          <t>maa://23669 (95.68), maa://36677 (95.45), maa://39872 (93.1)</t>
         </is>
       </c>
       <c r="AC12" s="11" t="n"/>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.11), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.2), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="11" t="n"/>
@@ -2223,7 +2226,7 @@
       </c>
       <c r="X13" s="14" t="inlineStr">
         <is>
-          <t>maa://34957 (84.07), **maa://22768 (50.0)</t>
+          <t>maa://34957 (84.21), **maa://22768 (50.0)</t>
         </is>
       </c>
       <c r="Y13" s="11" t="n"/>
@@ -2305,7 +2308,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.51), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.0)</t>
+          <t>maa://39841 (94.51), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.08)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2337,7 +2340,7 @@
       </c>
       <c r="T14" s="14" t="inlineStr">
         <is>
-          <t>maa://22521 (94.92), maa://42751 (100.0)</t>
+          <t>maa://22521 (94.92), maa://42751 (96.0)</t>
         </is>
       </c>
       <c r="U14" s="11" t="n"/>
@@ -2369,7 +2372,7 @@
       </c>
       <c r="AB14" s="14" t="inlineStr">
         <is>
-          <t>maa://22764 (96.43)</t>
+          <t>maa://22764 (96.47)</t>
         </is>
       </c>
       <c r="AC14" s="11" t="n"/>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.69), maa://22734 (84.55), *maa://30808 (65.28), *maa://36048 (69.64), maa://45058 (85.0)</t>
+          <t>*maa://22743 (78.78), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.91), maa://45058 (85.0)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="P15" s="14" t="inlineStr">
         <is>
-          <t>maa://24762 (91.44), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.53), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="11" t="n"/>
@@ -2515,7 +2518,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.4), maa://36666 (82.21), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.45), maa://36666 (82.21), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>maa://21441 (96.54), maa://37650 (96.49), maa://36679 (94.55)</t>
+          <t>maa://21441 (96.54), maa://37650 (96.55), maa://36679 (94.55)</t>
         </is>
       </c>
       <c r="E16" s="11" t="n"/>
@@ -2597,7 +2600,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.51), *maa://28648 (74.07), maa://36674 (80.65)</t>
+          <t>maa://22729 (94.54), *maa://28648 (74.39), maa://36674 (80.65)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2679,7 +2682,7 @@
       </c>
       <c r="H17" s="14" t="inlineStr">
         <is>
-          <t>maa://22430 (89.72), maa://39599 (86.9)</t>
+          <t>maa://22430 (89.77), maa://39599 (86.9)</t>
         </is>
       </c>
       <c r="I17" s="11" t="n"/>
@@ -2711,7 +2714,7 @@
       </c>
       <c r="P17" s="14" t="inlineStr">
         <is>
-          <t>maa://23890 (81.08), maa://56238 (100.0)</t>
+          <t>maa://23890 (81.25), maa://56238 (100.0)</t>
         </is>
       </c>
       <c r="Q17" s="11" t="n"/>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.1)</t>
+          <t>maa://24570 (97.11)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2809,7 +2812,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (86.93)</t>
+          <t>maa://24421 (86.97)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -2825,7 +2828,7 @@
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>maa://22466 (92.2), maa://52226 (95.83)</t>
+          <t>maa://22466 (92.23), maa://52226 (95.83)</t>
         </is>
       </c>
       <c r="M18" s="11" t="n"/>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="AB18" s="14" t="inlineStr">
         <is>
-          <t>maa://24393 (98.21)</t>
+          <t>maa://24393 (98.25)</t>
         </is>
       </c>
       <c r="AC18" s="11" t="n"/>
@@ -2905,7 +2908,7 @@
       </c>
       <c r="AF18" s="14" t="inlineStr">
         <is>
-          <t>*maa://24313 (59.88), **maa://29784 (50.0), maa://47854 (81.25)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), maa://47854 (82.35)</t>
         </is>
       </c>
       <c r="AG18" s="27" t="n"/>
@@ -3053,7 +3056,7 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>maa://21432 (90.78), maa://25198 (93.89), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.82), maa://25198 (93.94), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="11" t="n"/>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="H20" s="14" t="inlineStr">
         <is>
-          <t>maa://22864 (90.43)</t>
+          <t>maa://22864 (90.48)</t>
         </is>
       </c>
       <c r="I20" s="11" t="n"/>
@@ -3133,7 +3136,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.59), maa://49976 (86.75), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.74), maa://49976 (86.75), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.85)</t>
+          <t>maa://21443 (82.93)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3295,7 +3298,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.49), maa://22432 (83.33)</t>
+          <t>maa://22524 (88.14), maa://22432 (83.58)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3329,7 +3332,7 @@
       </c>
       <c r="H22" s="14" t="inlineStr">
         <is>
-          <t>maa://25236 (96.3)</t>
+          <t>maa://25236 (96.33)</t>
         </is>
       </c>
       <c r="I22" s="11" t="n"/>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="L22" s="14" t="inlineStr">
         <is>
-          <t>*maa://27127 (77.61), *maa://22751 (70.67)</t>
+          <t>*maa://27127 (77.78), *maa://22751 (70.67)</t>
         </is>
       </c>
       <c r="M22" s="11" t="n"/>
@@ -3443,7 +3446,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.4), **maa://41753 (50.0)</t>
+          <t>***maa://28036 (28.4), **maa://41753 (48.28)</t>
         </is>
       </c>
       <c r="E23" s="11" t="n"/>
@@ -3475,7 +3478,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.8), maa://39875 (94.94)</t>
+          <t>maa://39756 (95.63), maa://39875 (93.75)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3523,7 +3526,7 @@
       </c>
       <c r="X23" s="14" t="inlineStr">
         <is>
-          <t>*maa://28503 (63.92)</t>
+          <t>*maa://28503 (63.64)</t>
         </is>
       </c>
       <c r="Y23" s="11" t="n"/>
@@ -3653,7 +3656,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (84.97), maa://23504 (93.74), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (100.0)</t>
+          <t>maa://29988 (84.97), maa://23504 (93.75), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (95.24)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3767,7 +3770,7 @@
       </c>
       <c r="T25" s="14" t="inlineStr">
         <is>
-          <t>maa://20109 (92.63), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.67), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="11" t="n"/>
@@ -3799,7 +3802,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.8), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.86), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -3815,7 +3818,7 @@
       </c>
       <c r="AF25" s="14" t="inlineStr">
         <is>
-          <t>maa://20108 (95.95), maa://24621 (97.18), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (95.95), maa://24621 (97.2), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="27" t="n"/>
@@ -3929,7 +3932,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.13)</t>
+          <t>maa://42235 (96.15)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="AF26" s="14" t="inlineStr">
         <is>
-          <t>*maa://30511 (75.47), *maa://29760 (52.94)</t>
+          <t>*maa://30511 (74.07), **maa://29760 (50.0)</t>
         </is>
       </c>
       <c r="AG26" s="27" t="n"/>
@@ -4075,7 +4078,7 @@
       </c>
       <c r="AF27" s="14" t="inlineStr">
         <is>
-          <t>maa://24023 (96.2)</t>
+          <t>maa://24023 (96.25)</t>
         </is>
       </c>
       <c r="AG27" s="27" t="n"/>
@@ -4093,7 +4096,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>maa://24465 (90.68), maa://25725 (82.83)</t>
+          <t>maa://24465 (90.71), maa://25725 (82.83)</t>
         </is>
       </c>
       <c r="E28" s="11" t="n"/>
@@ -4173,7 +4176,7 @@
       </c>
       <c r="X28" s="14" t="inlineStr">
         <is>
-          <t>maa://39929 (91.98), maa://41749 (92.31)</t>
+          <t>maa://39929 (92.0), maa://41749 (92.36)</t>
         </is>
       </c>
       <c r="Y28" s="11" t="n"/>
@@ -4205,7 +4208,7 @@
       </c>
       <c r="AF28" s="14" t="inlineStr">
         <is>
-          <t>maa://36660 (92.61)</t>
+          <t>maa://36660 (92.64)</t>
         </is>
       </c>
       <c r="AG28" s="27" t="n"/>
@@ -4223,7 +4226,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>maa://31694 (98.39)</t>
+          <t>maa://31694 (98.41)</t>
         </is>
       </c>
       <c r="E29" s="11" t="n"/>
@@ -4255,7 +4258,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.07), maa://31400 (98.9), maa://28440 (84.4), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.12), maa://31400 (98.9), maa://28440 (84.51), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4449,7 +4452,7 @@
       </c>
       <c r="AB30" s="14" t="inlineStr">
         <is>
-          <t>maa://42979 (97.13), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.15), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="11" t="n"/>
@@ -4515,7 +4518,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.79), maa://36258 (88.17), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.79), maa://36258 (88.24), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -4629,7 +4632,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.67), maa://36667 (97.32), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.67), maa://36667 (97.35), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.03), maa://41108 (86.27), maa://41238 (98.03), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.06), maa://41108 (86.27), maa://41238 (98.04), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="P33" s="14" t="inlineStr">
         <is>
-          <t>maa://21956 (81.71), *maa://22730 (71.88)</t>
+          <t>maa://21956 (81.33), *maa://22730 (71.88)</t>
         </is>
       </c>
       <c r="Q33" s="11" t="n"/>
@@ -4921,7 +4924,7 @@
       </c>
       <c r="P34" s="14" t="inlineStr">
         <is>
-          <t>maa://48817 (96.92), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.01), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="11" t="n"/>
@@ -4937,7 +4940,7 @@
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
-          <t>maa://24526 (92.42)</t>
+          <t>maa://24526 (92.45)</t>
         </is>
       </c>
       <c r="U34" s="11" t="n"/>
@@ -5035,7 +5038,7 @@
       </c>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>maa://41296 (97.42)</t>
+          <t>maa://41296 (97.44)</t>
         </is>
       </c>
       <c r="M35" s="11" t="n"/>
@@ -5279,7 +5282,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.46), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.48), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5295,7 +5298,7 @@
       </c>
       <c r="P37" s="14" t="inlineStr">
         <is>
-          <t>maa://21280 (89.66), *maa://21239 (71.43)</t>
+          <t>maa://21280 (89.7), *maa://21239 (71.43)</t>
         </is>
       </c>
       <c r="Q37" s="11" t="n"/>
@@ -5444,7 +5447,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.2)</t>
+          <t>maa://36697 (89.23)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5465,7 +5468,7 @@
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>maa://36670 (89.66), maa://25199 (85.34), maa://30434 (93.23), *maa://45059 (79.41)</t>
+          <t>maa://36670 (88.89), maa://25199 (85.47), maa://30434 (93.38), *maa://45059 (77.14)</t>
         </is>
       </c>
       <c r="I39" s="11" t="n"/>
@@ -5513,7 +5516,7 @@
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
-          <t>maa://47079 (95.05), *maa://45788 (71.9), maa://45790 (82.76)</t>
+          <t>maa://47079 (95.15), *maa://45788 (71.9), maa://45790 (82.76)</t>
         </is>
       </c>
       <c r="U39" s="11" t="n"/>
@@ -5837,7 +5840,7 @@
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>maa://22525 (84.24), maa://21284 (87.27)</t>
+          <t>maa://22525 (83.83), maa://21284 (87.27)</t>
         </is>
       </c>
       <c r="I43" s="11" t="n"/>
@@ -5991,7 +5994,7 @@
       </c>
       <c r="H45" s="14" t="inlineStr">
         <is>
-          <t>maa://21229 (84.42), maa://30807 (93.51), maa://42459 (87.5)</t>
+          <t>maa://21229 (84.58), maa://30807 (93.51), maa://42459 (87.8)</t>
         </is>
       </c>
       <c r="I45" s="11" t="n"/>
@@ -6023,7 +6026,7 @@
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
-          <t>**maa://39364 (43.55)</t>
+          <t>**maa://39364 (42.86)</t>
         </is>
       </c>
       <c r="U45" s="11" t="n"/>
@@ -6060,7 +6063,7 @@
       </c>
       <c r="H46" s="14" t="inlineStr">
         <is>
-          <t>maa://35931 (92.76), maa://43901 (94.83)</t>
+          <t>maa://35931 (92.54), maa://43901 (95.0)</t>
         </is>
       </c>
       <c r="I46" s="11" t="n"/>
@@ -6129,7 +6132,7 @@
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>maa://27410 (96.88), maa://29661 (97.65), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (96.89), maa://29661 (97.65), maa://28038 (84.62), maa://56236 (100.0)</t>
         </is>
       </c>
       <c r="I47" s="11" t="n"/>
@@ -6404,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.14), maa://59394 (95.45)</t>
+          <t>maa://59378 (97.37), maa://59394 (96.15)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6438,7 +6441,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.19)</t>
+          <t>maa://32534 (95.2)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6522,7 +6525,7 @@
       </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
-          <t>maa://32532 (93.49)</t>
+          <t>maa://32532 (93.52)</t>
         </is>
       </c>
       <c r="I55" s="11" t="n"/>
@@ -6594,7 +6597,7 @@
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
-          <t>maa://31270 (94.77), maa://27746 (82.91)</t>
+          <t>maa://31270 (94.81), maa://27746 (82.91)</t>
         </is>
       </c>
       <c r="I59" s="11" t="n"/>
@@ -6612,7 +6615,7 @@
       </c>
       <c r="H60" s="14" t="inlineStr">
         <is>
-          <t>*maa://40438 (75.0)</t>
+          <t>*maa://40438 (75.31)</t>
         </is>
       </c>
       <c r="I60" s="11" t="n"/>
@@ -6661,12 +6664,12 @@
       </c>
       <c r="G63" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (97.83), maa://59693 (100.0), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.11), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6922,7 +6925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF392"/>
+  <dimension ref="A1:AF394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -6968,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.21 13:21:26</t>
+          <t>更新日期：2025.06.23 13:23:39</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8642,7 +8645,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.42), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.48), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -9938,7 +9941,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.22), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.24), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -10802,7 +10805,7 @@
       </c>
       <c r="D72" s="20" t="inlineStr">
         <is>
-          <t>maa://36643 (98.25), maa://36864 (98.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.26), maa://36864 (98.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
@@ -12746,7 +12749,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.2), maa://25776 (92.11), maa://28361 (97.44), maa://25772 (94.12), maa://56588 (94.44), maa://45194 (87.5), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.66), maa://51881 (99.2), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13178,7 +13181,7 @@
       </c>
       <c r="D116" s="20" t="inlineStr">
         <is>
-          <t>maa://29659 (85.29), maa://29031 (89.19)</t>
+          <t>maa://29659 (85.71), maa://29031 (89.19)</t>
         </is>
       </c>
       <c r="E116" s="21" t="inlineStr">
@@ -13502,7 +13505,7 @@
       </c>
       <c r="D122" s="20" t="inlineStr">
         <is>
-          <t>maa://29650 (98.31), maa://45570 (98.0)</t>
+          <t>maa://29650 (98.31), maa://45570 (98.04)</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -14420,7 +14423,7 @@
       </c>
       <c r="D139" s="20" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (93.33)</t>
+          <t>**maa://30679 (50.0), maa://45258 (93.75)</t>
         </is>
       </c>
       <c r="E139" s="21" t="inlineStr">
@@ -14582,7 +14585,7 @@
       </c>
       <c r="D142" s="20" t="inlineStr">
         <is>
-          <t>maa://28484 (97.1), **maa://23736 (43.28), maa://31185 (85.71), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.14), **maa://23736 (44.12), maa://31185 (85.71), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="21" t="inlineStr">
@@ -14690,7 +14693,7 @@
       </c>
       <c r="D144" s="20" t="inlineStr">
         <is>
-          <t>maa://20971 (90.0)</t>
+          <t>maa://20971 (90.91)</t>
         </is>
       </c>
       <c r="E144" s="21" t="inlineStr">
@@ -14960,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.6), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.72), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15932,7 +15935,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.29), maa://49074 (97.62), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.67), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -16256,7 +16259,7 @@
       </c>
       <c r="D173" s="20" t="inlineStr">
         <is>
-          <t>*maa://20905 (78.95), maa://52268 (100.0)</t>
+          <t>*maa://20905 (80.0), maa://52268 (100.0)</t>
         </is>
       </c>
       <c r="E173" s="21" t="inlineStr">
@@ -17552,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.27), maa://35854 (85.71), maa://50388 (97.89), maa://25760 (86.84), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.3), maa://35854 (85.87), maa://50388 (97.9), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -19442,7 +19445,7 @@
       </c>
       <c r="D232" s="20" t="inlineStr">
         <is>
-          <t>*maa://48263 (73.68)</t>
+          <t>*maa://48263 (75.0)</t>
         </is>
       </c>
       <c r="E232" s="21" t="inlineStr">
@@ -19874,7 +19877,7 @@
       </c>
       <c r="D240" s="20" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.68), maa://30666 (83.48), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (88.89)</t>
+          <t>*maa://30667 (78.68), maa://30666 (83.48), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
         </is>
       </c>
       <c r="E240" s="21" t="inlineStr">
@@ -20252,7 +20255,7 @@
       </c>
       <c r="D247" s="20" t="inlineStr">
         <is>
-          <t>maa://30674 (88.89)</t>
+          <t>maa://30674 (90.0)</t>
         </is>
       </c>
       <c r="E247" s="21" t="inlineStr">
@@ -20306,7 +20309,7 @@
       </c>
       <c r="D248" s="20" t="inlineStr">
         <is>
-          <t>maa://28923 (92.23), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (92.27), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E248" s="21" t="inlineStr">
@@ -20360,7 +20363,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.8), maa://45570 (98.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.8), maa://45570 (98.04), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -20468,7 +20471,7 @@
       </c>
       <c r="D251" s="20" t="inlineStr">
         <is>
-          <t>maa://20923 (92.59)</t>
+          <t>maa://20923 (92.86)</t>
         </is>
       </c>
       <c r="E251" s="21" t="inlineStr">
@@ -21386,7 +21389,7 @@
       </c>
       <c r="D268" s="20" t="inlineStr">
         <is>
-          <t>*maa://48265 (77.78)</t>
+          <t>*maa://48265 (78.95)</t>
         </is>
       </c>
       <c r="E268" s="21" t="inlineStr">
@@ -21602,7 +21605,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.2), maa://51630 (96.59), maa://56588 (94.44), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.2), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -22520,7 +22523,7 @@
       </c>
       <c r="D289" s="20" t="inlineStr">
         <is>
-          <t>maa://30710 (97.87), maa://36845 (95.65), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://30710 (97.89), maa://36845 (95.65), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E289" s="21" t="inlineStr">
@@ -23276,7 +23279,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.61), maa://49642 (96.88), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.62), maa://49642 (96.94), maa://49660 (92.86), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -23816,7 +23819,7 @@
       </c>
       <c r="D313" s="20" t="inlineStr">
         <is>
-          <t>maa://25775 (93.75), *maa://25393 (73.33)</t>
+          <t>maa://25775 (93.83), *maa://25393 (73.33)</t>
         </is>
       </c>
       <c r="E313" s="21" t="inlineStr">
@@ -24626,7 +24629,7 @@
       </c>
       <c r="D328" s="20" t="inlineStr">
         <is>
-          <t>maa://40956 (93.67)</t>
+          <t>maa://40956 (92.86)</t>
         </is>
       </c>
       <c r="E328" s="21" t="inlineStr">
@@ -25922,7 +25925,7 @@
       </c>
       <c r="D352" s="17" t="inlineStr">
         <is>
-          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (66.67), *maa://52357 (75.0)</t>
+          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (61.54), *maa://52357 (75.0)</t>
         </is>
       </c>
       <c r="E352" s="17" t="inlineStr">
@@ -26084,7 +26087,7 @@
       </c>
       <c r="D355" s="17" t="inlineStr">
         <is>
-          <t>maa://49648 (95.56), *maa://49662 (71.43)</t>
+          <t>maa://49648 (95.74), *maa://49662 (73.33)</t>
         </is>
       </c>
       <c r="E355" s="17" t="inlineStr">
@@ -26408,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.6), maa://44635 (87.85), maa://48026 (95.65), maa://41035 (92.42), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
+          <t>maa://40957 (93.72), maa://44635 (87.85), maa://48026 (94.74), maa://41035 (92.54), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27002,7 +27005,7 @@
       </c>
       <c r="D372" s="17" t="inlineStr">
         <is>
-          <t>maa://44233 (92.31), maa://45570 (98.0)</t>
+          <t>maa://44233 (92.31), maa://45570 (98.04)</t>
         </is>
       </c>
       <c r="E372" s="17" t="inlineStr">
@@ -27365,12 +27368,12 @@
     <row r="379" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A379" s="19" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B379" s="19" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C379" s="19" t="inlineStr">
@@ -27380,12 +27383,12 @@
       </c>
       <c r="D379" s="17" t="inlineStr">
         <is>
-          <t>maa://59690 (100.0)</t>
+          <t>maa://44389 (100.0)</t>
         </is>
       </c>
       <c r="E379" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
         </is>
       </c>
       <c r="F379" s="11" t="n"/>
@@ -27419,12 +27422,12 @@
     <row r="380" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A380" s="19" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B380" s="19" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C380" s="19" t="inlineStr">
@@ -27434,12 +27437,12 @@
       </c>
       <c r="D380" s="17" t="inlineStr">
         <is>
-          <t>maa://48113 (100.0)</t>
+          <t>maa://59690 (100.0)</t>
         </is>
       </c>
       <c r="E380" s="17" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F380" s="11" t="n"/>
@@ -27473,12 +27476,12 @@
     <row r="381" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A381" s="19" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B381" s="19" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C381" s="19" t="inlineStr">
@@ -27488,12 +27491,12 @@
       </c>
       <c r="D381" s="17" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>maa://59690 (100.0)</t>
         </is>
       </c>
       <c r="E381" s="17" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F381" s="11" t="n"/>
@@ -27527,12 +27530,12 @@
     <row r="382" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A382" s="19" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B382" s="19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C382" s="19" t="inlineStr">
@@ -27542,12 +27545,12 @@
       </c>
       <c r="D382" s="17" t="inlineStr">
         <is>
-          <t>maa://50552 (100.0)</t>
+          <t>maa://48113 (100.0)</t>
         </is>
       </c>
       <c r="E382" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
+          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F382" s="11" t="n"/>
@@ -27581,27 +27584,27 @@
     <row r="383" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A383" s="19" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B383" s="19" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C383" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D383" s="17" t="inlineStr">
         <is>
-          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
+          <t>maa://45807 (100.0)</t>
         </is>
       </c>
       <c r="E383" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
       <c r="F383" s="11" t="n"/>
@@ -27635,12 +27638,12 @@
     <row r="384" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A384" s="19" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B384" s="19" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C384" s="19" t="inlineStr">
@@ -27650,12 +27653,12 @@
       </c>
       <c r="D384" s="17" t="inlineStr">
         <is>
-          <t>maa://47023 (87.1)</t>
+          <t>maa://50552 (100.0)</t>
         </is>
       </c>
       <c r="E384" s="17" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
         </is>
       </c>
       <c r="F384" s="11" t="n"/>
@@ -27689,27 +27692,27 @@
     <row r="385" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A385" s="19" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B385" s="19" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C385" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D385" s="17" t="inlineStr">
         <is>
-          <t>maa://48618 (100.0)</t>
+          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
         </is>
       </c>
       <c r="E385" s="17" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F385" s="11" t="n"/>
@@ -27743,27 +27746,27 @@
     <row r="386" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A386" s="19" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B386" s="19" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C386" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="17" t="inlineStr">
         <is>
-          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
+          <t>maa://47023 (87.1)</t>
         </is>
       </c>
       <c r="E386" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
+          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
         </is>
       </c>
       <c r="F386" s="11" t="n"/>
@@ -27797,27 +27800,27 @@
     <row r="387" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A387" s="19" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B387" s="19" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C387" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D387" s="17" t="inlineStr">
         <is>
-          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
+          <t>maa://48618 (100.0)</t>
         </is>
       </c>
       <c r="E387" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
+          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
         </is>
       </c>
       <c r="F387" s="11" t="n"/>
@@ -27851,27 +27854,27 @@
     <row r="388" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A388" s="19" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B388" s="19" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C388" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D388" s="17" t="inlineStr">
         <is>
-          <t>maa://59691 (100.0)</t>
+          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
         </is>
       </c>
       <c r="E388" s="17" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
         </is>
       </c>
       <c r="F388" s="11" t="n"/>
@@ -27905,12 +27908,12 @@
     <row r="389" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A389" s="19" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B389" s="19" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C389" s="19" t="inlineStr">
@@ -27920,12 +27923,12 @@
       </c>
       <c r="D389" s="17" t="inlineStr">
         <is>
-          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
+          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
         </is>
       </c>
       <c r="E389" s="17" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
         </is>
       </c>
       <c r="F389" s="11" t="n"/>
@@ -27959,27 +27962,27 @@
     <row r="390" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A390" s="19" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B390" s="19" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C390" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D390" s="17" t="inlineStr">
         <is>
-          <t>maa://51880 (99.23), maa://51878 (100.0), maa://56651 (100.0)</t>
+          <t>maa://59691 (100.0)</t>
         </is>
       </c>
       <c r="E390" s="17" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
+          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
         </is>
       </c>
       <c r="F390" s="11" t="n"/>
@@ -28013,27 +28016,27 @@
     <row r="391" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A391" s="19" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B391" s="19" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C391" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D391" s="17" t="inlineStr">
         <is>
-          <t>maa://51872 (96.75), maa://51876 (98.81), maa://51873 (100.0)</t>
+          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
         </is>
       </c>
       <c r="E391" s="17" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F391" s="11" t="n"/>
@@ -28067,12 +28070,12 @@
     <row r="392" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A392" s="19" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B392" s="19" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C392" s="19" t="inlineStr">
@@ -28082,12 +28085,12 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://59493 (96.49), maa://59603 (100.0), maa://60449 (100.0)</t>
+          <t>maa://51880 (99.23), maa://51878 (100.0), maa://56651 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
+          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
         </is>
       </c>
       <c r="F392" s="11" t="n"/>
@@ -28118,6 +28121,60 @@
       <c r="AE392" s="11" t="n"/>
       <c r="AF392" s="14" t="n"/>
     </row>
+    <row r="393">
+      <c r="A393" s="28" t="inlineStr">
+        <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="B393" s="28" t="inlineStr">
+        <is>
+          <t>GA-EX-5</t>
+        </is>
+      </c>
+      <c r="C393" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>maa://51872 (96.79), maa://51876 (98.81), maa://51873 (100.0)</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="28" t="inlineStr">
+        <is>
+          <t>酒神</t>
+        </is>
+      </c>
+      <c r="B394" s="28" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C394" s="28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>maa://59493 (96.52), maa://59603 (100.0), maa://60449 (100.0)</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.1), maa://20276 (88.68), *maa://22749 (77.78)</t>
+          <t>*maa://22880 (66.1), maa://20276 (88.68), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.77), maa://26254 (97.3)</t>
+          <t>maa://21249 (94.79), maa://26254 (97.3)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="AB3" s="14" t="inlineStr">
         <is>
-          <t>maa://24390 (95.7), maa://52241 (91.67)</t>
+          <t>maa://24390 (95.74), maa://52241 (92.31)</t>
         </is>
       </c>
       <c r="AC3" s="11" t="n"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="L5" s="14" t="inlineStr">
         <is>
-          <t>*maa://22757 (79.55)</t>
+          <t>*maa://22757 (80.0)</t>
         </is>
       </c>
       <c r="M5" s="11" t="n"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="X6" s="14" t="inlineStr">
         <is>
-          <t>maa://52754 (83.33)</t>
+          <t>maa://52754 (84.21)</t>
         </is>
       </c>
       <c r="Y6" s="11" t="n"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="T7" s="14" t="inlineStr">
         <is>
-          <t>maa://21291 (87.1)</t>
+          <t>maa://21291 (87.3)</t>
         </is>
       </c>
       <c r="U7" s="11" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.23 13:23:39</t>
+          <t>更新日期：2025.06.24 13:22:20</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.54), ***maa://39951 (11.69), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.45), ***maa://39951 (11.69), ***maa://34206 (22.22), *maa://45271 (62.2), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="11" t="n"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AB12" s="14" t="inlineStr">
         <is>
-          <t>maa://23669 (95.68), maa://36677 (95.45), maa://39872 (93.1)</t>
+          <t>maa://23669 (95.68), maa://36677 (95.51), maa://39872 (93.1)</t>
         </is>
       </c>
       <c r="AC12" s="11" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.76), maa://36673 (92.05), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.77), maa://36673 (92.05), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.36), maa://21478 (90.0)</t>
+          <t>maa://24304 (87.36), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (86.97)</t>
+          <t>maa://24421 (87.02)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="X22" s="14" t="inlineStr">
         <is>
-          <t>maa://21282 (98.73), *maa://37649 (74.42)</t>
+          <t>maa://21282 (98.73), *maa://37649 (75.0)</t>
         </is>
       </c>
       <c r="Y22" s="11" t="n"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.15)</t>
+          <t>maa://42235 (96.18)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.67), maa://36667 (97.35), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.67), maa://36667 (97.37), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="T36" s="14" t="inlineStr">
         <is>
-          <t>maa://27613 (99.13)</t>
+          <t>maa://27613 (99.14)</t>
         </is>
       </c>
       <c r="U36" s="11" t="n"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.37), maa://59394 (96.15)</t>
+          <t>maa://59378 (97.5), maa://59394 (96.3)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (98.11), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.21), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6971,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.23 13:23:39</t>
+          <t>更新日期：2025.06.24 13:22:20</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="D148" s="20" t="inlineStr">
         <is>
-          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (66.67)</t>
+          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
         </is>
       </c>
       <c r="E148" s="21" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.72), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.76), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="D150" s="20" t="inlineStr">
         <is>
-          <t>maa://51549 (95.24), maa://51923 (95.65)</t>
+          <t>maa://51549 (95.24), maa://51923 (95.83)</t>
         </is>
       </c>
       <c r="E150" s="21" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.67), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.73), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.3), maa://35854 (85.87), maa://50388 (97.9), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.3), maa://35854 (85.87), maa://50388 (97.92), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.83), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (95.85), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="D222" s="20" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0), **maa://39911 (33.33)</t>
+          <t>maa://39695 (100.0), ***maa://39911 (25.0)</t>
         </is>
       </c>
       <c r="E222" s="21" t="inlineStr">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="D227" s="20" t="inlineStr">
         <is>
-          <t>maa://20987 (93.68), *maa://35801 (77.78)</t>
+          <t>maa://20987 (93.75), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E227" s="21" t="inlineStr">
@@ -19877,7 +19877,7 @@
       </c>
       <c r="D240" s="20" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.68), maa://30666 (83.48), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
+          <t>*maa://30667 (78.68), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
         </is>
       </c>
       <c r="E240" s="21" t="inlineStr">
@@ -20466,12 +20466,12 @@
       </c>
       <c r="C251" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="20" t="inlineStr">
         <is>
-          <t>maa://20923 (92.86)</t>
+          <t>maa://20923 (92.86), maa://60577 (100.0)</t>
         </is>
       </c>
       <c r="E251" s="21" t="inlineStr">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="D357" s="17" t="inlineStr">
         <is>
-          <t>maa://36645 (98.37), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
+          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
         </is>
       </c>
       <c r="E357" s="17" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.72), maa://44635 (87.85), maa://48026 (94.74), maa://41035 (92.54), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
+          <t>maa://40957 (93.76), maa://44635 (87.85), maa://48026 (94.74), maa://41035 (92.54), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.1), maa://20276 (88.68), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.24), maa://20276 (88.68), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.2), maa://50121 (95.12)</t>
+          <t>maa://49983 (96.25), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AB6" s="14" t="inlineStr">
         <is>
-          <t>maa://22739 (91.94)</t>
+          <t>maa://22739 (92.06)</t>
         </is>
       </c>
       <c r="AC6" s="11" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.24 13:22:20</t>
+          <t>更新日期：2025.06.25 13:22:19</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="AB8" s="14" t="inlineStr">
         <is>
-          <t>maa://25389 (90.48)</t>
+          <t>maa://25389 (88.37)</t>
         </is>
       </c>
       <c r="AC8" s="11" t="n"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="X11" s="14" t="inlineStr">
         <is>
-          <t>maa://36713 (98.17)</t>
+          <t>maa://36713 (98.18)</t>
         </is>
       </c>
       <c r="Y11" s="11" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.77), maa://36673 (92.05), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.78), maa://36673 (92.05), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>maa://22466 (92.23), maa://52226 (95.83)</t>
+          <t>maa://22466 (92.27), maa://52226 (95.83)</t>
         </is>
       </c>
       <c r="M18" s="11" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.14), maa://22432 (83.58)</t>
+          <t>maa://22524 (88.14), maa://22432 (82.96)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="X22" s="14" t="inlineStr">
         <is>
-          <t>maa://21282 (98.73), *maa://37649 (75.0)</t>
+          <t>maa://21282 (98.74), *maa://37649 (73.33)</t>
         </is>
       </c>
       <c r="Y22" s="11" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="X23" s="14" t="inlineStr">
         <is>
-          <t>*maa://28503 (63.64)</t>
+          <t>*maa://28503 (63.0)</t>
         </is>
       </c>
       <c r="Y23" s="11" t="n"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="X24" s="14" t="inlineStr">
         <is>
-          <t>maa://29988 (84.97), maa://23504 (93.75), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (95.24)</t>
+          <t>maa://29988 (84.97), maa://23504 (93.76), *maa://25141 (77.37), *maa://36663 (78.0), maa://52227 (95.24)</t>
         </is>
       </c>
       <c r="Y24" s="11" t="n"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="T25" s="14" t="inlineStr">
         <is>
-          <t>maa://20109 (92.67), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.71), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="11" t="n"/>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="X30" s="14" t="inlineStr">
         <is>
-          <t>maa://39477 (92.0)</t>
+          <t>maa://39477 (92.31)</t>
         </is>
       </c>
       <c r="Y30" s="11" t="n"/>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (85.47), maa://30434 (93.38), *maa://45059 (77.14)</t>
+          <t>maa://36670 (88.89), maa://25199 (85.47), maa://30434 (93.43), *maa://45059 (77.14)</t>
         </is>
       </c>
       <c r="I39" s="11" t="n"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="P41" s="14" t="inlineStr">
         <is>
-          <t>maa://43177 (87.88)</t>
+          <t>maa://43177 (88.24)</t>
         </is>
       </c>
       <c r="Q41" s="11" t="n"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.5), maa://59394 (96.3)</t>
+          <t>maa://59378 (97.56), maa://59394 (96.3)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
-          <t>maa://31270 (94.81), maa://27746 (82.91)</t>
+          <t>maa://31270 (94.84), maa://27746 (82.91)</t>
         </is>
       </c>
       <c r="I59" s="11" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (98.21), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.28), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6971,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.24 13:22:20</t>
+          <t>更新日期：2025.06.25 13:22:19</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (89.17), maa://20832 (99.08), maa://20727 (100.0)</t>
+          <t>maa://20863 (88.8), maa://20832 (99.08), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="D59" s="20" t="inlineStr">
         <is>
-          <t>maa://27970 (98.61), maa://41118 (85.71)</t>
+          <t>maa://27970 (98.63), maa://41118 (85.71)</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="D60" s="20" t="inlineStr">
         <is>
-          <t>maa://38298 (87.5)</t>
+          <t>maa://38298 (87.62)</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="D143" s="20" t="inlineStr">
         <is>
-          <t>maa://30670 (96.64), maa://31470 (96.67), *maa://45066 (66.67), **maa://30867 (40.0)</t>
+          <t>maa://30670 (96.67), maa://31470 (96.67), *maa://45066 (66.67), **maa://30867 (40.0)</t>
         </is>
       </c>
       <c r="E143" s="21" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.76), maa://36865 (96.34), maa://44635 (87.85), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.79), maa://36865 (96.34), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="D175" s="20" t="inlineStr">
         <is>
-          <t>maa://32418 (99.68), maa://51440 (100.0)</t>
+          <t>maa://32418 (99.69), maa://51440 (100.0)</t>
         </is>
       </c>
       <c r="E175" s="21" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.3), maa://35854 (85.87), maa://50388 (97.92), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.32), maa://35854 (86.02), maa://50388 (97.92), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="D231" s="20" t="inlineStr">
         <is>
-          <t>maa://29058 (96.05), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (96.1), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="21" t="inlineStr">
@@ -19445,7 +19445,7 @@
       </c>
       <c r="D232" s="20" t="inlineStr">
         <is>
-          <t>*maa://48263 (75.0)</t>
+          <t>*maa://48263 (76.19)</t>
         </is>
       </c>
       <c r="E232" s="21" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="D270" s="20" t="inlineStr">
         <is>
-          <t>maa://25769 (97.42)</t>
+          <t>maa://25769 (97.44)</t>
         </is>
       </c>
       <c r="E270" s="21" t="inlineStr">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="D286" s="20" t="inlineStr">
         <is>
-          <t>maa://20899 (89.41), maa://46332 (95.0), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.41), maa://46332 (95.24), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E286" s="21" t="inlineStr">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="D289" s="20" t="inlineStr">
         <is>
-          <t>maa://30710 (97.89), maa://36845 (95.65), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://30710 (97.89), maa://36845 (95.68), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E289" s="21" t="inlineStr">
@@ -26141,7 +26141,7 @@
       </c>
       <c r="D356" s="17" t="inlineStr">
         <is>
-          <t>maa://36646 (98.8), maa://36845 (95.65), **maa://39217 (41.18), maa://51007 (98.18)</t>
+          <t>maa://36646 (98.8), maa://36845 (95.68), **maa://39217 (41.18), maa://51007 (98.18)</t>
         </is>
       </c>
       <c r="E356" s="17" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.76), maa://44635 (87.85), maa://48026 (94.74), maa://41035 (92.54), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (100.0)</t>
+          <t>maa://40957 (93.79), maa://44635 (88.07), maa://48026 (94.85), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (85.71)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.33), maa://44745 (98.23), **maa://49516 (40.0), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.33), maa://44745 (98.25), **maa://49516 (38.1), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51872 (96.79), maa://51876 (98.81), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.82), maa://51876 (98.82), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="14" t="inlineStr">
         <is>
-          <t>maa://21246 (91.48), maa://36684 (93.25)</t>
+          <t>maa://21246 (91.48), maa://36684 (93.29)</t>
         </is>
       </c>
       <c r="AC2" s="11" t="n"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>maa://40192 (96.4), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.43), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="11" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.24), maa://20276 (88.68), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.39), maa://20276 (88.68), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.79), maa://26254 (97.3)</t>
+          <t>maa://21249 (94.81), maa://26254 (97.3)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>maa://24632 (93.69), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.72), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="11" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.25), maa://50121 (95.12)</t>
+          <t>maa://49983 (96.43), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="14" t="inlineStr">
         <is>
-          <t>maa://32509 (94.03), maa://27295 (88.54), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.03), maa://27295 (88.66), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="11" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (94.03)</t>
+          <t>maa://43217 (94.07)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>maa://21245 (84.43), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (84.14), maa://22744 (82.14), maa://54105 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="11" t="n"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="T6" s="14" t="inlineStr">
         <is>
-          <t>maa://37411 (90.91)</t>
+          <t>maa://37411 (86.96)</t>
         </is>
       </c>
       <c r="U6" s="11" t="n"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="AF6" s="14" t="inlineStr">
         <is>
-          <t>*maa://33152 (65.08), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (64.06), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="27" t="n"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
-          <t>maa://28624 (94.04), maa://24957 (97.78)</t>
+          <t>maa://28624 (94.04), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="11" t="n"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="X7" s="14" t="inlineStr">
         <is>
-          <t>maa://22399 (96.22), *maa://22758 (77.5)</t>
+          <t>maa://22399 (95.7), *maa://22758 (77.78)</t>
         </is>
       </c>
       <c r="Y7" s="11" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.27 13:21:40</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AB9" s="14" t="inlineStr">
         <is>
-          <t>maa://28711 (87.5), maa://40166 (93.88)</t>
+          <t>maa://28711 (87.5), maa://40166 (93.75)</t>
         </is>
       </c>
       <c r="AC9" s="11" t="n"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>maa://28977 (87.63), maa://36669 (80.36), *maa://23264 (62.07)</t>
+          <t>maa://28977 (87.63), *maa://36669 (78.95), *maa://23264 (62.07)</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AF10" s="14" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.7), *maa://22733 (64.29), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.21), *maa://22733 (64.29), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="27" t="n"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
-          <t>maa://22747 (90.45), maa://22501 (98.26), maa://45521 (91.67)</t>
+          <t>maa://22747 (90.45), maa://22501 (98.26), maa://45521 (91.89)</t>
         </is>
       </c>
       <c r="U11" s="11" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="14" t="inlineStr">
         <is>
-          <t>maa://22753 (92.02), *maa://21485 (76.0), maa://37962 (92.96)</t>
+          <t>maa://22753 (92.02), maa://37962 (92.96), *maa://21485 (76.0)</t>
         </is>
       </c>
       <c r="Y12" s="11" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X13" s="14" t="inlineStr">
         <is>
-          <t>maa://34957 (84.21), **maa://22768 (50.0)</t>
+          <t>maa://34957 (84.35), **maa://22768 (50.0)</t>
         </is>
       </c>
       <c r="Y13" s="11" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.51), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.08)</t>
+          <t>maa://39841 (94.58), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.08)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.78), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.91), maa://45058 (85.0)</t>
+          <t>*maa://22743 (78.78), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (70.43), maa://45058 (85.71)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.36), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.4), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="P15" s="14" t="inlineStr">
         <is>
-          <t>maa://24762 (91.53), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.05), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="11" t="n"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.45), maa://36666 (82.21), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.45), maa://36666 (82.32), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.54), *maa://28648 (74.39), maa://36674 (80.65)</t>
+          <t>maa://22729 (94.54), *maa://28648 (74.39), *maa://36674 (79.37)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="AB16" s="14" t="inlineStr">
         <is>
-          <t>maa://26228 (95.65)</t>
+          <t>maa://26228 (95.69)</t>
         </is>
       </c>
       <c r="AC16" s="11" t="n"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.11)</t>
+          <t>maa://24570 (97.12)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (87.02)</t>
+          <t>maa://24421 (87.06)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="X18" s="14" t="inlineStr">
         <is>
-          <t>maa://21917 (97.14), maa://22741 (87.5)</t>
+          <t>maa://21917 (97.17), maa://22741 (87.5)</t>
         </is>
       </c>
       <c r="Y18" s="11" t="n"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF18" s="14" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), maa://47854 (82.35)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), maa://47854 (83.33)</t>
         </is>
       </c>
       <c r="AG18" s="27" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.74), maa://49976 (86.75), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.96), maa://49976 (86.75), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>maa://21261 (98.08)</t>
+          <t>maa://21261 (98.11)</t>
         </is>
       </c>
       <c r="E21" s="11" t="n"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.93)</t>
+          <t>maa://21443 (82.97)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.4), **maa://41753 (48.28)</t>
+          <t>***maa://28036 (28.05), **maa://41753 (46.67)</t>
         </is>
       </c>
       <c r="E23" s="11" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.63), maa://39875 (93.75)</t>
+          <t>maa://39756 (95.63), maa://39875 (93.83)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="AB23" s="14" t="inlineStr">
         <is>
-          <t>maa://29652 (97.96)</t>
+          <t>maa://29652 (98.0)</t>
         </is>
       </c>
       <c r="AC23" s="11" t="n"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.86), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.93), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="14" t="inlineStr">
         <is>
-          <t>maa://39929 (92.0), maa://41749 (92.36)</t>
+          <t>maa://39929 (92.02), maa://41749 (92.41)</t>
         </is>
       </c>
       <c r="Y28" s="11" t="n"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
-          <t>*maa://25175 (58.21)</t>
+          <t>*maa://25175 (57.35)</t>
         </is>
       </c>
       <c r="I29" s="11" t="n"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.79), maa://36258 (88.24), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.79), maa://36258 (88.3), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.06), maa://41108 (86.27), maa://41238 (98.04), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.07), maa://41108 (86.27), maa://41238 (98.05), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="P34" s="14" t="inlineStr">
         <is>
-          <t>maa://48817 (97.01), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.06), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="11" t="n"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="P39" s="14" t="inlineStr">
         <is>
-          <t>maa://24709 (92.0), maa://47093 (100.0)</t>
+          <t>maa://24709 (92.05), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="11" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>maa://22525 (83.83), maa://21284 (87.27)</t>
+          <t>maa://22525 (82.94), maa://21284 (87.27)</t>
         </is>
       </c>
       <c r="I43" s="11" t="n"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.56), maa://59394 (96.3)</t>
+          <t>maa://59378 (97.78), maa://59394 (96.3)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.2)</t>
+          <t>maa://32534 (95.23)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H58" s="14" t="inlineStr">
         <is>
-          <t>*maa://37964 (55.17)</t>
+          <t>*maa://37964 (55.93)</t>
         </is>
       </c>
       <c r="I58" s="11" t="n"/>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="H60" s="14" t="inlineStr">
         <is>
-          <t>*maa://40438 (75.31)</t>
+          <t>*maa://40438 (75.61)</t>
         </is>
       </c>
       <c r="I60" s="11" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (98.28), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.39), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6971,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.27 13:21:40</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (88.8), maa://20832 (99.08), maa://20727 (100.0)</t>
+          <t>maa://20863 (88.84), maa://20832 (99.08), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.48), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.54), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D33" s="20" t="inlineStr">
         <is>
-          <t>maa://30500 (98.89), *maa://27290 (70.59), ***maa://42154 (8.33)</t>
+          <t>maa://30500 (98.89), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.24), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.25), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D61" s="20" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.2), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.66), maa://51881 (99.21), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="D113" s="20" t="inlineStr">
         <is>
-          <t>maa://29037 (98.48)</t>
+          <t>maa://29037 (98.51)</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.79), maa://36865 (96.34), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.87), maa://36865 (95.76), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15498,12 +15498,12 @@
       </c>
       <c r="C159" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="20" t="inlineStr">
         <is>
-          <t>maa://44232 (98.58), maa://45603 (90.62), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.59), maa://45603 (90.62)</t>
         </is>
       </c>
       <c r="E159" s="21" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="D166" s="20" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), maa://30806 (100.0), *maa://47950 (75.0)</t>
+          <t>maa://20975 (90.91), maa://30806 (100.0), *maa://47950 (80.0)</t>
         </is>
       </c>
       <c r="E166" s="21" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.73), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.78), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -16475,7 +16475,7 @@
       </c>
       <c r="D177" s="20" t="inlineStr">
         <is>
-          <t>maa://20842 (92.86)</t>
+          <t>maa://20842 (93.33)</t>
         </is>
       </c>
       <c r="E177" s="21" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.32), maa://35854 (86.02), maa://50388 (97.92), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.32), maa://35854 (85.42), maa://50388 (97.93), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.85), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (95.9), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="D231" s="20" t="inlineStr">
         <is>
-          <t>maa://29058 (96.1), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (96.15), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="21" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="D252" s="20" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E252" s="21" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="D270" s="20" t="inlineStr">
         <is>
-          <t>maa://25769 (97.44)</t>
+          <t>maa://25769 (97.45)</t>
         </is>
       </c>
       <c r="E270" s="21" t="inlineStr">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.2), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.21), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -23549,7 +23549,7 @@
       </c>
       <c r="D308" s="20" t="inlineStr">
         <is>
-          <t>maa://36005 (92.31)</t>
+          <t>maa://36005 (92.86)</t>
         </is>
       </c>
       <c r="E308" s="21" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.79), maa://44635 (88.07), maa://48026 (94.85), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (85.71)</t>
+          <t>maa://40957 (93.87), maa://44635 (88.07), maa://48026 (95.0), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), *maa://60251 (75.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="D374" s="17" t="inlineStr">
         <is>
-          <t>maa://43872 (90.91)</t>
+          <t>maa://43872 (91.67)</t>
         </is>
       </c>
       <c r="E374" s="17" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.33), maa://44745 (98.25), **maa://49516 (38.1), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (83.14), maa://44745 (98.33), **maa://49516 (38.1), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28085,7 +28085,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://51880 (99.23), maa://51878 (100.0), maa://56651 (100.0)</t>
+          <t>maa://51880 (99.09), maa://51878 (100.0), maa://56651 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51872 (96.82), maa://51876 (98.82), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.86), maa://51876 (98.85), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>maa://25390 (95.52), maa://24702 (94.87), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.54), maa://24702 (94.87), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="11" t="n"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (95.0), *maa://34787 (73.91), maa://58660 (83.33)</t>
+          <t>maa://39402 (95.04), *maa://34787 (73.91), maa://58660 (83.33)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="14" t="inlineStr">
         <is>
-          <t>maa://21246 (91.48), maa://36684 (93.25)</t>
+          <t>maa://21246 (91.48), maa://36684 (93.29)</t>
         </is>
       </c>
       <c r="AC2" s="11" t="n"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>maa://40192 (96.4), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.43), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="11" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.24), maa://20276 (88.68), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.39), maa://20276 (88.68), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="11" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="14" t="inlineStr">
         <is>
-          <t>maa://21249 (94.79), maa://26254 (97.3)</t>
+          <t>maa://21249 (94.81), maa://26254 (97.3)</t>
         </is>
       </c>
       <c r="Q3" s="11" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>maa://24632 (93.69), maa://22499 (86.67), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.72), maa://22499 (86.67), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="11" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.25), maa://50121 (95.12)</t>
+          <t>maa://49983 (96.47), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="14" t="inlineStr">
         <is>
-          <t>maa://32509 (94.03), maa://27295 (88.54), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.03), maa://27295 (88.66), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="11" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="X4" s="14" t="inlineStr">
         <is>
-          <t>maa://43217 (94.03)</t>
+          <t>maa://43217 (94.07)</t>
         </is>
       </c>
       <c r="Y4" s="11" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>maa://21245 (84.43), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (84.14), maa://22744 (82.14), maa://54105 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="11" t="n"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="T6" s="14" t="inlineStr">
         <is>
-          <t>maa://37411 (90.91)</t>
+          <t>maa://37411 (86.96)</t>
         </is>
       </c>
       <c r="U6" s="11" t="n"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="AF6" s="14" t="inlineStr">
         <is>
-          <t>*maa://33152 (65.08), ***maa://22770 (26.09)</t>
+          <t>*maa://33152 (64.06), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="27" t="n"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
-          <t>maa://28624 (94.04), maa://24957 (97.78)</t>
+          <t>maa://28624 (94.04), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="11" t="n"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="X7" s="14" t="inlineStr">
         <is>
-          <t>maa://22399 (96.22), *maa://22758 (77.5)</t>
+          <t>maa://22399 (95.7), *maa://22758 (77.78)</t>
         </is>
       </c>
       <c r="Y7" s="11" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.28 13:21:19</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AB9" s="14" t="inlineStr">
         <is>
-          <t>maa://28711 (87.5), maa://40166 (93.88)</t>
+          <t>maa://28711 (87.5), maa://40166 (93.75)</t>
         </is>
       </c>
       <c r="AC9" s="11" t="n"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>maa://28977 (87.63), maa://36669 (80.36), *maa://23264 (62.07)</t>
+          <t>maa://28977 (87.63), *maa://36669 (78.95), *maa://23264 (62.07)</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AF10" s="14" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.7), *maa://22733 (64.29), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.21), *maa://22733 (64.29), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="27" t="n"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
-          <t>maa://22747 (90.45), maa://22501 (98.26), maa://45521 (91.67)</t>
+          <t>maa://22747 (90.45), maa://22501 (98.26), maa://45521 (91.89)</t>
         </is>
       </c>
       <c r="U11" s="11" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="14" t="inlineStr">
         <is>
-          <t>maa://22753 (92.02), *maa://21485 (76.0), maa://37962 (92.96)</t>
+          <t>maa://22753 (92.02), maa://37962 (92.96), *maa://21485 (76.0)</t>
         </is>
       </c>
       <c r="Y12" s="11" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.78), maa://36673 (92.05), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.78), maa://36673 (92.13), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="P13" s="14" t="inlineStr">
         <is>
-          <t>maa://22676 (93.66), *maa://22583 (78.05), maa://48321 (85.71)</t>
+          <t>maa://22676 (93.66), *maa://22583 (78.31), maa://48321 (85.71)</t>
         </is>
       </c>
       <c r="Q13" s="11" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X13" s="14" t="inlineStr">
         <is>
-          <t>maa://34957 (84.21), **maa://22768 (50.0)</t>
+          <t>maa://34957 (84.35), **maa://22768 (50.0)</t>
         </is>
       </c>
       <c r="Y13" s="11" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.51), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.08)</t>
+          <t>maa://39841 (94.58), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.15)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.78), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.91), maa://45058 (85.0)</t>
+          <t>*maa://22743 (78.78), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (70.43), maa://45058 (85.71)</t>
         </is>
       </c>
       <c r="E15" s="11" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.36), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.4), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="P15" s="14" t="inlineStr">
         <is>
-          <t>maa://24762 (91.53), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.05), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="11" t="n"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="X15" s="14" t="inlineStr">
         <is>
-          <t>*maa://38786 (70.0), maa://56102 (100.0)</t>
+          <t>*maa://38786 (72.73), maa://56102 (100.0)</t>
         </is>
       </c>
       <c r="Y15" s="11" t="n"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AF15" s="14" t="inlineStr">
         <is>
-          <t>maa://21364 (81.45), maa://36666 (82.21), *maa://22766 (68.55)</t>
+          <t>maa://21364 (81.45), maa://36666 (82.32), *maa://22766 (68.55)</t>
         </is>
       </c>
       <c r="AG15" s="27" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.54), *maa://28648 (74.39), maa://36674 (80.65)</t>
+          <t>maa://22729 (94.54), *maa://28648 (74.39), *maa://36674 (79.37)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="AB16" s="14" t="inlineStr">
         <is>
-          <t>maa://26228 (95.65)</t>
+          <t>maa://26228 (95.69)</t>
         </is>
       </c>
       <c r="AC16" s="11" t="n"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>maa://24570 (97.11)</t>
+          <t>maa://24570 (97.12)</t>
         </is>
       </c>
       <c r="E18" s="11" t="n"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>maa://24421 (87.02)</t>
+          <t>maa://24421 (87.06)</t>
         </is>
       </c>
       <c r="I18" s="11" t="n"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="X18" s="14" t="inlineStr">
         <is>
-          <t>maa://21917 (97.14), maa://22741 (87.5)</t>
+          <t>maa://21917 (97.17), maa://22741 (87.5)</t>
         </is>
       </c>
       <c r="Y18" s="11" t="n"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF18" s="14" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), maa://47854 (82.35)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (78.95)</t>
         </is>
       </c>
       <c r="AG18" s="27" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="14" t="inlineStr">
         <is>
-          <t>maa://50085 (88.74), maa://49976 (86.75), maa://56241 (88.89)</t>
+          <t>maa://50085 (88.96), maa://49976 (86.75), maa://56241 (88.89)</t>
         </is>
       </c>
       <c r="Y20" s="11" t="n"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>maa://21261 (98.08)</t>
+          <t>maa://21261 (98.11)</t>
         </is>
       </c>
       <c r="E21" s="11" t="n"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="AB21" s="14" t="inlineStr">
         <is>
-          <t>maa://21443 (82.93)</t>
+          <t>maa://21443 (82.97)</t>
         </is>
       </c>
       <c r="AC21" s="11" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.14), maa://22432 (82.96)</t>
+          <t>maa://22524 (88.14), maa://22432 (82.48)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.4), **maa://41753 (48.28)</t>
+          <t>***maa://28036 (28.05), **maa://41753 (46.67)</t>
         </is>
       </c>
       <c r="E23" s="11" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.63), maa://39875 (93.75)</t>
+          <t>maa://39756 (95.65), maa://39875 (93.83)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="AB23" s="14" t="inlineStr">
         <is>
-          <t>maa://29652 (97.96)</t>
+          <t>maa://29652 (98.0)</t>
         </is>
       </c>
       <c r="AC23" s="11" t="n"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="X25" s="14" t="inlineStr">
         <is>
-          <t>maa://29890 (83.33)</t>
+          <t>maa://29890 (81.97)</t>
         </is>
       </c>
       <c r="Y25" s="11" t="n"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AB25" s="14" t="inlineStr">
         <is>
-          <t>maa://31215 (89.86), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.93), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="11" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="14" t="inlineStr">
         <is>
-          <t>maa://39929 (92.0), maa://41749 (92.36)</t>
+          <t>maa://39929 (92.02), maa://41749 (92.41)</t>
         </is>
       </c>
       <c r="Y28" s="11" t="n"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
-          <t>*maa://25175 (58.21)</t>
+          <t>*maa://25175 (57.35)</t>
         </is>
       </c>
       <c r="I29" s="11" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.12), maa://31400 (98.9), maa://28440 (84.51), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.13), maa://31400 (98.9), maa://28440 (84.62), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>maa://35926 (93.79), maa://36258 (88.24), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.79), maa://36258 (88.3), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="11" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.06), maa://41108 (86.27), maa://41238 (98.04), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.09), maa://41108 (86.27), maa://41238 (98.05), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="P34" s="14" t="inlineStr">
         <is>
-          <t>maa://48817 (97.01), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.06), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="11" t="n"/>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
-          <t>maa://24526 (92.45)</t>
+          <t>maa://24526 (92.47)</t>
         </is>
       </c>
       <c r="U34" s="11" t="n"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.48), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.5), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="P39" s="14" t="inlineStr">
         <is>
-          <t>maa://24709 (92.0), maa://47093 (100.0)</t>
+          <t>maa://24709 (92.05), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="11" t="n"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t>maa://22525 (83.83), maa://21284 (87.27)</t>
+          <t>maa://22525 (82.94), maa://21284 (87.27)</t>
         </is>
       </c>
       <c r="I43" s="11" t="n"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.56), maa://59394 (96.3)</t>
+          <t>maa://59378 (97.78), maa://59394 (96.3)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
-          <t>maa://32534 (95.2)</t>
+          <t>maa://32534 (95.23)</t>
         </is>
       </c>
       <c r="I53" s="11" t="n"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H58" s="14" t="inlineStr">
         <is>
-          <t>*maa://37964 (55.17)</t>
+          <t>*maa://37964 (55.93)</t>
         </is>
       </c>
       <c r="I58" s="11" t="n"/>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="H60" s="14" t="inlineStr">
         <is>
-          <t>*maa://40438 (75.31)</t>
+          <t>*maa://40438 (75.61)</t>
         </is>
       </c>
       <c r="I60" s="11" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (98.28), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.44), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6971,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.28 13:21:19</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D29" s="20" t="inlineStr">
         <is>
-          <t>maa://20863 (88.8), maa://20832 (99.08), maa://20727 (100.0)</t>
+          <t>maa://20863 (88.84), maa://20832 (99.08), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.48), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.54), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D33" s="20" t="inlineStr">
         <is>
-          <t>maa://30500 (98.89), *maa://27290 (70.59), ***maa://42154 (8.33)</t>
+          <t>maa://30500 (98.89), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D53" s="20" t="inlineStr">
         <is>
-          <t>maa://20953 (96.0), maa://31173 (96.3)</t>
+          <t>maa://20953 (96.0), maa://31173 (96.43)</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="D56" s="20" t="inlineStr">
         <is>
-          <t>maa://44235 (98.24), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.25), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D61" s="20" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="D69" s="20" t="inlineStr">
         <is>
-          <t>maa://20974 (96.43), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.47), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="D104" s="20" t="inlineStr">
         <is>
-          <t>*maa://20966 (80.0)</t>
+          <t>maa://20966 (83.33)</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.2), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.67), maa://51881 (99.21), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="D113" s="20" t="inlineStr">
         <is>
-          <t>maa://29037 (98.48)</t>
+          <t>maa://29037 (98.51)</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D117" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20940 (100.0)</t>
+          <t>maa://31560 (88.89), maa://20940 (100.0)</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="D119" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20851 (100.0)</t>
+          <t>maa://31560 (88.89), maa://20851 (100.0)</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="D122" s="20" t="inlineStr">
         <is>
-          <t>maa://29650 (98.31), maa://45570 (98.04)</t>
+          <t>maa://29650 (98.31), maa://45570 (98.08)</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.79), maa://36865 (96.34), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.91), maa://36865 (95.76), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15498,12 +15498,12 @@
       </c>
       <c r="C159" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="20" t="inlineStr">
         <is>
-          <t>maa://44232 (98.58), maa://45603 (90.62), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.59), maa://45603 (90.62)</t>
         </is>
       </c>
       <c r="E159" s="21" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="D166" s="20" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), maa://30806 (100.0), *maa://47950 (75.0)</t>
+          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="21" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.73), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.78), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="D168" s="20" t="inlineStr">
         <is>
-          <t>maa://49867 (90.62), maa://49655 (96.3)</t>
+          <t>maa://49867 (90.91), maa://49655 (96.3)</t>
         </is>
       </c>
       <c r="E168" s="21" t="inlineStr">
@@ -16475,7 +16475,7 @@
       </c>
       <c r="D177" s="20" t="inlineStr">
         <is>
-          <t>maa://20842 (92.86)</t>
+          <t>maa://20842 (93.33)</t>
         </is>
       </c>
       <c r="E177" s="21" t="inlineStr">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="D182" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), *maa://20968 (66.67)</t>
+          <t>maa://31560 (88.89), *maa://20968 (66.67)</t>
         </is>
       </c>
       <c r="E182" s="21" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.32), maa://35854 (86.02), maa://50388 (97.92), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.13), maa://35854 (85.42), maa://50388 (97.93), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="D198" s="20" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (66.67)</t>
+          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (71.43)</t>
         </is>
       </c>
       <c r="E198" s="21" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.85), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (95.92), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="D231" s="20" t="inlineStr">
         <is>
-          <t>maa://29058 (96.1), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (96.15), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="21" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="D248" s="20" t="inlineStr">
         <is>
-          <t>maa://28923 (92.27), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (92.31), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E248" s="21" t="inlineStr">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.8), maa://45570 (98.04), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.91), maa://45570 (98.08), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="D252" s="20" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.59), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E252" s="21" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="D259" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20884 (96.0)</t>
+          <t>maa://31560 (88.89), maa://20884 (96.0)</t>
         </is>
       </c>
       <c r="E259" s="21" t="inlineStr">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="D270" s="20" t="inlineStr">
         <is>
-          <t>maa://25769 (97.44)</t>
+          <t>maa://25769 (97.45)</t>
         </is>
       </c>
       <c r="E270" s="21" t="inlineStr">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.2), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.21), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="D299" s="20" t="inlineStr">
         <is>
-          <t>maa://29005 (98.7), maa://31560 (87.5)</t>
+          <t>maa://29005 (98.7), maa://31560 (88.89)</t>
         </is>
       </c>
       <c r="E299" s="21" t="inlineStr">
@@ -23549,7 +23549,7 @@
       </c>
       <c r="D308" s="20" t="inlineStr">
         <is>
-          <t>maa://36005 (92.31)</t>
+          <t>maa://36005 (92.86)</t>
         </is>
       </c>
       <c r="E308" s="21" t="inlineStr">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="D352" s="17" t="inlineStr">
         <is>
-          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (61.54), *maa://52357 (75.0)</t>
+          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (64.29), *maa://52357 (75.0)</t>
         </is>
       </c>
       <c r="E352" s="17" t="inlineStr">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="D357" s="17" t="inlineStr">
         <is>
-          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
+          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), *maa://56268 (60.0), maa://40489 (100.0)</t>
         </is>
       </c>
       <c r="E357" s="17" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.79), maa://44635 (88.07), maa://48026 (94.85), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), maa://60251 (85.71)</t>
+          <t>maa://40957 (93.91), maa://44635 (88.07), maa://48026 (95.1), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), *maa://60251 (75.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="D372" s="17" t="inlineStr">
         <is>
-          <t>maa://44233 (92.31), maa://45570 (98.04)</t>
+          <t>maa://44233 (92.31), maa://45570 (98.08)</t>
         </is>
       </c>
       <c r="E372" s="17" t="inlineStr">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="D374" s="17" t="inlineStr">
         <is>
-          <t>maa://43872 (90.91)</t>
+          <t>maa://43872 (91.67)</t>
         </is>
       </c>
       <c r="E374" s="17" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.33), maa://44745 (98.25), **maa://49516 (38.1), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.82), maa://44745 (98.4), **maa://49516 (38.1), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28085,7 +28085,7 @@
       </c>
       <c r="D392" s="17" t="inlineStr">
         <is>
-          <t>maa://51880 (99.23), maa://51878 (100.0), maa://56651 (100.0)</t>
+          <t>maa://51880 (99.09), maa://51878 (100.0), maa://56651 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="17" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51872 (96.82), maa://51876 (98.82), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.67), maa://51876 (98.85), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>maa://25390 (95.52), maa://24702 (94.87), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.54), maa://24702 (94.87), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="11" t="n"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
-          <t>maa://39402 (95.0), *maa://34787 (73.91), maa://58660 (83.33)</t>
+          <t>maa://39402 (95.04), *maa://34787 (73.91), maa://58660 (83.33)</t>
         </is>
       </c>
       <c r="M2" s="11" t="n"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="14" t="inlineStr">
         <is>
-          <t>maa://21246 (91.48), maa://36684 (93.29)</t>
+          <t>maa://21246 (91.48), maa://36684 (93.33)</t>
         </is>
       </c>
       <c r="AC2" s="11" t="n"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" s="14" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (92.31)</t>
+          <t>maa://25251 (91.91), maa://59087 (92.86)</t>
         </is>
       </c>
       <c r="AG2" s="27" t="n"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="H3" s="14" t="inlineStr">
         <is>
-          <t>maa://21247 (98.48)</t>
+          <t>maa://21247 (98.49)</t>
         </is>
       </c>
       <c r="I3" s="11" t="n"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="AB3" s="14" t="inlineStr">
         <is>
-          <t>maa://24390 (95.74), maa://52241 (92.31)</t>
+          <t>maa://24390 (95.74), maa://52241 (92.86)</t>
         </is>
       </c>
       <c r="AC3" s="11" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>maa://49983 (96.43), maa://50121 (95.12)</t>
+          <t>maa://49983 (96.51), maa://50121 (95.12)</t>
         </is>
       </c>
       <c r="Q4" s="11" t="n"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="AF4" s="14" t="inlineStr">
         <is>
-          <t>*maa://30062 (66.07), *maa://39394 (66.67), ***maa://26209 (13.04)</t>
+          <t>*maa://30062 (66.07), *maa://39394 (67.74), ***maa://26209 (13.04)</t>
         </is>
       </c>
       <c r="AG4" s="27" t="n"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L6" s="14" t="inlineStr">
         <is>
-          <t>maa://24839 (98.84)</t>
+          <t>maa://24839 (98.85)</t>
         </is>
       </c>
       <c r="M6" s="11" t="n"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="X6" s="14" t="inlineStr">
         <is>
-          <t>maa://52754 (84.21)</t>
+          <t>maa://52754 (85.0)</t>
         </is>
       </c>
       <c r="Y6" s="11" t="n"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="X7" s="14" t="inlineStr">
         <is>
-          <t>maa://22399 (95.7), *maa://22758 (77.78)</t>
+          <t>maa://22399 (95.72), *maa://22758 (77.78)</t>
         </is>
       </c>
       <c r="Y7" s="11" t="n"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="AF7" s="14" t="inlineStr">
         <is>
-          <t>maa://45272 (97.14)</t>
+          <t>maa://45272 (97.22)</t>
         </is>
       </c>
       <c r="AG7" s="27" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.27 13:21:40</t>
+          <t>更新日期：2025.06.29 13:23:12</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>maa://24999 (92.78), maa://36673 (92.05), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.79), maa://36673 (92.13), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="11" t="n"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="P13" s="14" t="inlineStr">
         <is>
-          <t>maa://22676 (93.66), *maa://22583 (78.05), maa://48321 (85.71)</t>
+          <t>maa://22676 (93.66), *maa://22583 (78.31), maa://48321 (85.71)</t>
         </is>
       </c>
       <c r="Q13" s="11" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>maa://39841 (94.58), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.08)</t>
+          <t>maa://39841 (94.58), maa://26245 (96.74), maa://21288 (96.3), maa://36682 (96.15)</t>
         </is>
       </c>
       <c r="M14" s="11" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t>maa://24304 (87.4), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.45), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="11" t="n"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="X15" s="14" t="inlineStr">
         <is>
-          <t>*maa://38786 (70.0), maa://56102 (100.0)</t>
+          <t>*maa://38786 (72.73), maa://56102 (100.0)</t>
         </is>
       </c>
       <c r="Y15" s="11" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
-          <t>maa://22729 (94.54), *maa://28648 (74.39), *maa://36674 (79.37)</t>
+          <t>maa://22729 (94.57), *maa://28648 (74.39), *maa://36674 (79.37)</t>
         </is>
       </c>
       <c r="U16" s="11" t="n"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF18" s="14" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), maa://47854 (83.33)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (78.95)</t>
         </is>
       </c>
       <c r="AG18" s="27" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="14" t="inlineStr">
         <is>
-          <t>maa://22524 (88.14), maa://22432 (82.96)</t>
+          <t>maa://22524 (88.14), maa://22432 (82.61)</t>
         </is>
       </c>
       <c r="AG21" s="27" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>maa://39756 (95.63), maa://39875 (93.83)</t>
+          <t>maa://39756 (95.65), maa://39875 (93.83)</t>
         </is>
       </c>
       <c r="M23" s="11" t="n"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P23" s="14" t="inlineStr">
         <is>
-          <t>maa://30587 (92.13), *maa://29748 (76.3), *maa://37566 (78.72)</t>
+          <t>maa://30587 (92.17), *maa://29748 (76.3), *maa://37566 (78.72)</t>
         </is>
       </c>
       <c r="Q23" s="11" t="n"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF24" s="14" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (75.0), maa://29910 (93.85), maa://45831 (87.5)</t>
+          <t>maa://22523 (81.74), *maa://36672 (73.91), maa://29910 (93.85), maa://45831 (87.5)</t>
         </is>
       </c>
       <c r="AG24" s="27" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>maa://29753 (95.48)</t>
+          <t>maa://29753 (95.5)</t>
         </is>
       </c>
       <c r="E25" s="11" t="n"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="X25" s="14" t="inlineStr">
         <is>
-          <t>maa://29890 (83.33)</t>
+          <t>maa://29890 (81.97)</t>
         </is>
       </c>
       <c r="Y25" s="11" t="n"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AB26" s="14" t="inlineStr">
         <is>
-          <t>maa://42235 (96.18)</t>
+          <t>maa://42235 (96.2)</t>
         </is>
       </c>
       <c r="AC26" s="11" t="n"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="T27" s="14" t="inlineStr">
         <is>
-          <t>*maa://30624 (77.63)</t>
+          <t>*maa://30624 (77.92)</t>
         </is>
       </c>
       <c r="U27" s="11" t="n"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>maa://24465 (90.71), maa://25725 (82.83)</t>
+          <t>maa://24465 (90.72), maa://25725 (82.83)</t>
         </is>
       </c>
       <c r="E28" s="11" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>maa://28432 (94.12), maa://31400 (98.9), maa://28440 (84.51), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.15), maa://31400 (98.9), maa://28440 (84.62), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="11" t="n"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AB30" s="14" t="inlineStr">
         <is>
-          <t>maa://42979 (97.15), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.18), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="11" t="n"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="AB31" s="14" t="inlineStr">
         <is>
-          <t>***maa://51420 (16.67)</t>
+          <t>***maa://51420 (14.29)</t>
         </is>
       </c>
       <c r="AC31" s="11" t="n"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H32" s="14" t="inlineStr">
         <is>
-          <t>maa://21895 (97.67), maa://36667 (97.37), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.68), maa://36667 (97.39), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="11" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
-          <t>maa://42859 (97.07), maa://41108 (86.27), maa://41238 (98.05), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.1), maa://41108 (86.27), maa://41238 (98.05), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="11" t="n"/>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
-          <t>maa://24526 (92.45)</t>
+          <t>maa://24526 (92.47)</t>
         </is>
       </c>
       <c r="U34" s="11" t="n"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>maa://45718 (98.48), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.5), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="11" t="n"/>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="AF38" s="14" t="inlineStr">
         <is>
-          <t>maa://36697 (89.23)</t>
+          <t>maa://36697 (89.26)</t>
         </is>
       </c>
       <c r="AG38" s="27" t="n"/>
@@ -5463,12 +5463,12 @@
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (85.47), maa://30434 (93.43), *maa://45059 (77.14)</t>
+          <t>maa://36670 (88.89), maa://25199 (85.47), maa://30434 (93.43), *maa://45059 (77.14), *maa://44165 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="11" t="n"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P52" s="14" t="inlineStr">
         <is>
-          <t>maa://59378 (97.78), maa://59394 (96.3)</t>
+          <t>maa://59378 (97.78), maa://59394 (96.43)</t>
         </is>
       </c>
       <c r="Q52" s="11" t="n"/>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="H62" s="14" t="inlineStr">
         <is>
-          <t>maa://42981 (96.67), maa://43903 (100.0), maa://56228 (100.0)</t>
+          <t>maa://42981 (96.72), maa://43903 (100.0), maa://56228 (100.0)</t>
         </is>
       </c>
       <c r="I62" s="11" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>maa://59534 (98.39), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.46), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="11" t="n"/>
@@ -6971,7 +6971,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="17">
       <c r="A1" s="13" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.27 13:21:40</t>
+          <t>更新日期：2025.06.29 13:23:12</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D32" s="20" t="inlineStr">
         <is>
-          <t>maa://36644 (88.54), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.08), maa://36866 (96.23), maa://45572 (91.67), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D53" s="20" t="inlineStr">
         <is>
-          <t>maa://20953 (96.0), maa://31173 (96.3)</t>
+          <t>maa://20953 (96.0), maa://31173 (96.43)</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="D69" s="20" t="inlineStr">
         <is>
-          <t>maa://20974 (96.43), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.47), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="D88" s="20" t="inlineStr">
         <is>
-          <t>maa://24472 (88.41), *maa://35841 (64.71)</t>
+          <t>maa://24472 (88.46), *maa://35841 (64.71)</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="D104" s="20" t="inlineStr">
         <is>
-          <t>*maa://20966 (80.0)</t>
+          <t>maa://20966 (83.33)</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
@@ -12744,12 +12744,12 @@
       </c>
       <c r="C108" s="19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D108" s="20" t="inlineStr">
         <is>
-          <t>maa://25018 (96.66), maa://51881 (99.21), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25)</t>
+          <t>maa://25018 (96.68), maa://51881 (99.21), maa://25776 (92.11), maa://28361 (95.0), maa://25772 (94.12), maa://56588 (94.74), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25), maa://60902 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="D115" s="20" t="inlineStr">
         <is>
-          <t>maa://20908 (98.04), maa://35723 (95.92), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
+          <t>maa://20908 (98.05), maa://35723 (95.92), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D117" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20940 (100.0)</t>
+          <t>maa://31560 (88.89), maa://20940 (100.0)</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="D119" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20851 (100.0)</t>
+          <t>maa://31560 (88.89), maa://20851 (100.0)</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="D122" s="20" t="inlineStr">
         <is>
-          <t>maa://29650 (98.31), maa://45570 (98.04)</t>
+          <t>maa://29650 (98.31), maa://45570 (96.23)</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="D130" s="20" t="inlineStr">
         <is>
-          <t>maa://21422 (99.1)</t>
+          <t>maa://21422 (99.11)</t>
         </is>
       </c>
       <c r="E130" s="21" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D149" s="20" t="inlineStr">
         <is>
-          <t>maa://36641 (98.44), maa://40957 (93.87), maa://36865 (95.76), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.44), maa://40957 (93.99), maa://36865 (95.76), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (83.78), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="D166" s="20" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), maa://30806 (100.0), *maa://47950 (80.0)</t>
+          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="21" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="D167" s="20" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.78), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.69), maa://29659 (85.71), maa://49074 (97.83), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="21" t="inlineStr">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="D168" s="20" t="inlineStr">
         <is>
-          <t>maa://49867 (90.62), maa://49655 (96.3)</t>
+          <t>maa://49867 (90.91), maa://49655 (96.3)</t>
         </is>
       </c>
       <c r="E168" s="21" t="inlineStr">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="D182" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), *maa://20968 (66.67)</t>
+          <t>maa://31560 (88.89), *maa://20968 (66.67)</t>
         </is>
       </c>
       <c r="E182" s="21" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D197" s="20" t="inlineStr">
         <is>
-          <t>maa://44224 (90.32), maa://35854 (85.42), maa://50388 (97.93), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.13), maa://35854 (85.42), maa://50388 (97.93), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="21" t="inlineStr">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="D198" s="20" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (66.67)</t>
+          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (71.43)</t>
         </is>
       </c>
       <c r="E198" s="21" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D211" s="20" t="inlineStr">
         <is>
-          <t>maa://20956 (95.9), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (95.94), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="21" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="D248" s="20" t="inlineStr">
         <is>
-          <t>maa://28923 (92.27), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (92.35), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E248" s="21" t="inlineStr">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="D249" s="20" t="inlineStr">
         <is>
-          <t>maa://42287 (90.8), maa://45570 (98.04), maa://42225 (100.0)</t>
+          <t>maa://42287 (91.01), maa://45570 (96.23), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="21" t="inlineStr">
@@ -20687,7 +20687,7 @@
       </c>
       <c r="D255" s="20" t="inlineStr">
         <is>
-          <t>maa://20877 (98.67), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.68), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E255" s="21" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="D259" s="20" t="inlineStr">
         <is>
-          <t>maa://31560 (87.5), maa://20884 (96.0)</t>
+          <t>maa://31560 (88.89), maa://20884 (96.0)</t>
         </is>
       </c>
       <c r="E259" s="21" t="inlineStr">
@@ -21600,12 +21600,12 @@
       </c>
       <c r="C272" s="19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D272" s="20" t="inlineStr">
         <is>
-          <t>maa://51881 (99.21), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89)</t>
+          <t>maa://51881 (99.21), maa://51630 (96.59), maa://56588 (94.74), *maa://55171 (57.14), maa://51893 (88.89), maa://60902 (100.0)</t>
         </is>
       </c>
       <c r="E272" s="21" t="inlineStr">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="D286" s="20" t="inlineStr">
         <is>
-          <t>maa://20899 (89.41), maa://46332 (95.24), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.47), maa://46332 (95.24), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E286" s="21" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="D299" s="20" t="inlineStr">
         <is>
-          <t>maa://29005 (98.7), maa://31560 (87.5)</t>
+          <t>maa://29005 (98.7), maa://31560 (88.89)</t>
         </is>
       </c>
       <c r="E299" s="21" t="inlineStr">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="D303" s="20" t="inlineStr">
         <is>
-          <t>maa://50280 (97.62), maa://49642 (96.94), maa://49660 (92.86), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.64), maa://49642 (96.94), maa://49660 (93.1), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E303" s="21" t="inlineStr">
@@ -23819,7 +23819,7 @@
       </c>
       <c r="D313" s="20" t="inlineStr">
         <is>
-          <t>maa://25775 (93.83), *maa://25393 (73.33)</t>
+          <t>maa://25775 (93.98), *maa://25393 (73.33)</t>
         </is>
       </c>
       <c r="E313" s="21" t="inlineStr">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="D326" s="20" t="inlineStr">
         <is>
-          <t>maa://42316 (100.0)</t>
+          <t>maa://42316 (88.89)</t>
         </is>
       </c>
       <c r="E326" s="21" t="inlineStr">
@@ -24629,7 +24629,7 @@
       </c>
       <c r="D328" s="20" t="inlineStr">
         <is>
-          <t>maa://40956 (92.86)</t>
+          <t>maa://40956 (93.02)</t>
         </is>
       </c>
       <c r="E328" s="21" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="D332" s="22" t="inlineStr">
         <is>
-          <t>maa://44234 (99.06)</t>
+          <t>maa://44234 (99.07)</t>
         </is>
       </c>
       <c r="E332" s="22" t="inlineStr">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="D352" s="17" t="inlineStr">
         <is>
-          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (61.54), *maa://52357 (75.0)</t>
+          <t>maa://49696 (99.55), maa://49695 (100.0), maa://49758 (98.44), *maa://59402 (64.29), *maa://52357 (75.0)</t>
         </is>
       </c>
       <c r="E352" s="17" t="inlineStr">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="D357" s="17" t="inlineStr">
         <is>
-          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), maa://40489 (100.0), *maa://56268 (60.0)</t>
+          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), *maa://56268 (60.0), maa://40489 (100.0)</t>
         </is>
       </c>
       <c r="E357" s="17" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D361" s="17" t="inlineStr">
         <is>
-          <t>maa://40957 (93.87), maa://44635 (88.07), maa://48026 (95.0), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), *maa://60251 (75.0)</t>
+          <t>maa://40957 (93.99), maa://44635 (88.07), maa://48026 (95.19), maa://41035 (92.65), maa://44660 (92.31), maa://41128 (83.78), *maa://60251 (75.0)</t>
         </is>
       </c>
       <c r="E361" s="17" t="inlineStr">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="D372" s="17" t="inlineStr">
         <is>
-          <t>maa://44233 (92.31), maa://45570 (98.04)</t>
+          <t>maa://44233 (90.57), maa://45570 (96.23)</t>
         </is>
       </c>
       <c r="E372" s="17" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D377" s="17" t="inlineStr">
         <is>
-          <t>maa://42970 (83.14), maa://44745 (98.33), **maa://49516 (38.1), *maa://45952 (80.0), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.82), maa://44745 (98.44), **maa://49516 (38.1), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E377" s="17" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51872 (96.86), maa://51876 (98.85), maa://51873 (100.0)</t>
+          <t>maa://51872 (96.69), maa://51876 (98.86), maa://51873 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://59493 (96.52), maa://59603 (100.0), maa://60449 (100.0)</t>
+          <t>maa://59493 (96.55), maa://59603 (100.0), maa://60449 (100.0)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.65), maa://24702 (94.87), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.69), maa://24702 (94.87), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.59)</t>
+          <t>maa://22742 (91.63)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (95.8), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (95.83), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -878,12 +878,12 @@
       </c>
       <c r="O3" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (94.86), maa://26254 (97.44)</t>
+          <t>maa://21249 (94.9), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (81.55), maa://24617 (91.18)</t>
+          <t>maa://45854 (81.73), maa://24617 (91.18)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (95.79), maa://52241 (93.33)</t>
+          <t>maa://24390 (95.79), maa://52241 (93.75)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (96.84), maa://50121 (95.35)</t>
+          <t>maa://49983 (96.88), maa://50121 (95.35)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>maa://21919 (97.14), *maa://21281 (80.0)</t>
+          <t>maa://21919 (97.18), *maa://21281 (80.0)</t>
         </is>
       </c>
       <c r="Q5" s="19" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.27), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.3), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>maa://22750 (91.53)</t>
+          <t>maa://22750 (91.67)</t>
         </is>
       </c>
       <c r="Q7" s="19" t="n"/>
@@ -1480,7 +1480,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.11 13:25:31</t>
+          <t>更新日期：2025.07.12 13:21:48</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.3)</t>
+          <t>maa://21411 (95.31)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24479 (76.77), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.0), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.45), ***maa://39951 (11.54), ***maa://34206 (22.22), *maa://45271 (61.45), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.45), ***maa://39951 (11.54), ***maa://34206 (22.22), *maa://45271 (61.9), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.15), *maa://22733 (65.91), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.15), *maa://22733 (66.67), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AF11" s="8" t="inlineStr">
         <is>
-          <t>maa://31203 (96.77)</t>
+          <t>maa://31203 (96.88)</t>
         </is>
       </c>
       <c r="AG11" s="16" t="n"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.87), maa://36673 (92.22), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.88), maa://36673 (92.22), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.2), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (73.94), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.75), *maa://22583 (78.57), maa://48321 (85.71)</t>
+          <t>maa://22676 (93.79), *maa://22583 (78.57), maa://48321 (85.71)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (84.62)</t>
+          <t>maa://34957 (84.75)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (87.5), **maa://39885 (50.0)</t>
+          <t>maa://39883 (87.69), **maa://39885 (50.0)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.77), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.23)</t>
+          <t>maa://39841 (94.8), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.54), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (70.09), maa://45058 (86.36)</t>
+          <t>*maa://22743 (78.54), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.49), maa://45058 (86.36)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (81.65), maa://36666 (81.82), *maa://22766 (68.8)</t>
+          <t>maa://21364 (81.89), maa://36666 (81.82), *maa://22766 (68.8)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (96.54), maa://37650 (96.77), maa://36679 (94.55)</t>
+          <t>maa://21441 (96.54), maa://37650 (96.88), maa://36679 (94.55)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.16), maa://27755 (94.06)</t>
+          <t>*maa://23911 (70.16), maa://27755 (94.12)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t>maa://24385 (97.44)</t>
+          <t>maa://24385 (97.5)</t>
         </is>
       </c>
       <c r="U18" s="19" t="n"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.41), maa://49976 (87.06), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.47), maa://49976 (87.06), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>maa://24372 (97.22)</t>
+          <t>maa://24372 (97.25)</t>
         </is>
       </c>
       <c r="I21" s="19" t="n"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (87.21), maa://22432 (83.33)</t>
+          <t>maa://22524 (87.21), maa://22432 (83.56)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (98.76), *maa://37649 (73.47)</t>
+          <t>maa://21282 (98.76), *maa://37649 (72.55)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.73), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.74), maa://39875 (93.9)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (95.58)</t>
+          <t>maa://29753 (95.6)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>*maa://29063 (72.14), *maa://25311 (74.34), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (72.14), *maa://25311 (74.56), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.11), maa://41749 (91.95)</t>
+          <t>maa://39929 (92.14), maa://41749 (91.95)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (92.45)</t>
+          <t>maa://36660 (92.24)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>maa://31694 (98.41)</t>
+          <t>maa://31694 (98.44)</t>
         </is>
       </c>
       <c r="E29" s="19" t="n"/>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (93.81), maa://36258 (88.37), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.53), maa://36258 (88.37), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="AB31" s="8" t="inlineStr">
         <is>
-          <t>***maa://51420 (16.67)</t>
+          <t>***maa://51420 (15.38)</t>
         </is>
       </c>
       <c r="AC31" s="19" t="n"/>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>maa://24375 (90.91)</t>
+          <t>maa://24375 (91.11)</t>
         </is>
       </c>
       <c r="I36" s="19" t="n"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.56), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.57), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (91.57), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.62), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
-          <t>**maa://39364 (43.94)</t>
+          <t>**maa://39364 (44.78)</t>
         </is>
       </c>
       <c r="U45" s="19" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (92.09), maa://43901 (93.65)</t>
+          <t>maa://35931 (91.86), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (75.0)</t>
+          <t>*maa://62852 (66.67)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (97.73), maa://59378 (94.64)</t>
+          <t>maa://59394 (97.78), maa://59378 (94.64)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.26)</t>
+          <t>maa://32534 (95.27)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -7006,7 +7006,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.11 13:25:31</t>
+          <t>更新日期：2025.07.12 13:21:48</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (97.22)</t>
+          <t>maa://20876 (94.59)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.0), maa://42635 (95.65), *maa://20838 (55.0)</t>
+          <t>maa://27376 (92.45), maa://42635 (95.65), *maa://20838 (55.0)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>maa://20892 (80.65)</t>
+          <t>maa://20892 (80.85)</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (96.15), maa://31173 (96.55)</t>
+          <t>maa://20953 (96.15), maa://31173 (96.67)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="D62" s="13" t="inlineStr">
         <is>
-          <t>maa://20844 (96.97)</t>
+          <t>maa://20844 (97.06)</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>*maa://20845 (68.0), maa://38727 (88.89)</t>
+          <t>*maa://20845 (68.0), maa://38727 (90.0)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -10462,7 +10462,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (96.92), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.01), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (96.51), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.55), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -13972,7 +13972,7 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (99.12)</t>
+          <t>maa://21422 (99.13)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (82.14), **maa://21000 (45.16)</t>
+          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (97.22), **maa://23736 (44.12), maa://31185 (85.71), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.22), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (92.31)</t>
+          <t>maa://20971 (92.86)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
@@ -14998,7 +14998,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.08), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.12), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.73), maa://29659 (86.11), maa://49074 (97.83), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.73), maa://29659 (86.11), maa://49074 (97.87), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (91.67), maa://49655 (96.3)</t>
+          <t>maa://49867 (91.89), maa://49655 (96.3)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.16), maa://35854 (85.86), maa://50388 (98.01), maa://25760 (86.96), ***maa://43911 (13.04), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.18), maa://35854 (85.86), maa://50388 (98.01), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="D203" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (92.31)</t>
+          <t>maa://20854 (92.86)</t>
         </is>
       </c>
       <c r="E203" s="14" t="inlineStr">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="D213" s="13" t="inlineStr">
         <is>
-          <t>maa://39238 (99.51)</t>
+          <t>maa://39238 (99.52)</t>
         </is>
       </c>
       <c r="E213" s="14" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="D231" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (96.15), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="14" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="D232" s="13" t="inlineStr">
         <is>
-          <t>*maa://48263 (76.0)</t>
+          <t>*maa://48263 (76.92)</t>
         </is>
       </c>
       <c r="E232" s="14" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://22467 (95.74)</t>
+          <t>maa://22467 (95.83)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
@@ -21478,7 +21478,7 @@
       </c>
       <c r="D269" s="13" t="inlineStr">
         <is>
-          <t>maa://48265 (82.61)</t>
+          <t>maa://48265 (83.33)</t>
         </is>
       </c>
       <c r="E269" s="14" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="D272" s="26" t="inlineStr">
         <is>
-          <t>**maa://62757 (40.0)</t>
+          <t>**maa://62757 (37.5)</t>
         </is>
       </c>
       <c r="E272" s="27" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.37), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.39), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -23746,7 +23746,7 @@
       </c>
       <c r="D311" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (97.73)</t>
+          <t>maa://35859 (97.75)</t>
         </is>
       </c>
       <c r="E311" s="14" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>maa://53348 (95.0)</t>
+          <t>maa://53348 (95.24)</t>
         </is>
       </c>
       <c r="E312" s="14" t="inlineStr">
@@ -25312,7 +25312,7 @@
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (94.74), maa://49332 (100.0)</t>
+          <t>maa://38295 (94.85), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (97.7), **maa://39217 (41.18), maa://47349 (95.0)</t>
+          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.12)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.08), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (72.73)</t>
+          <t>maa://40957 (94.12), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://43875 (98.18)</t>
+          <t>maa://43875 (98.21)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
@@ -27472,7 +27472,7 @@
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.58), maa://44745 (97.33), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.58), maa://44745 (97.35), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
@@ -27565,12 +27565,12 @@
     <row r="382" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A382" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B382" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C382" s="12" t="inlineStr">
@@ -27580,12 +27580,12 @@
       </c>
       <c r="D382" s="22" t="inlineStr">
         <is>
-          <t>maa://44389 (100.0)</t>
+          <t>maa://59690 (100.0)</t>
         </is>
       </c>
       <c r="E382" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F382" s="19" t="n"/>
@@ -27619,12 +27619,12 @@
     <row r="383" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A383" s="12" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B383" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C383" s="12" t="inlineStr">
@@ -27634,12 +27634,12 @@
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://59690 (100.0)</t>
+          <t>maa://48113 (100.0)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F383" s="19" t="n"/>
@@ -27673,12 +27673,12 @@
     <row r="384" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A384" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B384" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C384" s="12" t="inlineStr">
@@ -27688,12 +27688,12 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://48113 (100.0)</t>
+          <t>maa://45807 (100.0)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
       <c r="F384" s="19" t="n"/>
@@ -27727,12 +27727,12 @@
     <row r="385" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A385" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B385" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C385" s="12" t="inlineStr">
@@ -27742,12 +27742,12 @@
       </c>
       <c r="D385" s="22" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>maa://50552 (100.0)</t>
         </is>
       </c>
       <c r="E385" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
         </is>
       </c>
       <c r="F385" s="19" t="n"/>
@@ -27781,27 +27781,27 @@
     <row r="386" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A386" s="12" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B386" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>maa://50552 (100.0)</t>
+          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F386" s="19" t="n"/>
@@ -27835,27 +27835,27 @@
     <row r="387" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A387" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B387" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C387" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D387" s="22" t="inlineStr">
         <is>
-          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
+          <t>maa://47023 (88.24)</t>
         </is>
       </c>
       <c r="E387" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
         </is>
       </c>
       <c r="F387" s="19" t="n"/>
@@ -27889,12 +27889,12 @@
     <row r="388" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A388" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B388" s="11" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C388" s="12" t="inlineStr">
@@ -27904,12 +27904,12 @@
       </c>
       <c r="D388" s="22" t="inlineStr">
         <is>
-          <t>maa://47023 (88.24)</t>
+          <t>**maa://48618 (50.0)</t>
         </is>
       </c>
       <c r="E388" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
+          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
         </is>
       </c>
       <c r="F388" s="19" t="n"/>
@@ -27943,27 +27943,27 @@
     <row r="389" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A389" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B389" s="11" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C389" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D389" s="22" t="inlineStr">
         <is>
-          <t>**maa://48618 (50.0)</t>
+          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
         </is>
       </c>
       <c r="E389" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
         </is>
       </c>
       <c r="F389" s="19" t="n"/>
@@ -27997,12 +27997,12 @@
     <row r="390" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A390" s="12" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B390" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C390" s="12" t="inlineStr">
@@ -28012,12 +28012,12 @@
       </c>
       <c r="D390" s="22" t="inlineStr">
         <is>
-          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
+          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
         </is>
       </c>
       <c r="E390" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
         </is>
       </c>
       <c r="F390" s="19" t="n"/>
@@ -28051,27 +28051,27 @@
     <row r="391" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A391" s="12" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B391" s="11" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C391" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D391" s="22" t="inlineStr">
         <is>
-          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
+          <t>**maa://59691 (50.0)</t>
         </is>
       </c>
       <c r="E391" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
+          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
         </is>
       </c>
       <c r="F391" s="19" t="n"/>
@@ -28105,27 +28105,27 @@
     <row r="392" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A392" s="12" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B392" s="11" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C392" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D392" s="22" t="inlineStr">
         <is>
-          <t>**maa://59691 (50.0)</t>
+          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
         </is>
       </c>
       <c r="E392" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F392" s="19" t="n"/>
@@ -28159,135 +28159,135 @@
     <row r="393">
       <c r="A393" s="17" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B393" s="23" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C393" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
+          <t>maa://51880 (99.14), maa://56651 (100.0), maa://51878 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
+          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="17" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B394" s="23" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C394" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51880 (99.14), maa://56651 (100.0), maa://51878 (100.0)</t>
+          <t>maa://51872 (96.78), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
+          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="17" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B395" s="17" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C395" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://51872 (96.77), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
+          <t>maa://59493 (96.64), maa://60449 (98.04), maa://59603 (100.0)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
         </is>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="17" t="inlineStr">
-        <is>
-          <t>酒神</t>
-        </is>
-      </c>
-      <c r="B396" s="17" t="inlineStr">
-        <is>
-          <t>9-6</t>
-        </is>
-      </c>
-      <c r="C396" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>maa://59493 (96.61), maa://60449 (97.96), maa://59603 (100.0)</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
+      <c r="A396" s="28" t="inlineStr">
+        <is>
+          <t>录武官</t>
+        </is>
+      </c>
+      <c r="B396" s="28" t="inlineStr">
+        <is>
+          <t>HS-5</t>
+        </is>
+      </c>
+      <c r="C396" s="28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D396" s="29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E396" s="29" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="28" t="inlineStr">
-        <is>
-          <t>录武官</t>
-        </is>
-      </c>
-      <c r="B397" s="28" t="inlineStr">
-        <is>
-          <t>HS-5</t>
-        </is>
-      </c>
-      <c r="C397" s="28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D397" s="29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E397" s="29" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
+      <c r="A397" s="17" t="inlineStr">
+        <is>
+          <t>司霆惊蛰</t>
+        </is>
+      </c>
+      <c r="B397" s="17" t="inlineStr">
+        <is>
+          <t>DV-7</t>
+        </is>
+      </c>
+      <c r="C397" s="17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>maa://62756 (90.0)</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战司霆惊蛰累计造成120000点伤害&gt; 3星通关插曲DV-7；必须编入非助战司霆惊蛰并上场，且使用1次“天地通明”</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -737,7 +737,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (95.12), *maa://34787 (73.91), maa://58660 (90.0)</t>
+          <t>maa://39402 (95.12), *maa://34787 (73.91), maa://58660 (92.31)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (95.24)</t>
+          <t>maa://25251 (91.91), maa://59087 (95.45)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (65.98), maa://20276 (87.96), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.12), maa://20276 (87.96), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (96.88), maa://50121 (95.35)</t>
+          <t>maa://49983 (95.88), maa://50121 (95.35)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (93.88)</t>
+          <t>maa://43217 (93.29)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (84.25), maa://22744 (82.14), maa://54105 (100.0)</t>
+          <t>maa://21245 (83.96), maa://22744 (82.14), maa://54105 (94.74)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="X6" s="8" t="inlineStr">
         <is>
-          <t>maa://52754 (88.0)</t>
+          <t>maa://52754 (88.46)</t>
         </is>
       </c>
       <c r="Y6" s="19" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.3), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.34), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1480,7 +1480,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.12 13:21:48</t>
+          <t>更新日期：2025.07.13 13:23:12</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.45), ***maa://39951 (11.54), ***maa://34206 (22.22), *maa://45271 (61.9), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.45), ***maa://39951 (11.39), ***maa://34206 (22.22), *maa://45271 (61.9), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>maa://36707 (99.4)</t>
+          <t>maa://36707 (99.41)</t>
         </is>
       </c>
       <c r="E11" s="19" t="n"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (90.0), maa://22501 (98.26), maa://45521 (91.89)</t>
+          <t>maa://22747 (90.0), maa://22501 (98.28), maa://45521 (91.89)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.06), maa://37962 (91.89), *maa://21485 (76.16)</t>
+          <t>maa://22753 (92.09), maa://37962 (91.89), *maa://21485 (76.16)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>maa://30764 (90.14)</t>
+          <t>maa://30764 (90.28)</t>
         </is>
       </c>
       <c r="E14" s="19" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.8), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
+          <t>maa://39841 (94.83), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.54), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.49), maa://45058 (86.36)</t>
+          <t>*maa://22743 (78.54), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.75), maa://45058 (86.36)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (92.27), maa://52226 (96.0)</t>
+          <t>maa://22466 (92.27), maa://52226 (96.15)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>*maa://30709 (69.17), *maa://36668 (57.83)</t>
+          <t>*maa://30709 (69.23), *maa://36668 (57.83)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.47), maa://49976 (87.06), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.53), maa://49976 (87.06), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://20110 (87.14), maa://34946 (93.44)</t>
+          <t>maa://20110 (87.14), maa://34946 (93.55)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (91.86), *maa://29748 (76.3), *maa://37566 (79.17)</t>
+          <t>maa://30587 (91.89), *maa://29748 (76.3), *maa://37566 (79.17)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="X23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28503 (63.11)</t>
+          <t>*maa://28503 (62.5)</t>
         </is>
       </c>
       <c r="Y23" s="19" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB23" s="8" t="inlineStr">
         <is>
-          <t>maa://29652 (98.04)</t>
+          <t>maa://29652 (96.15)</t>
         </is>
       </c>
       <c r="AC23" s="19" t="n"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (84.98), maa://23504 (93.8), *maa://25141 (77.37), *maa://36663 (78.22), maa://52227 (95.65)</t>
+          <t>maa://29988 (84.98), maa://23504 (93.8), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (89.93), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.4), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.79), maa://25725 (83.0)</t>
+          <t>maa://24465 (90.8), maa://25725 (83.0)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.14), maa://41749 (91.95)</t>
+          <t>maa://39929 (92.16), maa://41749 (91.95)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (92.24)</t>
+          <t>maa://36660 (92.27)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.16), maa://41108 (86.27), maa://41238 (98.11), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.17), maa://41108 (86.27), maa://41238 (98.11), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>**maa://39351 (42.86)</t>
+          <t>**maa://39351 (37.5)</t>
         </is>
       </c>
       <c r="I33" s="19" t="n"/>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
-          <t>maa://24842 (94.92)</t>
+          <t>maa://24842 (95.0)</t>
         </is>
       </c>
       <c r="U35" s="19" t="n"/>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="P38" s="8" t="inlineStr">
         <is>
-          <t>*maa://24383 (70.8)</t>
+          <t>*maa://24383 (70.18)</t>
         </is>
       </c>
       <c r="Q38" s="19" t="n"/>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (94.55), *maa://45788 (70.73), maa://45790 (81.25)</t>
+          <t>maa://47079 (94.64), *maa://45788 (70.73), maa://45790 (81.25)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5558,12 +5558,12 @@
       </c>
       <c r="AE39" s="19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://62953 (50.0)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
-          <t>maa://24466 (94.0)</t>
+          <t>maa://24466 (92.16)</t>
         </is>
       </c>
       <c r="I41" s="19" t="n"/>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (81.14), maa://21284 (88.14)</t>
+          <t>maa://22525 (80.68), maa://21284 (88.14)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (66.67)</t>
+          <t>*maa://62852 (77.78)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (97.78), maa://59378 (94.64)</t>
+          <t>maa://59394 (97.83), maa://59378 (94.74)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.27)</t>
+          <t>maa://32534 (95.28)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (94.94), maa://27746 (83.05)</t>
+          <t>maa://31270 (94.94), maa://27746 (83.19)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -7006,7 +7006,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.12 13:21:48</t>
+          <t>更新日期：2025.07.13 13:23:12</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8518,7 +8518,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.02), maa://20832 (99.11), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.02), maa://20832 (99.12), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D46" s="13" t="inlineStr">
         <is>
-          <t>maa://39025 (87.5)</t>
+          <t>*maa://39025 (77.78)</t>
         </is>
       </c>
       <c r="E46" s="14" t="inlineStr">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (97.84), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.85), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (88.52), *maa://35841 (61.11)</t>
+          <t>maa://24472 (88.63), *maa://35841 (61.11)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>*maa://20926 (77.78)</t>
+          <t>*maa://20926 (80.0)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.71), maa://51881 (99.23), maa://25776 (92.11), maa://28361 (95.12), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (81.25), ***maa://60902 (28.57)</t>
+          <t>maa://25018 (96.72), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.12), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (95.65)</t>
+          <t>maa://20869 (100.0), maa://44690 (95.83)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -14998,7 +14998,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.12), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.14), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.18), maa://35854 (85.86), maa://50388 (98.01), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.2), maa://35854 (86.0), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.59)</t>
+          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.74)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="D227" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (93.81), *maa://35801 (77.78)</t>
+          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E227" s="14" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.72), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
+          <t>*maa://30667 (78.77), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="D268" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (88.46)</t>
+          <t>maa://49643 (88.89)</t>
         </is>
       </c>
       <c r="E268" s="14" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="D272" s="26" t="inlineStr">
         <is>
-          <t>**maa://62757 (37.5)</t>
+          <t>***maa://62757 (30.0)</t>
         </is>
       </c>
       <c r="E272" s="27" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.23), maa://51630 (96.63), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (28.57)</t>
+          <t>maa://51881 (99.24), maa://51630 (96.63), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (28.57)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.39), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.4), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>**maa://62755 (50.0)</t>
+          <t>*maa://62755 (60.0)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -26122,7 +26122,7 @@
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.46), *maa://59402 (60.87), *maa://52357 (76.92)</t>
+          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.46), *maa://59402 (60.87), *maa://52357 (71.43)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
@@ -26230,7 +26230,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (97.62), maa://42224 (81.25)</t>
+          <t>maa://42299 (97.67), maa://42224 (82.35)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.12), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
+          <t>maa://40957 (94.14), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -27472,7 +27472,7 @@
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.58), maa://44745 (97.35), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.64), maa://44745 (97.37), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.78), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
+          <t>maa://51872 (96.8), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.64), maa://60449 (98.04), maa://59603 (100.0)</t>
+          <t>maa://59493 (96.64), maa://60449 (98.11), maa://59603 (83.33)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (90.0)</t>
+          <t>maa://62756 (89.74)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.69), maa://24702 (94.87), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.69), maa://24702 (94.89), maa://36681 (86.42)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (95.12), *maa://34787 (73.91), maa://58660 (92.31)</t>
+          <t>maa://39402 (95.12), *maa://34787 (74.19), maa://58660 (92.86)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.63)</t>
+          <t>maa://22742 (91.67)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (95.83), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (95.9), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (94.9), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (94.92), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (81.73), maa://24617 (91.18)</t>
+          <t>maa://45854 (81.9), maa://24617 (91.18)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (84.08), maa://27484 (96.55), maa://27480 (85.0)</t>
+          <t>maa://27396 (83.84), maa://27484 (96.58), maa://27480 (85.0)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (95.88), maa://50121 (95.35)</t>
+          <t>maa://49983 (95.92), maa://50121 (95.35)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (93.29)</t>
+          <t>maa://43217 (93.33)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (83.96), maa://22744 (82.14), maa://54105 (94.74)</t>
+          <t>maa://21245 (83.67), maa://22744 (82.14), maa://54105 (90.0)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1480,7 +1480,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.13 13:23:12</t>
+          <t>更新日期：2025.07.15 13:26:28</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (87.59), maa://40166 (91.84)</t>
+          <t>maa://28711 (87.67), maa://40166 (91.84)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.5), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.01), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (90.0), maa://22501 (98.28), maa://45521 (91.89)</t>
+          <t>maa://22747 (90.0), maa://22501 (98.29), maa://45521 (91.89)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="X11" s="8" t="inlineStr">
         <is>
-          <t>maa://36713 (98.2)</t>
+          <t>maa://36713 (98.21)</t>
         </is>
       </c>
       <c r="Y11" s="19" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.09), maa://37962 (91.89), *maa://21485 (76.16)</t>
+          <t>maa://22753 (92.13), maa://37962 (90.67), *maa://21485 (76.16)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.88), maa://36673 (92.22), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.89), maa://36673 (92.22), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.83), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
+          <t>maa://39841 (94.86), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.54), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.75), maa://45058 (86.36)</t>
+          <t>*maa://22743 (78.63), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.42), maa://45058 (86.36)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (86.99), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.04), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (81.89), maa://36666 (81.82), *maa://22766 (68.8)</t>
+          <t>maa://21364 (81.89), maa://36666 (81.93), *maa://22766 (68.8)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (94.59), *maa://28648 (75.0), *maa://36674 (79.69)</t>
+          <t>maa://22729 (94.59), *maa://28648 (75.29), *maa://36674 (79.69)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.15)</t>
+          <t>maa://41331 (86.21)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (87.21), maa://22432 (83.56)</t>
+          <t>maa://22524 (87.21), maa://22432 (83.67)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (77.37), *maa://22751 (70.67)</t>
+          <t>*maa://27127 (77.54), *maa://22751 (70.67)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.74), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.76), maa://39875 (93.9)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (84.98), maa://23504 (93.8), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
+          <t>maa://29988 (84.98), maa://23504 (93.83), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (73.91), maa://29910 (93.85), maa://45831 (88.89)</t>
+          <t>maa://22523 (81.74), *maa://36672 (72.86), maa://29910 (93.85), maa://45831 (88.89)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (96.27)</t>
+          <t>maa://42235 (96.3)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.8), maa://25725 (83.0)</t>
+          <t>maa://24465 (90.81), maa://25725 (83.0)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.16), maa://41749 (91.95)</t>
+          <t>maa://39929 (92.17), maa://41749 (92.0)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>maa://31694 (98.44)</t>
+          <t>maa://31694 (98.46)</t>
         </is>
       </c>
       <c r="E29" s="19" t="n"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.25), maa://42865 (81.36)</t>
+          <t>*maa://24080 (69.25), maa://42865 (81.67)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (93.53), maa://36258 (88.37), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.55), maa://36258 (88.44), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.17), maa://41108 (86.27), maa://41238 (98.11), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.18), maa://41108 (86.27), maa://41238 (98.14), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.37), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.4), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.47)</t>
+          <t>maa://41296 (97.49)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.57), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.58), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (89.74), *maa://21239 (71.43)</t>
+          <t>maa://21280 (89.79), *maa://21239 (71.43)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (89.58)</t>
+          <t>maa://36697 (89.64)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (88.52), maa://25199 (85.47), maa://30434 (93.53), *maa://45059 (75.0), *maa://44165 (75.0)</t>
+          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.62), *maa://45059 (75.0), *maa://44165 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (91.62), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.67), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>**maa://62953 (50.0)</t>
+          <t>*maa://62953 (62.5)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (91.86), maa://43901 (92.31)</t>
+          <t>maa://35931 (91.88), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.92), maa://29661 (97.66), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (96.92), maa://29661 (97.67), maa://28038 (84.62), maa://56236 (100.0)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (77.78)</t>
+          <t>*maa://62852 (63.64)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (97.83), maa://59378 (94.74)</t>
+          <t>maa://59394 (97.87), maa://59378 (94.74)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.28)</t>
+          <t>maa://32534 (95.31)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (93.57)</t>
+          <t>maa://32532 (93.59)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (97.85), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.89), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7006,7 +7006,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.13 13:23:12</t>
+          <t>更新日期：2025.07.15 13:26:28</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>maa://20948 (88.89), maa://30844 (100.0)</t>
+          <t>maa://20948 (88.89), maa://30844 (100.0), maa://58691 (100.0)</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (87.88), maa://36866 (96.49), maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78), maa://62759 (100.0)</t>
+          <t>maa://36644 (87.94), maa://36866 (96.49), maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), maa://62759 (100.0), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (98.26), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.27), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (87.74)</t>
+          <t>maa://38298 (87.85)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.72), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.12), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="D111" s="13" t="inlineStr">
         <is>
-          <t>*maa://28554 (80.0)</t>
+          <t>maa://28554 (80.77)</t>
         </is>
       </c>
       <c r="E111" s="14" t="inlineStr">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (98.51)</t>
+          <t>maa://29037 (97.06)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (95.83)</t>
+          <t>maa://20869 (100.0), maa://44690 (96.0)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (96.73), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0)</t>
+          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -14998,7 +14998,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.14), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.19), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.73), maa://29659 (86.11), maa://49074 (97.87), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.31), maa://29627 (92.73), maa://29659 (86.11), maa://49074 (95.92), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (88.89)</t>
+          <t>maa://37690 (90.0)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.2), maa://35854 (86.0), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.22), maa://35854 (86.14), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.77), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
+          <t>*maa://30667 (78.81), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
@@ -20398,7 +20398,7 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (91.46), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (91.5), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E249" s="14" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="D257" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (87.21), maa://20834 (92.86)</t>
+          <t>maa://20879 (87.36), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E257" s="14" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://22467 (95.83)</t>
+          <t>maa://22467 (95.92)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="D272" s="26" t="inlineStr">
         <is>
-          <t>***maa://62757 (30.0)</t>
+          <t>**maa://62757 (36.36)</t>
         </is>
       </c>
       <c r="E272" s="27" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.24), maa://51630 (96.63), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (28.57)</t>
+          <t>maa://51881 (99.24), maa://51630 (96.67), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (28.57)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.66), maa://46332 (95.45), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.71), maa://46332 (95.45), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="D294" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (97.14), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E294" s="14" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.4), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.44), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -23746,7 +23746,7 @@
       </c>
       <c r="D311" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (97.75)</t>
+          <t>maa://35859 (97.78)</t>
         </is>
       </c>
       <c r="E311" s="14" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>*maa://62755 (60.0)</t>
+          <t>**maa://62755 (50.0)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -24934,7 +24934,7 @@
       </c>
       <c r="D333" s="15" t="inlineStr">
         <is>
-          <t>maa://34205 (88.89), *maa://39541 (75.0)</t>
+          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
         </is>
       </c>
       <c r="E333" s="15" t="inlineStr">
@@ -25852,7 +25852,7 @@
       </c>
       <c r="D350" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (97.84), maa://34717 (94.12), *maa://45066 (71.43)</t>
+          <t>maa://34865 (97.86), maa://34717 (94.12), *maa://45066 (71.43)</t>
         </is>
       </c>
       <c r="E350" s="22" t="inlineStr">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.14), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
+          <t>maa://40957 (94.19), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -27472,7 +27472,7 @@
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.64), maa://44745 (97.37), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.71), maa://44745 (97.39), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.8), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
+          <t>maa://51872 (96.62), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.64), maa://60449 (98.11), maa://59603 (83.33)</t>
+          <t>maa://59493 (96.69), maa://60449 (98.15), *maa://59603 (77.78)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (89.74)</t>
+          <t>maa://62756 (91.3)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.69), maa://24702 (94.89), maa://36681 (86.42)</t>
+          <t>maa://25390 (95.7), maa://24702 (94.89), maa://36681 (86.59)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (91.53), maa://36684 (93.68)</t>
+          <t>maa://21246 (91.53), maa://36684 (93.75)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (95.45)</t>
+          <t>maa://25251 (91.91), maa://59087 (95.65)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (95.9), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (95.97), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.12), maa://20276 (87.96), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.4), maa://20276 (87.96), *maa://22749 (78.95)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (94.92), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (94.95), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (83.84), maa://27484 (96.58), maa://27480 (85.0)</t>
+          <t>maa://27396 (83.93), maa://27484 (96.58), maa://27480 (85.0)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (95.92), maa://50121 (95.35)</t>
+          <t>maa://49983 (95.96), maa://50121 (95.35)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.07), maa://27295 (88.12), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.07), maa://27295 (87.25), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (93.33)</t>
+          <t>maa://43217 (93.42)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (83.67), maa://22744 (82.14), maa://54105 (90.0)</t>
+          <t>maa://21245 (83.67), maa://22744 (82.14), maa://54105 (90.48)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>maa://21955 (94.0)</t>
+          <t>maa://21955 (94.12)</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.34), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.38), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="AF7" s="8" t="inlineStr">
         <is>
-          <t>maa://45272 (97.3)</t>
+          <t>maa://45272 (97.37)</t>
         </is>
       </c>
       <c r="AG7" s="16" t="n"/>
@@ -1480,7 +1480,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.15 13:26:28</t>
+          <t>更新日期：2025.07.16 13:27:18</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.31)</t>
+          <t>maa://21411 (95.33)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="AB8" s="8" t="inlineStr">
         <is>
-          <t>maa://25389 (89.13)</t>
+          <t>maa://25389 (89.36)</t>
         </is>
       </c>
       <c r="AC8" s="19" t="n"/>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.0), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.23), *maa://21990 (51.85)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.01), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.13), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.45), ***maa://39951 (11.39), ***maa://34206 (22.22), *maa://45271 (61.9), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.84), ***maa://39951 (11.39), ***maa://34206 (22.22), *maa://45271 (61.18), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.13), maa://37962 (90.67), *maa://21485 (76.16)</t>
+          <t>maa://22753 (92.17), maa://37962 (90.67), *maa://21485 (76.16)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.79), *maa://22583 (78.57), maa://48321 (85.71)</t>
+          <t>maa://22676 (93.84), *maa://22583 (78.57), maa://48321 (85.71)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.86), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
+          <t>maa://39841 (94.89), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.63), maa://22734 (84.55), *maa://30808 (64.38), *maa://36048 (69.42), maa://45058 (86.36)</t>
+          <t>*maa://22743 (78.63), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (69.42), maa://45058 (82.61)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (87.04), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.08), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (89.77), maa://39599 (87.21)</t>
+          <t>maa://22430 (89.4), maa://39599 (87.21)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (97.27), maa://22741 (87.5)</t>
+          <t>maa://21917 (97.3), maa://22741 (87.5)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
-          <t>maa://24386 (98.71)</t>
+          <t>maa://24386 (98.73)</t>
         </is>
       </c>
       <c r="U19" s="19" t="n"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.21)</t>
+          <t>maa://41331 (86.26)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.53), maa://49976 (87.06), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.53), maa://49976 (87.21), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (83.14)</t>
+          <t>maa://21443 (83.18)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (87.21), maa://22432 (83.67)</t>
+          <t>maa://22524 (87.26), maa://22432 (83.67)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AB22" s="8" t="inlineStr">
         <is>
-          <t>maa://23656 (100.0)</t>
+          <t>maa://23656 (98.72)</t>
         </is>
       </c>
       <c r="AC22" s="19" t="n"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.74), *maa://36672 (72.86), maa://29910 (93.85), maa://45831 (88.89)</t>
+          <t>maa://22523 (81.36), *maa://36672 (72.86), maa://29910 (93.85), maa://45831 (88.89)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (89.4), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.47), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
-          <t>maa://28071 (91.3)</t>
+          <t>maa://28071 (91.67)</t>
         </is>
       </c>
       <c r="M27" s="19" t="n"/>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.81), maa://25725 (83.0)</t>
+          <t>maa://24465 (90.82), maa://25725 (83.0)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (97.71), maa://36667 (97.44), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.72), maa://36667 (97.44), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.18), maa://41108 (86.27), maa://41238 (98.14), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.2), maa://41108 (86.27), maa://41238 (98.14), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.58), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.59), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.62), *maa://45059 (75.0), *maa://44165 (75.0)</t>
+          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.66), *maa://45059 (75.0), *maa://44165 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>*maa://62953 (62.5)</t>
+          <t>*maa://62953 (78.57)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5737,6 +5737,22 @@
         </is>
       </c>
       <c r="U41" s="19" t="n"/>
+      <c r="Z41" s="16" t="inlineStr">
+        <is>
+          <t>电弧</t>
+        </is>
+      </c>
+      <c r="AA41" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB41" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC41" s="16" t="n"/>
       <c r="AD41" s="19" t="inlineStr">
         <is>
           <t>裁度</t>
@@ -5855,7 +5871,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (80.68), maa://21284 (88.14)</t>
+          <t>maa://22525 (80.23), maa://21284 (88.14)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -6322,7 +6338,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (63.64)</t>
+          <t>*maa://62852 (68.0)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6456,7 +6472,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.31)</t>
+          <t>maa://32534 (95.32)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -7006,7 +7022,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.15 13:26:28</t>
+          <t>更新日期：2025.07.16 13:27:18</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8194,7 +8210,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (94.59)</t>
+          <t>maa://20876 (94.74)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8680,7 +8696,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (87.94), maa://36866 (96.49), maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), maa://62759 (100.0), *maa://20893 (77.78)</t>
+          <t>maa://36644 (87.94), maa://36866 (96.49), maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://62759 (100.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8734,7 +8750,7 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>maa://30500 (98.92), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
+          <t>maa://30500 (98.94), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -8950,7 +8966,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.45), maa://42635 (95.65), *maa://20838 (55.0)</t>
+          <t>maa://27376 (92.86), maa://42635 (95.65), *maa://20838 (55.0)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -10840,7 +10856,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.27), maa://36864 (98.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.27), maa://36864 (98.02), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -12190,7 +12206,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (88.46)</t>
+          <t>maa://20991 (100.0), maa://51015 (88.89)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12779,12 +12795,12 @@
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13810,7 +13826,7 @@
       </c>
       <c r="D127" s="13" t="inlineStr">
         <is>
-          <t>maa://20914 (100.0), *maa://31937 (75.0), maa://20829 (100.0)</t>
+          <t>maa://20914 (100.0), *maa://31937 (80.0), maa://20829 (100.0)</t>
         </is>
       </c>
       <c r="E127" s="14" t="inlineStr">
@@ -13864,7 +13880,7 @@
       </c>
       <c r="D128" s="13" t="inlineStr">
         <is>
-          <t>maa://37484 (94.23), maa://24611 (90.62)</t>
+          <t>maa://37484 (94.23), maa://24611 (90.91)</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
@@ -14998,7 +15014,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.19), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.22), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -17590,7 +17606,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.22), maa://35854 (86.14), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://44224 (90.26), maa://35854 (86.14), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -19804,7 +19820,7 @@
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (94.2), *maa://32623 (75.0), maa://34242 (85.71)</t>
+          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
@@ -19961,12 +19977,12 @@
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.0)</t>
+          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20776,7 +20792,7 @@
       </c>
       <c r="D256" s="13" t="inlineStr">
         <is>
-          <t>maa://20877 (98.7), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.72), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E256" s="14" t="inlineStr">
@@ -20830,7 +20846,7 @@
       </c>
       <c r="D257" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (87.36), maa://20834 (92.86)</t>
+          <t>maa://20879 (87.5), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E257" s="14" t="inlineStr">
@@ -21640,7 +21656,7 @@
       </c>
       <c r="D272" s="26" t="inlineStr">
         <is>
-          <t>**maa://62757 (36.36)</t>
+          <t>**maa://62757 (38.46)</t>
         </is>
       </c>
       <c r="E272" s="27" t="inlineStr">
@@ -22504,7 +22520,7 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.71), maa://46332 (95.45), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.71), maa://46332 (95.65), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
@@ -23422,7 +23438,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.44), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.47), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -24119,12 +24135,12 @@
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>**maa://62755 (50.0)</t>
+          <t>maa://62761 (100.0), **maa://62755 (50.0)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -25042,7 +25058,7 @@
       </c>
       <c r="D335" s="15" t="inlineStr">
         <is>
-          <t>maa://44234 (99.11)</t>
+          <t>maa://44234 (99.12)</t>
         </is>
       </c>
       <c r="E335" s="15" t="inlineStr">
@@ -25312,7 +25328,7 @@
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (94.85), maa://49332 (100.0)</t>
+          <t>maa://38295 (94.9), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
@@ -25474,7 +25490,7 @@
       </c>
       <c r="D343" s="22" t="inlineStr">
         <is>
-          <t>maa://32416 (91.53)</t>
+          <t>maa://32416 (91.67)</t>
         </is>
       </c>
       <c r="E343" s="22" t="inlineStr">
@@ -25577,12 +25593,12 @@
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (97.89), maa://32415 (96.79), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71)</t>
+          <t>maa://32647 (97.89), maa://32415 (96.79), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
@@ -26122,7 +26138,7 @@
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.46), *maa://59402 (60.87), *maa://52357 (71.43)</t>
+          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.48), *maa://59402 (58.33), *maa://52357 (71.43)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
@@ -26392,7 +26408,7 @@
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.33), *maa://56268 (60.0), maa://40489 (100.0)</t>
+          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
@@ -26608,7 +26624,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.19), maa://44635 (88.07), maa://48026 (94.59), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
+          <t>maa://40957 (94.22), maa://44635 (88.07), maa://48026 (93.75), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -28201,7 +28217,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.62), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (90.91)</t>
+          <t>maa://51872 (96.64), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (91.67)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28223,12 +28239,12 @@
       </c>
       <c r="C395" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.69), maa://60449 (98.15), *maa://59603 (77.78)</t>
+          <t>maa://59493 (96.72), maa://60449 (98.25)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28282,7 +28298,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (91.3)</t>
+          <t>maa://62756 (92.59)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -87,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -170,6 +170,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,7 +706,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.7), maa://24702 (94.89), maa://36681 (86.59)</t>
+          <t>maa://25390 (95.74), maa://24702 (94.9), maa://36681 (86.59)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -737,7 +738,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (95.12), *maa://34787 (74.19), maa://58660 (92.86)</t>
+          <t>maa://39402 (95.16), *maa://34787 (74.47), maa://58660 (93.75)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -801,7 +802,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (91.53), maa://36684 (93.75)</t>
+          <t>maa://21246 (91.56), maa://36684 (93.89)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -817,7 +818,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (95.65)</t>
+          <t>maa://25251 (91.91), maa://59087 (96.0)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -835,7 +836,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (95.97), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.03), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -851,7 +852,7 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>maa://21247 (98.53)</t>
+          <t>maa://21247 (98.54)</t>
         </is>
       </c>
       <c r="I3" s="19" t="n"/>
@@ -867,7 +868,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.4), maa://20276 (87.96), *maa://22749 (78.95)</t>
+          <t>*maa://22880 (66.4), maa://20276 (88.13), *maa://22749 (80.0)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -883,7 +884,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (94.95), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (94.98), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -894,12 +895,12 @@
       </c>
       <c r="S3" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (81.9), maa://24617 (91.18)</t>
+          <t>maa://45854 (82.24), maa://24617 (91.18), *maa://60545 (72.73)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -915,7 +916,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (83.93), maa://27484 (96.58), maa://27480 (85.0)</t>
+          <t>maa://27396 (84.02), maa://27484 (96.6), maa://27480 (85.0)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -931,7 +932,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (95.79), maa://52241 (93.75)</t>
+          <t>maa://24390 (95.92), maa://52241 (93.75)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -965,7 +966,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (93.33), maa://22499 (88.24), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.4), maa://22499 (88.24), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1013,7 +1014,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (95.96), maa://50121 (95.35)</t>
+          <t>maa://49983 (95.15), maa://50121 (95.45)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.07), maa://27295 (87.25), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.16), maa://27295 (87.38), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1045,7 +1046,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (93.42)</t>
+          <t>maa://43217 (92.95)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1100,7 +1101,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (83.67), maa://22744 (82.14), maa://54105 (90.48)</t>
+          <t>maa://21245 (83.5), maa://22744 (82.14), maa://54105 (91.3)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1132,7 +1133,7 @@
       </c>
       <c r="L5" s="8" t="inlineStr">
         <is>
-          <t>maa://22757 (80.43)</t>
+          <t>maa://22757 (80.85)</t>
         </is>
       </c>
       <c r="M5" s="19" t="n"/>
@@ -1262,7 +1263,7 @@
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>maa://24839 (98.86)</t>
+          <t>maa://24839 (98.88)</t>
         </is>
       </c>
       <c r="M6" s="19" t="n"/>
@@ -1294,7 +1295,7 @@
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
-          <t>maa://37411 (87.5)</t>
+          <t>maa://37411 (88.0)</t>
         </is>
       </c>
       <c r="U6" s="19" t="n"/>
@@ -1310,7 +1311,7 @@
       </c>
       <c r="X6" s="8" t="inlineStr">
         <is>
-          <t>maa://52754 (88.46)</t>
+          <t>maa://52754 (88.89)</t>
         </is>
       </c>
       <c r="Y6" s="19" t="n"/>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>maa://21955 (94.12)</t>
+          <t>maa://21955 (94.23)</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -1392,7 +1393,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.38), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.64), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>maa://22750 (91.67)</t>
+          <t>maa://22750 (91.8)</t>
         </is>
       </c>
       <c r="Q7" s="19" t="n"/>
@@ -1424,7 +1425,7 @@
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
-          <t>maa://21291 (87.88)</t>
+          <t>maa://21291 (88.06)</t>
         </is>
       </c>
       <c r="U7" s="19" t="n"/>
@@ -1440,7 +1441,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (95.79), *maa://22758 (78.05)</t>
+          <t>maa://22399 (95.83), *maa://22758 (78.05)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1480,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.16 13:27:18</t>
+          <t>更新日期：2025.07.23 13:29:43</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>*maa://21476 (76.67), *maa://39431 (58.82), **maa://37551 (50.0)</t>
+          <t>*maa://21476 (76.67), *maa://39431 (61.11), **maa://37551 (50.0)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1511,7 +1512,7 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24371 (56.79)</t>
+          <t>*maa://24371 (57.32)</t>
         </is>
       </c>
       <c r="I8" s="19" t="n"/>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (84.14), maa://23252 (91.67), maa://37496 (97.73)</t>
+          <t>maa://32931 (83.78), maa://23252 (91.67), maa://37496 (97.73)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1575,7 +1576,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.33)</t>
+          <t>maa://21411 (95.13)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1607,7 +1608,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.23), *maa://21990 (51.85)</t>
+          <t>*maa://24479 (77.23), **maa://21990 (50.0)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1705,7 +1706,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (98.15), maa://52237 (100.0)</t>
+          <t>maa://26223 (98.16), maa://52237 (100.0)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1721,7 +1722,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (87.67), maa://40166 (91.84)</t>
+          <t>maa://28711 (87.84), maa://40166 (92.0)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.13), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.3), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1819,7 +1820,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (96.85), maa://22755 (89.39)</t>
+          <t>maa://27395 (96.9), maa://22755 (88.72)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1835,7 +1836,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (97.95), maa://45828 (94.12), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.96), maa://45828 (94.23), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>maa://36707 (99.41)</t>
+          <t>maa://36707 (99.42)</t>
         </is>
       </c>
       <c r="E11" s="19" t="n"/>
@@ -1917,7 +1918,7 @@
       </c>
       <c r="L11" s="8" t="inlineStr">
         <is>
-          <t>maa://21287 (88.52)</t>
+          <t>maa://21287 (88.62)</t>
         </is>
       </c>
       <c r="M11" s="19" t="n"/>
@@ -1949,7 +1950,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (90.0), maa://22501 (98.29), maa://45521 (91.89)</t>
+          <t>maa://22747 (89.5), maa://22501 (98.36), maa://45521 (92.31)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (97.92), maa://22516 (87.36)</t>
+          <t>maa://29912 (97.96), maa://22516 (87.36)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -2095,7 +2096,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.17), maa://37962 (90.67), *maa://21485 (76.16)</t>
+          <t>maa://22753 (92.2), maa://37962 (90.67), *maa://21485 (76.16)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2111,7 +2112,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (95.7), maa://36677 (95.65), maa://39872 (93.1)</t>
+          <t>maa://23669 (95.71), maa://36677 (95.74), maa://39872 (93.33)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2127,7 +2128,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>*maa://28932 (79.33), *maa://20106 (64.29), *maa://22769 (64.29)</t>
+          <t>*maa://28932 (78.89), *maa://20106 (64.29), *maa://22769 (62.07)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2145,7 +2146,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.89), maa://36673 (92.22), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.93), maa://36673 (92.39), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2161,7 +2162,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.94), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (73.96), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2193,7 +2194,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.84), *maa://22583 (78.57), maa://48321 (85.71)</t>
+          <t>maa://22676 (93.96), *maa://22583 (78.57), *maa://48321 (80.0)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2225,7 +2226,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (84.75)</t>
+          <t>maa://34957 (85.12)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2257,7 +2258,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (87.69), **maa://39885 (50.0)</t>
+          <t>maa://39883 (87.79), **maa://39885 (50.0)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2307,7 +2308,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.89), maa://26245 (96.83), maa://21288 (96.3), maa://36682 (96.3)</t>
+          <t>maa://39841 (94.92), maa://26245 (96.84), maa://21288 (96.3), maa://36682 (96.3)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2339,7 +2340,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (94.96), maa://42751 (96.15)</t>
+          <t>maa://22521 (95.0), maa://42751 (96.15)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2405,7 +2406,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.63), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (69.42), maa://45058 (82.61)</t>
+          <t>*maa://22743 (78.71), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (70.87), maa://45058 (82.61)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2421,7 +2422,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (87.08), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.13), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2453,7 +2454,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (91.05), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.1), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2517,7 +2518,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (81.89), maa://36666 (81.93), *maa://22766 (68.8)</t>
+          <t>maa://21364 (81.98), maa://36666 (81.93), *maa://22766 (68.8)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2599,7 +2600,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (94.59), *maa://28648 (75.29), *maa://36674 (79.69)</t>
+          <t>maa://22729 (94.65), *maa://28648 (75.29), maa://36674 (80.3)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (98.36), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.39), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2647,7 +2648,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.16), maa://27755 (94.12)</t>
+          <t>*maa://23911 (70.4), maa://27755 (94.12)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2681,7 +2682,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (89.4), maa://39599 (87.21)</t>
+          <t>maa://22430 (89.59), maa://39599 (87.5)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="AF17" s="8" t="inlineStr">
         <is>
-          <t>maa://50136 (96.0)</t>
+          <t>maa://50136 (96.15)</t>
         </is>
       </c>
       <c r="AG17" s="16" t="n"/>
@@ -2795,7 +2796,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>maa://24570 (97.14)</t>
+          <t>maa://24570 (97.22)</t>
         </is>
       </c>
       <c r="E18" s="19" t="n"/>
@@ -2811,7 +2812,7 @@
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>maa://24421 (87.15)</t>
+          <t>maa://24421 (87.29)</t>
         </is>
       </c>
       <c r="I18" s="19" t="n"/>
@@ -2827,7 +2828,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (92.27), maa://52226 (96.15)</t>
+          <t>maa://22466 (92.31), maa://52226 (96.43)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t>maa://24385 (97.5)</t>
+          <t>maa://24385 (97.56)</t>
         </is>
       </c>
       <c r="U18" s="19" t="n"/>
@@ -2907,7 +2908,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (75.0)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (76.19)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>*maa://30709 (69.23), *maa://36668 (57.83)</t>
+          <t>*maa://30709 (69.29), *maa://36668 (57.83)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3055,7 +3056,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (90.91), maa://25198 (93.94), maa://36680 (91.18)</t>
+          <t>maa://21432 (90.95), maa://25198 (93.94), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3071,7 +3072,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>maa://22864 (90.48)</t>
+          <t>maa://22864 (90.53)</t>
         </is>
       </c>
       <c r="I20" s="19" t="n"/>
@@ -3087,7 +3088,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.26)</t>
+          <t>maa://41331 (86.47)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3135,7 +3136,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.53), maa://49976 (87.21), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.33), maa://49976 (87.36), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3281,7 +3282,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (83.18)</t>
+          <t>maa://21443 (83.22)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3297,7 +3298,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (87.26), maa://22432 (83.67)</t>
+          <t>maa://22524 (86.92), maa://22432 (84.11)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3331,7 +3332,7 @@
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>maa://25236 (96.33)</t>
+          <t>maa://25236 (96.4)</t>
         </is>
       </c>
       <c r="I22" s="19" t="n"/>
@@ -3395,7 +3396,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (98.76), *maa://37649 (72.55)</t>
+          <t>maa://21282 (98.77), *maa://37649 (72.55)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3477,7 +3478,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.76), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.82), maa://39875 (93.9)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3575,7 +3576,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.57), *maa://46650 (61.76)</t>
+          <t>*maa://24368 (79.67), *maa://46650 (62.86)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3655,7 +3656,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (84.98), maa://23504 (93.83), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
+          <t>maa://29988 (85.03), maa://23504 (93.87), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3700,12 +3701,12 @@
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (95.6)</t>
+          <t>maa://29753 (95.6), maa://63016 (100.0)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3721,7 +3722,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>*maa://29063 (72.14), *maa://25311 (74.56), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (71.43), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3769,7 +3770,7 @@
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (92.71), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.78), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3801,7 +3802,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (89.47), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.68), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3817,7 +3818,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (95.97), maa://24621 (97.22), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (96.0), maa://24621 (97.22), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3835,7 +3836,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (93.55), maa://56374 (100.0)</t>
+          <t>maa://41802 (93.75), maa://56374 (100.0)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (96.3)</t>
+          <t>maa://42235 (96.32)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -3947,7 +3948,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>*maa://30511 (73.68), **maa://29760 (50.0)</t>
+          <t>*maa://30511 (74.58), **maa://29760 (50.0)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -3981,7 +3982,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>maa://39601 (81.48), maa://34494 (97.44)</t>
+          <t>maa://39601 (81.48), maa://34494 (97.5)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4095,7 +4096,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.82), maa://25725 (83.0)</t>
+          <t>maa://24465 (90.83), maa://25725 (82.18)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4175,7 +4176,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.17), maa://41749 (92.0)</t>
+          <t>maa://39929 (92.25), maa://41749 (92.11)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4207,7 +4208,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (92.27)</t>
+          <t>maa://36660 (92.33)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4241,7 +4242,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>*maa://25175 (55.71)</t>
+          <t>*maa://25175 (56.34)</t>
         </is>
       </c>
       <c r="I29" s="19" t="n"/>
@@ -4257,7 +4258,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (94.16), maa://31400 (98.9), maa://28440 (84.83), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.03), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4337,7 +4338,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.25), maa://42865 (81.67)</t>
+          <t>*maa://24080 (69.25), maa://42865 (80.33)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4403,7 +4404,7 @@
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (98.82)</t>
+          <t>maa://21442 (98.85)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4451,7 +4452,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (97.22), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.25), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4517,7 +4518,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (93.55), maa://36258 (88.44), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.57), maa://36258 (88.51), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4581,7 +4582,7 @@
       </c>
       <c r="AB31" s="8" t="inlineStr">
         <is>
-          <t>***maa://51420 (15.38)</t>
+          <t>***maa://51420 (14.29)</t>
         </is>
       </c>
       <c r="AC31" s="19" t="n"/>
@@ -4631,7 +4632,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (97.72), maa://36667 (97.44), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.74), maa://36667 (97.48), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4679,7 +4680,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.2), maa://41108 (86.27), maa://41238 (98.14), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.25), maa://41108 (86.27), maa://41238 (98.24), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4793,7 +4794,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (81.44), *maa://22730 (71.88)</t>
+          <t>maa://21956 (81.44), *maa://22730 (72.73)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4923,7 +4924,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.4), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.44), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5037,7 +5038,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.49)</t>
+          <t>maa://41296 (97.5)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5151,7 +5152,7 @@
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>maa://24375 (91.11)</t>
+          <t>maa://24375 (91.3)</t>
         </is>
       </c>
       <c r="I36" s="19" t="n"/>
@@ -5199,7 +5200,7 @@
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
-          <t>maa://27613 (99.15)</t>
+          <t>maa://27613 (99.16)</t>
         </is>
       </c>
       <c r="U36" s="19" t="n"/>
@@ -5281,7 +5282,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>*maa://24374 (57.14)</t>
+          <t>*maa://24374 (56.0)</t>
         </is>
       </c>
       <c r="I37" s="19" t="n"/>
@@ -5297,7 +5298,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.59), maa://47069 (81.82), maa://56336 (90.0), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.6), maa://47069 (81.82), maa://56336 (81.82), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5313,7 +5314,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (89.79), *maa://21239 (71.43)</t>
+          <t>maa://21280 (89.83), *maa://21239 (71.43)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5462,7 +5463,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (89.64)</t>
+          <t>maa://36697 (89.94)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5483,7 +5484,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.66), *maa://45059 (75.0), *maa://44165 (75.0)</t>
+          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.92), *maa://45059 (75.68), *maa://44165 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5515,7 +5516,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (91.67), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.71), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5531,7 +5532,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (94.64), *maa://45788 (70.73), maa://45790 (81.25)</t>
+          <t>maa://47079 (93.86), *maa://45788 (70.73), maa://45790 (81.25)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5563,7 +5564,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>*maa://62953 (78.57)</t>
+          <t>maa://62953 (93.62)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (95.28), maa://21386 (95.83), maa://36664 (90.16), maa://45550 (87.5)</t>
+          <t>maa://23278 (95.32), maa://21386 (95.83), maa://36664 (88.71), maa://45550 (87.5)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5871,7 +5872,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (80.23), maa://21284 (88.14)</t>
+          <t>maa://22525 (80.34), maa://21284 (88.14)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5956,7 +5957,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (97.68), maa://27728 (96.19), maa://56386 (100.0)</t>
+          <t>maa://29768 (97.69), maa://27728 (96.19), maa://56386 (100.0)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -5988,7 +5989,7 @@
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
-          <t>maa://39366 (89.74)</t>
+          <t>maa://39366 (90.0)</t>
         </is>
       </c>
       <c r="U44" s="19" t="n"/>
@@ -6094,7 +6095,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (91.88), maa://43901 (92.31)</t>
+          <t>maa://35931 (92.0), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6163,7 +6164,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.92), maa://29661 (97.67), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (96.94), maa://29661 (97.69), maa://28038 (84.62), maa://56236 (100.0)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6338,7 +6339,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (68.0)</t>
+          <t>*maa://62852 (70.59)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6438,7 +6439,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (97.87), maa://59378 (94.74)</t>
+          <t>maa://59394 (98.04), maa://59378 (95.24)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6472,7 +6473,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.32)</t>
+          <t>maa://32534 (95.38)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6556,7 +6557,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (93.59)</t>
+          <t>maa://32532 (93.62)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6592,7 +6593,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (98.61), maa://56237 (100.0)</t>
+          <t>maa://25176 (98.67), maa://56237 (100.0)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6628,7 +6629,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (94.94), maa://27746 (83.19)</t>
+          <t>maa://31270 (95.0), maa://27746 (83.19)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6646,7 +6647,7 @@
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>*maa://40438 (76.19)</t>
+          <t>*maa://40438 (76.47)</t>
         </is>
       </c>
       <c r="I60" s="19" t="n"/>
@@ -6700,7 +6701,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (97.89), maa://59413 (100.0)</t>
+          <t>maa://59534 (97.98), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -6718,7 +6719,7 @@
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>maa://44405 (85.71)</t>
+          <t>maa://44405 (86.05)</t>
         </is>
       </c>
       <c r="I64" s="19" t="n"/>
@@ -7022,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.16 13:27:18</t>
+          <t>更新日期：2025.07.23 13:29:43</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7508,7 +7509,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>*maa://20888 (77.78)</t>
+          <t>*maa://20888 (80.0)</t>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
@@ -8210,7 +8211,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (94.74)</t>
+          <t>maa://20876 (95.45)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8426,7 +8427,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (70.59), *maa://28758 (67.5), maa://29036 (96.0), *maa://42172 (64.29), maa://30285 (100.0)</t>
+          <t>*maa://20849 (70.59), *maa://28758 (67.5), maa://29036 (96.15), *maa://42172 (66.67), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8534,7 +8535,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.02), maa://20832 (99.12), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.07), maa://20832 (99.12), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -8696,7 +8697,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (87.94), maa://36866 (96.49), maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://62759 (100.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.18), maa://36866 (96.55), maa://45572 (93.33), maa://27794 (100.0), maa://62759 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8804,7 +8805,7 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>maa://20916 (82.86), maa://52658 (90.0)</t>
+          <t>maa://20916 (82.86), maa://52658 (90.91)</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
@@ -8966,7 +8967,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.86), maa://42635 (95.65), *maa://20838 (55.0)</t>
+          <t>maa://27376 (92.86), maa://42635 (95.74), *maa://20838 (55.0)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9992,7 +9993,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (98.27), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.29), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
@@ -10100,7 +10101,7 @@
       </c>
       <c r="D58" s="13" t="inlineStr">
         <is>
-          <t>maa://28900 (96.7), maa://30126 (100.0)</t>
+          <t>maa://28900 (96.74), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="14" t="inlineStr">
@@ -10208,7 +10209,7 @@
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (87.85)</t>
+          <t>maa://38298 (88.07)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
@@ -10370,7 +10371,7 @@
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>*maa://20845 (68.0), maa://38727 (90.0)</t>
+          <t>*maa://20845 (69.23), maa://38727 (90.0)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -10478,7 +10479,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (97.01), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.1), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10640,7 +10641,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (97.85), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.88), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10694,7 +10695,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (96.55), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.67), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10856,7 +10857,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.27), maa://36864 (98.02), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.29), maa://36864 (98.02), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -11661,12 +11662,12 @@
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="13" t="inlineStr">
         <is>
-          <t>maa://20886 (93.94)</t>
+          <t>maa://20886 (93.94), maa://60772 (100.0)</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
@@ -11720,7 +11721,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (88.63), *maa://35841 (61.11)</t>
+          <t>maa://24472 (88.68), *maa://35841 (61.11)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12044,7 +12045,7 @@
       </c>
       <c r="D94" s="13" t="inlineStr">
         <is>
-          <t>maa://40157 (85.71)</t>
+          <t>maa://40157 (87.5)</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
@@ -12206,7 +12207,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (88.89)</t>
+          <t>maa://20991 (100.0), maa://51015 (87.88)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12314,7 +12315,7 @@
       </c>
       <c r="D99" s="13" t="inlineStr">
         <is>
-          <t>maa://20929 (91.67)</t>
+          <t>maa://20929 (92.0)</t>
         </is>
       </c>
       <c r="E99" s="14" t="inlineStr">
@@ -12584,7 +12585,7 @@
       </c>
       <c r="D104" s="13" t="inlineStr">
         <is>
-          <t>maa://20966 (83.33)</t>
+          <t>maa://20966 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
@@ -12800,7 +12801,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.24), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (81.25), maa://32653 (85.71), ***maa://60902 (28.57), maa://61839 (100.0)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.25), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13070,7 +13071,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (97.06)</t>
+          <t>maa://29037 (97.1)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
@@ -13178,7 +13179,7 @@
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (98.06), maa://35723 (96.0), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
+          <t>maa://20908 (98.07), maa://35723 (96.0), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
@@ -13286,7 +13287,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (91.67), maa://20940 (100.0)</t>
+          <t>maa://31560 (92.31), maa://20940 (90.91)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -13394,7 +13395,7 @@
       </c>
       <c r="D119" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (91.67), maa://20851 (100.0)</t>
+          <t>maa://31560 (92.31), maa://20851 (100.0)</t>
         </is>
       </c>
       <c r="E119" s="14" t="inlineStr">
@@ -13502,7 +13503,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (96.0)</t>
+          <t>maa://20869 (100.0), maa://44690 (96.3)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -13556,7 +13557,7 @@
       </c>
       <c r="D122" s="13" t="inlineStr">
         <is>
-          <t>maa://29650 (98.36), maa://45570 (96.43)</t>
+          <t>maa://29650 (98.39), maa://45570 (96.49)</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -13988,7 +13989,7 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (99.13)</t>
+          <t>maa://21422 (99.15)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -14081,27 +14082,27 @@
     <row r="132" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B132" s="11" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" s="13" t="inlineStr">
         <is>
-          <t>maa://20837 (100.0), maa://37666 (90.91)</t>
+          <t>maa://39146 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
+          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F132" s="19" t="n"/>
@@ -14135,27 +14136,27 @@
     <row r="133" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B133" s="11" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="13" t="inlineStr">
         <is>
-          <t>maa://29023 (100.0), maa://39515 (91.67)</t>
+          <t>maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
         </is>
       </c>
       <c r="F133" s="19" t="n"/>
@@ -14189,12 +14190,12 @@
     <row r="134" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B134" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C134" s="12" t="inlineStr">
@@ -14204,12 +14205,12 @@
       </c>
       <c r="D134" s="13" t="inlineStr">
         <is>
-          <t>maa://39146 (100.0)</t>
+          <t>maa://20913 (100.0)</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F134" s="19" t="n"/>
@@ -14243,12 +14244,12 @@
     <row r="135" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B135" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -14258,12 +14259,12 @@
       </c>
       <c r="D135" s="13" t="inlineStr">
         <is>
-          <t>maa://20856 (100.0)</t>
+          <t>maa://41856 (100.0)</t>
         </is>
       </c>
       <c r="E135" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F135" s="19" t="n"/>
@@ -14297,27 +14298,27 @@
     <row r="136" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B136" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C136" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D136" s="13" t="inlineStr">
         <is>
-          <t>maa://20913 (100.0)</t>
+          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
+          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F136" s="19" t="n"/>
@@ -14351,27 +14352,27 @@
     <row r="137" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B137" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D137" s="13" t="inlineStr">
         <is>
-          <t>maa://41856 (100.0)</t>
+          <t>**maa://30679 (50.0), maa://45258 (94.12)</t>
         </is>
       </c>
       <c r="E137" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
+          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
       </c>
       <c r="F137" s="19" t="n"/>
@@ -14405,27 +14406,27 @@
     <row r="138" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B138" s="11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C138" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
+          <t>maa://20981 (92.86)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
         </is>
       </c>
       <c r="F138" s="19" t="n"/>
@@ -14459,27 +14460,27 @@
     <row r="139" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B139" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (93.75)</t>
+          <t>maa://37689 (100.0)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
+          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
         </is>
       </c>
       <c r="F139" s="19" t="n"/>
@@ -14513,27 +14514,27 @@
     <row r="140" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B140" s="11" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D140" s="13" t="inlineStr">
         <is>
-          <t>maa://20981 (92.86)</t>
+          <t>maa://28484 (97.24), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
+          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
         </is>
       </c>
       <c r="F140" s="19" t="n"/>
@@ -14567,27 +14568,27 @@
     <row r="141" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B141" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D141" s="13" t="inlineStr">
         <is>
-          <t>maa://37689 (100.0)</t>
+          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0)</t>
         </is>
       </c>
       <c r="E141" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
+          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F141" s="19" t="n"/>
@@ -14621,27 +14622,27 @@
     <row r="142" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B142" s="11" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (97.22), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
+          <t>maa://20971 (92.86)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
       <c r="F142" s="19" t="n"/>
@@ -14675,27 +14676,27 @@
     <row r="143" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B143" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0)</t>
+          <t>maa://39147 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F143" s="19" t="n"/>
@@ -14729,12 +14730,12 @@
     <row r="144" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B144" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
@@ -14744,12 +14745,12 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (92.86)</t>
+          <t>maa://20898 (100.0)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
         </is>
       </c>
       <c r="F144" s="19" t="n"/>
@@ -14783,27 +14784,27 @@
     <row r="145" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B145" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D145" s="13" t="inlineStr">
         <is>
-          <t>maa://39147 (100.0)</t>
+          <t>maa://29056 (100.0), ***maa://20901 (7.69)</t>
         </is>
       </c>
       <c r="E145" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
         </is>
       </c>
       <c r="F145" s="19" t="n"/>
@@ -14837,27 +14838,27 @@
     <row r="146" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B146" s="11" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D146" s="13" t="inlineStr">
         <is>
-          <t>maa://20898 (100.0)</t>
+          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
         </is>
       </c>
       <c r="E146" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
+          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
         </is>
       </c>
       <c r="F146" s="19" t="n"/>
@@ -14891,27 +14892,27 @@
     <row r="147" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B147" s="11" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D147" s="13" t="inlineStr">
         <is>
-          <t>maa://29056 (100.0), ***maa://20901 (7.69)</t>
+          <t>maa://40957 (94.23), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E147" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
+          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F147" s="19" t="n"/>
@@ -14945,27 +14946,27 @@
     <row r="148" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B148" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
+          <t>maa://51549 (95.83), maa://51923 (95.83)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
+          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
       <c r="F148" s="19" t="n"/>
@@ -14999,27 +15000,27 @@
     <row r="149" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B149" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.22), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.31), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://20961 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
+          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
         </is>
       </c>
       <c r="F149" s="19" t="n"/>
@@ -15053,27 +15054,27 @@
     <row r="150" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B150" s="11" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C150" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (95.56), maa://51923 (95.83)</t>
+          <t>maa://20963 (100.0)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F150" s="19" t="n"/>
@@ -15107,12 +15108,12 @@
     <row r="151" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B151" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -15122,12 +15123,12 @@
       </c>
       <c r="D151" s="13" t="inlineStr">
         <is>
-          <t>maa://20961 (100.0)</t>
+          <t>maa://39148 (100.0)</t>
         </is>
       </c>
       <c r="E151" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
+          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F151" s="19" t="n"/>
@@ -15161,27 +15162,27 @@
     <row r="152" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B152" s="11" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C152" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D152" s="13" t="inlineStr">
         <is>
-          <t>maa://20963 (100.0)</t>
+          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
         </is>
       </c>
       <c r="E152" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
+          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
         </is>
       </c>
       <c r="F152" s="19" t="n"/>
@@ -15215,12 +15216,12 @@
     <row r="153" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B153" s="11" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
@@ -15230,12 +15231,12 @@
       </c>
       <c r="D153" s="13" t="inlineStr">
         <is>
-          <t>maa://39148 (100.0)</t>
+          <t>maa://20945 (88.46)</t>
         </is>
       </c>
       <c r="E153" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
+          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
         </is>
       </c>
       <c r="F153" s="19" t="n"/>
@@ -15269,27 +15270,27 @@
     <row r="154" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B154" s="11" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C154" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D154" s="13" t="inlineStr">
         <is>
-          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
+          <t>maa://37694 (100.0)</t>
         </is>
       </c>
       <c r="E154" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F154" s="19" t="n"/>
@@ -15323,12 +15324,12 @@
     <row r="155" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B155" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -15338,12 +15339,12 @@
       </c>
       <c r="D155" s="13" t="inlineStr">
         <is>
-          <t>maa://20945 (88.46)</t>
+          <t>*maa://39149 (66.67)</t>
         </is>
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
         </is>
       </c>
       <c r="F155" s="19" t="n"/>
@@ -15377,12 +15378,12 @@
     <row r="156" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B156" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C156" s="12" t="inlineStr">
@@ -15392,12 +15393,12 @@
       </c>
       <c r="D156" s="13" t="inlineStr">
         <is>
-          <t>maa://37694 (100.0)</t>
+          <t>maa://20959 (90.91)</t>
         </is>
       </c>
       <c r="E156" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
+          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
         </is>
       </c>
       <c r="F156" s="19" t="n"/>
@@ -15431,27 +15432,27 @@
     <row r="157" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B157" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D157" s="13" t="inlineStr">
         <is>
-          <t>*maa://39149 (66.67)</t>
+          <t>maa://44232 (98.62), maa://45603 (90.62)</t>
         </is>
       </c>
       <c r="E157" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
         </is>
       </c>
       <c r="F157" s="19" t="n"/>
@@ -15485,12 +15486,12 @@
     <row r="158" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B158" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C158" s="12" t="inlineStr">
@@ -15500,12 +15501,12 @@
       </c>
       <c r="D158" s="13" t="inlineStr">
         <is>
-          <t>maa://20959 (90.0)</t>
+          <t>maa://20936 (92.86)</t>
         </is>
       </c>
       <c r="E158" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
         </is>
       </c>
       <c r="F158" s="19" t="n"/>
@@ -15539,27 +15540,27 @@
     <row r="159" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B159" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (98.61), maa://45603 (90.62)</t>
+          <t>maa://20855 (93.75)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
+          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F159" s="19" t="n"/>
@@ -15593,12 +15594,12 @@
     <row r="160" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B160" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C160" s="12" t="inlineStr">
@@ -15608,12 +15609,12 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://20936 (92.86)</t>
+          <t>maa://40158 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
+          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F160" s="19" t="n"/>
@@ -15647,27 +15648,27 @@
     <row r="161" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B161" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D161" s="13" t="inlineStr">
         <is>
-          <t>maa://20855 (93.75)</t>
+          <t>*maa://32845 (77.78), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
         </is>
       </c>
       <c r="F161" s="19" t="n"/>
@@ -15701,12 +15702,12 @@
     <row r="162" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B162" s="11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
@@ -15716,12 +15717,12 @@
       </c>
       <c r="D162" s="13" t="inlineStr">
         <is>
-          <t>maa://40158 (100.0)</t>
+          <t>maa://20973 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F162" s="19" t="n"/>
@@ -15755,27 +15756,27 @@
     <row r="163" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B163" s="11" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D163" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (77.78), maa://29054 (100.0)</t>
+          <t>maa://39150 (100.0)</t>
         </is>
       </c>
       <c r="E163" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
+          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F163" s="19" t="n"/>
@@ -15809,27 +15810,27 @@
     <row r="164" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B164" s="11" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D164" s="13" t="inlineStr">
         <is>
-          <t>maa://20973 (100.0)</t>
+          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E164" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F164" s="19" t="n"/>
@@ -15863,12 +15864,12 @@
     <row r="165" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B165" s="11" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
@@ -15878,12 +15879,12 @@
       </c>
       <c r="D165" s="13" t="inlineStr">
         <is>
-          <t>maa://39150 (100.0)</t>
+          <t>maa://29059 (100.0)</t>
         </is>
       </c>
       <c r="E165" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
         </is>
       </c>
       <c r="F165" s="19" t="n"/>
@@ -15917,27 +15918,27 @@
     <row r="166" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B166" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
+          <t>maa://45556 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
         </is>
       </c>
       <c r="F166" s="19" t="n"/>
@@ -15971,27 +15972,27 @@
     <row r="167" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B167" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (92.31), maa://29627 (92.73), maa://29659 (86.11), maa://49074 (95.92), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://40159 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
         </is>
       </c>
       <c r="F167" s="19" t="n"/>
@@ -16025,27 +16026,27 @@
     <row r="168" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B168" s="11" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (91.89), maa://49655 (96.3)</t>
+          <t>maa://39152 (100.0)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战泥岩累计造成40歼灭数&gt; 3星通关主题曲10-16标准实战环境；必须编入非助战泥岩并上场，其他成员不可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
         </is>
       </c>
       <c r="F168" s="19" t="n"/>
@@ -16079,27 +16080,27 @@
     <row r="169" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B169" s="11" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D169" s="13" t="inlineStr">
         <is>
-          <t>maa://29059 (100.0)</t>
+          <t>*maa://20905 (80.0), *maa://52268 (66.67)</t>
         </is>
       </c>
       <c r="E169" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
+          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F169" s="19" t="n"/>
@@ -16133,12 +16134,12 @@
     <row r="170" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B170" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -16148,12 +16149,12 @@
       </c>
       <c r="D170" s="13" t="inlineStr">
         <is>
-          <t>maa://45556 (100.0)</t>
+          <t>maa://59681 (100.0)</t>
         </is>
       </c>
       <c r="E170" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
+          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F170" s="19" t="n"/>
@@ -16187,27 +16188,27 @@
     <row r="171" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B171" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D171" s="13" t="inlineStr">
         <is>
-          <t>maa://40159 (100.0)</t>
+          <t>maa://32418 (99.69), maa://51440 (100.0), maa://63320 (100.0)</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
+          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F171" s="19" t="n"/>
@@ -16241,12 +16242,12 @@
     <row r="172" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B172" s="11" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -16256,12 +16257,12 @@
       </c>
       <c r="D172" s="13" t="inlineStr">
         <is>
-          <t>maa://39152 (100.0)</t>
+          <t>maa://37690 (91.67)</t>
         </is>
       </c>
       <c r="E172" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
         </is>
       </c>
       <c r="F172" s="19" t="n"/>
@@ -16295,27 +16296,27 @@
     <row r="173" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B173" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D173" s="13" t="inlineStr">
         <is>
-          <t>*maa://20905 (80.0), *maa://52268 (66.67)</t>
+          <t>maa://20842 (94.12)</t>
         </is>
       </c>
       <c r="E173" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
+          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
         </is>
       </c>
       <c r="F173" s="19" t="n"/>
@@ -16349,12 +16350,12 @@
     <row r="174" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B174" s="11" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -16364,12 +16365,12 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.0)</t>
+          <t>maa://20912 (100.0)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
+          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F174" s="19" t="n"/>
@@ -16403,12 +16404,12 @@
     <row r="175" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B175" s="11" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -16418,12 +16419,12 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (99.69), maa://51440 (100.0)</t>
+          <t>maa://20911 (95.65), maa://29012 (85.71)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F175" s="19" t="n"/>
@@ -16457,12 +16458,12 @@
     <row r="176" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B176" s="11" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
@@ -16472,12 +16473,12 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (90.0)</t>
+          <t>maa://20964 (100.0)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F176" s="19" t="n"/>
@@ -16511,12 +16512,12 @@
     <row r="177" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B177" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
@@ -16526,12 +16527,12 @@
       </c>
       <c r="D177" s="13" t="inlineStr">
         <is>
-          <t>maa://20842 (94.12)</t>
+          <t>maa://20983 (100.0)</t>
         </is>
       </c>
       <c r="E177" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
+          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
         </is>
       </c>
       <c r="F177" s="19" t="n"/>
@@ -16565,27 +16566,27 @@
     <row r="178" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B178" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="13" t="inlineStr">
         <is>
-          <t>maa://20912 (100.0)</t>
+          <t>maa://31560 (92.31), *maa://20968 (66.67)</t>
         </is>
       </c>
       <c r="E178" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
         </is>
       </c>
       <c r="F178" s="19" t="n"/>
@@ -16619,27 +16620,27 @@
     <row r="179" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B179" s="11" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (95.65), maa://29012 (85.71)</t>
+          <t>maa://28104 (100.0)</t>
         </is>
       </c>
       <c r="E179" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F179" s="19" t="n"/>
@@ -16673,12 +16674,12 @@
     <row r="180" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B180" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
@@ -16688,12 +16689,12 @@
       </c>
       <c r="D180" s="13" t="inlineStr">
         <is>
-          <t>maa://20964 (100.0)</t>
+          <t>maa://20861 (100.0)</t>
         </is>
       </c>
       <c r="E180" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
         </is>
       </c>
       <c r="F180" s="19" t="n"/>
@@ -16727,12 +16728,12 @@
     <row r="181" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B181" s="11" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
@@ -16742,12 +16743,12 @@
       </c>
       <c r="D181" s="13" t="inlineStr">
         <is>
-          <t>maa://20983 (100.0)</t>
+          <t>maa://20970 (100.0)</t>
         </is>
       </c>
       <c r="E181" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
+          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F181" s="19" t="n"/>
@@ -16781,12 +16782,12 @@
     <row r="182" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B182" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
@@ -16796,12 +16797,12 @@
       </c>
       <c r="D182" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (91.67), *maa://20968 (66.67)</t>
+          <t>maa://20969 (86.21), maa://41303 (100.0)</t>
         </is>
       </c>
       <c r="E182" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
+          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F182" s="19" t="n"/>
@@ -16835,12 +16836,12 @@
     <row r="183" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B183" s="11" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -16850,12 +16851,12 @@
       </c>
       <c r="D183" s="13" t="inlineStr">
         <is>
-          <t>maa://28104 (100.0)</t>
+          <t>maa://20999 (100.0)</t>
         </is>
       </c>
       <c r="E183" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
+          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F183" s="19" t="n"/>
@@ -16889,12 +16890,12 @@
     <row r="184" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B184" s="11" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
@@ -16904,12 +16905,12 @@
       </c>
       <c r="D184" s="13" t="inlineStr">
         <is>
-          <t>maa://20861 (100.0)</t>
+          <t>maa://35198 (100.0)</t>
         </is>
       </c>
       <c r="E184" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
+          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
         </is>
       </c>
       <c r="F184" s="19" t="n"/>
@@ -16943,12 +16944,12 @@
     <row r="185" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B185" s="11" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
@@ -16958,12 +16959,12 @@
       </c>
       <c r="D185" s="13" t="inlineStr">
         <is>
-          <t>maa://20970 (100.0)</t>
+          <t>maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E185" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
         </is>
       </c>
       <c r="F185" s="19" t="n"/>
@@ -16997,12 +16998,12 @@
     <row r="186" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B186" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
@@ -17012,12 +17013,12 @@
       </c>
       <c r="D186" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (86.21), maa://41303 (100.0)</t>
+          <t>maa://34866 (93.48), maa://34714 (96.67)</t>
         </is>
       </c>
       <c r="E186" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
         </is>
       </c>
       <c r="F186" s="19" t="n"/>
@@ -17051,27 +17052,27 @@
     <row r="187" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B187" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
-          <t>maa://20999 (100.0)</t>
+          <t>maa://34883 (93.75), maa://20895 (100.0)</t>
         </is>
       </c>
       <c r="E187" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
         </is>
       </c>
       <c r="F187" s="19" t="n"/>
@@ -17105,12 +17106,12 @@
     <row r="188" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B188" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -17120,12 +17121,12 @@
       </c>
       <c r="D188" s="13" t="inlineStr">
         <is>
-          <t>maa://35198 (100.0)</t>
+          <t>maa://20853 (100.0)</t>
         </is>
       </c>
       <c r="E188" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
+          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F188" s="19" t="n"/>
@@ -17159,12 +17160,12 @@
     <row r="189" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B189" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
@@ -17174,12 +17175,12 @@
       </c>
       <c r="D189" s="13" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0)</t>
+          <t>maa://20942 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
+          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F189" s="19" t="n"/>
@@ -17213,27 +17214,27 @@
     <row r="190" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B190" s="11" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D190" s="13" t="inlineStr">
         <is>
-          <t>maa://34866 (93.48), maa://34714 (96.55)</t>
+          <t>maa://20992 (100.0)</t>
         </is>
       </c>
       <c r="E190" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
         </is>
       </c>
       <c r="F190" s="19" t="n"/>
@@ -17267,12 +17268,12 @@
     <row r="191" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B191" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
@@ -17282,12 +17283,12 @@
       </c>
       <c r="D191" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (93.75), maa://20895 (100.0)</t>
+          <t>*maa://28190 (62.86), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E191" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
+          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
         </is>
       </c>
       <c r="F191" s="19" t="n"/>
@@ -17321,12 +17322,12 @@
     <row r="192" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B192" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
@@ -17336,12 +17337,12 @@
       </c>
       <c r="D192" s="13" t="inlineStr">
         <is>
-          <t>maa://20853 (100.0)</t>
+          <t>maa://20860 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
         </is>
       </c>
       <c r="F192" s="19" t="n"/>
@@ -17375,27 +17376,27 @@
     <row r="193" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B193" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D193" s="13" t="inlineStr">
         <is>
-          <t>maa://20942 (100.0)</t>
+          <t>maa://44224 (90.28), maa://35854 (86.27), maa://50388 (98.05), maa://25760 (86.96), ***maa://43911 (12.0), *maa://20872 (52.0), maa://51066 (100.0), maa://63024 (100.0)</t>
         </is>
       </c>
       <c r="E193" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
         </is>
       </c>
       <c r="F193" s="19" t="n"/>
@@ -17429,27 +17430,27 @@
     <row r="194" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B194" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D194" s="13" t="inlineStr">
         <is>
-          <t>maa://20992 (100.0)</t>
+          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (71.43)</t>
         </is>
       </c>
       <c r="E194" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
         </is>
       </c>
       <c r="F194" s="19" t="n"/>
@@ -17483,27 +17484,27 @@
     <row r="195" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B195" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D195" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (62.86), maa://20994 (100.0)</t>
+          <t>maa://42223 (99.6), maa://49077 (93.18), maa://42292 (97.22), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
+          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
         </is>
       </c>
       <c r="F195" s="19" t="n"/>
@@ -17537,12 +17538,12 @@
     <row r="196" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B196" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
@@ -17552,12 +17553,12 @@
       </c>
       <c r="D196" s="13" t="inlineStr">
         <is>
-          <t>maa://20860 (100.0)</t>
+          <t>maa://39154 (100.0)</t>
         </is>
       </c>
       <c r="E196" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
+          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
         </is>
       </c>
       <c r="F196" s="19" t="n"/>
@@ -17591,27 +17592,27 @@
     <row r="197" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B197" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.26), maa://35854 (86.14), maa://50388 (98.03), maa://25760 (86.96), ***maa://43911 (12.5), *maa://20872 (52.0), maa://51066 (100.0)</t>
+          <t>maa://20854 (92.86)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
         </is>
       </c>
       <c r="F197" s="19" t="n"/>
@@ -17645,27 +17646,27 @@
     <row r="198" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B198" s="11" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (71.43)</t>
+          <t>maa://20937 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
+          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
         </is>
       </c>
       <c r="F198" s="19" t="n"/>
@@ -17699,27 +17700,27 @@
     <row r="199" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B199" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C199" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (84.52), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://22468 (100.0)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
+          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F199" s="19" t="n"/>
@@ -17753,27 +17754,27 @@
     <row r="200" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B200" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (84.52), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
+          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F200" s="19" t="n"/>
@@ -17807,27 +17808,27 @@
     <row r="201" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B201" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (99.6), maa://49077 (92.86), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
+          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
         </is>
       </c>
       <c r="F201" s="19" t="n"/>
@@ -17861,12 +17862,12 @@
     <row r="202" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B202" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -17876,12 +17877,12 @@
       </c>
       <c r="D202" s="13" t="inlineStr">
         <is>
-          <t>maa://39154 (100.0)</t>
+          <t>maa://20935 (100.0)</t>
         </is>
       </c>
       <c r="E202" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
+          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F202" s="19" t="n"/>
@@ -17915,12 +17916,12 @@
     <row r="203" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B203" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
@@ -17930,12 +17931,12 @@
       </c>
       <c r="D203" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (92.86)</t>
+          <t>maa://53354 (100.0)</t>
         </is>
       </c>
       <c r="E203" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
+          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
         </is>
       </c>
       <c r="F203" s="19" t="n"/>
@@ -17969,27 +17970,27 @@
     <row r="204" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B204" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D204" s="13" t="inlineStr">
         <is>
-          <t>maa://20937 (100.0)</t>
+          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.87)</t>
         </is>
       </c>
       <c r="E204" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F204" s="19" t="n"/>
@@ -18023,27 +18024,27 @@
     <row r="205" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B205" s="11" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
-          <t>maa://22468 (100.0)</t>
+          <t>maa://20956 (96.0), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E205" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
         </is>
       </c>
       <c r="F205" s="19" t="n"/>
@@ -18077,27 +18078,27 @@
     <row r="206" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B206" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
+          <t>maa://20955 (80.95)</t>
         </is>
       </c>
       <c r="E206" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
         </is>
       </c>
       <c r="F206" s="19" t="n"/>
@@ -18131,27 +18132,27 @@
     <row r="207" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B207" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="13" t="inlineStr">
         <is>
-          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
+          <t>maa://39238 (99.52)</t>
         </is>
       </c>
       <c r="E207" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
+          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F207" s="19" t="n"/>
@@ -18185,12 +18186,12 @@
     <row r="208" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B208" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -18200,12 +18201,12 @@
       </c>
       <c r="D208" s="13" t="inlineStr">
         <is>
-          <t>maa://20935 (100.0)</t>
+          <t>maa://45261 (88.89)</t>
         </is>
       </c>
       <c r="E208" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F208" s="19" t="n"/>
@@ -18239,12 +18240,12 @@
     <row r="209" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B209" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -18254,12 +18255,12 @@
       </c>
       <c r="D209" s="13" t="inlineStr">
         <is>
-          <t>maa://53354 (100.0)</t>
+          <t>maa://39694 (100.0)</t>
         </is>
       </c>
       <c r="E209" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
+          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F209" s="19" t="n"/>
@@ -18293,27 +18294,27 @@
     <row r="210" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B210" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.74)</t>
+          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F210" s="19" t="n"/>
@@ -18347,27 +18348,27 @@
     <row r="211" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B211" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (95.98), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://48261 (100.0)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战琴柳并上场，且每次战斗至少释放1次光辉旗帜&gt; 3星通关主题曲5-3；必须编入非助战琴柳并上场，且至少使用3次光辉旗帜</t>
         </is>
       </c>
       <c r="F211" s="19" t="n"/>
@@ -18401,12 +18402,12 @@
     <row r="212" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B212" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -18416,12 +18417,12 @@
       </c>
       <c r="D212" s="13" t="inlineStr">
         <is>
-          <t>maa://20955 (80.49)</t>
+          <t>*maa://39157 (80.0)</t>
         </is>
       </c>
       <c r="E212" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
+          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
         </is>
       </c>
       <c r="F212" s="19" t="n"/>
@@ -18455,27 +18456,27 @@
     <row r="213" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B213" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D213" s="13" t="inlineStr">
         <is>
-          <t>maa://39238 (99.52)</t>
+          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
         </is>
       </c>
       <c r="E213" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
+          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
         </is>
       </c>
       <c r="F213" s="19" t="n"/>
@@ -18509,27 +18510,27 @@
     <row r="214" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B214" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D214" s="13" t="inlineStr">
         <is>
-          <t>maa://45261 (88.89)</t>
+          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
         </is>
       </c>
       <c r="E214" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
         </is>
       </c>
       <c r="F214" s="19" t="n"/>
@@ -18563,12 +18564,12 @@
     <row r="215" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B215" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
@@ -18578,12 +18579,12 @@
       </c>
       <c r="D215" s="13" t="inlineStr">
         <is>
-          <t>maa://39694 (100.0)</t>
+          <t>maa://20858 (100.0)</t>
         </is>
       </c>
       <c r="E215" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
         </is>
       </c>
       <c r="F215" s="19" t="n"/>
@@ -18617,12 +18618,12 @@
     <row r="216" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B216" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
@@ -18632,12 +18633,12 @@
       </c>
       <c r="D216" s="13" t="inlineStr">
         <is>
-          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
+          <t>maa://39695 (100.0), ***maa://39911 (20.0)</t>
         </is>
       </c>
       <c r="E216" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F216" s="19" t="n"/>
@@ -18671,12 +18672,12 @@
     <row r="217" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B217" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -18686,12 +18687,12 @@
       </c>
       <c r="D217" s="13" t="inlineStr">
         <is>
-          <t>maa://48261 (100.0)</t>
+          <t>maa://20988 (90.0)</t>
         </is>
       </c>
       <c r="E217" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战琴柳并上场，且每次战斗至少释放1次光辉旗帜&gt; 3星通关主题曲5-3；必须编入非助战琴柳并上场，且至少使用3次光辉旗帜</t>
+          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F217" s="19" t="n"/>
@@ -18725,12 +18726,12 @@
     <row r="218" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B218" s="11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -18740,12 +18741,12 @@
       </c>
       <c r="D218" s="13" t="inlineStr">
         <is>
-          <t>*maa://39157 (80.0)</t>
+          <t>maa://39158 (100.0)</t>
         </is>
       </c>
       <c r="E218" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
+          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
         </is>
       </c>
       <c r="F218" s="19" t="n"/>
@@ -18779,27 +18780,27 @@
     <row r="219" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B219" s="11" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D219" s="13" t="inlineStr">
         <is>
-          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
+          <t>maa://28187 (97.67), maa://43531 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E219" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F219" s="19" t="n"/>
@@ -18833,27 +18834,27 @@
     <row r="220" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B220" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D220" s="13" t="inlineStr">
         <is>
-          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
+          <t>maa://20985 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
+          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F220" s="19" t="n"/>
@@ -18887,27 +18888,27 @@
     <row r="221" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B221" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D221" s="13" t="inlineStr">
         <is>
-          <t>maa://20858 (100.0)</t>
+          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E221" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
+          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
         </is>
       </c>
       <c r="F221" s="19" t="n"/>
@@ -18941,27 +18942,27 @@
     <row r="222" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B222" s="11" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D222" s="13" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0), ***maa://39911 (20.0)</t>
+          <t>*maa://29644 (74.0), maa://39159 (96.77), ***maa://30061 (27.27)</t>
         </is>
       </c>
       <c r="E222" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
         </is>
       </c>
       <c r="F222" s="19" t="n"/>
@@ -18995,12 +18996,12 @@
     <row r="223" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B223" s="11" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -19010,12 +19011,12 @@
       </c>
       <c r="D223" s="13" t="inlineStr">
         <is>
-          <t>maa://20988 (87.5)</t>
+          <t>maa://30677 (100.0)</t>
         </is>
       </c>
       <c r="E223" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
         </is>
       </c>
       <c r="F223" s="19" t="n"/>
@@ -19049,12 +19050,12 @@
     <row r="224" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B224" s="11" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
@@ -19064,12 +19065,12 @@
       </c>
       <c r="D224" s="13" t="inlineStr">
         <is>
-          <t>maa://39158 (100.0)</t>
+          <t>maa://20896 (100.0)</t>
         </is>
       </c>
       <c r="E224" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
+          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
         </is>
       </c>
       <c r="F224" s="19" t="n"/>
@@ -19103,12 +19104,12 @@
     <row r="225" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B225" s="11" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
@@ -19118,12 +19119,12 @@
       </c>
       <c r="D225" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (97.67), maa://43531 (100.0), maa://39520 (100.0)</t>
+          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F225" s="19" t="n"/>
@@ -19157,12 +19158,12 @@
     <row r="226" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B226" s="11" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -19172,12 +19173,12 @@
       </c>
       <c r="D226" s="13" t="inlineStr">
         <is>
-          <t>maa://20985 (100.0)</t>
+          <t>*maa://48263 (76.92)</t>
         </is>
       </c>
       <c r="E226" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战灵知累计使用10次失温症&gt; 3星通关主题曲5-6；必须编入非助战灵知并上场，且使用灵知击败至少5个法术大师A1</t>
         </is>
       </c>
       <c r="F226" s="19" t="n"/>
@@ -19211,27 +19212,27 @@
     <row r="227" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B227" s="11" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
+          <t>maa://39160 (100.0)</t>
         </is>
       </c>
       <c r="E227" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
+          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F227" s="19" t="n"/>
@@ -19265,27 +19266,27 @@
     <row r="228" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B228" s="11" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (74.0), maa://39159 (96.67), ***maa://30061 (27.27)</t>
+          <t>maa://49491 (91.67)</t>
         </is>
       </c>
       <c r="E228" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
+          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
         </is>
       </c>
       <c r="F228" s="19" t="n"/>
@@ -19319,12 +19320,12 @@
     <row r="229" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B229" s="11" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -19334,12 +19335,12 @@
       </c>
       <c r="D229" s="13" t="inlineStr">
         <is>
-          <t>maa://30677 (100.0)</t>
+          <t>maa://35952 (100.0)</t>
         </is>
       </c>
       <c r="E229" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
+          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
         </is>
       </c>
       <c r="F229" s="19" t="n"/>
@@ -19373,12 +19374,12 @@
     <row r="230" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B230" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
@@ -19388,12 +19389,12 @@
       </c>
       <c r="D230" s="13" t="inlineStr">
         <is>
-          <t>maa://20896 (100.0)</t>
+          <t>maa://20917 (98.39)</t>
         </is>
       </c>
       <c r="E230" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
+          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
         </is>
       </c>
       <c r="F230" s="19" t="n"/>
@@ -19427,27 +19428,27 @@
     <row r="231" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B231" s="11" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D231" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://30714 (97.67), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F231" s="19" t="n"/>
@@ -19481,27 +19482,27 @@
     <row r="232" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B232" s="11" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" s="13" t="inlineStr">
         <is>
-          <t>*maa://48263 (76.92)</t>
+          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
         </is>
       </c>
       <c r="E232" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战灵知累计使用10次失温症&gt; 3星通关主题曲5-6；必须编入非助战灵知并上场，且使用灵知击败至少5个法术大师A1</t>
+          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
         </is>
       </c>
       <c r="F232" s="19" t="n"/>
@@ -19535,12 +19536,12 @@
     <row r="233" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B233" s="11" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
@@ -19550,12 +19551,12 @@
       </c>
       <c r="D233" s="13" t="inlineStr">
         <is>
-          <t>maa://39160 (100.0)</t>
+          <t>maa://32999 (100.0)</t>
         </is>
       </c>
       <c r="E233" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F233" s="19" t="n"/>
@@ -19589,27 +19590,27 @@
     <row r="234" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B234" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D234" s="13" t="inlineStr">
         <is>
-          <t>maa://49491 (91.67)</t>
+          <t>*maa://30667 (78.69), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.29)</t>
         </is>
       </c>
       <c r="E234" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
+          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
         </is>
       </c>
       <c r="F234" s="19" t="n"/>
@@ -19643,27 +19644,27 @@
     <row r="235" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B235" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D235" s="13" t="inlineStr">
         <is>
-          <t>maa://35952 (100.0)</t>
+          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
         </is>
       </c>
       <c r="E235" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
+          <t>&gt; 战斗中非助战澄闪累计使用“澄净闪耀”10次&gt; 3星通关主题曲4-7；必须编入非助战澄闪并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
       <c r="F235" s="19" t="n"/>
@@ -19697,12 +19698,12 @@
     <row r="236" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B236" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
@@ -19712,12 +19713,12 @@
       </c>
       <c r="D236" s="13" t="inlineStr">
         <is>
-          <t>maa://20917 (98.36)</t>
+          <t>maa://30512 (100.0)</t>
         </is>
       </c>
       <c r="E236" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
         </is>
       </c>
       <c r="F236" s="19" t="n"/>
@@ -19751,27 +19752,27 @@
     <row r="237" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B237" s="11" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" s="15" t="inlineStr">
         <is>
-          <t>maa://30714 (97.62), maa://30675 (100.0)</t>
+          <t>maa://20870 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
+          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
         </is>
       </c>
       <c r="F237" s="19" t="n"/>
@@ -19805,27 +19806,27 @@
     <row r="238" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B238" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
+          <t>maa://29024 (100.0)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
         </is>
       </c>
       <c r="F238" s="19" t="n"/>
@@ -19859,27 +19860,27 @@
     <row r="239" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B239" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D239" s="13" t="inlineStr">
         <is>
-          <t>maa://32999 (100.0)</t>
+          <t>maa://20867 (93.33), maa://38485 (96.3), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E239" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
         </is>
       </c>
       <c r="F239" s="19" t="n"/>
@@ -19913,27 +19914,27 @@
     <row r="240" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B240" s="11" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.81), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.09)</t>
+          <t>maa://40160 (100.0)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F240" s="19" t="n"/>
@@ -19967,27 +19968,27 @@
     <row r="241" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B241" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
+          <t>maa://43089 (100.0)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战澄闪累计使用“澄净闪耀”10次&gt; 3星通关主题曲4-7；必须编入非助战澄闪并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 战斗中非助战海蒂累计使用8次“虚构故事·怒士”&gt; 3星通关主题曲9-7标准实战环境；必须编入非助战海蒂并上场，且海蒂使用至少3次“虚构故事·锈城”</t>
         </is>
       </c>
       <c r="F241" s="19" t="n"/>
@@ -20021,12 +20022,12 @@
     <row r="242" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B242" s="11" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
@@ -20036,12 +20037,12 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://30512 (100.0)</t>
+          <t>maa://30674 (90.0)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
+          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
         </is>
       </c>
       <c r="F242" s="19" t="n"/>
@@ -20075,27 +20076,27 @@
     <row r="243" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B243" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="13" t="inlineStr">
         <is>
-          <t>maa://20870 (100.0)</t>
+          <t>maa://28923 (91.5), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E243" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
+          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F243" s="19" t="n"/>
@@ -20129,27 +20130,27 @@
     <row r="244" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B244" s="11" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://29024 (100.0)</t>
+          <t>maa://42287 (90.72), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
+          <t>&gt; 由非助战号角累计造成100000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战号角并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F244" s="19" t="n"/>
@@ -20183,27 +20184,27 @@
     <row r="245" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B245" s="11" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D245" s="13" t="inlineStr">
         <is>
-          <t>maa://20867 (93.33), maa://38485 (96.15), *maa://32202 (80.0)</t>
+          <t>maa://39161 (100.0)</t>
         </is>
       </c>
       <c r="E245" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
+          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
         </is>
       </c>
       <c r="F245" s="19" t="n"/>
@@ -20237,27 +20238,27 @@
     <row r="246" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B246" s="11" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D246" s="13" t="inlineStr">
         <is>
-          <t>maa://40160 (100.0)</t>
+          <t>maa://20923 (92.86), *maa://60577 (66.67)</t>
         </is>
       </c>
       <c r="E246" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F246" s="19" t="n"/>
@@ -20291,27 +20292,27 @@
     <row r="247" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B247" s="11" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D247" s="13" t="inlineStr">
         <is>
-          <t>maa://43089 (100.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E247" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海蒂累计使用8次“虚构故事·怒士”&gt; 3星通关主题曲9-7标准实战环境；必须编入非助战海蒂并上场，且海蒂使用至少3次“虚构故事·锈城”</t>
+          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F247" s="19" t="n"/>
@@ -20345,27 +20346,27 @@
     <row r="248" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B248" s="11" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D248" s="13" t="inlineStr">
         <is>
-          <t>maa://30674 (90.0)</t>
+          <t>maa://40958 (89.29), *maa://45067 (75.0)</t>
         </is>
       </c>
       <c r="E248" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
+          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
       </c>
       <c r="F248" s="19" t="n"/>
@@ -20399,27 +20400,27 @@
     <row r="249" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B249" s="11" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (91.5), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://20840 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
+          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
         </is>
       </c>
       <c r="F249" s="19" t="n"/>
@@ -20453,27 +20454,27 @@
     <row r="250" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B250" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (90.53), maa://45570 (96.43), maa://42225 (100.0)</t>
+          <t>maa://20877 (98.75), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战号角累计造成100000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战号角并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
         </is>
       </c>
       <c r="F250" s="19" t="n"/>
@@ -20507,27 +20508,27 @@
     <row r="251" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B251" s="11" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://39161 (100.0)</t>
+          <t>maa://20879 (86.67), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
         </is>
       </c>
       <c r="F251" s="19" t="n"/>
@@ -20561,27 +20562,27 @@
     <row r="252" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B252" s="11" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (92.86), *maa://60577 (66.67)</t>
+          <t>maa://20839 (100.0)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F252" s="19" t="n"/>
@@ -20615,27 +20616,27 @@
     <row r="253" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B253" s="11" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://30676 (100.0)</t>
         </is>
       </c>
       <c r="E253" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
         </is>
       </c>
       <c r="F253" s="19" t="n"/>
@@ -20669,12 +20670,12 @@
     <row r="254" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B254" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -20684,12 +20685,12 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (89.29), *maa://45067 (75.0)</t>
+          <t>maa://31560 (92.31), maa://20884 (96.3)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
+          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
         </is>
       </c>
       <c r="F254" s="19" t="n"/>
@@ -20723,12 +20724,12 @@
     <row r="255" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B255" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
@@ -20738,12 +20739,12 @@
       </c>
       <c r="D255" s="13" t="inlineStr">
         <is>
-          <t>maa://20840 (100.0)</t>
+          <t>maa://47204 (100.0)</t>
         </is>
       </c>
       <c r="E255" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
       </c>
       <c r="F255" s="19" t="n"/>
@@ -20777,27 +20778,27 @@
     <row r="256" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B256" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D256" s="13" t="inlineStr">
         <is>
-          <t>maa://20877 (98.72), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://29027 (98.11)</t>
         </is>
       </c>
       <c r="E256" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
+          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
         </is>
       </c>
       <c r="F256" s="19" t="n"/>
@@ -20831,27 +20832,27 @@
     <row r="257" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B257" s="11" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (87.5), maa://20834 (92.86)</t>
+          <t>maa://20977 (100.0)</t>
         </is>
       </c>
       <c r="E257" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
+          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F257" s="19" t="n"/>
@@ -20885,12 +20886,12 @@
     <row r="258" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B258" s="11" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
@@ -20900,12 +20901,12 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20839 (100.0)</t>
+          <t>maa://39162 (100.0)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F258" s="19" t="n"/>
@@ -20939,27 +20940,27 @@
     <row r="259" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B259" s="11" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D259" s="13" t="inlineStr">
         <is>
-          <t>maa://30676 (100.0)</t>
+          <t>**maa://30678 (37.5), maa://59689 (100.0)</t>
         </is>
       </c>
       <c r="E259" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
+          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
         </is>
       </c>
       <c r="F259" s="19" t="n"/>
@@ -20993,27 +20994,27 @@
     <row r="260" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B260" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (91.67), maa://20884 (96.3)</t>
+          <t>maa://49643 (90.91)</t>
         </is>
       </c>
       <c r="E260" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
+          <t>&gt; 战斗中累计部署非助战晓歌12次&gt; 3星通关主题曲5-3；必须编入非助战晓歌并上场，且使用晓歌歼灭至少3个特战术师或特战术师组长</t>
         </is>
       </c>
       <c r="F260" s="19" t="n"/>
@@ -21047,12 +21048,12 @@
     <row r="261" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B261" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
@@ -21062,12 +21063,12 @@
       </c>
       <c r="D261" s="13" t="inlineStr">
         <is>
-          <t>maa://47204 (100.0)</t>
+          <t>maa://48265 (83.33)</t>
         </is>
       </c>
       <c r="E261" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战鸿雪并上场，且每次战斗至少释放1次锐笔速写&gt; 3星通关主题曲9-7标准实战环境，必须编入非助战鸿雪并上场，且使用鸿雪歼灭至少10名敌人，其中包括至少1个深池重甲卫士</t>
         </is>
       </c>
       <c r="F261" s="19" t="n"/>
@@ -21101,27 +21102,27 @@
     <row r="262" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B262" s="11" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D262" s="13" t="inlineStr">
         <is>
-          <t>maa://29027 (98.11)</t>
+          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (61.54), ***maa://20891 (30.0)</t>
         </is>
       </c>
       <c r="E262" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
+          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
         </is>
       </c>
       <c r="F262" s="19" t="n"/>
@@ -21155,12 +21156,12 @@
     <row r="263" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B263" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -21170,12 +21171,12 @@
       </c>
       <c r="D263" s="13" t="inlineStr">
         <is>
-          <t>maa://20977 (100.0)</t>
+          <t>maa://25769 (97.48)</t>
         </is>
       </c>
       <c r="E263" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F263" s="19" t="n"/>
@@ -21207,29 +21208,29 @@
       <c r="AF263" s="8" t="n"/>
     </row>
     <row r="264" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A264" s="11" t="inlineStr">
-        <is>
-          <t>承曦格雷伊</t>
-        </is>
-      </c>
-      <c r="B264" s="11" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="C264" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D264" s="13" t="inlineStr">
-        <is>
-          <t>maa://39162 (100.0)</t>
-        </is>
-      </c>
-      <c r="E264" s="14" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
+      <c r="A264" s="24" t="inlineStr">
+        <is>
+          <t>百炼嘉维尔</t>
+        </is>
+      </c>
+      <c r="B264" s="24" t="inlineStr">
+        <is>
+          <t>RI-9</t>
+        </is>
+      </c>
+      <c r="C264" s="25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D264" s="26" t="inlineStr">
+        <is>
+          <t>**maa://62757 (36.84)</t>
+        </is>
+      </c>
+      <c r="E264" s="27" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战百炼嘉维尔累计造成40歼灭数&gt; 3星通关插曲RI-9；必须编入非助战百炼嘉维尔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F264" s="19" t="n"/>
@@ -21263,12 +21264,12 @@
     <row r="265" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B265" s="11" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
@@ -21278,12 +21279,12 @@
       </c>
       <c r="D265" s="13" t="inlineStr">
         <is>
-          <t>maa://59682 (100.0)</t>
+          <t>maa://20862 (83.33)</t>
         </is>
       </c>
       <c r="E265" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战多萝西累计造成120000点伤害&gt; 3星通关插曲MB-EX-1，必须编入非助战多萝西并上场，其他成员仅可编入近卫干员</t>
+          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
         </is>
       </c>
       <c r="F265" s="19" t="n"/>
@@ -21317,27 +21318,27 @@
     <row r="266" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B266" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://22467 (95.92)</t>
+          <t>maa://51881 (99.25), maa://51630 (96.7), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 使用非助战玛恩纳累计造成120000点伤害&gt; 3星通关主题曲11-15标准实战环境；必须编入非助战玛恩纳并上场，且使用2次未照耀的荣光</t>
         </is>
       </c>
       <c r="F266" s="19" t="n"/>
@@ -21371,27 +21372,27 @@
     <row r="267" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B267" s="11" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="13" t="inlineStr">
         <is>
-          <t>**maa://30678 (37.5), maa://59689 (100.0)</t>
+          <t>maa://39163 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F267" s="19" t="n"/>
@@ -21425,12 +21426,12 @@
     <row r="268" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B268" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -21440,12 +21441,12 @@
       </c>
       <c r="D268" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (88.89)</t>
+          <t>maa://29061 (100.0)</t>
         </is>
       </c>
       <c r="E268" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战晓歌12次&gt; 3星通关主题曲5-3；必须编入非助战晓歌并上场，且使用晓歌歼灭至少3个特战术师或特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
         </is>
       </c>
       <c r="F268" s="19" t="n"/>
@@ -21479,12 +21480,12 @@
     <row r="269" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B269" s="11" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -21494,12 +21495,12 @@
       </c>
       <c r="D269" s="13" t="inlineStr">
         <is>
-          <t>maa://48265 (83.33)</t>
+          <t>maa://20939 (81.82)</t>
         </is>
       </c>
       <c r="E269" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战鸿雪并上场，且每次战斗至少释放1次锐笔速写&gt; 3星通关主题曲9-7标准实战环境，必须编入非助战鸿雪并上场，且使用鸿雪歼灭至少10名敌人，其中包括至少1个深池重甲卫士</t>
+          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
         </is>
       </c>
       <c r="F269" s="19" t="n"/>
@@ -21533,27 +21534,27 @@
     <row r="270" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B270" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="13" t="inlineStr">
         <is>
-          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (66.67), ***maa://20891 (30.0)</t>
+          <t>maa://39164 (100.0)</t>
         </is>
       </c>
       <c r="E270" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
+          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F270" s="19" t="n"/>
@@ -21587,27 +21588,27 @@
     <row r="271" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B271" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D271" s="13" t="inlineStr">
         <is>
-          <t>maa://25769 (97.47)</t>
+          <t>maa://28133 (93.1), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E271" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
         </is>
       </c>
       <c r="F271" s="19" t="n"/>
@@ -21639,29 +21640,29 @@
       <c r="AF271" s="8" t="n"/>
     </row>
     <row r="272" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A272" s="24" t="inlineStr">
-        <is>
-          <t>百炼嘉维尔</t>
-        </is>
-      </c>
-      <c r="B272" s="24" t="inlineStr">
-        <is>
-          <t>RI-9</t>
-        </is>
-      </c>
-      <c r="C272" s="25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D272" s="26" t="inlineStr">
-        <is>
-          <t>**maa://62757 (38.46)</t>
-        </is>
-      </c>
-      <c r="E272" s="27" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战百炼嘉维尔累计造成40歼灭数&gt; 3星通关插曲RI-9；必须编入非助战百炼嘉维尔并上场，且所有干员不被击倒</t>
+      <c r="A272" s="11" t="inlineStr">
+        <is>
+          <t>白铁</t>
+        </is>
+      </c>
+      <c r="B272" s="11" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C272" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D272" s="13" t="inlineStr">
+        <is>
+          <t>maa://42311 (100.0)</t>
+        </is>
+      </c>
+      <c r="E272" s="14" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战白铁累计使用8次“铁钳号·原型机”&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战白铁并上场，且使用白铁至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F272" s="19" t="n"/>
@@ -21695,12 +21696,12 @@
     <row r="273" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B273" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -21710,12 +21711,12 @@
       </c>
       <c r="D273" s="13" t="inlineStr">
         <is>
-          <t>maa://20862 (83.33)</t>
+          <t>maa://41362 (100.0)</t>
         </is>
       </c>
       <c r="E273" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
+          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
         </is>
       </c>
       <c r="F273" s="19" t="n"/>
@@ -21749,27 +21750,27 @@
     <row r="274" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B274" s="11" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.24), maa://51630 (96.67), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (28.57)</t>
+          <t>maa://20978 (100.0)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战玛恩纳累计造成120000点伤害&gt; 3星通关主题曲11-15标准实战环境；必须编入非助战玛恩纳并上场，且使用2次未照耀的荣光</t>
+          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
         </is>
       </c>
       <c r="F274" s="19" t="n"/>
@@ -21803,12 +21804,12 @@
     <row r="275" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B275" s="11" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -21818,12 +21819,12 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://39163 (100.0)</t>
+          <t>maa://21002 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
         </is>
       </c>
       <c r="F275" s="19" t="n"/>
@@ -21857,12 +21858,12 @@
     <row r="276" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B276" s="11" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -21872,12 +21873,12 @@
       </c>
       <c r="D276" s="13" t="inlineStr">
         <is>
-          <t>maa://29061 (100.0)</t>
+          <t>*maa://39165 (70.0)</t>
         </is>
       </c>
       <c r="E276" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
       </c>
       <c r="F276" s="19" t="n"/>
@@ -21911,27 +21912,27 @@
     <row r="277" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B277" s="11" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D277" s="13" t="inlineStr">
         <is>
-          <t>maa://20939 (81.82)</t>
+          <t>maa://48267 (100.0), maa://48266 (100.0)</t>
         </is>
       </c>
       <c r="E277" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜，并确定第一位部署的干员是伺夜&gt; 3星通关别传IS-6；必须编入非助战伺夜并上场，且至少使用3次领袖的尊严</t>
         </is>
       </c>
       <c r="F277" s="19" t="n"/>
@@ -21965,12 +21966,12 @@
     <row r="278" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B278" s="11" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
@@ -21980,12 +21981,12 @@
       </c>
       <c r="D278" s="13" t="inlineStr">
         <is>
-          <t>maa://39164 (100.0)</t>
+          <t>maa://29635 (100.0)</t>
         </is>
       </c>
       <c r="E278" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
+          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F278" s="19" t="n"/>
@@ -22019,27 +22020,27 @@
     <row r="279" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B279" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), maa://33394 (100.0)</t>
+          <t>maa://38296 (90.62)</t>
         </is>
       </c>
       <c r="E279" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
+          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F279" s="19" t="n"/>
@@ -22073,27 +22074,27 @@
     <row r="280" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B280" s="11" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D280" s="13" t="inlineStr">
         <is>
-          <t>maa://42311 (100.0)</t>
+          <t>maa://20899 (89.77), maa://46332 (95.83), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E280" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白铁累计使用8次“铁钳号·原型机”&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战白铁并上场，且使用白铁至少歼灭10个敌人</t>
+          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
         </is>
       </c>
       <c r="F280" s="19" t="n"/>
@@ -22127,12 +22128,12 @@
     <row r="281" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B281" s="11" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
@@ -22142,12 +22143,12 @@
       </c>
       <c r="D281" s="13" t="inlineStr">
         <is>
-          <t>maa://41362 (100.0)</t>
+          <t>maa://53353 (100.0)</t>
         </is>
       </c>
       <c r="E281" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
+          <t>&gt; 完成5次战斗；必须编入非助战谜图并上场，且使用谜图歼灭至少3个敌人&gt; 3星通关主题曲9-4标准实战环境；必须编入非助战谜图并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F281" s="19" t="n"/>
@@ -22181,12 +22182,12 @@
     <row r="282" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B282" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -22196,12 +22197,12 @@
       </c>
       <c r="D282" s="13" t="inlineStr">
         <is>
-          <t>maa://20978 (100.0)</t>
+          <t>maa://20881 (100.0)</t>
         </is>
       </c>
       <c r="E282" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
         </is>
       </c>
       <c r="F282" s="19" t="n"/>
@@ -22235,27 +22236,27 @@
     <row r="283" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B283" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D283" s="13" t="inlineStr">
         <is>
-          <t>maa://21002 (100.0)</t>
+          <t>maa://30710 (97.89), maa://36845 (95.74), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E283" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
+          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
         </is>
       </c>
       <c r="F283" s="19" t="n"/>
@@ -22289,12 +22290,12 @@
     <row r="284" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B284" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
@@ -22304,12 +22305,12 @@
       </c>
       <c r="D284" s="13" t="inlineStr">
         <is>
-          <t>*maa://39165 (70.0)</t>
+          <t>maa://20902 (100.0)</t>
         </is>
       </c>
       <c r="E284" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
+          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F284" s="19" t="n"/>
@@ -22343,27 +22344,27 @@
     <row r="285" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B285" s="11" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="13" t="inlineStr">
         <is>
-          <t>maa://48267 (100.0), maa://48266 (100.0)</t>
+          <t>maa://29159 (100.0)</t>
         </is>
       </c>
       <c r="E285" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜，并确定第一位部署的干员是伺夜&gt; 3星通关别传IS-6；必须编入非助战伺夜并上场，且至少使用3次领袖的尊严</t>
+          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
         </is>
       </c>
       <c r="F285" s="19" t="n"/>
@@ -22397,27 +22398,27 @@
     <row r="286" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B286" s="11" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D286" s="13" t="inlineStr">
         <is>
-          <t>maa://29635 (100.0)</t>
+          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E286" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F286" s="19" t="n"/>
@@ -22451,12 +22452,12 @@
     <row r="287" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B287" s="11" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
@@ -22466,12 +22467,12 @@
       </c>
       <c r="D287" s="13" t="inlineStr">
         <is>
-          <t>maa://38296 (90.62)</t>
+          <t>maa://47882 (100.0)</t>
         </is>
       </c>
       <c r="E287" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
         </is>
       </c>
       <c r="F287" s="19" t="n"/>
@@ -22505,12 +22506,12 @@
     <row r="288" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B288" s="11" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -22520,12 +22521,12 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.71), maa://46332 (95.65), ***maa://44744 (25.0)</t>
+          <t>maa://32414 (98.8), maa://32505 (100.0), maa://39155 (97.44)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
+          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F288" s="19" t="n"/>
@@ -22559,27 +22560,27 @@
     <row r="289" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A289" s="11" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B289" s="11" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D289" s="13" t="inlineStr">
         <is>
-          <t>maa://53353 (100.0)</t>
+          <t>maa://45799 (100.0), maa://57199 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战谜图并上场，且使用谜图歼灭至少3个敌人&gt; 3星通关主题曲9-4标准实战环境；必须编入非助战谜图并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F289" s="19" t="n"/>
@@ -22613,12 +22614,12 @@
     <row r="290" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A290" s="11" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B290" s="11" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
@@ -22628,12 +22629,12 @@
       </c>
       <c r="D290" s="13" t="inlineStr">
         <is>
-          <t>maa://20881 (100.0)</t>
+          <t>maa://42312 (100.0)</t>
         </is>
       </c>
       <c r="E290" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
+          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
         </is>
       </c>
       <c r="F290" s="19" t="n"/>
@@ -22667,27 +22668,27 @@
     <row r="291" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A291" s="11" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B291" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D291" s="13" t="inlineStr">
         <is>
-          <t>maa://30710 (97.89), maa://36845 (95.71), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://36642 (100.0), maa://36867 (97.06), maa://39155 (97.44)</t>
         </is>
       </c>
       <c r="E291" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
+          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
         </is>
       </c>
       <c r="F291" s="19" t="n"/>
@@ -22721,27 +22722,27 @@
     <row r="292" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A292" s="11" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B292" s="11" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D292" s="13" t="inlineStr">
         <is>
-          <t>maa://20902 (100.0)</t>
+          <t>**maa://39166 (50.0), maa://39167 (100.0)</t>
         </is>
       </c>
       <c r="E292" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
+          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
         </is>
       </c>
       <c r="F292" s="19" t="n"/>
@@ -22775,27 +22776,27 @@
     <row r="293" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A293" s="11" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B293" s="11" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D293" s="13" t="inlineStr">
         <is>
-          <t>maa://29159 (100.0)</t>
+          <t>maa://29005 (98.77), maa://31560 (92.31)</t>
         </is>
       </c>
       <c r="E293" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
         </is>
       </c>
       <c r="F293" s="19" t="n"/>
@@ -22829,27 +22830,27 @@
     <row r="294" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A294" s="11" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B294" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://39168 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F294" s="19" t="n"/>
@@ -22883,12 +22884,12 @@
     <row r="295" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A295" s="11" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B295" s="11" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -22898,12 +22899,12 @@
       </c>
       <c r="D295" s="13" t="inlineStr">
         <is>
-          <t>maa://47882 (100.0)</t>
+          <t>maa://39169 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
+          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F295" s="19" t="n"/>
@@ -22937,27 +22938,27 @@
     <row r="296" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A296" s="11" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B296" s="11" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (98.79), maa://32505 (100.0), maa://39155 (97.44)</t>
+          <t>maa://39170 (100.0)</t>
         </is>
       </c>
       <c r="E296" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F296" s="19" t="n"/>
@@ -22991,27 +22992,27 @@
     <row r="297" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A297" s="11" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B297" s="11" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.0), maa://57199 (100.0)</t>
+          <t>maa://50280 (97.53), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中累计部署非助战伊内丝12次&gt; 3星通关主题曲12-12标准实战环境；必须编入非助战伊内丝并上场，且至少使用3次暗夜无明</t>
         </is>
       </c>
       <c r="F297" s="19" t="n"/>
@@ -23045,12 +23046,12 @@
     <row r="298" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A298" s="11" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B298" s="11" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
@@ -23060,12 +23061,12 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://42312 (100.0)</t>
+          <t>maa://39171 (100.0)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F298" s="19" t="n"/>
@@ -23099,27 +23100,27 @@
     <row r="299" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A299" s="11" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B299" s="11" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="13" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (97.06), maa://39155 (97.44)</t>
+          <t>maa://27939 (100.0)</t>
         </is>
       </c>
       <c r="E299" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
+          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F299" s="19" t="n"/>
@@ -23153,27 +23154,27 @@
     <row r="300" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A300" s="11" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B300" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="13" t="inlineStr">
         <is>
-          <t>**maa://39166 (50.0), maa://39167 (100.0)</t>
+          <t>maa://53352 (100.0)</t>
         </is>
       </c>
       <c r="E300" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战淬羽赫默并上场，且每次战斗至少释放1次无畏者协议&gt; 3星通关插曲WB-5；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F300" s="19" t="n"/>
@@ -23207,27 +23208,27 @@
     <row r="301" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A301" s="11" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B301" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="13" t="inlineStr">
         <is>
-          <t>maa://29005 (98.77), maa://31560 (91.67)</t>
+          <t>maa://29129 (100.0)</t>
         </is>
       </c>
       <c r="E301" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
+          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
         </is>
       </c>
       <c r="F301" s="19" t="n"/>
@@ -23261,12 +23262,12 @@
     <row r="302" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A302" s="11" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B302" s="11" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
@@ -23276,12 +23277,12 @@
       </c>
       <c r="D302" s="13" t="inlineStr">
         <is>
-          <t>maa://39168 (100.0)</t>
+          <t>maa://36005 (93.33)</t>
         </is>
       </c>
       <c r="E302" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F302" s="19" t="n"/>
@@ -23315,12 +23316,12 @@
     <row r="303" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A303" s="11" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B303" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -23330,12 +23331,12 @@
       </c>
       <c r="D303" s="13" t="inlineStr">
         <is>
-          <t>maa://39169 (100.0)</t>
+          <t>maa://35859 (97.78)</t>
         </is>
       </c>
       <c r="E303" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F303" s="19" t="n"/>
@@ -23369,12 +23370,12 @@
     <row r="304" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A304" s="11" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B304" s="11" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -23384,12 +23385,12 @@
       </c>
       <c r="D304" s="13" t="inlineStr">
         <is>
-          <t>maa://39170 (100.0)</t>
+          <t>maa://53348 (95.24)</t>
         </is>
       </c>
       <c r="E304" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思并上场，且每次战斗至少释放1次生态耦合&gt; 3星通关主题曲6-12；必须编入非助战缪尔赛思并上场，且使用2次生态耦合</t>
         </is>
       </c>
       <c r="F304" s="19" t="n"/>
@@ -23423,27 +23424,27 @@
     <row r="305" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A305" s="11" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B305" s="11" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.47), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>**maa://39172 (50.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战伊内丝12次&gt; 3星通关主题曲12-12标准实战环境；必须编入非助战伊内丝并上场，且至少使用3次暗夜无明</t>
+          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F305" s="19" t="n"/>
@@ -23477,12 +23478,12 @@
     <row r="306" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A306" s="11" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B306" s="11" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -23492,12 +23493,12 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://39171 (100.0)</t>
+          <t>maa://39173 (100.0)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
         </is>
       </c>
       <c r="F306" s="19" t="n"/>
@@ -23531,27 +23532,27 @@
     <row r="307" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A307" s="11" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B307" s="11" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D307" s="13" t="inlineStr">
         <is>
-          <t>maa://27939 (100.0)</t>
+          <t>maa://25775 (93.18), *maa://25393 (73.33)</t>
         </is>
       </c>
       <c r="E307" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
         </is>
       </c>
       <c r="F307" s="19" t="n"/>
@@ -23585,12 +23586,12 @@
     <row r="308" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A308" s="11" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B308" s="11" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
@@ -23600,12 +23601,12 @@
       </c>
       <c r="D308" s="13" t="inlineStr">
         <is>
-          <t>maa://53352 (100.0)</t>
+          <t>maa://40161 (100.0)</t>
         </is>
       </c>
       <c r="E308" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战淬羽赫默并上场，且每次战斗至少释放1次无畏者协议&gt; 3星通关插曲WB-5；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F308" s="19" t="n"/>
@@ -23639,12 +23640,12 @@
     <row r="309" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A309" s="11" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B309" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -23654,12 +23655,12 @@
       </c>
       <c r="D309" s="13" t="inlineStr">
         <is>
-          <t>maa://29129 (100.0)</t>
+          <t>maa://25367 (99.31)</t>
         </is>
       </c>
       <c r="E309" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
+          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F309" s="19" t="n"/>
@@ -23693,27 +23694,27 @@
     <row r="310" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A310" s="11" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B310" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D310" s="13" t="inlineStr">
         <is>
-          <t>maa://36005 (93.33)</t>
+          <t>maa://62761 (83.33), **maa://62755 (44.44)</t>
         </is>
       </c>
       <c r="E310" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
+          <t>&gt; 由非助战提丰累计造成30歼灭数&gt; 3星通关主题曲4-8；必须编入非助战提丰并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F310" s="19" t="n"/>
@@ -23747,12 +23748,12 @@
     <row r="311" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A311" s="11" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B311" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -23762,12 +23763,12 @@
       </c>
       <c r="D311" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (97.78)</t>
+          <t>*maa://43090 (57.14)</t>
         </is>
       </c>
       <c r="E311" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
         </is>
       </c>
       <c r="F311" s="19" t="n"/>
@@ -23801,12 +23802,12 @@
     <row r="312" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A312" s="11" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B312" s="11" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -23816,12 +23817,12 @@
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>maa://53348 (95.24)</t>
+          <t>maa://28070 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思并上场，且每次战斗至少释放1次生态耦合&gt; 3星通关主题曲6-12；必须编入非助战缪尔赛思并上场，且使用2次生态耦合</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F312" s="19" t="n"/>
@@ -23855,12 +23856,12 @@
     <row r="313" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A313" s="11" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B313" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -23870,12 +23871,12 @@
       </c>
       <c r="D313" s="13" t="inlineStr">
         <is>
-          <t>**maa://39172 (50.0)</t>
+          <t>maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E313" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F313" s="19" t="n"/>
@@ -23909,27 +23910,27 @@
     <row r="314" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A314" s="11" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B314" s="11" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" s="13" t="inlineStr">
         <is>
-          <t>maa://39173 (100.0)</t>
+          <t>maa://25773 (100.0), *maa://26088 (71.43)</t>
         </is>
       </c>
       <c r="E314" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F314" s="19" t="n"/>
@@ -23963,27 +23964,27 @@
     <row r="315" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A315" s="11" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B315" s="11" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="13" t="inlineStr">
         <is>
-          <t>maa://25775 (93.18), *maa://25393 (73.33)</t>
+          <t>maa://39239 (100.0)</t>
         </is>
       </c>
       <c r="E315" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F315" s="19" t="n"/>
@@ -24017,27 +24018,27 @@
     <row r="316" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A316" s="11" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B316" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D316" s="13" t="inlineStr">
         <is>
-          <t>maa://40161 (100.0)</t>
+          <t>maa://39692 (99.63), maa://39810 (86.36)</t>
         </is>
       </c>
       <c r="E316" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F316" s="19" t="n"/>
@@ -24071,12 +24072,12 @@
     <row r="317" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A317" s="11" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B317" s="11" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
@@ -24086,12 +24087,12 @@
       </c>
       <c r="D317" s="13" t="inlineStr">
         <is>
-          <t>maa://25367 (99.31)</t>
+          <t>*maa://39174 (75.0)</t>
         </is>
       </c>
       <c r="E317" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F317" s="19" t="n"/>
@@ -24125,27 +24126,27 @@
     <row r="318" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A318" s="11" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B318" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>maa://62761 (100.0), **maa://62755 (50.0)</t>
+          <t>maa://39175 (100.0)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成30歼灭数&gt; 3星通关主题曲4-8；必须编入非助战提丰并上场，且不编入其他狙击干员</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
       <c r="F318" s="19" t="n"/>
@@ -24179,27 +24180,27 @@
     <row r="319" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A319" s="11" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B319" s="11" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>*maa://43090 (57.14)</t>
+          <t>maa://34867 (96.23), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
       <c r="F319" s="19" t="n"/>
@@ -24233,7 +24234,7 @@
     <row r="320" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A320" s="11" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B320" s="11" t="inlineStr">
@@ -24248,12 +24249,12 @@
       </c>
       <c r="D320" s="13" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E320" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
       <c r="F320" s="19" t="n"/>
@@ -24287,12 +24288,12 @@
     <row r="321" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A321" s="11" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B321" s="11" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -24302,12 +24303,12 @@
       </c>
       <c r="D321" s="13" t="inlineStr">
         <is>
-          <t>maa://28241 (100.0)</t>
+          <t>maa://42316 (88.89)</t>
         </is>
       </c>
       <c r="E321" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
       <c r="F321" s="19" t="n"/>
@@ -24341,12 +24342,12 @@
     <row r="322" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A322" s="11" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B322" s="11" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
@@ -24356,12 +24357,12 @@
       </c>
       <c r="D322" s="13" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (71.43)</t>
+          <t>maa://30680 (100.0), maa://41360 (100.0)</t>
         </is>
       </c>
       <c r="E322" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F322" s="19" t="n"/>
@@ -24395,12 +24396,12 @@
     <row r="323" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A323" s="11" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B323" s="11" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -24410,12 +24411,12 @@
       </c>
       <c r="D323" s="13" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://40956 (93.55)</t>
         </is>
       </c>
       <c r="E323" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
       <c r="F323" s="19" t="n"/>
@@ -24449,27 +24450,27 @@
     <row r="324" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A324" s="11" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B324" s="11" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (99.63), maa://39810 (86.36)</t>
+          <t>maa://59688 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F324" s="19" t="n"/>
@@ -24503,27 +24504,27 @@
     <row r="325" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A325" s="11" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B325" s="11" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>*maa://39174 (75.0)</t>
+          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
       <c r="F325" s="19" t="n"/>
@@ -24557,27 +24558,27 @@
     <row r="326" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A326" s="11" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B326" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="13" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
         </is>
       </c>
       <c r="E326" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
       <c r="F326" s="19" t="n"/>
@@ -24611,27 +24612,27 @@
     <row r="327" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A327" s="11" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B327" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="13" t="inlineStr">
         <is>
-          <t>maa://34867 (96.23), maa://34715 (100.0)</t>
+          <t>maa://44234 (99.12)</t>
         </is>
       </c>
       <c r="E327" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
         </is>
       </c>
       <c r="F327" s="19" t="n"/>
@@ -24665,27 +24666,27 @@
     <row r="328" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A328" s="11" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B328" s="11" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="13" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://42968 (99.1), maa://49245 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
       <c r="F328" s="19" t="n"/>
@@ -24719,12 +24720,12 @@
     <row r="329" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A329" s="11" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B329" s="11" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -24734,12 +24735,12 @@
       </c>
       <c r="D329" s="13" t="inlineStr">
         <is>
-          <t>maa://42316 (88.89)</t>
+          <t>*maa://40162 (71.43)</t>
         </is>
       </c>
       <c r="E329" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F329" s="19" t="n"/>
@@ -24773,12 +24774,12 @@
     <row r="330" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A330" s="11" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B330" s="11" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
@@ -24788,12 +24789,12 @@
       </c>
       <c r="D330" s="13" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E330" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F330" s="19" t="n"/>
@@ -24827,27 +24828,27 @@
     <row r="331" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B331" s="11" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D331" s="15" t="inlineStr">
         <is>
-          <t>maa://40956 (93.41)</t>
+          <t>maa://38295 (94.95), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E331" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
       <c r="F331" s="19" t="n"/>
@@ -24881,12 +24882,12 @@
     <row r="332" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B332" s="11" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -24896,12 +24897,12 @@
       </c>
       <c r="D332" s="15" t="inlineStr">
         <is>
-          <t>maa://59688 (100.0)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="15" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
       <c r="F332" s="19" t="n"/>
@@ -24935,27 +24936,27 @@
     <row r="333" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B333" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="15" t="inlineStr">
         <is>
-          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E333" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
       <c r="F333" s="19" t="n"/>
@@ -24989,27 +24990,27 @@
     <row r="334" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B334" s="11" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="15" t="inlineStr">
         <is>
-          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
+          <t>maa://32416 (91.94)</t>
         </is>
       </c>
       <c r="E334" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F334" s="19" t="n"/>
@@ -25043,12 +25044,12 @@
     <row r="335" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B335" s="11" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
@@ -25058,12 +25059,12 @@
       </c>
       <c r="D335" s="15" t="inlineStr">
         <is>
-          <t>maa://44234 (99.12)</t>
+          <t>maa://45800 (100.0)</t>
         </is>
       </c>
       <c r="E335" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
+          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
       </c>
       <c r="F335" s="19" t="n"/>
@@ -25097,27 +25098,27 @@
     <row r="336" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B336" s="11" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D336" s="15" t="inlineStr">
         <is>
-          <t>maa://42968 (99.09), maa://49245 (100.0)</t>
+          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F336" s="19" t="n"/>
@@ -25151,12 +25152,12 @@
     <row r="337" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B337" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
@@ -25166,12 +25167,12 @@
       </c>
       <c r="D337" s="15" t="inlineStr">
         <is>
-          <t>*maa://40162 (71.43)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E337" s="15" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F337" s="19" t="n"/>
@@ -25205,12 +25206,12 @@
     <row r="338" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B338" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -25220,12 +25221,12 @@
       </c>
       <c r="D338" s="22" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E338" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F338" s="19" t="n"/>
@@ -25259,27 +25260,27 @@
     <row r="339" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B339" s="11" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" s="22" t="inlineStr">
         <is>
-          <t>maa://30671 (81.44), maa://30669 (99.24), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
+          <t>maa://34716 (87.5)</t>
         </is>
       </c>
       <c r="E339" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
       <c r="F339" s="19" t="n"/>
@@ -25313,27 +25314,27 @@
     <row r="340" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B340" s="11" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (94.9), maa://49332 (100.0)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
       <c r="F340" s="19" t="n"/>
@@ -25367,27 +25368,27 @@
     <row r="341" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B341" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D341" s="22" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://34865 (97.88), maa://34717 (94.12), *maa://45066 (71.43)</t>
         </is>
       </c>
       <c r="E341" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
       <c r="F341" s="19" t="n"/>
@@ -25421,12 +25422,12 @@
     <row r="342" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B342" s="11" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
@@ -25436,12 +25437,12 @@
       </c>
       <c r="D342" s="22" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E342" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F342" s="19" t="n"/>
@@ -25475,27 +25476,27 @@
     <row r="343" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B343" s="11" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" s="22" t="inlineStr">
         <is>
-          <t>maa://32416 (91.67)</t>
+          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
         </is>
       </c>
       <c r="E343" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F343" s="19" t="n"/>
@@ -25529,12 +25530,12 @@
     <row r="344" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B344" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
@@ -25544,12 +25545,12 @@
       </c>
       <c r="D344" s="22" t="inlineStr">
         <is>
-          <t>maa://45800 (100.0)</t>
+          <t>maa://39181 (88.89)</t>
         </is>
       </c>
       <c r="E344" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F344" s="19" t="n"/>
@@ -25583,27 +25584,27 @@
     <row r="345" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B345" s="11" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (97.89), maa://32415 (96.79), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61839 (100.0)</t>
+          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.56)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F345" s="19" t="n"/>
@@ -25637,27 +25638,27 @@
     <row r="346" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B346" s="11" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D346" s="22" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33)</t>
         </is>
       </c>
       <c r="E346" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
         </is>
       </c>
       <c r="F346" s="19" t="n"/>
@@ -25691,12 +25692,12 @@
     <row r="347" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B347" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -25706,12 +25707,12 @@
       </c>
       <c r="D347" s="22" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E347" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F347" s="19" t="n"/>
@@ -25745,27 +25746,27 @@
     <row r="348" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B348" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://34716 (87.5)</t>
+          <t>maa://42299 (97.67), maa://42224 (83.33)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F348" s="19" t="n"/>
@@ -25799,27 +25800,27 @@
     <row r="349" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B349" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" s="22" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://49648 (96.0), *maa://49662 (76.47)</t>
         </is>
       </c>
       <c r="E349" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
         </is>
       </c>
       <c r="F349" s="19" t="n"/>
@@ -25853,27 +25854,27 @@
     <row r="350" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B350" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D350" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (97.86), maa://34717 (94.12), *maa://45066 (71.43)</t>
+          <t>maa://36646 (98.81), maa://36845 (95.74), **maa://39217 (41.18), maa://51007 (98.21)</t>
         </is>
       </c>
       <c r="E350" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F350" s="19" t="n"/>
@@ -25907,27 +25908,27 @@
     <row r="351" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B351" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D351" s="22" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://36645 (98.39), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
         </is>
       </c>
       <c r="E351" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F351" s="19" t="n"/>
@@ -25961,27 +25962,27 @@
     <row r="352" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B352" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D352" s="22" t="inlineStr">
         <is>
-          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
+          <t>maa://42635 (95.74), maa://50629 (100.0), maa://48859 (100.0)</t>
         </is>
       </c>
       <c r="E352" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F352" s="19" t="n"/>
@@ -26015,12 +26016,12 @@
     <row r="353" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B353" s="11" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
@@ -26030,12 +26031,12 @@
       </c>
       <c r="D353" s="22" t="inlineStr">
         <is>
-          <t>maa://39181 (88.89)</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E353" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F353" s="19" t="n"/>
@@ -26069,27 +26070,27 @@
     <row r="354" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B354" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.12)</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F354" s="19" t="n"/>
@@ -26123,27 +26124,27 @@
     <row r="355" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B355" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.48), *maa://59402 (58.33), *maa://52357 (71.43)</t>
+          <t>maa://40957 (94.23), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
       <c r="F355" s="19" t="n"/>
@@ -26177,12 +26178,12 @@
     <row r="356" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B356" s="11" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -26192,12 +26193,12 @@
       </c>
       <c r="D356" s="22" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://40164 (100.0)</t>
         </is>
       </c>
       <c r="E356" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
       <c r="F356" s="19" t="n"/>
@@ -26231,27 +26232,27 @@
     <row r="357" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B357" s="11" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (97.67), maa://42224 (82.35)</t>
+          <t>maa://48268 (91.67)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F357" s="19" t="n"/>
@@ -26285,27 +26286,27 @@
     <row r="358" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B358" s="11" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (95.83), *maa://49662 (76.47)</t>
+          <t>maa://40165 (100.0)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F358" s="19" t="n"/>
@@ -26339,27 +26340,27 @@
     <row r="359" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B359" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" s="22" t="inlineStr">
         <is>
-          <t>maa://36646 (98.8), maa://36845 (95.71), **maa://39217 (41.18), maa://51007 (98.21)</t>
+          <t>maa://45798 (98.48)</t>
         </is>
       </c>
       <c r="E359" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
       </c>
       <c r="F359" s="19" t="n"/>
@@ -26393,27 +26394,27 @@
     <row r="360" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B360" s="11" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://36645 (98.38), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
+          <t>maa://42331 (100.0)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F360" s="19" t="n"/>
@@ -26447,12 +26448,12 @@
     <row r="361" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B361" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
@@ -26462,12 +26463,12 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (95.65), maa://50629 (100.0), maa://48859 (100.0)</t>
+          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F361" s="19" t="n"/>
@@ -26501,27 +26502,27 @@
     <row r="362" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B362" s="11" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D362" s="22" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
         </is>
       </c>
       <c r="E362" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
       <c r="F362" s="19" t="n"/>
@@ -26555,27 +26556,27 @@
     <row r="363" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B363" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D363" s="22" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://41110 (98.4), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E363" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F363" s="19" t="n"/>
@@ -26609,27 +26610,27 @@
     <row r="364" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B364" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.22), maa://44635 (88.07), maa://48026 (93.75), maa://41035 (93.06), maa://44660 (92.31), maa://41128 (84.21), *maa://60251 (66.67)</t>
+          <t>maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
       <c r="F364" s="19" t="n"/>
@@ -26663,12 +26664,12 @@
     <row r="365" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B365" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -26678,12 +26679,12 @@
       </c>
       <c r="D365" s="22" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://43095 (100.0)</t>
         </is>
       </c>
       <c r="E365" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
         </is>
       </c>
       <c r="F365" s="19" t="n"/>
@@ -26717,27 +26718,27 @@
     <row r="366" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B366" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D366" s="22" t="inlineStr">
         <is>
-          <t>maa://48268 (91.67)</t>
+          <t>maa://44233 (91.23), maa://45570 (96.49)</t>
         </is>
       </c>
       <c r="E366" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
       <c r="F366" s="19" t="n"/>
@@ -26771,12 +26772,12 @@
     <row r="367" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B367" s="11" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
@@ -26786,12 +26787,12 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://43097 (87.5)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
         </is>
       </c>
       <c r="F367" s="19" t="n"/>
@@ -26825,12 +26826,12 @@
     <row r="368" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B368" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
@@ -26840,12 +26841,12 @@
       </c>
       <c r="D368" s="22" t="inlineStr">
         <is>
-          <t>maa://45798 (98.48)</t>
+          <t>maa://43875 (98.28)</t>
         </is>
       </c>
       <c r="E368" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
       </c>
       <c r="F368" s="19" t="n"/>
@@ -26879,27 +26880,27 @@
     <row r="369" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A369" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B369" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C369" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>maa://42970 (82.71), maa://44745 (97.5), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>
       </c>
       <c r="F369" s="19" t="n"/>
@@ -26933,27 +26934,27 @@
     <row r="370" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A370" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B370" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C370" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D370" s="22" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
+          <t>maa://44389 (100.0)</t>
         </is>
       </c>
       <c r="E370" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
         </is>
       </c>
       <c r="F370" s="19" t="n"/>
@@ -26987,27 +26988,27 @@
     <row r="371" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A371" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B371" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C371" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" s="22" t="inlineStr">
         <is>
-          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
+          <t>maa://59690 (100.0)</t>
         </is>
       </c>
       <c r="E371" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F371" s="19" t="n"/>
@@ -27041,27 +27042,27 @@
     <row r="372" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A372" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B372" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (98.4), maa://45605 (100.0)</t>
+          <t>maa://48113 (100.0)</t>
         </is>
       </c>
       <c r="E372" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F372" s="19" t="n"/>
@@ -27095,12 +27096,12 @@
     <row r="373" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A373" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B373" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C373" s="12" t="inlineStr">
@@ -27110,12 +27111,12 @@
       </c>
       <c r="D373" s="22" t="inlineStr">
         <is>
-          <t>maa://42343 (100.0)</t>
+          <t>maa://45807 (100.0)</t>
         </is>
       </c>
       <c r="E373" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
       <c r="F373" s="19" t="n"/>
@@ -27149,12 +27150,12 @@
     <row r="374" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A374" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B374" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C374" s="12" t="inlineStr">
@@ -27164,12 +27165,12 @@
       </c>
       <c r="D374" s="22" t="inlineStr">
         <is>
-          <t>maa://43095 (100.0)</t>
+          <t>maa://50552 (100.0)</t>
         </is>
       </c>
       <c r="E374" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
         </is>
       </c>
       <c r="F374" s="19" t="n"/>
@@ -27203,12 +27204,12 @@
     <row r="375" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A375" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B375" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C375" s="12" t="inlineStr">
@@ -27218,12 +27219,12 @@
       </c>
       <c r="D375" s="22" t="inlineStr">
         <is>
-          <t>maa://44233 (91.07), maa://45570 (96.43)</t>
+          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
         </is>
       </c>
       <c r="E375" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F375" s="19" t="n"/>
@@ -27257,12 +27258,12 @@
     <row r="376" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A376" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B376" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C376" s="12" t="inlineStr">
@@ -27272,12 +27273,12 @@
       </c>
       <c r="D376" s="22" t="inlineStr">
         <is>
-          <t>maa://43097 (87.5)</t>
+          <t>maa://47023 (89.19)</t>
         </is>
       </c>
       <c r="E376" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
         </is>
       </c>
       <c r="F376" s="19" t="n"/>
@@ -27311,12 +27312,12 @@
     <row r="377" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A377" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B377" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C377" s="12" t="inlineStr">
@@ -27326,12 +27327,12 @@
       </c>
       <c r="D377" s="22" t="inlineStr">
         <is>
-          <t>maa://43872 (91.67)</t>
+          <t>**maa://48618 (50.0)</t>
         </is>
       </c>
       <c r="E377" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
         </is>
       </c>
       <c r="F377" s="19" t="n"/>
@@ -27365,7 +27366,7 @@
     <row r="378" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A378" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B378" s="11" t="inlineStr">
@@ -27375,17 +27376,17 @@
       </c>
       <c r="C378" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="22" t="inlineStr">
         <is>
-          <t>*maa://53307 (61.11)</t>
+          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
         </is>
       </c>
       <c r="E378" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战弑君者累计使用8次烽烟行刑场&gt; 3星通关主题曲4-8；必须编入非助战弑君者并上场，且使用2次烽烟行刑场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
         </is>
       </c>
       <c r="F378" s="19" t="n"/>
@@ -27419,27 +27420,27 @@
     <row r="379" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A379" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B379" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C379" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://43875 (98.21)</t>
+          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
         </is>
       </c>
       <c r="F379" s="19" t="n"/>
@@ -27473,27 +27474,27 @@
     <row r="380" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A380" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B380" s="11" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C380" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.71), maa://44745 (97.39), **maa://49516 (34.78), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>**maa://59691 (50.0)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
         </is>
       </c>
       <c r="F380" s="19" t="n"/>
@@ -27527,27 +27528,27 @@
     <row r="381" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A381" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B381" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C381" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D381" s="22" t="inlineStr">
         <is>
-          <t>maa://44389 (100.0)</t>
+          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
         </is>
       </c>
       <c r="E381" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F381" s="19" t="n"/>
@@ -27581,27 +27582,27 @@
     <row r="382" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A382" s="12" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B382" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C382" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D382" s="22" t="inlineStr">
         <is>
-          <t>maa://59690 (100.0)</t>
+          <t>maa://51880 (99.15), maa://56651 (100.0), maa://51878 (100.0)</t>
         </is>
       </c>
       <c r="E382" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
         </is>
       </c>
       <c r="F382" s="19" t="n"/>
@@ -27635,27 +27636,27 @@
     <row r="383" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A383" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B383" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C383" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://48113 (100.0)</t>
+          <t>maa://51872 (96.34), maa://51876 (98.95), maa://51873 (100.0), maa://62047 (92.86), maa://63228 (85.71)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
         </is>
       </c>
       <c r="F383" s="19" t="n"/>
@@ -27689,27 +27690,27 @@
     <row r="384" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A384" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B384" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C384" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>maa://59493 (96.75), maa://60449 (98.0)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
+          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
         </is>
       </c>
       <c r="F384" s="19" t="n"/>
@@ -27741,29 +27742,29 @@
       <c r="AF384" s="8" t="n"/>
     </row>
     <row r="385" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A385" s="12" t="inlineStr">
-        <is>
-          <t>寻澜</t>
-        </is>
-      </c>
-      <c r="B385" s="11" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="C385" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D385" s="22" t="inlineStr">
-        <is>
-          <t>maa://50552 (100.0)</t>
-        </is>
-      </c>
-      <c r="E385" s="22" t="inlineStr">
-        <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
+      <c r="A385" s="25" t="inlineStr">
+        <is>
+          <t>录武官</t>
+        </is>
+      </c>
+      <c r="B385" s="24" t="inlineStr">
+        <is>
+          <t>HS-5</t>
+        </is>
+      </c>
+      <c r="C385" s="25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D385" s="30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E385" s="30" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F385" s="19" t="n"/>
@@ -27797,27 +27798,27 @@
     <row r="386" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A386" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B386" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
+          <t>maa://62756 (94.0)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 由非助战司霆惊蛰累计造成120000点伤害&gt; 3星通关插曲DV-7；必须编入非助战司霆惊蛰并上场，且使用1次“天地通明”</t>
         </is>
       </c>
       <c r="F386" s="19" t="n"/>

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.74), maa://24702 (94.9), maa://36681 (86.59)</t>
+          <t>maa://25390 (95.76), maa://24702 (94.9), maa://36681 (86.59)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.67)</t>
+          <t>maa://22742 (91.27)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (96.03), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.06), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.16), maa://27295 (87.38), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.2), maa://27295 (87.38), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
-          <t>maa://21291 (88.06)</t>
+          <t>maa://21291 (88.24)</t>
         </is>
       </c>
       <c r="U7" s="19" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.23 13:29:43</t>
+          <t>更新日期：2025.07.25 13:29:06</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24371 (57.32)</t>
+          <t>*maa://24371 (57.83)</t>
         </is>
       </c>
       <c r="I8" s="19" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.13)</t>
+          <t>maa://21411 (95.18)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.3), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.42), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.84), ***maa://39951 (11.39), ***maa://34206 (22.22), *maa://45271 (61.18), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.84), ***maa://39951 (11.25), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (97.96), maa://45828 (94.23), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.97), maa://45828 (94.23), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.2), maa://37962 (90.67), *maa://21485 (76.16)</t>
+          <t>maa://22753 (92.24), maa://37962 (90.67), *maa://21485 (76.32)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.93), maa://36673 (92.39), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.94), maa://36673 (92.39), maa://25001 (86.49)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.96), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.05), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (85.12)</t>
+          <t>maa://34957 (85.25)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.92), maa://26245 (96.84), maa://21288 (96.3), maa://36682 (96.3)</t>
+          <t>maa://39841 (94.38), maa://26245 (96.84), maa://21288 (96.3), maa://36682 (94.55)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.71), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (70.87), maa://45058 (82.61)</t>
+          <t>*maa://22743 (78.8), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (71.32), maa://45058 (82.61)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (81.98), maa://36666 (81.93), *maa://22766 (68.8)</t>
+          <t>maa://21364 (82.03), maa://36666 (81.93), *maa://22766 (68.8)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (98.39), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.4), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (92.31), maa://52226 (96.43)</t>
+          <t>maa://22466 (92.38), maa://52226 (96.43)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (90.95), maa://25198 (93.94), maa://36680 (91.18)</t>
+          <t>maa://21432 (91.0), maa://25198 (93.94), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.47)</t>
+          <t>maa://41331 (86.52)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.33), maa://49976 (87.36), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.39), maa://49976 (87.36), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (83.22)</t>
+          <t>maa://21443 (83.25)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (86.92), maa://22432 (84.11)</t>
+          <t>maa://22524 (86.97), maa://22432 (84.11)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.82), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.84), maa://39875 (93.9)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.67), *maa://46650 (62.86)</t>
+          <t>*maa://24368 (79.67), *maa://46650 (63.89)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (85.03), maa://23504 (93.87), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
+          <t>maa://29988 (85.03), maa://23504 (93.88), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.36), *maa://36672 (72.86), maa://29910 (93.85), maa://45831 (88.89)</t>
+          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (88.89)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.25), maa://41749 (92.11)</t>
+          <t>maa://39929 (92.25), maa://41749 (92.21)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (92.33)</t>
+          <t>maa://36660 (92.34)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>*maa://25175 (56.34)</t>
+          <t>*maa://25175 (55.56)</t>
         </is>
       </c>
       <c r="I29" s="19" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.03), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.14), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (97.25), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.27), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.25), maa://41108 (86.27), maa://41238 (98.24), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.25), maa://41108 (86.27), maa://41238 (98.26), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.5)</t>
+          <t>maa://41296 (97.51)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (89.94)</t>
+          <t>maa://36697 (89.97)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>maa://62953 (93.62)</t>
+          <t>maa://62953 (94.0)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (95.32), maa://21386 (95.83), maa://36664 (88.71), maa://45550 (87.5)</t>
+          <t>maa://23278 (95.34), maa://21386 (95.83), maa://36664 (88.71), maa://45550 (87.5)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (97.69), maa://27728 (96.19), maa://56386 (100.0)</t>
+          <t>maa://29768 (97.7), maa://27728 (96.19), maa://56386 (100.0)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (92.0), maa://43901 (92.31)</t>
+          <t>maa://35931 (92.02), maa://43901 (92.31)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.94), maa://29661 (97.69), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (96.96), maa://29661 (97.69), maa://28038 (84.62), maa://56236 (100.0)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (70.59)</t>
+          <t>*maa://62852 (69.64)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (98.04), maa://59378 (95.24)</t>
+          <t>maa://59394 (98.08), maa://59378 (95.24)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.38)</t>
+          <t>maa://32534 (95.39)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (93.62)</t>
+          <t>maa://32532 (93.64)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (97.98), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.0), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.23 13:29:43</t>
+          <t>更新日期：2025.07.25 13:29:06</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>*maa://20848 (80.0)</t>
+          <t>maa://20848 (83.33)</t>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (95.45)</t>
+          <t>maa://20876 (95.56)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.86), maa://42635 (95.74), *maa://20838 (55.0)</t>
+          <t>maa://27376 (92.86), maa://42635 (95.83), *maa://20838 (55.0)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>maa://20892 (80.85)</t>
+          <t>maa://20892 (81.25)</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (97.88), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.9), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (95.83), maa://35393 (100.0)</t>
+          <t>maa://20944 (95.92), maa://35393 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.29), maa://36864 (98.02), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.3), maa://36864 (98.02), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="D102" s="13" t="inlineStr">
         <is>
-          <t>maa://40517 (96.3), *maa://39240 (60.0)</t>
+          <t>maa://40517 (92.86), *maa://39240 (56.25)</t>
         </is>
       </c>
       <c r="E102" s="14" t="inlineStr">
@@ -12796,12 +12796,12 @@
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.25), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.0), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61839 (100.0)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.25), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (97.1)</t>
+          <t>maa://29037 (97.14)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), maa://20940 (90.91)</t>
+          <t>maa://31560 (92.31), maa://20940 (83.33)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (99.15)</t>
+          <t>maa://21422 (99.16)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (95.83), maa://51923 (95.83)</t>
+          <t>maa://51549 (95.92), maa://51923 (95.83)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="D172" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (91.67)</t>
+          <t>maa://37690 (92.31)</t>
         </is>
       </c>
       <c r="E172" s="14" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="D194" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (57.89), *maa://53417 (71.43)</t>
+          <t>maa://39156 (93.98), *maa://39550 (55.0), *maa://53417 (71.43)</t>
         </is>
       </c>
       <c r="E194" s="14" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (96.0), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (96.02), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E205" s="14" t="inlineStr">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="D222" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (74.0), maa://39159 (96.77), ***maa://30061 (27.27)</t>
+          <t>*maa://29644 (72.55), maa://39159 (96.77), ***maa://30061 (27.27)</t>
         </is>
       </c>
       <c r="E222" s="14" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (90.72), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
+          <t>maa://42287 (89.8), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="14" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="D248" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (89.29), *maa://45067 (75.0)</t>
+          <t>maa://40958 (89.66), *maa://45067 (75.0)</t>
         </is>
       </c>
       <c r="E248" s="14" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (86.67), maa://20834 (92.86)</t>
+          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -21009,7 +21009,7 @@
       </c>
       <c r="D260" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (90.91)</t>
+          <t>maa://49643 (91.43)</t>
         </is>
       </c>
       <c r="E260" s="14" t="inlineStr">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.25), maa://51630 (96.7), maa://56588 (95.0), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
+          <t>maa://51881 (99.25), maa://51630 (96.7), maa://56588 (95.24), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
@@ -23007,7 +23007,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.53), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.55), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="D307" s="13" t="inlineStr">
         <is>
-          <t>maa://25775 (93.18), *maa://25393 (73.33)</t>
+          <t>maa://25775 (92.13), *maa://25393 (75.0)</t>
         </is>
       </c>
       <c r="E307" s="14" t="inlineStr">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="D323" s="13" t="inlineStr">
         <is>
-          <t>maa://40956 (93.55)</t>
+          <t>maa://40956 (93.62)</t>
         </is>
       </c>
       <c r="E323" s="14" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="D331" s="15" t="inlineStr">
         <is>
-          <t>maa://38295 (94.95), maa://49332 (100.0)</t>
+          <t>maa://38295 (95.0), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E331" s="15" t="inlineStr">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="D334" s="15" t="inlineStr">
         <is>
-          <t>maa://32416 (91.94)</t>
+          <t>maa://32416 (92.06)</t>
         </is>
       </c>
       <c r="E334" s="15" t="inlineStr">
@@ -25108,12 +25108,12 @@
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D336" s="15" t="inlineStr">
         <is>
-          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61839 (100.0)</t>
+          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61275 (100.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="15" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="D341" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (97.88), maa://34717 (94.12), *maa://45066 (71.43)</t>
+          <t>maa://34865 (97.88), maa://34717 (94.2), *maa://45066 (71.43)</t>
         </is>
       </c>
       <c r="E341" s="22" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.56)</t>
+          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.65)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="D352" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (95.74), maa://50629 (100.0), maa://48859 (100.0)</t>
+          <t>maa://42635 (95.83), maa://50629 (100.0), maa://48859 (100.0)</t>
         </is>
       </c>
       <c r="E352" s="22" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="D359" s="22" t="inlineStr">
         <is>
-          <t>maa://45798 (98.48)</t>
+          <t>maa://45798 (98.51)</t>
         </is>
       </c>
       <c r="E359" s="22" t="inlineStr">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.71), maa://44745 (97.5), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.71), maa://44745 (97.53), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27651,7 +27651,7 @@
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://51872 (96.34), maa://51876 (98.95), maa://51873 (100.0), maa://62047 (92.86), maa://63228 (85.71)</t>
+          <t>maa://51872 (96.36), maa://51876 (98.95), maa://51873 (100.0), maa://62047 (93.33), maa://63228 (88.89)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
@@ -27705,7 +27705,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://59493 (96.75), maa://60449 (98.0)</t>
+          <t>maa://59493 (96.77), maa://60449 (98.08)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -27813,7 +27813,7 @@
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>maa://62756 (94.0)</t>
+          <t>maa://62756 (94.12)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.76), maa://24702 (94.9), maa://36681 (86.59)</t>
+          <t>maa://25390 (95.77), maa://24702 (94.92), maa://36681 (86.59)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (95.16), *maa://34787 (74.47), maa://58660 (93.75)</t>
+          <t>maa://39402 (95.16), *maa://34787 (74.47), maa://58660 (94.12)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.27)</t>
+          <t>maa://22742 (91.3)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (91.56), maa://36684 (93.89)</t>
+          <t>maa://21246 (91.56), maa://36684 (93.92)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (96.0)</t>
+          <t>maa://25251 (91.91), maa://59087 (93.33)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>maa://21247 (98.54)</t>
+          <t>maa://21247 (98.55)</t>
         </is>
       </c>
       <c r="I3" s="19" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.4), maa://20276 (88.13), *maa://22749 (80.0)</t>
+          <t>*maa://22880 (66.4), maa://20276 (88.29), *maa://22749 (80.0)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (94.98), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (95.03), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (82.24), maa://24617 (91.18), *maa://60545 (72.73)</t>
+          <t>maa://45854 (82.57), maa://24617 (91.18), *maa://60545 (75.0)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (84.02), maa://27484 (96.6), maa://27480 (85.0)</t>
+          <t>maa://27396 (84.07), maa://27484 (96.64), maa://27480 (85.0)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (95.92), maa://52241 (93.75)</t>
+          <t>maa://24390 (95.92), maa://52241 (94.12)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (93.4), maa://22499 (88.24), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.43), maa://22499 (88.24), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (95.15), maa://50121 (95.45)</t>
+          <t>maa://49983 (95.19), maa://50121 (95.65)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.2), maa://27295 (87.38), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.2), maa://27295 (87.62), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (92.95)</t>
+          <t>maa://43217 (92.99)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (83.5), maa://22744 (82.14), maa://54105 (91.3)</t>
+          <t>maa://21245 (83.5), maa://22744 (82.14), maa://54105 (92.0)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.64), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.67), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.25 13:29:06</t>
+          <t>更新日期：2025.07.27 13:27:11</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (83.78), maa://23252 (91.67), maa://37496 (97.73)</t>
+          <t>maa://32931 (83.78), maa://23252 (91.67), maa://37496 (97.78)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (87.84), maa://40166 (92.0)</t>
+          <t>maa://28711 (87.84), maa://40166 (92.31)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.42), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.47), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.84), ***maa://39951 (11.25), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (18.75), ***maa://39951 (11.11), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (97.97), maa://45828 (94.23), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.98), maa://45828 (94.34), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.24), maa://37962 (90.67), *maa://21485 (76.32)</t>
+          <t>maa://22753 (92.24), maa://37962 (90.79), *maa://21485 (76.32)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (95.71), maa://36677 (95.74), maa://39872 (93.33)</t>
+          <t>maa://23669 (95.71), maa://36677 (95.74), maa://39872 (93.55)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.94), maa://36673 (92.39), maa://25001 (86.49)</t>
+          <t>maa://24999 (92.96), maa://36673 (92.39), maa://25001 (86.67)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.05), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.14), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.96), *maa://22583 (78.57), *maa://48321 (80.0)</t>
+          <t>maa://22676 (93.96), *maa://22583 (78.82), *maa://48321 (80.0)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (85.25)</t>
+          <t>maa://34957 (85.37)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (87.79), **maa://39885 (50.0)</t>
+          <t>maa://39883 (88.06), **maa://39885 (50.0)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.38), maa://26245 (96.84), maa://21288 (96.3), maa://36682 (94.55)</t>
+          <t>maa://39841 (94.38), maa://26245 (96.84), maa://21288 (96.32), maa://36682 (94.55)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="P14" s="8" t="inlineStr">
         <is>
-          <t>maa://23250 (98.91), maa://20107 (87.5), maa://22772 (100.0)</t>
+          <t>maa://23250 (98.92), maa://20107 (87.5), maa://22772 (100.0)</t>
         </is>
       </c>
       <c r="Q14" s="19" t="n"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AB14" s="8" t="inlineStr">
         <is>
-          <t>maa://22764 (96.47)</t>
+          <t>maa://22764 (96.51)</t>
         </is>
       </c>
       <c r="AC14" s="19" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.8), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (71.32), maa://45058 (82.61)</t>
+          <t>*maa://22743 (78.49), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (71.32), maa://45058 (82.61)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (87.13), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.27), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (96.54), maa://37650 (96.88), maa://36679 (94.55)</t>
+          <t>maa://21441 (96.55), maa://37650 (96.92), maa://36679 (94.55)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (94.65), *maa://28648 (75.29), maa://36674 (80.3)</t>
+          <t>maa://22729 (94.65), *maa://28648 (75.58), maa://36674 (80.3)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (98.4), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.43), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (89.59), maa://39599 (87.5)</t>
+          <t>maa://22430 (89.59), maa://39599 (87.64)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AF17" s="8" t="inlineStr">
         <is>
-          <t>maa://50136 (96.15)</t>
+          <t>maa://50136 (96.3)</t>
         </is>
       </c>
       <c r="AG17" s="16" t="n"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>maa://24570 (97.22)</t>
+          <t>maa://24570 (97.23)</t>
         </is>
       </c>
       <c r="E18" s="19" t="n"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>maa://24421 (87.29)</t>
+          <t>maa://24421 (87.33)</t>
         </is>
       </c>
       <c r="I18" s="19" t="n"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="AB18" s="8" t="inlineStr">
         <is>
-          <t>maa://24393 (98.31)</t>
+          <t>maa://24393 (98.33)</t>
         </is>
       </c>
       <c r="AC18" s="19" t="n"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (76.19)</t>
+          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (77.27)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
-          <t>maa://24386 (98.73)</t>
+          <t>maa://24386 (98.75)</t>
         </is>
       </c>
       <c r="U19" s="19" t="n"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>*maa://30709 (69.29), *maa://36668 (57.83)</t>
+          <t>*maa://30709 (69.35), *maa://36668 (57.83)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>maa://22864 (90.53)</t>
+          <t>maa://22864 (90.58)</t>
         </is>
       </c>
       <c r="I20" s="19" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.52)</t>
+          <t>maa://41331 (86.57)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.39), maa://49976 (87.36), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.5), maa://49976 (87.78), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>maa://21261 (98.11)</t>
+          <t>maa://21261 (98.15)</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>maa://24372 (97.25)</t>
+          <t>maa://24372 (97.27)</t>
         </is>
       </c>
       <c r="I21" s="19" t="n"/>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (77.54), *maa://22751 (70.67)</t>
+          <t>*maa://27127 (77.7), *maa://22751 (70.67)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="W22" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (98.77), *maa://37649 (72.55)</t>
+          <t>maa://21282 (98.77)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.84), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.86), maa://39875 (93.9)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (85.03), maa://23504 (93.88), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.65)</t>
+          <t>maa://29988 (85.03), maa://23504 (93.91), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.83)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (88.89)</t>
+          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (89.47)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>*maa://29063 (71.43), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (71.57), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (92.78), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (92.82), maa://22545 (100.0), *maa://42915 (75.0)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (96.0), maa://24621 (97.22), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (96.0), maa://24621 (97.24), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (96.32)</t>
+          <t>maa://42235 (96.34)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.83), maa://25725 (82.18)</t>
+          <t>maa://24465 (90.84), maa://25725 (82.18)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.25), maa://41749 (92.21)</t>
+          <t>maa://39929 (92.28), maa://41749 (92.21)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.14), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.23), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (97.27), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (97.28), maa://45822 (100.0), maa://45045 (83.33)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (93.57), maa://36258 (88.51), *maa://43904 (73.33)</t>
+          <t>maa://35926 (93.59), maa://36258 (88.51), *maa://43904 (73.33)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (97.74), maa://36667 (97.48), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.74), maa://36667 (97.5), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.25), maa://41108 (86.27), maa://41238 (98.26), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.29), maa://41108 (86.27), maa://41238 (98.26), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>maa://42408 (88.89)</t>
+          <t>maa://42408 (89.47)</t>
         </is>
       </c>
       <c r="AG32" s="16" t="n"/>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (81.44), *maa://22730 (72.73)</t>
+          <t>maa://21956 (81.55), *maa://22730 (72.73)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.44), maa://56235 (100.0)</t>
+          <t>maa://48817 (97.5), maa://56235 (100.0)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AF34" s="8" t="inlineStr">
         <is>
-          <t>maa://32650 (80.77)</t>
+          <t>maa://32650 (81.48)</t>
         </is>
       </c>
       <c r="AG34" s="16" t="n"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.51)</t>
+          <t>maa://41296 (97.54)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
-          <t>maa://24842 (95.0)</t>
+          <t>maa://24842 (95.08)</t>
         </is>
       </c>
       <c r="U35" s="19" t="n"/>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
-          <t>maa://27613 (99.16)</t>
+          <t>maa://27613 (99.17)</t>
         </is>
       </c>
       <c r="U36" s="19" t="n"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.6), maa://47069 (81.82), maa://56336 (81.82), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.61), maa://47069 (81.82), maa://56336 (81.82), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (87.8), maa://25199 (85.47), maa://30434 (93.92), *maa://45059 (75.68), *maa://44165 (75.0)</t>
+          <t>maa://36670 (87.9), maa://25199 (85.47), maa://30434 (93.92), *maa://45059 (76.32), *maa://44165 (75.0)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (91.71), maa://47093 (100.0)</t>
+          <t>maa://24709 (91.8), maa://47093 (100.0)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (93.86), *maa://45788 (70.73), maa://45790 (81.25)</t>
+          <t>maa://47079 (93.1), *maa://45788 (70.63), maa://45790 (81.25)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>maa://62953 (94.0)</t>
+          <t>maa://62953 (92.73)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="P41" s="8" t="inlineStr">
         <is>
-          <t>maa://43177 (89.19)</t>
+          <t>maa://43177 (89.74)</t>
         </is>
       </c>
       <c r="Q41" s="19" t="n"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (80.34), maa://21284 (88.14)</t>
+          <t>maa://22525 (80.34), maa://21284 (88.33)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (84.65), maa://30807 (93.51), maa://42459 (88.1)</t>
+          <t>maa://21229 (84.73), maa://30807 (93.51), maa://42459 (88.1)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (92.02), maa://43901 (92.31)</t>
+          <t>maa://35931 (92.04), maa://43901 (92.42)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.96), maa://29661 (97.69), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (96.96), maa://29661 (97.71), maa://28038 (84.62), maa://56236 (100.0)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (69.64)</t>
+          <t>*maa://62852 (70.69)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (98.08), maa://59378 (95.24)</t>
+          <t>maa://59394 (98.18), maa://59378 (95.31)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.39)</t>
+          <t>maa://32534 (95.41)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (98.67), maa://56237 (100.0)</t>
+          <t>maa://25176 (98.68), maa://56237 (100.0)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>*maa://37964 (56.67)</t>
+          <t>*maa://37964 (58.06)</t>
         </is>
       </c>
       <c r="I58" s="19" t="n"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>*maa://40438 (76.47)</t>
+          <t>*maa://40438 (76.74)</t>
         </is>
       </c>
       <c r="I60" s="19" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (98.0), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.08), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.25 13:29:06</t>
+          <t>更新日期：2025.07.27 13:27:11</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (95.56)</t>
+          <t>maa://20876 (95.65)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>*maa://20871 (80.0)</t>
+          <t>maa://20871 (83.33)</t>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (88.18), maa://36866 (96.55), maa://45572 (93.33), maa://27794 (100.0), maa://62759 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (88.24), maa://36866 (96.55), maa://45572 (93.33), maa://27794 (100.0), maa://62759 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.86), maa://42635 (95.83), *maa://20838 (55.0)</t>
+          <t>maa://27376 (92.86), maa://42635 (95.92), *maa://20838 (55.0)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>maa://20918 (95.45), maa://34883 (93.75), maa://20824 (100.0)</t>
+          <t>maa://20918 (95.83), maa://34883 (93.75), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D49" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (77.78), *maa://20982 (75.0)</t>
+          <t>*maa://32845 (78.95), *maa://20982 (75.0)</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (98.63), maa://41118 (85.71)</t>
+          <t>maa://27970 (98.65), maa://41118 (85.71)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (97.1), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.14), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (96.67), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (93.75), maa://20904 (100.0)</t>
+          <t>maa://20974 (96.67), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (94.12), maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.3), maa://36864 (98.02), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.3), maa://36864 (98.04), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (88.68), *maa://35841 (61.11)</t>
+          <t>maa://24472 (88.32), *maa://35841 (63.16)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>*maa://20926 (80.0)</t>
+          <t>maa://20926 (81.82)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.25), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.26), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (82.35), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="D120" s="13" t="inlineStr">
         <is>
-          <t>maa://20949 (92.31)</t>
+          <t>maa://20949 (92.86)</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
@@ -14082,27 +14082,27 @@
     <row r="132" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B132" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" s="13" t="inlineStr">
         <is>
-          <t>maa://39146 (100.0)</t>
+          <t>maa://20837 (100.0), maa://37666 (90.91)</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
         </is>
       </c>
       <c r="F132" s="19" t="n"/>
@@ -14136,27 +14136,27 @@
     <row r="133" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B133" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" s="13" t="inlineStr">
         <is>
-          <t>maa://20856 (100.0)</t>
+          <t>maa://29023 (100.0), maa://39515 (91.67)</t>
         </is>
       </c>
       <c r="E133" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
+          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
         </is>
       </c>
       <c r="F133" s="19" t="n"/>
@@ -14190,12 +14190,12 @@
     <row r="134" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B134" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C134" s="12" t="inlineStr">
@@ -14205,12 +14205,12 @@
       </c>
       <c r="D134" s="13" t="inlineStr">
         <is>
-          <t>maa://20913 (100.0)</t>
+          <t>maa://39146 (100.0)</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
+          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F134" s="19" t="n"/>
@@ -14244,12 +14244,12 @@
     <row r="135" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B135" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -14259,12 +14259,12 @@
       </c>
       <c r="D135" s="13" t="inlineStr">
         <is>
-          <t>maa://41856 (100.0)</t>
+          <t>maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E135" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
         </is>
       </c>
       <c r="F135" s="19" t="n"/>
@@ -14298,27 +14298,27 @@
     <row r="136" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B136" s="11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C136" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D136" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
+          <t>maa://20913 (100.0)</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F136" s="19" t="n"/>
@@ -14352,27 +14352,27 @@
     <row r="137" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B137" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D137" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (94.12)</t>
+          <t>maa://41856 (100.0)</t>
         </is>
       </c>
       <c r="E137" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F137" s="19" t="n"/>
@@ -14406,27 +14406,27 @@
     <row r="138" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B138" s="11" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C138" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://20981 (92.86)</t>
+          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
+          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F138" s="19" t="n"/>
@@ -14460,27 +14460,27 @@
     <row r="139" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B139" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>maa://37689 (100.0)</t>
+          <t>**maa://30679 (50.0), maa://45258 (94.12)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
+          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
       </c>
       <c r="F139" s="19" t="n"/>
@@ -14514,27 +14514,27 @@
     <row r="140" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B140" s="11" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D140" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (97.24), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
+          <t>maa://20981 (92.86)</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
+          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
         </is>
       </c>
       <c r="F140" s="19" t="n"/>
@@ -14568,27 +14568,27 @@
     <row r="141" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B141" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D141" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0)</t>
+          <t>maa://37689 (100.0)</t>
         </is>
       </c>
       <c r="E141" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
         </is>
       </c>
       <c r="F141" s="19" t="n"/>
@@ -14622,27 +14622,27 @@
     <row r="142" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B142" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (92.86)</t>
+          <t>maa://28484 (97.24), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
         </is>
       </c>
       <c r="F142" s="19" t="n"/>
@@ -14676,27 +14676,27 @@
     <row r="143" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B143" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://39147 (100.0)</t>
+          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0), maa://61380 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F143" s="19" t="n"/>
@@ -14730,12 +14730,12 @@
     <row r="144" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B144" s="11" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
@@ -14745,12 +14745,12 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://20898 (100.0)</t>
+          <t>maa://20971 (92.86)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
       <c r="F144" s="19" t="n"/>
@@ -14784,27 +14784,27 @@
     <row r="145" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B145" s="11" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D145" s="13" t="inlineStr">
         <is>
-          <t>maa://29056 (100.0), ***maa://20901 (7.69)</t>
+          <t>maa://39147 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
+          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F145" s="19" t="n"/>
@@ -14838,27 +14838,27 @@
     <row r="146" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B146" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D146" s="13" t="inlineStr">
         <is>
-          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
+          <t>maa://20898 (100.0)</t>
         </is>
       </c>
       <c r="E146" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
+          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
         </is>
       </c>
       <c r="F146" s="19" t="n"/>
@@ -14892,27 +14892,27 @@
     <row r="147" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B147" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D147" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.23), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://29056 (100.0), ***maa://20901 (7.69)</t>
         </is>
       </c>
       <c r="E147" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
         </is>
       </c>
       <c r="F147" s="19" t="n"/>
@@ -14946,27 +14946,27 @@
     <row r="148" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B148" s="11" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (95.92), maa://51923 (95.83)</t>
+          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
         </is>
       </c>
       <c r="F148" s="19" t="n"/>
@@ -15000,27 +15000,27 @@
     <row r="149" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B149" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://20961 (100.0)</t>
+          <t>maa://40957 (94.25), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
+          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F149" s="19" t="n"/>
@@ -15054,27 +15054,27 @@
     <row r="150" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B150" s="11" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C150" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://20963 (100.0)</t>
+          <t>maa://51549 (96.0), maa://51923 (95.83)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
+          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
       <c r="F150" s="19" t="n"/>
@@ -15108,12 +15108,12 @@
     <row r="151" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B151" s="11" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -15123,12 +15123,12 @@
       </c>
       <c r="D151" s="13" t="inlineStr">
         <is>
-          <t>maa://39148 (100.0)</t>
+          <t>maa://20961 (100.0)</t>
         </is>
       </c>
       <c r="E151" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
+          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
         </is>
       </c>
       <c r="F151" s="19" t="n"/>
@@ -15162,27 +15162,27 @@
     <row r="152" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B152" s="11" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C152" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D152" s="13" t="inlineStr">
         <is>
-          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
+          <t>maa://20963 (100.0)</t>
         </is>
       </c>
       <c r="E152" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F152" s="19" t="n"/>
@@ -15216,12 +15216,12 @@
     <row r="153" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B153" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
@@ -15231,12 +15231,12 @@
       </c>
       <c r="D153" s="13" t="inlineStr">
         <is>
-          <t>maa://20945 (88.46)</t>
+          <t>maa://39148 (100.0)</t>
         </is>
       </c>
       <c r="E153" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
+          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F153" s="19" t="n"/>
@@ -15270,27 +15270,27 @@
     <row r="154" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B154" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C154" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" s="13" t="inlineStr">
         <is>
-          <t>maa://37694 (100.0)</t>
+          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
         </is>
       </c>
       <c r="E154" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
         </is>
       </c>
       <c r="F154" s="19" t="n"/>
@@ -15324,12 +15324,12 @@
     <row r="155" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B155" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -15339,12 +15339,12 @@
       </c>
       <c r="D155" s="13" t="inlineStr">
         <is>
-          <t>*maa://39149 (66.67)</t>
+          <t>maa://20945 (88.46)</t>
         </is>
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
+          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
         </is>
       </c>
       <c r="F155" s="19" t="n"/>
@@ -15378,12 +15378,12 @@
     <row r="156" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B156" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C156" s="12" t="inlineStr">
@@ -15393,12 +15393,12 @@
       </c>
       <c r="D156" s="13" t="inlineStr">
         <is>
-          <t>maa://20959 (90.91)</t>
+          <t>maa://37694 (100.0)</t>
         </is>
       </c>
       <c r="E156" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F156" s="19" t="n"/>
@@ -15432,27 +15432,27 @@
     <row r="157" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B157" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D157" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (98.62), maa://45603 (90.62)</t>
+          <t>*maa://39149 (66.67)</t>
         </is>
       </c>
       <c r="E157" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
         </is>
       </c>
       <c r="F157" s="19" t="n"/>
@@ -15486,12 +15486,12 @@
     <row r="158" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B158" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C158" s="12" t="inlineStr">
@@ -15501,12 +15501,12 @@
       </c>
       <c r="D158" s="13" t="inlineStr">
         <is>
-          <t>maa://20936 (92.86)</t>
+          <t>maa://20959 (90.91)</t>
         </is>
       </c>
       <c r="E158" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
+          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
         </is>
       </c>
       <c r="F158" s="19" t="n"/>
@@ -15540,27 +15540,27 @@
     <row r="159" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B159" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://20855 (93.75)</t>
+          <t>maa://44232 (98.62), maa://45603 (90.62)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
         </is>
       </c>
       <c r="F159" s="19" t="n"/>
@@ -15594,12 +15594,12 @@
     <row r="160" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B160" s="11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C160" s="12" t="inlineStr">
@@ -15609,12 +15609,12 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://40158 (100.0)</t>
+          <t>maa://20936 (92.86)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
         </is>
       </c>
       <c r="F160" s="19" t="n"/>
@@ -15648,27 +15648,27 @@
     <row r="161" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B161" s="11" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D161" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (77.78), maa://29054 (100.0)</t>
+          <t>maa://20855 (94.12)</t>
         </is>
       </c>
       <c r="E161" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
+          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F161" s="19" t="n"/>
@@ -15702,12 +15702,12 @@
     <row r="162" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B162" s="11" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
@@ -15717,12 +15717,12 @@
       </c>
       <c r="D162" s="13" t="inlineStr">
         <is>
-          <t>maa://20973 (100.0)</t>
+          <t>maa://40158 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F162" s="19" t="n"/>
@@ -15756,27 +15756,27 @@
     <row r="163" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B163" s="11" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D163" s="13" t="inlineStr">
         <is>
-          <t>maa://39150 (100.0)</t>
+          <t>*maa://32845 (78.95), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E163" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
         </is>
       </c>
       <c r="F163" s="19" t="n"/>
@@ -15810,27 +15810,27 @@
     <row r="164" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B164" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D164" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
+          <t>maa://20973 (100.0)</t>
         </is>
       </c>
       <c r="E164" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F164" s="19" t="n"/>
@@ -15864,12 +15864,12 @@
     <row r="165" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B165" s="11" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
@@ -15879,12 +15879,12 @@
       </c>
       <c r="D165" s="13" t="inlineStr">
         <is>
-          <t>maa://29059 (100.0)</t>
+          <t>maa://39150 (100.0)</t>
         </is>
       </c>
       <c r="E165" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
+          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F165" s="19" t="n"/>
@@ -15918,27 +15918,27 @@
     <row r="166" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B166" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://45556 (100.0)</t>
+          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F166" s="19" t="n"/>
@@ -15972,27 +15972,27 @@
     <row r="167" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B167" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://40159 (100.0)</t>
+          <t>maa://29633 (92.0), maa://29627 (92.76), maa://29659 (86.11), maa://49074 (96.08), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
+          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F167" s="19" t="n"/>
@@ -16026,27 +16026,27 @@
     <row r="168" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B168" s="11" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://39152 (100.0)</t>
+          <t>maa://49867 (93.02), maa://49655 (96.55)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
+          <t>&gt; 由非助战泥岩累计造成40歼灭数&gt; 3星通关主题曲10-16标准实战环境；必须编入非助战泥岩并上场，其他成员不可编入重装干员</t>
         </is>
       </c>
       <c r="F168" s="19" t="n"/>
@@ -16080,27 +16080,27 @@
     <row r="169" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B169" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D169" s="13" t="inlineStr">
         <is>
-          <t>*maa://20905 (80.0), *maa://52268 (66.67)</t>
+          <t>maa://29059 (100.0)</t>
         </is>
       </c>
       <c r="E169" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
+          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
         </is>
       </c>
       <c r="F169" s="19" t="n"/>
@@ -16134,12 +16134,12 @@
     <row r="170" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B170" s="11" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -16149,12 +16149,12 @@
       </c>
       <c r="D170" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.0)</t>
+          <t>maa://45556 (100.0)</t>
         </is>
       </c>
       <c r="E170" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
         </is>
       </c>
       <c r="F170" s="19" t="n"/>
@@ -16188,27 +16188,27 @@
     <row r="171" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B171" s="11" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D171" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (99.69), maa://51440 (100.0), maa://63320 (100.0)</t>
+          <t>maa://40159 (100.0)</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
+          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
         </is>
       </c>
       <c r="F171" s="19" t="n"/>
@@ -16242,12 +16242,12 @@
     <row r="172" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B172" s="11" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -16257,12 +16257,12 @@
       </c>
       <c r="D172" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (92.31)</t>
+          <t>maa://39152 (100.0)</t>
         </is>
       </c>
       <c r="E172" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
         </is>
       </c>
       <c r="F172" s="19" t="n"/>
@@ -16296,27 +16296,27 @@
     <row r="173" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B173" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" s="13" t="inlineStr">
         <is>
-          <t>maa://20842 (94.12)</t>
+          <t>*maa://20905 (80.0), *maa://52268 (66.67)</t>
         </is>
       </c>
       <c r="E173" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
+          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F173" s="19" t="n"/>
@@ -16350,12 +16350,12 @@
     <row r="174" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B174" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -16365,12 +16365,12 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://20912 (100.0)</t>
+          <t>maa://59681 (100.0)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F174" s="19" t="n"/>
@@ -16404,27 +16404,27 @@
     <row r="175" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B175" s="11" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (95.65), maa://29012 (85.71)</t>
+          <t>maa://32418 (99.69), maa://51440 (100.0), maa://63320 (100.0)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F175" s="19" t="n"/>
@@ -16458,12 +16458,12 @@
     <row r="176" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B176" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
@@ -16473,12 +16473,12 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://20964 (100.0)</t>
+          <t>maa://37690 (92.31)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
         </is>
       </c>
       <c r="F176" s="19" t="n"/>
@@ -16512,12 +16512,12 @@
     <row r="177" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B177" s="11" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
@@ -16527,12 +16527,12 @@
       </c>
       <c r="D177" s="13" t="inlineStr">
         <is>
-          <t>maa://20983 (100.0)</t>
+          <t>maa://20842 (94.12)</t>
         </is>
       </c>
       <c r="E177" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
+          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
         </is>
       </c>
       <c r="F177" s="19" t="n"/>
@@ -16566,27 +16566,27 @@
     <row r="178" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B178" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D178" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), *maa://20968 (66.67)</t>
+          <t>maa://20912 (100.0)</t>
         </is>
       </c>
       <c r="E178" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
+          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F178" s="19" t="n"/>
@@ -16620,27 +16620,27 @@
     <row r="179" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B179" s="11" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D179" s="13" t="inlineStr">
         <is>
-          <t>maa://28104 (100.0)</t>
+          <t>maa://20911 (95.65), maa://29012 (85.71)</t>
         </is>
       </c>
       <c r="E179" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F179" s="19" t="n"/>
@@ -16674,12 +16674,12 @@
     <row r="180" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B180" s="11" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
@@ -16689,12 +16689,12 @@
       </c>
       <c r="D180" s="13" t="inlineStr">
         <is>
-          <t>maa://20861 (100.0)</t>
+          <t>maa://20964 (100.0)</t>
         </is>
       </c>
       <c r="E180" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F180" s="19" t="n"/>
@@ -16728,12 +16728,12 @@
     <row r="181" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B181" s="11" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
@@ -16743,12 +16743,12 @@
       </c>
       <c r="D181" s="13" t="inlineStr">
         <is>
-          <t>maa://20970 (100.0)</t>
+          <t>maa://20983 (100.0)</t>
         </is>
       </c>
       <c r="E181" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
         </is>
       </c>
       <c r="F181" s="19" t="n"/>
@@ -16782,12 +16782,12 @@
     <row r="182" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B182" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
@@ -16797,12 +16797,12 @@
       </c>
       <c r="D182" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (86.21), maa://41303 (100.0)</t>
+          <t>maa://31560 (92.31), *maa://20968 (66.67)</t>
         </is>
       </c>
       <c r="E182" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
         </is>
       </c>
       <c r="F182" s="19" t="n"/>
@@ -16836,12 +16836,12 @@
     <row r="183" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B183" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -16851,12 +16851,12 @@
       </c>
       <c r="D183" s="13" t="inlineStr">
         <is>
-          <t>maa://20999 (100.0)</t>
+          <t>maa://28104 (100.0)</t>
         </is>
       </c>
       <c r="E183" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F183" s="19" t="n"/>
@@ -16890,12 +16890,12 @@
     <row r="184" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B184" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
@@ -16905,12 +16905,12 @@
       </c>
       <c r="D184" s="13" t="inlineStr">
         <is>
-          <t>maa://35198 (100.0)</t>
+          <t>maa://20861 (100.0)</t>
         </is>
       </c>
       <c r="E184" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
         </is>
       </c>
       <c r="F184" s="19" t="n"/>
@@ -16944,12 +16944,12 @@
     <row r="185" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B185" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
@@ -16959,12 +16959,12 @@
       </c>
       <c r="D185" s="13" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0)</t>
+          <t>maa://20970 (100.0)</t>
         </is>
       </c>
       <c r="E185" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
+          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F185" s="19" t="n"/>
@@ -16998,12 +16998,12 @@
     <row r="186" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B186" s="11" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="D186" s="13" t="inlineStr">
         <is>
-          <t>maa://34866 (93.48), maa://34714 (96.67)</t>
+          <t>maa://20969 (86.21), maa://41303 (100.0)</t>
         </is>
       </c>
       <c r="E186" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
+          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F186" s="19" t="n"/>
@@ -17052,27 +17052,27 @@
     <row r="187" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B187" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (93.75), maa://20895 (100.0)</t>
+          <t>maa://20999 (100.0)</t>
         </is>
       </c>
       <c r="E187" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
+          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F187" s="19" t="n"/>
@@ -17106,12 +17106,12 @@
     <row r="188" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B188" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -17121,12 +17121,12 @@
       </c>
       <c r="D188" s="13" t="inlineStr">
         <is>
-          <t>maa://20853 (100.0)</t>
+          <t>maa://35198 (100.0)</t>
         </is>
       </c>
       <c r="E188" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
         </is>
       </c>
       <c r="F188" s="19" t="n"/>
@@ -17160,12 +17160,12 @@
     <row r="189" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B189" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
@@ -17175,12 +17175,12 @@
       </c>
       <c r="D189" s="13" t="inlineStr">
         <is>
-          <t>maa://20942 (100.0)</t>
+          <t>maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
         </is>
       </c>
       <c r="F189" s="19" t="n"/>
@@ -17214,27 +17214,27 @@
     <row r="190" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B190" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D190" s="13" t="inlineStr">
         <is>
-          <t>maa://20992 (100.0)</t>
+          <t>maa://34866 (93.62), maa://34714 (96.67)</t>
         </is>
       </c>
       <c r="E190" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
+          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
         </is>
       </c>
       <c r="F190" s="19" t="n"/>
@@ -17268,12 +17268,12 @@
     <row r="191" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B191" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
@@ -17283,12 +17283,12 @@
       </c>
       <c r="D191" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (62.86), maa://20994 (100.0)</t>
+          <t>maa://34883 (93.75), maa://20895 (100.0)</t>
         </is>
       </c>
       <c r="E191" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
+          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
         </is>
       </c>
       <c r="F191" s="19" t="n"/>
@@ -17322,12 +17322,12 @@
     <row r="192" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B192" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
@@ -17337,12 +17337,12 @@
       </c>
       <c r="D192" s="13" t="inlineStr">
         <is>
-          <t>maa://20860 (100.0)</t>
+          <t>maa://20853 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
+          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F192" s="19" t="n"/>
@@ -17376,27 +17376,27 @@
     <row r="193" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B193" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D193" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.28), maa://35854 (86.27), maa://50388 (98.05), maa://25760 (86.96), ***maa://43911 (12.0), *maa://20872 (52.0), maa://51066 (100.0), maa://63024 (100.0)</t>
+          <t>maa://20942 (100.0)</t>
         </is>
       </c>
       <c r="E193" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
+          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F193" s="19" t="n"/>
@@ -17430,27 +17430,27 @@
     <row r="194" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B194" s="11" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (55.0), *maa://53417 (71.43)</t>
+          <t>maa://20992 (100.0)</t>
         </is>
       </c>
       <c r="E194" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
+          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
         </is>
       </c>
       <c r="F194" s="19" t="n"/>
@@ -17484,27 +17484,27 @@
     <row r="195" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B195" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (99.6), maa://49077 (93.18), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>*maa://28190 (62.86), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="14" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
         </is>
       </c>
       <c r="F195" s="19" t="n"/>
@@ -17538,12 +17538,12 @@
     <row r="196" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B196" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
@@ -17553,12 +17553,12 @@
       </c>
       <c r="D196" s="13" t="inlineStr">
         <is>
-          <t>maa://39154 (100.0)</t>
+          <t>maa://20860 (100.0)</t>
         </is>
       </c>
       <c r="E196" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
+          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
         </is>
       </c>
       <c r="F196" s="19" t="n"/>
@@ -17592,27 +17592,27 @@
     <row r="197" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B197" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (92.86)</t>
+          <t>maa://44224 (90.18), maa://35854 (86.27), maa://50388 (98.05), maa://25760 (86.96), ***maa://43911 (12.0), *maa://20872 (52.0), maa://51066 (100.0), maa://63024 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
         </is>
       </c>
       <c r="F197" s="19" t="n"/>
@@ -17646,27 +17646,27 @@
     <row r="198" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B198" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://20937 (100.0)</t>
+          <t>maa://39156 (93.98), *maa://39550 (55.0), *maa://53417 (71.43)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
         </is>
       </c>
       <c r="F198" s="19" t="n"/>
@@ -17700,27 +17700,27 @@
     <row r="199" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B199" s="11" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C199" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://22468 (100.0)</t>
+          <t>maa://27823 (84.88), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
         </is>
       </c>
       <c r="F199" s="19" t="n"/>
@@ -17754,27 +17754,27 @@
     <row r="200" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B200" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
+          <t>maa://27823 (84.88), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
         </is>
       </c>
       <c r="F200" s="19" t="n"/>
@@ -17808,27 +17808,27 @@
     <row r="201" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B201" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
+          <t>maa://42223 (99.61), maa://49077 (93.18), maa://42292 (97.22), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
+          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
         </is>
       </c>
       <c r="F201" s="19" t="n"/>
@@ -17862,12 +17862,12 @@
     <row r="202" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B202" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -17877,12 +17877,12 @@
       </c>
       <c r="D202" s="13" t="inlineStr">
         <is>
-          <t>maa://20935 (100.0)</t>
+          <t>maa://39154 (100.0)</t>
         </is>
       </c>
       <c r="E202" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
         </is>
       </c>
       <c r="F202" s="19" t="n"/>
@@ -17916,12 +17916,12 @@
     <row r="203" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B203" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
@@ -17931,12 +17931,12 @@
       </c>
       <c r="D203" s="13" t="inlineStr">
         <is>
-          <t>maa://53354 (100.0)</t>
+          <t>maa://20854 (92.86)</t>
         </is>
       </c>
       <c r="E203" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
+          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
         </is>
       </c>
       <c r="F203" s="19" t="n"/>
@@ -17970,27 +17970,27 @@
     <row r="204" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B204" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D204" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.87)</t>
+          <t>maa://20937 (100.0)</t>
         </is>
       </c>
       <c r="E204" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
         </is>
       </c>
       <c r="F204" s="19" t="n"/>
@@ -18024,27 +18024,27 @@
     <row r="205" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B205" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (96.02), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://22468 (100.0)</t>
         </is>
       </c>
       <c r="E205" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
+          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F205" s="19" t="n"/>
@@ -18078,27 +18078,27 @@
     <row r="206" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B206" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://20955 (80.95)</t>
+          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
         </is>
       </c>
       <c r="E206" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
+          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F206" s="19" t="n"/>
@@ -18132,27 +18132,27 @@
     <row r="207" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B207" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="13" t="inlineStr">
         <is>
-          <t>maa://39238 (99.52)</t>
+          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
         </is>
       </c>
       <c r="E207" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
+          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
         </is>
       </c>
       <c r="F207" s="19" t="n"/>
@@ -18186,12 +18186,12 @@
     <row r="208" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B208" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -18201,12 +18201,12 @@
       </c>
       <c r="D208" s="13" t="inlineStr">
         <is>
-          <t>maa://45261 (88.89)</t>
+          <t>maa://20935 (100.0)</t>
         </is>
       </c>
       <c r="E208" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F208" s="19" t="n"/>
@@ -18240,12 +18240,12 @@
     <row r="209" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B209" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -18255,12 +18255,12 @@
       </c>
       <c r="D209" s="13" t="inlineStr">
         <is>
-          <t>maa://39694 (100.0)</t>
+          <t>maa://53354 (100.0)</t>
         </is>
       </c>
       <c r="E209" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
         </is>
       </c>
       <c r="F209" s="19" t="n"/>
@@ -18294,27 +18294,27 @@
     <row r="210" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B210" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
+          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.87)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F210" s="19" t="n"/>
@@ -18348,27 +18348,27 @@
     <row r="211" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B211" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://48261 (100.0)</t>
+          <t>maa://20956 (96.02), *maa://20830 (80.0), maa://44703 (91.67)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战琴柳并上场，且每次战斗至少释放1次光辉旗帜&gt; 3星通关主题曲5-3；必须编入非助战琴柳并上场，且至少使用3次光辉旗帜</t>
+          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
         </is>
       </c>
       <c r="F211" s="19" t="n"/>
@@ -18402,12 +18402,12 @@
     <row r="212" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B212" s="11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -18417,12 +18417,12 @@
       </c>
       <c r="D212" s="13" t="inlineStr">
         <is>
-          <t>*maa://39157 (80.0)</t>
+          <t>maa://20955 (80.95)</t>
         </is>
       </c>
       <c r="E212" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
+          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
         </is>
       </c>
       <c r="F212" s="19" t="n"/>
@@ -18456,27 +18456,27 @@
     <row r="213" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B213" s="11" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D213" s="13" t="inlineStr">
         <is>
-          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
+          <t>maa://39238 (99.52)</t>
         </is>
       </c>
       <c r="E213" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
+          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F213" s="19" t="n"/>
@@ -18510,27 +18510,27 @@
     <row r="214" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B214" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D214" s="13" t="inlineStr">
         <is>
-          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
+          <t>maa://45261 (88.89)</t>
         </is>
       </c>
       <c r="E214" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
+          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F214" s="19" t="n"/>
@@ -18564,12 +18564,12 @@
     <row r="215" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B215" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
@@ -18579,12 +18579,12 @@
       </c>
       <c r="D215" s="13" t="inlineStr">
         <is>
-          <t>maa://20858 (100.0)</t>
+          <t>maa://39694 (100.0)</t>
         </is>
       </c>
       <c r="E215" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F215" s="19" t="n"/>
@@ -18618,12 +18618,12 @@
     <row r="216" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B216" s="11" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
@@ -18633,12 +18633,12 @@
       </c>
       <c r="D216" s="13" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0), ***maa://39911 (20.0)</t>
+          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
         </is>
       </c>
       <c r="E216" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F216" s="19" t="n"/>
@@ -18672,12 +18672,12 @@
     <row r="217" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B217" s="11" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -18687,12 +18687,12 @@
       </c>
       <c r="D217" s="13" t="inlineStr">
         <is>
-          <t>maa://20988 (90.0)</t>
+          <t>maa://48261 (100.0)</t>
         </is>
       </c>
       <c r="E217" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战琴柳并上场，且每次战斗至少释放1次光辉旗帜&gt; 3星通关主题曲5-3；必须编入非助战琴柳并上场，且至少使用3次光辉旗帜</t>
         </is>
       </c>
       <c r="F217" s="19" t="n"/>
@@ -18726,12 +18726,12 @@
     <row r="218" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B218" s="11" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -18741,12 +18741,12 @@
       </c>
       <c r="D218" s="13" t="inlineStr">
         <is>
-          <t>maa://39158 (100.0)</t>
+          <t>*maa://39157 (80.0)</t>
         </is>
       </c>
       <c r="E218" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
+          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
         </is>
       </c>
       <c r="F218" s="19" t="n"/>
@@ -18780,27 +18780,27 @@
     <row r="219" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B219" s="11" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D219" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (97.67), maa://43531 (100.0), maa://39520 (100.0)</t>
+          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
         </is>
       </c>
       <c r="E219" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
+          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
         </is>
       </c>
       <c r="F219" s="19" t="n"/>
@@ -18834,27 +18834,27 @@
     <row r="220" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B220" s="11" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D220" s="13" t="inlineStr">
         <is>
-          <t>maa://20985 (100.0)</t>
+          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
         </is>
       </c>
       <c r="E220" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
         </is>
       </c>
       <c r="F220" s="19" t="n"/>
@@ -18888,27 +18888,27 @@
     <row r="221" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B221" s="11" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D221" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
+          <t>maa://20858 (100.0)</t>
         </is>
       </c>
       <c r="E221" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
+          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
         </is>
       </c>
       <c r="F221" s="19" t="n"/>
@@ -18942,27 +18942,27 @@
     <row r="222" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B222" s="11" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (72.55), maa://39159 (96.77), ***maa://30061 (27.27)</t>
+          <t>maa://39695 (100.0), ***maa://39911 (20.0)</t>
         </is>
       </c>
       <c r="E222" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
+          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F222" s="19" t="n"/>
@@ -18996,12 +18996,12 @@
     <row r="223" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B223" s="11" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -19011,12 +19011,12 @@
       </c>
       <c r="D223" s="13" t="inlineStr">
         <is>
-          <t>maa://30677 (100.0)</t>
+          <t>maa://20988 (90.0)</t>
         </is>
       </c>
       <c r="E223" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
+          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F223" s="19" t="n"/>
@@ -19050,12 +19050,12 @@
     <row r="224" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B224" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
@@ -19065,12 +19065,12 @@
       </c>
       <c r="D224" s="13" t="inlineStr">
         <is>
-          <t>maa://20896 (100.0)</t>
+          <t>maa://39158 (100.0)</t>
         </is>
       </c>
       <c r="E224" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
+          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
         </is>
       </c>
       <c r="F224" s="19" t="n"/>
@@ -19104,12 +19104,12 @@
     <row r="225" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B225" s="11" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
@@ -19119,12 +19119,12 @@
       </c>
       <c r="D225" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://28187 (97.67), maa://43531 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F225" s="19" t="n"/>
@@ -19158,12 +19158,12 @@
     <row r="226" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B226" s="11" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -19173,12 +19173,12 @@
       </c>
       <c r="D226" s="13" t="inlineStr">
         <is>
-          <t>*maa://48263 (76.92)</t>
+          <t>maa://20985 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战灵知累计使用10次失温症&gt; 3星通关主题曲5-6；必须编入非助战灵知并上场，且使用灵知击败至少5个法术大师A1</t>
+          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F226" s="19" t="n"/>
@@ -19212,27 +19212,27 @@
     <row r="227" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B227" s="11" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" s="13" t="inlineStr">
         <is>
-          <t>maa://39160 (100.0)</t>
+          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E227" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
         </is>
       </c>
       <c r="F227" s="19" t="n"/>
@@ -19266,27 +19266,27 @@
     <row r="228" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B228" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D228" s="13" t="inlineStr">
         <is>
-          <t>maa://49491 (91.67)</t>
+          <t>*maa://29644 (72.55), maa://39159 (96.77), ***maa://30061 (27.27)</t>
         </is>
       </c>
       <c r="E228" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
         </is>
       </c>
       <c r="F228" s="19" t="n"/>
@@ -19320,12 +19320,12 @@
     <row r="229" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B229" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -19335,12 +19335,12 @@
       </c>
       <c r="D229" s="13" t="inlineStr">
         <is>
-          <t>maa://35952 (100.0)</t>
+          <t>maa://30677 (100.0)</t>
         </is>
       </c>
       <c r="E229" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
+          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
         </is>
       </c>
       <c r="F229" s="19" t="n"/>
@@ -19374,12 +19374,12 @@
     <row r="230" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B230" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
@@ -19389,12 +19389,12 @@
       </c>
       <c r="D230" s="13" t="inlineStr">
         <is>
-          <t>maa://20917 (98.39)</t>
+          <t>maa://20896 (100.0)</t>
         </is>
       </c>
       <c r="E230" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
+          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
         </is>
       </c>
       <c r="F230" s="19" t="n"/>
@@ -19428,27 +19428,27 @@
     <row r="231" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B231" s="11" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D231" s="13" t="inlineStr">
         <is>
-          <t>maa://30714 (97.67), maa://30675 (100.0)</t>
+          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F231" s="19" t="n"/>
@@ -19482,27 +19482,27 @@
     <row r="232" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B232" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
+          <t>*maa://48263 (76.92)</t>
         </is>
       </c>
       <c r="E232" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
+          <t>&gt; 战斗中非助战灵知累计使用10次失温症&gt; 3星通关主题曲5-6；必须编入非助战灵知并上场，且使用灵知击败至少5个法术大师A1</t>
         </is>
       </c>
       <c r="F232" s="19" t="n"/>
@@ -19536,12 +19536,12 @@
     <row r="233" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B233" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
@@ -19551,12 +19551,12 @@
       </c>
       <c r="D233" s="13" t="inlineStr">
         <is>
-          <t>maa://32999 (100.0)</t>
+          <t>maa://39160 (100.0)</t>
         </is>
       </c>
       <c r="E233" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F233" s="19" t="n"/>
@@ -19590,27 +19590,27 @@
     <row r="234" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B234" s="11" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.69), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.29)</t>
+          <t>maa://49491 (91.67)</t>
         </is>
       </c>
       <c r="E234" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
+          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
         </is>
       </c>
       <c r="F234" s="19" t="n"/>
@@ -19644,27 +19644,27 @@
     <row r="235" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B235" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D235" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
+          <t>maa://35952 (100.0)</t>
         </is>
       </c>
       <c r="E235" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战澄闪累计使用“澄净闪耀”10次&gt; 3星通关主题曲4-7；必须编入非助战澄闪并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
         </is>
       </c>
       <c r="F235" s="19" t="n"/>
@@ -19698,12 +19698,12 @@
     <row r="236" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B236" s="11" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
@@ -19713,12 +19713,12 @@
       </c>
       <c r="D236" s="13" t="inlineStr">
         <is>
-          <t>maa://30512 (100.0)</t>
+          <t>maa://20917 (98.39)</t>
         </is>
       </c>
       <c r="E236" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
+          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
         </is>
       </c>
       <c r="F236" s="19" t="n"/>
@@ -19752,27 +19752,27 @@
     <row r="237" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B237" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D237" s="15" t="inlineStr">
         <is>
-          <t>maa://20870 (100.0)</t>
+          <t>maa://30714 (97.67), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F237" s="19" t="n"/>
@@ -19806,27 +19806,27 @@
     <row r="238" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B238" s="11" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://29024 (100.0)</t>
+          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
         </is>
       </c>
       <c r="F238" s="19" t="n"/>
@@ -19860,27 +19860,27 @@
     <row r="239" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B239" s="11" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="13" t="inlineStr">
         <is>
-          <t>maa://20867 (93.33), maa://38485 (96.3), *maa://32202 (80.0)</t>
+          <t>maa://32999 (100.0)</t>
         </is>
       </c>
       <c r="E239" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
+          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F239" s="19" t="n"/>
@@ -19914,27 +19914,27 @@
     <row r="240" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B240" s="11" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>maa://40160 (100.0)</t>
+          <t>*maa://30667 (78.69), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.29)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
         </is>
       </c>
       <c r="F240" s="19" t="n"/>
@@ -19968,27 +19968,27 @@
     <row r="241" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B241" s="11" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://43089 (100.0)</t>
+          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海蒂累计使用8次“虚构故事·怒士”&gt; 3星通关主题曲9-7标准实战环境；必须编入非助战海蒂并上场，且海蒂使用至少3次“虚构故事·锈城”</t>
+          <t>&gt; 战斗中非助战澄闪累计使用“澄净闪耀”10次&gt; 3星通关主题曲4-7；必须编入非助战澄闪并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
       <c r="F241" s="19" t="n"/>
@@ -20022,12 +20022,12 @@
     <row r="242" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B242" s="11" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
@@ -20037,12 +20037,12 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://30674 (90.0)</t>
+          <t>maa://30512 (100.0)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
+          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
         </is>
       </c>
       <c r="F242" s="19" t="n"/>
@@ -20076,27 +20076,27 @@
     <row r="243" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B243" s="11" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D243" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (91.5), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://20870 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
+          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
         </is>
       </c>
       <c r="F243" s="19" t="n"/>
@@ -20130,27 +20130,27 @@
     <row r="244" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B244" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (89.8), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
+          <t>maa://29024 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战号角累计造成100000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战号角并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
         </is>
       </c>
       <c r="F244" s="19" t="n"/>
@@ -20184,27 +20184,27 @@
     <row r="245" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B245" s="11" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D245" s="13" t="inlineStr">
         <is>
-          <t>maa://39161 (100.0)</t>
+          <t>maa://20867 (93.33), maa://38485 (96.3), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E245" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
+          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
         </is>
       </c>
       <c r="F245" s="19" t="n"/>
@@ -20238,27 +20238,27 @@
     <row r="246" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B246" s="11" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (92.86), *maa://60577 (66.67)</t>
+          <t>maa://40160 (100.0)</t>
         </is>
       </c>
       <c r="E246" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F246" s="19" t="n"/>
@@ -20292,27 +20292,27 @@
     <row r="247" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B247" s="11" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://43089 (100.0)</t>
         </is>
       </c>
       <c r="E247" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战海蒂累计使用8次“虚构故事·怒士”&gt; 3星通关主题曲9-7标准实战环境；必须编入非助战海蒂并上场，且海蒂使用至少3次“虚构故事·锈城”</t>
         </is>
       </c>
       <c r="F247" s="19" t="n"/>
@@ -20346,27 +20346,27 @@
     <row r="248" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B248" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (89.66), *maa://45067 (75.0)</t>
+          <t>maa://30674 (90.0)</t>
         </is>
       </c>
       <c r="E248" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
+          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
         </is>
       </c>
       <c r="F248" s="19" t="n"/>
@@ -20400,27 +20400,27 @@
     <row r="249" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B249" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20840 (100.0)</t>
+          <t>maa://28923 (91.54), maa://28906 (98.28), ***maa://28825 (11.54)</t>
         </is>
       </c>
       <c r="E249" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F249" s="19" t="n"/>
@@ -20454,12 +20454,12 @@
     <row r="250" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B250" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
@@ -20469,12 +20469,12 @@
       </c>
       <c r="D250" s="13" t="inlineStr">
         <is>
-          <t>maa://20877 (98.75), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://42287 (89.8), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
+          <t>&gt; 由非助战号角累计造成100000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战号角并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F250" s="19" t="n"/>
@@ -20508,27 +20508,27 @@
     <row r="251" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B251" s="11" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
+          <t>maa://39161 (100.0)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
         </is>
       </c>
       <c r="F251" s="19" t="n"/>
@@ -20562,27 +20562,27 @@
     <row r="252" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B252" s="11" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://20839 (100.0)</t>
+          <t>maa://20923 (92.86), *maa://60577 (66.67)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F252" s="19" t="n"/>
@@ -20616,27 +20616,27 @@
     <row r="253" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B253" s="11" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D253" s="13" t="inlineStr">
         <is>
-          <t>maa://30676 (100.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
         </is>
       </c>
       <c r="E253" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
+          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F253" s="19" t="n"/>
@@ -20670,12 +20670,12 @@
     <row r="254" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B254" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -20685,12 +20685,12 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), maa://20884 (96.3)</t>
+          <t>maa://40958 (89.66), *maa://45067 (75.0)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
+          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
       </c>
       <c r="F254" s="19" t="n"/>
@@ -20724,12 +20724,12 @@
     <row r="255" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B255" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
@@ -20739,12 +20739,12 @@
       </c>
       <c r="D255" s="13" t="inlineStr">
         <is>
-          <t>maa://47204 (100.0)</t>
+          <t>maa://20840 (100.0)</t>
         </is>
       </c>
       <c r="E255" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
+          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
         </is>
       </c>
       <c r="F255" s="19" t="n"/>
@@ -20778,27 +20778,27 @@
     <row r="256" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B256" s="11" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D256" s="13" t="inlineStr">
         <is>
-          <t>maa://29027 (98.11)</t>
+          <t>maa://20877 (98.75), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E256" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
+          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
         </is>
       </c>
       <c r="F256" s="19" t="n"/>
@@ -20832,27 +20832,27 @@
     <row r="257" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B257" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D257" s="13" t="inlineStr">
         <is>
-          <t>maa://20977 (100.0)</t>
+          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E257" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
         </is>
       </c>
       <c r="F257" s="19" t="n"/>
@@ -20886,12 +20886,12 @@
     <row r="258" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B258" s="11" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
@@ -20901,12 +20901,12 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://39162 (100.0)</t>
+          <t>maa://20839 (100.0)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F258" s="19" t="n"/>
@@ -20940,27 +20940,27 @@
     <row r="259" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B259" s="11" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D259" s="13" t="inlineStr">
         <is>
-          <t>**maa://30678 (37.5), maa://59689 (100.0)</t>
+          <t>maa://30676 (100.0)</t>
         </is>
       </c>
       <c r="E259" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
+          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
         </is>
       </c>
       <c r="F259" s="19" t="n"/>
@@ -20994,27 +20994,27 @@
     <row r="260" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B260" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D260" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (91.43)</t>
+          <t>maa://31560 (92.31), maa://20884 (96.3)</t>
         </is>
       </c>
       <c r="E260" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战晓歌12次&gt; 3星通关主题曲5-3；必须编入非助战晓歌并上场，且使用晓歌歼灭至少3个特战术师或特战术师组长</t>
+          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
         </is>
       </c>
       <c r="F260" s="19" t="n"/>
@@ -21048,12 +21048,12 @@
     <row r="261" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B261" s="11" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
@@ -21063,12 +21063,12 @@
       </c>
       <c r="D261" s="13" t="inlineStr">
         <is>
-          <t>maa://48265 (83.33)</t>
+          <t>maa://47204 (100.0)</t>
         </is>
       </c>
       <c r="E261" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战鸿雪并上场，且每次战斗至少释放1次锐笔速写&gt; 3星通关主题曲9-7标准实战环境，必须编入非助战鸿雪并上场，且使用鸿雪歼灭至少10名敌人，其中包括至少1个深池重甲卫士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
       </c>
       <c r="F261" s="19" t="n"/>
@@ -21102,27 +21102,27 @@
     <row r="262" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B262" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D262" s="13" t="inlineStr">
         <is>
-          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (61.54), ***maa://20891 (30.0)</t>
+          <t>maa://29027 (98.11)</t>
         </is>
       </c>
       <c r="E262" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
+          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
         </is>
       </c>
       <c r="F262" s="19" t="n"/>
@@ -21156,12 +21156,12 @@
     <row r="263" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B263" s="11" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -21171,12 +21171,12 @@
       </c>
       <c r="D263" s="13" t="inlineStr">
         <is>
-          <t>maa://25769 (97.48)</t>
+          <t>maa://20977 (100.0)</t>
         </is>
       </c>
       <c r="E263" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
+          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F263" s="19" t="n"/>
@@ -21208,29 +21208,29 @@
       <c r="AF263" s="8" t="n"/>
     </row>
     <row r="264" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A264" s="24" t="inlineStr">
-        <is>
-          <t>百炼嘉维尔</t>
-        </is>
-      </c>
-      <c r="B264" s="24" t="inlineStr">
-        <is>
-          <t>RI-9</t>
-        </is>
-      </c>
-      <c r="C264" s="25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D264" s="26" t="inlineStr">
-        <is>
-          <t>**maa://62757 (36.84)</t>
-        </is>
-      </c>
-      <c r="E264" s="27" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战百炼嘉维尔累计造成40歼灭数&gt; 3星通关插曲RI-9；必须编入非助战百炼嘉维尔并上场，且所有干员不被击倒</t>
+      <c r="A264" s="11" t="inlineStr">
+        <is>
+          <t>承曦格雷伊</t>
+        </is>
+      </c>
+      <c r="B264" s="11" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="C264" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D264" s="13" t="inlineStr">
+        <is>
+          <t>maa://39162 (100.0)</t>
+        </is>
+      </c>
+      <c r="E264" s="14" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F264" s="19" t="n"/>
@@ -21264,12 +21264,12 @@
     <row r="265" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B265" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
@@ -21279,12 +21279,12 @@
       </c>
       <c r="D265" s="13" t="inlineStr">
         <is>
-          <t>maa://20862 (83.33)</t>
+          <t>maa://59682 (100.0)</t>
         </is>
       </c>
       <c r="E265" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
+          <t>&gt; 由非助战多萝西累计造成120000点伤害&gt; 3星通关插曲MB-EX-1，必须编入非助战多萝西并上场，其他成员仅可编入近卫干员</t>
         </is>
       </c>
       <c r="F265" s="19" t="n"/>
@@ -21318,27 +21318,27 @@
     <row r="266" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B266" s="11" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.25), maa://51630 (96.7), maa://56588 (95.24), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
+          <t>maa://22467 (95.92)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战玛恩纳累计造成120000点伤害&gt; 3星通关主题曲11-15标准实战环境；必须编入非助战玛恩纳并上场，且使用2次未照耀的荣光</t>
+          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
       <c r="F266" s="19" t="n"/>
@@ -21372,27 +21372,27 @@
     <row r="267" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B267" s="11" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D267" s="13" t="inlineStr">
         <is>
-          <t>maa://39163 (100.0)</t>
+          <t>**maa://30678 (37.5), maa://59689 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
         </is>
       </c>
       <c r="F267" s="19" t="n"/>
@@ -21426,12 +21426,12 @@
     <row r="268" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B268" s="11" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -21441,12 +21441,12 @@
       </c>
       <c r="D268" s="13" t="inlineStr">
         <is>
-          <t>maa://29061 (100.0)</t>
+          <t>maa://49643 (91.43)</t>
         </is>
       </c>
       <c r="E268" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
+          <t>&gt; 战斗中累计部署非助战晓歌12次&gt; 3星通关主题曲5-3；必须编入非助战晓歌并上场，且使用晓歌歼灭至少3个特战术师或特战术师组长</t>
         </is>
       </c>
       <c r="F268" s="19" t="n"/>
@@ -21480,12 +21480,12 @@
     <row r="269" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B269" s="11" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -21495,12 +21495,12 @@
       </c>
       <c r="D269" s="13" t="inlineStr">
         <is>
-          <t>maa://20939 (81.82)</t>
+          <t>maa://48265 (83.33)</t>
         </is>
       </c>
       <c r="E269" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战鸿雪并上场，且每次战斗至少释放1次锐笔速写&gt; 3星通关主题曲9-7标准实战环境，必须编入非助战鸿雪并上场，且使用鸿雪歼灭至少10名敌人，其中包括至少1个深池重甲卫士</t>
         </is>
       </c>
       <c r="F269" s="19" t="n"/>
@@ -21534,27 +21534,27 @@
     <row r="270" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B270" s="11" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D270" s="13" t="inlineStr">
         <is>
-          <t>maa://39164 (100.0)</t>
+          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (61.54), ***maa://20891 (30.0)</t>
         </is>
       </c>
       <c r="E270" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
+          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
         </is>
       </c>
       <c r="F270" s="19" t="n"/>
@@ -21588,27 +21588,27 @@
     <row r="271" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B271" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D271" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), maa://33394 (100.0)</t>
+          <t>maa://25769 (97.48)</t>
         </is>
       </c>
       <c r="E271" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
+          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F271" s="19" t="n"/>
@@ -21640,29 +21640,29 @@
       <c r="AF271" s="8" t="n"/>
     </row>
     <row r="272" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A272" s="11" t="inlineStr">
-        <is>
-          <t>白铁</t>
-        </is>
-      </c>
-      <c r="B272" s="11" t="inlineStr">
-        <is>
-          <t>9-6</t>
-        </is>
-      </c>
-      <c r="C272" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D272" s="13" t="inlineStr">
-        <is>
-          <t>maa://42311 (100.0)</t>
-        </is>
-      </c>
-      <c r="E272" s="14" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战白铁累计使用8次“铁钳号·原型机”&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战白铁并上场，且使用白铁至少歼灭10个敌人</t>
+      <c r="A272" s="24" t="inlineStr">
+        <is>
+          <t>百炼嘉维尔</t>
+        </is>
+      </c>
+      <c r="B272" s="24" t="inlineStr">
+        <is>
+          <t>RI-9</t>
+        </is>
+      </c>
+      <c r="C272" s="25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D272" s="26" t="inlineStr">
+        <is>
+          <t>**maa://62757 (36.84)</t>
+        </is>
+      </c>
+      <c r="E272" s="27" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战百炼嘉维尔累计造成40歼灭数&gt; 3星通关插曲RI-9；必须编入非助战百炼嘉维尔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F272" s="19" t="n"/>
@@ -21696,12 +21696,12 @@
     <row r="273" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B273" s="11" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -21711,12 +21711,12 @@
       </c>
       <c r="D273" s="13" t="inlineStr">
         <is>
-          <t>maa://41362 (100.0)</t>
+          <t>maa://20862 (83.33)</t>
         </is>
       </c>
       <c r="E273" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
+          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
         </is>
       </c>
       <c r="F273" s="19" t="n"/>
@@ -21750,27 +21750,27 @@
     <row r="274" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B274" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://20978 (100.0)</t>
+          <t>maa://51881 (99.26), maa://51630 (96.7), maa://56588 (95.24), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
+          <t>&gt; 使用非助战玛恩纳累计造成120000点伤害&gt; 3星通关主题曲11-15标准实战环境；必须编入非助战玛恩纳并上场，且使用2次未照耀的荣光</t>
         </is>
       </c>
       <c r="F274" s="19" t="n"/>
@@ -21804,12 +21804,12 @@
     <row r="275" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B275" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -21819,12 +21819,12 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://21002 (100.0)</t>
+          <t>maa://39163 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F275" s="19" t="n"/>
@@ -21858,12 +21858,12 @@
     <row r="276" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B276" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -21873,12 +21873,12 @@
       </c>
       <c r="D276" s="13" t="inlineStr">
         <is>
-          <t>*maa://39165 (70.0)</t>
+          <t>maa://29061 (100.0)</t>
         </is>
       </c>
       <c r="E276" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
         </is>
       </c>
       <c r="F276" s="19" t="n"/>
@@ -21912,27 +21912,27 @@
     <row r="277" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B277" s="11" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D277" s="13" t="inlineStr">
         <is>
-          <t>maa://48267 (100.0), maa://48266 (100.0)</t>
+          <t>maa://20939 (81.82)</t>
         </is>
       </c>
       <c r="E277" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜，并确定第一位部署的干员是伺夜&gt; 3星通关别传IS-6；必须编入非助战伺夜并上场，且至少使用3次领袖的尊严</t>
+          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
         </is>
       </c>
       <c r="F277" s="19" t="n"/>
@@ -21966,12 +21966,12 @@
     <row r="278" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B278" s="11" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
@@ -21981,12 +21981,12 @@
       </c>
       <c r="D278" s="13" t="inlineStr">
         <is>
-          <t>maa://29635 (100.0)</t>
+          <t>maa://39164 (100.0)</t>
         </is>
       </c>
       <c r="E278" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F278" s="19" t="n"/>
@@ -22020,27 +22020,27 @@
     <row r="279" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B279" s="11" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="13" t="inlineStr">
         <is>
-          <t>maa://38296 (90.62)</t>
+          <t>maa://28133 (93.1), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E279" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
         </is>
       </c>
       <c r="F279" s="19" t="n"/>
@@ -22074,27 +22074,27 @@
     <row r="280" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B280" s="11" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D280" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.77), maa://46332 (95.83), ***maa://44744 (25.0)</t>
+          <t>maa://42311 (100.0)</t>
         </is>
       </c>
       <c r="E280" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
+          <t>&gt; 战斗中非助战白铁累计使用8次“铁钳号·原型机”&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战白铁并上场，且使用白铁至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F280" s="19" t="n"/>
@@ -22128,12 +22128,12 @@
     <row r="281" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B281" s="11" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
@@ -22143,12 +22143,12 @@
       </c>
       <c r="D281" s="13" t="inlineStr">
         <is>
-          <t>maa://53353 (100.0)</t>
+          <t>maa://41362 (100.0)</t>
         </is>
       </c>
       <c r="E281" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战谜图并上场，且使用谜图歼灭至少3个敌人&gt; 3星通关主题曲9-4标准实战环境；必须编入非助战谜图并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
         </is>
       </c>
       <c r="F281" s="19" t="n"/>
@@ -22182,12 +22182,12 @@
     <row r="282" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B282" s="11" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -22197,12 +22197,12 @@
       </c>
       <c r="D282" s="13" t="inlineStr">
         <is>
-          <t>maa://20881 (100.0)</t>
+          <t>maa://20978 (100.0)</t>
         </is>
       </c>
       <c r="E282" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
+          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
         </is>
       </c>
       <c r="F282" s="19" t="n"/>
@@ -22236,27 +22236,27 @@
     <row r="283" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B283" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D283" s="13" t="inlineStr">
         <is>
-          <t>maa://30710 (97.89), maa://36845 (95.74), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://21002 (100.0)</t>
         </is>
       </c>
       <c r="E283" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
+          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
         </is>
       </c>
       <c r="F283" s="19" t="n"/>
@@ -22290,12 +22290,12 @@
     <row r="284" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B284" s="11" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
@@ -22305,12 +22305,12 @@
       </c>
       <c r="D284" s="13" t="inlineStr">
         <is>
-          <t>maa://20902 (100.0)</t>
+          <t>*maa://39165 (63.64)</t>
         </is>
       </c>
       <c r="E284" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
       </c>
       <c r="F284" s="19" t="n"/>
@@ -22344,27 +22344,27 @@
     <row r="285" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B285" s="11" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D285" s="13" t="inlineStr">
         <is>
-          <t>maa://29159 (100.0)</t>
+          <t>maa://48267 (100.0), maa://48266 (100.0)</t>
         </is>
       </c>
       <c r="E285" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜，并确定第一位部署的干员是伺夜&gt; 3星通关别传IS-6；必须编入非助战伺夜并上场，且至少使用3次领袖的尊严</t>
         </is>
       </c>
       <c r="F285" s="19" t="n"/>
@@ -22398,27 +22398,27 @@
     <row r="286" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B286" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D286" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://29635 (100.0)</t>
         </is>
       </c>
       <c r="E286" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F286" s="19" t="n"/>
@@ -22452,12 +22452,12 @@
     <row r="287" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B287" s="11" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
@@ -22467,12 +22467,12 @@
       </c>
       <c r="D287" s="13" t="inlineStr">
         <is>
-          <t>maa://47882 (100.0)</t>
+          <t>maa://38296 (90.62)</t>
         </is>
       </c>
       <c r="E287" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
+          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F287" s="19" t="n"/>
@@ -22506,12 +22506,12 @@
     <row r="288" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B288" s="11" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -22521,12 +22521,12 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (98.8), maa://32505 (100.0), maa://39155 (97.44)</t>
+          <t>maa://20899 (89.77), maa://46332 (96.0), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
         </is>
       </c>
       <c r="F288" s="19" t="n"/>
@@ -22560,27 +22560,27 @@
     <row r="289" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A289" s="11" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B289" s="11" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.0), maa://57199 (100.0)</t>
+          <t>maa://53353 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="14" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战谜图并上场，且使用谜图歼灭至少3个敌人&gt; 3星通关主题曲9-4标准实战环境；必须编入非助战谜图并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F289" s="19" t="n"/>
@@ -22614,12 +22614,12 @@
     <row r="290" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A290" s="11" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B290" s="11" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
@@ -22629,12 +22629,12 @@
       </c>
       <c r="D290" s="13" t="inlineStr">
         <is>
-          <t>maa://42312 (100.0)</t>
+          <t>maa://20881 (100.0)</t>
         </is>
       </c>
       <c r="E290" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
         </is>
       </c>
       <c r="F290" s="19" t="n"/>
@@ -22668,27 +22668,27 @@
     <row r="291" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A291" s="11" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B291" s="11" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D291" s="13" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (97.06), maa://39155 (97.44)</t>
+          <t>maa://30710 (97.89), maa://36845 (95.74), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E291" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
+          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
         </is>
       </c>
       <c r="F291" s="19" t="n"/>
@@ -22722,27 +22722,27 @@
     <row r="292" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A292" s="11" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B292" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" s="13" t="inlineStr">
         <is>
-          <t>**maa://39166 (50.0), maa://39167 (100.0)</t>
+          <t>maa://20902 (100.0)</t>
         </is>
       </c>
       <c r="E292" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
+          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F292" s="19" t="n"/>
@@ -22776,27 +22776,27 @@
     <row r="293" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A293" s="11" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B293" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="13" t="inlineStr">
         <is>
-          <t>maa://29005 (98.77), maa://31560 (92.31)</t>
+          <t>maa://29159 (100.0)</t>
         </is>
       </c>
       <c r="E293" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
+          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
         </is>
       </c>
       <c r="F293" s="19" t="n"/>
@@ -22830,27 +22830,27 @@
     <row r="294" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A294" s="11" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B294" s="11" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D294" s="13" t="inlineStr">
         <is>
-          <t>maa://39168 (100.0)</t>
+          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E294" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F294" s="19" t="n"/>
@@ -22884,12 +22884,12 @@
     <row r="295" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A295" s="11" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B295" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -22899,12 +22899,12 @@
       </c>
       <c r="D295" s="13" t="inlineStr">
         <is>
-          <t>maa://39169 (100.0)</t>
+          <t>maa://47882 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
         </is>
       </c>
       <c r="F295" s="19" t="n"/>
@@ -22938,27 +22938,27 @@
     <row r="296" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A296" s="11" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B296" s="11" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D296" s="13" t="inlineStr">
         <is>
-          <t>maa://39170 (100.0)</t>
+          <t>maa://32414 (98.8), maa://32505 (100.0), maa://39155 (97.44)</t>
         </is>
       </c>
       <c r="E296" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F296" s="19" t="n"/>
@@ -22992,27 +22992,27 @@
     <row r="297" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A297" s="11" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B297" s="11" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.55), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://45799 (100.0), maa://57199 (100.0)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战伊内丝12次&gt; 3星通关主题曲12-12标准实战环境；必须编入非助战伊内丝并上场，且至少使用3次暗夜无明</t>
+          <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F297" s="19" t="n"/>
@@ -23046,12 +23046,12 @@
     <row r="298" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A298" s="11" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B298" s="11" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
@@ -23061,12 +23061,12 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://39171 (100.0)</t>
+          <t>maa://42312 (100.0)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
         </is>
       </c>
       <c r="F298" s="19" t="n"/>
@@ -23100,27 +23100,27 @@
     <row r="299" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A299" s="11" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B299" s="11" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D299" s="13" t="inlineStr">
         <is>
-          <t>maa://27939 (100.0)</t>
+          <t>maa://36642 (100.0), maa://36867 (97.06), maa://39155 (97.44)</t>
         </is>
       </c>
       <c r="E299" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
         </is>
       </c>
       <c r="F299" s="19" t="n"/>
@@ -23154,27 +23154,27 @@
     <row r="300" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A300" s="11" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B300" s="11" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D300" s="13" t="inlineStr">
         <is>
-          <t>maa://53352 (100.0)</t>
+          <t>**maa://39166 (50.0), maa://39167 (100.0)</t>
         </is>
       </c>
       <c r="E300" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战淬羽赫默并上场，且每次战斗至少释放1次无畏者协议&gt; 3星通关插曲WB-5；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
         </is>
       </c>
       <c r="F300" s="19" t="n"/>
@@ -23208,27 +23208,27 @@
     <row r="301" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A301" s="11" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B301" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D301" s="13" t="inlineStr">
         <is>
-          <t>maa://29129 (100.0)</t>
+          <t>maa://29005 (98.77), maa://31560 (92.31)</t>
         </is>
       </c>
       <c r="E301" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
         </is>
       </c>
       <c r="F301" s="19" t="n"/>
@@ -23262,12 +23262,12 @@
     <row r="302" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A302" s="11" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B302" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
@@ -23277,12 +23277,12 @@
       </c>
       <c r="D302" s="13" t="inlineStr">
         <is>
-          <t>maa://36005 (93.33)</t>
+          <t>maa://39168 (100.0)</t>
         </is>
       </c>
       <c r="E302" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F302" s="19" t="n"/>
@@ -23316,12 +23316,12 @@
     <row r="303" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A303" s="11" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B303" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -23331,12 +23331,12 @@
       </c>
       <c r="D303" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (97.78)</t>
+          <t>maa://39169 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F303" s="19" t="n"/>
@@ -23370,12 +23370,12 @@
     <row r="304" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A304" s="11" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B304" s="11" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -23385,12 +23385,12 @@
       </c>
       <c r="D304" s="13" t="inlineStr">
         <is>
-          <t>maa://53348 (95.24)</t>
+          <t>maa://39170 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思并上场，且每次战斗至少释放1次生态耦合&gt; 3星通关主题曲6-12；必须编入非助战缪尔赛思并上场，且使用2次生态耦合</t>
+          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F304" s="19" t="n"/>
@@ -23424,27 +23424,27 @@
     <row r="305" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A305" s="11" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B305" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>**maa://39172 (50.0)</t>
+          <t>maa://50280 (97.56), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
+          <t>&gt; 战斗中累计部署非助战伊内丝12次&gt; 3星通关主题曲12-12标准实战环境；必须编入非助战伊内丝并上场，且至少使用3次暗夜无明</t>
         </is>
       </c>
       <c r="F305" s="19" t="n"/>
@@ -23478,12 +23478,12 @@
     <row r="306" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A306" s="11" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B306" s="11" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -23493,12 +23493,12 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://39173 (100.0)</t>
+          <t>maa://39171 (100.0)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
+          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F306" s="19" t="n"/>
@@ -23532,27 +23532,27 @@
     <row r="307" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A307" s="11" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B307" s="11" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="13" t="inlineStr">
         <is>
-          <t>maa://25775 (92.13), *maa://25393 (75.0)</t>
+          <t>maa://27939 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
+          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F307" s="19" t="n"/>
@@ -23586,12 +23586,12 @@
     <row r="308" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A308" s="11" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B308" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
@@ -23601,12 +23601,12 @@
       </c>
       <c r="D308" s="13" t="inlineStr">
         <is>
-          <t>maa://40161 (100.0)</t>
+          <t>maa://53352 (100.0)</t>
         </is>
       </c>
       <c r="E308" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战淬羽赫默并上场，且每次战斗至少释放1次无畏者协议&gt; 3星通关插曲WB-5；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F308" s="19" t="n"/>
@@ -23640,12 +23640,12 @@
     <row r="309" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A309" s="11" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B309" s="11" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -23655,12 +23655,12 @@
       </c>
       <c r="D309" s="13" t="inlineStr">
         <is>
-          <t>maa://25367 (99.31)</t>
+          <t>maa://29129 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
         </is>
       </c>
       <c r="F309" s="19" t="n"/>
@@ -23694,27 +23694,27 @@
     <row r="310" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A310" s="11" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B310" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D310" s="13" t="inlineStr">
         <is>
-          <t>maa://62761 (83.33), **maa://62755 (44.44)</t>
+          <t>maa://36005 (93.33)</t>
         </is>
       </c>
       <c r="E310" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成30歼灭数&gt; 3星通关主题曲4-8；必须编入非助战提丰并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F310" s="19" t="n"/>
@@ -23748,12 +23748,12 @@
     <row r="311" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A311" s="11" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B311" s="11" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -23763,12 +23763,12 @@
       </c>
       <c r="D311" s="13" t="inlineStr">
         <is>
-          <t>*maa://43090 (57.14)</t>
+          <t>maa://35859 (97.78)</t>
         </is>
       </c>
       <c r="E311" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F311" s="19" t="n"/>
@@ -23802,12 +23802,12 @@
     <row r="312" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A312" s="11" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B312" s="11" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -23817,12 +23817,12 @@
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>maa://53348 (95.24)</t>
         </is>
       </c>
       <c r="E312" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思并上场，且每次战斗至少释放1次生态耦合&gt; 3星通关主题曲6-12；必须编入非助战缪尔赛思并上场，且使用2次生态耦合</t>
         </is>
       </c>
       <c r="F312" s="19" t="n"/>
@@ -23856,12 +23856,12 @@
     <row r="313" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A313" s="11" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B313" s="11" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -23871,12 +23871,12 @@
       </c>
       <c r="D313" s="13" t="inlineStr">
         <is>
-          <t>maa://28241 (100.0)</t>
+          <t>**maa://39172 (50.0)</t>
         </is>
       </c>
       <c r="E313" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F313" s="19" t="n"/>
@@ -23910,27 +23910,27 @@
     <row r="314" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A314" s="11" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B314" s="11" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="13" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (71.43)</t>
+          <t>maa://39173 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
         </is>
       </c>
       <c r="F314" s="19" t="n"/>
@@ -23964,27 +23964,27 @@
     <row r="315" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A315" s="11" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B315" s="11" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D315" s="13" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://25775 (92.13), *maa://25393 (75.0)</t>
         </is>
       </c>
       <c r="E315" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
         </is>
       </c>
       <c r="F315" s="19" t="n"/>
@@ -24018,27 +24018,27 @@
     <row r="316" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A316" s="11" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B316" s="11" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D316" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (99.63), maa://39810 (86.36)</t>
+          <t>maa://40161 (100.0)</t>
         </is>
       </c>
       <c r="E316" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F316" s="19" t="n"/>
@@ -24072,12 +24072,12 @@
     <row r="317" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A317" s="11" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B317" s="11" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
@@ -24087,12 +24087,12 @@
       </c>
       <c r="D317" s="13" t="inlineStr">
         <is>
-          <t>*maa://39174 (75.0)</t>
+          <t>maa://25367 (99.31)</t>
         </is>
       </c>
       <c r="E317" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F317" s="19" t="n"/>
@@ -24126,27 +24126,27 @@
     <row r="318" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A318" s="11" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B318" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>maa://62761 (83.33), **maa://62755 (44.44)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 由非助战提丰累计造成30歼灭数&gt; 3星通关主题曲4-8；必须编入非助战提丰并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F318" s="19" t="n"/>
@@ -24180,27 +24180,27 @@
     <row r="319" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A319" s="11" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B319" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>maa://34867 (96.23), maa://34715 (100.0)</t>
+          <t>*maa://43090 (57.14)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
         </is>
       </c>
       <c r="F319" s="19" t="n"/>
@@ -24234,7 +24234,7 @@
     <row r="320" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A320" s="11" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B320" s="11" t="inlineStr">
@@ -24249,12 +24249,12 @@
       </c>
       <c r="D320" s="13" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://28070 (100.0)</t>
         </is>
       </c>
       <c r="E320" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F320" s="19" t="n"/>
@@ -24288,12 +24288,12 @@
     <row r="321" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A321" s="11" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B321" s="11" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -24303,12 +24303,12 @@
       </c>
       <c r="D321" s="13" t="inlineStr">
         <is>
-          <t>maa://42316 (88.89)</t>
+          <t>maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F321" s="19" t="n"/>
@@ -24342,12 +24342,12 @@
     <row r="322" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A322" s="11" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B322" s="11" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
@@ -24357,12 +24357,12 @@
       </c>
       <c r="D322" s="13" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0), maa://41360 (100.0)</t>
+          <t>maa://25773 (100.0), *maa://26088 (71.43)</t>
         </is>
       </c>
       <c r="E322" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F322" s="19" t="n"/>
@@ -24396,12 +24396,12 @@
     <row r="323" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A323" s="11" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B323" s="11" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -24411,12 +24411,12 @@
       </c>
       <c r="D323" s="13" t="inlineStr">
         <is>
-          <t>maa://40956 (93.62)</t>
+          <t>maa://39239 (100.0)</t>
         </is>
       </c>
       <c r="E323" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F323" s="19" t="n"/>
@@ -24450,27 +24450,27 @@
     <row r="324" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A324" s="11" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B324" s="11" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324" s="13" t="inlineStr">
         <is>
-          <t>maa://59688 (100.0)</t>
+          <t>maa://39692 (99.63), maa://39810 (86.36)</t>
         </is>
       </c>
       <c r="E324" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F324" s="19" t="n"/>
@@ -24504,27 +24504,27 @@
     <row r="325" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A325" s="11" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B325" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
+          <t>*maa://39174 (75.0)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F325" s="19" t="n"/>
@@ -24558,27 +24558,27 @@
     <row r="326" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A326" s="11" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B326" s="11" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="13" t="inlineStr">
         <is>
-          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
+          <t>maa://39175 (100.0)</t>
         </is>
       </c>
       <c r="E326" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
       <c r="F326" s="19" t="n"/>
@@ -24612,27 +24612,27 @@
     <row r="327" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A327" s="11" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B327" s="11" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" s="13" t="inlineStr">
         <is>
-          <t>maa://44234 (99.12)</t>
+          <t>maa://34867 (96.23), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
       <c r="F327" s="19" t="n"/>
@@ -24666,27 +24666,27 @@
     <row r="328" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A328" s="11" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B328" s="11" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="13" t="inlineStr">
         <is>
-          <t>maa://42968 (99.1), maa://49245 (100.0)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
       <c r="F328" s="19" t="n"/>
@@ -24720,12 +24720,12 @@
     <row r="329" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A329" s="11" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B329" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -24735,12 +24735,12 @@
       </c>
       <c r="D329" s="13" t="inlineStr">
         <is>
-          <t>*maa://40162 (71.43)</t>
+          <t>maa://42316 (88.89)</t>
         </is>
       </c>
       <c r="E329" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
       <c r="F329" s="19" t="n"/>
@@ -24774,27 +24774,27 @@
     <row r="330" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A330" s="11" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B330" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="13" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://30680 (100.0), maa://41360 (100.0)</t>
         </is>
       </c>
       <c r="E330" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F330" s="19" t="n"/>
@@ -24828,27 +24828,27 @@
     <row r="331" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B331" s="11" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D331" s="15" t="inlineStr">
         <is>
-          <t>maa://38295 (95.0), maa://49332 (100.0)</t>
+          <t>maa://40956 (93.68)</t>
         </is>
       </c>
       <c r="E331" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
       <c r="F331" s="19" t="n"/>
@@ -24882,12 +24882,12 @@
     <row r="332" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B332" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -24897,12 +24897,12 @@
       </c>
       <c r="D332" s="15" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://59688 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="15" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F332" s="19" t="n"/>
@@ -24936,27 +24936,27 @@
     <row r="333" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B333" s="11" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D333" s="15" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
         </is>
       </c>
       <c r="E333" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
       <c r="F333" s="19" t="n"/>
@@ -24990,27 +24990,27 @@
     <row r="334" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B334" s="11" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D334" s="15" t="inlineStr">
         <is>
-          <t>maa://32416 (92.06)</t>
+          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
         </is>
       </c>
       <c r="E334" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
       <c r="F334" s="19" t="n"/>
@@ -25044,12 +25044,12 @@
     <row r="335" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B335" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
@@ -25059,12 +25059,12 @@
       </c>
       <c r="D335" s="15" t="inlineStr">
         <is>
-          <t>maa://45800 (100.0)</t>
+          <t>maa://44234 (99.12)</t>
         </is>
       </c>
       <c r="E335" s="15" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
+          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
         </is>
       </c>
       <c r="F335" s="19" t="n"/>
@@ -25098,27 +25098,27 @@
     <row r="336" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B336" s="11" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D336" s="15" t="inlineStr">
         <is>
-          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61275 (100.0), maa://61839 (100.0)</t>
+          <t>maa://42968 (99.1), maa://49245 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="15" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
       <c r="F336" s="19" t="n"/>
@@ -25152,12 +25152,12 @@
     <row r="337" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B337" s="11" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
@@ -25167,12 +25167,12 @@
       </c>
       <c r="D337" s="15" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>*maa://40162 (71.43)</t>
         </is>
       </c>
       <c r="E337" s="15" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F337" s="19" t="n"/>
@@ -25206,12 +25206,12 @@
     <row r="338" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B338" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -25221,12 +25221,12 @@
       </c>
       <c r="D338" s="22" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E338" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F338" s="19" t="n"/>
@@ -25260,27 +25260,27 @@
     <row r="339" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B339" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D339" s="22" t="inlineStr">
         <is>
-          <t>maa://34716 (87.5)</t>
+          <t>maa://30671 (81.12), maa://30669 (99.25), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E339" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F339" s="19" t="n"/>
@@ -25314,27 +25314,27 @@
     <row r="340" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B340" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://38295 (95.05), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
       <c r="F340" s="19" t="n"/>
@@ -25368,27 +25368,27 @@
     <row r="341" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B341" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (97.88), maa://34717 (94.2), *maa://45066 (71.43)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E341" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
       <c r="F341" s="19" t="n"/>
@@ -25422,12 +25422,12 @@
     <row r="342" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B342" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
@@ -25437,12 +25437,12 @@
       </c>
       <c r="D342" s="22" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E342" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
       <c r="F342" s="19" t="n"/>
@@ -25476,27 +25476,27 @@
     <row r="343" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B343" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" s="22" t="inlineStr">
         <is>
-          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
+          <t>maa://32416 (92.06)</t>
         </is>
       </c>
       <c r="E343" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F343" s="19" t="n"/>
@@ -25530,12 +25530,12 @@
     <row r="344" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B344" s="11" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
@@ -25545,12 +25545,12 @@
       </c>
       <c r="D344" s="22" t="inlineStr">
         <is>
-          <t>maa://39181 (88.89)</t>
+          <t>maa://45800 (100.0)</t>
         </is>
       </c>
       <c r="E344" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
       </c>
       <c r="F344" s="19" t="n"/>
@@ -25584,27 +25584,27 @@
     <row r="345" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B345" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.65)</t>
+          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61275 (100.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F345" s="19" t="n"/>
@@ -25638,27 +25638,27 @@
     <row r="346" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B346" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D346" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E346" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F346" s="19" t="n"/>
@@ -25692,12 +25692,12 @@
     <row r="347" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B347" s="11" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -25707,12 +25707,12 @@
       </c>
       <c r="D347" s="22" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E347" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F347" s="19" t="n"/>
@@ -25746,27 +25746,27 @@
     <row r="348" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B348" s="11" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (97.67), maa://42224 (83.33)</t>
+          <t>maa://34716 (87.5)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
       <c r="F348" s="19" t="n"/>
@@ -25800,27 +25800,27 @@
     <row r="349" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B349" s="11" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D349" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (96.0), *maa://49662 (76.47)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E349" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
       <c r="F349" s="19" t="n"/>
@@ -25854,27 +25854,27 @@
     <row r="350" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B350" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D350" s="22" t="inlineStr">
         <is>
-          <t>maa://36646 (98.81), maa://36845 (95.74), **maa://39217 (41.18), maa://51007 (98.21)</t>
+          <t>maa://34865 (97.88), maa://34717 (94.2), *maa://45066 (71.43)</t>
         </is>
       </c>
       <c r="E350" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
       <c r="F350" s="19" t="n"/>
@@ -25908,27 +25908,27 @@
     <row r="351" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B351" s="11" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" s="22" t="inlineStr">
         <is>
-          <t>maa://36645 (98.39), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E351" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F351" s="19" t="n"/>
@@ -25962,27 +25962,27 @@
     <row r="352" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B352" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D352" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (95.83), maa://50629 (100.0), maa://48859 (100.0)</t>
+          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
         </is>
       </c>
       <c r="E352" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F352" s="19" t="n"/>
@@ -26016,12 +26016,12 @@
     <row r="353" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B353" s="11" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
@@ -26031,12 +26031,12 @@
       </c>
       <c r="D353" s="22" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://39181 (88.89)</t>
         </is>
       </c>
       <c r="E353" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F353" s="19" t="n"/>
@@ -26070,27 +26070,27 @@
     <row r="354" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B354" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.65)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F354" s="19" t="n"/>
@@ -26124,27 +26124,27 @@
     <row r="355" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B355" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.23), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
+          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33), **maa://63091 (50.0)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
         </is>
       </c>
       <c r="F355" s="19" t="n"/>
@@ -26178,12 +26178,12 @@
     <row r="356" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B356" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -26193,12 +26193,12 @@
       </c>
       <c r="D356" s="22" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E356" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F356" s="19" t="n"/>
@@ -26232,27 +26232,27 @@
     <row r="357" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B357" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://48268 (91.67)</t>
+          <t>maa://42299 (97.67), maa://42224 (83.33)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F357" s="19" t="n"/>
@@ -26286,27 +26286,27 @@
     <row r="358" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B358" s="11" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://49648 (96.0), *maa://49662 (76.47)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
         </is>
       </c>
       <c r="F358" s="19" t="n"/>
@@ -26340,27 +26340,27 @@
     <row r="359" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B359" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D359" s="22" t="inlineStr">
         <is>
-          <t>maa://45798 (98.51)</t>
+          <t>maa://36646 (98.81), maa://36845 (95.74), **maa://39217 (41.18), maa://51007 (98.21)</t>
         </is>
       </c>
       <c r="E359" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F359" s="19" t="n"/>
@@ -26394,27 +26394,27 @@
     <row r="360" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B360" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>maa://36645 (98.39), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F360" s="19" t="n"/>
@@ -26448,12 +26448,12 @@
     <row r="361" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B361" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
@@ -26463,12 +26463,12 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
+          <t>maa://42635 (95.92), maa://50629 (100.0), maa://48859 (100.0)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F361" s="19" t="n"/>
@@ -26502,27 +26502,27 @@
     <row r="362" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B362" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D362" s="22" t="inlineStr">
         <is>
-          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E362" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F362" s="19" t="n"/>
@@ -26556,27 +26556,27 @@
     <row r="363" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B363" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (98.4), maa://45605 (100.0)</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E363" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F363" s="19" t="n"/>
@@ -26610,27 +26610,27 @@
     <row r="364" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B364" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://42343 (100.0)</t>
+          <t>maa://40957 (94.25), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
       <c r="F364" s="19" t="n"/>
@@ -26664,12 +26664,12 @@
     <row r="365" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B365" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -26679,12 +26679,12 @@
       </c>
       <c r="D365" s="22" t="inlineStr">
         <is>
-          <t>maa://43095 (100.0)</t>
+          <t>maa://40164 (100.0)</t>
         </is>
       </c>
       <c r="E365" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
       <c r="F365" s="19" t="n"/>
@@ -26718,27 +26718,27 @@
     <row r="366" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B366" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D366" s="22" t="inlineStr">
         <is>
-          <t>maa://44233 (91.23), maa://45570 (96.49)</t>
+          <t>maa://48268 (91.67)</t>
         </is>
       </c>
       <c r="E366" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F366" s="19" t="n"/>
@@ -26772,12 +26772,12 @@
     <row r="367" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B367" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
@@ -26787,12 +26787,12 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://43097 (87.5)</t>
+          <t>maa://40165 (100.0)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F367" s="19" t="n"/>
@@ -26826,12 +26826,12 @@
     <row r="368" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B368" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
@@ -26841,12 +26841,12 @@
       </c>
       <c r="D368" s="22" t="inlineStr">
         <is>
-          <t>maa://43875 (98.28)</t>
+          <t>maa://45798 (98.51)</t>
         </is>
       </c>
       <c r="E368" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
       </c>
       <c r="F368" s="19" t="n"/>
@@ -26880,27 +26880,27 @@
     <row r="369" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A369" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B369" s="11" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C369" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.71), maa://44745 (97.53), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42331 (100.0)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F369" s="19" t="n"/>
@@ -26934,27 +26934,27 @@
     <row r="370" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A370" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B370" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C370" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D370" s="22" t="inlineStr">
         <is>
-          <t>maa://44389 (100.0)</t>
+          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
         </is>
       </c>
       <c r="E370" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F370" s="19" t="n"/>
@@ -26988,27 +26988,27 @@
     <row r="371" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A371" s="12" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B371" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C371" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D371" s="22" t="inlineStr">
         <is>
-          <t>maa://59690 (100.0)</t>
+          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
         </is>
       </c>
       <c r="E371" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
       <c r="F371" s="19" t="n"/>
@@ -27042,27 +27042,27 @@
     <row r="372" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A372" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B372" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D372" s="22" t="inlineStr">
         <is>
-          <t>maa://48113 (100.0)</t>
+          <t>maa://41110 (98.4), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E372" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F372" s="19" t="n"/>
@@ -27096,12 +27096,12 @@
     <row r="373" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A373" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B373" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C373" s="12" t="inlineStr">
@@ -27111,12 +27111,12 @@
       </c>
       <c r="D373" s="22" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E373" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
       <c r="F373" s="19" t="n"/>
@@ -27150,12 +27150,12 @@
     <row r="374" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A374" s="12" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B374" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C374" s="12" t="inlineStr">
@@ -27165,12 +27165,12 @@
       </c>
       <c r="D374" s="22" t="inlineStr">
         <is>
-          <t>maa://50552 (100.0)</t>
+          <t>maa://43095 (100.0)</t>
         </is>
       </c>
       <c r="E374" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
         </is>
       </c>
       <c r="F374" s="19" t="n"/>
@@ -27204,12 +27204,12 @@
     <row r="375" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A375" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B375" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C375" s="12" t="inlineStr">
@@ -27219,12 +27219,12 @@
       </c>
       <c r="D375" s="22" t="inlineStr">
         <is>
-          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
+          <t>maa://44233 (91.23), maa://45570 (96.49)</t>
         </is>
       </c>
       <c r="E375" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
       <c r="F375" s="19" t="n"/>
@@ -27258,12 +27258,12 @@
     <row r="376" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A376" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B376" s="11" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C376" s="12" t="inlineStr">
@@ -27273,12 +27273,12 @@
       </c>
       <c r="D376" s="22" t="inlineStr">
         <is>
-          <t>maa://47023 (89.19)</t>
+          <t>maa://43097 (87.5)</t>
         </is>
       </c>
       <c r="E376" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
         </is>
       </c>
       <c r="F376" s="19" t="n"/>
@@ -27312,12 +27312,12 @@
     <row r="377" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A377" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B377" s="11" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C377" s="12" t="inlineStr">
@@ -27327,12 +27327,12 @@
       </c>
       <c r="D377" s="22" t="inlineStr">
         <is>
-          <t>**maa://48618 (50.0)</t>
+          <t>maa://43872 (92.31)</t>
         </is>
       </c>
       <c r="E377" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
         </is>
       </c>
       <c r="F377" s="19" t="n"/>
@@ -27366,7 +27366,7 @@
     <row r="378" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A378" s="12" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B378" s="11" t="inlineStr">
@@ -27376,17 +27376,17 @@
       </c>
       <c r="C378" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D378" s="22" t="inlineStr">
         <is>
-          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
+          <t>*maa://53307 (63.16)</t>
         </is>
       </c>
       <c r="E378" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
+          <t>&gt; 战斗中非助战弑君者累计使用8次烽烟行刑场&gt; 3星通关主题曲4-8；必须编入非助战弑君者并上场，且使用2次烽烟行刑场</t>
         </is>
       </c>
       <c r="F378" s="19" t="n"/>
@@ -27420,27 +27420,27 @@
     <row r="379" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A379" s="12" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B379" s="11" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C379" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
+          <t>maa://43875 (98.28)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
       </c>
       <c r="F379" s="19" t="n"/>
@@ -27474,27 +27474,27 @@
     <row r="380" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A380" s="12" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B380" s="11" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C380" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>**maa://59691 (50.0)</t>
+          <t>maa://42970 (82.71), maa://44745 (97.56), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>
       </c>
       <c r="F380" s="19" t="n"/>
@@ -27528,27 +27528,27 @@
     <row r="381" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A381" s="12" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B381" s="11" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C381" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D381" s="22" t="inlineStr">
         <is>
-          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
+          <t>maa://44389 (100.0)</t>
         </is>
       </c>
       <c r="E381" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
+          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
         </is>
       </c>
       <c r="F381" s="19" t="n"/>
@@ -27582,27 +27582,27 @@
     <row r="382" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A382" s="12" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B382" s="11" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C382" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D382" s="22" t="inlineStr">
         <is>
-          <t>maa://51880 (99.15), maa://56651 (100.0), maa://51878 (100.0)</t>
+          <t>maa://59690 (100.0)</t>
         </is>
       </c>
       <c r="E382" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F382" s="19" t="n"/>
@@ -27636,27 +27636,27 @@
     <row r="383" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A383" s="12" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B383" s="11" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C383" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://51872 (96.36), maa://51876 (98.95), maa://51873 (100.0), maa://62047 (93.33), maa://63228 (88.89)</t>
+          <t>maa://48113 (100.0)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F383" s="19" t="n"/>
@@ -27690,27 +27690,27 @@
     <row r="384" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A384" s="12" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B384" s="11" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C384" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://59493 (96.77), maa://60449 (98.08)</t>
+          <t>maa://45807 (100.0)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
       <c r="F384" s="19" t="n"/>
@@ -27742,29 +27742,29 @@
       <c r="AF384" s="8" t="n"/>
     </row>
     <row r="385" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A385" s="25" t="inlineStr">
-        <is>
-          <t>录武官</t>
-        </is>
-      </c>
-      <c r="B385" s="24" t="inlineStr">
-        <is>
-          <t>HS-5</t>
-        </is>
-      </c>
-      <c r="C385" s="25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D385" s="30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E385" s="30" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
+      <c r="A385" s="12" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="B385" s="11" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="C385" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D385" s="22" t="inlineStr">
+        <is>
+          <t>maa://50552 (100.0)</t>
+        </is>
+      </c>
+      <c r="E385" s="22" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
         </is>
       </c>
       <c r="F385" s="19" t="n"/>
@@ -27798,27 +27798,27 @@
     <row r="386" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A386" s="12" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B386" s="11" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>maa://62756 (94.12)</t>
+          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战司霆惊蛰累计造成120000点伤害&gt; 3星通关插曲DV-7；必须编入非助战司霆惊蛰并上场，且使用1次“天地通明”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F386" s="19" t="n"/>
@@ -27867,7 +27867,7 @@
       </c>
       <c r="D387" s="22" t="inlineStr">
         <is>
-          <t>maa://47023 (88.24)</t>
+          <t>maa://47023 (89.19)</t>
         </is>
       </c>
       <c r="E387" s="22" t="inlineStr">
@@ -28191,7 +28191,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51880 (99.14), maa://56651 (100.0), maa://51878 (100.0)</t>
+          <t>maa://51880 (99.15), maa://56651 (100.0), maa://51878 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -28213,12 +28213,12 @@
       </c>
       <c r="C394" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.64), maa://51876 (98.92), maa://51873 (100.0), maa://62047 (91.67)</t>
+          <t>maa://51872 (96.37), maa://51876 (98.96), maa://51873 (100.0), maa://63228 (90.91), maa://62047 (93.75)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.72), maa://60449 (98.25)</t>
+          <t>maa://59493 (96.77), maa://60449 (98.18)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (92.59)</t>
+          <t>maa://62756 (94.17)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.77), maa://24702 (94.92), maa://36681 (86.59)</t>
+          <t>maa://25390 (95.79), maa://24702 (94.92), maa://36681 (86.59)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (95.16), *maa://34787 (74.47), maa://58660 (94.12)</t>
+          <t>maa://39402 (94.4), *maa://34787 (74.47), maa://58660 (94.44)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.3)</t>
+          <t>maa://22742 (91.34)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (91.56), maa://36684 (93.92)</t>
+          <t>maa://21246 (91.56), maa://36684 (93.96)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (91.91), maa://59087 (93.33)</t>
+          <t>maa://25251 (92.03), maa://59087 (93.33)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (96.06), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (96.15), maa://36987 (96.3), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.4), maa://20276 (88.29), *maa://22749 (80.0)</t>
+          <t>*maa://22880 (66.53), maa://20276 (88.34), *maa://22749 (80.0)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (95.03), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (95.07), maa://26254 (97.44), *maa://22738 (75.0)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (82.57), maa://24617 (91.18), *maa://60545 (75.0)</t>
+          <t>maa://45854 (82.57), maa://24617 (91.18), *maa://60545 (80.0)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (93.43), maa://22499 (88.24), maa://22746 (100.0)</t>
+          <t>maa://24632 (93.46), maa://22499 (88.24), maa://22746 (100.0)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (95.19), maa://50121 (95.65)</t>
+          <t>maa://49983 (94.34), maa://50121 (95.74)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.2), maa://27295 (87.62), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (94.2), maa://27295 (87.74), maa://22754 (89.19), *maa://31008 (79.55)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (92.99)</t>
+          <t>maa://43217 (93.04)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>maa://42407 (92.94)</t>
+          <t>maa://42407 (93.02)</t>
         </is>
       </c>
       <c r="E6" s="19" t="n"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>maa://24839 (98.88)</t>
+          <t>maa://24839 (98.89)</t>
         </is>
       </c>
       <c r="M6" s="19" t="n"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.67), maa://24957 (97.83)</t>
+          <t>maa://28624 (94.71), maa://24957 (97.83)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.27 13:27:11</t>
+          <t>更新日期：2025.07.29 13:34:35</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>*maa://21476 (76.67), *maa://39431 (61.11), **maa://37551 (50.0)</t>
+          <t>*maa://21476 (77.05), *maa://39431 (61.11), **maa://37551 (50.0)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.18)</t>
+          <t>maa://21411 (95.22)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (98.16), maa://52237 (100.0)</t>
+          <t>maa://26223 (98.17), maa://52237 (100.0)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.47), *maa://22865 (53.45)</t>
+          <t>maa://26206 (89.53), *maa://22865 (53.45)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (18.75), ***maa://39951 (11.11), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (19.05), ***maa://39951 (11.11), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (96.9), maa://22755 (88.72)</t>
+          <t>maa://27395 (96.91), maa://22755 (88.72), maa://63521 (100.0)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (97.98), maa://45828 (94.34), maa://22726 (100.0)</t>
+          <t>maa://22301 (97.98), maa://45828 (94.55), maa://22726 (100.0)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.15), *maa://22733 (66.67), **maa://22761 (50.0)</t>
+          <t>*maa://25021 (53.15), *maa://22733 (67.39), **maa://22761 (50.0)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="L11" s="8" t="inlineStr">
         <is>
-          <t>maa://21287 (88.62)</t>
+          <t>maa://21287 (88.71)</t>
         </is>
       </c>
       <c r="M11" s="19" t="n"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.5), maa://22501 (98.36), maa://45521 (92.31)</t>
+          <t>maa://22747 (89.5), maa://22501 (98.36), maa://45521 (92.5)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="X11" s="8" t="inlineStr">
         <is>
-          <t>maa://36713 (98.21)</t>
+          <t>maa://36713 (98.22)</t>
         </is>
       </c>
       <c r="Y11" s="19" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.24), maa://37962 (90.79), *maa://21485 (76.32)</t>
+          <t>maa://22753 (92.24), maa://37962 (91.25), *maa://21485 (76.32)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (95.71), maa://36677 (95.74), maa://39872 (93.55)</t>
+          <t>maa://23669 (95.71), maa://36677 (95.79), maa://39872 (93.55)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>*maa://28932 (78.89), *maa://20106 (64.29), *maa://22769 (62.07)</t>
+          <t>*maa://28932 (79.01), *maa://20106 (64.29), *maa://22769 (62.07)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.96), maa://36673 (92.39), maa://25001 (86.67)</t>
+          <t>maa://24999 (92.99), maa://36673 (92.47), maa://25001 (86.67)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.14), **maa://22728 (46.94)</t>
+          <t>*maa://21248 (74.49), **maa://22728 (46.94)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.96), *maa://22583 (78.82), *maa://48321 (80.0)</t>
+          <t>maa://22676 (93.96), *maa://22583 (79.07), *maa://48321 (80.0)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.38), maa://26245 (96.84), maa://21288 (96.32), maa://36682 (94.55)</t>
+          <t>maa://39841 (94.38), maa://26245 (96.86), maa://21288 (96.32), maa://36682 (94.55)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (95.0), maa://42751 (96.15)</t>
+          <t>maa://22521 (95.08), maa://42751 (96.15)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.49), maa://22734 (84.55), *maa://30808 (63.51), *maa://36048 (71.32), maa://45058 (82.61)</t>
+          <t>*maa://22743 (78.57), maa://22734 (84.55), *maa://30808 (64.0), *maa://36048 (71.76), maa://45058 (82.61)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (87.27), maa://21478 (90.24)</t>
+          <t>maa://24304 (87.0), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (91.1), *maa://22727 (70.0)</t>
+          <t>maa://24762 (91.15), *maa://22727 (70.0)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (96.55), maa://37650 (96.92), maa://36679 (94.55)</t>
+          <t>maa://21441 (96.55), maa://37650 (96.97), maa://36679 (94.55)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (98.43), maa://28051 (96.0)</t>
+          <t>maa://28501 (98.44), maa://28051 (96.0)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="AB16" s="8" t="inlineStr">
         <is>
-          <t>maa://26228 (95.73)</t>
+          <t>maa://26228 (95.76)</t>
         </is>
       </c>
       <c r="AC16" s="19" t="n"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.4), maa://27755 (94.12)</t>
+          <t>*maa://23911 (70.63), maa://27755 (94.12)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (89.59), maa://39599 (87.64)</t>
+          <t>maa://22430 (89.59), maa://39599 (87.78)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>maa://24570 (97.23)</t>
+          <t>maa://24570 (97.26)</t>
         </is>
       </c>
       <c r="E18" s="19" t="n"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (92.38), maa://52226 (96.43)</t>
+          <t>maa://22466 (92.38), maa://52226 (96.67)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (91.0), maa://25198 (93.94), maa://36680 (91.18)</t>
+          <t>maa://21432 (91.04), maa://25198 (93.98), maa://36680 (91.18)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>maa://22864 (90.58)</t>
+          <t>maa://22864 (90.67)</t>
         </is>
       </c>
       <c r="I20" s="19" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.57)</t>
+          <t>maa://41331 (86.62)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.5), maa://49976 (87.78), maa://56241 (90.0)</t>
+          <t>maa://50085 (89.62), maa://49976 (87.78), maa://56241 (90.0)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (86.97), maa://22432 (84.11)</t>
+          <t>maa://22524 (87.02), maa://22432 (84.21)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>maa://25236 (96.4)</t>
+          <t>maa://25236 (96.43)</t>
         </is>
       </c>
       <c r="I22" s="19" t="n"/>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (77.7), *maa://22751 (70.67)</t>
+          <t>*maa://27127 (77.14), *maa://22751 (71.05)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="W22" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (98.77)</t>
+          <t>maa://21282 (98.78), *maa://37649 (70.37)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>***maa://28036 (28.05), **maa://41753 (48.39)</t>
+          <t>***maa://28036 (27.71), **maa://41753 (46.88)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.86), maa://39875 (93.9)</t>
+          <t>maa://39756 (95.71), maa://39875 (93.98)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (91.89), *maa://29748 (76.3), *maa://37566 (79.17)</t>
+          <t>maa://30587 (91.93), *maa://29748 (76.47), *maa://37566 (79.17)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.67), *maa://46650 (63.89)</t>
+          <t>*maa://24368 (79.67), *maa://46650 (65.79)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (85.03), maa://23504 (93.91), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.83)</t>
+          <t>maa://29988 (85.17), maa://23504 (93.91), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.83)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (89.47)</t>
+          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (90.0)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (95.6), maa://63016 (100.0)</t>
+          <t>maa://29753 (95.61), maa://63016 (100.0)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>*maa://29063 (71.57), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>*maa://29063 (71.22), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (89.68), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (89.1), *maa://24516 (79.57), maa://26001 (84.75)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (96.0), maa://24621 (97.24), maa://36676 (97.06), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (96.0), maa://24621 (97.24), maa://36676 (97.14), maa://22771 (85.71), *maa://37772 (80.0)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (96.34)</t>
+          <t>maa://42235 (96.36)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.84), maa://25725 (82.18)</t>
+          <t>maa://24465 (90.85), maa://25725 (82.35)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.28), maa://41749 (92.21)</t>
+          <t>maa://39929 (92.28), maa://41749 (92.31)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (94.18), maa://31400 (98.91), maa://28440 (85.23), *maa://28650 (71.43)</t>
+          <t>maa://28432 (94.2), maa://31400 (98.91), maa://28440 (85.23), *maa://28650 (71.43)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.25), maa://42865 (80.33)</t>
+          <t>*maa://24080 (69.33), maa://42865 (80.33)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (98.85)</t>
+          <t>maa://21442 (98.86)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (97.74), maa://36667 (97.5), maa://22760 (100.0)</t>
+          <t>maa://21895 (97.74), maa://36667 (97.52), maa://22760 (100.0)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.29), maa://41108 (86.27), maa://41238 (98.26), maa://45523 (100.0)</t>
+          <t>maa://42859 (97.31), maa://41108 (86.27), maa://41238 (98.28), maa://45523 (100.0)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.54)</t>
+          <t>maa://41296 (97.55)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.61), maa://47069 (81.82), maa://56336 (81.82), maa://45789 (100.0)</t>
+          <t>maa://45718 (98.61), maa://47069 (81.82), maa://56336 (85.71), maa://45789 (100.0)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (89.83), *maa://21239 (71.43)</t>
+          <t>maa://21280 (89.87), *maa://21239 (71.43)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (89.97)</t>
+          <t>maa://36697 (89.77)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (93.1), *maa://45788 (70.63), maa://45790 (81.25)</t>
+          <t>maa://47079 (90.76), *maa://45788 (70.54), maa://45790 (81.25)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>maa://62953 (92.73)</t>
+          <t>maa://62953 (91.23)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (80.34), maa://21284 (88.33)</t>
+          <t>maa://22525 (80.34), maa://21284 (88.52)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (70.69)</t>
+          <t>*maa://62852 (68.85)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (98.18), maa://59378 (95.31)</t>
+          <t>maa://59394 (98.28), maa://59378 (95.31)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (93.64)</t>
+          <t>maa://32532 (93.42)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (95.0), maa://27746 (83.19)</t>
+          <t>maa://31270 (95.03), maa://27746 (83.19)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (98.08), maa://59413 (100.0)</t>
+          <t>maa://59534 (98.1), maa://59413 (100.0)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.27 13:27:11</t>
+          <t>更新日期：2025.07.29 13:34:35</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>maa://20865 (91.67), maa://20826 (85.71)</t>
+          <t>maa://20865 (92.31), maa://20826 (85.71)</t>
         </is>
       </c>
       <c r="E20" s="14" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>maa://20948 (88.89), maa://30844 (100.0), maa://58691 (100.0)</t>
+          <t>maa://20948 (88.89), maa://30844 (100.0), maa://58691 (100.0), maa://63387 (100.0)</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.07), maa://20832 (99.12), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.24), maa://20832 (99.13), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (96.3), maa://42415 (100.0), maa://40838 (100.0)</t>
+          <t>maa://20932 (96.34), maa://42415 (100.0), maa://40838 (100.0)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (98.29), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (98.31), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (98.65), maa://41118 (85.71)</t>
+          <t>maa://27970 (98.72), maa://41118 (85.71)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (88.07)</t>
+          <t>maa://38298 (88.18)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.87), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (97.67), maa://33504 (100.0), maa://45144 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.67), maa://45144 (100.0), maa://33504 (100.0), maa://43531 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (97.9), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.91), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (99.4), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
+          <t>maa://20943 (99.41), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.3), maa://36864 (98.04), maa://39140 (100.0)</t>
+          <t>maa://36643 (98.31), maa://36864 (98.04), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (88.32), *maa://35841 (63.16)</t>
+          <t>maa://24472 (88.37), *maa://35841 (63.16)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>maa://20926 (81.82)</t>
+          <t>maa://20926 (83.33)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (87.88)</t>
+          <t>maa://20991 (100.0), maa://51015 (85.29)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.26), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://32653 (85.71), maa://25161 (82.35), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
+          <t>maa://25018 (96.73), maa://51881 (99.26), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (85.0), maa://20822 (100.0)</t>
+          <t>maa://20933 (85.19), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (98.07), maa://35723 (96.0), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
+          <t>maa://20908 (98.08), maa://35723 (96.0), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="D118" s="13" t="inlineStr">
         <is>
-          <t>maa://20986 (93.75)</t>
+          <t>maa://20986 (94.12)</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (94.12)</t>
+          <t>**maa://30679 (50.0), maa://45258 (88.89)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (96.75), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0), maa://61380 (100.0)</t>
+          <t>maa://30670 (96.77), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0), maa://61380 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.25), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.27), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (92.0), maa://29627 (92.76), maa://29659 (86.11), maa://49074 (96.08), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (92.0), maa://29627 (92.79), maa://29659 (86.11), maa://49074 (96.15), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (84.88), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (85.06), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (84.88), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (85.06), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (99.61), maa://49077 (93.18), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.61), maa://49077 (93.33), maa://42292 (97.22), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -18309,7 +18309,7 @@
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (94.87)</t>
+          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (95.0)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (94.2), *maa://32623 (76.19), maa://34242 (85.71)</t>
+          <t>maa://20922 (94.29), *maa://32623 (76.19), maa://34242 (85.71)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (92.86), *maa://60577 (66.67)</t>
+          <t>maa://20923 (92.86), *maa://60577 (75.0)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="D253" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.24), **maa://49440 (50.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.87), maa://20924 (95.24), **maa://49440 (42.86)</t>
         </is>
       </c>
       <c r="E253" s="14" t="inlineStr">
@@ -22521,7 +22521,7 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.77), maa://46332 (96.0), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (89.77), maa://46332 (96.15), ***maa://44744 (25.0)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
@@ -23439,7 +23439,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.56), maa://49642 (97.0), maa://49660 (90.32), *maa://50517 (80.0)</t>
+          <t>maa://50280 (97.63), maa://49642 (97.03), maa://49660 (90.91), *maa://50517 (80.0)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="D315" s="13" t="inlineStr">
         <is>
-          <t>maa://25775 (92.13), *maa://25393 (75.0)</t>
+          <t>maa://25775 (92.22), *maa://25393 (75.0)</t>
         </is>
       </c>
       <c r="E315" s="14" t="inlineStr">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>maa://62761 (83.33), **maa://62755 (44.44)</t>
+          <t>maa://62761 (85.71), **maa://62755 (44.44)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (95.05), maa://49332 (100.0)</t>
+          <t>maa://38295 (95.1), maa://49332 (100.0)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (99.72), maa://35996 (97.73), **maa://39217 (41.18), maa://47349 (95.65)</t>
+          <t>maa://36868 (99.72), maa://35996 (97.75), **maa://39217 (41.18), maa://47349 (95.74)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.56), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33), **maa://63091 (50.0)</t>
+          <t>maa://49696 (99.57), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33), **maa://63091 (50.0)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
@@ -26625,7 +26625,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.25), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
+          <t>maa://40957 (94.27), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="D372" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (98.4), maa://45605 (100.0)</t>
+          <t>maa://41110 (98.43), maa://45605 (88.89)</t>
         </is>
       </c>
       <c r="E372" s="22" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.71), maa://44745 (97.56), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.71), maa://44745 (97.59), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
@@ -28191,7 +28191,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51880 (99.15), maa://56651 (100.0), maa://51878 (100.0)</t>
+          <t>maa://51880 (99.16), maa://56651 (100.0), maa://51878 (100.0)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -28218,7 +28218,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.37), maa://51876 (98.96), maa://51873 (100.0), maa://63228 (90.91), maa://62047 (93.75)</t>
+          <t>maa://51872 (96.38), maa://51876 (98.96), maa://51873 (100.0), maa://63228 (92.86), maa://62047 (93.75)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.77), maa://60449 (98.18)</t>
+          <t>maa://59493 (96.77), maa://60449 (98.21)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (94.17)</t>
+          <t>maa://62756 (94.39)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (95.79), maa://24702 (94.92), maa://36681 (86.59)</t>
+          <t>maa://25390 (100.00), maa://24702 (98.92), maa://36681 (83.87)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (94.4), *maa://34787 (74.47), maa://58660 (94.44)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.03), maa://58660 (83.15)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (91.34)</t>
+          <t>maa://22742 (100.00)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (91.56), maa://36684 (93.96)</t>
+          <t>maa://21246 (97.78), maa://36684 (100.00)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (92.03), maa://59087 (93.33)</t>
+          <t>maa://25251 (100.00), maa://59087 (91.86)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (96.15), maa://36987 (96.3), maa://39849 (88.89)</t>
+          <t>maa://40192 (100.00), maa://36987 (95.60), *maa://39849 (61.54)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>maa://21247 (98.55)</t>
+          <t>maa://21247 (100.00)</t>
         </is>
       </c>
       <c r="I3" s="19" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (66.53), maa://20276 (88.34), *maa://22749 (80.0)</t>
+          <t>*maa://22880 (72.29), maa://20276 (100.00), *maa://22749 (69.88)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (95.07), maa://26254 (97.44), *maa://22738 (75.0)</t>
+          <t>maa://21249 (100.00), maa://26254 (94.57), **maa://22738 (32.61)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (82.57), maa://24617 (91.18), *maa://60545 (80.0)</t>
+          <t>maa://45854 (87.06), maa://24617 (100.00), *maa://60545 (64.71)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (84.07), maa://27484 (96.64), maa://27480 (85.0)</t>
+          <t>maa://27396 (86.96), maa://27484 (100.00), *maa://27480 (78.26)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (95.92), maa://52241 (94.12)</t>
+          <t>maa://24390 (100.00), maa://52241 (81.11)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="AF3" s="8" t="inlineStr">
         <is>
-          <t>*maa://21289 (77.14)</t>
+          <t>maa://21289 (100.00)</t>
         </is>
       </c>
       <c r="AG3" s="16" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (93.46), maa://22499 (88.24), maa://22746 (100.0)</t>
+          <t>maa://24632 (100.00), *maa://22499 (74.16), *maa://22746 (68.54)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (94.34), maa://50121 (95.74)</t>
+          <t>maa://49983 (100.00), maa://50121 (97.73)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (94.2), maa://27295 (87.74), maa://22754 (89.19), *maa://31008 (79.55)</t>
+          <t>maa://32509 (100.00), maa://27295 (89.89), maa://22754 (89.89), *maa://31008 (73.03)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (93.04)</t>
+          <t>maa://43217 (100.00)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="AB4" s="8" t="inlineStr">
         <is>
-          <t>*maa://32658 (80.0)</t>
+          <t>maa://32658 (100.00)</t>
         </is>
       </c>
       <c r="AC4" s="19" t="n"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>*maa://30062 (66.07), *maa://39394 (68.75), ***maa://26209 (13.04)</t>
+          <t>maa://30062 (100.00), maa://39394 (96.23), ***maa://26209 (9.43)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (83.5), maa://22744 (82.14), maa://54105 (92.0)</t>
+          <t>maa://21245 (100.00), maa://22744 (81.01), maa://54105 (94.94)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="L5" s="8" t="inlineStr">
         <is>
-          <t>maa://22757 (80.85)</t>
+          <t>maa://22757 (100.00)</t>
         </is>
       </c>
       <c r="M5" s="19" t="n"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>maa://21919 (97.18), *maa://21281 (80.0)</t>
+          <t>maa://21919 (100.00), *maa://21281 (61.11)</t>
         </is>
       </c>
       <c r="Q5" s="19" t="n"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="X5" s="8" t="inlineStr">
         <is>
-          <t>maa://21290 (100.0)</t>
+          <t>maa://21290 (100.00)</t>
         </is>
       </c>
       <c r="Y5" s="19" t="n"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AB5" s="8" t="inlineStr">
         <is>
-          <t>*maa://29863 (62.79), ***maa://22752 (12.5), **maa://26013 (40.0)</t>
+          <t>maa://29863 (100.00), ***maa://22752 (6.25), **maa://26013 (35.42)</t>
         </is>
       </c>
       <c r="AC5" s="19" t="n"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>maa://42407 (93.02)</t>
+          <t>maa://42407 (100.00)</t>
         </is>
       </c>
       <c r="E6" s="19" t="n"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>maa://24370 (96.92)</t>
+          <t>maa://24370 (100.00)</t>
         </is>
       </c>
       <c r="I6" s="19" t="n"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>maa://24839 (98.89)</t>
+          <t>maa://24839 (100.00)</t>
         </is>
       </c>
       <c r="M6" s="19" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (94.59), maa://30381 (94.44)</t>
+          <t>maa://31836 (100.00), maa://30381 (90.24)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
-          <t>maa://37411 (88.0)</t>
+          <t>maa://37411 (100.00)</t>
         </is>
       </c>
       <c r="U6" s="19" t="n"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="X6" s="8" t="inlineStr">
         <is>
-          <t>maa://52754 (88.89)</t>
+          <t>maa://52754 (100.00)</t>
         </is>
       </c>
       <c r="Y6" s="19" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AB6" s="8" t="inlineStr">
         <is>
-          <t>maa://22739 (92.31)</t>
+          <t>maa://22739 (100.00)</t>
         </is>
       </c>
       <c r="AC6" s="19" t="n"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="AF6" s="8" t="inlineStr">
         <is>
-          <t>*maa://33152 (64.06), ***maa://22770 (26.09)</t>
+          <t>maa://33152 (100.00), ***maa://22770 (25.00)</t>
         </is>
       </c>
       <c r="AG6" s="16" t="n"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>maa://21955 (94.23)</t>
+          <t>maa://21955 (100.00)</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>*maa://22763 (66.67)</t>
+          <t>maa://22763 (100.00)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (94.71), maa://24957 (97.83)</t>
+          <t>maa://28624 (100.00), maa://24957 (98.89)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>maa://22750 (91.8)</t>
+          <t>maa://22750 (100.00)</t>
         </is>
       </c>
       <c r="Q7" s="19" t="n"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
-          <t>maa://21291 (88.24)</t>
+          <t>maa://21291 (100.00)</t>
         </is>
       </c>
       <c r="U7" s="19" t="n"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (95.83), *maa://22758 (78.05)</t>
+          <t>maa://22399 (100.00), *maa://22758 (73.91)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="AB7" s="8" t="inlineStr">
         <is>
-          <t>maa://50141 (100.0)</t>
+          <t>maa://50141 (100.00)</t>
         </is>
       </c>
       <c r="AC7" s="19" t="n"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="AF7" s="8" t="inlineStr">
         <is>
-          <t>maa://45272 (97.37)</t>
+          <t>maa://45272 (100.00)</t>
         </is>
       </c>
       <c r="AG7" s="16" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 13:34:35</t>
+          <t>更新日期：2025.07.29 23:24:36</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>*maa://21476 (77.05), *maa://39431 (61.11), **maa://37551 (50.0)</t>
+          <t>maa://21476 (100.00), *maa://39431 (60.00), **maa://37551 (33.85)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24371 (57.83)</t>
+          <t>maa://24371 (100.00)</t>
         </is>
       </c>
       <c r="I8" s="19" t="n"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (83.78), maa://23252 (91.67), maa://37496 (97.78)</t>
+          <t>maa://32931 (87.50), maa://23252 (94.32), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (95.22)</t>
+          <t>maa://21411 (100.00)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="AB8" s="8" t="inlineStr">
         <is>
-          <t>maa://25389 (89.36)</t>
+          <t>maa://25389 (100.00)</t>
         </is>
       </c>
       <c r="AC8" s="19" t="n"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>*maa://24479 (77.23), **maa://21990 (50.0)</t>
+          <t>maa://24479 (100.00), **maa://21990 (48.53)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>maa://22765 (89.81), *maa://21915 (71.88)</t>
+          <t>maa://22765 (100.00), *maa://21915 (66.27)</t>
         </is>
       </c>
       <c r="E9" s="19" t="n"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>maa://56348 (100.0)</t>
+          <t>maa://56348 (100.00)</t>
         </is>
       </c>
       <c r="I9" s="19" t="n"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (93.2), maa://39552 (83.33)</t>
+          <t>maa://22762 (100.00), *maa://39552 (70.11)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>maa://22736 (83.05)</t>
+          <t>maa://22736 (100.00)</t>
         </is>
       </c>
       <c r="Q9" s="19" t="n"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
-          <t>maa://26222 (98.41)</t>
+          <t>maa://26222 (100.00)</t>
         </is>
       </c>
       <c r="U9" s="19" t="n"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (98.17), maa://52237 (100.0)</t>
+          <t>maa://26223 (100.00), maa://52237 (84.21)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (87.84), maa://40166 (92.31)</t>
+          <t>maa://28711 (100.00), maa://40166 (100.00)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (89.53), *maa://22865 (53.45)</t>
+          <t>maa://26206 (100.00), **maa://22865 (48.81)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (19.05), ***maa://39951 (11.11), ***maa://34206 (22.22), *maa://45271 (60.47), ***maa://39243 (25.0), **maa://54000 (50.0)</t>
+          <t>***maa://25695 (28.00), ***maa://39951 (12.00), ***maa://34206 (22.00), maa://45271 (100.00), ***maa://39243 (14.00), ***maa://54000 (30.00)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>maa://32651 (95.83)</t>
+          <t>maa://32651 (100.00)</t>
         </is>
       </c>
       <c r="I10" s="19" t="n"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="L10" s="8" t="inlineStr">
         <is>
-          <t>**maa://24395 (36.84)</t>
+          <t>maa://24395 (100.00)</t>
         </is>
       </c>
       <c r="M10" s="19" t="n"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (88.0), *maa://36669 (79.31), *maa://23264 (62.07)</t>
+          <t>maa://28977 (100.00), maa://36669 (83.75), *maa://23264 (61.25)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (96.91), maa://22755 (88.72), maa://63521 (100.0)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (36.17)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (97.98), maa://45828 (94.55), maa://22726 (100.0)</t>
+          <t>maa://22301 (100.00), maa://45828 (89.47), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="AB10" s="8" t="inlineStr">
         <is>
-          <t>maa://24391 (100.0)</t>
+          <t>maa://24391 (100.00)</t>
         </is>
       </c>
       <c r="AC10" s="19" t="n"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>*maa://25021 (53.15), *maa://22733 (67.39), **maa://22761 (50.0)</t>
+          <t>maa://25021 (84.62), maa://22733 (100.00), ***maa://22761 (17.31)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>maa://36707 (99.42)</t>
+          <t>maa://36707 (100.00)</t>
         </is>
       </c>
       <c r="E11" s="19" t="n"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="L11" s="8" t="inlineStr">
         <is>
-          <t>maa://21287 (88.71)</t>
+          <t>maa://21287 (100.00)</t>
         </is>
       </c>
       <c r="M11" s="19" t="n"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="P11" s="8" t="inlineStr">
         <is>
-          <t>maa://45557 (92.31)</t>
+          <t>maa://45557 (100.00)</t>
         </is>
       </c>
       <c r="Q11" s="19" t="n"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.5), maa://22501 (98.36), maa://45521 (92.5)</t>
+          <t>maa://22747 (89.36), maa://22501 (100.00), maa://45521 (85.11)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="X11" s="8" t="inlineStr">
         <is>
-          <t>maa://36713 (98.22)</t>
+          <t>maa://36713 (100.00)</t>
         </is>
       </c>
       <c r="Y11" s="19" t="n"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (97.96), maa://22516 (87.36)</t>
+          <t>maa://29912 (100.00), maa://22516 (84.95)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="AF11" s="8" t="inlineStr">
         <is>
-          <t>maa://31203 (96.88)</t>
+          <t>maa://31203 (100.00)</t>
         </is>
       </c>
       <c r="AG11" s="16" t="n"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>maa://30766 (89.66), maa://36678 (81.82)</t>
+          <t>maa://30766 (100.00), *maa://36678 (70.27)</t>
         </is>
       </c>
       <c r="E12" s="19" t="n"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (90.86), maa://54294 (100.0)</t>
+          <t>maa://21867 (100.00), **maa://54294 (39.53)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>maa://57541 (100.0)</t>
+          <t>maa://57541 (100.00)</t>
         </is>
       </c>
       <c r="Q12" s="19" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (92.24), maa://37962 (91.25), *maa://21485 (76.32)</t>
+          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (95.71), maa://36677 (95.79), maa://39872 (93.55)</t>
+          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (84.95)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>*maa://28932 (79.01), *maa://20106 (64.29), *maa://22769 (62.07)</t>
+          <t>maa://28932 (100.00), *maa://20106 (75.34), *maa://22769 (60.27)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (92.99), maa://36673 (92.47), maa://25001 (86.67)</t>
+          <t>maa://24999 (100.00), maa://36673 (93.41), maa://25001 (84.62)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (74.49), **maa://22728 (46.94)</t>
+          <t>maa://21248 (100.00), **maa://22728 (49.28)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (93.96), *maa://22583 (79.07), *maa://48321 (80.0)</t>
+          <t>maa://22676 (100.00), *maa://22583 (77.53), *maa://48321 (61.80)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
-          <t>maa://21484 (100.0)</t>
+          <t>maa://21484 (100.00)</t>
         </is>
       </c>
       <c r="U13" s="19" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (85.37)</t>
+          <t>maa://34957 (100.00)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="AB13" s="8" t="inlineStr">
         <is>
-          <t>maa://24392 (100.0)</t>
+          <t>maa://24392 (100.00)</t>
         </is>
       </c>
       <c r="AC13" s="19" t="n"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (88.06), **maa://39885 (50.0)</t>
+          <t>maa://39883 (100.00), **maa://39885 (44.44)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>maa://30764 (90.28)</t>
+          <t>maa://30764 (100.00)</t>
         </is>
       </c>
       <c r="E14" s="19" t="n"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
-          <t>**maa://32656 (40.0)</t>
+          <t>maa://32656 (100.00)</t>
         </is>
       </c>
       <c r="I14" s="19" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (94.38), maa://26245 (96.86), maa://21288 (96.32), maa://36682 (94.55)</t>
+          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (91.40)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="P14" s="8" t="inlineStr">
         <is>
-          <t>maa://23250 (98.92), maa://20107 (87.5), maa://22772 (100.0)</t>
+          <t>maa://23250 (100.00), *maa://20107 (74.23), *maa://22772 (52.58)</t>
         </is>
       </c>
       <c r="Q14" s="19" t="n"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (95.08), maa://42751 (96.15)</t>
+          <t>maa://22521 (100.00), maa://42751 (90.00)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="X14" s="8" t="inlineStr">
         <is>
-          <t>maa://37468 (92.59)</t>
+          <t>maa://37468 (100.00)</t>
         </is>
       </c>
       <c r="Y14" s="19" t="n"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AB14" s="8" t="inlineStr">
         <is>
-          <t>maa://22764 (96.51)</t>
+          <t>maa://22764 (100.00)</t>
         </is>
       </c>
       <c r="AC14" s="19" t="n"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>*maa://22743 (78.57), maa://22734 (84.55), *maa://30808 (64.0), *maa://36048 (71.76), maa://45058 (82.61)</t>
+          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (68.83), maa://36048 (83.12), maa://45058 (83.12)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (87.0), maa://21478 (90.24)</t>
+          <t>maa://24304 (100.00), maa://21478 (92.77)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="L15" s="8" t="inlineStr">
         <is>
-          <t>*maa://21334 (54.55)</t>
+          <t>maa://21334 (100.00)</t>
         </is>
       </c>
       <c r="M15" s="19" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (91.15), *maa://22727 (70.0)</t>
+          <t>maa://24762 (100.00), **maa://22727 (46.51)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
-          <t>maa://23892 (96.74)</t>
+          <t>maa://23892 (100.00)</t>
         </is>
       </c>
       <c r="U15" s="19" t="n"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="X15" s="8" t="inlineStr">
         <is>
-          <t>*maa://38786 (72.73), maa://56102 (100.0)</t>
+          <t>maa://38786 (84.31), maa://56102 (100.00)</t>
         </is>
       </c>
       <c r="Y15" s="19" t="n"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (82.03), maa://36666 (81.93), *maa://22766 (68.8)</t>
+          <t>maa://21364 (100.00), maa://36666 (96.15), *maa://22766 (76.92)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (96.55), maa://37650 (96.97), maa://36679 (94.55)</t>
+          <t>maa://21441 (100.00), maa://37650 (96.77), maa://36679 (91.40)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
-          <t>maa://43216 (100.0)</t>
+          <t>maa://43216 (100.00)</t>
         </is>
       </c>
       <c r="I16" s="19" t="n"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="L16" s="8" t="inlineStr">
         <is>
-          <t>maa://24377 (100.0)</t>
+          <t>maa://24377 (100.00)</t>
         </is>
       </c>
       <c r="M16" s="19" t="n"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="P16" s="8" t="inlineStr">
         <is>
-          <t>maa://28504 (92.75)</t>
+          <t>maa://28504 (100.00)</t>
         </is>
       </c>
       <c r="Q16" s="19" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (94.65), *maa://28648 (75.58), maa://36674 (80.3)</t>
+          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (77.78)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (98.44), maa://28051 (96.0)</t>
+          <t>maa://28501 (100.00), maa://28051 (84.21)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="AB16" s="8" t="inlineStr">
         <is>
-          <t>maa://26228 (95.76)</t>
+          <t>maa://26228 (100.00)</t>
         </is>
       </c>
       <c r="AC16" s="19" t="n"/>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.63), maa://27755 (94.12)</t>
+          <t>*maa://23911 (70.45), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>maa://21624 (85.71), maa://56358 (100.0)</t>
+          <t>maa://21624 (100.00), **maa://56358 (47.22)</t>
         </is>
       </c>
       <c r="E17" s="19" t="n"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (89.59), maa://39599 (87.78)</t>
+          <t>maa://22430 (100.00), maa://39599 (92.94)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="L17" s="8" t="inlineStr">
         <is>
-          <t>*maa://21679 (77.78)</t>
+          <t>maa://21679 (100.00)</t>
         </is>
       </c>
       <c r="M17" s="19" t="n"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (81.42), maa://56238 (100.0)</t>
+          <t>maa://23890 (100.00), maa://56238 (83.56)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
-          <t>*maa://42324 (60.38)</t>
+          <t>maa://42324 (100.00)</t>
         </is>
       </c>
       <c r="U17" s="19" t="n"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AF17" s="8" t="inlineStr">
         <is>
-          <t>maa://50136 (96.3)</t>
+          <t>maa://50136 (100.00)</t>
         </is>
       </c>
       <c r="AG17" s="16" t="n"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>maa://24570 (97.26)</t>
+          <t>maa://24570 (100.00)</t>
         </is>
       </c>
       <c r="E18" s="19" t="n"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>maa://24421 (87.33)</t>
+          <t>maa://24421 (100.00)</t>
         </is>
       </c>
       <c r="I18" s="19" t="n"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (92.38), maa://52226 (96.67)</t>
+          <t>maa://22466 (100.00), maa://52226 (94.32)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.0), maa://54153 (100.0), maa://24380 (100.0)</t>
+          <t>maa://24379 (100.00), *maa://54153 (74.47), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t>maa://24385 (97.56)</t>
+          <t>maa://24385 (100.00)</t>
         </is>
       </c>
       <c r="U18" s="19" t="n"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (97.3), maa://22741 (87.5)</t>
+          <t>maa://21917 (100.00), *maa://22741 (57.61)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="AB18" s="8" t="inlineStr">
         <is>
-          <t>maa://24393 (98.33)</t>
+          <t>maa://24393 (100.00)</t>
         </is>
       </c>
       <c r="AC18" s="19" t="n"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>*maa://24313 (60.12), **maa://29784 (50.0), *maa://47854 (77.27)</t>
+          <t>maa://24313 (92.98), *maa://29784 (57.89), maa://47854 (100.00)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>maa://62850 (100.0)</t>
+          <t>maa://62850 (100.00)</t>
         </is>
       </c>
       <c r="E19" s="19" t="n"/>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="L19" s="8" t="inlineStr">
         <is>
-          <t>maa://39347 (94.74)</t>
+          <t>maa://39347 (100.00)</t>
         </is>
       </c>
       <c r="M19" s="19" t="n"/>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="P19" s="8" t="inlineStr">
         <is>
-          <t>maa://39433 (100.0)</t>
+          <t>maa://39433 (100.00)</t>
         </is>
       </c>
       <c r="Q19" s="19" t="n"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
-          <t>maa://24386 (98.75)</t>
+          <t>maa://24386 (100.00)</t>
         </is>
       </c>
       <c r="U19" s="19" t="n"/>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="X19" s="8" t="inlineStr">
         <is>
-          <t>maa://31386 (100.0)</t>
+          <t>maa://31386 (100.00)</t>
         </is>
       </c>
       <c r="Y19" s="19" t="n"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>*maa://30709 (69.35), *maa://36668 (57.83)</t>
+          <t>maa://30709 (100.00), *maa://36668 (72.31)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://52239 (100.0)</t>
+          <t>maa://52239 (83.02)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (91.04), maa://25198 (93.98), maa://36680 (91.18)</t>
+          <t>maa://21432 (96.63), maa://25198 (100.00), maa://36680 (86.52)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>maa://22864 (90.67)</t>
+          <t>maa://22864 (100.00)</t>
         </is>
       </c>
       <c r="I20" s="19" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (86.62)</t>
+          <t>maa://41331 (100.00)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
-          <t>maa://37442 (96.23)</t>
+          <t>maa://37442 (100.00)</t>
         </is>
       </c>
       <c r="Q20" s="19" t="n"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
-          <t>maa://29113 (88.57)</t>
+          <t>maa://29113 (100.00)</t>
         </is>
       </c>
       <c r="U20" s="19" t="n"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (89.62), maa://49976 (87.78), maa://56241 (90.0)</t>
+          <t>maa://50085 (100.00), maa://49976 (95.24), *maa://56241 (71.43)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>maa://21261 (98.15)</t>
+          <t>maa://21261 (100.00)</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>maa://24372 (97.27)</t>
+          <t>maa://24372 (100.00)</t>
         </is>
       </c>
       <c r="I21" s="19" t="n"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="L21" s="8" t="inlineStr">
         <is>
-          <t>maa://31731 (96.77)</t>
+          <t>maa://31731 (100.00)</t>
         </is>
       </c>
       <c r="M21" s="19" t="n"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
-          <t>maa://24381 (83.33)</t>
+          <t>maa://24381 (100.00)</t>
         </is>
       </c>
       <c r="Q21" s="19" t="n"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
-          <t>maa://21993 (88.89)</t>
+          <t>maa://21993 (100.00)</t>
         </is>
       </c>
       <c r="U21" s="19" t="n"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://20110 (87.14), maa://34946 (93.55)</t>
+          <t>maa://20110 (90.59), maa://34946 (100.00)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (83.25)</t>
+          <t>maa://21443 (100.00)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (87.02), maa://22432 (84.21)</t>
+          <t>maa://22524 (100.00), maa://22432 (95.12)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>maa://25236 (96.43)</t>
+          <t>maa://25236 (100.00)</t>
         </is>
       </c>
       <c r="I22" s="19" t="n"/>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (77.14), *maa://22751 (71.05)</t>
+          <t>maa://27127 (100.00), maa://22751 (85.71)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
-          <t>maa://38495 (88.24)</t>
+          <t>maa://38495 (100.00)</t>
         </is>
       </c>
       <c r="U22" s="19" t="n"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (98.78), *maa://37649 (70.37)</t>
+          <t>maa://21282 (100.00), *maa://37649 (59.38)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="AB22" s="8" t="inlineStr">
         <is>
-          <t>maa://23656 (98.72)</t>
+          <t>maa://23656 (100.00)</t>
         </is>
       </c>
       <c r="AC22" s="19" t="n"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="AF22" s="8" t="inlineStr">
         <is>
-          <t>maa://29658 (94.55)</t>
+          <t>maa://29658 (100.00)</t>
         </is>
       </c>
       <c r="AG22" s="16" t="n"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>***maa://28036 (27.71), **maa://41753 (46.88)</t>
+          <t>*maa://28036 (61.29), maa://41753 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (95.71), maa://39875 (93.98)</t>
+          <t>maa://39756 (100.00), maa://39875 (92.55)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (91.93), *maa://29748 (76.47), *maa://37566 (79.17)</t>
+          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (75.00)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
-          <t>maa://31212 (89.74), maa://24387 (82.93)</t>
+          <t>maa://31212 (100.00), maa://24387 (90.79)</t>
         </is>
       </c>
       <c r="U23" s="19" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="X23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28503 (62.5)</t>
+          <t>maa://28503 (100.00)</t>
         </is>
       </c>
       <c r="Y23" s="19" t="n"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="AB23" s="8" t="inlineStr">
         <is>
-          <t>maa://29652 (96.15)</t>
+          <t>maa://29652 (100.00)</t>
         </is>
       </c>
       <c r="AC23" s="19" t="n"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="AF23" s="8" t="inlineStr">
         <is>
-          <t>maa://31489 (95.24)</t>
+          <t>maa://31489 (100.00)</t>
         </is>
       </c>
       <c r="AG23" s="16" t="n"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>*maa://24368 (79.67), *maa://46650 (65.79)</t>
+          <t>maa://24368 (100.00), *maa://46650 (65.79)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (85.17), maa://23504 (93.91), *maa://25141 (77.37), *maa://36663 (78.43), maa://52227 (95.83)</t>
+          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (87.91)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="AB24" s="8" t="inlineStr">
         <is>
-          <t>maa://39349 (90.0)</t>
+          <t>maa://39349 (100.00)</t>
         </is>
       </c>
       <c r="AC24" s="19" t="n"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (81.36), *maa://36672 (72.22), maa://29910 (93.85), maa://45831 (90.0)</t>
+          <t>maa://22523 (89.41), *maa://36672 (70.59), maa://29910 (100.00), maa://45831 (82.35)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (95.61), maa://63016 (100.0)</t>
+          <t>maa://29753 (100.00), ***maa://63016 (22.58)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>*maa://29063 (71.22), *maa://25311 (74.78), ***maa://22725 (4.76), *maa://45047 (73.33)</t>
+          <t>maa://29063 (98.48), maa://25311 (100.00), ***maa://22725 (3.03), *maa://45047 (72.73)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="L25" s="8" t="inlineStr">
         <is>
-          <t>maa://24378 (90.38)</t>
+          <t>maa://24378 (100.00)</t>
         </is>
       </c>
       <c r="M25" s="19" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="P25" s="8" t="inlineStr">
         <is>
-          <t>maa://24382 (94.59)</t>
+          <t>maa://24382 (100.00)</t>
         </is>
       </c>
       <c r="Q25" s="19" t="n"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (92.82), maa://22545 (100.0), *maa://42915 (75.0)</t>
+          <t>maa://20109 (90.72), maa://22545 (100.00), **maa://42915 (30.93)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="X25" s="8" t="inlineStr">
         <is>
-          <t>maa://29890 (82.54)</t>
+          <t>maa://29890 (100.00)</t>
         </is>
       </c>
       <c r="Y25" s="19" t="n"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (89.1), *maa://24516 (79.57), maa://26001 (84.75)</t>
+          <t>maa://31215 (100.00), maa://24516 (84.34), maa://26001 (87.95)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (96.0), maa://24621 (97.24), maa://36676 (97.14), maa://22771 (85.71), *maa://37772 (80.0)</t>
+          <t>maa://20108 (98.92), maa://24621 (100.00), maa://36676 (91.40), *maa://22771 (64.52), **maa://37772 (40.86)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (93.75), maa://56374 (100.0)</t>
+          <t>maa://41802 (100.00), *maa://56374 (63.75)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>maa://24913 (91.26)</t>
+          <t>maa://24913 (100.00)</t>
         </is>
       </c>
       <c r="I26" s="19" t="n"/>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (92.86), maa://56625 (100.0)</t>
+          <t>maa://39870 (100.00), maa://56625 (82.61)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="X26" s="8" t="inlineStr">
         <is>
-          <t>maa://24389 (97.06)</t>
+          <t>maa://24389 (100.00)</t>
         </is>
       </c>
       <c r="Y26" s="19" t="n"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (96.36)</t>
+          <t>maa://42235 (100.00)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>*maa://30511 (74.58), **maa://29760 (50.0)</t>
+          <t>maa://30511 (100.00), **maa://29760 (46.77)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>maa://39601 (81.48), maa://34494 (97.5)</t>
+          <t>*maa://39601 (72.41), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
-          <t>maa://28071 (91.67)</t>
+          <t>maa://28071 (100.00)</t>
         </is>
       </c>
       <c r="M27" s="19" t="n"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="P27" s="8" t="inlineStr">
         <is>
-          <t>maa://56400 (100.0)</t>
+          <t>maa://56400 (100.00)</t>
         </is>
       </c>
       <c r="Q27" s="19" t="n"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
-          <t>*maa://30624 (78.21)</t>
+          <t>maa://30624 (100.00)</t>
         </is>
       </c>
       <c r="U27" s="19" t="n"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="AF27" s="8" t="inlineStr">
         <is>
-          <t>maa://24023 (96.25)</t>
+          <t>maa://24023 (100.00)</t>
         </is>
       </c>
       <c r="AG27" s="16" t="n"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (90.85), maa://25725 (82.35)</t>
+          <t>maa://24465 (100.00), maa://25725 (83.15)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="L28" s="8" t="inlineStr">
         <is>
-          <t>maa://30770 (82.69)</t>
+          <t>maa://30770 (100.00)</t>
         </is>
       </c>
       <c r="M28" s="19" t="n"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
-          <t>maa://23263 (95.54)</t>
+          <t>maa://23263 (100.00)</t>
         </is>
       </c>
       <c r="U28" s="19" t="n"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (92.28), maa://41749 (92.31)</t>
+          <t>maa://39929 (100.00), maa://41749 (96.67)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (92.34)</t>
+          <t>maa://36660 (100.00)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>maa://31694 (98.46)</t>
+          <t>maa://31694 (100.00)</t>
         </is>
       </c>
       <c r="E29" s="19" t="n"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>*maa://25175 (55.56)</t>
+          <t>maa://25175 (100.00)</t>
         </is>
       </c>
       <c r="I29" s="19" t="n"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (94.2), maa://31400 (98.91), maa://28440 (85.23), *maa://28650 (71.43)</t>
+          <t>maa://28432 (96.81), maa://31400 (100.00), maa://28440 (84.04), **maa://28650 (38.30)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>maa://54169 (100.0)</t>
+          <t>maa://54169 (100.00)</t>
         </is>
       </c>
       <c r="Q29" s="19" t="n"/>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
-          <t>maa://28502 (100.0)</t>
+          <t>maa://28502 (100.00)</t>
         </is>
       </c>
       <c r="U29" s="19" t="n"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>*maa://24080 (69.33), maa://42865 (80.33)</t>
+          <t>maa://24080 (90.28), maa://42865 (100.00)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (91.18)</t>
+          <t>maa://45792 (100.00)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
-          <t>maa://39355 (100.0)</t>
+          <t>maa://39355 (100.00)</t>
         </is>
       </c>
       <c r="I30" s="19" t="n"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="L30" s="8" t="inlineStr">
         <is>
-          <t>maa://30442 (95.77)</t>
+          <t>maa://30442 (100.00)</t>
         </is>
       </c>
       <c r="M30" s="19" t="n"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (98.86)</t>
+          <t>maa://21442 (100.00)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
-          <t>*maa://32940 (72.73), maa://24388 (95.24)</t>
+          <t>*maa://32940 (55.84), maa://24388 (100.00)</t>
         </is>
       </c>
       <c r="U30" s="19" t="n"/>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="X30" s="8" t="inlineStr">
         <is>
-          <t>maa://39477 (92.59)</t>
+          <t>maa://39477 (100.00)</t>
         </is>
       </c>
       <c r="Y30" s="19" t="n"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (97.28), maa://45822 (100.0), maa://45045 (83.33)</t>
+          <t>maa://42979 (100.00), maa://45822 (89.47), **maa://45045 (46.32)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
-          <t>maa://32721 (100.0)</t>
+          <t>maa://32721 (100.00)</t>
         </is>
       </c>
       <c r="I31" s="19" t="n"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (93.59), maa://36258 (88.51), *maa://43904 (73.33)</t>
+          <t>maa://35926 (100.00), maa://36258 (91.21), *maa://43904 (52.75)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
-          <t>maa://30711 (97.01), maa://30768 (100.0)</t>
+          <t>maa://30711 (100.00), **maa://30768 (48.89)</t>
         </is>
       </c>
       <c r="U31" s="19" t="n"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="AB31" s="8" t="inlineStr">
         <is>
-          <t>***maa://51420 (14.29)</t>
+          <t>maa://51420 (100.00)</t>
         </is>
       </c>
       <c r="AC31" s="19" t="n"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (97.74), maa://36667 (97.52), maa://22760 (100.0)</t>
+          <t>maa://21895 (100.00), maa://36667 (97.89), **maa://22760 (35.79)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="L32" s="8" t="inlineStr">
         <is>
-          <t>maa://28065 (96.23)</t>
+          <t>maa://28065 (100.00)</t>
         </is>
       </c>
       <c r="M32" s="19" t="n"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>maa://26203 (100.0)</t>
+          <t>maa://26203 (100.00)</t>
         </is>
       </c>
       <c r="Q32" s="19" t="n"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (97.31), maa://41108 (86.27), maa://41238 (98.28), maa://45523 (100.0)</t>
+          <t>maa://42859 (98.95), *maa://41108 (77.89), maa://41238 (100.00), maa://45523 (98.95)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>maa://42408 (89.47)</t>
+          <t>maa://42408 (100.00)</t>
         </is>
       </c>
       <c r="AG32" s="16" t="n"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>**maa://39351 (37.5)</t>
+          <t>maa://39351 (100.00)</t>
         </is>
       </c>
       <c r="I33" s="19" t="n"/>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="L33" s="8" t="inlineStr">
         <is>
-          <t>maa://39808 (100.0)</t>
+          <t>maa://39808 (100.00)</t>
         </is>
       </c>
       <c r="M33" s="19" t="n"/>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (81.55), *maa://22730 (72.73)</t>
+          <t>maa://21956 (100.00), *maa://22730 (74.67)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
-          <t>maa://45558 (85.71)</t>
+          <t>maa://45558 (100.00)</t>
         </is>
       </c>
       <c r="U33" s="19" t="n"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.5), maa://56235 (100.0)</t>
+          <t>maa://48817 (100.00), *maa://56235 (56.04)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
-          <t>maa://24526 (92.47)</t>
+          <t>maa://24526 (100.00)</t>
         </is>
       </c>
       <c r="U34" s="19" t="n"/>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AF34" s="8" t="inlineStr">
         <is>
-          <t>maa://32650 (81.48)</t>
+          <t>maa://32650 (100.00)</t>
         </is>
       </c>
       <c r="AG34" s="16" t="n"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (97.55)</t>
+          <t>maa://41296 (100.00)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
-          <t>maa://24842 (95.08)</t>
+          <t>maa://24842 (100.00)</t>
         </is>
       </c>
       <c r="U35" s="19" t="n"/>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="AF35" s="8" t="inlineStr">
         <is>
-          <t>maa://39479 (92.0)</t>
+          <t>maa://39479 (100.00)</t>
         </is>
       </c>
       <c r="AG35" s="16" t="n"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>maa://24375 (91.3)</t>
+          <t>maa://24375 (100.00)</t>
         </is>
       </c>
       <c r="I36" s="19" t="n"/>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="L36" s="8" t="inlineStr">
         <is>
-          <t>maa://42240 (100.0)</t>
+          <t>maa://42240 (100.00)</t>
         </is>
       </c>
       <c r="M36" s="19" t="n"/>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
-          <t>maa://27613 (99.17)</t>
+          <t>maa://27613 (100.00)</t>
         </is>
       </c>
       <c r="U36" s="19" t="n"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>*maa://24374 (56.0)</t>
+          <t>maa://24374 (100.00)</t>
         </is>
       </c>
       <c r="I37" s="19" t="n"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (98.61), maa://47069 (81.82), maa://56336 (85.71), maa://45789 (100.0)</t>
+          <t>maa://45718 (100.00), *maa://47069 (63.54), *maa://56336 (62.50), *maa://45789 (67.71)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (89.87), *maa://21239 (71.43)</t>
+          <t>maa://21280 (100.00), *maa://21239 (52.94)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="T37" s="8" t="inlineStr">
         <is>
-          <t>**maa://39354 (38.46)</t>
+          <t>maa://39354 (100.00)</t>
         </is>
       </c>
       <c r="U37" s="19" t="n"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
-          <t>maa://39384 (100.0), maa://49735 (100.0)</t>
+          <t>maa://39384 (100.00), *maa://49735 (61.29)</t>
         </is>
       </c>
       <c r="M38" s="19" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="P38" s="8" t="inlineStr">
         <is>
-          <t>*maa://24383 (70.18)</t>
+          <t>maa://24383 (100.00)</t>
         </is>
       </c>
       <c r="Q38" s="19" t="n"/>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
-          <t>maa://30713 (97.44)</t>
+          <t>maa://30713 (100.00)</t>
         </is>
       </c>
       <c r="U38" s="19" t="n"/>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (89.77)</t>
+          <t>maa://36697 (100.00)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (87.9), maa://25199 (85.47), maa://30434 (93.92), *maa://45059 (76.32), *maa://44165 (75.0)</t>
+          <t>maa://36670 (91.01), maa://25199 (87.64), maa://30434 (100.00), *maa://45059 (68.54), **maa://44165 (33.71)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (91.8), maa://47093 (100.0)</t>
+          <t>maa://24709 (97.75), maa://47093 (100.00)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (90.76), *maa://45788 (70.54), maa://45790 (81.25)</t>
+          <t>maa://47079 (100.00), *maa://45788 (73.81), *maa://45790 (77.38)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>maa://62953 (91.23)</t>
+          <t>maa://62953 (100.00)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (95.34), maa://21386 (95.83), maa://36664 (88.71), maa://45550 (87.5)</t>
+          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), *maa://45550 (56.99)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
-          <t>maa://24466 (92.16)</t>
+          <t>maa://24466 (100.00)</t>
         </is>
       </c>
       <c r="I41" s="19" t="n"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="P41" s="8" t="inlineStr">
         <is>
-          <t>maa://43177 (89.74)</t>
+          <t>maa://43177 (100.00)</t>
         </is>
       </c>
       <c r="Q41" s="19" t="n"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (80.34), maa://21284 (88.52)</t>
+          <t>maa://22525 (94.87), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="P43" s="8" t="inlineStr">
         <is>
-          <t>*maa://47403 (76.92)</t>
+          <t>maa://47403 (100.00)</t>
         </is>
       </c>
       <c r="Q43" s="19" t="n"/>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>maa://43198 (100.0), maa://46286 (100.0)</t>
+          <t>maa://43198 (100.00), *maa://46286 (52.38)</t>
         </is>
       </c>
       <c r="U43" s="19" t="n"/>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (97.7), maa://27728 (96.19), maa://56386 (100.0)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (64.21)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
-          <t>maa://39366 (90.0)</t>
+          <t>maa://39366 (100.00)</t>
         </is>
       </c>
       <c r="U44" s="19" t="n"/>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (84.73), maa://30807 (93.51), maa://42459 (88.1)</t>
+          <t>maa://21229 (91.86), maa://30807 (100.00), maa://42459 (87.21)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="P45" s="8" t="inlineStr">
         <is>
-          <t>*maa://36237 (78.26)</t>
+          <t>maa://36237 (100.00)</t>
         </is>
       </c>
       <c r="Q45" s="19" t="n"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
-          <t>**maa://39364 (44.78)</t>
+          <t>maa://39364 (100.00)</t>
         </is>
       </c>
       <c r="U45" s="19" t="n"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (92.04), maa://43901 (92.42)</t>
+          <t>maa://35931 (100.00), maa://43901 (93.26)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.96), maa://29661 (97.71), maa://28038 (84.62), maa://56236 (100.0)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (60.00)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="P49" s="8" t="inlineStr">
         <is>
-          <t>*maa://39643 (56.0)</t>
+          <t>maa://39643 (100.00)</t>
         </is>
       </c>
       <c r="Q49" s="19" t="n"/>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>*maa://62852 (68.85)</t>
+          <t>maa://62852 (100.00)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
-          <t>maa://30769 (83.33)</t>
+          <t>maa://30769 (100.00)</t>
         </is>
       </c>
       <c r="I51" s="19" t="n"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
-          <t>maa://24376 (96.97)</t>
+          <t>maa://24376 (100.00)</t>
         </is>
       </c>
       <c r="I52" s="19" t="n"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (98.28), maa://59378 (95.31)</t>
+          <t>maa://59394 (100.00), maa://59378 (95.60)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (95.41)</t>
+          <t>maa://32534 (100.00)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (93.42)</t>
+          <t>maa://32532 (100.00)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (98.68), maa://56237 (100.0)</t>
+          <t>maa://25176 (100.00), *maa://56237 (54.84)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>*maa://37964 (58.06)</t>
+          <t>maa://37964 (100.00)</t>
         </is>
       </c>
       <c r="I58" s="19" t="n"/>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (95.03), maa://27746 (83.19)</t>
+          <t>maa://31270 (100.00), maa://27746 (82.42)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>*maa://40438 (76.74)</t>
+          <t>maa://40438 (100.00)</t>
         </is>
       </c>
       <c r="I60" s="19" t="n"/>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (96.88), maa://43903 (100.0), maa://56228 (100.0)</t>
+          <t>maa://42981 (100.00), maa://43903 (89.89), **maa://56228 (49.44)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (98.1), maa://59413 (100.0)</t>
+          <t>maa://59534 (100.00), **maa://59413 (47.31)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>maa://44405 (86.05)</t>
+          <t>maa://44405 (100.00)</t>
         </is>
       </c>
       <c r="I64" s="19" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 13:34:35</t>
+          <t>更新日期：2025.07.29 23:24:36</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>maa://20990 (88.89)</t>
+          <t>maa://20990 (100.00)</t>
         </is>
       </c>
       <c r="E3" s="14" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>*maa://20996 (60.0)</t>
+          <t>maa://20996 (100.00)</t>
         </is>
       </c>
       <c r="E4" s="14" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>maa://41855 (100.0)</t>
+          <t>maa://41855 (100.00)</t>
         </is>
       </c>
       <c r="E5" s="14" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>*maa://20925 (80.0)</t>
+          <t>maa://20925 (100.00)</t>
         </is>
       </c>
       <c r="E6" s="14" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>maa://20850 (88.89)</t>
+          <t>maa://20850 (100.00)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>maa://20980 (100.0)</t>
+          <t>maa://20980 (100.00)</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>maa://20941 (100.0)</t>
+          <t>maa://20941 (100.00)</t>
         </is>
       </c>
       <c r="E9" s="14" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>*maa://20888 (80.0)</t>
+          <t>maa://20888 (100.00)</t>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>maa://20866 (100.0)</t>
+          <t>maa://20866 (100.00)</t>
         </is>
       </c>
       <c r="E11" s="14" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>**maa://20857 (50.0)</t>
+          <t>maa://20857 (100.00)</t>
         </is>
       </c>
       <c r="E12" s="14" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>maa://37695 (100.0)</t>
+          <t>maa://37695 (100.00)</t>
         </is>
       </c>
       <c r="E13" s="14" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>maa://39023 (100.0)</t>
+          <t>maa://39023 (100.00)</t>
         </is>
       </c>
       <c r="E14" s="14" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>maa://44401 (100.0)</t>
+          <t>maa://44401 (100.00)</t>
         </is>
       </c>
       <c r="E15" s="14" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>maa://20919 (100.0), *maa://31611 (72.73)</t>
+          <t>maa://20919 (100.00), **maa://31611 (46.74)</t>
         </is>
       </c>
       <c r="E16" s="14" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>maa://20848 (83.33)</t>
+          <t>maa://20848 (100.00)</t>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>maa://20930 (88.89)</t>
+          <t>maa://20930 (100.00)</t>
         </is>
       </c>
       <c r="E18" s="14" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>maa://20897 (100.0)</t>
+          <t>maa://20897 (100.00)</t>
         </is>
       </c>
       <c r="E19" s="14" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>maa://20865 (92.31), maa://20826 (85.71)</t>
+          <t>maa://20865 (100.00), *maa://20826 (73.13)</t>
         </is>
       </c>
       <c r="E20" s="14" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>maa://20900 (100.0)</t>
+          <t>maa://20900 (100.00)</t>
         </is>
       </c>
       <c r="E21" s="14" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>maa://20948 (88.89), maa://30844 (100.0), maa://58691 (100.0), maa://63387 (100.0)</t>
+          <t>maa://20948 (91.80), maa://30844 (100.00), **maa://58691 (34.43), **maa://63387 (34.43)</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (95.65)</t>
+          <t>maa://20876 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>maa://45260 (100.0)</t>
+          <t>maa://45260 (100.00)</t>
         </is>
       </c>
       <c r="E24" s="14" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>maa://20864 (100.0)</t>
+          <t>maa://20864 (100.00)</t>
         </is>
       </c>
       <c r="E25" s="14" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>maa://44220 (100.0)</t>
+          <t>maa://44220 (100.00)</t>
         </is>
       </c>
       <c r="E26" s="14" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (70.59), *maa://28758 (67.5), maa://29036 (96.15), *maa://42172 (66.67), maa://30285 (100.0)</t>
+          <t>*maa://20849 (70.37), *maa://28758 (64.20), maa://29036 (100.00), *maa://42172 (51.85), maa://30285 (80.25)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>maa://20920 (100.0)</t>
+          <t>maa://20920 (100.00)</t>
         </is>
       </c>
       <c r="E28" s="14" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.24), maa://20832 (99.13), maa://20727 (100.0)</t>
+          <t>maa://20863 (89.47), maa://20832 (100.00), *maa://20727 (75.79)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>maa://20871 (83.33)</t>
+          <t>maa://20871 (100.00)</t>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>*maa://39024 (60.0)</t>
+          <t>maa://39024 (100.00)</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (88.24), maa://36866 (96.55), maa://45572 (93.33), maa://27794 (100.0), maa://62759 (100.0), maa://20960 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://20862 (83.33), *maa://20893 (77.78)</t>
+          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (86.36), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>maa://30500 (98.94), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
+          <t>maa://30500 (100.00), *maa://27290 (52.13), ***maa://42154 (1.06)</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>maa://20916 (82.86), maa://52658 (90.91)</t>
+          <t>maa://20916 (100.00), maa://52658 (92.54)</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>maa://20847 (96.67)</t>
+          <t>maa://20847 (100.00)</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>maa://20997 (100.0)</t>
+          <t>maa://20997 (100.00)</t>
         </is>
       </c>
       <c r="E36" s="14" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (92.86), maa://42635 (95.92), *maa://20838 (55.0)</t>
+          <t>maa://27376 (96.51), maa://42635 (100.00), **maa://20838 (39.53)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="D38" s="13" t="inlineStr">
         <is>
-          <t>maa://20962 (100.0)</t>
+          <t>maa://20962 (100.00)</t>
         </is>
       </c>
       <c r="E38" s="14" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D39" s="13" t="inlineStr">
         <is>
-          <t>maa://29012 (85.71), maa://20928 (100.0)</t>
+          <t>*maa://29012 (61.25), maa://20928 (100.00)</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="D40" s="13" t="inlineStr">
         <is>
-          <t>maa://20882 (100.0)</t>
+          <t>maa://20882 (100.00)</t>
         </is>
       </c>
       <c r="E40" s="14" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>maa://20892 (81.25)</t>
+          <t>maa://20892 (100.00)</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>maa://20918 (95.83), maa://34883 (93.75), maa://20824 (100.0)</t>
+          <t>maa://20918 (100.00), maa://34883 (90.00), maa://20824 (96.25)</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="D43" s="13" t="inlineStr">
         <is>
-          <t>maa://20889 (91.67)</t>
+          <t>maa://20889 (100.00)</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="D44" s="13" t="inlineStr">
         <is>
-          <t>maa://34718 (100.0)</t>
+          <t>maa://34718 (100.00)</t>
         </is>
       </c>
       <c r="E44" s="14" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D45" s="13" t="inlineStr">
         <is>
-          <t>maa://20910 (100.0)</t>
+          <t>maa://20910 (100.00)</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D46" s="13" t="inlineStr">
         <is>
-          <t>*maa://39025 (77.78)</t>
+          <t>maa://39025 (100.00)</t>
         </is>
       </c>
       <c r="E46" s="14" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="D47" s="13" t="inlineStr">
         <is>
-          <t>maa://20938 (100.0)</t>
+          <t>maa://20938 (100.00)</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="D48" s="13" t="inlineStr">
         <is>
-          <t>maa://20954 (92.86)</t>
+          <t>maa://20954 (100.00)</t>
         </is>
       </c>
       <c r="E48" s="14" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D49" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (78.95), *maa://20982 (75.0)</t>
+          <t>maa://32845 (100.00), *maa://20982 (52.63)</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D50" s="13" t="inlineStr">
         <is>
-          <t>maa://30503 (100.0)</t>
+          <t>maa://30503 (100.00)</t>
         </is>
       </c>
       <c r="E50" s="14" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="D51" s="13" t="inlineStr">
         <is>
-          <t>maa://21001 (100.0)</t>
+          <t>maa://21001 (100.00)</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="D52" s="13" t="inlineStr">
         <is>
-          <t>maa://42295 (100.0)</t>
+          <t>maa://42295 (100.00)</t>
         </is>
       </c>
       <c r="E52" s="14" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (96.15), maa://31173 (96.67)</t>
+          <t>maa://20953 (97.59), maa://31173 (100.00)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="D54" s="13" t="inlineStr">
         <is>
-          <t>maa://30502 (100.0)</t>
+          <t>maa://30502 (100.00)</t>
         </is>
       </c>
       <c r="E54" s="14" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (96.34), maa://42415 (100.0), maa://40838 (100.0)</t>
+          <t>maa://20932 (100.00), maa://42415 (93.48), maa://40838 (80.43)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (98.31), maa://45604 (100.0), maa://20961 (100.0), maa://44220 (100.0), maa://20910 (100.0)</t>
+          <t>maa://44235 (100.00), maa://45604 (82.11), maa://20961 (84.21), ***maa://44220 (22.11), maa://20910 (82.11)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="D57" s="13" t="inlineStr">
         <is>
-          <t>*maa://20965 (72.22)</t>
+          <t>maa://20965 (100.00)</t>
         </is>
       </c>
       <c r="E57" s="14" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="D58" s="13" t="inlineStr">
         <is>
-          <t>maa://28900 (96.74), maa://30126 (100.0)</t>
+          <t>maa://28900 (100.00), *maa://30126 (74.73)</t>
         </is>
       </c>
       <c r="E58" s="14" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (98.72), maa://41118 (85.71)</t>
+          <t>maa://27970 (100.00), *maa://41118 (52.69)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (88.18)</t>
+          <t>maa://38298 (100.00)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.87), maa://20924 (95.24), maa://25777 (100.0), maa://20631 (100.0), maa://28241 (100.0)</t>
+          <t>maa://20841 (100.00), maa://24093 (98.96), maa://31559 (86.46), maa://20924 (80.21), **maa://25777 (35.42), *maa://20631 (59.38), **maa://28241 (45.83)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="D62" s="13" t="inlineStr">
         <is>
-          <t>maa://20844 (97.06)</t>
+          <t>maa://20844 (100.00)</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>*maa://20845 (69.23), maa://38727 (90.0)</t>
+          <t>maa://20845 (80.65), maa://38727 (100.00)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (97.67), maa://45144 (100.0), maa://33504 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (97.14), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (95.74), **maa://20947 (30.85), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.0), maa://45606 (100.0), maa://20914 (100.0), maa://20829 (100.0), maa://20900 (100.0), maa://40159 (100.0)</t>
+          <t>maa://20993 (100.00), maa://45606 (89.47), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D67" s="13" t="inlineStr">
         <is>
-          <t>maa://39693 (100.0), maa://49348 (100.0)</t>
+          <t>maa://39693 (100.00), **maa://49348 (35.79)</t>
         </is>
       </c>
       <c r="E67" s="14" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (97.91), maa://20815 (100.0)</t>
+          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (96.67), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.0), *maa://20823 (80.0), maa://20855 (94.12), maa://20904 (100.0)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (95.92), maa://35393 (100.0)</t>
+          <t>maa://20944 (94.51), maa://35393 (100.00)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (99.41), maa://30673 (100.0), maa://30672 (100.0), maa://20856 (100.0)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (98.31), maa://36864 (98.04), maa://39140 (100.0)</t>
+          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="D73" s="13" t="inlineStr">
         <is>
-          <t>maa://39139 (100.0)</t>
+          <t>maa://39139 (100.00)</t>
         </is>
       </c>
       <c r="E73" s="14" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="D74" s="13" t="inlineStr">
         <is>
-          <t>maa://39142 (100.0)</t>
+          <t>maa://39142 (100.00)</t>
         </is>
       </c>
       <c r="E74" s="14" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="D75" s="13" t="inlineStr">
         <is>
-          <t>maa://20989 (100.0)</t>
+          <t>maa://20989 (100.00)</t>
         </is>
       </c>
       <c r="E75" s="14" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="D76" s="13" t="inlineStr">
         <is>
-          <t>maa://20873 (100.0)</t>
+          <t>maa://20873 (100.00)</t>
         </is>
       </c>
       <c r="E76" s="14" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="D77" s="13" t="inlineStr">
         <is>
-          <t>maa://20958 (94.74), ***maa://39769 (20.0)</t>
+          <t>maa://20958 (100.00), ***maa://39769 (4.82)</t>
         </is>
       </c>
       <c r="E77" s="14" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="D78" s="13" t="inlineStr">
         <is>
-          <t>maa://20957 (100.0)</t>
+          <t>maa://20957 (100.00)</t>
         </is>
       </c>
       <c r="E78" s="14" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D79" s="13" t="inlineStr">
         <is>
-          <t>maa://20875 (92.86)</t>
+          <t>maa://20875 (100.00)</t>
         </is>
       </c>
       <c r="E79" s="14" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="D80" s="13" t="inlineStr">
         <is>
-          <t>maa://20952 (100.0)</t>
+          <t>maa://20952 (100.00)</t>
         </is>
       </c>
       <c r="E80" s="14" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="D81" s="13" t="inlineStr">
         <is>
-          <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (70.0), maa://30524 (100.0)</t>
+          <t>maa://30525 (95.40), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="D82" s="13" t="inlineStr">
         <is>
-          <t>maa://28072 (100.0)</t>
+          <t>maa://28072 (100.00)</t>
         </is>
       </c>
       <c r="E82" s="14" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="D83" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (93.33), maa://27794 (100.0), maa://20960 (100.0)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), maa://20960 (100.00)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="D84" s="13" t="inlineStr">
         <is>
-          <t>maa://20972 (100.0)</t>
+          <t>maa://20972 (100.00)</t>
         </is>
       </c>
       <c r="E84" s="14" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="D85" s="13" t="inlineStr">
         <is>
-          <t>maa://20874 (100.0)</t>
+          <t>maa://20874 (100.00)</t>
         </is>
       </c>
       <c r="E85" s="14" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="D86" s="13" t="inlineStr">
         <is>
-          <t>maa://20885 (100.0)</t>
+          <t>maa://20885 (100.00)</t>
         </is>
       </c>
       <c r="E86" s="14" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D87" s="13" t="inlineStr">
         <is>
-          <t>maa://20886 (93.94), maa://60772 (100.0)</t>
+          <t>maa://20886 (100.00), ***maa://60772 (26.25)</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (88.37), *maa://35841 (63.16)</t>
+          <t>maa://24472 (100.00), **maa://35841 (49.40)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="D89" s="13" t="inlineStr">
         <is>
-          <t>maa://44402 (100.0)</t>
+          <t>maa://44402 (100.00)</t>
         </is>
       </c>
       <c r="E89" s="14" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="D90" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (62.86), maa://20880 (93.1)</t>
+          <t>*maa://28190 (58.97), maa://20880 (100.00)</t>
         </is>
       </c>
       <c r="E90" s="14" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="D91" s="13" t="inlineStr">
         <is>
-          <t>maa://24609 (92.86)</t>
+          <t>maa://24609 (100.00)</t>
         </is>
       </c>
       <c r="E91" s="14" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="D92" s="13" t="inlineStr">
         <is>
-          <t>maa://20890 (100.0)</t>
+          <t>maa://20890 (100.00)</t>
         </is>
       </c>
       <c r="E92" s="14" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="D93" s="13" t="inlineStr">
         <is>
-          <t>maa://20984 (100.0)</t>
+          <t>maa://20984 (100.00)</t>
         </is>
       </c>
       <c r="E93" s="14" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="D94" s="13" t="inlineStr">
         <is>
-          <t>maa://40157 (87.5)</t>
+          <t>maa://40157 (100.00)</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D95" s="13" t="inlineStr">
         <is>
-          <t>maa://20927 (93.33)</t>
+          <t>maa://20927 (100.00)</t>
         </is>
       </c>
       <c r="E95" s="14" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>maa://20926 (83.33)</t>
+          <t>maa://20926 (100.00)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0), maa://51015 (85.29)</t>
+          <t>maa://20991 (100.00), *maa://51015 (72.16)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="D98" s="13" t="inlineStr">
         <is>
-          <t>maa://20967 (100.0)</t>
+          <t>maa://20967 (100.00)</t>
         </is>
       </c>
       <c r="E98" s="14" t="inlineStr">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="D99" s="13" t="inlineStr">
         <is>
-          <t>maa://20929 (92.0)</t>
+          <t>maa://20929 (100.00)</t>
         </is>
       </c>
       <c r="E99" s="14" t="inlineStr">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="D100" s="13" t="inlineStr">
         <is>
-          <t>maa://20852 (100.0)</t>
+          <t>maa://20852 (100.00)</t>
         </is>
       </c>
       <c r="E100" s="14" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="D101" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (93.33), maa://27794 (100.0), *maa://20893 (77.78)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20893 (78.57)</t>
         </is>
       </c>
       <c r="E101" s="14" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="D102" s="13" t="inlineStr">
         <is>
-          <t>maa://40517 (92.86), *maa://39240 (56.25)</t>
+          <t>maa://40517 (100.00), **maa://39240 (42.86)</t>
         </is>
       </c>
       <c r="E102" s="14" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>*maa://29094 (72.92), maa://28904 (88.57), **maa://20931 (44.83)</t>
+          <t>*maa://29094 (79.73), maa://28904 (100.00), **maa://20931 (37.84)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="D104" s="13" t="inlineStr">
         <is>
-          <t>maa://20966 (85.71)</t>
+          <t>maa://20966 (100.00)</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="D105" s="13" t="inlineStr">
         <is>
-          <t>maa://39143 (100.0)</t>
+          <t>maa://39143 (100.00)</t>
         </is>
       </c>
       <c r="E105" s="14" t="inlineStr">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="D106" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (93.33), maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20843 (62.86), ***maa://24483 (12.86)</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="D107" s="13" t="inlineStr">
         <is>
-          <t>maa://20894 (100.0)</t>
+          <t>maa://20894 (100.00)</t>
         </is>
       </c>
       <c r="E107" s="14" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.73), maa://51881 (99.26), maa://25776 (92.11), maa://28361 (95.24), maa://25772 (94.12), maa://56588 (95.24), maa://45194 (82.35), maa://25161 (82.35), maa://32653 (85.71), ***maa://60902 (25.0), maa://61275 (100.0), maa://61839 (100.0)</t>
+          <t>maa://25018 (96.94), maa://51881 (100.00), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (78.57), *maa://45194 (60.20), *maa://25161 (60.20), *maa://32653 (61.22), ***maa://60902 (7.14), ***maa://61275 (21.43), **maa://61839 (34.69)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D109" s="13" t="inlineStr">
         <is>
-          <t>maa://45259 (100.0)</t>
+          <t>maa://45259 (100.00)</t>
         </is>
       </c>
       <c r="E109" s="14" t="inlineStr">
@@ -12909,7 +12909,7 @@
       </c>
       <c r="D110" s="13" t="inlineStr">
         <is>
-          <t>maa://20887 (100.0)</t>
+          <t>maa://20887 (100.00)</t>
         </is>
       </c>
       <c r="E110" s="14" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="D111" s="13" t="inlineStr">
         <is>
-          <t>maa://28554 (80.77)</t>
+          <t>maa://28554 (100.00)</t>
         </is>
       </c>
       <c r="E111" s="14" t="inlineStr">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (85.19), maa://20822 (100.0)</t>
+          <t>maa://20933 (100.00), maa://20822 (89.47)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (97.14)</t>
+          <t>maa://29037 (100.00)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="D114" s="13" t="inlineStr">
         <is>
-          <t>maa://20904 (100.0)</t>
+          <t>maa://20904 (100.00)</t>
         </is>
       </c>
       <c r="E114" s="14" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (98.08), maa://35723 (96.0), *maa://23346 (77.78), maa://38822 (100.0), maa://58659 (100.0)</t>
+          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (63.54)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (86.11), maa://29031 (87.5)</t>
+          <t>maa://29659 (95.95), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), maa://20940 (83.33)</t>
+          <t>maa://31560 (100.00), maa://20940 (82.09)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="D118" s="13" t="inlineStr">
         <is>
-          <t>maa://20986 (94.12)</t>
+          <t>maa://20986 (100.00)</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="D119" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), maa://20851 (100.0)</t>
+          <t>maa://31560 (100.00), *maa://20851 (65.67)</t>
         </is>
       </c>
       <c r="E119" s="14" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="D120" s="13" t="inlineStr">
         <is>
-          <t>maa://20949 (92.86)</t>
+          <t>maa://20949 (100.00)</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0), maa://44690 (96.3)</t>
+          <t>maa://20869 (100.00), maa://44690 (84.54)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="D122" s="13" t="inlineStr">
         <is>
-          <t>maa://29650 (98.39), maa://45570 (96.49)</t>
+          <t>maa://29650 (100.00), maa://45570 (96.70)</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="D123" s="13" t="inlineStr">
         <is>
-          <t>maa://20868 (100.0)</t>
+          <t>maa://20868 (100.00)</t>
         </is>
       </c>
       <c r="E123" s="14" t="inlineStr">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="D124" s="13" t="inlineStr">
         <is>
-          <t>*maa://20909 (71.43)</t>
+          <t>maa://20909 (100.00)</t>
         </is>
       </c>
       <c r="E124" s="14" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="D125" s="13" t="inlineStr">
         <is>
-          <t>maa://44403 (100.0)</t>
+          <t>maa://44403 (100.00)</t>
         </is>
       </c>
       <c r="E125" s="14" t="inlineStr">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="D126" s="13" t="inlineStr">
         <is>
-          <t>maa://30501 (100.0)</t>
+          <t>maa://30501 (100.00)</t>
         </is>
       </c>
       <c r="E126" s="14" t="inlineStr">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="D127" s="13" t="inlineStr">
         <is>
-          <t>maa://20914 (100.0), *maa://31937 (80.0), maa://20829 (100.0)</t>
+          <t>*maa://20914 (57.14), **maa://31937 (49.35), maa://20829 (100.00)</t>
         </is>
       </c>
       <c r="E127" s="14" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="D128" s="13" t="inlineStr">
         <is>
-          <t>maa://37484 (94.23), maa://24611 (90.91)</t>
+          <t>maa://37484 (100.00), maa://24611 (90.48)</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="D129" s="13" t="inlineStr">
         <is>
-          <t>maa://24491 (100.0), maa://24493 (100.0)</t>
+          <t>maa://24491 (100.00), *maa://24493 (75.56)</t>
         </is>
       </c>
       <c r="E129" s="14" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (99.16)</t>
+          <t>maa://21422 (100.00)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="D131" s="13" t="inlineStr">
         <is>
-          <t>maa://30719 (100.0)</t>
+          <t>maa://30719 (100.00)</t>
         </is>
       </c>
       <c r="E131" s="14" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="D132" s="13" t="inlineStr">
         <is>
-          <t>maa://20837 (100.0), maa://37666 (90.91)</t>
+          <t>maa://20837 (100.00), *maa://37666 (72.94)</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="D133" s="13" t="inlineStr">
         <is>
-          <t>maa://29023 (100.0), maa://39515 (91.67)</t>
+          <t>maa://29023 (100.00), *maa://39515 (74.71)</t>
         </is>
       </c>
       <c r="E133" s="14" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="D134" s="13" t="inlineStr">
         <is>
-          <t>maa://39146 (100.0)</t>
+          <t>maa://39146 (100.00)</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="D135" s="13" t="inlineStr">
         <is>
-          <t>maa://20856 (100.0)</t>
+          <t>maa://20856 (100.00)</t>
         </is>
       </c>
       <c r="E135" s="14" t="inlineStr">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="D136" s="13" t="inlineStr">
         <is>
-          <t>maa://20913 (100.0)</t>
+          <t>maa://20913 (100.00)</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D137" s="13" t="inlineStr">
         <is>
-          <t>maa://41856 (100.0)</t>
+          <t>maa://41856 (100.00)</t>
         </is>
       </c>
       <c r="E137" s="14" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (82.76), **maa://21000 (45.16)</t>
+          <t>maa://29025 (100.00), **maa://21000 (44.62)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0), maa://45258 (88.89)</t>
+          <t>**maa://30679 (44.93), maa://45258 (100.00)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="D140" s="13" t="inlineStr">
         <is>
-          <t>maa://20981 (92.86)</t>
+          <t>maa://20981 (100.00)</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="D141" s="13" t="inlineStr">
         <is>
-          <t>maa://37689 (100.0)</t>
+          <t>maa://37689 (100.00)</t>
         </is>
       </c>
       <c r="E141" s="14" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (97.24), **maa://23736 (44.93), maa://31185 (85.71), maa://30306 (100.0)</t>
+          <t>maa://28484 (100.00), **maa://23736 (36.56), *maa://31185 (52.69), *maa://30306 (54.84)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (96.77), maa://31470 (96.67), *maa://45066 (71.43), **maa://30867 (40.0), maa://61380 (100.0)</t>
+          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), ***maa://30867 (12.90), ***maa://61380 (22.58)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (92.86)</t>
+          <t>maa://20971 (100.00)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="D145" s="13" t="inlineStr">
         <is>
-          <t>maa://39147 (100.0)</t>
+          <t>maa://39147 (100.00)</t>
         </is>
       </c>
       <c r="E145" s="14" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="D146" s="13" t="inlineStr">
         <is>
-          <t>maa://20898 (100.0)</t>
+          <t>maa://20898 (100.00)</t>
         </is>
       </c>
       <c r="E146" s="14" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="D147" s="13" t="inlineStr">
         <is>
-          <t>maa://29056 (100.0), ***maa://20901 (7.69)</t>
+          <t>maa://29056 (100.00), ***maa://20901 (1.18)</t>
         </is>
       </c>
       <c r="E147" s="14" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.0)</t>
+          <t>maa://28828 (82.50), maa://20846 (100.00), **maa://47286 (37.50)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.27), maa://36641 (98.45), maa://36865 (95.81), maa://44635 (88.07), maa://44660 (92.5), maa://41128 (84.21), maa://42918 (100.0), maa://44119 (97.44), maa://46108 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (87.63), *maa://37300 (58.76), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (96.0), maa://51923 (95.83)</t>
+          <t>maa://51549 (100.00), maa://51923 (91.95)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="D151" s="13" t="inlineStr">
         <is>
-          <t>maa://20961 (100.0)</t>
+          <t>maa://20961 (100.00)</t>
         </is>
       </c>
       <c r="E151" s="14" t="inlineStr">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="D152" s="13" t="inlineStr">
         <is>
-          <t>maa://20963 (100.0)</t>
+          <t>maa://20963 (100.00)</t>
         </is>
       </c>
       <c r="E152" s="14" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="D153" s="13" t="inlineStr">
         <is>
-          <t>maa://39148 (100.0)</t>
+          <t>maa://39148 (100.00)</t>
         </is>
       </c>
       <c r="E153" s="14" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="D154" s="13" t="inlineStr">
         <is>
-          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
+          <t>maa://20946 (100.00), maa://20833 (86.36)</t>
         </is>
       </c>
       <c r="E154" s="14" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="D155" s="13" t="inlineStr">
         <is>
-          <t>maa://20945 (88.46)</t>
+          <t>maa://20945 (100.00)</t>
         </is>
       </c>
       <c r="E155" s="14" t="inlineStr">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="D156" s="13" t="inlineStr">
         <is>
-          <t>maa://37694 (100.0)</t>
+          <t>maa://37694 (100.00)</t>
         </is>
       </c>
       <c r="E156" s="14" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="D157" s="13" t="inlineStr">
         <is>
-          <t>*maa://39149 (66.67)</t>
+          <t>maa://39149 (100.00)</t>
         </is>
       </c>
       <c r="E157" s="14" t="inlineStr">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="D158" s="13" t="inlineStr">
         <is>
-          <t>maa://20959 (90.91)</t>
+          <t>maa://20959 (100.00)</t>
         </is>
       </c>
       <c r="E158" s="14" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (98.62), maa://45603 (90.62)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://20936 (92.86)</t>
+          <t>maa://20936 (100.00)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="D161" s="13" t="inlineStr">
         <is>
-          <t>maa://20855 (94.12)</t>
+          <t>maa://20855 (100.00)</t>
         </is>
       </c>
       <c r="E161" s="14" t="inlineStr">
@@ -15717,7 +15717,7 @@
       </c>
       <c r="D162" s="13" t="inlineStr">
         <is>
-          <t>maa://40158 (100.0)</t>
+          <t>maa://40158 (100.00)</t>
         </is>
       </c>
       <c r="E162" s="14" t="inlineStr">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="D163" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (78.95), maa://29054 (100.0)</t>
+          <t>*maa://32845 (64.04), maa://29054 (100.00)</t>
         </is>
       </c>
       <c r="E163" s="14" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="D164" s="13" t="inlineStr">
         <is>
-          <t>maa://20973 (100.0)</t>
+          <t>maa://20973 (100.00)</t>
         </is>
       </c>
       <c r="E164" s="14" t="inlineStr">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="D165" s="13" t="inlineStr">
         <is>
-          <t>maa://39150 (100.0)</t>
+          <t>maa://39150 (100.00)</t>
         </is>
       </c>
       <c r="E165" s="14" t="inlineStr">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (90.91), *maa://47950 (80.0), maa://30806 (100.0)</t>
+          <t>maa://20975 (100.00), *maa://47950 (61.29), maa://30806 (91.94)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (92.0), maa://29627 (92.79), maa://29659 (86.11), maa://49074 (96.15), **maa://30679 (50.0), maa://29861 (100.0), maa://42343 (100.0)</t>
+          <t>maa://29633 (98.88), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (97.75), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (93.02), maa://49655 (96.55)</t>
+          <t>maa://49867 (97.59), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16095,7 +16095,7 @@
       </c>
       <c r="D169" s="13" t="inlineStr">
         <is>
-          <t>maa://29059 (100.0)</t>
+          <t>maa://29059 (100.00)</t>
         </is>
       </c>
       <c r="E169" s="14" t="inlineStr">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="D170" s="13" t="inlineStr">
         <is>
-          <t>maa://45556 (100.0)</t>
+          <t>maa://45556 (100.00)</t>
         </is>
       </c>
       <c r="E170" s="14" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="D171" s="13" t="inlineStr">
         <is>
-          <t>maa://40159 (100.0)</t>
+          <t>maa://40159 (100.00)</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="D172" s="13" t="inlineStr">
         <is>
-          <t>maa://39152 (100.0)</t>
+          <t>maa://39152 (100.00)</t>
         </is>
       </c>
       <c r="E172" s="14" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="D173" s="13" t="inlineStr">
         <is>
-          <t>*maa://20905 (80.0), *maa://52268 (66.67)</t>
+          <t>maa://20905 (100.00), **maa://52268 (36.21)</t>
         </is>
       </c>
       <c r="E173" s="14" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.0)</t>
+          <t>maa://59681 (100.00)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (99.69), maa://51440 (100.0), maa://63320 (100.0)</t>
+          <t>maa://32418 (100.00), maa://51440 (88.89), *maa://63320 (51.52)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (92.31)</t>
+          <t>maa://37690 (100.00)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="D177" s="13" t="inlineStr">
         <is>
-          <t>maa://20842 (94.12)</t>
+          <t>maa://20842 (100.00)</t>
         </is>
       </c>
       <c r="E177" s="14" t="inlineStr">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="D178" s="13" t="inlineStr">
         <is>
-          <t>maa://20912 (100.0)</t>
+          <t>maa://20912 (100.00)</t>
         </is>
       </c>
       <c r="E178" s="14" t="inlineStr">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="D179" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (95.65), maa://29012 (85.71)</t>
+          <t>maa://20911 (100.00), *maa://29012 (62.03)</t>
         </is>
       </c>
       <c r="E179" s="14" t="inlineStr">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="D180" s="13" t="inlineStr">
         <is>
-          <t>maa://20964 (100.0)</t>
+          <t>maa://20964 (100.00)</t>
         </is>
       </c>
       <c r="E180" s="14" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="D181" s="13" t="inlineStr">
         <is>
-          <t>maa://20983 (100.0)</t>
+          <t>maa://20983 (100.00)</t>
         </is>
       </c>
       <c r="E181" s="14" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="D182" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), *maa://20968 (66.67)</t>
+          <t>maa://31560 (100.00), **maa://20968 (31.34)</t>
         </is>
       </c>
       <c r="E182" s="14" t="inlineStr">
@@ -16851,7 +16851,7 @@
       </c>
       <c r="D183" s="13" t="inlineStr">
         <is>
-          <t>maa://28104 (100.0)</t>
+          <t>maa://28104 (100.00)</t>
         </is>
       </c>
       <c r="E183" s="14" t="inlineStr">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="D184" s="13" t="inlineStr">
         <is>
-          <t>maa://20861 (100.0)</t>
+          <t>maa://20861 (100.00)</t>
         </is>
       </c>
       <c r="E184" s="14" t="inlineStr">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="D185" s="13" t="inlineStr">
         <is>
-          <t>maa://20970 (100.0)</t>
+          <t>maa://20970 (100.00)</t>
         </is>
       </c>
       <c r="E185" s="14" t="inlineStr">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="D186" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (86.21), maa://41303 (100.0)</t>
+          <t>maa://20969 (86.25), maa://41303 (100.00)</t>
         </is>
       </c>
       <c r="E186" s="14" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
-          <t>maa://20999 (100.0)</t>
+          <t>maa://20999 (100.00)</t>
         </is>
       </c>
       <c r="E187" s="14" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="D188" s="13" t="inlineStr">
         <is>
-          <t>maa://35198 (100.0)</t>
+          <t>maa://35198 (100.00)</t>
         </is>
       </c>
       <c r="E188" s="14" t="inlineStr">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="D189" s="13" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0)</t>
+          <t>maa://39153 (100.00)</t>
         </is>
       </c>
       <c r="E189" s="14" t="inlineStr">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="D190" s="13" t="inlineStr">
         <is>
-          <t>maa://34866 (93.62), maa://34714 (96.67)</t>
+          <t>maa://34866 (100.00), maa://34714 (100.00)</t>
         </is>
       </c>
       <c r="E190" s="14" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="D191" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (93.75), maa://20895 (100.0)</t>
+          <t>maa://34883 (100.00), maa://20895 (84.72)</t>
         </is>
       </c>
       <c r="E191" s="14" t="inlineStr">
@@ -17337,7 +17337,7 @@
       </c>
       <c r="D192" s="13" t="inlineStr">
         <is>
-          <t>maa://20853 (100.0)</t>
+          <t>maa://20853 (100.00)</t>
         </is>
       </c>
       <c r="E192" s="14" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="D193" s="13" t="inlineStr">
         <is>
-          <t>maa://20942 (100.0)</t>
+          <t>maa://20942 (100.00)</t>
         </is>
       </c>
       <c r="E193" s="14" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="D194" s="13" t="inlineStr">
         <is>
-          <t>maa://20992 (100.0)</t>
+          <t>maa://20992 (100.00)</t>
         </is>
       </c>
       <c r="E194" s="14" t="inlineStr">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="D195" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (62.86), maa://20994 (100.0)</t>
+          <t>*maa://28190 (63.89), maa://20994 (100.00)</t>
         </is>
       </c>
       <c r="E195" s="14" t="inlineStr">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="D196" s="13" t="inlineStr">
         <is>
-          <t>maa://20860 (100.0)</t>
+          <t>maa://20860 (100.00)</t>
         </is>
       </c>
       <c r="E196" s="14" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (90.18), maa://35854 (86.27), maa://50388 (98.05), maa://25760 (86.96), ***maa://43911 (12.0), *maa://20872 (52.0), maa://51066 (100.0), maa://63024 (100.0)</t>
+          <t>maa://44224 (92.55), maa://35854 (82.98), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (74.47)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (93.98), *maa://39550 (55.0), *maa://53417 (71.43)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (85.06), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (85.06), *maa://28190 (62.86), maa://22894 (91.43), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (99.61), maa://49077 (93.33), maa://42292 (97.22), maa://42402 (100.0)</t>
+          <t>maa://42223 (100.00), maa://49077 (83.67), maa://42292 (87.76), *maa://42402 (69.39)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="D202" s="13" t="inlineStr">
         <is>
-          <t>maa://39154 (100.0)</t>
+          <t>maa://39154 (100.00)</t>
         </is>
       </c>
       <c r="E202" s="14" t="inlineStr">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="D203" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (92.86)</t>
+          <t>maa://20854 (100.00)</t>
         </is>
       </c>
       <c r="E203" s="14" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="D204" s="13" t="inlineStr">
         <is>
-          <t>maa://20937 (100.0)</t>
+          <t>maa://20937 (100.00)</t>
         </is>
       </c>
       <c r="E204" s="14" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
-          <t>maa://22468 (100.0)</t>
+          <t>maa://22468 (100.00)</t>
         </is>
       </c>
       <c r="E205" s="14" t="inlineStr">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
+          <t>maa://30673 (100.00), maa://30672 (90.28)</t>
         </is>
       </c>
       <c r="E206" s="14" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="D207" s="13" t="inlineStr">
         <is>
-          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
+          <t>maa://20934 (97.44), maa://20827 (98.72), maa://20828 (100.00)</t>
         </is>
       </c>
       <c r="E207" s="14" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="D208" s="13" t="inlineStr">
         <is>
-          <t>maa://20935 (100.0)</t>
+          <t>maa://20935 (100.00)</t>
         </is>
       </c>
       <c r="E208" s="14" t="inlineStr">
@@ -18255,7 +18255,7 @@
       </c>
       <c r="D209" s="13" t="inlineStr">
         <is>
-          <t>maa://53354 (100.0)</t>
+          <t>maa://53354 (100.00)</t>
         </is>
       </c>
       <c r="E209" s="14" t="inlineStr">
@@ -18309,7 +18309,7 @@
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), **maa://39217 (41.18), maa://25369 (95.0)</t>
+          <t>maa://28133 (100.00), ***maa://39217 (26.19), maa://25369 (98.81)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (96.02), *maa://20830 (80.0), maa://44703 (91.67)</t>
+          <t>maa://20956 (100.00), *maa://20830 (63.04), *maa://44703 (70.65)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
@@ -18417,7 +18417,7 @@
       </c>
       <c r="D212" s="13" t="inlineStr">
         <is>
-          <t>maa://20955 (80.95)</t>
+          <t>maa://20955 (100.00)</t>
         </is>
       </c>
       <c r="E212" s="14" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="D213" s="13" t="inlineStr">
         <is>
-          <t>maa://39238 (99.52)</t>
+          <t>maa://39238 (100.00)</t>
         </is>
       </c>
       <c r="E213" s="14" t="inlineStr">
@@ -18525,7 +18525,7 @@
       </c>
       <c r="D214" s="13" t="inlineStr">
         <is>
-          <t>maa://45261 (88.89)</t>
+          <t>maa://45261 (100.00)</t>
         </is>
       </c>
       <c r="E214" s="14" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="D215" s="13" t="inlineStr">
         <is>
-          <t>maa://39694 (100.0)</t>
+          <t>maa://39694 (100.00)</t>
         </is>
       </c>
       <c r="E215" s="14" t="inlineStr">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="D216" s="13" t="inlineStr">
         <is>
-          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
+          <t>maa://24636 (100.00), maa://25778 (86.02)</t>
         </is>
       </c>
       <c r="E216" s="14" t="inlineStr">
@@ -18687,7 +18687,7 @@
       </c>
       <c r="D217" s="13" t="inlineStr">
         <is>
-          <t>maa://48261 (100.0)</t>
+          <t>maa://48261 (100.00)</t>
         </is>
       </c>
       <c r="E217" s="14" t="inlineStr">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="D218" s="13" t="inlineStr">
         <is>
-          <t>*maa://39157 (80.0)</t>
+          <t>maa://39157 (100.00)</t>
         </is>
       </c>
       <c r="E218" s="14" t="inlineStr">
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D219" s="13" t="inlineStr">
         <is>
-          <t>***maa://26496 (30.0), *maa://20995 (54.55)</t>
+          <t>**maa://26496 (39.29), maa://20995 (100.00)</t>
         </is>
       </c>
       <c r="E219" s="14" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="D220" s="13" t="inlineStr">
         <is>
-          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
+          <t>maa://26499 (100.00), ***maa://20998 (2.86)</t>
         </is>
       </c>
       <c r="E220" s="14" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="D221" s="13" t="inlineStr">
         <is>
-          <t>maa://20858 (100.0)</t>
+          <t>maa://20858 (100.00)</t>
         </is>
       </c>
       <c r="E221" s="14" t="inlineStr">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="D222" s="13" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0), ***maa://39911 (20.0)</t>
+          <t>maa://39695 (100.00), ***maa://39911 (4.08)</t>
         </is>
       </c>
       <c r="E222" s="14" t="inlineStr">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="D223" s="13" t="inlineStr">
         <is>
-          <t>maa://20988 (90.0)</t>
+          <t>maa://20988 (100.00)</t>
         </is>
       </c>
       <c r="E223" s="14" t="inlineStr">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="D224" s="13" t="inlineStr">
         <is>
-          <t>maa://39158 (100.0)</t>
+          <t>maa://39158 (100.00)</t>
         </is>
       </c>
       <c r="E224" s="14" t="inlineStr">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="D225" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (97.67), maa://43531 (100.0), maa://39520 (100.0)</t>
+          <t>maa://28187 (100.00), **maa://43531 (38.64), *maa://39520 (57.95)</t>
         </is>
       </c>
       <c r="E225" s="14" t="inlineStr">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="D226" s="13" t="inlineStr">
         <is>
-          <t>maa://20985 (100.0)</t>
+          <t>maa://20985 (100.00)</t>
         </is>
       </c>
       <c r="E226" s="14" t="inlineStr">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="D227" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (93.88), *maa://35801 (77.78)</t>
+          <t>maa://20987 (100.00), *maa://35801 (51.72)</t>
         </is>
       </c>
       <c r="E227" s="14" t="inlineStr">
@@ -19281,7 +19281,7 @@
       </c>
       <c r="D228" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (72.55), maa://39159 (96.77), ***maa://30061 (27.27)</t>
+          <t>*maa://29644 (70.24), maa://39159 (100.00), ***maa://30061 (11.90)</t>
         </is>
       </c>
       <c r="E228" s="14" t="inlineStr">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="D229" s="13" t="inlineStr">
         <is>
-          <t>maa://30677 (100.0)</t>
+          <t>maa://30677 (100.00)</t>
         </is>
       </c>
       <c r="E229" s="14" t="inlineStr">
@@ -19389,7 +19389,7 @@
       </c>
       <c r="D230" s="13" t="inlineStr">
         <is>
-          <t>maa://20896 (100.0)</t>
+          <t>maa://20896 (100.00)</t>
         </is>
       </c>
       <c r="E230" s="14" t="inlineStr">
@@ -19443,7 +19443,7 @@
       </c>
       <c r="D231" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (96.2), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (96.74), maa://39140 (100.00), *maa://38723 (73.91)</t>
         </is>
       </c>
       <c r="E231" s="14" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="D232" s="13" t="inlineStr">
         <is>
-          <t>*maa://48263 (76.92)</t>
+          <t>maa://48263 (100.00)</t>
         </is>
       </c>
       <c r="E232" s="14" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="D233" s="13" t="inlineStr">
         <is>
-          <t>maa://39160 (100.0)</t>
+          <t>maa://39160 (100.00)</t>
         </is>
       </c>
       <c r="E233" s="14" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="D234" s="13" t="inlineStr">
         <is>
-          <t>maa://49491 (91.67)</t>
+          <t>maa://49491 (100.00)</t>
         </is>
       </c>
       <c r="E234" s="14" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="D235" s="13" t="inlineStr">
         <is>
-          <t>maa://35952 (100.0)</t>
+          <t>maa://35952 (100.00)</t>
         </is>
       </c>
       <c r="E235" s="14" t="inlineStr">
@@ -19713,7 +19713,7 @@
       </c>
       <c r="D236" s="13" t="inlineStr">
         <is>
-          <t>maa://20917 (98.39)</t>
+          <t>maa://20917 (100.00)</t>
         </is>
       </c>
       <c r="E236" s="14" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="D237" s="15" t="inlineStr">
         <is>
-          <t>maa://30714 (97.67), maa://30675 (100.0)</t>
+          <t>maa://30714 (100.00), maa://30675 (87.50)</t>
         </is>
       </c>
       <c r="E237" s="14" t="inlineStr">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (94.29), *maa://32623 (76.19), maa://34242 (85.71)</t>
+          <t>maa://20922 (100.00), *maa://32623 (63.95), *maa://34242 (56.98)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
@@ -19875,7 +19875,7 @@
       </c>
       <c r="D239" s="13" t="inlineStr">
         <is>
-          <t>maa://32999 (100.0)</t>
+          <t>maa://32999 (100.00)</t>
         </is>
       </c>
       <c r="E239" s="14" t="inlineStr">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667 (78.69), maa://30666 (83.55), **maa://30739 (43.24), *maa://30723 (56.45), maa://39588 (89.29)</t>
+          <t>maa://30667 (94.94), maa://30666 (98.73), **maa://30739 (36.71), *maa://30723 (55.70), maa://39588 (100.00)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.0), maa://62764 (100.0)</t>
+          <t>maa://62759 (100.00), **maa://62764 (44.74)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20037,7 +20037,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://30512 (100.0)</t>
+          <t>maa://30512 (100.00)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="D243" s="13" t="inlineStr">
         <is>
-          <t>maa://20870 (100.0)</t>
+          <t>maa://20870 (100.00)</t>
         </is>
       </c>
       <c r="E243" s="14" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://29024 (100.0)</t>
+          <t>maa://29024 (100.00)</t>
         </is>
       </c>
       <c r="E244" s="14" t="inlineStr">
@@ -20199,7 +20199,7 @@
       </c>
       <c r="D245" s="13" t="inlineStr">
         <is>
-          <t>maa://20867 (93.33), maa://38485 (96.3), *maa://32202 (80.0)</t>
+          <t>maa://20867 (85.37), maa://38485 (100.00), **maa://32202 (46.34)</t>
         </is>
       </c>
       <c r="E245" s="14" t="inlineStr">
@@ -20253,7 +20253,7 @@
       </c>
       <c r="D246" s="13" t="inlineStr">
         <is>
-          <t>maa://40160 (100.0)</t>
+          <t>maa://40160 (100.00)</t>
         </is>
       </c>
       <c r="E246" s="14" t="inlineStr">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="D247" s="13" t="inlineStr">
         <is>
-          <t>maa://43089 (100.0)</t>
+          <t>maa://43089 (100.00)</t>
         </is>
       </c>
       <c r="E247" s="14" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="D248" s="13" t="inlineStr">
         <is>
-          <t>maa://30674 (90.0)</t>
+          <t>maa://30674 (100.00)</t>
         </is>
       </c>
       <c r="E248" s="14" t="inlineStr">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (91.54), maa://28906 (98.28), ***maa://28825 (11.54)</t>
+          <t>maa://28923 (95.60), maa://28906 (100.00), ***maa://28825 (4.40)</t>
         </is>
       </c>
       <c r="E249" s="14" t="inlineStr">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="D250" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (89.8), maa://45570 (96.49), maa://42225 (100.0), maa://60678 (100.0)</t>
+          <t>maa://42287 (93.18), maa://45570 (100.00), maa://42225 (86.36), ***maa://60678 (23.86)</t>
         </is>
       </c>
       <c r="E250" s="14" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://39161 (100.0)</t>
+          <t>maa://39161 (100.00)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (92.86), *maa://60577 (75.0)</t>
+          <t>maa://20923 (100.00), **maa://60577 (38.96)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="D253" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.87), maa://20924 (95.24), **maa://49440 (42.86)</t>
+          <t>maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), ***maa://49440 (16.84)</t>
         </is>
       </c>
       <c r="E253" s="14" t="inlineStr">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (89.66), *maa://45067 (75.0)</t>
+          <t>maa://40958 (100.00), *maa://45067 (55.41)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="D255" s="13" t="inlineStr">
         <is>
-          <t>maa://20840 (100.0)</t>
+          <t>maa://20840 (100.00)</t>
         </is>
       </c>
       <c r="E255" s="14" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="D256" s="13" t="inlineStr">
         <is>
-          <t>maa://20877 (98.75), *maa://45067 (75.0), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://20877 (100.00), **maa://45067 (44.09), **maa://20836 (47.31), ***maa://20632 (22.58)</t>
         </is>
       </c>
       <c r="E256" s="14" t="inlineStr">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="D257" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
+          <t>maa://20879 (100.00), maa://20834 (89.61)</t>
         </is>
       </c>
       <c r="E257" s="14" t="inlineStr">
@@ -20901,7 +20901,7 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20839 (100.0)</t>
+          <t>maa://20839 (100.00)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="D259" s="13" t="inlineStr">
         <is>
-          <t>maa://30676 (100.0)</t>
+          <t>maa://30676 (100.00)</t>
         </is>
       </c>
       <c r="E259" s="14" t="inlineStr">
@@ -21009,7 +21009,7 @@
       </c>
       <c r="D260" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (92.31), maa://20884 (96.3)</t>
+          <t>maa://31560 (81.71), maa://20884 (100.00)</t>
         </is>
       </c>
       <c r="E260" s="14" t="inlineStr">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="D261" s="13" t="inlineStr">
         <is>
-          <t>maa://47204 (100.0)</t>
+          <t>maa://47204 (100.00)</t>
         </is>
       </c>
       <c r="E261" s="14" t="inlineStr">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="D262" s="13" t="inlineStr">
         <is>
-          <t>maa://29027 (98.11)</t>
+          <t>maa://29027 (100.00)</t>
         </is>
       </c>
       <c r="E262" s="14" t="inlineStr">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="D263" s="13" t="inlineStr">
         <is>
-          <t>maa://20977 (100.0)</t>
+          <t>maa://20977 (100.00)</t>
         </is>
       </c>
       <c r="E263" s="14" t="inlineStr">
@@ -21225,7 +21225,7 @@
       </c>
       <c r="D264" s="13" t="inlineStr">
         <is>
-          <t>maa://39162 (100.0)</t>
+          <t>maa://39162 (100.00)</t>
         </is>
       </c>
       <c r="E264" s="14" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="D265" s="13" t="inlineStr">
         <is>
-          <t>maa://59682 (100.0)</t>
+          <t>maa://59682 (100.00)</t>
         </is>
       </c>
       <c r="E265" s="14" t="inlineStr">
@@ -21333,7 +21333,7 @@
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://22467 (95.92)</t>
+          <t>maa://22467 (100.00)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="D267" s="13" t="inlineStr">
         <is>
-          <t>**maa://30678 (37.5), maa://59689 (100.0)</t>
+          <t>*maa://30678 (66.67), maa://59689 (100.00)</t>
         </is>
       </c>
       <c r="E267" s="14" t="inlineStr">
@@ -21441,7 +21441,7 @@
       </c>
       <c r="D268" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (91.43)</t>
+          <t>maa://49643 (100.00)</t>
         </is>
       </c>
       <c r="E268" s="14" t="inlineStr">
@@ -21495,7 +21495,7 @@
       </c>
       <c r="D269" s="13" t="inlineStr">
         <is>
-          <t>maa://48265 (83.33)</t>
+          <t>maa://48265 (100.00)</t>
         </is>
       </c>
       <c r="E269" s="14" t="inlineStr">
@@ -21549,7 +21549,7 @@
       </c>
       <c r="D270" s="13" t="inlineStr">
         <is>
-          <t>*maa://20825 (72.41), *maa://21445 (72.22), *maa://35726 (61.54), ***maa://20891 (30.0)</t>
+          <t>maa://20825 (100.00), maa://21445 (90.74), *maa://35726 (66.67), ***maa://20891 (20.37)</t>
         </is>
       </c>
       <c r="E270" s="14" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="D271" s="13" t="inlineStr">
         <is>
-          <t>maa://25769 (97.48)</t>
+          <t>maa://25769 (100.00)</t>
         </is>
       </c>
       <c r="E271" s="14" t="inlineStr">
@@ -21640,27 +21640,27 @@
       <c r="AF271" s="8" t="n"/>
     </row>
     <row r="272" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A272" s="24" t="inlineStr">
+      <c r="A272" s="11" t="inlineStr">
         <is>
           <t>百炼嘉维尔</t>
         </is>
       </c>
-      <c r="B272" s="24" t="inlineStr">
+      <c r="B272" s="11" t="inlineStr">
         <is>
           <t>RI-9</t>
         </is>
       </c>
-      <c r="C272" s="25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D272" s="26" t="inlineStr">
-        <is>
-          <t>**maa://62757 (36.84)</t>
-        </is>
-      </c>
-      <c r="E272" s="27" t="inlineStr">
+      <c r="C272" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D272" s="13" t="inlineStr">
+        <is>
+          <t>maa://62757 (100.00)</t>
+        </is>
+      </c>
+      <c r="E272" s="14" t="inlineStr">
         <is>
           <t>&gt; 由非助战百炼嘉维尔累计造成40歼灭数&gt; 3星通关插曲RI-9；必须编入非助战百炼嘉维尔并上场，且所有干员不被击倒</t>
         </is>
@@ -21711,7 +21711,7 @@
       </c>
       <c r="D273" s="13" t="inlineStr">
         <is>
-          <t>maa://20862 (83.33)</t>
+          <t>maa://20862 (100.00)</t>
         </is>
       </c>
       <c r="E273" s="14" t="inlineStr">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (99.26), maa://51630 (96.7), maa://56588 (95.24), *maa://55171 (57.14), maa://51893 (88.89), ***maa://60902 (25.0)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.86), *maa://56588 (78.57), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (7.14)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://39163 (100.0)</t>
+          <t>maa://39163 (100.00)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -21873,7 +21873,7 @@
       </c>
       <c r="D276" s="13" t="inlineStr">
         <is>
-          <t>maa://29061 (100.0)</t>
+          <t>maa://29061 (100.00)</t>
         </is>
       </c>
       <c r="E276" s="14" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="D277" s="13" t="inlineStr">
         <is>
-          <t>maa://20939 (81.82)</t>
+          <t>maa://20939 (100.00)</t>
         </is>
       </c>
       <c r="E277" s="14" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D278" s="13" t="inlineStr">
         <is>
-          <t>maa://39164 (100.0)</t>
+          <t>maa://39164 (100.00)</t>
         </is>
       </c>
       <c r="E278" s="14" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="D279" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (93.1), maa://33394 (100.0)</t>
+          <t>maa://28133 (100.00), maa://33394 (92.86)</t>
         </is>
       </c>
       <c r="E279" s="14" t="inlineStr">
@@ -22089,7 +22089,7 @@
       </c>
       <c r="D280" s="13" t="inlineStr">
         <is>
-          <t>maa://42311 (100.0)</t>
+          <t>maa://42311 (100.00)</t>
         </is>
       </c>
       <c r="E280" s="14" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="D281" s="13" t="inlineStr">
         <is>
-          <t>maa://41362 (100.0)</t>
+          <t>maa://41362 (100.00)</t>
         </is>
       </c>
       <c r="E281" s="14" t="inlineStr">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="D282" s="13" t="inlineStr">
         <is>
-          <t>maa://20978 (100.0)</t>
+          <t>maa://20978 (100.00)</t>
         </is>
       </c>
       <c r="E282" s="14" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="D283" s="13" t="inlineStr">
         <is>
-          <t>maa://21002 (100.0)</t>
+          <t>maa://21002 (100.00)</t>
         </is>
       </c>
       <c r="E283" s="14" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="D284" s="13" t="inlineStr">
         <is>
-          <t>*maa://39165 (63.64)</t>
+          <t>maa://39165 (100.00)</t>
         </is>
       </c>
       <c r="E284" s="14" t="inlineStr">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="D285" s="13" t="inlineStr">
         <is>
-          <t>maa://48267 (100.0), maa://48266 (100.0)</t>
+          <t>maa://48267 (100.00), maa://48266 (93.85)</t>
         </is>
       </c>
       <c r="E285" s="14" t="inlineStr">
@@ -22413,7 +22413,7 @@
       </c>
       <c r="D286" s="13" t="inlineStr">
         <is>
-          <t>maa://29635 (100.0)</t>
+          <t>maa://29635 (100.00)</t>
         </is>
       </c>
       <c r="E286" s="14" t="inlineStr">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="D287" s="13" t="inlineStr">
         <is>
-          <t>maa://38296 (90.62)</t>
+          <t>maa://38296 (100.00)</t>
         </is>
       </c>
       <c r="E287" s="14" t="inlineStr">
@@ -22521,7 +22521,7 @@
       </c>
       <c r="D288" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (89.77), maa://46332 (96.15), ***maa://44744 (25.0)</t>
+          <t>maa://20899 (100.00), maa://46332 (96.43), ***maa://44744 (5.95)</t>
         </is>
       </c>
       <c r="E288" s="14" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="D289" s="13" t="inlineStr">
         <is>
-          <t>maa://53353 (100.0)</t>
+          <t>maa://53353 (100.00)</t>
         </is>
       </c>
       <c r="E289" s="14" t="inlineStr">
@@ -22629,7 +22629,7 @@
       </c>
       <c r="D290" s="13" t="inlineStr">
         <is>
-          <t>maa://20881 (100.0)</t>
+          <t>maa://20881 (100.00)</t>
         </is>
       </c>
       <c r="E290" s="14" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="D291" s="13" t="inlineStr">
         <is>
-          <t>maa://30710 (97.89), maa://36845 (95.74), maa://31558 (97.14), **maa://39217 (41.18), maa://30668 (86.67)</t>
+          <t>maa://30710 (100.00), maa://36845 (96.81), maa://31558 (90.43), ***maa://39217 (23.40), *maa://30668 (74.47)</t>
         </is>
       </c>
       <c r="E291" s="14" t="inlineStr">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="D292" s="13" t="inlineStr">
         <is>
-          <t>maa://20902 (100.0)</t>
+          <t>maa://20902 (100.00)</t>
         </is>
       </c>
       <c r="E292" s="14" t="inlineStr">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D293" s="13" t="inlineStr">
         <is>
-          <t>maa://29159 (100.0)</t>
+          <t>maa://29159 (100.00)</t>
         </is>
       </c>
       <c r="E293" s="14" t="inlineStr">
@@ -22845,7 +22845,7 @@
       </c>
       <c r="D294" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (97.18), maa://28133 (93.1), maa://22469 (92.86), **maa://39217 (41.18), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.00), maa://28133 (93.33), maa://22469 (92.22), ***maa://39217 (24.44), ***maa://31349 (27.78)</t>
         </is>
       </c>
       <c r="E294" s="14" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="D295" s="13" t="inlineStr">
         <is>
-          <t>maa://47882 (100.0)</t>
+          <t>maa://47882 (100.00)</t>
         </is>
       </c>
       <c r="E295" s="14" t="inlineStr">
@@ -22953,7 +22953,7 @@
       </c>
       <c r="D296" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (98.8), maa://32505 (100.0), maa://39155 (97.44)</t>
+          <t>maa://32414 (100.00), *maa://32505 (67.01), maa://39155 (89.69)</t>
         </is>
       </c>
       <c r="E296" s="14" t="inlineStr">
@@ -23007,7 +23007,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.0), maa://57199 (100.0)</t>
+          <t>maa://45799 (100.00), maa://57199 (89.36)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -23061,7 +23061,7 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://42312 (100.0)</t>
+          <t>maa://42312 (100.00)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
@@ -23115,7 +23115,7 @@
       </c>
       <c r="D299" s="13" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (97.06), maa://39155 (97.44)</t>
+          <t>maa://36642 (100.00), maa://36867 (86.73), maa://39155 (88.78)</t>
         </is>
       </c>
       <c r="E299" s="14" t="inlineStr">
@@ -23169,7 +23169,7 @@
       </c>
       <c r="D300" s="13" t="inlineStr">
         <is>
-          <t>**maa://39166 (50.0), maa://39167 (100.0)</t>
+          <t>***maa://39166 (26.47), maa://39167 (100.00)</t>
         </is>
       </c>
       <c r="E300" s="14" t="inlineStr">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="D301" s="13" t="inlineStr">
         <is>
-          <t>maa://29005 (98.77), maa://31560 (92.31)</t>
+          <t>maa://29005 (100.00), *maa://31560 (72.04)</t>
         </is>
       </c>
       <c r="E301" s="14" t="inlineStr">
@@ -23277,7 +23277,7 @@
       </c>
       <c r="D302" s="13" t="inlineStr">
         <is>
-          <t>maa://39168 (100.0)</t>
+          <t>maa://39168 (100.00)</t>
         </is>
       </c>
       <c r="E302" s="14" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="D303" s="13" t="inlineStr">
         <is>
-          <t>maa://39169 (100.0)</t>
+          <t>maa://39169 (100.00)</t>
         </is>
       </c>
       <c r="E303" s="14" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="D304" s="13" t="inlineStr">
         <is>
-          <t>maa://39170 (100.0)</t>
+          <t>maa://39170 (100.00)</t>
         </is>
       </c>
       <c r="E304" s="14" t="inlineStr">
@@ -23439,7 +23439,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (97.63), maa://49642 (97.03), maa://49660 (90.91), *maa://50517 (80.0)</t>
+          <t>maa://50280 (100.00), maa://49642 (96.84), *maa://49660 (80.00), **maa://50517 (40.00)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://39171 (100.0)</t>
+          <t>maa://39171 (100.00)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="D307" s="13" t="inlineStr">
         <is>
-          <t>maa://27939 (100.0)</t>
+          <t>maa://27939 (100.00)</t>
         </is>
       </c>
       <c r="E307" s="14" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="D308" s="13" t="inlineStr">
         <is>
-          <t>maa://53352 (100.0)</t>
+          <t>maa://53352 (100.00)</t>
         </is>
       </c>
       <c r="E308" s="14" t="inlineStr">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="D309" s="13" t="inlineStr">
         <is>
-          <t>maa://29129 (100.0)</t>
+          <t>maa://29129 (100.00)</t>
         </is>
       </c>
       <c r="E309" s="14" t="inlineStr">
@@ -23709,7 +23709,7 @@
       </c>
       <c r="D310" s="13" t="inlineStr">
         <is>
-          <t>maa://36005 (93.33)</t>
+          <t>maa://36005 (100.00)</t>
         </is>
       </c>
       <c r="E310" s="14" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="D311" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (97.78)</t>
+          <t>maa://35859 (100.00)</t>
         </is>
       </c>
       <c r="E311" s="14" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>maa://53348 (95.24)</t>
+          <t>maa://53348 (100.00)</t>
         </is>
       </c>
       <c r="E312" s="14" t="inlineStr">
@@ -23871,7 +23871,7 @@
       </c>
       <c r="D313" s="13" t="inlineStr">
         <is>
-          <t>**maa://39172 (50.0)</t>
+          <t>maa://39172 (100.00)</t>
         </is>
       </c>
       <c r="E313" s="14" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="D314" s="13" t="inlineStr">
         <is>
-          <t>maa://39173 (100.0)</t>
+          <t>maa://39173 (100.00)</t>
         </is>
       </c>
       <c r="E314" s="14" t="inlineStr">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="D315" s="13" t="inlineStr">
         <is>
-          <t>maa://25775 (92.22), *maa://25393 (75.0)</t>
+          <t>maa://25775 (100.00), *maa://25393 (60.00)</t>
         </is>
       </c>
       <c r="E315" s="14" t="inlineStr">
@@ -24033,7 +24033,7 @@
       </c>
       <c r="D316" s="13" t="inlineStr">
         <is>
-          <t>maa://40161 (100.0)</t>
+          <t>maa://40161 (100.00)</t>
         </is>
       </c>
       <c r="E316" s="14" t="inlineStr">
@@ -24087,7 +24087,7 @@
       </c>
       <c r="D317" s="13" t="inlineStr">
         <is>
-          <t>maa://25367 (99.31)</t>
+          <t>maa://25367 (100.00)</t>
         </is>
       </c>
       <c r="E317" s="14" t="inlineStr">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>maa://62761 (85.71), **maa://62755 (44.44)</t>
+          <t>maa://62761 (100.00), **maa://62755 (38.78)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>*maa://43090 (57.14)</t>
+          <t>maa://43090 (100.00)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
@@ -24249,7 +24249,7 @@
       </c>
       <c r="D320" s="13" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>maa://28070 (100.00)</t>
         </is>
       </c>
       <c r="E320" s="14" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="D321" s="13" t="inlineStr">
         <is>
-          <t>maa://28241 (100.0)</t>
+          <t>maa://28241 (100.00)</t>
         </is>
       </c>
       <c r="E321" s="14" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="D322" s="13" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (71.43)</t>
+          <t>maa://25773 (100.00), **maa://26088 (41.86)</t>
         </is>
       </c>
       <c r="E322" s="14" t="inlineStr">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="D323" s="13" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://39239 (100.00)</t>
         </is>
       </c>
       <c r="E323" s="14" t="inlineStr">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="D324" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (99.63), maa://39810 (86.36)</t>
+          <t>maa://39692 (100.00), *maa://39810 (67.68)</t>
         </is>
       </c>
       <c r="E324" s="14" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>*maa://39174 (75.0)</t>
+          <t>maa://39174 (100.00)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="D326" s="13" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>maa://39175 (100.00)</t>
         </is>
       </c>
       <c r="E326" s="14" t="inlineStr">
@@ -24627,7 +24627,7 @@
       </c>
       <c r="D327" s="13" t="inlineStr">
         <is>
-          <t>maa://34867 (96.23), maa://34715 (100.0)</t>
+          <t>maa://34867 (100.00), maa://34715 (88.51)</t>
         </is>
       </c>
       <c r="E327" s="14" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="D328" s="13" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://39176 (100.00)</t>
         </is>
       </c>
       <c r="E328" s="14" t="inlineStr">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="D329" s="13" t="inlineStr">
         <is>
-          <t>maa://42316 (88.89)</t>
+          <t>maa://42316 (100.00)</t>
         </is>
       </c>
       <c r="E329" s="14" t="inlineStr">
@@ -24789,7 +24789,7 @@
       </c>
       <c r="D330" s="13" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0), maa://41360 (100.0)</t>
+          <t>maa://30680 (100.00), ***maa://41360 (25.93)</t>
         </is>
       </c>
       <c r="E330" s="14" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="D331" s="15" t="inlineStr">
         <is>
-          <t>maa://40956 (93.68)</t>
+          <t>maa://40956 (100.00)</t>
         </is>
       </c>
       <c r="E331" s="15" t="inlineStr">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="D332" s="15" t="inlineStr">
         <is>
-          <t>maa://59688 (100.0)</t>
+          <t>maa://59688 (100.00)</t>
         </is>
       </c>
       <c r="E332" s="15" t="inlineStr">
@@ -24951,7 +24951,7 @@
       </c>
       <c r="D333" s="15" t="inlineStr">
         <is>
-          <t>maa://34205 (90.0), *maa://39541 (75.0)</t>
+          <t>maa://34205 (100.00), **maa://39541 (50.00)</t>
         </is>
       </c>
       <c r="E333" s="15" t="inlineStr">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="D334" s="15" t="inlineStr">
         <is>
-          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
+          <t>maa://43092 (100.00), maa://43093 (85.37)</t>
         </is>
       </c>
       <c r="E334" s="15" t="inlineStr">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="D335" s="15" t="inlineStr">
         <is>
-          <t>maa://44234 (99.12)</t>
+          <t>maa://44234 (100.00)</t>
         </is>
       </c>
       <c r="E335" s="15" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="D336" s="15" t="inlineStr">
         <is>
-          <t>maa://42968 (99.1), maa://49245 (100.0)</t>
+          <t>maa://42968 (100.00), maa://49245 (92.86)</t>
         </is>
       </c>
       <c r="E336" s="15" t="inlineStr">
@@ -25167,7 +25167,7 @@
       </c>
       <c r="D337" s="15" t="inlineStr">
         <is>
-          <t>*maa://40162 (71.43)</t>
+          <t>maa://40162 (100.00)</t>
         </is>
       </c>
       <c r="E337" s="15" t="inlineStr">
@@ -25221,7 +25221,7 @@
       </c>
       <c r="D338" s="22" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://37692 (100.00)</t>
         </is>
       </c>
       <c r="E338" s="22" t="inlineStr">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="D339" s="22" t="inlineStr">
         <is>
-          <t>maa://30671 (81.12), maa://30669 (99.25), maa://37275 (82.93), *maa://32410 (66.67), maa://41605 (100.0)</t>
+          <t>*maa://30671 (78.12), maa://30669 (100.00), *maa://37275 (71.88), **maa://32410 (40.63), *maa://41605 (67.71)</t>
         </is>
       </c>
       <c r="E339" s="22" t="inlineStr">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (95.1), maa://49332 (100.0)</t>
+          <t>maa://38295 (100.00), maa://49332 (80.90)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="D341" s="22" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://32417 (100.00)</t>
         </is>
       </c>
       <c r="E341" s="22" t="inlineStr">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="D342" s="22" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://32419 (100.00)</t>
         </is>
       </c>
       <c r="E342" s="22" t="inlineStr">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="D343" s="22" t="inlineStr">
         <is>
-          <t>maa://32416 (92.06)</t>
+          <t>maa://32416 (100.00)</t>
         </is>
       </c>
       <c r="E343" s="22" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="D344" s="22" t="inlineStr">
         <is>
-          <t>maa://45800 (100.0)</t>
+          <t>maa://45800 (100.00)</t>
         </is>
       </c>
       <c r="E344" s="22" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (97.89), maa://32415 (96.82), maa://34677 (100.0), maa://32892 (100.0), maa://32653 (85.71), maa://61275 (100.0), maa://61839 (100.0)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (62.50), ***maa://61275 (21.88), **maa://61839 (35.42)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="D346" s="22" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://32420 (100.00)</t>
         </is>
       </c>
       <c r="E346" s="22" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="D347" s="22" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://35606 (100.00)</t>
         </is>
       </c>
       <c r="E347" s="22" t="inlineStr">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://34716 (87.5)</t>
+          <t>maa://34716 (100.00)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="D349" s="22" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://39179 (100.00)</t>
         </is>
       </c>
       <c r="E349" s="22" t="inlineStr">
@@ -25869,7 +25869,7 @@
       </c>
       <c r="D350" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (97.88), maa://34717 (94.2), *maa://45066 (71.43)</t>
+          <t>maa://34865 (100.00), maa://34717 (90.53), **maa://45066 (37.89)</t>
         </is>
       </c>
       <c r="E350" s="22" t="inlineStr">
@@ -25923,7 +25923,7 @@
       </c>
       <c r="D351" s="22" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://39180 (100.00)</t>
         </is>
       </c>
       <c r="E351" s="22" t="inlineStr">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="D352" s="22" t="inlineStr">
         <is>
-          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
+          <t>maa://45834 (100.00), *maa://45833 (66.67)</t>
         </is>
       </c>
       <c r="E352" s="22" t="inlineStr">
@@ -26031,7 +26031,7 @@
       </c>
       <c r="D353" s="22" t="inlineStr">
         <is>
-          <t>maa://39181 (88.89)</t>
+          <t>maa://39181 (100.00)</t>
         </is>
       </c>
       <c r="E353" s="22" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (99.72), maa://35996 (97.75), **maa://39217 (41.18), maa://47349 (95.74)</t>
+          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (22.45), maa://47349 (87.76)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.57), maa://49695 (100.0), maa://49758 (98.51), *maa://59402 (60.0), *maa://52357 (73.33), **maa://63091 (50.0)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (41.00), **maa://52357 (48.00), ***maa://63091 (9.00)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
@@ -26193,7 +26193,7 @@
       </c>
       <c r="D356" s="22" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://36647 (100.00)</t>
         </is>
       </c>
       <c r="E356" s="22" t="inlineStr">
@@ -26247,7 +26247,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (97.67), maa://42224 (83.33)</t>
+          <t>maa://42299 (100.00), *maa://42224 (69.32)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (96.0), *maa://49662 (76.47)</t>
+          <t>maa://49648 (100.00), *maa://49662 (60.92)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="D359" s="22" t="inlineStr">
         <is>
-          <t>maa://36646 (98.81), maa://36845 (95.74), **maa://39217 (41.18), maa://51007 (98.21)</t>
+          <t>maa://36646 (100.00), maa://36845 (92.86), ***maa://39217 (22.45), maa://51007 (92.86)</t>
         </is>
       </c>
       <c r="E359" s="22" t="inlineStr">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://36645 (98.39), maa://36841 (92.65), maa://37484 (94.23), maa://37858 (93.55), *maa://56268 (60.0), maa://40489 (100.0)</t>
+          <t>maa://36645 (100.00), maa://36841 (86.60), maa://37484 (86.60), maa://37858 (81.44), ***maa://56268 (23.71), **maa://40489 (35.05)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
@@ -26463,7 +26463,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (95.92), maa://50629 (100.0), maa://48859 (100.0)</t>
+          <t>maa://42635 (100.00), **maa://50629 (39.53), **maa://48859 (39.53)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="D362" s="22" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://39183 (100.00)</t>
         </is>
       </c>
       <c r="E362" s="22" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="D363" s="22" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://39184 (100.00)</t>
         </is>
       </c>
       <c r="E363" s="22" t="inlineStr">
@@ -26625,7 +26625,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (94.27), maa://44635 (88.07), maa://48026 (93.86), maa://41035 (93.15), maa://44660 (92.5), maa://41128 (84.21), *maa://60251 (69.23)</t>
+          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (45.65)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -26679,7 +26679,7 @@
       </c>
       <c r="D365" s="22" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://40164 (100.00)</t>
         </is>
       </c>
       <c r="E365" s="22" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="D366" s="22" t="inlineStr">
         <is>
-          <t>maa://48268 (91.67)</t>
+          <t>maa://48268 (100.00)</t>
         </is>
       </c>
       <c r="E366" s="22" t="inlineStr">
@@ -26787,7 +26787,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://40165 (100.00)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26841,7 +26841,7 @@
       </c>
       <c r="D368" s="22" t="inlineStr">
         <is>
-          <t>maa://45798 (98.51)</t>
+          <t>maa://45798 (100.00)</t>
         </is>
       </c>
       <c r="E368" s="22" t="inlineStr">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>maa://42331 (100.00)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -26949,7 +26949,7 @@
       </c>
       <c r="D370" s="22" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://50518 (100.0), maa://41977 (100.0)</t>
+          <t>maa://42333 (100.00), *maa://50518 (57.30), *maa://41977 (57.30)</t>
         </is>
       </c>
       <c r="E370" s="22" t="inlineStr">
@@ -27003,7 +27003,7 @@
       </c>
       <c r="D371" s="22" t="inlineStr">
         <is>
-          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
+          <t>maa://42338 (100.00), **maa://41976 (30.88)</t>
         </is>
       </c>
       <c r="E371" s="22" t="inlineStr">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="D372" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (98.43), maa://45605 (88.89)</t>
+          <t>maa://41110 (100.00), *maa://45605 (59.57)</t>
         </is>
       </c>
       <c r="E372" s="22" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="D373" s="22" t="inlineStr">
         <is>
-          <t>maa://42343 (100.0)</t>
+          <t>maa://42343 (100.00)</t>
         </is>
       </c>
       <c r="E373" s="22" t="inlineStr">
@@ -27165,7 +27165,7 @@
       </c>
       <c r="D374" s="22" t="inlineStr">
         <is>
-          <t>maa://43095 (100.0)</t>
+          <t>maa://43095 (100.00)</t>
         </is>
       </c>
       <c r="E374" s="22" t="inlineStr">
@@ -27219,7 +27219,7 @@
       </c>
       <c r="D375" s="22" t="inlineStr">
         <is>
-          <t>maa://44233 (91.23), maa://45570 (96.49)</t>
+          <t>maa://44233 (92.05), maa://45570 (100.00)</t>
         </is>
       </c>
       <c r="E375" s="22" t="inlineStr">
@@ -27273,7 +27273,7 @@
       </c>
       <c r="D376" s="22" t="inlineStr">
         <is>
-          <t>maa://43097 (87.5)</t>
+          <t>maa://43097 (100.00)</t>
         </is>
       </c>
       <c r="E376" s="22" t="inlineStr">
@@ -27327,7 +27327,7 @@
       </c>
       <c r="D377" s="22" t="inlineStr">
         <is>
-          <t>maa://43872 (92.31)</t>
+          <t>maa://43872 (100.00)</t>
         </is>
       </c>
       <c r="E377" s="22" t="inlineStr">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="D378" s="22" t="inlineStr">
         <is>
-          <t>*maa://53307 (63.16)</t>
+          <t>maa://53307 (100.00)</t>
         </is>
       </c>
       <c r="E378" s="22" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://43875 (98.28)</t>
+          <t>maa://43875 (100.00)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.71), maa://44745 (97.59), **maa://49516 (37.5), *maa://45952 (72.73), ***maa://46851 (14.29), *maa://44896 (77.78)</t>
+          <t>maa://42970 (82.98), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="D381" s="22" t="inlineStr">
         <is>
-          <t>maa://44389 (100.0)</t>
+          <t>maa://44389 (100.00)</t>
         </is>
       </c>
       <c r="E381" s="22" t="inlineStr">
@@ -27597,7 +27597,7 @@
       </c>
       <c r="D382" s="22" t="inlineStr">
         <is>
-          <t>maa://59690 (100.0)</t>
+          <t>maa://59690 (100.00)</t>
         </is>
       </c>
       <c r="E382" s="22" t="inlineStr">
@@ -27651,7 +27651,7 @@
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://48113 (100.0)</t>
+          <t>maa://48113 (100.00)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
@@ -27705,7 +27705,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>maa://45807 (100.00)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -27759,7 +27759,7 @@
       </c>
       <c r="D385" s="22" t="inlineStr">
         <is>
-          <t>maa://50552 (100.0)</t>
+          <t>maa://50552 (100.00)</t>
         </is>
       </c>
       <c r="E385" s="22" t="inlineStr">
@@ -27813,7 +27813,7 @@
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>*maa://47175 (66.67), maa://47174 (100.0)</t>
+          <t>maa://47175 (100.00), maa://47174 (100.00)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">
@@ -27867,7 +27867,7 @@
       </c>
       <c r="D387" s="22" t="inlineStr">
         <is>
-          <t>maa://47023 (89.19)</t>
+          <t>maa://47023 (100.00)</t>
         </is>
       </c>
       <c r="E387" s="22" t="inlineStr">
@@ -27921,7 +27921,7 @@
       </c>
       <c r="D388" s="22" t="inlineStr">
         <is>
-          <t>**maa://48618 (50.0)</t>
+          <t>maa://48618 (100.00)</t>
         </is>
       </c>
       <c r="E388" s="22" t="inlineStr">
@@ -27975,7 +27975,7 @@
       </c>
       <c r="D389" s="22" t="inlineStr">
         <is>
-          <t>maa://59533 (100.0), maa://59577 (100.0)</t>
+          <t>maa://59533 (100.00), *maa://59577 (78.16)</t>
         </is>
       </c>
       <c r="E389" s="22" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="D390" s="22" t="inlineStr">
         <is>
-          <t>maa://51907 (100.0), maa://51908 (100.0)</t>
+          <t>maa://51907 (100.00), maa://51908 (100.00)</t>
         </is>
       </c>
       <c r="E390" s="22" t="inlineStr">
@@ -28083,7 +28083,7 @@
       </c>
       <c r="D391" s="22" t="inlineStr">
         <is>
-          <t>**maa://59691 (50.0)</t>
+          <t>maa://59691 (100.00)</t>
         </is>
       </c>
       <c r="E391" s="22" t="inlineStr">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="D392" s="22" t="inlineStr">
         <is>
-          <t>maa://51898 (100.0), maa://57241 (100.0)</t>
+          <t>maa://51898 (100.00), *maa://57241 (71.76)</t>
         </is>
       </c>
       <c r="E392" s="22" t="inlineStr">
@@ -28191,7 +28191,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51880 (99.16), maa://56651 (100.0), maa://51878 (100.0)</t>
+          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (90.82)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -28218,7 +28218,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (96.38), maa://51876 (98.96), maa://51873 (100.0), maa://63228 (92.86), maa://62047 (93.75)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), maa://51873 (97.87), *maa://63228 (73.40), *maa://62047 (76.60)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (96.77), maa://60449 (98.21)</t>
+          <t>maa://59493 (97.87), maa://60449 (100.00)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (94.39)</t>
+          <t>maa://62756 (100.00)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -1481,7 +1481,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 23:24:36</t>
+          <t>更新日期：2025.07.30 14:18:05</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (84.62), maa://22733 (100.00), ***maa://22761 (17.31)</t>
+          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (17.31)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (63.54), *maa://56336 (62.50), *maa://45789 (67.71)</t>
+          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (61.86), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (54.84)</t>
+          <t>maa://25176 (100.00), *maa://56237 (61.29)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 23:24:36</t>
+          <t>更新日期：2025.07.30 14:18:05</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (70.37), *maa://28758 (64.20), maa://29036 (100.00), *maa://42172 (51.85), maa://30285 (80.25)</t>
+          <t>*maa://20849 (70.37), *maa://28758 (64.20), maa://29036 (100.00), *maa://42172 (51.85), maa://30285 (83.95)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (86.36), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
+          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (87.50), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (82.09)</t>
+          <t>maa://31560 (100.00), maa://20940 (86.57)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (97.59), maa://49655 (100.00)</t>
+          <t>maa://49867 (96.43), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.55), maa://35854 (82.98), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (74.47)</t>
+          <t>maa://44224 (92.55), maa://35854 (82.98), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (76.60)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (44.74)</t>
+          <t>maa://62759 (100.00), **maa://62764 (44.16)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493 (97.87), maa://60449 (100.00)</t>
+          <t>maa://60449 (100.00), maa://59493 (97.87)</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -87,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -171,6 +171,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -706,7 +712,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (100.00), maa://24702 (98.92), maa://36681 (83.87)</t>
+          <t>maa://25390 (100.00), maa://24702 (98.92), maa://36681 (81.72)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -738,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.03), maa://58660 (83.15)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.03), maa://58660 (89.89)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -818,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (91.86)</t>
+          <t>maa://25251 (100.00), maa://59087 (93.02)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -836,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (95.60), *maa://39849 (61.54)</t>
+          <t>maa://40192 (100.00), maa://36987 (94.57), *maa://39849 (60.87)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -868,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (72.29), maa://20276 (100.00), *maa://22749 (69.88)</t>
+          <t>*maa://22880 (71.43), maa://20276 (100.00), *maa://22749 (71.43)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -900,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (87.06), maa://24617 (100.00), *maa://60545 (64.71)</t>
+          <t>maa://45854 (87.06), maa://24617 (100.00), *maa://60545 (67.06)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -916,7 +922,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (86.96), maa://27484 (100.00), *maa://27480 (78.26)</t>
+          <t>maa://27396 (86.02), maa://27484 (100.00), *maa://27480 (77.42)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -932,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (81.11)</t>
+          <t>maa://24390 (100.00), maa://52241 (83.33)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -1014,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (97.73)</t>
+          <t>maa://49983 (100.00), maa://50121 (98.86)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://22744 (81.01), maa://54105 (94.94)</t>
+          <t>maa://21245 (100.00), maa://54105 (94.94), maa://22744 (81.01)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1279,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (90.24)</t>
+          <t>maa://31836 (100.00), maa://30381 (89.16)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (73.91)</t>
+          <t>maa://22399 (100.00), *maa://22758 (74.73)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1481,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.30 14:18:05</t>
+          <t>更新日期：2025.08.03 13:42:21</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1608,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (48.53)</t>
+          <t>maa://24479 (100.00), **maa://21990 (49.25)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1658,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (70.11)</t>
+          <t>maa://22762 (100.00), *maa://39552 (70.93)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1706,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (84.21)</t>
+          <t>maa://26223 (100.00), maa://52237 (85.26)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1722,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (100.00)</t>
+          <t>maa://28711 (100.00), maa://40166 (96.34)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1756,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (28.00), ***maa://39951 (12.00), ***maa://34206 (22.00), maa://45271 (100.00), ***maa://39243 (14.00), ***maa://54000 (30.00)</t>
+          <t>***maa://25695 (28.00), ***maa://39951 (14.00), maa://45271 (100.00), ***maa://34206 (22.00), ***maa://39243 (14.00), ***maa://54000 (30.00)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1804,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (83.75), *maa://23264 (61.25)</t>
+          <t>maa://28977 (100.00), maa://36669 (82.50), *maa://23264 (61.25)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1820,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (36.17)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (59.57)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1868,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (17.31)</t>
+          <t>maa://25021 (88.00), maa://22733 (100.00), ***maa://22761 (18.00)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.36), maa://22501 (100.00), maa://45521 (85.11)</t>
+          <t>maa://22747 (89.36), maa://22501 (100.00), maa://45521 (87.23)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2043,12 +2049,12 @@
       </c>
       <c r="K12" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://63896 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2096,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (84.95)</t>
+          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (86.02)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2340,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (90.00)</t>
+          <t>maa://22521 (100.00), maa://42751 (92.22)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2406,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (68.83), maa://36048 (83.12), maa://45058 (83.12)</t>
+          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (68.83), maa://36048 (84.42), maa://45058 (85.71)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2600,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (77.78)</t>
+          <t>maa://22729 (100.00), *maa://28648 (72.53), *maa://36674 (76.92)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (100.00), maa://28051 (84.21)</t>
+          <t>maa://28501 (100.00), maa://28051 (85.26)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2682,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (100.00), maa://39599 (92.94)</t>
+          <t>maa://22430 (100.00), maa://39599 (94.12)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2828,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (100.00), maa://52226 (94.32)</t>
+          <t>maa://22466 (100.00), maa://52226 (96.59)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2844,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), *maa://54153 (74.47), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), *maa://54153 (76.60), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -3022,7 +3028,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (72.31)</t>
+          <t>maa://30709 (100.00), *maa://36668 (73.85)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3056,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (96.63), maa://25198 (100.00), maa://36680 (86.52)</t>
+          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (86.52)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3136,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (95.24), *maa://56241 (71.43)</t>
+          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (72.94)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3298,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (95.12)</t>
+          <t>maa://22524 (100.00), maa://22432 (96.30)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3396,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (100.00), *maa://37649 (59.38)</t>
+          <t>maa://21282 (100.00), *maa://37649 (60.82)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3494,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (75.00)</t>
+          <t>maa://30587 (100.00), *maa://29748 (77.27), *maa://37566 (75.00)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3576,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (65.79)</t>
+          <t>maa://24368 (100.00), *maa://46650 (63.16)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3656,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (87.91)</t>
+          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (90.11)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3688,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (89.41), *maa://36672 (70.59), maa://29910 (100.00), maa://45831 (82.35)</t>
+          <t>maa://22523 (88.24), *maa://36672 (69.41), maa://29910 (100.00), maa://45831 (84.71)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3722,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (98.48), maa://25311 (100.00), ***maa://22725 (3.03), *maa://45047 (72.73)</t>
+          <t>maa://29063 (96.97), maa://25311 (100.00), ***maa://22725 (3.03), *maa://45047 (72.73)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3802,7 +3808,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (84.34), maa://26001 (87.95)</t>
+          <t>maa://31215 (100.00), maa://24516 (85.54), maa://26001 (87.95)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3982,7 +3988,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (72.41), maa://34494 (100.00)</t>
+          <t>*maa://39601 (73.56), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4333,12 +4339,12 @@
       </c>
       <c r="AE29" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://24080 (90.28), maa://42865 (100.00)</t>
+          <t>maa://24080 (88.89), maa://42865 (100.00), ***maa://34960 (2.78)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4691,12 +4697,12 @@
       </c>
       <c r="W32" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y32" s="19" t="n"/>
@@ -5097,12 +5103,12 @@
       </c>
       <c r="AA35" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB35" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://63909 (100.00)</t>
         </is>
       </c>
       <c r="AC35" s="19" t="n"/>
@@ -5227,12 +5233,12 @@
       </c>
       <c r="AA36" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB36" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC36" s="19" t="n"/>
@@ -5298,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (61.86), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (58.76), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5368,9 +5374,22 @@
       <c r="AG37" s="16" t="n"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="3" t="n"/>
+      <c r="B38" s="31" t="inlineStr">
+        <is>
+          <t>松桐</t>
+        </is>
+      </c>
+      <c r="C38" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="16" t="n"/>
       <c r="F38" s="19" t="inlineStr">
         <is>
           <t>阿米娅(近卫)</t>
@@ -5484,7 +5503,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (91.01), maa://25199 (87.64), maa://30434 (100.00), *maa://45059 (68.54), **maa://44165 (33.71)</t>
+          <t>maa://36670 (91.01), maa://25199 (87.64), maa://30434 (100.00), *maa://45059 (69.66), **maa://44165 (33.71)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5527,12 +5546,12 @@
       </c>
       <c r="S39" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (73.81), *maa://45790 (77.38)</t>
+          <t>maa://47079 (100.00), *maa://45790 (77.65)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5617,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), *maa://45550 (56.99)</t>
+          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (84.95), *maa://45550 (56.99)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5660,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5839,6 +5858,22 @@
         </is>
       </c>
       <c r="U42" s="19" t="n"/>
+      <c r="Z42" s="16" t="inlineStr">
+        <is>
+          <t>遥</t>
+        </is>
+      </c>
+      <c r="AA42" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB42" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC42" s="16" t="n"/>
       <c r="AD42" s="19" t="inlineStr">
         <is>
           <t>弑君者</t>
@@ -5872,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (94.87), maa://21284 (100.00)</t>
+          <t>maa://22525 (93.59), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5957,10 +5992,26 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (64.21)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (68.42)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
+      <c r="J44" s="16" t="inlineStr">
+        <is>
+          <t>斩业星熊</t>
+        </is>
+      </c>
+      <c r="K44" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" s="16" t="n"/>
       <c r="N44" s="19" t="inlineStr">
         <is>
           <t>泰拉大陆调查团</t>
@@ -6026,7 +6077,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (91.86), maa://30807 (100.00), maa://42459 (87.21)</t>
+          <t>maa://21229 (91.86), maa://30807 (100.00), maa://42459 (88.37)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6095,7 +6146,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (93.26)</t>
+          <t>maa://35931 (100.00), maa://43901 (94.38)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6439,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (95.60)</t>
+          <t>maa://59394 (100.00), maa://59378 (94.51)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6561,6 +6612,22 @@
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
+      <c r="N55" s="16" t="inlineStr">
+        <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="O55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q55" s="16" t="n"/>
     </row>
     <row r="56">
       <c r="F56" s="19" t="inlineStr">
@@ -6593,7 +6660,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (61.29)</t>
+          <t>maa://25176 (100.00), *maa://56237 (69.89)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6701,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), **maa://59413 (47.31)</t>
+          <t>maa://59534 (100.00), **maa://59413 (46.81)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -6975,7 +7042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF398"/>
+  <dimension ref="A1:AF404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -7023,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.30 14:18:05</t>
+          <t>更新日期：2025.08.03 13:42:21</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7872,12 +7939,12 @@
     <row r="17" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>暗索</t>
+          <t>末药</t>
         </is>
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -7887,12 +7954,12 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>maa://20848 (100.00)</t>
+          <t>maa://20930 (100.00)</t>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暗索累计使用复式勾爪10次&gt; 3星通关主题曲3-3；必须编入非助战暗索，且使弑君者坠落地穴</t>
+          <t>&gt; 战斗中非助战末药累计使用医疗力场5次&gt; 3星通关主题曲6-11；且仅可编入非助战末药1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F17" s="8" t="n"/>
@@ -7926,12 +7993,12 @@
     <row r="18" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>末药</t>
+          <t>嘉维尔</t>
         </is>
       </c>
       <c r="B18" s="11" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C18" s="12" t="inlineStr">
@@ -7941,12 +8008,12 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>maa://20930 (100.00)</t>
+          <t>maa://20897 (100.00)</t>
         </is>
       </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战末药累计使用医疗力场5次&gt; 3星通关主题曲6-11；且仅可编入非助战末药1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战嘉维尔累计使用活力再生·广域12次&gt; 3星通关主题曲S4-5；必须编入非助战嘉维尔并上场，且使用2次活力再生·广域</t>
         </is>
       </c>
       <c r="F18" s="8" t="n"/>
@@ -7980,27 +8047,27 @@
     <row r="19" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>嘉维尔</t>
+          <t>调香师</t>
         </is>
       </c>
       <c r="B19" s="11" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>maa://20897 (100.00)</t>
+          <t>maa://20865 (100.00), *maa://20826 (73.13)</t>
         </is>
       </c>
       <c r="E19" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战嘉维尔累计使用活力再生·广域12次&gt; 3星通关主题曲S4-5；必须编入非助战嘉维尔并上场，且使用2次活力再生·广域</t>
+          <t>&gt; 完成5次战斗；每次战斗中至少部署1次非助战调香师&gt; 3星通关主题曲3-4；且仅可编入非助战调香师1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F19" s="8" t="n"/>
@@ -8034,27 +8101,27 @@
     <row r="20" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>调香师</t>
+          <t>角峰</t>
         </is>
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C20" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>maa://20865 (100.00), *maa://20826 (73.13)</t>
+          <t>maa://20900 (100.00)</t>
         </is>
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗中至少部署1次非助战调香师&gt; 3星通关主题曲3-4；且仅可编入非助战调香师1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战角峰累计使用抗寒体质8次&gt; 3星通关主题曲3-6；且仅可编入非助战角峰1名重装干员并上场</t>
         </is>
       </c>
       <c r="F20" s="8" t="n"/>
@@ -8088,27 +8155,27 @@
     <row r="21" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>角峰</t>
+          <t>蛇屠箱</t>
         </is>
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>maa://20900 (100.00)</t>
+          <t>maa://20948 (91.80), maa://30844 (100.00), **maa://58691 (34.43), *maa://63387 (55.74)</t>
         </is>
       </c>
       <c r="E21" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战角峰累计使用抗寒体质8次&gt; 3星通关主题曲3-6；且仅可编入非助战角峰1名重装干员并上场</t>
+          <t>&gt; 战斗中非助战蛇屠箱累计使用壳状防御8次&gt; 3星通关主题曲2-10；必须编入非助战蛇屠箱并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F21" s="8" t="n"/>
@@ -8142,27 +8209,27 @@
     <row r="22" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>蛇屠箱</t>
+          <t>古米</t>
         </is>
       </c>
       <c r="B22" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>maa://20948 (91.80), maa://30844 (100.00), **maa://58691 (34.43), **maa://63387 (34.43)</t>
+          <t>maa://20876 (100.00), ***maa://63498 (24.42)</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蛇屠箱累计使用壳状防御8次&gt; 3星通关主题曲2-10；必须编入非助战蛇屠箱并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中非助战古米累计使用食粮烹制6次&gt; 3星通关主题曲4-2；必须编入非助战古米并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F22" s="8" t="n"/>
@@ -8196,12 +8263,12 @@
     <row r="23" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>古米</t>
+          <t>深海色</t>
         </is>
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -8211,12 +8278,12 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00)</t>
+          <t>maa://45260 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战古米累计使用食粮烹制6次&gt; 3星通关主题曲4-2；必须编入非助战古米并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -8250,12 +8317,12 @@
     <row r="24" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>深海色</t>
+          <t>地灵</t>
         </is>
       </c>
       <c r="B24" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C24" s="12" t="inlineStr">
@@ -8265,12 +8332,12 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>maa://45260 (100.00)</t>
+          <t>maa://20864 (100.00)</t>
         </is>
       </c>
       <c r="E24" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
+          <t>&gt; 由非助战地灵累计使用流沙化6次&gt; 3星通关插曲DM-2；必须编入非助战地灵并上场，其他成员仅可编入先锋与狙击干员</t>
         </is>
       </c>
       <c r="F24" s="8" t="n"/>
@@ -8304,12 +8371,12 @@
     <row r="25" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>地灵</t>
+          <t>阿消</t>
         </is>
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -8319,12 +8386,12 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>maa://20864 (100.00)</t>
+          <t>maa://44220 (100.00)</t>
         </is>
       </c>
       <c r="E25" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战地灵累计使用流沙化6次&gt; 3星通关插曲DM-2；必须编入非助战地灵并上场，其他成员仅可编入先锋与狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿消，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战阿消，且本场战斗至少使2个磐蟹坠落地穴</t>
         </is>
       </c>
       <c r="F25" s="8" t="n"/>
@@ -8358,27 +8425,27 @@
     <row r="26" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>阿消</t>
+          <t>白面鸮</t>
         </is>
       </c>
       <c r="B26" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" s="13" t="inlineStr">
         <is>
-          <t>maa://44220 (100.00)</t>
+          <t>*maa://20849 (70.37), *maa://28758 (65.43), maa://29036 (100.00), *maa://42172 (54.32), maa://30285 (83.95)</t>
         </is>
       </c>
       <c r="E26" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿消，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战阿消，且本场战斗至少使2个磐蟹坠落地穴</t>
+          <t>&gt; 战斗中非助战白面鸮累计使用脑啡肽8次&gt; 3星通关主题曲4-9；必须编入非助战白面鸮并上场，且不编入其他医疗和重装干员</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -8412,27 +8479,27 @@
     <row r="27" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>白面鸮</t>
+          <t>凛冬</t>
         </is>
       </c>
       <c r="B27" s="11" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (70.37), *maa://28758 (64.20), maa://29036 (100.00), *maa://42172 (51.85), maa://30285 (83.95)</t>
+          <t>maa://20920 (100.00)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白面鸮累计使用脑啡肽8次&gt; 3星通关主题曲4-9；必须编入非助战白面鸮并上场，且不编入其他医疗和重装干员</t>
+          <t>&gt; 战斗中非助战凛冬累计使用乌萨斯战吼5次&gt; 3星通关主题曲1-5；必须编入非助战凛冬并上场，其他成员仅可编入先锋与狙击干员</t>
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
@@ -8466,27 +8533,27 @@
     <row r="28" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>凛冬</t>
+          <t>德克萨斯</t>
         </is>
       </c>
       <c r="B28" s="11" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>CB-3</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>maa://20920 (100.00)</t>
+          <t>maa://20863 (89.47), maa://20832 (100.00), *maa://20727 (75.79)</t>
         </is>
       </c>
       <c r="E28" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凛冬累计使用乌萨斯战吼5次&gt; 3星通关主题曲1-5；必须编入非助战凛冬并上场，其他成员仅可编入先锋与狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战德克萨斯并上场，且每次战斗至少释放一次剑雨&gt; 3星通关别传CB-3；必须编入非助战德克萨斯并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F28" s="8" t="n"/>
@@ -8520,27 +8587,27 @@
     <row r="29" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>德克萨斯</t>
+          <t>芙兰卡</t>
         </is>
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>CB-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.47), maa://20832 (100.00), *maa://20727 (75.79)</t>
+          <t>maa://20871 (100.00)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战德克萨斯并上场，且每次战斗至少释放一次剑雨&gt; 3星通关别传CB-3；必须编入非助战德克萨斯并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芙兰卡并上场，且使用芙兰卡造成至少18000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战芙兰卡并上场，且使用芙兰卡歼灭至少1个深池重甲卫士</t>
         </is>
       </c>
       <c r="F29" s="8" t="n"/>
@@ -8574,12 +8641,12 @@
     <row r="30" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>芙兰卡</t>
+          <t>因陀罗</t>
         </is>
       </c>
       <c r="B30" s="11" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -8589,12 +8656,12 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>maa://20871 (100.00)</t>
+          <t>maa://39024 (100.00)</t>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芙兰卡并上场，且使用芙兰卡造成至少18000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战芙兰卡并上场，且使用芙兰卡歼灭至少1个深池重甲卫士</t>
+          <t>&gt; 由非助战因陀罗累计造成30歼灭数&gt; 3星通关主题曲11-5标准作战环境；必须携带并部署非助战因陀罗，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F30" s="8" t="n"/>
@@ -8628,27 +8695,27 @@
     <row r="31" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>因陀罗</t>
+          <t>拉普兰德</t>
         </is>
       </c>
       <c r="B31" s="11" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>maa://39024 (100.00)</t>
+          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (87.50), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战因陀罗累计造成30歼灭数&gt; 3星通关主题曲11-5标准作战环境；必须携带并部署非助战因陀罗，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战拉普兰德累计造成80000点伤害&gt; 3星通关主题曲4-7；必须编入非助战拉普兰德并上场，并使用拉普兰德至少击败10名高能源石虫</t>
         </is>
       </c>
       <c r="F31" s="19" t="n"/>
@@ -8682,27 +8749,27 @@
     <row r="32" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>拉普兰德</t>
+          <t>幽灵鲨</t>
         </is>
       </c>
       <c r="B32" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>SN-EX-1</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (87.50), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
+          <t>maa://30500 (100.00), *maa://27290 (52.13), ***maa://42154 (1.06)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战拉普兰德累计造成80000点伤害&gt; 3星通关主题曲4-7；必须编入非助战拉普兰德并上场，并使用拉普兰德至少击败10名高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战幽灵鲨并上场，且每次战斗至少释放1次肉斩骨断&gt; 3星通关插曲SN-EX-1；必须编入非助战幽灵鲨并上场，且使用幽灵鲨击败至少10名富营养的滑动者</t>
         </is>
       </c>
       <c r="F32" s="19" t="n"/>
@@ -8736,27 +8803,27 @@
     <row r="33" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>幽灵鲨</t>
+          <t>蓝毒</t>
         </is>
       </c>
       <c r="B33" s="11" t="inlineStr">
         <is>
-          <t>SN-EX-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>maa://30500 (100.00), *maa://27290 (52.13), ***maa://42154 (1.06)</t>
+          <t>maa://20916 (100.00), maa://52658 (92.54)</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战幽灵鲨并上场，且每次战斗至少释放1次肉斩骨断&gt; 3星通关插曲SN-EX-1；必须编入非助战幽灵鲨并上场，且使用幽灵鲨击败至少10名富营养的滑动者</t>
+          <t>&gt; 由非助战蓝毒累计造成80000点伤害&gt; 3星通关主题曲3-4；必须编入非助战蓝毒并上场，其他成员仅可编入近卫干员</t>
         </is>
       </c>
       <c r="F33" s="19" t="n"/>
@@ -8790,27 +8857,27 @@
     <row r="34" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>蓝毒</t>
+          <t>白金</t>
         </is>
       </c>
       <c r="B34" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>maa://20916 (100.00), maa://52658 (92.54)</t>
+          <t>maa://20847 (100.00)</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蓝毒累计造成80000点伤害&gt; 3星通关主题曲3-4；必须编入非助战蓝毒并上场，其他成员仅可编入近卫干员</t>
+          <t>&gt; 由非助战白金累计造成30歼灭数&gt; 3星通关主题曲5-7；必须编入非助战白金并上场，且使用白金歼灭至少2个寒霜</t>
         </is>
       </c>
       <c r="F34" s="19" t="n"/>
@@ -8844,12 +8911,12 @@
     <row r="35" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>白金</t>
+          <t>陨星</t>
         </is>
       </c>
       <c r="B35" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -8859,12 +8926,12 @@
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>maa://20847 (100.00)</t>
+          <t>maa://20997 (100.00)</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战白金累计造成30歼灭数&gt; 3星通关主题曲5-7；必须编入非助战白金并上场，且使用白金歼灭至少2个寒霜</t>
+          <t>&gt; 完成5次战斗；必须编入非助战陨星并上场，且使用陨星歼灭至少10名敌人&gt; 3星通关主题曲2-4；必须编入非助战陨星并上场，其他成员仅可编入先锋与医疗干员</t>
         </is>
       </c>
       <c r="F35" s="19" t="n"/>
@@ -8898,27 +8965,27 @@
     <row r="36" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>陨星</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B36" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C36" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>maa://20997 (100.00)</t>
+          <t>maa://27376 (96.51), maa://42635 (100.00), **maa://20838 (39.53)</t>
         </is>
       </c>
       <c r="E36" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战陨星并上场，且使用陨星歼灭至少10名敌人&gt; 3星通关主题曲2-4；必须编入非助战陨星并上场，其他成员仅可编入先锋与医疗干员</t>
+          <t>&gt; 由非助战阿米娅累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战中坚术师状态的阿米娅并上场，且使用中坚术师状态的阿米娅歼灭碎骨</t>
         </is>
       </c>
       <c r="F36" s="19" t="n"/>
@@ -8952,27 +9019,27 @@
     <row r="37" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>天火</t>
         </is>
       </c>
       <c r="B37" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (96.51), maa://42635 (100.00), **maa://20838 (39.53)</t>
+          <t>maa://20962 (100.00)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿米娅累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战中坚术师状态的阿米娅并上场，且使用中坚术师状态的阿米娅歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战天火并上场，且每次战斗至少释放一次天坠之火&gt; 3星通关主题曲S3-5；必须编入非助战天火并上场，且使用天火歼灭至少10名敌人、其中包括至少2名屠夫</t>
         </is>
       </c>
       <c r="F37" s="19" t="n"/>
@@ -9006,27 +9073,27 @@
     <row r="38" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>天火</t>
+          <t>梅尔</t>
         </is>
       </c>
       <c r="B38" s="11" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C38" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" s="13" t="inlineStr">
         <is>
-          <t>maa://20962 (100.00)</t>
+          <t>*maa://29012 (61.25), maa://20928 (100.00)</t>
         </is>
       </c>
       <c r="E38" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战天火并上场，且每次战斗至少释放一次天坠之火&gt; 3星通关主题曲S3-5；必须编入非助战天火并上场，且使用天火歼灭至少10名敌人、其中包括至少2名屠夫</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战梅尔的召唤物&gt; 使用至多3人（包含助战）的队伍3星通关主题曲2-9；必须编入非助战梅尔并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
       <c r="F38" s="19" t="n"/>
@@ -9060,27 +9127,27 @@
     <row r="39" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>梅尔</t>
+          <t>赫默</t>
         </is>
       </c>
       <c r="B39" s="11" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" s="13" t="inlineStr">
         <is>
-          <t>*maa://29012 (61.25), maa://20928 (100.00)</t>
+          <t>maa://20882 (100.00)</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战梅尔的召唤物&gt; 使用至多3人（包含助战）的队伍3星通关主题曲2-9；必须编入非助战梅尔并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战赫默累计使用医疗无人机14次&gt; 3星通关主题曲4-8；且仅可编入非助战赫默1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F39" s="19" t="n"/>
@@ -9114,12 +9181,12 @@
     <row r="40" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>赫默</t>
+          <t>华法琳</t>
         </is>
       </c>
       <c r="B40" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -9129,12 +9196,12 @@
       </c>
       <c r="D40" s="13" t="inlineStr">
         <is>
-          <t>maa://20882 (100.00)</t>
+          <t>maa://20892 (100.00)</t>
         </is>
       </c>
       <c r="E40" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赫默累计使用医疗无人机14次&gt; 3星通关主题曲4-8；且仅可编入非助战赫默1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战华法琳累计使用不稳定血浆12次&gt; 使用至多7人（包含助战）的队伍3星通关主题曲2-10；必须编入非助战华法琳并上场，其他成员仅可编入近卫干员</t>
         </is>
       </c>
       <c r="F40" s="19" t="n"/>
@@ -9168,27 +9235,27 @@
     <row r="41" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>华法琳</t>
+          <t>临光</t>
         </is>
       </c>
       <c r="B41" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>maa://20892 (100.00)</t>
+          <t>maa://20918 (100.00), maa://34883 (90.00), maa://20824 (96.25)</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战华法琳累计使用不稳定血浆12次&gt; 使用至多7人（包含助战）的队伍3星通关主题曲2-10；必须编入非助战华法琳并上场，其他成员仅可编入近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战临光并上场，且每次战斗至少释放1次急救模式&gt; 3星通关主题曲1-12；必须编入非助战临光并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F41" s="19" t="n"/>
@@ -9222,27 +9289,27 @@
     <row r="42" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>临光</t>
+          <t>红</t>
         </is>
       </c>
       <c r="B42" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>maa://20918 (100.00), maa://34883 (90.00), maa://20824 (96.25)</t>
+          <t>maa://20889 (100.00)</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战临光并上场，且每次战斗至少释放1次急救模式&gt; 3星通关主题曲1-12；必须编入非助战临光并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的红&gt; 3星通关主题曲S4-5；必须编入非助战红并上场，且使用红至少歼灭4个高能源石虫</t>
         </is>
       </c>
       <c r="F42" s="19" t="n"/>
@@ -9276,12 +9343,12 @@
     <row r="43" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>红</t>
+          <t>雷蛇</t>
         </is>
       </c>
       <c r="B43" s="11" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -9291,12 +9358,12 @@
       </c>
       <c r="D43" s="13" t="inlineStr">
         <is>
-          <t>maa://20889 (100.00)</t>
+          <t>maa://34718 (100.00)</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的红&gt; 3星通关主题曲S4-5；必须编入非助战红并上场，且使用红至少歼灭4个高能源石虫</t>
+          <t>&gt; 战斗中非助战雷蛇累计使用反击电弧8次&gt; 3星通关主题曲4-6；必须编入非助战雷蛇并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F43" s="19" t="n"/>
@@ -9330,12 +9397,12 @@
     <row r="44" ht="14.25" customFormat="1" customHeight="1" s="22">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>雷蛇</t>
+          <t>可颂</t>
         </is>
       </c>
       <c r="B44" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -9345,12 +9412,12 @@
       </c>
       <c r="D44" s="13" t="inlineStr">
         <is>
-          <t>maa://34718 (100.00)</t>
+          <t>maa://20910 (100.00)</t>
         </is>
       </c>
       <c r="E44" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雷蛇累计使用反击电弧8次&gt; 3星通关主题曲4-6；必须编入非助战雷蛇并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战可颂，且每次战斗至少使3名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战可颂并上场，且使用2次磁暴锤</t>
         </is>
       </c>
       <c r="F44" s="19" t="n"/>
@@ -9384,12 +9451,12 @@
     <row r="45" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>可颂</t>
+          <t>火神</t>
         </is>
       </c>
       <c r="B45" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S4-4</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -9399,12 +9466,12 @@
       </c>
       <c r="D45" s="13" t="inlineStr">
         <is>
-          <t>maa://20910 (100.00)</t>
+          <t>maa://39025 (100.00)</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战可颂，且每次战斗至少使3名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战可颂并上场，且使用2次磁暴锤</t>
+          <t>&gt; 由非助战火神累计造成30歼灭数&gt; 3星通关主题曲S4-4；必须编入非助战火神并上场，且使用火神至少歼灭6个敌人</t>
         </is>
       </c>
       <c r="F45" s="19" t="n"/>
@@ -9438,12 +9505,12 @@
     <row r="46" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>火神</t>
+          <t>普罗旺斯</t>
         </is>
       </c>
       <c r="B46" s="11" t="inlineStr">
         <is>
-          <t>S4-4</t>
+          <t>S5-1</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -9453,12 +9520,12 @@
       </c>
       <c r="D46" s="13" t="inlineStr">
         <is>
-          <t>maa://39025 (100.00)</t>
+          <t>maa://20938 (100.00)</t>
         </is>
       </c>
       <c r="E46" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火神累计造成30歼灭数&gt; 3星通关主题曲S4-4；必须编入非助战火神并上场，且使用火神至少歼灭6个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少5名敌人&gt; 3星通关主题曲S5-1；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少6名敌人，其中包括至少1个伐木老手</t>
         </is>
       </c>
       <c r="F46" s="19" t="n"/>
@@ -9492,12 +9559,12 @@
     <row r="47" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>普罗旺斯</t>
+          <t>守林人</t>
         </is>
       </c>
       <c r="B47" s="11" t="inlineStr">
         <is>
-          <t>S5-1</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -9507,12 +9574,12 @@
       </c>
       <c r="D47" s="13" t="inlineStr">
         <is>
-          <t>maa://20938 (100.00)</t>
+          <t>maa://20954 (100.00)</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少5名敌人&gt; 3星通关主题曲S5-1；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少6名敌人，其中包括至少1个伐木老手</t>
+          <t>&gt; 由非助战守林人累计歼灭25名使用远程武器的敌人&gt; 3星通关主题曲2-10；必须编入非助战守林人并上场，且使用守林人歼灭碎骨</t>
         </is>
       </c>
       <c r="F47" s="19" t="n"/>
@@ -9546,27 +9613,27 @@
     <row r="48" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>守林人</t>
+          <t>崖心</t>
         </is>
       </c>
       <c r="B48" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D48" s="13" t="inlineStr">
         <is>
-          <t>maa://20954 (100.00)</t>
+          <t>maa://32845 (100.00), *maa://20982 (52.63)</t>
         </is>
       </c>
       <c r="E48" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战守林人累计歼灭25名使用远程武器的敌人&gt; 3星通关主题曲2-10；必须编入非助战守林人并上场，且使用守林人歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战崖心，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传MN-4；必须编入非助战崖心并上场，且不编入其他特种干员</t>
         </is>
       </c>
       <c r="F48" s="19" t="n"/>
@@ -9600,27 +9667,27 @@
     <row r="49" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>崖心</t>
+          <t>初雪</t>
         </is>
       </c>
       <c r="B49" s="11" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" s="13" t="inlineStr">
         <is>
-          <t>maa://32845 (100.00), *maa://20982 (52.63)</t>
+          <t>maa://30503 (100.00)</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战崖心，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传MN-4；必须编入非助战崖心并上场，且不编入其他特种干员</t>
+          <t>&gt; 由非助战初雪累计造成60000点伤害&gt; 3星通关主题曲2-3；必须编入非助战初雪并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F49" s="19" t="n"/>
@@ -9654,7 +9721,7 @@
     <row r="50" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>初雪</t>
+          <t>真理</t>
         </is>
       </c>
       <c r="B50" s="11" t="inlineStr">
@@ -9669,12 +9736,12 @@
       </c>
       <c r="D50" s="13" t="inlineStr">
         <is>
-          <t>maa://30503 (100.00)</t>
+          <t>maa://21001 (100.00)</t>
         </is>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战初雪累计造成60000点伤害&gt; 3星通关主题曲2-3；必须编入非助战初雪并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战真理并上场，且使用真理造成至少25000点伤害&gt; 3星通关主题曲2-3；必须编入非助战真理并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F50" s="19" t="n"/>
@@ -9708,12 +9775,12 @@
     <row r="51" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>真理</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B51" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -9723,12 +9790,12 @@
       </c>
       <c r="D51" s="13" t="inlineStr">
         <is>
-          <t>maa://21001 (100.00)</t>
+          <t>maa://42295 (100.00)</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战真理并上场，且使用真理造成至少25000点伤害&gt; 3星通关主题曲2-3；必须编入非助战真理并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战空累计使用8次“战斗之歌”&gt; 3星通关别传CB-7；必须编入非助战空并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F51" s="19" t="n"/>
@@ -9762,27 +9829,27 @@
     <row r="52" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B52" s="11" t="inlineStr">
         <is>
-          <t>CB-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" s="13" t="inlineStr">
         <is>
-          <t>maa://42295 (100.00)</t>
+          <t>maa://20953 (98.80), maa://31173 (100.00)</t>
         </is>
       </c>
       <c r="E52" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战空累计使用8次“战斗之歌”&gt; 3星通关别传CB-7；必须编入非助战空并上场，且不编入其他辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
         </is>
       </c>
       <c r="F52" s="19" t="n"/>
@@ -9816,27 +9883,27 @@
     <row r="53" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B53" s="11" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (97.59), maa://31173 (100.00)</t>
+          <t>maa://30502 (100.00)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
         </is>
       </c>
       <c r="F53" s="19" t="n"/>
@@ -9870,27 +9937,27 @@
     <row r="54" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B54" s="11" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" s="13" t="inlineStr">
         <is>
-          <t>maa://30502 (100.00)</t>
+          <t>maa://20932 (100.00), maa://42415 (93.48), maa://40838 (80.43)</t>
         </is>
       </c>
       <c r="E54" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
+          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
         </is>
       </c>
       <c r="F54" s="19" t="n"/>
@@ -9929,22 +9996,22 @@
       </c>
       <c r="B55" s="11" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (100.00), maa://42415 (93.48), maa://40838 (80.43)</t>
+          <t>maa://44235 (100.00), maa://45604 (82.11), maa://20961 (84.21), ***maa://44220 (22.11), maa://20910 (82.11)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
+          <t>&gt; 完成5次战斗；必须编入非助战能天使并上场，且每次战斗至少释放2次过载模式&gt; 3星通关主题曲2-8；必须编入非助战能天使并上场，且使用能天使至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F55" s="19" t="n"/>
@@ -9978,27 +10045,27 @@
     <row r="56" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B56" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (100.00), maa://45604 (82.11), maa://20961 (84.21), ***maa://44220 (22.11), maa://20910 (82.11)</t>
+          <t>maa://20965 (100.00)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战能天使并上场，且每次战斗至少释放2次过载模式&gt; 3星通关主题曲2-8；必须编入非助战能天使并上场，且使用能天使至少歼灭10个敌人</t>
+          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F56" s="19" t="n"/>
@@ -10037,22 +10104,22 @@
       </c>
       <c r="B57" s="11" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" s="13" t="inlineStr">
         <is>
-          <t>maa://20965 (100.00)</t>
+          <t>maa://28900 (100.00), *maa://30126 (74.73)</t>
         </is>
       </c>
       <c r="E57" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F57" s="19" t="n"/>
@@ -10086,12 +10153,12 @@
     <row r="58" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B58" s="11" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -10101,12 +10168,12 @@
       </c>
       <c r="D58" s="13" t="inlineStr">
         <is>
-          <t>maa://28900 (100.00), *maa://30126 (74.73)</t>
+          <t>maa://27970 (100.00), *maa://41118 (52.69)</t>
         </is>
       </c>
       <c r="E58" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
+          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
         </is>
       </c>
       <c r="F58" s="19" t="n"/>
@@ -10145,22 +10212,22 @@
       </c>
       <c r="B59" s="11" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (100.00), *maa://41118 (52.69)</t>
+          <t>maa://38298 (100.00)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
+          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
         </is>
       </c>
       <c r="F59" s="19" t="n"/>
@@ -10194,27 +10261,27 @@
     <row r="60" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B60" s="11" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (100.00)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), **maa://25777 (35.79), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
+          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
       <c r="F60" s="19" t="n"/>
@@ -10248,27 +10315,27 @@
     <row r="61" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B61" s="11" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (98.96), maa://31559 (86.46), maa://20924 (80.21), **maa://25777 (35.42), *maa://20631 (59.38), **maa://28241 (45.83)</t>
+          <t>maa://20844 (100.00)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F61" s="19" t="n"/>
@@ -10307,22 +10374,22 @@
       </c>
       <c r="B62" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D62" s="13" t="inlineStr">
         <is>
-          <t>maa://20844 (100.00)</t>
+          <t>maa://20845 (80.65), maa://38727 (100.00)</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
         </is>
       </c>
       <c r="F62" s="19" t="n"/>
@@ -10356,27 +10423,27 @@
     <row r="63" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B63" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>maa://20845 (80.65), maa://38727 (100.00)</t>
+          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
+          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F63" s="19" t="n"/>
@@ -10415,22 +10482,22 @@
       </c>
       <c r="B64" s="11" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
+          <t>maa://28567 (95.74), **maa://20947 (30.85), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F64" s="19" t="n"/>
@@ -10464,12 +10531,12 @@
     <row r="65" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B65" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -10479,12 +10546,12 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (95.74), **maa://20947 (30.85), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
+          <t>maa://20993 (100.00), maa://45606 (90.53), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
+          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
         </is>
       </c>
       <c r="F65" s="19" t="n"/>
@@ -10523,22 +10590,22 @@
       </c>
       <c r="B66" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.00), maa://45606 (89.47), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
+          <t>maa://39693 (100.00), **maa://49348 (35.79)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
+          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F66" s="19" t="n"/>
@@ -10572,12 +10639,12 @@
     <row r="67" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B67" s="11" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -10587,12 +10654,12 @@
       </c>
       <c r="D67" s="13" t="inlineStr">
         <is>
-          <t>maa://39693 (100.00), **maa://49348 (35.79)</t>
+          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
         </is>
       </c>
       <c r="E67" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
         </is>
       </c>
       <c r="F67" s="19" t="n"/>
@@ -10631,22 +10698,22 @@
       </c>
       <c r="B68" s="11" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
+          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F68" s="19" t="n"/>
@@ -10680,27 +10747,27 @@
     <row r="69" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B69" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62)</t>
+          <t>maa://20944 (93.48), maa://35393 (100.00)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F69" s="19" t="n"/>
@@ -10739,22 +10806,22 @@
       </c>
       <c r="B70" s="11" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (94.51), maa://35393 (100.00)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), ***maa://63790 (21.43)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
         </is>
       </c>
       <c r="F70" s="19" t="n"/>
@@ -10788,27 +10855,27 @@
     <row r="71" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B71" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65)</t>
+          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
+          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
         </is>
       </c>
       <c r="F71" s="19" t="n"/>
@@ -10842,27 +10909,27 @@
     <row r="72" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B72" s="11" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85)</t>
+          <t>maa://39139 (100.00)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
+          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F72" s="19" t="n"/>
@@ -10896,12 +10963,12 @@
     <row r="73" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B73" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -10911,12 +10978,12 @@
       </c>
       <c r="D73" s="13" t="inlineStr">
         <is>
-          <t>maa://39139 (100.00)</t>
+          <t>maa://39142 (100.00)</t>
         </is>
       </c>
       <c r="E73" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F73" s="19" t="n"/>
@@ -10950,12 +11017,12 @@
     <row r="74" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B74" s="11" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -10965,12 +11032,12 @@
       </c>
       <c r="D74" s="13" t="inlineStr">
         <is>
-          <t>maa://39142 (100.00)</t>
+          <t>maa://20989 (100.00)</t>
         </is>
       </c>
       <c r="E74" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F74" s="19" t="n"/>
@@ -11004,12 +11071,12 @@
     <row r="75" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B75" s="11" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -11019,12 +11086,12 @@
       </c>
       <c r="D75" s="13" t="inlineStr">
         <is>
-          <t>maa://20989 (100.00)</t>
+          <t>maa://20873 (100.00)</t>
         </is>
       </c>
       <c r="E75" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
         </is>
       </c>
       <c r="F75" s="19" t="n"/>
@@ -11058,27 +11125,27 @@
     <row r="76" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B76" s="11" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D76" s="13" t="inlineStr">
         <is>
-          <t>maa://20873 (100.00)</t>
+          <t>maa://20958 (100.00), ***maa://39769 (4.82)</t>
         </is>
       </c>
       <c r="E76" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
+          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
         </is>
       </c>
       <c r="F76" s="19" t="n"/>
@@ -11117,22 +11184,22 @@
       </c>
       <c r="B77" s="11" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77" s="13" t="inlineStr">
         <is>
-          <t>maa://20958 (100.00), ***maa://39769 (4.82)</t>
+          <t>maa://20957 (100.00)</t>
         </is>
       </c>
       <c r="E77" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
+          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
         </is>
       </c>
       <c r="F77" s="19" t="n"/>
@@ -11166,12 +11233,12 @@
     <row r="78" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B78" s="11" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -11181,12 +11248,12 @@
       </c>
       <c r="D78" s="13" t="inlineStr">
         <is>
-          <t>maa://20957 (100.00)</t>
+          <t>maa://20875 (100.00)</t>
         </is>
       </c>
       <c r="E78" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F78" s="19" t="n"/>
@@ -11220,12 +11287,12 @@
     <row r="79" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B79" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -11235,12 +11302,12 @@
       </c>
       <c r="D79" s="13" t="inlineStr">
         <is>
-          <t>maa://20875 (100.00)</t>
+          <t>maa://20952 (100.00)</t>
         </is>
       </c>
       <c r="E79" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F79" s="19" t="n"/>
@@ -11274,27 +11341,27 @@
     <row r="80" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B80" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D80" s="13" t="inlineStr">
         <is>
-          <t>maa://20952 (100.00)</t>
+          <t>maa://30525 (95.40), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
         </is>
       </c>
       <c r="E80" s="14" t="inlineStr">
         <is>
-          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
         </is>
       </c>
       <c r="F80" s="19" t="n"/>
@@ -11333,22 +11400,22 @@
       </c>
       <c r="B81" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" s="13" t="inlineStr">
         <is>
-          <t>maa://30525 (95.40), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
+          <t>maa://28072 (100.00)</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
+          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F81" s="19" t="n"/>
@@ -11382,27 +11449,27 @@
     <row r="82" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B82" s="11" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" s="13" t="inlineStr">
         <is>
-          <t>maa://28072 (100.00)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), maa://20960 (100.00)</t>
         </is>
       </c>
       <c r="E82" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F82" s="19" t="n"/>
@@ -11436,27 +11503,27 @@
     <row r="83" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B83" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), maa://20960 (100.00)</t>
+          <t>maa://20972 (100.00)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
+          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F83" s="19" t="n"/>
@@ -11490,12 +11557,12 @@
     <row r="84" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B84" s="11" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -11505,12 +11572,12 @@
       </c>
       <c r="D84" s="13" t="inlineStr">
         <is>
-          <t>maa://20972 (100.00)</t>
+          <t>maa://20874 (100.00)</t>
         </is>
       </c>
       <c r="E84" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
+          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
         </is>
       </c>
       <c r="F84" s="19" t="n"/>
@@ -11544,12 +11611,12 @@
     <row r="85" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B85" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -11559,12 +11626,12 @@
       </c>
       <c r="D85" s="13" t="inlineStr">
         <is>
-          <t>maa://20874 (100.00)</t>
+          <t>maa://20885 (100.00)</t>
         </is>
       </c>
       <c r="E85" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
         </is>
       </c>
       <c r="F85" s="19" t="n"/>
@@ -11603,22 +11670,22 @@
       </c>
       <c r="B86" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D86" s="13" t="inlineStr">
         <is>
-          <t>maa://20885 (100.00)</t>
+          <t>maa://20886 (100.00), ***maa://60772 (26.25)</t>
         </is>
       </c>
       <c r="E86" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
+          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
       <c r="F86" s="19" t="n"/>
@@ -11652,12 +11719,12 @@
     <row r="87" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B87" s="11" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -11667,12 +11734,12 @@
       </c>
       <c r="D87" s="13" t="inlineStr">
         <is>
-          <t>maa://20886 (100.00), ***maa://60772 (26.25)</t>
+          <t>maa://24472 (100.00), **maa://35841 (48.81)</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F87" s="19" t="n"/>
@@ -11706,27 +11773,27 @@
     <row r="88" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>星极</t>
         </is>
       </c>
       <c r="B88" s="11" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), **maa://35841 (49.40)</t>
+          <t>maa://44402 (100.00)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战星极累计造成80000点伤害&gt; 3星通关别传DV-2；必须编入非助战星极并上场，并使用星极至少击败2名实验用动力装甲</t>
         </is>
       </c>
       <c r="F88" s="19" t="n"/>
@@ -11760,27 +11827,27 @@
     <row r="89" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>星极</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B89" s="11" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D89" s="13" t="inlineStr">
         <is>
-          <t>maa://44402 (100.00)</t>
+          <t>*maa://28190 (58.97), maa://20880 (100.00)</t>
         </is>
       </c>
       <c r="E89" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星极累计造成80000点伤害&gt; 3星通关别传DV-2；必须编入非助战星极并上场，并使用星极至少击败2名实验用动力装甲</t>
+          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
         </is>
       </c>
       <c r="F89" s="19" t="n"/>
@@ -11819,22 +11886,22 @@
       </c>
       <c r="B90" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D90" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (58.97), maa://20880 (100.00)</t>
+          <t>maa://24609 (100.00)</t>
         </is>
       </c>
       <c r="E90" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
+          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
       <c r="F90" s="19" t="n"/>
@@ -11868,12 +11935,12 @@
     <row r="91" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B91" s="11" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -11883,12 +11950,12 @@
       </c>
       <c r="D91" s="13" t="inlineStr">
         <is>
-          <t>maa://24609 (100.00)</t>
+          <t>maa://20890 (100.00)</t>
         </is>
       </c>
       <c r="E91" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F91" s="19" t="n"/>
@@ -11922,12 +11989,12 @@
     <row r="92" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B92" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -11937,12 +12004,12 @@
       </c>
       <c r="D92" s="13" t="inlineStr">
         <is>
-          <t>maa://20890 (100.00)</t>
+          <t>maa://20984 (100.00)</t>
         </is>
       </c>
       <c r="E92" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
         </is>
       </c>
       <c r="F92" s="19" t="n"/>
@@ -11976,12 +12043,12 @@
     <row r="93" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B93" s="11" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -11991,12 +12058,12 @@
       </c>
       <c r="D93" s="13" t="inlineStr">
         <is>
-          <t>maa://20984 (100.00)</t>
+          <t>maa://40157 (100.00)</t>
         </is>
       </c>
       <c r="E93" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
+          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F93" s="19" t="n"/>
@@ -12030,12 +12097,12 @@
     <row r="94" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B94" s="11" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
@@ -12045,12 +12112,12 @@
       </c>
       <c r="D94" s="13" t="inlineStr">
         <is>
-          <t>maa://40157 (100.00)</t>
+          <t>maa://20927 (100.00)</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F94" s="19" t="n"/>
@@ -12089,7 +12156,7 @@
       </c>
       <c r="B95" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -12099,12 +12166,12 @@
       </c>
       <c r="D95" s="13" t="inlineStr">
         <is>
-          <t>maa://20927 (100.00)</t>
+          <t>maa://20926 (100.00)</t>
         </is>
       </c>
       <c r="E95" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F95" s="19" t="n"/>
@@ -12138,27 +12205,27 @@
     <row r="96" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B96" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>maa://20926 (100.00)</t>
+          <t>maa://20991 (100.00), *maa://51015 (73.20)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F96" s="19" t="n"/>
@@ -12192,27 +12259,27 @@
     <row r="97" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B97" s="11" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.00), *maa://51015 (72.16)</t>
+          <t>maa://20967 (100.00)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F97" s="19" t="n"/>
@@ -12246,12 +12313,12 @@
     <row r="98" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B98" s="11" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
@@ -12261,12 +12328,12 @@
       </c>
       <c r="D98" s="13" t="inlineStr">
         <is>
-          <t>maa://20967 (100.00)</t>
+          <t>maa://20929 (100.00)</t>
         </is>
       </c>
       <c r="E98" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F98" s="19" t="n"/>
@@ -12300,12 +12367,12 @@
     <row r="99" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B99" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -12315,12 +12382,12 @@
       </c>
       <c r="D99" s="13" t="inlineStr">
         <is>
-          <t>maa://20929 (100.00)</t>
+          <t>maa://20852 (100.00)</t>
         </is>
       </c>
       <c r="E99" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
         </is>
       </c>
       <c r="F99" s="19" t="n"/>
@@ -12354,27 +12421,27 @@
     <row r="100" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B100" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" s="13" t="inlineStr">
         <is>
-          <t>maa://20852 (100.00)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20893 (78.57)</t>
         </is>
       </c>
       <c r="E100" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
+          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F100" s="19" t="n"/>
@@ -12408,27 +12475,27 @@
     <row r="101" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B101" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D101" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20893 (78.57)</t>
+          <t>maa://40517 (100.00), **maa://39240 (42.86)</t>
         </is>
       </c>
       <c r="E101" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
         </is>
       </c>
       <c r="F101" s="19" t="n"/>
@@ -12467,22 +12534,22 @@
       </c>
       <c r="B102" s="11" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D102" s="13" t="inlineStr">
         <is>
-          <t>maa://40517 (100.00), **maa://39240 (42.86)</t>
+          <t>*maa://29094 (79.73), maa://28904 (100.00), **maa://20931 (37.84)</t>
         </is>
       </c>
       <c r="E102" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
+          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
         </is>
       </c>
       <c r="F102" s="19" t="n"/>
@@ -12516,27 +12583,27 @@
     <row r="103" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B103" s="11" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>*maa://29094 (79.73), maa://28904 (100.00), **maa://20931 (37.84)</t>
+          <t>maa://20966 (100.00)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
+          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F103" s="19" t="n"/>
@@ -12570,12 +12637,12 @@
     <row r="104" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B104" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -12585,12 +12652,12 @@
       </c>
       <c r="D104" s="13" t="inlineStr">
         <is>
-          <t>maa://20966 (100.00)</t>
+          <t>maa://39143 (100.00)</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
         </is>
       </c>
       <c r="F104" s="19" t="n"/>
@@ -12624,27 +12691,27 @@
     <row r="105" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B105" s="11" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D105" s="13" t="inlineStr">
         <is>
-          <t>maa://39143 (100.00)</t>
+          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20843 (62.86), ***maa://24483 (12.86)</t>
         </is>
       </c>
       <c r="E105" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
+          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
         </is>
       </c>
       <c r="F105" s="19" t="n"/>
@@ -12678,27 +12745,27 @@
     <row r="106" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B106" s="11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20843 (62.86), ***maa://24483 (12.86)</t>
+          <t>maa://20894 (100.00)</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
+          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
         </is>
       </c>
       <c r="F106" s="19" t="n"/>
@@ -12732,27 +12799,27 @@
     <row r="107" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B107" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D107" s="13" t="inlineStr">
         <is>
-          <t>maa://20894 (100.00)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (78.57), *maa://45194 (62.24), *maa://32653 (63.27), *maa://25161 (60.20), ***maa://60902 (7.14), **maa://61275 (34.69), **maa://61839 (34.69)</t>
         </is>
       </c>
       <c r="E107" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
+          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F107" s="19" t="n"/>
@@ -12786,27 +12853,27 @@
     <row r="108" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B108" s="11" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://25018 (96.94), maa://51881 (100.00), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (78.57), *maa://45194 (60.20), *maa://25161 (60.20), *maa://32653 (61.22), ***maa://60902 (7.14), ***maa://61275 (21.43), **maa://61839 (34.69)</t>
+          <t>maa://45259 (100.00)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
         </is>
       </c>
       <c r="F108" s="19" t="n"/>
@@ -12840,12 +12907,12 @@
     <row r="109" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B109" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -12855,12 +12922,12 @@
       </c>
       <c r="D109" s="13" t="inlineStr">
         <is>
-          <t>maa://45259 (100.00)</t>
+          <t>maa://20887 (100.00)</t>
         </is>
       </c>
       <c r="E109" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
+          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
         </is>
       </c>
       <c r="F109" s="19" t="n"/>
@@ -12894,12 +12961,12 @@
     <row r="110" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B110" s="11" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
@@ -12909,12 +12976,12 @@
       </c>
       <c r="D110" s="13" t="inlineStr">
         <is>
-          <t>maa://20887 (100.00)</t>
+          <t>maa://28554 (100.00)</t>
         </is>
       </c>
       <c r="E110" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
+          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
         </is>
       </c>
       <c r="F110" s="19" t="n"/>
@@ -12948,27 +13015,27 @@
     <row r="111" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B111" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D111" s="13" t="inlineStr">
         <is>
-          <t>maa://28554 (100.00)</t>
+          <t>maa://20933 (100.00), maa://20822 (89.47)</t>
         </is>
       </c>
       <c r="E111" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
+          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F111" s="19" t="n"/>
@@ -13007,22 +13074,22 @@
       </c>
       <c r="B112" s="11" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (100.00), maa://20822 (89.47)</t>
+          <t>maa://29037 (100.00)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F112" s="19" t="n"/>
@@ -13056,12 +13123,12 @@
     <row r="113" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B113" s="11" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -13071,12 +13138,12 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (100.00)</t>
+          <t>maa://20904 (100.00)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
         </is>
       </c>
       <c r="F113" s="19" t="n"/>
@@ -13110,27 +13177,27 @@
     <row r="114" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B114" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D114" s="13" t="inlineStr">
         <is>
-          <t>maa://20904 (100.00)</t>
+          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (63.54)</t>
         </is>
       </c>
       <c r="E114" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
+          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
         </is>
       </c>
       <c r="F114" s="19" t="n"/>
@@ -13169,22 +13236,22 @@
       </c>
       <c r="B115" s="11" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (63.54)</t>
+          <t>maa://29659 (95.95), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
+          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
         </is>
       </c>
       <c r="F115" s="19" t="n"/>
@@ -13218,12 +13285,12 @@
     <row r="116" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B116" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C116" s="12" t="inlineStr">
@@ -13233,12 +13300,12 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (95.95), maa://29031 (100.00)</t>
+          <t>maa://31560 (100.00), maa://20940 (86.57)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
+          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F116" s="19" t="n"/>
@@ -13272,27 +13339,27 @@
     <row r="117" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B117" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (86.57)</t>
+          <t>maa://20986 (100.00)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
       <c r="F117" s="19" t="n"/>
@@ -13326,27 +13393,27 @@
     <row r="118" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B118" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C118" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" s="13" t="inlineStr">
         <is>
-          <t>maa://20986 (100.00)</t>
+          <t>maa://31560 (100.00), *maa://20851 (65.67)</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
         </is>
       </c>
       <c r="F118" s="19" t="n"/>
@@ -13380,27 +13447,27 @@
     <row r="119" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B119" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D119" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), *maa://20851 (65.67)</t>
+          <t>maa://20949 (100.00)</t>
         </is>
       </c>
       <c r="E119" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
         </is>
       </c>
       <c r="F119" s="19" t="n"/>
@@ -13434,27 +13501,27 @@
     <row r="120" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B120" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C120" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" s="13" t="inlineStr">
         <is>
-          <t>maa://20949 (100.00)</t>
+          <t>maa://20869 (100.00), maa://44690 (81.44)</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
+          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
         </is>
       </c>
       <c r="F120" s="19" t="n"/>
@@ -13493,7 +13560,7 @@
       </c>
       <c r="B121" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -13503,12 +13570,12 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (84.54)</t>
+          <t>maa://29650 (100.00), maa://45570 (95.65)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F121" s="19" t="n"/>
@@ -13542,27 +13609,27 @@
     <row r="122" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B122" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C122" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" s="13" t="inlineStr">
         <is>
-          <t>maa://29650 (100.00), maa://45570 (96.70)</t>
+          <t>maa://20868 (100.00)</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
         </is>
       </c>
       <c r="F122" s="19" t="n"/>
@@ -13596,12 +13663,12 @@
     <row r="123" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B123" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -13611,12 +13678,12 @@
       </c>
       <c r="D123" s="13" t="inlineStr">
         <is>
-          <t>maa://20868 (100.00)</t>
+          <t>maa://20909 (100.00)</t>
         </is>
       </c>
       <c r="E123" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
         </is>
       </c>
       <c r="F123" s="19" t="n"/>
@@ -13650,12 +13717,12 @@
     <row r="124" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B124" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
@@ -13665,12 +13732,12 @@
       </c>
       <c r="D124" s="13" t="inlineStr">
         <is>
-          <t>maa://20909 (100.00)</t>
+          <t>maa://44403 (100.00)</t>
         </is>
       </c>
       <c r="E124" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
+          <t>&gt; 由非助战铸铁累计造成30歼灭数&gt; 3星通关别传DH-3；必须编入非助战铸铁并上场，且使用铸铁至少歼灭7个敌人</t>
         </is>
       </c>
       <c r="F124" s="19" t="n"/>
@@ -13704,12 +13771,12 @@
     <row r="125" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B125" s="11" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
@@ -13719,12 +13786,12 @@
       </c>
       <c r="D125" s="13" t="inlineStr">
         <is>
-          <t>maa://44403 (100.00)</t>
+          <t>maa://30501 (100.00)</t>
         </is>
       </c>
       <c r="E125" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战铸铁累计造成30歼灭数&gt; 3星通关别传DH-3；必须编入非助战铸铁并上场，且使用铸铁至少歼灭7个敌人</t>
+          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F125" s="19" t="n"/>
@@ -13758,27 +13825,27 @@
     <row r="126" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B126" s="11" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D126" s="13" t="inlineStr">
         <is>
-          <t>maa://30501 (100.00)</t>
+          <t>*maa://20914 (57.14), **maa://31937 (49.35), maa://20829 (100.00)</t>
         </is>
       </c>
       <c r="E126" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
         </is>
       </c>
       <c r="F126" s="19" t="n"/>
@@ -13817,22 +13884,22 @@
       </c>
       <c r="B127" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D127" s="13" t="inlineStr">
         <is>
-          <t>*maa://20914 (57.14), **maa://31937 (49.35), maa://20829 (100.00)</t>
+          <t>maa://37484 (100.00), maa://24611 (90.48)</t>
         </is>
       </c>
       <c r="E127" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
         </is>
       </c>
       <c r="F127" s="19" t="n"/>
@@ -13866,12 +13933,12 @@
     <row r="128" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B128" s="11" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C128" s="12" t="inlineStr">
@@ -13881,12 +13948,12 @@
       </c>
       <c r="D128" s="13" t="inlineStr">
         <is>
-          <t>maa://37484 (100.00), maa://24611 (90.48)</t>
+          <t>maa://24491 (100.00), *maa://24493 (75.56)</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
+          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F128" s="19" t="n"/>
@@ -13920,27 +13987,27 @@
     <row r="129" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B129" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D129" s="13" t="inlineStr">
         <is>
-          <t>maa://24491 (100.00), *maa://24493 (75.56)</t>
+          <t>maa://21422 (100.00)</t>
         </is>
       </c>
       <c r="E129" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
         </is>
       </c>
       <c r="F129" s="19" t="n"/>
@@ -13979,7 +14046,7 @@
       </c>
       <c r="B130" s="11" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C130" s="12" t="inlineStr">
@@ -13989,12 +14056,12 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (100.00)</t>
+          <t>maa://30719 (100.00)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
+          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
         </is>
       </c>
       <c r="F130" s="19" t="n"/>
@@ -14028,27 +14095,27 @@
     <row r="131" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B131" s="11" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" s="13" t="inlineStr">
         <is>
-          <t>maa://30719 (100.00)</t>
+          <t>maa://20837 (100.00), *maa://37666 (72.94)</t>
         </is>
       </c>
       <c r="E131" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
+          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
         </is>
       </c>
       <c r="F131" s="19" t="n"/>
@@ -14087,7 +14154,7 @@
       </c>
       <c r="B132" s="11" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C132" s="12" t="inlineStr">
@@ -14097,12 +14164,12 @@
       </c>
       <c r="D132" s="13" t="inlineStr">
         <is>
-          <t>maa://20837 (100.00), *maa://37666 (72.94)</t>
+          <t>maa://29023 (100.00), *maa://39515 (74.71)</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
+          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
         </is>
       </c>
       <c r="F132" s="19" t="n"/>
@@ -14136,27 +14203,27 @@
     <row r="133" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B133" s="11" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="13" t="inlineStr">
         <is>
-          <t>maa://29023 (100.00), *maa://39515 (74.71)</t>
+          <t>maa://39146 (100.00)</t>
         </is>
       </c>
       <c r="E133" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
+          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F133" s="19" t="n"/>
@@ -14190,12 +14257,12 @@
     <row r="134" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B134" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C134" s="12" t="inlineStr">
@@ -14205,12 +14272,12 @@
       </c>
       <c r="D134" s="13" t="inlineStr">
         <is>
-          <t>maa://39146 (100.00)</t>
+          <t>maa://20856 (100.00)</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
         </is>
       </c>
       <c r="F134" s="19" t="n"/>
@@ -14244,12 +14311,12 @@
     <row r="135" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B135" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -14259,12 +14326,12 @@
       </c>
       <c r="D135" s="13" t="inlineStr">
         <is>
-          <t>maa://20856 (100.00)</t>
+          <t>maa://20913 (100.00)</t>
         </is>
       </c>
       <c r="E135" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F135" s="19" t="n"/>
@@ -14298,12 +14365,12 @@
     <row r="136" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B136" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C136" s="12" t="inlineStr">
@@ -14313,12 +14380,12 @@
       </c>
       <c r="D136" s="13" t="inlineStr">
         <is>
-          <t>maa://20913 (100.00)</t>
+          <t>maa://41856 (100.00)</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F136" s="19" t="n"/>
@@ -14352,27 +14419,27 @@
     <row r="137" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B137" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D137" s="13" t="inlineStr">
         <is>
-          <t>maa://41856 (100.00)</t>
+          <t>maa://29025 (100.00), **maa://21000 (44.62)</t>
         </is>
       </c>
       <c r="E137" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
+          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F137" s="19" t="n"/>
@@ -14406,12 +14473,12 @@
     <row r="138" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B138" s="11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C138" s="12" t="inlineStr">
@@ -14421,12 +14488,12 @@
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (100.00), **maa://21000 (44.62)</t>
+          <t>**maa://30679 (44.93), maa://45258 (100.00)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
       </c>
       <c r="F138" s="19" t="n"/>
@@ -14460,27 +14527,27 @@
     <row r="139" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B139" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (44.93), maa://45258 (100.00)</t>
+          <t>maa://20981 (100.00)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
+          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
         </is>
       </c>
       <c r="F139" s="19" t="n"/>
@@ -14514,12 +14581,12 @@
     <row r="140" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B140" s="11" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
@@ -14529,12 +14596,12 @@
       </c>
       <c r="D140" s="13" t="inlineStr">
         <is>
-          <t>maa://20981 (100.00)</t>
+          <t>maa://37689 (100.00)</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
+          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
         </is>
       </c>
       <c r="F140" s="19" t="n"/>
@@ -14568,27 +14635,27 @@
     <row r="141" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B141" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D141" s="13" t="inlineStr">
         <is>
-          <t>maa://37689 (100.00)</t>
+          <t>maa://28484 (100.00), **maa://23736 (36.56), *maa://31185 (52.69), *maa://30306 (54.84)</t>
         </is>
       </c>
       <c r="E141" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
+          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
         </is>
       </c>
       <c r="F141" s="19" t="n"/>
@@ -14627,22 +14694,22 @@
       </c>
       <c r="B142" s="11" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (36.56), *maa://31185 (52.69), *maa://30306 (54.84)</t>
+          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), ***maa://30867 (12.90), ***maa://61380 (22.58)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F142" s="19" t="n"/>
@@ -14676,27 +14743,27 @@
     <row r="143" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B143" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), ***maa://30867 (12.90), ***maa://61380 (22.58)</t>
+          <t>maa://20971 (100.00)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
       <c r="F143" s="19" t="n"/>
@@ -14730,12 +14797,12 @@
     <row r="144" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B144" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
@@ -14745,12 +14812,12 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (100.00)</t>
+          <t>maa://39147 (100.00)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F144" s="19" t="n"/>
@@ -14784,12 +14851,12 @@
     <row r="145" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B145" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
@@ -14799,12 +14866,12 @@
       </c>
       <c r="D145" s="13" t="inlineStr">
         <is>
-          <t>maa://39147 (100.00)</t>
+          <t>maa://20898 (100.00)</t>
         </is>
       </c>
       <c r="E145" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
+          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
         </is>
       </c>
       <c r="F145" s="19" t="n"/>
@@ -14838,27 +14905,27 @@
     <row r="146" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B146" s="11" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D146" s="13" t="inlineStr">
         <is>
-          <t>maa://20898 (100.00)</t>
+          <t>maa://29056 (100.00), ***maa://20901 (1.18)</t>
         </is>
       </c>
       <c r="E146" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
         </is>
       </c>
       <c r="F146" s="19" t="n"/>
@@ -14892,27 +14959,27 @@
     <row r="147" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B147" s="11" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D147" s="13" t="inlineStr">
         <is>
-          <t>maa://29056 (100.00), ***maa://20901 (1.18)</t>
+          <t>maa://28828 (82.50), maa://20846 (100.00), **maa://47286 (37.50)</t>
         </is>
       </c>
       <c r="E147" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
+          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
         </is>
       </c>
       <c r="F147" s="19" t="n"/>
@@ -14946,27 +15013,27 @@
     <row r="148" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B148" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://28828 (82.50), maa://20846 (100.00), **maa://47286 (37.50)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (87.63), *maa://37300 (58.76), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
+          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F148" s="19" t="n"/>
@@ -15005,22 +15072,22 @@
       </c>
       <c r="B149" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (87.63), *maa://37300 (58.76), **maa://42917 (35.05)</t>
+          <t>maa://51549 (100.00), maa://51923 (91.95)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
       <c r="F149" s="19" t="n"/>
@@ -15054,27 +15121,27 @@
     <row r="150" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B150" s="11" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C150" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (100.00), maa://51923 (91.95)</t>
+          <t>maa://20961 (100.00)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战棘刺累计使用至高之术8次&gt; 3星通关主题曲7-2；必须编入非助战棘刺并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
         </is>
       </c>
       <c r="F150" s="19" t="n"/>
@@ -15108,12 +15175,12 @@
     <row r="151" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B151" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -15123,12 +15190,12 @@
       </c>
       <c r="D151" s="13" t="inlineStr">
         <is>
-          <t>maa://20961 (100.00)</t>
+          <t>maa://20963 (100.00)</t>
         </is>
       </c>
       <c r="E151" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
         </is>
       </c>
       <c r="F151" s="19" t="n"/>
@@ -15162,12 +15229,12 @@
     <row r="152" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B152" s="11" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C152" s="12" t="inlineStr">
@@ -15177,12 +15244,12 @@
       </c>
       <c r="D152" s="13" t="inlineStr">
         <is>
-          <t>maa://20963 (100.00)</t>
+          <t>maa://39148 (100.00)</t>
         </is>
       </c>
       <c r="E152" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
+          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F152" s="19" t="n"/>
@@ -15216,27 +15283,27 @@
     <row r="153" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B153" s="11" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D153" s="13" t="inlineStr">
         <is>
-          <t>maa://39148 (100.00)</t>
+          <t>maa://20946 (100.00), maa://20833 (86.36)</t>
         </is>
       </c>
       <c r="E153" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
+          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
         </is>
       </c>
       <c r="F153" s="19" t="n"/>
@@ -15275,22 +15342,22 @@
       </c>
       <c r="B154" s="11" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C154" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D154" s="13" t="inlineStr">
         <is>
-          <t>maa://20946 (100.00), maa://20833 (86.36)</t>
+          <t>maa://20945 (100.00)</t>
         </is>
       </c>
       <c r="E154" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
+          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
         </is>
       </c>
       <c r="F154" s="19" t="n"/>
@@ -15324,12 +15391,12 @@
     <row r="155" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B155" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -15339,12 +15406,12 @@
       </c>
       <c r="D155" s="13" t="inlineStr">
         <is>
-          <t>maa://20945 (100.00)</t>
+          <t>maa://37694 (100.00)</t>
         </is>
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F155" s="19" t="n"/>
@@ -15378,12 +15445,12 @@
     <row r="156" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B156" s="11" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C156" s="12" t="inlineStr">
@@ -15393,12 +15460,12 @@
       </c>
       <c r="D156" s="13" t="inlineStr">
         <is>
-          <t>maa://37694 (100.00)</t>
+          <t>maa://39149 (100.00)</t>
         </is>
       </c>
       <c r="E156" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
         </is>
       </c>
       <c r="F156" s="19" t="n"/>
@@ -15432,12 +15499,12 @@
     <row r="157" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B157" s="11" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
@@ -15447,12 +15514,12 @@
       </c>
       <c r="D157" s="13" t="inlineStr">
         <is>
-          <t>maa://39149 (100.00)</t>
+          <t>maa://20959 (100.00)</t>
         </is>
       </c>
       <c r="E157" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
+          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
         </is>
       </c>
       <c r="F157" s="19" t="n"/>
@@ -15486,27 +15553,27 @@
     <row r="158" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B158" s="11" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C158" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D158" s="13" t="inlineStr">
         <is>
-          <t>maa://20959 (100.00)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35)</t>
         </is>
       </c>
       <c r="E158" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
         </is>
       </c>
       <c r="F158" s="19" t="n"/>
@@ -15540,27 +15607,27 @@
     <row r="159" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B159" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35)</t>
+          <t>maa://20936 (100.00)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战史尔特尔并上场，且每次战斗至少释放1次黄昏&gt; 3星通关主题曲3-8；必须编入非助战史尔特尔并上场，且使用史尔特尔歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
         </is>
       </c>
       <c r="F159" s="19" t="n"/>
@@ -15594,12 +15661,12 @@
     <row r="160" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B160" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C160" s="12" t="inlineStr">
@@ -15609,12 +15676,12 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://20936 (100.00)</t>
+          <t>maa://20855 (100.00)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
+          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F160" s="19" t="n"/>
@@ -15648,12 +15715,12 @@
     <row r="161" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B161" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
@@ -15663,12 +15730,12 @@
       </c>
       <c r="D161" s="13" t="inlineStr">
         <is>
-          <t>maa://20855 (100.00)</t>
+          <t>maa://40158 (100.00)</t>
         </is>
       </c>
       <c r="E161" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F161" s="19" t="n"/>
@@ -15702,27 +15769,27 @@
     <row r="162" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B162" s="11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D162" s="13" t="inlineStr">
         <is>
-          <t>maa://40158 (100.00)</t>
+          <t>*maa://32845 (64.04), maa://29054 (100.00)</t>
         </is>
       </c>
       <c r="E162" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
+          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
         </is>
       </c>
       <c r="F162" s="19" t="n"/>
@@ -15761,22 +15828,22 @@
       </c>
       <c r="B163" s="11" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D163" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (64.04), maa://29054 (100.00)</t>
+          <t>maa://20973 (100.00)</t>
         </is>
       </c>
       <c r="E163" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F163" s="19" t="n"/>
@@ -15810,12 +15877,12 @@
     <row r="164" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B164" s="11" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
@@ -15825,12 +15892,12 @@
       </c>
       <c r="D164" s="13" t="inlineStr">
         <is>
-          <t>maa://20973 (100.00)</t>
+          <t>maa://39150 (100.00)</t>
         </is>
       </c>
       <c r="E164" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F164" s="19" t="n"/>
@@ -15864,27 +15931,27 @@
     <row r="165" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B165" s="11" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D165" s="13" t="inlineStr">
         <is>
-          <t>maa://39150 (100.00)</t>
+          <t>maa://20975 (100.00), *maa://47950 (61.29), maa://30806 (91.94)</t>
         </is>
       </c>
       <c r="E165" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F165" s="19" t="n"/>
@@ -15918,27 +15985,27 @@
     <row r="166" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B166" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (100.00), *maa://47950 (61.29), maa://30806 (91.94)</t>
+          <t>maa://29633 (98.88), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (97.75), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F166" s="19" t="n"/>
@@ -15977,22 +16044,22 @@
       </c>
       <c r="B167" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (98.88), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (97.75), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://49867 (94.05), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战泥岩累计造成40歼灭数&gt; 3星通关主题曲10-16标准实战环境；必须编入非助战泥岩并上场，其他成员不可编入重装干员</t>
         </is>
       </c>
       <c r="F167" s="19" t="n"/>
@@ -16026,27 +16093,27 @@
     <row r="168" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B168" s="11" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (96.43), maa://49655 (100.00)</t>
+          <t>maa://29059 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战泥岩累计造成40歼灭数&gt; 3星通关主题曲10-16标准实战环境；必须编入非助战泥岩并上场，其他成员不可编入重装干员</t>
+          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
         </is>
       </c>
       <c r="F168" s="19" t="n"/>
@@ -16080,12 +16147,12 @@
     <row r="169" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B169" s="11" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
@@ -16095,12 +16162,12 @@
       </c>
       <c r="D169" s="13" t="inlineStr">
         <is>
-          <t>maa://29059 (100.00)</t>
+          <t>maa://45556 (100.00)</t>
         </is>
       </c>
       <c r="E169" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
         </is>
       </c>
       <c r="F169" s="19" t="n"/>
@@ -16134,12 +16201,12 @@
     <row r="170" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B170" s="11" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -16149,12 +16216,12 @@
       </c>
       <c r="D170" s="13" t="inlineStr">
         <is>
-          <t>maa://45556 (100.00)</t>
+          <t>maa://40159 (100.00)</t>
         </is>
       </c>
       <c r="E170" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战近卫职业的阿米娅并上场，且每次战斗至少释放1次影霄·绝影&gt; 3星通关主题曲2-10；必须编入非助战近卫职业的阿米娅并上场，且使用阿米娅歼灭碎骨</t>
+          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
         </is>
       </c>
       <c r="F170" s="19" t="n"/>
@@ -16188,12 +16255,12 @@
     <row r="171" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B171" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
@@ -16203,12 +16270,12 @@
       </c>
       <c r="D171" s="13" t="inlineStr">
         <is>
-          <t>maa://40159 (100.00)</t>
+          <t>maa://39152 (100.00)</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
         </is>
       </c>
       <c r="F171" s="19" t="n"/>
@@ -16242,27 +16309,27 @@
     <row r="172" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B172" s="11" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D172" s="13" t="inlineStr">
         <is>
-          <t>maa://39152 (100.00)</t>
+          <t>maa://20905 (100.00), **maa://52268 (38.18)</t>
         </is>
       </c>
       <c r="E172" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
+          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F172" s="19" t="n"/>
@@ -16296,27 +16363,27 @@
     <row r="173" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B173" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D173" s="13" t="inlineStr">
         <is>
-          <t>maa://20905 (100.00), **maa://52268 (36.21)</t>
+          <t>maa://59681 (100.00)</t>
         </is>
       </c>
       <c r="E173" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F173" s="19" t="n"/>
@@ -16355,22 +16422,22 @@
       </c>
       <c r="B174" s="11" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00)</t>
+          <t>maa://32418 (100.00), maa://51440 (88.89), *maa://63320 (61.62)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗，必须编入非助战山，且每次战斗使用山造成至少12000点伤害&gt; 3星通关插曲LE-5，必须编入非助战山并上场，且使用山歼灭至少10名敌人</t>
+          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F174" s="19" t="n"/>
@@ -16404,27 +16471,27 @@
     <row r="175" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B175" s="11" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (88.89), *maa://63320 (51.52)</t>
+          <t>maa://37690 (100.00)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
         </is>
       </c>
       <c r="F175" s="19" t="n"/>
@@ -16458,12 +16525,12 @@
     <row r="176" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B176" s="11" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
@@ -16473,12 +16540,12 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (100.00)</t>
+          <t>maa://20842 (100.00)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
+          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
         </is>
       </c>
       <c r="F176" s="19" t="n"/>
@@ -16512,12 +16579,12 @@
     <row r="177" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B177" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
@@ -16527,12 +16594,12 @@
       </c>
       <c r="D177" s="13" t="inlineStr">
         <is>
-          <t>maa://20842 (100.00)</t>
+          <t>maa://20912 (100.00)</t>
         </is>
       </c>
       <c r="E177" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
+          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
       <c r="F177" s="19" t="n"/>
@@ -16571,22 +16638,22 @@
       </c>
       <c r="B178" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="13" t="inlineStr">
         <is>
-          <t>maa://20912 (100.00)</t>
+          <t>maa://20911 (100.00), *maa://29012 (62.03)</t>
         </is>
       </c>
       <c r="E178" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
         </is>
       </c>
       <c r="F178" s="19" t="n"/>
@@ -16620,27 +16687,27 @@
     <row r="179" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B179" s="11" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (100.00), *maa://29012 (62.03)</t>
+          <t>maa://20964 (100.00)</t>
         </is>
       </c>
       <c r="E179" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F179" s="19" t="n"/>
@@ -16674,12 +16741,12 @@
     <row r="180" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B180" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
@@ -16689,12 +16756,12 @@
       </c>
       <c r="D180" s="13" t="inlineStr">
         <is>
-          <t>maa://20964 (100.00)</t>
+          <t>maa://20983 (100.00)</t>
         </is>
       </c>
       <c r="E180" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
         </is>
       </c>
       <c r="F180" s="19" t="n"/>
@@ -16728,27 +16795,27 @@
     <row r="181" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B181" s="11" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D181" s="13" t="inlineStr">
         <is>
-          <t>maa://20983 (100.00)</t>
+          <t>maa://31560 (100.00), **maa://20968 (31.34)</t>
         </is>
       </c>
       <c r="E181" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
         </is>
       </c>
       <c r="F181" s="19" t="n"/>
@@ -16782,27 +16849,27 @@
     <row r="182" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B182" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D182" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), **maa://20968 (31.34)</t>
+          <t>maa://28104 (100.00)</t>
         </is>
       </c>
       <c r="E182" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
+          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F182" s="19" t="n"/>
@@ -16841,7 +16908,7 @@
       </c>
       <c r="B183" s="11" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -16851,12 +16918,12 @@
       </c>
       <c r="D183" s="13" t="inlineStr">
         <is>
-          <t>maa://28104 (100.00)</t>
+          <t>maa://20861 (100.00)</t>
         </is>
       </c>
       <c r="E183" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
         </is>
       </c>
       <c r="F183" s="19" t="n"/>
@@ -16890,12 +16957,12 @@
     <row r="184" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B184" s="11" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
@@ -16905,12 +16972,12 @@
       </c>
       <c r="D184" s="13" t="inlineStr">
         <is>
-          <t>maa://20861 (100.00)</t>
+          <t>maa://20970 (100.00)</t>
         </is>
       </c>
       <c r="E184" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
+          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F184" s="19" t="n"/>
@@ -16949,22 +17016,22 @@
       </c>
       <c r="B185" s="11" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D185" s="13" t="inlineStr">
         <is>
-          <t>maa://20970 (100.00)</t>
+          <t>maa://20969 (86.25), maa://41303 (100.00)</t>
         </is>
       </c>
       <c r="E185" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
       <c r="F185" s="19" t="n"/>
@@ -16998,27 +17065,27 @@
     <row r="186" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B186" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D186" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (86.25), maa://41303 (100.00)</t>
+          <t>maa://20999 (100.00)</t>
         </is>
       </c>
       <c r="E186" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F186" s="19" t="n"/>
@@ -17052,12 +17119,12 @@
     <row r="187" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B187" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
@@ -17067,12 +17134,12 @@
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
-          <t>maa://20999 (100.00)</t>
+          <t>maa://35198 (100.00)</t>
         </is>
       </c>
       <c r="E187" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
         </is>
       </c>
       <c r="F187" s="19" t="n"/>
@@ -17106,12 +17173,12 @@
     <row r="188" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B188" s="11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -17121,12 +17188,12 @@
       </c>
       <c r="D188" s="13" t="inlineStr">
         <is>
-          <t>maa://35198 (100.00)</t>
+          <t>maa://39153 (100.00)</t>
         </is>
       </c>
       <c r="E188" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
+          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
         </is>
       </c>
       <c r="F188" s="19" t="n"/>
@@ -17160,27 +17227,27 @@
     <row r="189" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B189" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D189" s="13" t="inlineStr">
         <is>
-          <t>maa://39153 (100.00)</t>
+          <t>maa://34866 (100.00), maa://34714 (100.00)</t>
         </is>
       </c>
       <c r="E189" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
+          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
         </is>
       </c>
       <c r="F189" s="19" t="n"/>
@@ -17219,7 +17286,7 @@
       </c>
       <c r="B190" s="11" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
@@ -17229,12 +17296,12 @@
       </c>
       <c r="D190" s="13" t="inlineStr">
         <is>
-          <t>maa://34866 (100.00), maa://34714 (100.00)</t>
+          <t>maa://34883 (100.00), maa://20895 (84.72)</t>
         </is>
       </c>
       <c r="E190" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
+          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
         </is>
       </c>
       <c r="F190" s="19" t="n"/>
@@ -17268,27 +17335,27 @@
     <row r="191" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B191" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D191" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (100.00), maa://20895 (84.72)</t>
+          <t>maa://20853 (100.00)</t>
         </is>
       </c>
       <c r="E191" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
+          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F191" s="19" t="n"/>
@@ -17322,12 +17389,12 @@
     <row r="192" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B192" s="11" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
@@ -17337,12 +17404,12 @@
       </c>
       <c r="D192" s="13" t="inlineStr">
         <is>
-          <t>maa://20853 (100.00)</t>
+          <t>maa://20942 (100.00)</t>
         </is>
       </c>
       <c r="E192" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F192" s="19" t="n"/>
@@ -17376,12 +17443,12 @@
     <row r="193" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B193" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
@@ -17391,12 +17458,12 @@
       </c>
       <c r="D193" s="13" t="inlineStr">
         <is>
-          <t>maa://20942 (100.00)</t>
+          <t>maa://20992 (100.00)</t>
         </is>
       </c>
       <c r="E193" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
         </is>
       </c>
       <c r="F193" s="19" t="n"/>
@@ -17435,22 +17502,22 @@
       </c>
       <c r="B194" s="11" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D194" s="13" t="inlineStr">
         <is>
-          <t>maa://20992 (100.00)</t>
+          <t>*maa://28190 (63.89), maa://20994 (100.00)</t>
         </is>
       </c>
       <c r="E194" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
         </is>
       </c>
       <c r="F194" s="19" t="n"/>
@@ -17484,27 +17551,27 @@
     <row r="195" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B195" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (63.89), maa://20994 (100.00)</t>
+          <t>maa://20860 (100.00)</t>
         </is>
       </c>
       <c r="E195" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
+          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
         </is>
       </c>
       <c r="F195" s="19" t="n"/>
@@ -17538,27 +17605,27 @@
     <row r="196" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B196" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D196" s="13" t="inlineStr">
         <is>
-          <t>maa://20860 (100.00)</t>
+          <t>maa://44224 (92.55), maa://35854 (81.91), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (78.72)</t>
         </is>
       </c>
       <c r="E196" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
         </is>
       </c>
       <c r="F196" s="19" t="n"/>
@@ -17597,22 +17664,22 @@
       </c>
       <c r="B197" s="11" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.55), maa://35854 (82.98), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (76.60)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
         </is>
       </c>
       <c r="F197" s="19" t="n"/>
@@ -17646,27 +17713,27 @@
     <row r="198" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B198" s="11" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38)</t>
+          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
+          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
         </is>
       </c>
       <c r="F198" s="19" t="n"/>
@@ -17720,7 +17787,7 @@
       </c>
       <c r="E199" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
+          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
         </is>
       </c>
       <c r="F199" s="19" t="n"/>
@@ -17754,27 +17821,27 @@
     <row r="200" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B200" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
+          <t>maa://42223 (100.00), maa://49077 (83.67), maa://42292 (87.76), *maa://42402 (69.39)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
+          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
         </is>
       </c>
       <c r="F200" s="19" t="n"/>
@@ -17808,7 +17875,7 @@
     <row r="201" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B201" s="11" t="inlineStr">
@@ -17818,17 +17885,17 @@
       </c>
       <c r="C201" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (100.00), maa://49077 (83.67), maa://42292 (87.76), *maa://42402 (69.39)</t>
+          <t>maa://39154 (100.00)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
+          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
         </is>
       </c>
       <c r="F201" s="19" t="n"/>
@@ -17862,12 +17929,12 @@
     <row r="202" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B202" s="11" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -17877,12 +17944,12 @@
       </c>
       <c r="D202" s="13" t="inlineStr">
         <is>
-          <t>maa://39154 (100.00)</t>
+          <t>maa://20854 (100.00)</t>
         </is>
       </c>
       <c r="E202" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
         </is>
       </c>
       <c r="F202" s="19" t="n"/>
@@ -17916,12 +17983,12 @@
     <row r="203" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B203" s="11" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
@@ -17931,12 +17998,12 @@
       </c>
       <c r="D203" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (100.00)</t>
+          <t>maa://20937 (100.00)</t>
         </is>
       </c>
       <c r="E203" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
+          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
         </is>
       </c>
       <c r="F203" s="19" t="n"/>
@@ -17970,12 +18037,12 @@
     <row r="204" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B204" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
@@ -17985,12 +18052,12 @@
       </c>
       <c r="D204" s="13" t="inlineStr">
         <is>
-          <t>maa://20937 (100.00)</t>
+          <t>maa://22468 (100.00)</t>
         </is>
       </c>
       <c r="E204" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
+          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
         </is>
       </c>
       <c r="F204" s="19" t="n"/>
@@ -18029,22 +18096,22 @@
       </c>
       <c r="B205" s="11" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
-          <t>maa://22468 (100.00)</t>
+          <t>maa://30673 (100.00), maa://30672 (90.28)</t>
         </is>
       </c>
       <c r="E205" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F205" s="19" t="n"/>
@@ -18078,27 +18145,27 @@
     <row r="206" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B206" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://30673 (100.00), maa://30672 (90.28)</t>
+          <t>maa://20934 (97.44), maa://20827 (98.72), maa://20828 (100.00)</t>
         </is>
       </c>
       <c r="E206" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
         </is>
       </c>
       <c r="F206" s="19" t="n"/>
@@ -18137,22 +18204,22 @@
       </c>
       <c r="B207" s="11" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="13" t="inlineStr">
         <is>
-          <t>maa://20934 (97.44), maa://20827 (98.72), maa://20828 (100.00)</t>
+          <t>maa://20935 (100.00)</t>
         </is>
       </c>
       <c r="E207" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
+          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
       <c r="F207" s="19" t="n"/>
@@ -18186,12 +18253,12 @@
     <row r="208" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B208" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -18201,12 +18268,12 @@
       </c>
       <c r="D208" s="13" t="inlineStr">
         <is>
-          <t>maa://20935 (100.00)</t>
+          <t>maa://53354 (100.00)</t>
         </is>
       </c>
       <c r="E208" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
         </is>
       </c>
       <c r="F208" s="19" t="n"/>
@@ -18240,27 +18307,27 @@
     <row r="209" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B209" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D209" s="13" t="inlineStr">
         <is>
-          <t>maa://53354 (100.00)</t>
+          <t>maa://28133 (100.00), ***maa://39217 (26.19), maa://25369 (100.00)</t>
         </is>
       </c>
       <c r="E209" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战龙舌兰累计造成30歼灭数&gt; 3星通关主题曲7-11；必须编入非助战龙舌兰并上场，且使用2次剑走偏锋</t>
+          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F209" s="19" t="n"/>
@@ -18294,12 +18361,12 @@
     <row r="210" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B210" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
@@ -18309,12 +18376,12 @@
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (100.00), ***maa://39217 (26.19), maa://25369 (98.81)</t>
+          <t>maa://20956 (100.00), *maa://20830 (63.04), *maa://44703 (70.65)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
+          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
         </is>
       </c>
       <c r="F210" s="19" t="n"/>
@@ -18353,22 +18420,22 @@
       </c>
       <c r="B211" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (100.00), *maa://20830 (63.04), *maa://44703 (70.65)</t>
+          <t>maa://20955 (100.00)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
+          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
         </is>
       </c>
       <c r="F211" s="19" t="n"/>
@@ -18402,12 +18469,12 @@
     <row r="212" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B212" s="11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -18417,12 +18484,12 @@
       </c>
       <c r="D212" s="13" t="inlineStr">
         <is>
-          <t>maa://20955 (100.00)</t>
+          <t>maa://39238 (100.00)</t>
         </is>
       </c>
       <c r="E212" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
+          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F212" s="19" t="n"/>
@@ -18454,29 +18521,29 @@
       <c r="AF212" s="8" t="n"/>
     </row>
     <row r="213" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A213" s="11" t="inlineStr">
+      <c r="A213" s="24" t="inlineStr">
         <is>
           <t>假日威龙陈</t>
         </is>
       </c>
-      <c r="B213" s="11" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="C213" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D213" s="13" t="inlineStr">
-        <is>
-          <t>maa://39238 (100.00)</t>
-        </is>
-      </c>
-      <c r="E213" s="14" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
+      <c r="B213" s="24" t="inlineStr">
+        <is>
+          <t>DH-7</t>
+        </is>
+      </c>
+      <c r="C213" s="25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D213" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E213" s="27" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战假日威龙陈累计造成40歼灭数&gt; 3星通关插曲DH-7，必须编入非助战假日威龙陈并上场，且使用假日威龙陈歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F213" s="19" t="n"/>
@@ -19929,7 +19996,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (94.94), maa://30666 (98.73), **maa://30739 (36.71), *maa://30723 (55.70), maa://39588 (100.00)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (56.41), maa://39588 (98.72)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
@@ -20577,7 +20644,7 @@
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (100.00), **maa://60577 (38.96)</t>
+          <t>maa://20923 (100.00), **maa://60577 (38.46)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
@@ -23007,7 +23074,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.00), maa://57199 (89.36)</t>
+          <t>maa://45799 (100.00), maa://57199 (90.43)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -23439,7 +23506,7 @@
       </c>
       <c r="D305" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (96.84), *maa://49660 (80.00), **maa://50517 (40.00)</t>
+          <t>maa://50280 (100.00), maa://49642 (96.84), maa://49660 (81.05), **maa://50517 (40.00)</t>
         </is>
       </c>
       <c r="E305" s="14" t="inlineStr">
@@ -24141,7 +24208,7 @@
       </c>
       <c r="D318" s="13" t="inlineStr">
         <is>
-          <t>maa://62761 (100.00), **maa://62755 (38.78)</t>
+          <t>**maa://62755 (50.00), maa://62761 (100.00)</t>
         </is>
       </c>
       <c r="E318" s="14" t="inlineStr">
@@ -24789,7 +24856,7 @@
       </c>
       <c r="D330" s="13" t="inlineStr">
         <is>
-          <t>maa://30680 (100.00), ***maa://41360 (25.93)</t>
+          <t>maa://30680 (100.00), ***maa://41360 (25.61)</t>
         </is>
       </c>
       <c r="E330" s="14" t="inlineStr">
@@ -24880,29 +24947,29 @@
       <c r="AF331" s="8" t="n"/>
     </row>
     <row r="332" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A332" s="12" t="inlineStr">
-        <is>
-          <t>深律</t>
-        </is>
-      </c>
-      <c r="B332" s="11" t="inlineStr">
-        <is>
-          <t>LE-4</t>
-        </is>
-      </c>
-      <c r="C332" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D332" s="15" t="inlineStr">
-        <is>
-          <t>maa://59688 (100.00)</t>
-        </is>
-      </c>
-      <c r="E332" s="15" t="inlineStr">
-        <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+      <c r="A332" s="25" t="inlineStr">
+        <is>
+          <t>折光</t>
+        </is>
+      </c>
+      <c r="B332" s="24" t="inlineStr">
+        <is>
+          <t>6-1</t>
+        </is>
+      </c>
+      <c r="C332" s="25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D332" s="32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E332" s="32" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战折光累计造成80000点伤害&gt; 3星通关主题曲6-1，必须编入非助战折光并上场，且使用折光歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="F332" s="19" t="n"/>
@@ -24936,27 +25003,27 @@
     <row r="333" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B333" s="11" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="15" t="inlineStr">
         <is>
-          <t>maa://34205 (100.00), **maa://39541 (50.00)</t>
+          <t>maa://59688 (100.00)</t>
         </is>
       </c>
       <c r="E333" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F333" s="19" t="n"/>
@@ -24995,7 +25062,7 @@
       </c>
       <c r="B334" s="11" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
@@ -25005,12 +25072,12 @@
       </c>
       <c r="D334" s="15" t="inlineStr">
         <is>
-          <t>maa://43092 (100.00), maa://43093 (85.37)</t>
+          <t>maa://34205 (100.00), **maa://39541 (50.00)</t>
         </is>
       </c>
       <c r="E334" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
       <c r="F334" s="19" t="n"/>
@@ -25044,27 +25111,27 @@
     <row r="335" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B335" s="11" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="15" t="inlineStr">
         <is>
-          <t>maa://44234 (100.00)</t>
+          <t>maa://43092 (100.00), maa://43093 (85.37)</t>
         </is>
       </c>
       <c r="E335" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
       <c r="F335" s="19" t="n"/>
@@ -25098,27 +25165,27 @@
     <row r="336" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B336" s="11" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="15" t="inlineStr">
         <is>
-          <t>maa://42968 (100.00), maa://49245 (92.86)</t>
+          <t>maa://44234 (100.00)</t>
         </is>
       </c>
       <c r="E336" s="15" t="inlineStr">
         <is>
-          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
+          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
         </is>
       </c>
       <c r="F336" s="19" t="n"/>
@@ -25152,27 +25219,27 @@
     <row r="337" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B337" s="11" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D337" s="15" t="inlineStr">
         <is>
-          <t>maa://40162 (100.00)</t>
+          <t>maa://42968 (100.00), maa://49245 (92.86)</t>
         </is>
       </c>
       <c r="E337" s="15" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
       <c r="F337" s="19" t="n"/>
@@ -25206,12 +25273,12 @@
     <row r="338" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B338" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -25221,12 +25288,12 @@
       </c>
       <c r="D338" s="22" t="inlineStr">
         <is>
-          <t>maa://37692 (100.00)</t>
+          <t>maa://40162 (100.00)</t>
         </is>
       </c>
       <c r="E338" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F338" s="19" t="n"/>
@@ -25260,27 +25327,27 @@
     <row r="339" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B339" s="11" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" s="22" t="inlineStr">
         <is>
-          <t>*maa://30671 (78.12), maa://30669 (100.00), *maa://37275 (71.88), **maa://32410 (40.63), *maa://41605 (67.71)</t>
+          <t>maa://37692 (100.00)</t>
         </is>
       </c>
       <c r="E339" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F339" s="19" t="n"/>
@@ -25314,27 +25381,27 @@
     <row r="340" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B340" s="11" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D340" s="22" t="inlineStr">
         <is>
-          <t>maa://38295 (100.00), maa://49332 (80.90)</t>
+          <t>*maa://30671 (78.12), maa://30669 (100.00), *maa://37275 (71.88), **maa://32410 (37.50), *maa://41605 (67.71)</t>
         </is>
       </c>
       <c r="E340" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
       <c r="F340" s="19" t="n"/>
@@ -25366,29 +25433,29 @@
       <c r="AF340" s="8" t="n"/>
     </row>
     <row r="341" ht="13.5" customFormat="1" customHeight="1" s="22">
-      <c r="A341" s="12" t="inlineStr">
-        <is>
-          <t>万顷</t>
-        </is>
-      </c>
-      <c r="B341" s="11" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="C341" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D341" s="22" t="inlineStr">
-        <is>
-          <t>maa://32417 (100.00)</t>
-        </is>
-      </c>
-      <c r="E341" s="22" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+      <c r="A341" s="25" t="inlineStr">
+        <is>
+          <t>温米</t>
+        </is>
+      </c>
+      <c r="B341" s="24" t="inlineStr">
+        <is>
+          <t>6-11</t>
+        </is>
+      </c>
+      <c r="C341" s="25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D341" s="30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E341" s="30" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战温米累计造成40000点元素伤害&gt; 3星通关主题曲6-11；必须编入非助战温米并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F341" s="19" t="n"/>
@@ -25422,27 +25489,27 @@
     <row r="342" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B342" s="11" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" s="22" t="inlineStr">
         <is>
-          <t>maa://32419 (100.00)</t>
+          <t>maa://38295 (100.00), maa://49332 (80.90)</t>
         </is>
       </c>
       <c r="E342" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
       <c r="F342" s="19" t="n"/>
@@ -25476,12 +25543,12 @@
     <row r="343" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B343" s="11" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -25491,12 +25558,12 @@
       </c>
       <c r="D343" s="22" t="inlineStr">
         <is>
-          <t>maa://32416 (100.00)</t>
+          <t>maa://32417 (100.00)</t>
         </is>
       </c>
       <c r="E343" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
       <c r="F343" s="19" t="n"/>
@@ -25530,12 +25597,12 @@
     <row r="344" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B344" s="11" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
@@ -25545,12 +25612,12 @@
       </c>
       <c r="D344" s="22" t="inlineStr">
         <is>
-          <t>maa://45800 (100.00)</t>
+          <t>maa://32419 (100.00)</t>
         </is>
       </c>
       <c r="E344" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
       <c r="F344" s="19" t="n"/>
@@ -25584,27 +25651,27 @@
     <row r="345" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B345" s="11" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (62.50), ***maa://61275 (21.88), **maa://61839 (35.42)</t>
+          <t>maa://32416 (100.00)</t>
         </is>
       </c>
       <c r="E345" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
       <c r="F345" s="19" t="n"/>
@@ -25638,12 +25705,12 @@
     <row r="346" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B346" s="11" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -25653,12 +25720,12 @@
       </c>
       <c r="D346" s="22" t="inlineStr">
         <is>
-          <t>maa://32420 (100.00)</t>
+          <t>maa://45800 (100.00)</t>
         </is>
       </c>
       <c r="E346" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
       </c>
       <c r="F346" s="19" t="n"/>
@@ -25692,27 +25759,27 @@
     <row r="347" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B347" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D347" s="22" t="inlineStr">
         <is>
-          <t>maa://35606 (100.00)</t>
+          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), **maa://61275 (35.05), **maa://61839 (35.05)</t>
         </is>
       </c>
       <c r="E347" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F347" s="19" t="n"/>
@@ -25746,12 +25813,12 @@
     <row r="348" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B348" s="11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
@@ -25761,12 +25828,12 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://34716 (100.00)</t>
+          <t>maa://32420 (100.00)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
       <c r="F348" s="19" t="n"/>
@@ -25800,12 +25867,12 @@
     <row r="349" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B349" s="11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
@@ -25815,12 +25882,12 @@
       </c>
       <c r="D349" s="22" t="inlineStr">
         <is>
-          <t>maa://39179 (100.00)</t>
+          <t>maa://35606 (100.00)</t>
         </is>
       </c>
       <c r="E349" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F349" s="19" t="n"/>
@@ -25854,27 +25921,27 @@
     <row r="350" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B350" s="11" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D350" s="22" t="inlineStr">
         <is>
-          <t>maa://34865 (100.00), maa://34717 (90.53), **maa://45066 (37.89)</t>
+          <t>maa://34716 (100.00)</t>
         </is>
       </c>
       <c r="E350" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
       <c r="F350" s="19" t="n"/>
@@ -25908,12 +25975,12 @@
     <row r="351" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B351" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
@@ -25923,12 +25990,12 @@
       </c>
       <c r="D351" s="22" t="inlineStr">
         <is>
-          <t>maa://39180 (100.00)</t>
+          <t>maa://39179 (100.00)</t>
         </is>
       </c>
       <c r="E351" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
       <c r="F351" s="19" t="n"/>
@@ -25962,27 +26029,27 @@
     <row r="352" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B352" s="11" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D352" s="22" t="inlineStr">
         <is>
-          <t>maa://45834 (100.00), *maa://45833 (66.67)</t>
+          <t>maa://34865 (100.00), maa://34717 (90.53), **maa://45066 (37.89)</t>
         </is>
       </c>
       <c r="E352" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
       <c r="F352" s="19" t="n"/>
@@ -26016,12 +26083,12 @@
     <row r="353" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B353" s="11" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
@@ -26031,12 +26098,12 @@
       </c>
       <c r="D353" s="22" t="inlineStr">
         <is>
-          <t>maa://39181 (100.00)</t>
+          <t>maa://39180 (100.00)</t>
         </is>
       </c>
       <c r="E353" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F353" s="19" t="n"/>
@@ -26070,27 +26137,27 @@
     <row r="354" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B354" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D354" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (22.45), maa://47349 (87.76)</t>
+          <t>maa://45834 (100.00), *maa://45833 (66.67)</t>
         </is>
       </c>
       <c r="E354" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F354" s="19" t="n"/>
@@ -26124,27 +26191,27 @@
     <row r="355" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B355" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D355" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (41.00), **maa://52357 (48.00), ***maa://63091 (9.00)</t>
+          <t>maa://39181 (100.00)</t>
         </is>
       </c>
       <c r="E355" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F355" s="19" t="n"/>
@@ -26178,27 +26245,27 @@
     <row r="356" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B356" s="11" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D356" s="22" t="inlineStr">
         <is>
-          <t>maa://36647 (100.00)</t>
+          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (22.45), maa://47349 (88.78)</t>
         </is>
       </c>
       <c r="E356" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
       <c r="F356" s="19" t="n"/>
@@ -26232,27 +26299,27 @@
     <row r="357" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B357" s="11" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (100.00), *maa://42224 (69.32)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (6.00)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 战斗中非助战阿斯卡纶累计使用“降临”5次&gt; 3星通关主题曲5-10，必须编入非助战阿斯卡纶并上场，其他成员不可编入特种干员</t>
         </is>
       </c>
       <c r="F357" s="19" t="n"/>
@@ -26286,27 +26353,27 @@
     <row r="358" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B358" s="11" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (60.92)</t>
+          <t>maa://36647 (100.00)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
       <c r="F358" s="19" t="n"/>
@@ -26340,27 +26407,27 @@
     <row r="359" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B359" s="11" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D359" s="22" t="inlineStr">
         <is>
-          <t>maa://36646 (100.00), maa://36845 (92.86), ***maa://39217 (22.45), maa://51007 (92.86)</t>
+          <t>maa://42299 (100.00), *maa://42224 (69.32)</t>
         </is>
       </c>
       <c r="E359" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
       <c r="F359" s="19" t="n"/>
@@ -26394,27 +26461,27 @@
     <row r="360" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B360" s="11" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://36645 (100.00), maa://36841 (86.60), maa://37484 (86.60), maa://37858 (81.44), ***maa://56268 (23.71), **maa://40489 (35.05)</t>
+          <t>maa://49648 (100.00), *maa://49662 (63.22)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 由非助战逻各斯累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲14-9标准实战环境；必须编入非助战逻各斯并上场，且使用逻各斯至少歼灭7个敌人</t>
         </is>
       </c>
       <c r="F360" s="19" t="n"/>
@@ -26448,27 +26515,27 @@
     <row r="361" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B361" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), **maa://50629 (39.53), **maa://48859 (39.53)</t>
+          <t>maa://36646 (100.00), maa://36845 (92.86), ***maa://39217 (22.45), maa://51007 (92.86)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F361" s="19" t="n"/>
@@ -26502,27 +26569,27 @@
     <row r="362" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B362" s="11" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D362" s="22" t="inlineStr">
         <is>
-          <t>maa://39183 (100.00)</t>
+          <t>maa://36645 (100.00), maa://36841 (86.60), maa://37484 (86.60), maa://37858 (81.44), ***maa://56268 (23.71), **maa://40489 (35.05)</t>
         </is>
       </c>
       <c r="E362" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
       <c r="F362" s="19" t="n"/>
@@ -26556,27 +26623,27 @@
     <row r="363" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B363" s="11" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D363" s="22" t="inlineStr">
         <is>
-          <t>maa://39184 (100.00)</t>
+          <t>maa://42635 (100.00), *maa://50629 (51.16), **maa://48859 (39.53)</t>
         </is>
       </c>
       <c r="E363" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
       <c r="F363" s="19" t="n"/>
@@ -26610,27 +26677,27 @@
     <row r="364" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B364" s="11" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (45.65)</t>
+          <t>maa://39183 (100.00)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F364" s="19" t="n"/>
@@ -26664,12 +26731,12 @@
     <row r="365" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B365" s="11" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -26679,12 +26746,12 @@
       </c>
       <c r="D365" s="22" t="inlineStr">
         <is>
-          <t>maa://40164 (100.00)</t>
+          <t>maa://39184 (100.00)</t>
         </is>
       </c>
       <c r="E365" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
       <c r="F365" s="19" t="n"/>
@@ -26718,27 +26785,27 @@
     <row r="366" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B366" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D366" s="22" t="inlineStr">
         <is>
-          <t>maa://48268 (100.00)</t>
+          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (45.65)</t>
         </is>
       </c>
       <c r="E366" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
       <c r="F366" s="19" t="n"/>
@@ -26772,12 +26839,12 @@
     <row r="367" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B367" s="11" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
@@ -26787,12 +26854,12 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40165 (100.00)</t>
+          <t>maa://40164 (100.00)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
       <c r="F367" s="19" t="n"/>
@@ -26826,27 +26893,27 @@
     <row r="368" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B368" s="11" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D368" s="22" t="inlineStr">
         <is>
-          <t>maa://45798 (100.00)</t>
+          <t>maa://63883 (100.00), *maa://64041 (61.76)</t>
         </is>
       </c>
       <c r="E368" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
+          <t>&gt; 由非助战妮芙累计造成60000点元素伤害&gt; 3星通关主题曲14-7标准实战环境；必须编入非助战妮芙并上场，且使用妮芙造成至少5000点元素伤害</t>
         </is>
       </c>
       <c r="F368" s="19" t="n"/>
@@ -26880,12 +26947,12 @@
     <row r="369" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A369" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B369" s="11" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C369" s="12" t="inlineStr">
@@ -26895,12 +26962,12 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://42331 (100.00)</t>
+          <t>maa://48268 (100.00)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战锡人累计使用8次“大拉里”&gt; 3星通关主题曲4-3，必须编入非助战锡人并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F369" s="19" t="n"/>
@@ -26934,27 +27001,27 @@
     <row r="370" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A370" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B370" s="11" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C370" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D370" s="22" t="inlineStr">
         <is>
-          <t>maa://42333 (100.00), *maa://50518 (57.30), *maa://41977 (57.30)</t>
+          <t>maa://40165 (100.00)</t>
         </is>
       </c>
       <c r="E370" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F370" s="19" t="n"/>
@@ -26988,27 +27055,27 @@
     <row r="371" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A371" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B371" s="11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C371" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" s="22" t="inlineStr">
         <is>
-          <t>maa://42338 (100.00), **maa://41976 (30.88)</t>
+          <t>maa://45798 (100.00)</t>
         </is>
       </c>
       <c r="E371" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
       </c>
       <c r="F371" s="19" t="n"/>
@@ -27042,27 +27109,27 @@
     <row r="372" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A372" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B372" s="11" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (100.00), *maa://45605 (59.57)</t>
+          <t>maa://42331 (100.00)</t>
         </is>
       </c>
       <c r="E372" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F372" s="19" t="n"/>
@@ -27096,27 +27163,27 @@
     <row r="373" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A373" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B373" s="11" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C373" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D373" s="22" t="inlineStr">
         <is>
-          <t>maa://42343 (100.00)</t>
+          <t>maa://42333 (100.00), *maa://50518 (57.30), *maa://41977 (57.30)</t>
         </is>
       </c>
       <c r="E373" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F373" s="19" t="n"/>
@@ -27150,27 +27217,27 @@
     <row r="374" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A374" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B374" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C374" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D374" s="22" t="inlineStr">
         <is>
-          <t>maa://43095 (100.00)</t>
+          <t>maa://42338 (100.00), **maa://41976 (30.88)</t>
         </is>
       </c>
       <c r="E374" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
       <c r="F374" s="19" t="n"/>
@@ -27204,12 +27271,12 @@
     <row r="375" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A375" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B375" s="11" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C375" s="12" t="inlineStr">
@@ -27219,12 +27286,12 @@
       </c>
       <c r="D375" s="22" t="inlineStr">
         <is>
-          <t>maa://44233 (92.05), maa://45570 (100.00)</t>
+          <t>maa://41110 (100.00), *maa://45605 (59.57)</t>
         </is>
       </c>
       <c r="E375" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
       <c r="F375" s="19" t="n"/>
@@ -27258,12 +27325,12 @@
     <row r="376" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A376" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B376" s="11" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C376" s="12" t="inlineStr">
@@ -27273,12 +27340,12 @@
       </c>
       <c r="D376" s="22" t="inlineStr">
         <is>
-          <t>maa://43097 (100.00)</t>
+          <t>maa://42343 (100.00)</t>
         </is>
       </c>
       <c r="E376" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
       <c r="F376" s="19" t="n"/>
@@ -27312,12 +27379,12 @@
     <row r="377" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A377" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B377" s="11" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C377" s="12" t="inlineStr">
@@ -27327,12 +27394,12 @@
       </c>
       <c r="D377" s="22" t="inlineStr">
         <is>
-          <t>maa://43872 (100.00)</t>
+          <t>maa://43095 (100.00)</t>
         </is>
       </c>
       <c r="E377" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
         </is>
       </c>
       <c r="F377" s="19" t="n"/>
@@ -27366,27 +27433,27 @@
     <row r="378" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A378" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B378" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C378" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="22" t="inlineStr">
         <is>
-          <t>maa://53307 (100.00)</t>
+          <t>maa://44233 (92.05), maa://45570 (100.00)</t>
         </is>
       </c>
       <c r="E378" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战弑君者累计使用8次烽烟行刑场&gt; 3星通关主题曲4-8；必须编入非助战弑君者并上场，且使用2次烽烟行刑场</t>
+          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
       <c r="F378" s="19" t="n"/>
@@ -27420,12 +27487,12 @@
     <row r="379" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A379" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B379" s="11" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C379" s="12" t="inlineStr">
@@ -27435,12 +27502,12 @@
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://43875 (100.00)</t>
+          <t>maa://43097 (100.00)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
         </is>
       </c>
       <c r="F379" s="19" t="n"/>
@@ -27474,27 +27541,27 @@
     <row r="380" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A380" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B380" s="11" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C380" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D380" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.98), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
+          <t>maa://43872 (100.00)</t>
         </is>
       </c>
       <c r="E380" s="22" t="inlineStr">
         <is>
-          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
         </is>
       </c>
       <c r="F380" s="19" t="n"/>
@@ -27528,12 +27595,12 @@
     <row r="381" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A381" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B381" s="11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C381" s="12" t="inlineStr">
@@ -27543,12 +27610,12 @@
       </c>
       <c r="D381" s="22" t="inlineStr">
         <is>
-          <t>maa://44389 (100.00)</t>
+          <t>maa://53307 (100.00)</t>
         </is>
       </c>
       <c r="E381" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+          <t>&gt; 战斗中非助战弑君者累计使用8次烽烟行刑场&gt; 3星通关主题曲4-8；必须编入非助战弑君者并上场，且使用2次烽烟行刑场</t>
         </is>
       </c>
       <c r="F381" s="19" t="n"/>
@@ -27582,12 +27649,12 @@
     <row r="382" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A382" s="12" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B382" s="11" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C382" s="12" t="inlineStr">
@@ -27597,12 +27664,12 @@
       </c>
       <c r="D382" s="22" t="inlineStr">
         <is>
-          <t>maa://59690 (100.00)</t>
+          <t>maa://43875 (100.00)</t>
         </is>
       </c>
       <c r="E382" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
       </c>
       <c r="F382" s="19" t="n"/>
@@ -27636,27 +27703,27 @@
     <row r="383" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A383" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B383" s="11" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C383" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D383" s="22" t="inlineStr">
         <is>
-          <t>maa://48113 (100.00)</t>
+          <t>maa://42970 (82.98), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E383" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>
       </c>
       <c r="F383" s="19" t="n"/>
@@ -27690,12 +27757,12 @@
     <row r="384" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A384" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B384" s="11" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C384" s="12" t="inlineStr">
@@ -27705,12 +27772,12 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://45807 (100.00)</t>
+          <t>maa://44389 (100.00)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
+          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
         </is>
       </c>
       <c r="F384" s="19" t="n"/>
@@ -27744,12 +27811,12 @@
     <row r="385" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A385" s="12" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B385" s="11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C385" s="12" t="inlineStr">
@@ -27759,12 +27826,12 @@
       </c>
       <c r="D385" s="22" t="inlineStr">
         <is>
-          <t>maa://50552 (100.00)</t>
+          <t>maa://59690 (100.00)</t>
         </is>
       </c>
       <c r="E385" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特克诺并上场，且每次战斗至少释放1次“恣意挥洒”&gt; 3星通关插曲DH-6，必须编入非助战特克诺并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
       <c r="F385" s="19" t="n"/>
@@ -27798,27 +27865,27 @@
     <row r="386" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A386" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B386" s="11" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="22" t="inlineStr">
         <is>
-          <t>maa://47175 (100.00), maa://47174 (100.00)</t>
+          <t>maa://48113 (100.00)</t>
         </is>
       </c>
       <c r="E386" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+          <t>&gt; 战斗中非助战引星棘刺累计使用20次解构涌潮&gt; 3星通关别传OF-7；必须编入非助战引星棘刺并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
       <c r="F386" s="19" t="n"/>
@@ -27852,12 +27919,12 @@
     <row r="387" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A387" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B387" s="11" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C387" s="12" t="inlineStr">
@@ -27867,12 +27934,12 @@
       </c>
       <c r="D387" s="22" t="inlineStr">
         <is>
-          <t>maa://47023 (100.00)</t>
+          <t>maa://45807 (100.00)</t>
         </is>
       </c>
       <c r="E387" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
       <c r="F387" s="19" t="n"/>
@@ -27906,12 +27973,12 @@
     <row r="388" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A388" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B388" s="11" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C388" s="12" t="inlineStr">
@@ -27921,12 +27988,12 @@
       </c>
       <c r="D388" s="22" t="inlineStr">
         <is>
-          <t>maa://48618 (100.00)</t>
+          <t>maa://50552 (100.00)</t>
         </is>
       </c>
       <c r="E388" s="22" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寻澜并上场，且使用寻澜歼灭至少3个敌人&gt; 3星通关主题曲3-5；必须编入非助战寻澜并上场，且至少使用2次洞悉</t>
         </is>
       </c>
       <c r="F388" s="19" t="n"/>
@@ -27960,27 +28027,27 @@
     <row r="389" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A389" s="12" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B389" s="11" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C389" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D389" s="22" t="inlineStr">
         <is>
-          <t>maa://59533 (100.00), *maa://59577 (78.16)</t>
+          <t>maa://63890 (100.00)</t>
         </is>
       </c>
       <c r="E389" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战烛煌并上场，且每次战斗至少释放1次“众恶的焚场”&gt; 3星通关主题曲6-10；必须编入非助战烛煌并上场，且至少使用2次“众恶的焚场”</t>
         </is>
       </c>
       <c r="F389" s="19" t="n"/>
@@ -28014,12 +28081,12 @@
     <row r="390" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A390" s="12" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B390" s="11" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C390" s="12" t="inlineStr">
@@ -28029,12 +28096,12 @@
       </c>
       <c r="D390" s="22" t="inlineStr">
         <is>
-          <t>maa://51907 (100.00), maa://51908 (100.00)</t>
+          <t>maa://47175 (100.00), maa://47174 (100.00)</t>
         </is>
       </c>
       <c r="E390" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
         </is>
       </c>
       <c r="F390" s="19" t="n"/>
@@ -28068,12 +28135,12 @@
     <row r="391" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A391" s="12" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B391" s="11" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C391" s="12" t="inlineStr">
@@ -28083,12 +28150,12 @@
       </c>
       <c r="D391" s="22" t="inlineStr">
         <is>
-          <t>maa://59691 (100.00)</t>
+          <t>maa://47023 (100.00)</t>
         </is>
       </c>
       <c r="E391" s="22" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
+          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
         </is>
       </c>
       <c r="F391" s="19" t="n"/>
@@ -28122,27 +28189,27 @@
     <row r="392" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A392" s="12" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B392" s="11" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C392" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D392" s="22" t="inlineStr">
         <is>
-          <t>maa://51898 (100.00), *maa://57241 (71.76)</t>
+          <t>maa://48618 (100.00)</t>
         </is>
       </c>
       <c r="E392" s="22" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
+          <t>&gt; 战斗中非助战钼铅累计部署矿石“杀手”30个&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战钼铅并上场，且使用钼铅至少击败1名深池重甲卫士</t>
         </is>
       </c>
       <c r="F392" s="19" t="n"/>
@@ -28176,162 +28243,324 @@
     <row r="393">
       <c r="A393" s="17" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B393" s="23" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C393" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (90.82)</t>
+          <t>maa://59533 (100.00), *maa://59577 (77.27)</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战死芒并上场，且每次战斗至少释放2次“冠死以冕”&gt; 3星通关主题曲4-8，必须编入非助战死芒并上场，其他成员仅可编入辅助干员</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="17" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B394" s="23" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C394" s="17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), maa://51873 (97.87), *maa://63228 (73.40), *maa://62047 (76.60)</t>
+          <t>maa://51907 (100.00), maa://51908 (100.00)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+          <t>&gt; 完成5次战斗；必须编入非助战骋风并上场，且每次战斗至少释放1次招无虚发&gt; 3星通关插曲SN-2；必须编入非助战骋风并上场，且使用2次招无虚发</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="17" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B395" s="17" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C395" s="17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>maa://59691 (100.00)</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战阿兰娜累计部署15个“支援装置”&gt; 3星通关主题曲7-14；必须编入非助战阿兰娜并上场，且至少使用2次“万斤顶”</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="17" t="inlineStr">
+        <is>
+          <t>信仰搅拌机</t>
+        </is>
+      </c>
+      <c r="B396" s="17" t="inlineStr">
+        <is>
+          <t>14-5</t>
+        </is>
+      </c>
+      <c r="C396" s="17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>maa://60449 (100.00), maa://59493 (97.87)</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="28" t="inlineStr">
-        <is>
-          <t>录武官</t>
-        </is>
-      </c>
-      <c r="B396" s="28" t="inlineStr">
-        <is>
-          <t>HS-5</t>
-        </is>
-      </c>
-      <c r="C396" s="28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D396" s="29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E396" s="29" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>maa://51898 (100.00), *maa://57241 (71.76)</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战信仰搅拌机并上场，且每次战斗至少释放1次退休前布道&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战信仰搅拌机并上场，且使用信仰搅拌机歼灭至少10名敌人</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="17" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B397" s="17" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C397" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756 (100.00)</t>
+          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (90.82)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>&gt; 由非助战司霆惊蛰累计造成120000点伤害&gt; 3星通关插曲DV-7；必须编入非助战司霆惊蛰并上场，且使用1次“天地通明”</t>
+          <t>&gt; 由非助战蕾缪安累计造成30歼灭数&gt; 3星通关主题曲13-13标准实战环境；必须编入非助战蕾缪安并上场，且蕾缪安歼灭至少2个萨卡兹骸骨鞭笞者</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="17" t="inlineStr">
         <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="B398" s="17" t="inlineStr">
+        <is>
+          <t>GA-EX-5</t>
+        </is>
+      </c>
+      <c r="C398" s="17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (76.60), maa://51873 (97.87), *maa://62047 (70.21)</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战新约能天使累计使用开火成瘾症8次&gt; 3星通关插曲GA-EX-5；必须编入非助战新约能天使并上场，且使用2次开火成瘾症</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="28" t="inlineStr">
+        <is>
+          <t>Miss.Christine</t>
+        </is>
+      </c>
+      <c r="B399" s="28" t="inlineStr">
+        <is>
+          <t>DM-7</t>
+        </is>
+      </c>
+      <c r="C399" s="28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D399" s="29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E399" s="29" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战Miss.Christine累计使用“狂饮之宴”10次&gt; 3星通关插曲DM-7，必须编入非助战Miss.Christine并上场，且至少使用2次“狂饮之宴”</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="17" t="inlineStr">
+        <is>
+          <t>酒神</t>
+        </is>
+      </c>
+      <c r="B400" s="17" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C400" s="17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>maa://60449 (100.00), maa://59493 (97.87)</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战酒神累计造成60000点神经损伤&gt; 3星通关主题曲9-6标准实战环境，必须编入非助战酒神并上场，且酒神使用至少2次“空剧场”</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="28" t="inlineStr">
+        <is>
+          <t>录武官</t>
+        </is>
+      </c>
+      <c r="B401" s="28" t="inlineStr">
+        <is>
+          <t>HS-5</t>
+        </is>
+      </c>
+      <c r="C401" s="28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D401" s="29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E401" s="29" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战录武官累计使用“一点关窍”6次&gt; 3星通关插曲HS-5，必须编入非助战录武官并上场，且不编入其他医疗干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="17" t="inlineStr">
+        <is>
           <t>司霆惊蛰</t>
         </is>
       </c>
-      <c r="B398" s="17" t="inlineStr">
+      <c r="B402" s="17" t="inlineStr">
         <is>
           <t>DV-7</t>
         </is>
       </c>
-      <c r="C398" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>maa://62756 (91.67)</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
+      <c r="C402" s="17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>maa://62756 (100.00)</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
         <is>
           <t>&gt; 由非助战司霆惊蛰累计造成120000点伤害&gt; 3星通关插曲DV-7；必须编入非助战司霆惊蛰并上场，且使用1次“天地通明”</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="28" t="inlineStr">
+        <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="B403" s="28" t="inlineStr">
+        <is>
+          <t>S5-9</t>
+        </is>
+      </c>
+      <c r="C403" s="28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D403" s="29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E403" s="29" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战吉星累计造成30歼灭数&gt; 3星通关主题曲S5-9，必须编入非助战吉星并上场，且至少使用2次“吉星高照！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="17" t="inlineStr">
+        <is>
+          <t>遥</t>
+        </is>
+      </c>
+      <c r="B404" s="17" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="C404" s="17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>maa://64040 (100.00)</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战遥累计使用“夏末游鳞”10次&gt; 3星通关主题曲7-14；必须编入非助战遥并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (100.00), maa://24702 (98.92), maa://36681 (81.72)</t>
+          <t>maa://25390 (100.00), maa://24702 (98.92), maa://36681 (82.80)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (71.91), maa://58660 (92.13)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (94.32)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (97.78), maa://36684 (100.00)</t>
+          <t>maa://21246 (98.88), maa://36684 (100.00)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (93.02)</t>
+          <t>maa://25251 (100.00), maa://59087 (94.19)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (72.62), maa://20276 (100.00), *maa://22749 (71.43)</t>
+          <t>*maa://22880 (71.43), maa://20276 (100.00), *maa://22749 (72.62)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (88.24), maa://24617 (100.00), *maa://60545 (67.06)</t>
+          <t>maa://45854 (87.06), maa://24617 (100.00), *maa://60545 (71.76)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (84.44)</t>
+          <t>maa://24390 (100.00), maa://52241 (87.78)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (73.33), *maa://22746 (67.78)</t>
+          <t>maa://24632 (100.00), *maa://22499 (74.44), *maa://22746 (67.78)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (98.86)</t>
+          <t>maa://49983 (100.00), maa://50121 (94.38)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (89.89), maa://22754 (89.89), *maa://31008 (73.03)</t>
+          <t>maa://32509 (100.00), maa://27295 (91.01), maa://22754 (89.89), *maa://31008 (73.03)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (100.00), maa://39394 (96.23), ***maa://26209 (9.43)</t>
+          <t>maa://30062 (100.00), maa://39394 (96.15), ***maa://26209 (9.62)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (94.94), maa://22744 (81.01)</t>
+          <t>maa://21245 (100.00), maa://54105 (97.47), maa://22744 (81.01)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>maa://21919 (100.00), *maa://21281 (61.11)</t>
+          <t>maa://21919 (100.00), *maa://21281 (60.44)</t>
         </is>
       </c>
       <c r="Q5" s="19" t="n"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="AF6" s="8" t="inlineStr">
         <is>
-          <t>maa://33152 (100.00), ***maa://22770 (25.00)</t>
+          <t>maa://33152 (100.00), ***maa://22770 (24.53)</t>
         </is>
       </c>
       <c r="AG6" s="16" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (75.82)</t>
+          <t>maa://22399 (100.00), *maa://22758 (75.00)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.04 13:44:54</t>
+          <t>更新日期：2025.08.08 13:32:35</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (86.36), maa://23252 (94.32), maa://37496 (100.00)</t>
+          <t>maa://32931 (87.50), maa://23252 (94.32), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>maa://22765 (100.00), *maa://21915 (66.27)</t>
+          <t>maa://22765 (100.00), *maa://21915 (67.47)</t>
         </is>
       </c>
       <c r="E9" s="19" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (72.09)</t>
+          <t>maa://22762 (100.00), *maa://39552 (74.42)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (86.32)</t>
+          <t>maa://26223 (100.00), maa://52237 (81.05)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (96.34)</t>
+          <t>maa://28711 (100.00), maa://40166 (97.56)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00), **maa://22865 (48.81)</t>
+          <t>maa://26206 (100.00), **maa://22865 (47.06)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (28.00), ***maa://39951 (14.00), maa://45271 (100.00), ***maa://34206 (22.00), ***maa://39243 (14.00), ***maa://54000 (30.00)</t>
+          <t>***maa://25695 (27.45), ***maa://39951 (11.76), maa://45271 (100.00), ***maa://34206 (21.57), ***maa://39243 (13.73), **maa://54000 (45.10)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (82.50), *maa://23264 (61.25)</t>
+          <t>maa://28977 (100.00), maa://36669 (83.95), *maa://23264 (60.49)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (55.32)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (50.00)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (100.00), maa://45828 (89.47), maa://22726 (82.11)</t>
+          <t>maa://22301 (100.00), maa://45828 (90.53), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (88.00), maa://22733 (100.00), ***maa://22761 (18.00)</t>
+          <t>maa://25021 (84.62), maa://22733 (100.00), ***maa://22761 (17.31)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.36), maa://22501 (100.00), maa://45521 (87.23)</t>
+          <t>maa://22747 (90.43), maa://22501 (100.00), maa://45521 (88.30)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), **maa://54294 (39.53)</t>
+          <t>maa://21867 (100.00), *maa://54294 (66.28)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (100.00), maa://64046 (83.95)</t>
+          <t>maa://63896 (98.84), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (77.27)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (100.00), maa://36673 (93.41), maa://25001 (84.62)</t>
+          <t>maa://24999 (100.00), maa://36673 (94.51), maa://25001 (84.62)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), **maa://22728 (49.28)</t>
+          <t>maa://21248 (100.00), *maa://22728 (50.72)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (77.53), *maa://48321 (57.30)</t>
+          <t>maa://22676 (100.00), *maa://22583 (78.65), *maa://48321 (59.55)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (91.40)</t>
+          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (68.83), maa://36048 (84.42), maa://45058 (83.12)</t>
+          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (67.53), maa://36048 (84.42), maa://45058 (83.12)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (100.00), **maa://22727 (46.51)</t>
+          <t>maa://24762 (100.00), **maa://22727 (45.98)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (100.00), maa://36666 (97.44), *maa://22766 (76.92)</t>
+          <t>maa://21364 (100.00), maa://36666 (97.44), *maa://22766 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.45), maa://27755 (100.00)</t>
+          <t>*maa://23911 (71.59), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (100.00), maa://39599 (94.12)</t>
+          <t>maa://22430 (100.00), maa://39599 (95.29)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (100.00), maa://52226 (97.73)</t>
+          <t>maa://22466 (100.00), maa://52226 (98.86)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), *maa://54153 (76.60), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (80.85), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (100.00), *maa://22741 (57.61)</t>
+          <t>maa://21917 (100.00), *maa://22741 (61.54)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (92.98), *maa://29784 (57.89), maa://47854 (100.00)</t>
+          <t>maa://24313 (92.98), maa://47854 (100.00), *maa://29784 (57.89)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (73.85)</t>
+          <t>maa://30709 (100.00), *maa://36668 (74.24)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (86.52)</t>
+          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (87.64)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (76.47)</t>
+          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (78.82)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3299,12 +3299,12 @@
       </c>
       <c r="AE21" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50)</t>
+          <t>maa://22524 (100.00), maa://22432 (98.75), *maa://64221 (55.00)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>maa://27127 (100.00), maa://22751 (85.71)</t>
+          <t>maa://27127 (100.00), maa://22751 (88.24)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (100.00), *maa://37649 (59.79)</t>
+          <t>maa://21282 (100.00), *maa://37649 (61.86)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28036 (64.52), maa://41753 (100.00)</t>
+          <t>*maa://28036 (66.67), maa://41753 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (61.84)</t>
+          <t>maa://24368 (100.00), *maa://46650 (68.42)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (91.21)</t>
+          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (92.31)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="AE24" s="19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (83.72)</t>
+          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (59.30)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), **maa://63016 (47.31)</t>
+          <t>maa://29753 (100.00), *maa://63016 (61.29)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.45), maa://25311 (100.00), ***maa://22725 (3.03), *maa://45047 (72.73)</t>
+          <t>maa://29063 (95.45), maa://25311 (100.00), ***maa://22725 (3.03), maa://45047 (80.30)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), *maa://56374 (63.75)</t>
+          <t>maa://41802 (100.00), *maa://56374 (71.25)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (73.56), maa://34494 (100.00)</t>
+          <t>*maa://39601 (75.00), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (100.00), maa://41749 (96.67)</t>
+          <t>maa://39929 (100.00), maa://41749 (97.78)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="C30" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00)</t>
+          <t>maa://45792 (100.00), ***maa://64191 (27.27)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4697,10 +4697,14 @@
       </c>
       <c r="W32" s="19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="8" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X32" s="8" t="inlineStr">
+        <is>
+          <t>maa://64104 (100.00)</t>
+        </is>
+      </c>
       <c r="Y32" s="19" t="n"/>
       <c r="Z32" s="19" t="inlineStr">
         <is>
@@ -4796,7 +4800,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (100.00), *maa://22730 (74.67)</t>
+          <t>maa://21956 (100.00), *maa://22730 (73.68)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4926,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (56.04)</t>
+          <t>maa://48817 (100.00), *maa://56235 (55.43)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -4969,12 +4973,12 @@
       </c>
       <c r="AA34" s="19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB34" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://64329 (100.00)</t>
         </is>
       </c>
       <c r="AC34" s="19" t="n"/>
@@ -5229,10 +5233,14 @@
       </c>
       <c r="AA36" s="19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB36" s="19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB36" s="19" t="inlineStr">
+        <is>
+          <t>maa://64106 (100.00)</t>
+        </is>
+      </c>
       <c r="AC36" s="19" t="n"/>
       <c r="AD36" s="19" t="inlineStr">
         <is>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (91.01), maa://25199 (87.64), maa://30434 (100.00), *maa://45059 (69.66), **maa://44165 (33.71)</t>
+          <t>maa://36670 (91.11), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (68.89), **maa://44165 (42.22)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5527,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (97.75), maa://47093 (100.00)</t>
+          <t>maa://24709 (96.67), maa://47093 (100.00)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5538,12 +5546,12 @@
       </c>
       <c r="S39" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45790 (71.76)</t>
+          <t>maa://47079 (100.00), *maa://45788 (71.43), *maa://45790 (76.19)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5628,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (84.95), *maa://45550 (56.99)</t>
+          <t>maa://23278 (100.00), maa://21386 (100.00), maa://36664 (85.87), **maa://45550 (48.91)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5671,10 +5679,14 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF40" s="19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF40" s="19" t="inlineStr">
+        <is>
+          <t>maa://64205 (100.00)</t>
+        </is>
+      </c>
       <c r="AG40" s="16" t="n"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -5895,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (93.59), maa://21284 (100.00)</t>
+          <t>maa://22525 (91.14), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5943,7 +5955,7 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>maa://43198 (100.00), *maa://46286 (52.38)</t>
+          <t>maa://43198 (100.00), *maa://46286 (51.76)</t>
         </is>
       </c>
       <c r="U43" s="19" t="n"/>
@@ -5980,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (68.42)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (71.58)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6065,7 +6077,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (91.86), maa://30807 (100.00), maa://42459 (88.37)</t>
+          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (88.51)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6478,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (91.30)</t>
+          <t>maa://59394 (100.00), maa://59378 (92.39)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6738,7 +6750,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://43903 (89.89), **maa://56228 (49.44)</t>
+          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (57.30)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6756,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), **maa://59413 (46.81)</t>
+          <t>maa://59534 (100.00), *maa://59413 (53.68)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7078,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.04 13:44:54</t>
+          <t>更新日期：2025.08.08 13:32:35</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7888,7 +7900,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>maa://20919 (100.00), **maa://31611 (46.74)</t>
+          <t>maa://20919 (100.00), *maa://31611 (51.09)</t>
         </is>
       </c>
       <c r="E16" s="14" t="inlineStr">
@@ -8266,7 +8278,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), ***maa://63498 (24.42)</t>
+          <t>maa://20876 (100.00), **maa://63498 (39.53)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8752,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.32), maa://36866 (100.00), *maa://45572 (79.55), *maa://27794 (64.77), maa://62759 (88.64), *maa://20960 (79.55), **maa://20843 (50.00), ***maa://24483 (10.23), **maa://20862 (50.00), *maa://20893 (62.50)</t>
+          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (78.65), maa://62759 (87.64), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9292,7 +9304,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>maa://20918 (100.00), maa://34883 (90.00), maa://20824 (96.25)</t>
+          <t>maa://34883 (90.00), maa://20918 (100.00), maa://20824 (96.25)</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
@@ -9886,7 +9898,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (97.62), maa://31173 (100.00)</t>
+          <t>maa://20953 (98.81), maa://31173 (100.00)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10318,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), **maa://25777 (35.79), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), *maa://25777 (53.68), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -15070,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (87.63), *maa://37300 (58.76), **maa://42917 (35.05)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -16042,7 +16054,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (97.75), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (100.00), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16415,12 +16427,12 @@
       </c>
       <c r="C174" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00)</t>
+          <t>maa://59681 (100.00), **maa://64200 (36.17)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16474,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (65.66)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (68.69)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17662,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.55), maa://35854 (81.91), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), *maa://63024 (78.72)</t>
+          <t>maa://44224 (92.55), maa://35854 (81.91), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), maa://63024 (80.85)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -23548,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (96.84), maa://49660 (81.05), **maa://50517 (40.00)</t>
+          <t>maa://50280 (100.00), maa://49642 (96.84), maa://49660 (82.11), **maa://50517 (40.00)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -24574,7 +24586,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (100.00), *maa://39810 (68.69)</t>
+          <t>maa://39692 (100.00), *maa://39810 (69.70)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -26950,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), *maa://64045 (61.76), *maa://64041 (61.76)</t>
+          <t>maa://63883 (100.00), **maa://64045 (47.73), **maa://64041 (47.73)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -28354,7 +28366,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51898 (100.00), *maa://57241 (71.76)</t>
+          <t>maa://51898 (100.00), *maa://57241 (76.47)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -28408,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (76.60), maa://51873 (97.87), *maa://62047 (70.21)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (75.53), maa://51873 (97.87), *maa://62047 (73.40)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28462,7 +28474,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://60449 (100.00), maa://59493 (97.87)</t>
+          <t>maa://60449 (100.00), maa://59493 (96.84)</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -842,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (94.57), *maa://39849 (60.87)</t>
+          <t>maa://40192 (100.00), maa://36987 (96.70), *maa://39849 (61.54)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (71.43), maa://20276 (100.00), *maa://22749 (72.62)</t>
+          <t>*maa://22880 (72.62), maa://20276 (100.00), *maa://22749 (72.62)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (87.06), maa://24617 (100.00), *maa://60545 (71.76)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (71.76)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (86.02), maa://27484 (100.00), *maa://27480 (77.42)</t>
+          <t>maa://27396 (86.02), maa://27484 (100.00), *maa://27480 (78.49)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (97.47), maa://22744 (81.01)</t>
+          <t>maa://21245 (100.00), maa://54105 (100.00), maa://22744 (81.01)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="AB5" s="8" t="inlineStr">
         <is>
-          <t>maa://29863 (100.00), ***maa://22752 (6.25), **maa://26013 (35.42)</t>
+          <t>maa://29863 (100.00), ***maa://22752 (6.12), **maa://26013 (34.69)</t>
         </is>
       </c>
       <c r="AC5" s="19" t="n"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (100.00), maa://24957 (94.51)</t>
+          <t>maa://28624 (100.00), maa://24957 (95.60)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.08 13:32:35</t>
+          <t>更新日期：2025.08.10 13:33:24</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (74.42)</t>
+          <t>maa://22762 (100.00), *maa://39552 (75.58)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (81.05)</t>
+          <t>maa://26223 (100.00), maa://52237 (82.11)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00), **maa://22865 (47.06)</t>
+          <t>maa://26206 (100.00), **maa://22865 (45.88)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (27.45), ***maa://39951 (11.76), maa://45271 (100.00), ***maa://34206 (21.57), ***maa://39243 (13.73), **maa://54000 (45.10)</t>
+          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), **maa://54000 (44.23)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (50.00)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (100.00), maa://45828 (90.53), maa://22726 (82.11)</t>
+          <t>maa://22301 (100.00), maa://45828 (91.58), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), *maa://54294 (66.28)</t>
+          <t>maa://21867 (100.00), *maa://54294 (75.58)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (98.84), maa://64046 (100.00)</t>
+          <t>maa://63896 (94.38), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (86.02)</t>
+          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (87.10)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (78.65), *maa://48321 (59.55)</t>
+          <t>maa://22676 (100.00), *maa://22583 (77.78), *maa://48321 (58.89)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (67.53), maa://36048 (84.42), maa://45058 (83.12)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (67.53), maa://36048 (84.42), maa://45058 (84.42)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (71.59), maa://27755 (100.00)</t>
+          <t>*maa://23911 (70.45), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -3039,12 +3039,12 @@
       </c>
       <c r="AE19" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://52239 (83.02)</t>
+          <t>maa://21663 (100.00), *maa://52239 (56.60)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (87.64)</t>
+          <t>maa://21432 (98.86), maa://25198 (100.00), maa://36680 (88.64)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (78.82)</t>
+          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (70.59)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://20110 (90.59), maa://34946 (100.00)</t>
+          <t>maa://34946 (100.00), maa://20110 (90.59)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (98.75), *maa://64221 (55.00)</t>
+          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (37.50)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (68.42)</t>
+          <t>maa://24368 (100.00), *maa://46650 (69.74)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.45), maa://25311 (100.00), ***maa://22725 (3.03), maa://45047 (80.30)</t>
+          <t>maa://29063 (96.92), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (46.77)</t>
+          <t>maa://30511 (100.00), **maa://29760 (47.54)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (91.21), *maa://43904 (52.75)</t>
+          <t>maa://35926 (100.00), maa://36258 (92.22), *maa://43904 (53.33)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (100.00), *maa://21239 (52.94)</t>
+          <t>maa://21280 (100.00), *maa://21239 (52.33)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="S39" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (71.43), *maa://45790 (76.19)</t>
+          <t>maa://47079 (100.00), *maa://45790 (76.19)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (100.00), maa://36664 (85.87), **maa://45550 (48.91)</t>
+          <t>maa://23278 (100.00), maa://21386 (100.00), maa://36664 (83.70), **maa://45550 (48.91)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (91.14), maa://21284 (100.00)</t>
+          <t>maa://22525 (90.00), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (92.39)</t>
+          <t>maa://59394 (100.00), maa://59378 (92.47)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.08 13:32:35</t>
+          <t>更新日期：2025.08.10 13:33:24</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (70.37), *maa://28758 (65.43), maa://29036 (100.00), *maa://42172 (54.32), maa://30285 (83.95)</t>
+          <t>*maa://20849 (69.51), *maa://28758 (64.63), maa://29036 (100.00), *maa://42172 (53.66), maa://30285 (82.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (78.65), maa://62759 (87.64), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (89.89), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), *maa://25777 (53.68), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), *maa://25777 (53.68), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), ***maa://63790 (21.43)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), **maa://63790 (44.90)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="D83" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), maa://20960 (100.00)</t>
+          <t>maa://45572 (91.43), maa://27794 (81.43), maa://20960 (100.00)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="D101" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20893 (78.57)</t>
+          <t>maa://45572 (100.00), maa://27794 (89.06), maa://20893 (85.94)</t>
         </is>
       </c>
       <c r="E101" s="14" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="D106" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (81.43), *maa://20843 (62.86), ***maa://24483 (12.86)</t>
+          <t>maa://45572 (100.00), maa://27794 (89.06), *maa://20843 (68.75), ***maa://24483 (14.06)</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (78.57), *maa://45194 (62.24), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (7.14), **maa://61839 (34.69), **maa://61275 (34.69)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (63.27), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (7.14), **maa://61839 (44.90), **maa://61275 (34.69)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (36.56), *maa://31185 (52.69), *maa://30306 (54.84)</t>
+          <t>maa://28484 (100.00), **maa://23736 (35.48), *maa://31185 (56.99), *maa://30306 (54.84)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -15077,12 +15077,12 @@
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), **maa://64408 (45.36)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (68.69)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (74.75)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.55), maa://35854 (81.91), maa://50388 (100.00), maa://25760 (85.11), ***maa://43911 (4.26), **maa://20872 (35.11), *maa://51066 (69.15), maa://63024 (80.85)</t>
+          <t>maa://44224 (91.58), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (84.21), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (81.05)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (100.00), maa://49077 (83.67), maa://42292 (87.76), *maa://42402 (69.39)</t>
+          <t>maa://42223 (100.00), maa://49077 (84.69), maa://42292 (87.76), *maa://42402 (69.39)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="D210" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (100.00), ***maa://39217 (26.19), maa://25369 (100.00)</t>
+          <t>maa://28133 (100.00), ***maa://39217 (23.81), maa://25369 (100.00)</t>
         </is>
       </c>
       <c r="E210" s="14" t="inlineStr">
@@ -20045,12 +20045,12 @@
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (56.41), maa://39588 (98.72)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (56.41), maa://39588 (98.72), ***maa://64079 (26.92)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (43.59)</t>
+          <t>maa://62759 (100.00), **maa://62764 (42.50)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.00), maa://31559 (87.37), maa://20924 (81.05), ***maa://49440 (16.84)</t>
+          <t>maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), ***maa://49440 (16.84)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.86), *maa://56588 (78.57), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (7.14)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.86), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (7.14)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="D292" s="13" t="inlineStr">
         <is>
-          <t>maa://30710 (100.00), maa://36845 (96.81), maa://31558 (90.43), ***maa://39217 (23.40), *maa://30668 (74.47)</t>
+          <t>maa://30710 (100.00), maa://36845 (96.81), maa://31558 (90.43), ***maa://39217 (21.28), *maa://30668 (74.47)</t>
         </is>
       </c>
       <c r="E292" s="14" t="inlineStr">
@@ -22966,7 +22966,7 @@
       </c>
       <c r="D295" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (100.00), maa://28133 (93.33), maa://22469 (92.22), ***maa://39217 (24.44), ***maa://31349 (27.78)</t>
+          <t>maa://25774 (100.00), maa://28133 (93.33), maa://22469 (92.22), ***maa://39217 (22.22), ***maa://31349 (27.78)</t>
         </is>
       </c>
       <c r="E295" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), **maa://61839 (35.05), **maa://61275 (35.05)</t>
+          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), **maa://61839 (45.36), **maa://61275 (35.05)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (22.45), maa://47349 (88.78)</t>
+          <t>maa://36868 (100.00), maa://35996 (92.93), ***maa://39217 (20.20), maa://47349 (87.88)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26476,7 +26476,7 @@
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://42299 (100.00), *maa://42224 (69.32)</t>
+          <t>maa://42299 (100.00), *maa://42224 (70.45)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="D362" s="22" t="inlineStr">
         <is>
-          <t>maa://36646 (100.00), maa://36845 (92.86), ***maa://39217 (22.45), maa://51007 (92.86)</t>
+          <t>maa://36646 (100.00), maa://36845 (92.86), ***maa://39217 (20.41), maa://51007 (92.86)</t>
         </is>
       </c>
       <c r="E362" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (45.65)</t>
+          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (48.91)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), **maa://64045 (47.73), **maa://64041 (47.73)</t>
+          <t>maa://63883 (100.00), *maa://64045 (66.67), ***maa://64041 (17.65)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -28393,7 +28393,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (90.82)</t>
+          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (91.84)</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (75.53), maa://51873 (97.87), *maa://62047 (73.40)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (71.28), maa://51873 (97.87), *maa://62047 (73.40)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28474,7 +28474,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://60449 (100.00), maa://59493 (96.84)</t>
+          <t>maa://60449 (100.00), maa://59493 (95.83)</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (94.32)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (95.45)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (94.19)</t>
+          <t>maa://25251 (100.00), maa://59087 (95.35)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (87.78)</t>
+          <t>maa://24390 (100.00), maa://52241 (88.89)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (89.16)</t>
+          <t>maa://31836 (100.00), maa://30381 (88.10)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.10 13:33:24</t>
+          <t>更新日期：2025.08.11 13:31:21</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (82.11)</t>
+          <t>maa://26223 (100.00), maa://52237 (83.16)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (47.87)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (94.38), maa://64046 (100.00)</t>
+          <t>maa://63896 (93.33), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), *maa://22728 (50.72)</t>
+          <t>maa://21248 (100.00), **maa://22728 (49.28)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (80.85), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (81.91), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (92.98), maa://47854 (100.00), *maa://29784 (57.89)</t>
+          <t>maa://24313 (96.36), maa://47854 (100.00), *maa://29784 (60.00)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (70.59)</t>
+          <t>maa://50085 (100.00), maa://49976 (93.02), *maa://56241 (69.77)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (37.50)</t>
+          <t>maa://22524 (100.00), maa://22432 (97.50), ***maa://64221 (28.75)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (59.30)</t>
+          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (66.28)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), *maa://56374 (71.25)</t>
+          <t>maa://41802 (100.00), *maa://56374 (76.25)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (100.00), maa://56625 (82.61)</t>
+          <t>maa://39870 (100.00), maa://56625 (88.41)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (96.67), maa://47093 (100.00)</t>
+          <t>maa://24709 (100.00), maa://47093 (98.85)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://64205 (100.00)</t>
+          <t>maa://64107 (84.31), maa://64205 (100.00)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (69.89)</t>
+          <t>maa://25176 (100.00), *maa://56237 (73.12)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59413 (53.68)</t>
+          <t>maa://59534 (100.00), *maa://59413 (60.00)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.10 13:33:24</t>
+          <t>更新日期：2025.08.11 13:31:21</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (69.51), *maa://28758 (64.63), maa://29036 (100.00), *maa://42172 (53.66), maa://30285 (82.93)</t>
+          <t>*maa://20849 (69.51), *maa://28758 (65.85), maa://29036 (100.00), *maa://42172 (57.32), maa://30285 (82.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (89.89), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (91.01), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (96.51), maa://42635 (100.00), **maa://20838 (39.53)</t>
+          <t>maa://42635 (100.00), maa://27376 (98.81), **maa://20838 (40.48)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (98.81), maa://31173 (100.00)</t>
+          <t>maa://20953 (100.00), maa://31173 (100.00)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (100.00), maa://42415 (92.47), *maa://40838 (79.57)</t>
+          <t>maa://20932 (100.00), maa://42415 (93.55), *maa://40838 (79.57)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), *maa://25777 (53.68), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), *maa://25777 (60.00), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (95.74), **maa://20947 (30.85), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
+          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), **maa://63790 (44.90)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (58.16)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), **maa://35841 (48.81)</t>
+          <t>maa://24472 (100.00), **maa://35841 (48.24)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (63.27), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (7.14), **maa://61839 (44.90), **maa://61275 (34.69)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (63.27), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (12.24), *maa://61839 (52.04), **maa://61275 (34.69)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (63.54)</t>
+          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (67.71)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (100.00), maa://51923 (91.95)</t>
+          <t>maa://51549 (100.00), maa://51923 (90.91)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), **maa://64200 (36.17)</t>
+          <t>maa://59681 (100.00), **maa://64200 (46.81)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (74.75)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (76.77)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="D179" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (100.00), *maa://29012 (62.03)</t>
+          <t>maa://20911 (100.00), *maa://29012 (61.25)</t>
         </is>
       </c>
       <c r="E179" s="14" t="inlineStr">
@@ -17723,12 +17723,12 @@
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38), ***maa://63806 (24.14)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (56.41), maa://39588 (98.72), ***maa://64079 (26.92)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (57.69)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (42.50)</t>
+          <t>maa://62759 (100.00), **maa://62764 (41.98)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (93.18), maa://45570 (100.00), maa://42225 (86.36), ***maa://60678 (23.86)</t>
+          <t>maa://42287 (94.32), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (57.95)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.86), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (7.14)</t>
+          <t>maa://51881 (100.00), maa://51630 (91.84), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (12.24)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (100.00), *maa://39810 (69.70)</t>
+          <t>maa://39692 (100.00), *maa://39810 (70.71)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), **maa://61839 (45.36), **maa://61275 (35.05)</t>
+          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), *maa://61839 (52.58), **maa://61275 (35.05)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (63.22)</t>
+          <t>maa://49648 (100.00), *maa://49662 (65.48)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26692,7 +26692,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), *maa://50629 (51.16), **maa://48859 (39.53)</t>
+          <t>maa://42635 (100.00), *maa://50629 (52.38), **maa://48859 (40.48)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), **maa://60251 (48.91)</t>
+          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), *maa://60251 (52.17)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="D376" s="22" t="inlineStr">
         <is>
-          <t>maa://41110 (100.00), *maa://45605 (59.57)</t>
+          <t>maa://41110 (100.00), *maa://45605 (58.95)</t>
         </is>
       </c>
       <c r="E376" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (82.98), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (71.28), maa://51873 (97.87), *maa://62047 (73.40)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (72.34), maa://51873 (97.87), *maa://62047 (74.47)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (100.00), maa://39394 (96.15), ***maa://26209 (9.62)</t>
+          <t>maa://30062 (100.00), maa://39394 (98.08), ***maa://26209 (9.62)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.11 13:31:21</t>
+          <t>更新日期：2025.08.12 13:22:39</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (83.95), *maa://23264 (60.49)</t>
+          <t>maa://28977 (100.00), maa://36669 (85.00), *maa://23264 (61.25)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (93.33), maa://64046 (100.00)</t>
+          <t>maa://63896 (92.31), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (77.27)</t>
+          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (67.53), maa://36048 (84.42), maa://45058 (84.42)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (81.82)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (100.00), maa://52226 (98.86)</t>
+          <t>maa://22466 (100.00), maa://52226 (100.00)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (81.91), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (82.98), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (96.36), maa://47854 (100.00), *maa://29784 (60.00)</t>
+          <t>maa://24313 (92.98), maa://47854 (100.00), *maa://29784 (57.89)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (93.02), *maa://56241 (69.77)</t>
+          <t>maa://50085 (100.00), maa://49976 (93.02), *maa://56241 (72.09)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50), ***maa://64221 (28.75)</t>
+          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (37.50)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (92.22), *maa://43904 (53.33)</t>
+          <t>maa://35926 (100.00), maa://36258 (92.22), *maa://43904 (56.67)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (60.82), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (62.89), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://64107 (84.31), maa://64205 (100.00)</t>
+          <t>*maa://64107 (75.44), maa://64205 (100.00)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (90.00), maa://21284 (100.00)</t>
+          <t>maa://22525 (88.75), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (71.58)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (73.68)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.11 13:31:21</t>
+          <t>更新日期：2025.08.12 13:22:39</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), **maa://63498 (39.53)</t>
+          <t>maa://20876 (100.00), *maa://63498 (51.16)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (69.51), *maa://28758 (65.85), maa://29036 (100.00), *maa://42172 (57.32), maa://30285 (82.93)</t>
+          <t>*maa://20849 (69.51), *maa://28758 (67.07), maa://29036 (100.00), *maa://42172 (59.76), maa://30285 (82.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (93.26), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (91.01), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (94.38), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (91.01), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), maa://27376 (98.81), **maa://20838 (40.48)</t>
+          <t>maa://27376 (98.81), maa://42635 (100.00), **maa://20838 (40.48)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (100.00), maa://31173 (100.00)</t>
+          <t>maa://20953 (100.00), maa://31173 (95.24)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (58.16)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (66.33)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (63.27), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (12.24), *maa://61839 (52.04), **maa://61275 (34.69)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (65.31), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (12.24), *maa://61839 (52.04), **maa://61275 (34.69)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (94.05), maa://49655 (100.00)</t>
+          <t>maa://49867 (92.94), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), *maa://63320 (76.77)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (82.83)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="D232" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (96.74), maa://39140 (100.00), *maa://38723 (73.91)</t>
+          <t>maa://29058 (97.83), maa://39140 (100.00), *maa://38723 (73.91)</t>
         </is>
       </c>
       <c r="E232" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (57.69)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (62.82)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (94.32), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (57.95)</t>
+          <t>maa://42287 (95.45), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (64.77)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (91.84), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (57.14), ***maa://60902 (12.24)</t>
+          <t>maa://51881 (100.00), maa://51630 (91.84), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (61.22), ***maa://60902 (12.24)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.00), maa://35996 (92.93), ***maa://39217 (20.20), maa://47349 (87.88)</t>
+          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (20.41), maa://47349 (88.78)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (65.48)</t>
+          <t>maa://49648 (100.00), *maa://49662 (64.71)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (95.45)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (96.59)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (98.88), maa://36684 (100.00)</t>
+          <t>maa://21246 (97.78), maa://36684 (100.00)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (71.76)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (75.29)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (94.38)</t>
+          <t>maa://49983 (100.00), maa://50121 (95.51)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (100.00), maa://39394 (98.08), ***maa://26209 (9.62)</t>
+          <t>maa://30062 (100.00), maa://39394 (96.08), ***maa://26209 (9.80)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>maa://22763 (100.00)</t>
+          <t>**maa://64972 (42.00)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.12 13:22:39</t>
+          <t>更新日期：2025.08.13 13:25:33</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), **maa://22728 (49.28)</t>
+          <t>maa://21248 (100.00), **maa://22728 (47.83)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
+          <t>maa://39841 (97.85), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (81.82)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (83.12)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (92.98), maa://47854 (100.00), *maa://29784 (57.89)</t>
+          <t>maa://24313 (91.38), maa://47854 (100.00), *maa://29784 (56.90)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (74.24)</t>
+          <t>maa://30709 (100.00), *maa://36668 (75.76)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (93.02), *maa://56241 (72.09)</t>
+          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (75.29)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (37.50)</t>
+          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (31.25)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K29" s="19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (96.81), maa://31400 (100.00), maa://28440 (84.04), **maa://28650 (38.30)</t>
+          <t>maa://28432 (96.81), maa://31400 (100.00), maa://28440 (84.04)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>*maa://64107 (75.44), maa://64205 (100.00)</t>
+          <t>maa://64205 (100.00)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (60.00)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (64.21)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (73.12)</t>
+          <t>maa://25176 (100.00), *maa://56237 (75.27)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59413 (60.00)</t>
+          <t>maa://59534 (100.00), *maa://59413 (64.21)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.12 13:22:39</t>
+          <t>更新日期：2025.08.13 13:25:33</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), *maa://63498 (51.16)</t>
+          <t>maa://20876 (100.00), *maa://63498 (59.30)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (69.51), *maa://28758 (67.07), maa://29036 (100.00), *maa://42172 (59.76), maa://30285 (82.93)</t>
+          <t>*maa://20849 (68.67), *maa://28758 (66.27), maa://29036 (100.00), *maa://42172 (59.04), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.38), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (91.01), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (94.38), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (92.13), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (100.00), maa://31173 (95.24)</t>
+          <t>maa://20953 (100.00), maa://31173 (96.43)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), *maa://25777 (60.00), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), *maa://25777 (60.00), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.00), maa://45606 (90.53), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
+          <t>maa://20993 (100.00), maa://45606 (91.58), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (66.33)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (69.39)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.00), *maa://51015 (73.20)</t>
+          <t>maa://20991 (100.00), *maa://51015 (74.23)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), *maa://56588 (79.59), *maa://45194 (65.31), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (12.24), *maa://61839 (52.04), **maa://61275 (34.69)</t>
+          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (80.41), *maa://45194 (65.98), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (12.37), *maa://61839 (52.58), **maa://61275 (35.05)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (100.00), maa://20822 (89.47)</t>
+          <t>maa://20933 (100.00), maa://20822 (88.31)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (86.57)</t>
+          <t>maa://31560 (100.00), maa://20940 (89.55)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), **maa://64408 (45.36)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (58.76)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), **maa://64200 (46.81)</t>
+          <t>maa://59681 (100.00), *maa://64200 (60.64)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (82.83)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (84.85)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (91.58), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (84.21), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (81.05)</t>
+          <t>maa://44224 (91.58), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (84.21), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (82.11)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (41.38), ***maa://63806 (24.14)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), ***maa://63806 (24.14)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (62.82)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (66.67)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (41.98)</t>
+          <t>maa://62759 (100.00), **maa://62764 (41.46)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (95.45), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (64.77)</t>
+          <t>maa://42287 (95.45), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (69.32)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.00), maa://31559 (88.42), maa://20924 (81.05), ***maa://49440 (16.84)</t>
+          <t>maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), ***maa://49440 (16.84)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (91.84), *maa://56588 (79.59), **maa://55171 (37.76), *maa://51893 (61.22), ***maa://60902 (12.24)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (80.41), **maa://55171 (38.14), *maa://51893 (61.86), ***maa://60902 (12.37)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (95.88), maa://34677 (95.88), maa://32892 (87.63), *maa://32653 (63.92), *maa://61839 (52.58), **maa://61275 (35.05)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (53.12), **maa://61275 (35.42)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (6.00)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (23.00)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (64.71)</t>
+          <t>maa://49648 (100.00), *maa://49662 (66.28)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), *maa://64045 (66.67), ***maa://64041 (17.65)</t>
+          <t>maa://63883 (100.00), *maa://64045 (66.67), **maa://64041 (41.18)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (22.34), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (24.47), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (72.34), maa://51873 (97.87), *maa://62047 (74.47)</t>
+          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (71.58), maa://51873 (96.84), *maa://62047 (74.74)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (96.59)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (88.64)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (97.78), maa://36684 (100.00)</t>
+          <t>maa://21246 (98.88), maa://36684 (100.00)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (95.35)</t>
+          <t>maa://25251 (100.00), maa://59087 (96.51)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (74.44), *maa://22746 (67.78)</t>
+          <t>maa://24632 (100.00), *maa://22499 (75.28), *maa://22746 (68.54)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (95.51)</t>
+          <t>maa://49983 (100.00), maa://50121 (96.59)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (100.00), maa://39394 (96.08), ***maa://26209 (9.80)</t>
+          <t>maa://30062 (100.00), maa://39394 (100.00), ***maa://26209 (9.80)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (100.00), maa://22744 (81.01)</t>
+          <t>maa://21245 (98.75), maa://54105 (100.00), *maa://22744 (80.00)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (88.10)</t>
+          <t>maa://31836 (100.00), maa://30381 (89.29)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.13 13:25:33</t>
+          <t>更新日期：2025.08.16 13:20:53</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (49.25)</t>
+          <t>maa://24479 (100.00), **maa://21990 (48.53)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (83.16)</t>
+          <t>maa://26223 (100.00), maa://52237 (84.21)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), **maa://54000 (44.23)</t>
+          <t>***maa://25695 (26.42), ***maa://39951 (11.32), maa://45271 (100.00), ***maa://34206 (20.75), ***maa://39243 (13.21), **maa://54000 (43.40)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (85.00), *maa://23264 (61.25)</t>
+          <t>maa://28977 (100.00), maa://36669 (81.25), *maa://23264 (61.25)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (47.87)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (51.06)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (84.62), maa://22733 (100.00), ***maa://22761 (17.31)</t>
+          <t>maa://25021 (84.31), maa://22733 (100.00), ***maa://22761 (17.65)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), *maa://54294 (75.58)</t>
+          <t>maa://21867 (100.00), maa://54294 (83.72)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (92.31), maa://64046 (100.00)</t>
+          <t>maa://63896 (88.89), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (93.18), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (96.77), maa://39872 (87.10)</t>
+          <t>maa://23669 (100.00), maa://36677 (95.70), maa://39872 (88.17)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (77.78), *maa://48321 (58.89)</t>
+          <t>maa://22676 (100.00), *maa://22583 (77.78), *maa://48321 (61.11)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (97.85), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
+          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (92.22)</t>
+          <t>maa://22521 (100.00), maa://42751 (93.26)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (100.00), maa://36666 (97.44), *maa://22766 (78.21)</t>
+          <t>maa://21364 (100.00), maa://36666 (98.72), *maa://22766 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), *maa://28648 (72.53), *maa://36674 (76.92)</t>
+          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (77.78)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>maa://21624 (100.00), **maa://56358 (47.22)</t>
+          <t>maa://21624 (100.00), **maa://56358 (46.58)</t>
         </is>
       </c>
       <c r="E17" s="19" t="n"/>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="O17" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (100.00), maa://56238 (83.56)</t>
+          <t>maa://23890 (100.00), *maa://24940 (67.12), *maa://56238 (72.60)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (100.00), maa://52226 (100.00)</t>
+          <t>maa://22466 (98.88), maa://52226 (100.00)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (82.98), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (85.11), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (100.00), *maa://22741 (61.54)</t>
+          <t>maa://21917 (100.00), *maa://22741 (60.87)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (91.38), maa://47854 (100.00), *maa://29784 (56.90)</t>
+          <t>maa://24313 (89.83), maa://47854 (100.00), *maa://29784 (55.93)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (94.12), *maa://56241 (75.29)</t>
+          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (78.82)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://34946 (100.00), maa://20110 (90.59)</t>
+          <t>maa://34946 (100.00), maa://20110 (89.41)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (31.25)</t>
+          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (38.75)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (100.00), *maa://37649 (61.86)</t>
+          <t>maa://21282 (100.00), *maa://37649 (62.89)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (92.31)</t>
+          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://36663 (75.82), *maa://25141 (76.92), maa://52227 (92.31)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (66.28)</t>
+          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (70.93)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (96.92), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
+          <t>maa://29063 (95.38), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (85.54), maa://26001 (87.95)</t>
+          <t>maa://31215 (100.00), maa://24516 (84.52), maa://26001 (86.90)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), *maa://56374 (76.25)</t>
+          <t>maa://41802 (100.00), maa://56374 (81.25)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (47.54)</t>
+          <t>maa://30511 (100.00), **maa://29760 (48.33)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (96.81), maa://31400 (100.00), maa://28440 (84.04)</t>
+          <t>maa://28432 (97.87), maa://31400 (100.00), maa://28440 (84.04)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), ***maa://64191 (27.27)</t>
+          <t>maa://45792 (100.00), **maa://64191 (44.16)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (100.00), maa://36667 (97.89), **maa://22760 (35.79)</t>
+          <t>maa://21895 (100.00), maa://36667 (98.95), **maa://22760 (35.79)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (55.43)</t>
+          <t>maa://48817 (100.00), *maa://56235 (61.96)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (62.89), *maa://56336 (62.89), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (63.92), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
-          <t>maa://39384 (100.00), *maa://49735 (61.29)</t>
+          <t>maa://39384 (100.00), *maa://49735 (64.89)</t>
         </is>
       </c>
       <c r="M38" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (100.00), maa://47093 (98.85)</t>
+          <t>maa://24709 (100.00), maa://47093 (95.40)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="S39" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45790 (76.19)</t>
+          <t>maa://47079 (100.00), *maa://45788 (72.84), *maa://45790 (79.01)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://64205 (100.00)</t>
+          <t>*maa://64107 (65.28), maa://64205 (100.00), **maa://65283 (47.22)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (92.47)</t>
+          <t>maa://59394 (100.00), maa://59378 (91.49)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="G63" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59413 (64.21)</t>
+          <t>maa://59534 (100.00), **maa://59693 (43.62), *maa://59413 (69.15)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.13 13:25:33</t>
+          <t>更新日期：2025.08.16 13:20:53</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), *maa://63498 (59.30)</t>
+          <t>maa://20876 (100.00), *maa://63498 (58.62)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (68.67), *maa://28758 (66.27), maa://29036 (100.00), *maa://42172 (59.04), maa://30285 (81.93)</t>
+          <t>*maa://20849 (69.88), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (59.04), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.47), maa://20832 (100.00), *maa://20727 (75.79)</t>
+          <t>maa://20863 (90.53), maa://20832 (100.00), *maa://20727 (75.79)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65), *maa://63790 (69.39)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://63790 (83.67), maa://20856 (82.65)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>*maa://29094 (79.73), maa://28904 (100.00), **maa://20931 (37.84)</t>
+          <t>maa://29094 (80.26), maa://28904 (100.00), **maa://20931 (39.47)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (80.41), *maa://45194 (65.98), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (12.37), *maa://61839 (52.58), **maa://61275 (35.05)</t>
+          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (82.47), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (52.58), **maa://61275 (45.36)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D115" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (67.71)</t>
+          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (70.83)</t>
         </is>
       </c>
       <c r="E115" s="14" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (95.95), maa://29031 (100.00)</t>
+          <t>maa://29659 (97.30), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (89.55)</t>
+          <t>maa://31560 (100.00), maa://20940 (92.54)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (35.48), *maa://31185 (56.99), *maa://30306 (54.84)</t>
+          <t>maa://28484 (100.00), **maa://23736 (35.11), *maa://31185 (56.38), *maa://30306 (54.26)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), ***maa://30867 (12.90), ***maa://61380 (22.58)</t>
+          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), **maa://61380 (36.56), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (94.85), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (58.76)</t>
+          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (62.89)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (100.00), *maa://47950 (61.29), maa://30806 (91.94)</t>
+          <t>maa://20975 (100.00), *maa://47950 (70.97), maa://30806 (91.94)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), *maa://29659 (79.78), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (80.90), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (84.85)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (86.87)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (91.58), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (84.21), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (82.11)</t>
+          <t>maa://44224 (92.63), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (86.32)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), ***maa://63806 (24.14)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), **maa://63806 (39.08)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (95.45), maa://45570 (100.00), maa://42225 (87.50), *maa://60678 (69.32)</t>
+          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (77.27), maa://42225 (87.50)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (100.00), maa://20834 (89.61)</t>
+          <t>maa://20879 (100.00), maa://20834 (88.46)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (80.41), **maa://55171 (38.14), *maa://51893 (61.86), ***maa://60902 (12.37)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (82.47), **maa://55171 (40.21), *maa://51893 (61.86), ***maa://60902 (11.34)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.00), maa://57199 (90.43)</t>
+          <t>maa://45799 (100.00), maa://57199 (91.49)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (96.84), maa://49660 (82.11), **maa://50517 (40.00)</t>
+          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (83.33), **maa://50517 (39.58)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -24262,7 +24262,7 @@
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>**maa://62755 (50.00), maa://62761 (100.00)</t>
+          <t>**maa://62755 (46.67), maa://62761 (100.00)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (100.00), *maa://39810 (70.71)</t>
+          <t>maa://39692 (100.00), *maa://39810 (71.72)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (53.12), **maa://61275 (35.42)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (53.12), **maa://61275 (45.83)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (23.00)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (19.00)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (66.28)</t>
+          <t>maa://49648 (100.00), *maa://49662 (72.41)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://44635 (88.04), maa://48026 (95.65), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), *maa://60251 (52.17)</t>
+          <t>maa://40957 (100.00), maa://48026 (95.65), maa://44635 (88.04), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), *maa://60251 (55.43)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), *maa://64045 (66.67), **maa://64041 (41.18)</t>
+          <t>maa://63883 (100.00), *maa://64045 (75.00), **maa://64041 (30.88)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27232,7 +27232,7 @@
       </c>
       <c r="D374" s="22" t="inlineStr">
         <is>
-          <t>maa://42333 (100.00), *maa://50518 (57.30), *maa://41977 (57.30)</t>
+          <t>maa://42333 (100.00), *maa://50518 (56.67), *maa://41977 (56.67)</t>
         </is>
       </c>
       <c r="E374" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (24.47), **maa://45952 (41.49), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (24.47), **maa://45952 (38.30), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28285,7 +28285,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://59533 (100.00), *maa://59577 (77.27)</t>
+          <t>maa://59533 (100.00), *maa://59577 (80.00)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (71.58), maa://51873 (96.84), *maa://62047 (74.74)</t>
+          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (73.68), maa://51873 (96.84), *maa://62047 (74.74)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28474,7 +28474,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://60449 (100.00), maa://59493 (95.83)</t>
+          <t>maa://60449 (100.00), maa://59493 (94.85)</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (75.29)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (76.47)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (96.59)</t>
+          <t>maa://49983 (100.00), maa://50121 (97.73)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.16 13:20:53</t>
+          <t>更新日期：2025.08.17 13:21:11</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (51.06)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (54.26)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (88.89), maa://64046 (100.00)</t>
+          <t>maa://63896 (90.00), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (100.00), maa://37650 (96.77), maa://36679 (91.40)</t>
+          <t>maa://21441 (100.00), maa://37650 (97.85), maa://36679 (91.40)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (78.82)</t>
+          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (75.29)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (69.74)</t>
+          <t>maa://24368 (100.00), *maa://46650 (71.05)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), *maa://63016 (61.29)</t>
+          <t>maa://29753 (100.00), *maa://63016 (65.59)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (92.22), *maa://43904 (56.67)</t>
+          <t>maa://35926 (100.00), maa://36258 (93.33), *maa://43904 (56.67)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (63.92), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (65.98), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (72.84), *maa://45790 (79.01)</t>
+          <t>maa://47079 (100.00), *maa://45788 (71.60), *maa://45790 (79.01)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (73.68)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (75.79)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (64.21)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (68.42)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (57.30)</t>
+          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (64.04)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), **maa://59693 (43.62), *maa://59413 (69.15)</t>
+          <t>maa://59534 (100.00), **maa://59693 (47.87), *maa://59413 (69.15)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.16 13:20:53</t>
+          <t>更新日期：2025.08.17 13:21:11</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8489,12 +8489,12 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (69.88), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (59.04), maa://30285 (81.93)</t>
+          <t>*maa://20849 (71.08), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), ***maa://65357 (25.30)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -10757,12 +10757,12 @@
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62), ***maa://63722 (23.08)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), **maa://35841 (48.24)</t>
+          <t>maa://24472 (100.00), **maa://35841 (47.67)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (82.47), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (52.58), **maa://61275 (45.36)</t>
+          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (83.51), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (58.76), **maa://61275 (45.36)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (81.44)</t>
+          <t>maa://20869 (100.00), maa://44690 (82.47)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>**maa://30679 (44.93), maa://45258 (100.00)</t>
+          <t>maa://45258 (100.00), **maa://30679 (44.93)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (94.85), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (88.66), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (62.89)</t>
+          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (89.69), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (62.89)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.63), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (86.32)</t>
+          <t>maa://44224 (91.58), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (86.32)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="D228" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (100.00), *maa://35801 (51.72)</t>
+          <t>maa://20987 (100.00), *maa://35801 (51.14)</t>
         </is>
       </c>
       <c r="E228" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (66.67)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (70.51)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (77.27), maa://42225 (87.50)</t>
+          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (79.55), maa://42225 (87.50)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (100.00), maa://20834 (88.46)</t>
+          <t>maa://20879 (100.00), maa://20834 (89.61)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (82.47), **maa://55171 (40.21), *maa://51893 (61.86), ***maa://60902 (11.34)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (83.51), **maa://55171 (40.21), *maa://51893 (61.86), ***maa://60902 (11.34)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (83.33), **maa://50517 (39.58)</t>
+          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (84.38), **maa://50517 (45.83)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (100.00), *maa://39810 (71.72)</t>
+          <t>maa://39692 (100.00), *maa://39810 (72.73)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (53.12), **maa://61275 (45.83)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (59.38), **maa://61275 (45.83)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (72.41)</t>
+          <t>maa://49648 (100.00), *maa://49662 (73.56)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://48026 (95.65), maa://44635 (88.04), maa://41035 (92.39), maa://44660 (86.96), *maa://41128 (76.09), *maa://60251 (55.43)</t>
+          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (91.40), maa://44660 (86.02), *maa://60251 (54.84), *maa://41128 (75.27)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), *maa://64045 (75.00), **maa://64041 (30.88)</t>
+          <t>maa://63883 (100.00), maa://64045 (87.14), ***maa://64041 (30.00)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (24.47), **maa://45952 (38.30), ***maa://46851 (3.19), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (27.66), **maa://45952 (38.30), ***maa://46851 (2.13), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28285,7 +28285,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://59533 (100.00), *maa://59577 (80.00)</t>
+          <t>maa://59533 (100.00), *maa://59577 (79.12)</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (88.64)</t>
+          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (89.77)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (97.73)</t>
+          <t>maa://49983 (100.00), maa://50121 (96.63)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (98.75), maa://54105 (100.00), *maa://22744 (80.00)</t>
+          <t>maa://21245 (100.00), maa://54105 (97.47), maa://22744 (81.01)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.17 13:21:11</t>
+          <t>更新日期：2025.08.18 13:25:38</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (97.56)</t>
+          <t>maa://28711 (100.00), maa://40166 (98.78)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (54.26)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (50.00)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (90.43), maa://22501 (100.00), maa://45521 (88.30)</t>
+          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (87.37)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (90.00), maa://64046 (100.00)</t>
+          <t>maa://63896 (90.11), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (93.18), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (100.00), maa://39599 (95.29)</t>
+          <t>maa://22430 (100.00), maa://39599 (96.47)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (77.27), *maa://37566 (75.00)</t>
+          <t>maa://30587 (100.00), *maa://29748 (77.27), *maa://37566 (76.14)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), *maa://63016 (65.59)</t>
+          <t>maa://29753 (100.00), *maa://63016 (73.12)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://24080 (90.14), maa://42865 (100.00), ***maa://34960 (2.82)</t>
+          <t>maa://24080 (88.89), maa://42865 (100.00), ***maa://34960 (2.78)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (93.33), *maa://43904 (56.67)</t>
+          <t>maa://35926 (100.00), maa://36258 (92.31), *maa://43904 (56.04)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (61.96)</t>
+          <t>maa://48817 (100.00), *maa://56235 (66.30)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (65.98), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (69.07), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (100.00), maa://36664 (83.70), **maa://45550 (48.91)</t>
+          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), **maa://45550 (48.39)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>*maa://64107 (65.28), maa://64205 (100.00), **maa://65283 (47.22)</t>
+          <t>*maa://64107 (66.67), maa://64205 (100.00), **maa://65283 (47.22)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (88.51)</t>
+          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (89.66)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (94.38)</t>
+          <t>maa://35931 (100.00), maa://43901 (95.51)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (68.42)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (73.68)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6485,12 +6485,12 @@
       </c>
       <c r="O52" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (91.49)</t>
+          <t>maa://59394 (100.00), maa://59378 (91.49), ***maa://65511 (22.34)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), **maa://59693 (47.87), *maa://59413 (69.15)</t>
+          <t>maa://59534 (100.00), *maa://59693 (52.13), *maa://59413 (69.15)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.17 13:21:11</t>
+          <t>更新日期：2025.08.18 13:25:38</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (71.08), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), ***maa://65357 (25.30)</t>
+          <t>*maa://20849 (71.08), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), *maa://65357 (61.45)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.38), maa://36866 (100.00), *maa://45572 (71.91), maa://62759 (92.13), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (94.38), maa://36866 (100.00), maa://62759 (92.13), *maa://45572 (71.91), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (100.00), maa://31173 (96.43)</t>
+          <t>maa://20953 (100.00), maa://31173 (95.29)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10487,12 +10487,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
+          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79), ***maa://65290 (22.11)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://63790 (83.67), maa://20856 (82.65)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://63790 (86.73), maa://20856 (82.65)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), **maa://35841 (47.67)</t>
+          <t>maa://24472 (100.00), **maa://35841 (50.00)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.00), *maa://51015 (74.23)</t>
+          <t>maa://20991 (100.00), *maa://51015 (75.26)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (80.26), maa://28904 (100.00), **maa://20931 (39.47)</t>
+          <t>maa://29094 (81.58), maa://28904 (100.00), **maa://20931 (39.47)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (83.51), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (58.76), **maa://61275 (45.36)</t>
+          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (83.51), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (62.89), **maa://61275 (45.36)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (97.30), maa://29031 (100.00)</t>
+          <t>maa://29659 (96.00), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (92.54)</t>
+          <t>maa://31560 (100.00), maa://20940 (89.86)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="D119" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), *maa://20851 (65.67)</t>
+          <t>maa://31560 (100.00), *maa://20851 (63.77)</t>
         </is>
       </c>
       <c r="E119" s="14" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (35.11), *maa://31185 (56.38), *maa://30306 (54.26)</t>
+          <t>maa://28484 (100.00), **maa://23736 (35.11), *maa://31185 (63.83), *maa://30306 (54.26)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), **maa://61380 (36.56), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), **maa://61380 (47.31), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (80.90), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (80.90), maa://49074 (100.00), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (92.94), maa://49655 (100.00)</t>
+          <t>maa://49867 (95.35), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (86.87)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (87.88)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="D182" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), **maa://20968 (31.34)</t>
+          <t>maa://31560 (100.00), **maa://20968 (30.43)</t>
         </is>
       </c>
       <c r="E182" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (91.58), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (86.32)</t>
+          <t>maa://44224 (91.58), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (87.37)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (70.51)</t>
+          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (79.49)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (79.55), maa://42225 (87.50)</t>
+          <t>maa://42287 (96.59), maa://45570 (100.00), maa://60678 (81.82), maa://42225 (87.50)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -21130,7 +21130,7 @@
       </c>
       <c r="D261" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (81.71), maa://20884 (100.00)</t>
+          <t>maa://31560 (84.15), maa://20884 (100.00)</t>
         </is>
       </c>
       <c r="E261" s="14" t="inlineStr">
@@ -23344,7 +23344,7 @@
       </c>
       <c r="D302" s="13" t="inlineStr">
         <is>
-          <t>maa://29005 (100.00), *maa://31560 (72.04)</t>
+          <t>maa://29005 (100.00), *maa://31560 (74.19)</t>
         </is>
       </c>
       <c r="E302" s="14" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (84.38), **maa://50517 (45.83)</t>
+          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (84.38), *maa://50517 (51.04)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (59.38), **maa://61275 (45.83)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (63.54), **maa://61275 (45.83)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (19.00)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (25.00)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (73.56)</t>
+          <t>maa://49648 (100.00), *maa://49662 (73.86)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), maa://64045 (87.14), ***maa://64041 (30.00)</t>
+          <t>maa://63883 (100.00), maa://64045 (90.28), ***maa://64041 (29.17)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (27.66), **maa://45952 (38.30), ***maa://46851 (2.13), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (26.60), **maa://45952 (38.30), ***maa://46851 (2.13), **maa://44896 (47.87)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (73.68), maa://51873 (96.84), *maa://62047 (74.74)</t>
+          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (74.74), maa://51873 (96.84), *maa://62047 (74.74)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (96.51)</t>
+          <t>maa://25251 (100.00), maa://59087 (97.67)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), *maa://60545 (76.47)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (82.35)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (88.89)</t>
+          <t>maa://24390 (100.00), maa://52241 (91.11)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (91.01), maa://22754 (89.89), *maa://31008 (73.03)</t>
+          <t>maa://32509 (100.00), maa://27295 (92.13), maa://22754 (89.89), *maa://31008 (73.03)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (100.00), maa://39394 (100.00), ***maa://26209 (9.80)</t>
+          <t>maa://30062 (96.23), maa://39394 (100.00), ***maa://26209 (9.43)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (97.47), maa://22744 (81.01)</t>
+          <t>maa://21245 (100.00), maa://54105 (98.73), maa://22744 (81.01)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.18 13:25:38</t>
+          <t>更新日期：2025.08.22 13:21:00</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>maa://21476 (100.00), *maa://39431 (60.00), **maa://37551 (33.85)</t>
+          <t>maa://21476 (100.00), *maa://39431 (54.55), **maa://37551 (33.33)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (87.50), maa://23252 (94.32), maa://37496 (100.00)</t>
+          <t>maa://32931 (86.52), maa://23252 (93.26), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (84.21)</t>
+          <t>maa://26223 (100.00), maa://52237 (85.26)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (98.78)</t>
+          <t>maa://28711 (100.00), maa://40166 (97.56)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), **maa://63521 (50.00)</t>
+          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (51.06)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (84.31), maa://22733 (100.00), ***maa://22761 (17.65)</t>
+          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (17.31)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (87.37)</t>
+          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (88.42)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (90.11), maa://64046 (100.00)</t>
+          <t>maa://63896 (93.26), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (95.70), maa://39872 (88.17)</t>
+          <t>maa://23669 (100.00), maa://36677 (96.74), maa://39872 (89.13)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (77.78), *maa://48321 (61.11)</t>
+          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (61.11)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (93.26)</t>
+          <t>maa://22521 (100.00), maa://42751 (94.38)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (83.12)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (84.42)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="X15" s="8" t="inlineStr">
         <is>
-          <t>maa://38786 (84.31), maa://56102 (100.00)</t>
+          <t>maa://38786 (92.16), maa://56102 (100.00)</t>
         </is>
       </c>
       <c r="Y15" s="19" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (77.78)</t>
+          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (78.89)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (98.88), maa://52226 (100.00)</t>
+          <t>maa://22466 (97.78), maa://52226 (100.00)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (85.11), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (86.17), *maa://24380 (69.15)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (89.83), maa://47854 (100.00), *maa://29784 (55.93)</t>
+          <t>maa://24313 (88.33), maa://47854 (100.00), *maa://29784 (55.00)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="W19" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X19" s="8" t="inlineStr">
         <is>
-          <t>maa://31386 (100.00)</t>
+          <t>maa://31386 (100.00), **maa://58490 (35.29)</t>
         </is>
       </c>
       <c r="Y19" s="19" t="n"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://21663 (100.00), *maa://52239 (56.60)</t>
+          <t>maa://21663 (100.00), *maa://52239 (71.70)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (98.86), maa://25198 (100.00), maa://36680 (88.64)</t>
+          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (87.64)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (75.29)</t>
+          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (76.47)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://34946 (100.00), maa://20110 (89.41)</t>
+          <t>maa://34946 (100.00), maa://20110 (88.37)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (97.50), **maa://64221 (38.75)</t>
+          <t>maa://22524 (100.00), maa://22432 (98.75), **maa://64221 (50.00)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (100.00), *maa://37649 (62.89)</t>
+          <t>maa://21282 (100.00), *maa://37649 (63.92)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (71.05)</t>
+          <t>maa://24368 (100.00), *maa://46650 (72.37)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), *maa://64165 (70.93)</t>
+          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), maa://64165 (81.40)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), *maa://63016 (73.12)</t>
+          <t>maa://29753 (100.00), *maa://63016 (75.27)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.38), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
+          <t>maa://29063 (93.94), maa://25311 (100.00), ***maa://22725 (3.03), maa://45047 (80.30)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), maa://56374 (81.25)</t>
+          <t>maa://41802 (100.00), maa://56374 (80.25)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (100.00), maa://56625 (88.41)</t>
+          <t>maa://39870 (100.00), maa://56625 (94.20)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -4209,12 +4209,12 @@
       </c>
       <c r="AE28" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (100.00)</t>
+          <t>maa://36660 (100.00), ***maa://65700 (23.33)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), **maa://64191 (44.16)</t>
+          <t>maa://45792 (100.00), *maa://64191 (57.14)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://21895 (100.00), maa://36667 (98.95), **maa://22760 (35.79)</t>
+          <t>maa://36667 (98.95), maa://21895 (100.00), **maa://22760 (35.79)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (66.30)</t>
+          <t>maa://48817 (100.00), *maa://56235 (70.65)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (69.07), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (68.04), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), **maa://45550 (48.39)</t>
+          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), *maa://45550 (52.69)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>*maa://64107 (66.67), maa://64205 (100.00), **maa://65283 (47.22)</t>
+          <t>maa://64205 (100.00), *maa://65283 (71.25)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (88.75), maa://21284 (100.00)</t>
+          <t>maa://22525 (86.42), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (75.79)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (77.89)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (73.68)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (75.79)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (91.49), ***maa://65511 (22.34)</t>
+          <t>maa://59394 (100.00), maa://59378 (91.49), **maa://65511 (46.81)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (75.27)</t>
+          <t>maa://25176 (100.00), *maa://56237 (77.42)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (64.04)</t>
+          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (73.03)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59693 (52.13), *maa://59413 (69.15)</t>
+          <t>maa://59534 (100.00), *maa://59693 (61.70), *maa://59413 (72.34)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.18 13:25:38</t>
+          <t>更新日期：2025.08.22 13:21:00</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), *maa://63498 (58.62)</t>
+          <t>maa://20876 (100.00), *maa://63498 (65.52)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (71.08), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), *maa://65357 (61.45)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), *maa://65357 (78.31)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (94.38), maa://36866 (100.00), maa://62759 (92.13), *maa://45572 (71.91), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (96.63), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (100.00), *maa://41118 (52.69)</t>
+          <t>maa://27970 (100.00), *maa://41118 (56.38)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), *maa://25777 (60.00), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), *maa://25777 (64.21), *maa://20631 (60.00), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (41.76), maa://20855 (80.22), maa://20904 (84.62), ***maa://63722 (23.08)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (48.35), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (48.35)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://63790 (86.73), maa://20856 (82.65)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), maa://63790 (89.80), *maa://30672 (66.33), maa://20856 (82.65)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="D83" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (91.43), maa://27794 (81.43), maa://20960 (100.00)</t>
+          <t>maa://45572 (94.29), maa://27794 (81.43), maa://20960 (100.00)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="D87" s="13" t="inlineStr">
         <is>
-          <t>maa://20886 (100.00), ***maa://60772 (26.25)</t>
+          <t>maa://20886 (100.00), ***maa://60772 (25.93)</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="D101" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (89.06), maa://20893 (85.94)</t>
+          <t>maa://45572 (100.00), maa://27794 (86.36), maa://20893 (83.33)</t>
         </is>
       </c>
       <c r="E101" s="14" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (81.58), maa://28904 (100.00), **maa://20931 (39.47)</t>
+          <t>maa://29094 (80.52), maa://28904 (100.00), **maa://20931 (38.96)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="D106" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (89.06), *maa://20843 (68.75), ***maa://24483 (14.06)</t>
+          <t>maa://45572 (100.00), maa://27794 (86.36), *maa://20843 (66.67), ***maa://24483 (13.64)</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (97.94), maa://25776 (86.60), maa://28361 (86.60), maa://25772 (86.60), maa://56588 (83.51), *maa://45194 (67.01), *maa://25161 (62.89), *maa://32653 (63.92), ***maa://60902 (11.34), *maa://61839 (62.89), **maa://61275 (45.36)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), maa://56588 (83.67), *maa://45194 (66.33), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (15.31), *maa://61839 (66.33), *maa://61275 (52.04)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (96.00), maa://29031 (100.00)</t>
+          <t>maa://29659 (96.05), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (82.47)</t>
+          <t>maa://20869 (100.00), maa://44690 (83.51)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (35.11), *maa://31185 (63.83), *maa://30306 (54.26)</t>
+          <t>maa://28484 (100.00), **maa://23736 (40.43), *maa://31185 (63.83), *maa://30306 (54.26)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), **maa://61380 (47.31), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), *maa://61380 (61.29), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (82.47), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (89.69), *maa://37300 (58.76), **maa://42917 (35.05), *maa://64408 (62.89)</t>
+          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (89.69), *maa://37300 (58.76), *maa://64408 (70.10), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (100.00), maa://51923 (90.91)</t>
+          <t>maa://51549 (100.00), maa://51923 (92.05)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -15617,12 +15617,12 @@
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (9.28)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="D166" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (100.00), *maa://47950 (70.97), maa://30806 (91.94)</t>
+          <t>maa://20975 (100.00), *maa://47950 (79.03), maa://30806 (91.94)</t>
         </is>
       </c>
       <c r="E166" s="14" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (80.90), maa://49074 (100.00), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (82.02), maa://49074 (100.00), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (95.35), maa://49655 (100.00)</t>
+          <t>maa://49867 (97.70), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), *maa://64200 (60.64)</t>
+          <t>maa://59681 (100.00), *maa://64200 (74.47)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="D186" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (86.25), maa://41303 (100.00)</t>
+          <t>maa://20969 (85.19), maa://41303 (100.00)</t>
         </is>
       </c>
       <c r="E186" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (91.58), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (87.37)</t>
+          <t>maa://44224 (92.63), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (82.11)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), **maa://63806 (39.08)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (65.52)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
+          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (97.44), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
+          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="D229" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (70.24), maa://39159 (100.00), ***maa://30061 (11.90)</t>
+          <t>*maa://29644 (71.43), maa://39159 (100.00), ***maa://30061 (11.90)</t>
         </is>
       </c>
       <c r="E229" s="14" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (96.15), maa://30666 (100.00), **maa://30739 (35.90), *maa://30723 (57.69), maa://39588 (98.72), *maa://64079 (79.49)</t>
+          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (84.81)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (41.46)</t>
+          <t>maa://62759 (100.00), ***maa://62764 (24.42)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20531,12 +20531,12 @@
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (95.60), maa://28906 (100.00), ***maa://28825 (4.40)</t>
+          <t>maa://28923 (95.60), maa://28906 (100.00), ***maa://28825 (4.40), ***maa://65613 (23.08)</t>
         </is>
       </c>
       <c r="E250" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (96.59), maa://45570 (100.00), maa://60678 (81.82), maa://42225 (87.50)</t>
+          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (76.14), maa://42225 (88.64)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="D255" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (100.00), *maa://45067 (55.41)</t>
+          <t>maa://40958 (100.00), *maa://45067 (54.67)</t>
         </is>
       </c>
       <c r="E255" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.78), maa://56588 (83.51), **maa://55171 (40.21), *maa://51893 (61.86), ***maa://60902 (11.34)</t>
+          <t>maa://51881 (100.00), maa://51630 (91.84), maa://56588 (83.67), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (15.31)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (100.00), *maa://32505 (67.01), maa://39155 (89.69)</t>
+          <t>maa://32414 (100.00), maa://39155 (89.69), *maa://32505 (67.01)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (95.83), maa://49660 (84.38), *maa://50517 (51.04)</t>
+          <t>maa://50280 (100.00), maa://49642 (95.88), maa://49660 (84.54), *maa://50517 (50.52)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -24262,7 +24262,7 @@
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>**maa://62755 (46.67), maa://62761 (100.00)</t>
+          <t>*maa://62755 (65.00), maa://62761 (100.00)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D325" s="13" t="inlineStr">
         <is>
-          <t>maa://39692 (100.00), *maa://39810 (72.73)</t>
+          <t>maa://39692 (100.00), *maa://39810 (74.75)</t>
         </is>
       </c>
       <c r="E325" s="14" t="inlineStr">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="D331" s="15" t="inlineStr">
         <is>
-          <t>maa://30680 (100.00), ***maa://41360 (25.61)</t>
+          <t>maa://30680 (100.00), ***maa://41360 (25.30)</t>
         </is>
       </c>
       <c r="E331" s="15" t="inlineStr">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="D338" s="22" t="inlineStr">
         <is>
-          <t>maa://42968 (100.00), maa://49245 (92.86)</t>
+          <t>maa://42968 (100.00), maa://49245 (93.88)</t>
         </is>
       </c>
       <c r="E338" s="22" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (63.54), **maa://61275 (45.83)</t>
+          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (67.71), *maa://61275 (53.12)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.00), maa://35996 (93.88), ***maa://39217 (20.41), maa://47349 (88.78)</t>
+          <t>maa://36868 (100.00), maa://35996 (94.90), ***maa://39217 (20.41), maa://47349 (89.80)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (73.86)</t>
+          <t>maa://49648 (100.00), *maa://49662 (71.91)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (91.40), maa://44660 (86.02), *maa://60251 (54.84), *maa://41128 (75.27)</t>
+          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (91.40), maa://44660 (87.10), *maa://60251 (56.99), *maa://41128 (75.27)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), maa://64045 (90.28), ***maa://64041 (29.17)</t>
+          <t>maa://63883 (100.00), maa://64045 (84.42), **maa://64041 (38.96)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.91), maa://44745 (100.00), ***maa://49516 (26.60), **maa://45952 (38.30), ***maa://46851 (2.13), **maa://44896 (47.87)</t>
+          <t>maa://42970 (81.05), maa://44745 (100.00), ***maa://49516 (26.32), **maa://45952 (37.89), ***maa://46851 (2.11), **maa://44896 (47.37)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28091,12 +28091,12 @@
       </c>
       <c r="C390" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D390" s="22" t="inlineStr">
         <is>
-          <t>maa://63890 (100.00)</t>
+          <t>maa://63890 (100.00), ***maa://64043 (25.61)</t>
         </is>
       </c>
       <c r="E390" s="22" t="inlineStr">
@@ -28393,7 +28393,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://51880 (100.00), maa://56651 (93.88), maa://51878 (91.84)</t>
+          <t>maa://51880 (100.00), maa://56651 (94.90), maa://51878 (92.86)</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (98.95), *maa://63228 (74.74), maa://51873 (96.84), *maa://62047 (74.74)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (76.84), maa://51873 (96.84), *maa://62047 (75.79)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28577,12 +28577,12 @@
       </c>
       <c r="C405" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00)</t>
+          <t>maa://64040 (100.00), ***maa://65803 (21.65)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (73.86), maa://58660 (89.77)</t>
+          <t>maa://39402 (100.00), *maa://34787 (74.71), maa://58660 (91.95)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://21246 (98.88), maa://36684 (100.00)</t>
+          <t>maa://36684 (100.00), maa://21246 (100.00)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (97.67)</t>
+          <t>maa://25251 (100.00), maa://59087 (96.51)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (96.70), *maa://39849 (61.54)</t>
+          <t>maa://40192 (100.00), maa://36987 (95.65), *maa://39849 (60.87)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (72.62), maa://20276 (100.00), *maa://22749 (72.62)</t>
+          <t>*maa://22880 (72.62), maa://20276 (100.00), *maa://22749 (75.00)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -890,7 +890,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (100.00), maa://26254 (94.57), **maa://22738 (32.61)</t>
+          <t>maa://21249 (100.00), maa://26254 (95.65), **maa://22738 (32.61)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (82.35)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (85.88)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (86.02), maa://27484 (100.00), *maa://27480 (78.49)</t>
+          <t>maa://27396 (86.02), maa://27484 (100.00), *maa://27480 (77.42)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (91.11)</t>
+          <t>maa://24390 (100.00), maa://52241 (92.22)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (96.63)</t>
+          <t>maa://49983 (100.00), maa://50121 (95.56)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (92.13), maa://22754 (89.89), *maa://31008 (73.03)</t>
+          <t>maa://32509 (100.00), maa://27295 (91.11), maa://22754 (88.89), *maa://31008 (72.22)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://30062 (96.23), maa://39394 (100.00), ***maa://26209 (9.43)</t>
+          <t>maa://39394 (100.00), maa://30062 (94.34), ***maa://26209 (9.43)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (98.73), maa://22744 (81.01)</t>
+          <t>maa://21245 (100.00), maa://54105 (98.73), *maa://22744 (78.48)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (89.29)</t>
+          <t>maa://31836 (100.00), maa://30381 (88.24)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>**maa://64972 (42.00)</t>
+          <t>*maa://64972 (69.39)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (75.00)</t>
+          <t>maa://22399 (100.00), *maa://22758 (76.92)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.22 13:21:00</t>
+          <t>更新日期：2025.08.30 13:19:59</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>maa://21476 (100.00), *maa://39431 (54.55), **maa://37551 (33.33)</t>
+          <t>maa://21476 (100.00), *maa://39431 (51.52), **maa://37551 (33.33)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (86.52), maa://23252 (93.26), maa://37496 (100.00)</t>
+          <t>maa://32931 (87.64), maa://23252 (93.26), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (75.58)</t>
+          <t>maa://22762 (100.00), *maa://39552 (70.93)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1675,12 +1675,12 @@
       </c>
       <c r="O9" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>maa://22736 (100.00)</t>
+          <t>maa://22736 (100.00), ***maa://64516 (27.63)</t>
         </is>
       </c>
       <c r="Q9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (85.26)</t>
+          <t>maa://26223 (100.00), maa://52237 (86.32)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00), **maa://22865 (45.88)</t>
+          <t>maa://26206 (100.00), **maa://22865 (45.24)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (26.42), ***maa://39951 (11.32), maa://45271 (100.00), ***maa://34206 (20.75), ***maa://39243 (13.21), **maa://54000 (43.40)</t>
+          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), **maa://54000 (44.23)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (87.23), *maa://63521 (51.06)</t>
+          <t>maa://27395 (100.00), maa://22755 (88.30), *maa://63521 (51.06)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://22301 (100.00), maa://45828 (91.58), maa://22726 (82.11)</t>
+          <t>maa://45828 (90.53), maa://22301 (100.00), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (17.31)</t>
+          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (11.54)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="S11" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (88.42)</t>
+          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (88.42), **maa://64808 (46.32)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>maa://30766 (100.00), *maa://36678 (70.27)</t>
+          <t>maa://30766 (100.00), *maa://36678 (74.32)</t>
         </is>
       </c>
       <c r="E12" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), maa://54294 (83.72)</t>
+          <t>maa://21867 (100.00), maa://54294 (86.05)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (93.26), maa://64046 (100.00)</t>
+          <t>maa://63896 (90.00), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (94.32), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (78.41)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (96.74), maa://39872 (89.13)</t>
+          <t>maa://23669 (100.00), maa://36677 (95.65), maa://39872 (89.13)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>maa://28932 (100.00), *maa://20106 (75.34), *maa://22769 (60.27)</t>
+          <t>maa://28932 (100.00), *maa://20106 (76.39), *maa://22769 (61.11)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), **maa://22728 (47.83)</t>
+          <t>maa://21248 (100.00), **maa://66545 (50.00)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (61.11)</t>
+          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (56.67)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="AE13" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (100.00)</t>
+          <t>maa://39883 (100.00), **maa://39885 (45.68)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (92.47)</t>
+          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (90.32)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (94.38)</t>
+          <t>maa://22521 (100.00), maa://42751 (91.01)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (84.42), maa://45058 (84.42)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (64.94), maa://36048 (84.42), maa://45058 (87.01)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (100.00), maa://21478 (92.77)</t>
+          <t>maa://24304 (100.00), maa://21478 (91.67)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (100.00), maa://36666 (98.72), *maa://22766 (78.21)</t>
+          <t>maa://21364 (100.00), maa://36666 (100.00), *maa://22766 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://21441 (100.00), maa://37650 (97.85), maa://36679 (91.40)</t>
+          <t>maa://37650 (97.85), maa://21441 (100.00), maa://36679 (91.40)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), *maa://28648 (73.33), *maa://36674 (78.89)</t>
+          <t>maa://22729 (100.00), *maa://28648 (74.44), *maa://36674 (78.89)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (70.45), maa://27755 (100.00)</t>
+          <t>*maa://23911 (71.59), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://22430 (100.00), maa://39599 (96.47)</t>
+          <t>maa://39599 (95.29), maa://22430 (100.00)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (86.17), *maa://24380 (69.15)</t>
+          <t>maa://24379 (100.00), maa://54153 (86.32), *maa://24380 (68.42)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (88.33), maa://47854 (100.00), *maa://29784 (55.00)</t>
+          <t>maa://24313 (89.83), maa://47854 (100.00), *maa://29784 (54.24)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (87.64)</t>
+          <t>maa://21432 (98.86), maa://25198 (100.00), maa://36680 (88.64)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (95.29), *maa://56241 (76.47)</t>
+          <t>maa://50085 (100.00), maa://49976 (94.12), maa://56241 (82.35)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (98.75), **maa://64221 (50.00)</t>
+          <t>maa://22524 (100.00), maa://22432 (100.00), *maa://64221 (56.96)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (77.27), *maa://37566 (76.14)</t>
+          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (76.14)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (72.37)</t>
+          <t>maa://24368 (100.00), *maa://46650 (71.05)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://36663 (75.82), *maa://25141 (76.92), maa://52227 (92.31)</t>
+          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (85.71)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (69.77), maa://29910 (100.00), maa://45831 (84.88), maa://64165 (81.40)</t>
+          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://29910 (100.00), maa://45831 (86.05), maa://64165 (88.37)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), *maa://63016 (75.27)</t>
+          <t>maa://29753 (100.00), *maa://63016 (77.42)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3771,12 +3771,12 @@
       </c>
       <c r="S25" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (90.72), maa://22545 (100.00), **maa://42915 (30.93)</t>
+          <t>maa://20109 (90.72), maa://22545 (100.00)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (84.52), maa://26001 (86.90)</t>
+          <t>maa://31215 (100.00), maa://24516 (83.53), maa://26001 (85.88)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (98.92), maa://24621 (100.00), maa://36676 (91.40), *maa://22771 (64.52), **maa://37772 (40.86)</t>
+          <t>maa://20108 (98.92), maa://24621 (100.00), maa://36676 (91.40), *maa://22771 (66.67), **maa://37772 (40.86)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), maa://56374 (80.25)</t>
+          <t>maa://41802 (100.00), maa://56374 (86.42)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (100.00), maa://56625 (94.20)</t>
+          <t>maa://39870 (91.18), maa://56625 (100.00)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (75.00), maa://34494 (100.00)</t>
+          <t>*maa://39601 (76.14), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (100.00), maa://25725 (83.15)</t>
+          <t>maa://24465 (100.00), maa://25725 (82.02)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (100.00), ***maa://65700 (23.33)</t>
+          <t>maa://36660 (100.00), *maa://65700 (54.44)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://24080 (88.89), maa://42865 (100.00), ***maa://34960 (2.78)</t>
+          <t>maa://24080 (90.14), maa://42865 (100.00), ***maa://34960 (2.82)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), *maa://64191 (57.14)</t>
+          <t>maa://45792 (100.00), *maa://64191 (66.23)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="S30" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
-          <t>*maa://32940 (55.84), maa://24388 (100.00)</t>
+          <t>maa://24388 (100.00)</t>
         </is>
       </c>
       <c r="U30" s="19" t="n"/>
@@ -4665,12 +4665,12 @@
       </c>
       <c r="O32" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>maa://26203 (100.00)</t>
+          <t>maa://26203 (100.00), ***maa://56429 (24.42)</t>
         </is>
       </c>
       <c r="Q32" s="19" t="n"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (98.95), *maa://41108 (77.89), maa://41238 (100.00), maa://45523 (98.95)</t>
+          <t>maa://42859 (100.00), *maa://41108 (77.89), maa://41238 (100.00), maa://45523 (98.95)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (70.65)</t>
+          <t>maa://48817 (100.00), *maa://56235 (75.27)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://47069 (59.79), *maa://56336 (68.04), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://56336 (69.07), *maa://47069 (59.79), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
-          <t>maa://39384 (100.00), *maa://49735 (64.89)</t>
+          <t>maa://39384 (100.00), *maa://49735 (69.15)</t>
         </is>
       </c>
       <c r="M38" s="19" t="n"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (91.11), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (68.89), **maa://44165 (42.22)</t>
+          <t>maa://36670 (88.89), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (67.78), **maa://44165 (42.22)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (100.00), maa://47093 (95.40)</t>
+          <t>maa://24709 (100.00), maa://47093 (94.25)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (71.60), *maa://45790 (79.01)</t>
+          <t>maa://47079 (100.00), *maa://45788 (70.73), *maa://45790 (78.05)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://64205 (100.00), *maa://65283 (71.25)</t>
+          <t>*maa://64107 (62.96), maa://64205 (100.00), maa://65283 (86.42)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (86.42), maa://21284 (100.00)</t>
+          <t>maa://22525 (85.19), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>maa://43198 (100.00), *maa://46286 (51.76)</t>
+          <t>maa://43198 (100.00), *maa://46286 (60.00)</t>
         </is>
       </c>
       <c r="U43" s="19" t="n"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), *maa://56386 (77.89)</t>
+          <t>maa://29768 (100.00), maa://27728 (95.79), maa://56386 (82.11)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (95.51)</t>
+          <t>maa://35931 (100.00), maa://43901 (94.38)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://28038 (61.05), *maa://56236 (75.79)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://56236 (73.68), *maa://28038 (61.05)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (91.49), **maa://65511 (46.81)</t>
+          <t>maa://59394 (100.00), maa://59378 (90.53), *maa://65511 (71.58)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (77.42)</t>
+          <t>maa://25176 (100.00), maa://56237 (81.72)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (73.03)</t>
+          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (76.40)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59693 (61.70), *maa://59413 (72.34)</t>
+          <t>maa://59534 (100.00), *maa://59693 (60.64), *maa://59413 (74.47)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.22 13:21:00</t>
+          <t>更新日期：2025.08.30 13:19:59</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>maa://20919 (100.00), *maa://31611 (51.09)</t>
+          <t>maa://20919 (100.00), *maa://31611 (52.22)</t>
         </is>
       </c>
       <c r="E16" s="14" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), maa://30285 (81.93), *maa://65357 (78.31)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), *maa://65357 (74.70), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (90.53), maa://20832 (100.00), *maa://20727 (75.79)</t>
+          <t>maa://20863 (89.58), maa://20832 (100.00), *maa://20727 (75.00)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (96.63), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (98.88), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>maa://20916 (100.00), maa://52658 (92.54)</t>
+          <t>maa://20916 (97.10), maa://52658 (100.00)</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (98.81), maa://42635 (100.00), **maa://20838 (40.48)</t>
+          <t>maa://27376 (100.00), maa://42635 (100.00), **maa://20838 (40.48)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (100.00), maa://42415 (93.55), *maa://40838 (79.57)</t>
+          <t>maa://20932 (100.00), maa://42415 (94.57), maa://40838 (82.61)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), *maa://25777 (64.21), *maa://20631 (60.00), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://31559 (89.47), maa://24093 (100.00), maa://20924 (81.05), *maa://25777 (64.21), *maa://20631 (64.21), **maa://28241 (46.32)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10487,12 +10487,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79), ***maa://65290 (22.11)</t>
+          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (88.30), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
+          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (89.36), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.00), maa://45606 (91.58), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
+          <t>maa://20993 (100.00), maa://45606 (92.63), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
+          <t>maa://20976 (100.00), maa://20815 (83.33)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (48.35), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (48.35)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), *maa://20823 (53.85), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (48.35)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (93.48), maa://35393 (100.00)</t>
+          <t>maa://20944 (94.57), maa://35393 (100.00)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -10865,12 +10865,12 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), maa://63790 (89.80), *maa://30672 (66.33), maa://20856 (82.65)</t>
+          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="D81" s="13" t="inlineStr">
         <is>
-          <t>maa://30525 (95.40), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
+          <t>maa://30525 (96.55), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), **maa://35841 (50.00)</t>
+          <t>maa://24472 (100.00), *maa://35841 (51.72)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.00), *maa://51015 (75.26)</t>
+          <t>maa://20991 (100.00), *maa://51015 (77.32)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (80.52), maa://28904 (100.00), **maa://20931 (38.96)</t>
+          <t>maa://29094 (86.49), maa://28904 (100.00), **maa://20931 (39.19)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (85.71), maa://25772 (85.71), maa://56588 (83.67), *maa://45194 (66.33), *maa://25161 (62.24), *maa://32653 (63.27), ***maa://60902 (15.31), *maa://61839 (66.33), *maa://61275 (52.04)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://25161 (62.24), *maa://32653 (63.27), *maa://61839 (73.47), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (100.00), maa://20822 (88.31)</t>
+          <t>maa://20933 (100.00), maa://20822 (87.18)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (96.05), maa://29031 (100.00)</t>
+          <t>maa://29659 (97.37), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (83.51)</t>
+          <t>maa://20869 (100.00), maa://44690 (85.57)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="D122" s="13" t="inlineStr">
         <is>
-          <t>maa://29650 (100.00), maa://45570 (95.65)</t>
+          <t>maa://29650 (100.00), maa://45570 (96.74)</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>maa://45258 (100.00), **maa://30679 (44.93)</t>
+          <t>maa://45258 (100.00), **maa://30679 (44.29)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D142" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (40.43), *maa://31185 (63.83), *maa://30306 (54.26)</t>
+          <t>maa://28484 (100.00), **maa://23736 (43.62), *maa://31185 (65.96), *maa://30306 (54.26)</t>
         </is>
       </c>
       <c r="E142" s="14" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (89.25), **maa://45066 (38.71), *maa://61380 (61.29), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (100.00), maa://31470 (84.95), **maa://45066 (38.71), *maa://61380 (75.27), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (100.00), maa://51923 (92.05)</t>
+          <t>maa://51549 (100.00), maa://51923 (92.13)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -15617,12 +15617,12 @@
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (9.28)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), ***maa://65963 (9.28)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (82.02), maa://49074 (100.00), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (98.89), maa://29627 (98.89), maa://29659 (82.22), maa://49074 (100.00), **maa://30679 (34.44), maa://29861 (86.67), *maa://42343 (77.78)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (97.70), maa://49655 (100.00)</t>
+          <t>maa://49867 (97.73), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), *maa://64200 (74.47)</t>
+          <t>maa://59681 (100.00), maa://64200 (82.98)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (87.88)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (88.89)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.63), maa://35854 (82.11), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (68.42), maa://63024 (82.11)</t>
+          <t>maa://44224 (92.63), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (86.32)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (65.52)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (56.32)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (100.00), maa://49077 (84.69), maa://42292 (87.76), *maa://42402 (69.39)</t>
+          <t>maa://42223 (100.00), maa://49077 (85.71), maa://42292 (87.76), *maa://42402 (69.39)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -18430,7 +18430,7 @@
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (100.00), *maa://20830 (63.04), *maa://44703 (70.65)</t>
+          <t>maa://20956 (100.00), *maa://20830 (62.37), *maa://44703 (72.04)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
@@ -18754,7 +18754,7 @@
       </c>
       <c r="D217" s="13" t="inlineStr">
         <is>
-          <t>maa://24636 (100.00), maa://25778 (86.02)</t>
+          <t>maa://24636 (100.00), maa://25778 (85.11)</t>
         </is>
       </c>
       <c r="E217" s="14" t="inlineStr">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="D221" s="13" t="inlineStr">
         <is>
-          <t>maa://26499 (100.00), ***maa://20998 (2.86)</t>
+          <t>maa://26499 (100.00), ***maa://20998 (2.78)</t>
         </is>
       </c>
       <c r="E221" s="14" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="D239" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (100.00), *maa://32623 (63.95), *maa://34242 (56.98)</t>
+          <t>maa://20922 (100.00), *maa://32623 (66.28), *maa://34242 (56.98)</t>
         </is>
       </c>
       <c r="E239" s="14" t="inlineStr">
@@ -20045,12 +20045,12 @@
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (84.81)</t>
+          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (86.08), **maa://65726 (43.04)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), ***maa://62764 (24.42)</t>
+          <t>maa://62759 (100.00), ***maa://62764 (23.86)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (96.59), maa://45570 (100.00), *maa://60678 (76.14), maa://42225 (88.64)</t>
+          <t>maa://42287 (95.51), maa://45570 (100.00), *maa://60678 (75.28), maa://42225 (87.64)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://24093 (100.00), maa://31559 (89.47), maa://20924 (81.05), ***maa://49440 (16.84)</t>
+          <t>maa://31559 (89.47), maa://24093 (100.00), maa://20924 (81.05), ***maa://49440 (16.84)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (91.84), maa://56588 (83.67), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (15.31)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.86), maa://56588 (84.69), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (19.39)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="D286" s="13" t="inlineStr">
         <is>
-          <t>maa://48267 (100.00), maa://48266 (93.85)</t>
+          <t>maa://48267 (100.00), maa://48266 (89.71)</t>
         </is>
       </c>
       <c r="E286" s="14" t="inlineStr">
@@ -22642,7 +22642,7 @@
       </c>
       <c r="D289" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (100.00), maa://46332 (96.43), ***maa://44744 (5.95)</t>
+          <t>maa://20899 (100.00), maa://46332 (95.29), ***maa://44744 (5.88)</t>
         </is>
       </c>
       <c r="E289" s="14" t="inlineStr">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (100.00), maa://39155 (89.69), *maa://32505 (67.01)</t>
+          <t>maa://32414 (100.00), *maa://32505 (67.01), maa://39155 (89.69)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.00), maa://57199 (91.49)</t>
+          <t>maa://45799 (100.00), maa://57199 (92.55)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="D306" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (95.88), maa://49660 (84.54), *maa://50517 (50.52)</t>
+          <t>maa://50280 (100.00), maa://49642 (95.88), maa://49660 (85.57), *maa://50517 (50.52)</t>
         </is>
       </c>
       <c r="E306" s="14" t="inlineStr">
@@ -24262,7 +24262,7 @@
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>*maa://62755 (65.00), maa://62761 (100.00)</t>
+          <t>*maa://62755 (70.00), maa://62761 (100.00)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
@@ -25450,7 +25450,7 @@
       </c>
       <c r="D341" s="22" t="inlineStr">
         <is>
-          <t>*maa://30671 (78.12), maa://30669 (100.00), *maa://37275 (71.88), **maa://32410 (37.50), *maa://41605 (67.71)</t>
+          <t>*maa://30671 (78.12), maa://30669 (100.00), *maa://37275 (69.79), **maa://32410 (37.50), *maa://41605 (67.71)</t>
         </is>
       </c>
       <c r="E341" s="22" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (96.88), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (67.71), *maa://61275 (53.12)</t>
+          <t>maa://32647 (100.00), maa://32415 (90.62), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (75.00), *maa://61275 (53.12)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="D357" s="22" t="inlineStr">
         <is>
-          <t>maa://36868 (100.00), maa://35996 (94.90), ***maa://39217 (20.41), maa://47349 (89.80)</t>
+          <t>maa://36868 (100.00), maa://35996 (94.90), ***maa://39217 (20.41), maa://47349 (91.84)</t>
         </is>
       </c>
       <c r="E357" s="22" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="D358" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (39.00), **maa://52357 (48.00), ***maa://63091 (25.00)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (41.00), **maa://52357 (48.00), ***maa://63091 (25.00)</t>
         </is>
       </c>
       <c r="E358" s="22" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="D361" s="22" t="inlineStr">
         <is>
-          <t>maa://49648 (100.00), *maa://49662 (71.91)</t>
+          <t>maa://49648 (100.00), *maa://49662 (74.16)</t>
         </is>
       </c>
       <c r="E361" s="22" t="inlineStr">
@@ -26692,7 +26692,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), *maa://50629 (52.38), **maa://48859 (40.48)</t>
+          <t>maa://42635 (100.00), **maa://50629 (35.71), **maa://48859 (40.48)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D367" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (91.40), maa://44660 (87.10), *maa://60251 (56.99), *maa://41128 (75.27)</t>
+          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (92.47), maa://44660 (87.10), *maa://60251 (56.99), *maa://41128 (75.27)</t>
         </is>
       </c>
       <c r="E367" s="22" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), maa://64045 (84.42), **maa://64041 (38.96)</t>
+          <t>maa://63883 (100.00), maa://64045 (82.76), **maa://64041 (34.48)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -27502,7 +27502,7 @@
       </c>
       <c r="D379" s="22" t="inlineStr">
         <is>
-          <t>maa://44233 (92.05), maa://45570 (100.00)</t>
+          <t>maa://44233 (92.13), maa://45570 (100.00)</t>
         </is>
       </c>
       <c r="E379" s="22" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="D384" s="22" t="inlineStr">
         <is>
-          <t>maa://42970 (81.05), maa://44745 (100.00), ***maa://49516 (26.32), **maa://45952 (37.89), ***maa://46851 (2.11), **maa://44896 (47.37)</t>
+          <t>*maa://42970 (80.00), maa://44745 (100.00), ***maa://49516 (26.32), **maa://45952 (34.74), ***maa://46851 (2.11), **maa://44896 (47.37)</t>
         </is>
       </c>
       <c r="E384" s="22" t="inlineStr">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="D390" s="22" t="inlineStr">
         <is>
-          <t>maa://63890 (100.00), ***maa://64043 (25.61)</t>
+          <t>maa://63890 (100.00), ***maa://64043 (24.14)</t>
         </is>
       </c>
       <c r="E390" s="22" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51898 (100.00), *maa://57241 (76.47)</t>
+          <t>maa://51898 (100.00), *maa://57241 (80.00)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (76.84), maa://51873 (96.84), *maa://62047 (75.79)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (74.74), maa://51873 (97.89), *maa://62047 (76.84)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28577,12 +28577,12 @@
       </c>
       <c r="C405" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00), ***maa://65803 (21.65)</t>
+          <t>maa://64040 (100.00), ***maa://66377 (21.65), ***maa://66376 (21.65)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -771,12 +771,12 @@
       </c>
       <c r="S2" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (100.00)</t>
+          <t>maa://22742 (100.00), ***maa://66635 (23.86)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://25251 (100.00), maa://59087 (96.51)</t>
+          <t>maa://59087 (93.10), maa://25251 (100.00)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (72.62), maa://20276 (100.00), *maa://22749 (75.00)</t>
+          <t>*maa://22880 (73.81), maa://20276 (100.00), *maa://22749 (75.00)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (85.88)</t>
+          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (82.35)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (95.56)</t>
+          <t>maa://49983 (100.00), maa://50121 (97.75)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (91.11), maa://22754 (88.89), *maa://31008 (72.22)</t>
+          <t>maa://32509 (100.00), maa://27295 (92.22), maa://22754 (88.89), *maa://31008 (72.22)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://39394 (100.00), maa://30062 (94.34), ***maa://26209 (9.43)</t>
+          <t>maa://39394 (100.00), maa://30062 (98.04), ***maa://26209 (9.80)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>maa://21919 (100.00), *maa://21281 (60.44)</t>
+          <t>maa://21919 (100.00), *maa://21281 (59.78)</t>
         </is>
       </c>
       <c r="Q5" s="19" t="n"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>*maa://64972 (69.39)</t>
+          <t>maa://64972 (89.80)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.30 13:19:59</t>
+          <t>更新日期：2025.08.31 13:19:07</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (87.64), maa://23252 (93.26), maa://37496 (100.00)</t>
+          <t>maa://32931 (86.52), maa://23252 (93.26), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (48.53)</t>
+          <t>maa://24479 (100.00), **maa://21990 (47.83)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (86.32)</t>
+          <t>maa://26223 (100.00), maa://52237 (87.37)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (97.56)</t>
+          <t>maa://28711 (100.00), maa://40166 (96.39)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00), **maa://22865 (45.24)</t>
+          <t>maa://26206 (100.00), **maa://22865 (44.71)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), **maa://54000 (44.23)</t>
+          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), *maa://54000 (69.23)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="S10" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (88.30), *maa://63521 (51.06)</t>
+          <t>maa://27395 (100.00), maa://22755 (88.30)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (88.42), **maa://64808 (46.32)</t>
+          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (89.47), *maa://64808 (64.21)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (100.00), maa://22516 (84.95)</t>
+          <t>maa://29912 (100.00), maa://22516 (84.04)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), maa://54294 (86.05)</t>
+          <t>maa://21867 (100.00), *maa://54294 (77.91)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (90.00), maa://64046 (100.00)</t>
+          <t>maa://63896 (88.76), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (78.41)</t>
+          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (77.27)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://23669 (100.00), maa://36677 (95.65), maa://39872 (89.13)</t>
+          <t>maa://36677 (95.65), maa://23669 (100.00), maa://39872 (89.13)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>maa://28932 (100.00), *maa://20106 (76.39), *maa://22769 (61.11)</t>
+          <t>maa://28932 (100.00), *maa://20106 (75.34), *maa://22769 (60.27)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (100.00), maa://36673 (94.51), maa://25001 (84.62)</t>
+          <t>maa://24999 (100.00), maa://36673 (95.60), maa://25001 (84.62)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), **maa://66545 (50.00)</t>
+          <t>maa://21248 (100.00), *maa://66545 (64.71)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (56.67)</t>
+          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (58.89)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (100.00), **maa://39885 (45.68)</t>
+          <t>maa://39883 (100.00), **maa://39885 (44.44)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (91.01)</t>
+          <t>maa://22521 (100.00), maa://42751 (92.13)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (64.94), maa://36048 (84.42), maa://45058 (87.01)</t>
+          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (85.71), maa://45058 (90.91)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), *maa://28648 (74.44), *maa://36674 (78.89)</t>
+          <t>maa://22729 (100.00), *maa://36674 (80.00), *maa://28648 (75.56)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (71.59), maa://27755 (100.00)</t>
+          <t>*maa://23911 (72.73), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://39599 (95.29), maa://22430 (100.00)</t>
+          <t>maa://39599 (95.35), maa://22430 (100.00)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (100.00), *maa://24940 (67.12), *maa://56238 (72.60)</t>
+          <t>maa://23890 (100.00), *maa://24940 (67.12), *maa://56238 (76.71)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://22466 (97.78), maa://52226 (100.00)</t>
+          <t>maa://52226 (100.00), maa://22466 (96.70)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (86.32), *maa://24380 (68.42)</t>
+          <t>maa://24379 (100.00), maa://54153 (88.42), *maa://24380 (68.42)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://24313 (89.83), maa://47854 (100.00), *maa://29784 (54.24)</t>
+          <t>maa://47854 (100.00), maa://24313 (89.83), *maa://29784 (54.24)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="W19" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X19" s="8" t="inlineStr">
         <is>
-          <t>maa://31386 (100.00), **maa://58490 (35.29)</t>
+          <t>maa://31386 (100.00)</t>
         </is>
       </c>
       <c r="Y19" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (94.12), maa://56241 (82.35)</t>
+          <t>maa://50085 (100.00), maa://49976 (93.02), maa://56241 (81.40)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://34946 (100.00), maa://20110 (88.37)</t>
+          <t>maa://34946 (100.00), maa://20110 (87.36)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (100.00), *maa://64221 (56.96)</t>
+          <t>maa://22524 (100.00), maa://22432 (100.00), *maa://64221 (60.26)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>maa://27127 (100.00), maa://22751 (88.24)</t>
+          <t>maa://22751 (89.55), maa://27127 (100.00)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://21282 (100.00), *maa://37649 (63.92)</t>
+          <t>*maa://37649 (64.95), maa://21282 (100.00)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28036 (66.67), maa://41753 (100.00)</t>
+          <t>*maa://28036 (68.97), maa://41753 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (100.00), maa://39875 (92.55)</t>
+          <t>maa://39756 (100.00), maa://39875 (93.62)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (76.14)</t>
+          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (73.86)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (89.01), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (75.82), maa://52227 (85.71)</t>
+          <t>maa://29988 (90.11), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (76.92), maa://52227 (86.81)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://29910 (100.00), maa://45831 (86.05), maa://64165 (88.37)</t>
+          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://29910 (100.00), maa://45831 (88.37), maa://64165 (81.40)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), *maa://63016 (77.42)</t>
+          <t>maa://29753 (100.00), *maa://63016 (79.57)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (93.94), maa://25311 (100.00), ***maa://22725 (3.03), maa://45047 (80.30)</t>
+          <t>maa://29063 (95.38), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), maa://56374 (86.42)</t>
+          <t>maa://41802 (100.00), maa://56374 (85.37)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (91.18), maa://56625 (100.00)</t>
+          <t>maa://56625 (100.00), maa://39870 (88.57)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (48.33)</t>
+          <t>maa://30511 (100.00), **maa://29760 (45.00)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (100.00), maa://41749 (97.78)</t>
+          <t>maa://39929 (100.00), maa://41749 (98.89)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (100.00), *maa://65700 (54.44)</t>
+          <t>maa://36660 (100.00), *maa://65700 (68.89)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://24080 (90.14), maa://42865 (100.00), ***maa://34960 (2.82)</t>
+          <t>maa://24080 (88.89), maa://42865 (100.00), ***maa://34960 (2.78)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (92.31), *maa://43904 (56.04)</t>
+          <t>maa://35926 (100.00), maa://36258 (91.21), *maa://43904 (58.24)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
-          <t>maa://30711 (100.00), **maa://30768 (48.89)</t>
+          <t>maa://30711 (100.00), **maa://30768 (50.00)</t>
         </is>
       </c>
       <c r="U31" s="19" t="n"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (100.00), *maa://41108 (77.89), maa://41238 (100.00), maa://45523 (98.95)</t>
+          <t>maa://42859 (98.96), *maa://41108 (77.08), maa://41238 (100.00), maa://45523 (97.92)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (100.00), *maa://22730 (73.68)</t>
+          <t>maa://21956 (100.00), *maa://22730 (72.73)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (75.27)</t>
+          <t>maa://48817 (100.00), *maa://56235 (77.42)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://56336 (69.07), *maa://47069 (59.79), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://56336 (74.23), *maa://47069 (59.79), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (100.00), maa://47093 (94.25)</t>
+          <t>maa://24709 (100.00), maa://47093 (93.18)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (70.73), *maa://45790 (78.05)</t>
+          <t>maa://47079 (100.00), *maa://45788 (72.50), maa://45790 (81.25)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (98.92), maa://36664 (83.87), *maa://45550 (52.69)</t>
+          <t>maa://23278 (100.00), maa://21386 (100.00), maa://36664 (84.78), *maa://45550 (53.26)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="AE40" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>*maa://64107 (62.96), maa://64205 (100.00), maa://65283 (86.42)</t>
+          <t>maa://64205 (100.00), *maa://65283 (73.17)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (85.19), maa://21284 (100.00)</t>
+          <t>maa://22525 (83.95), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (95.79), maa://56386 (82.11)</t>
+          <t>maa://29768 (100.00), maa://27728 (94.79), maa://56386 (87.50)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (94.38)</t>
+          <t>maa://35931 (100.00), maa://43901 (96.59)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), *maa://56236 (73.68), *maa://28038 (61.05)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), maa://56236 (82.11), *maa://28038 (61.05)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (90.53), *maa://65511 (71.58)</t>
+          <t>maa://59394 (100.00), maa://59378 (92.47), maa://65511 (81.72)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://43903 (89.89), *maa://56228 (76.40)</t>
+          <t>maa://42981 (100.00), maa://56228 (85.39), maa://43903 (91.01)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="G63" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59693 (60.64), *maa://59413 (74.47)</t>
+          <t>maa://59534 (100.00), maa://59413 (80.85)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7090,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.30 13:19:59</t>
+          <t>更新日期：2025.08.31 13:19:07</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), *maa://65357 (74.70), maa://30285 (81.93)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), *maa://65357 (78.31), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D49" s="13" t="inlineStr">
         <is>
-          <t>maa://32845 (100.00), *maa://20982 (52.63)</t>
+          <t>maa://32845 (100.00), *maa://20982 (51.72)</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (100.00), maa://20815 (83.33)</t>
+          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), *maa://20823 (53.85), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (48.35)</t>
+          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (45.05), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (48.35)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10919,12 +10919,12 @@
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85)</t>
+          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), **maa://66335 (35.05)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (86.49), maa://28904 (100.00), **maa://20931 (39.19)</t>
+          <t>maa://29094 (84.00), maa://28904 (100.00), **maa://20931 (41.33)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://25161 (62.24), *maa://32653 (63.27), *maa://61839 (73.47), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://32653 (63.27), *maa://25161 (62.24), *maa://61839 (73.47), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://44119 (89.69), maa://46108 (89.69), *maa://37300 (58.76), *maa://64408 (70.10), **maa://42917 (35.05)</t>
+          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://46108 (89.69), maa://44119 (89.69), *maa://37300 (58.76), *maa://64408 (72.16), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), ***maa://65963 (9.28)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), ***maa://65963 (21.65)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="D163" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (64.04), maa://29054 (100.00)</t>
+          <t>*maa://32845 (65.17), maa://29054 (100.00)</t>
         </is>
       </c>
       <c r="E163" s="14" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (97.73), maa://49655 (100.00)</t>
+          <t>maa://49867 (98.86), maa://49655 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), maa://64200 (82.98)</t>
+          <t>maa://59681 (100.00), maa://64200 (85.11)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (88.89)</t>
+          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (89.90)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
+          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (26.92)</t>
+          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (100.00), maa://20834 (89.61)</t>
+          <t>maa://20879 (100.00), maa://20834 (88.46)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (90.62), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (75.00), *maa://61275 (53.12)</t>
+          <t>maa://32647 (100.00), maa://32415 (85.42), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (75.00), *maa://61275 (53.12)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -28582,7 +28582,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00), ***maa://66377 (21.65), ***maa://66376 (21.65)</t>
+          <t>maa://64040 (100.00), *maa://66377 (53.12), ***maa://66376 (21.88)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), *maa://34787 (74.71), maa://58660 (91.95)</t>
+          <t>maa://39402 (100.00), maa://58660 (94.25), *maa://34787 (74.71)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (100.00), ***maa://66635 (23.86)</t>
+          <t>maa://22742 (100.00), *maa://66635 (64.77)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://59087 (93.10), maa://25251 (100.00)</t>
+          <t>maa://59087 (87.36), maa://25251 (100.00)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>*maa://22880 (73.81), maa://20276 (100.00), *maa://22749 (75.00)</t>
+          <t>*maa://22880 (75.00), maa://20276 (100.00), *maa://22749 (75.00)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (85.88), maa://24617 (100.00), maa://60545 (82.35)</t>
+          <t>maa://45854 (85.88), *maa://60545 (78.82), maa://24617 (100.00)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://24390 (100.00), maa://52241 (92.22)</t>
+          <t>maa://52241 (95.56), maa://24390 (100.00)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (75.28), *maa://22746 (68.54)</t>
+          <t>maa://24632 (100.00), *maa://22499 (76.14), *maa://22746 (69.32)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (97.75)</t>
+          <t>maa://49983 (100.00), maa://50121 (98.86)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (92.22), maa://22754 (88.89), *maa://31008 (72.22)</t>
+          <t>maa://32509 (100.00), maa://27295 (92.22), maa://22754 (87.78), *maa://31008 (72.22)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://39394 (100.00), maa://30062 (98.04), ***maa://26209 (9.80)</t>
+          <t>maa://39394 (100.00), maa://30062 (100.00), ***maa://26209 (10.00)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (98.73), *maa://22744 (78.48)</t>
+          <t>maa://21245 (100.00), maa://54105 (100.00), *maa://22744 (78.48)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="AB5" s="8" t="inlineStr">
         <is>
-          <t>maa://29863 (100.00), ***maa://22752 (6.12), **maa://26013 (34.69)</t>
+          <t>maa://29863 (100.00), ***maa://22752 (6.25), **maa://26013 (31.25)</t>
         </is>
       </c>
       <c r="AC5" s="19" t="n"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="AF6" s="8" t="inlineStr">
         <is>
-          <t>maa://33152 (100.00), ***maa://22770 (24.53)</t>
+          <t>maa://33152 (100.00), ***maa://22770 (24.07)</t>
         </is>
       </c>
       <c r="AG6" s="16" t="n"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>maa://64972 (89.80)</t>
+          <t>maa://64972 (100.00)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (76.92)</t>
+          <t>maa://22399 (100.00), *maa://22758 (78.02)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.31 13:19:07</t>
+          <t>更新日期：2025.09.02 13:21:02</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>maa://21476 (100.00), *maa://39431 (51.52), **maa://37551 (33.33)</t>
+          <t>maa://21476 (100.00), *maa://39431 (53.12), **maa://37551 (34.38)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (86.52), maa://23252 (93.26), maa://37496 (100.00)</t>
+          <t>maa://32931 (85.39), maa://23252 (93.26), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (47.83)</t>
+          <t>maa://24479 (100.00), **maa://21990 (48.53)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (70.93)</t>
+          <t>maa://22762 (100.00), *maa://39552 (63.22)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>maa://22736 (100.00), ***maa://64516 (27.63)</t>
+          <t>maa://22736 (100.00), *maa://64516 (75.00)</t>
         </is>
       </c>
       <c r="Q9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://26223 (100.00), maa://52237 (87.37)</t>
+          <t>maa://52237 (90.53), maa://26223 (100.00)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (96.39)</t>
+          <t>maa://28711 (100.00), maa://40166 (95.18)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="AE9" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00), **maa://22865 (44.71)</t>
+          <t>maa://26206 (100.00)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (26.92), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (21.15), ***maa://39243 (13.46), *maa://54000 (69.23)</t>
+          <t>***maa://25695 (25.49), ***maa://39951 (11.76), maa://45271 (100.00), ***maa://34206 (21.57), maa://54000 (88.24), ***maa://39243 (13.73)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (81.25), *maa://23264 (61.25)</t>
+          <t>maa://28977 (100.00), maa://36669 (83.12), *maa://23264 (63.64)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://45828 (90.53), maa://22301 (100.00), maa://22726 (82.11)</t>
+          <t>maa://45828 (91.58), maa://22301 (100.00), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (82.69), maa://22733 (100.00), ***maa://22761 (11.54)</t>
+          <t>maa://25021 (84.31), maa://22733 (100.00), ***maa://22761 (11.76)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.47), maa://22501 (100.00), maa://45521 (89.47), *maa://64808 (64.21)</t>
+          <t>maa://22747 (90.53), maa://22501 (100.00), maa://45521 (89.47), *maa://64808 (75.79)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (100.00), maa://22516 (84.04)</t>
+          <t>maa://29912 (100.00), maa://22516 (82.98)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), *maa://54294 (77.91)</t>
+          <t>maa://21867 (100.00), *maa://54294 (76.74)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (88.76), maa://64046 (100.00)</t>
+          <t>maa://63896 (88.89), maa://64046 (100.00)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>maa://22753 (100.00), maa://37962 (95.45), *maa://21485 (77.27)</t>
+          <t>*maa://21485 (77.27), maa://37962 (95.45), maa://22753 (100.00)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://36677 (95.65), maa://23669 (100.00), maa://39872 (89.13)</t>
+          <t>maa://36677 (96.74), maa://23669 (100.00), maa://39872 (89.13)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), *maa://66545 (64.71)</t>
+          <t>maa://21248 (100.00), maa://66545 (86.57)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://22583 (78.89), *maa://48321 (58.89)</t>
+          <t>maa://22676 (100.00), *maa://48321 (60.00), *maa://22583 (78.89)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="AE13" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (100.00), **maa://39885 (44.44)</t>
+          <t>maa://39883 (100.00)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (96.77), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (90.32)</t>
+          <t>maa://39841 (95.70), maa://26245 (100.00), maa://21288 (98.92), maa://36682 (90.32)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (92.13)</t>
+          <t>maa://22521 (100.00), maa://42751 (88.76)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (96.10), maa://22734 (100.00), *maa://30808 (66.23), maa://36048 (85.71), maa://45058 (90.91)</t>
+          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (67.53), maa://45058 (90.91), maa://36048 (85.71)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://21364 (100.00), maa://36666 (100.00), *maa://22766 (78.21)</t>
+          <t>maa://36666 (100.00), maa://21364 (100.00), *maa://22766 (78.21)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://37650 (97.85), maa://21441 (100.00), maa://36679 (91.40)</t>
+          <t>maa://37650 (96.77), maa://21441 (100.00), maa://36679 (91.40)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>*maa://23911 (72.73), maa://27755 (100.00)</t>
+          <t>*maa://23911 (74.71), maa://27755 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>maa://21624 (100.00), **maa://56358 (46.58)</t>
+          <t>maa://21624 (100.00), *maa://56358 (69.86)</t>
         </is>
       </c>
       <c r="E17" s="19" t="n"/>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="O17" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (100.00), *maa://24940 (67.12), *maa://56238 (76.71)</t>
+          <t>maa://23890 (100.00), maa://56238 (84.93)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://52226 (100.00), maa://22466 (96.70)</t>
+          <t>maa://52226 (100.00), maa://22466 (97.78)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (88.42), *maa://24380 (68.42)</t>
+          <t>maa://24379 (100.00), maa://54153 (90.53), *maa://24380 (68.42)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://47854 (100.00), maa://24313 (89.83), *maa://29784 (54.24)</t>
+          <t>maa://47854 (100.00), maa://24313 (88.33), *maa://29784 (53.33)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -2946,11 +2946,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" s="8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="19" t="n"/>
       <c r="J19" s="19" t="inlineStr">
         <is>
@@ -3028,7 +3024,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (75.76)</t>
+          <t>maa://30709 (100.00), *maa://36668 (74.63)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3044,7 +3040,7 @@
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://21663 (100.00), *maa://52239 (71.70)</t>
+          <t>maa://21663 (100.00), **maa://52239 (47.17)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3062,7 +3058,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://21432 (98.86), maa://25198 (100.00), maa://36680 (88.64)</t>
+          <t>maa://21432 (97.75), maa://25198 (100.00), maa://36680 (89.89)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3138,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (100.00), maa://49976 (93.02), maa://56241 (81.40)</t>
+          <t>maa://50085 (100.00), maa://56241 (86.05), maa://49976 (93.02)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3304,7 +3300,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (100.00), maa://22432 (100.00), *maa://64221 (60.26)</t>
+          <t>maa://22524 (98.73), maa://22432 (100.00), *maa://64221 (77.22)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3349,12 +3345,12 @@
       </c>
       <c r="K22" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>maa://22751 (89.55), maa://27127 (100.00)</t>
+          <t>maa://27127 (100.00), maa://22751 (88.24), **maa://66865 (30.88)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3402,7 +3398,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>*maa://37649 (64.95), maa://21282 (100.00)</t>
+          <t>*maa://37649 (65.98), maa://21282 (100.00)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3452,7 +3448,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28036 (68.97), maa://41753 (100.00)</t>
+          <t>*maa://28036 (72.41), maa://41753 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3500,7 +3496,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (78.41), *maa://37566 (73.86)</t>
+          <t>maa://30587 (100.00), *maa://29748 (77.53), *maa://37566 (73.03)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3516,7 +3512,7 @@
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
-          <t>maa://31212 (100.00), maa://24387 (90.79)</t>
+          <t>maa://31212 (100.00), maa://24387 (93.24)</t>
         </is>
       </c>
       <c r="U23" s="19" t="n"/>
@@ -3582,7 +3578,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (71.05)</t>
+          <t>maa://24368 (100.00), *maa://46650 (73.68)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3662,7 +3658,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (90.11), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (76.92), maa://52227 (86.81)</t>
+          <t>maa://29988 (90.11), maa://23504 (100.00), *maa://25141 (76.92), *maa://36663 (76.92), maa://52227 (85.71)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3694,7 +3690,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://29910 (100.00), maa://45831 (88.37), maa://64165 (81.40)</t>
+          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://64165 (91.86), maa://29910 (100.00), maa://45831 (89.53)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3728,7 +3724,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.38), maa://25311 (100.00), ***maa://22725 (3.08), maa://45047 (81.54)</t>
+          <t>maa://29063 (95.31), maa://25311 (100.00), ***maa://22725 (3.12), *maa://45047 (79.69)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3808,7 +3804,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (83.53), maa://26001 (85.88)</t>
+          <t>maa://31215 (100.00), maa://24516 (84.52), maa://26001 (85.71)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3824,7 +3820,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (98.92), maa://24621 (100.00), maa://36676 (91.40), *maa://22771 (66.67), **maa://37772 (40.86)</t>
+          <t>maa://20108 (97.87), maa://24621 (100.00), maa://36676 (91.49), *maa://22771 (65.96), **maa://37772 (40.43)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3842,7 +3838,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://41802 (100.00), maa://56374 (85.37)</t>
+          <t>maa://56374 (89.16), maa://41802 (100.00)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3890,7 +3886,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://56625 (100.00), maa://39870 (88.57)</t>
+          <t>maa://39870 (91.43), maa://56625 (100.00)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3954,7 +3950,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (45.00)</t>
+          <t>maa://30511 (100.00), **maa://29760 (44.83)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -3988,7 +3984,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (76.14), maa://34494 (100.00)</t>
+          <t>*maa://39601 (75.00), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4182,7 +4178,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (100.00), maa://41749 (98.89)</t>
+          <t>maa://39929 (100.00), maa://41749 (97.78)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4214,7 +4210,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (100.00), *maa://65700 (68.89)</t>
+          <t>maa://36660 (100.00), *maa://65700 (59.55)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4264,7 +4260,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (97.87), maa://31400 (100.00), maa://28440 (84.04)</t>
+          <t>maa://28432 (97.85), maa://31400 (100.00), maa://28440 (84.95)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4362,7 +4358,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), *maa://64191 (66.23)</t>
+          <t>maa://45792 (100.00), maa://64191 (84.42)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4405,12 +4401,12 @@
       </c>
       <c r="O30" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (100.00)</t>
+          <t>maa://21442 (100.00), **maa://66611 (35.05)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4524,7 +4520,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (91.21), *maa://43904 (58.24)</t>
+          <t>maa://35926 (100.00), maa://36258 (92.31), *maa://43904 (60.44)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4670,7 +4666,7 @@
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>maa://26203 (100.00), ***maa://56429 (24.42)</t>
+          <t>maa://26203 (100.00), **maa://56429 (39.53)</t>
         </is>
       </c>
       <c r="Q32" s="19" t="n"/>
@@ -4686,7 +4682,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (98.96), *maa://41108 (77.08), maa://41238 (100.00), maa://45523 (97.92)</t>
+          <t>maa://42859 (98.96), *maa://41108 (78.12), maa://41238 (100.00), maa://45523 (97.92)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4800,7 +4796,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (100.00), *maa://22730 (72.73)</t>
+          <t>maa://21956 (100.00), *maa://22730 (70.13)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4893,12 +4889,12 @@
       </c>
       <c r="G34" s="19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://66817 (100.00)</t>
         </is>
       </c>
       <c r="I34" s="19" t="n"/>
@@ -4930,7 +4926,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), *maa://56235 (77.42)</t>
+          <t>maa://48817 (100.00), maa://56235 (82.80)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5300,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), *maa://56336 (74.23), *maa://47069 (59.79), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), maa://56336 (80.41), *maa://47069 (61.86), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5503,7 +5499,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (88.89), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (67.78), **maa://44165 (42.22)</t>
+          <t>maa://36670 (87.78), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (67.78), **maa://44165 (42.22)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5535,7 +5531,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (100.00), maa://47093 (93.18)</t>
+          <t>maa://24709 (100.00), maa://47093 (89.77)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5684,7 +5680,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://64205 (100.00), *maa://65283 (73.17)</t>
+          <t>*maa://65283 (78.82), maa://64205 (100.00)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5748,12 +5744,12 @@
       </c>
       <c r="S41" s="19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://66727 (100.00), maa://66675 (100.00)</t>
         </is>
       </c>
       <c r="U41" s="19" t="n"/>
@@ -5907,7 +5903,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>maa://22525 (83.95), maa://21284 (100.00)</t>
+          <t>*maa://22525 (79.27), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5992,7 +5988,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (94.79), maa://56386 (87.50)</t>
+          <t>maa://29768 (100.00), maa://27728 (94.79), maa://56386 (80.21)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6077,7 +6073,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (89.66)</t>
+          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (86.21)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6146,7 +6142,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (96.59)</t>
+          <t>maa://35931 (100.00), maa://43901 (95.45)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6215,7 +6211,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (100.00), maa://29661 (98.95), maa://56236 (82.11), *maa://28038 (61.05)</t>
+          <t>maa://27410 (100.00), maa://29661 (98.95), maa://56236 (86.32), *maa://28038 (61.05)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6490,7 +6486,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (92.47), maa://65511 (81.72)</t>
+          <t>maa://59394 (100.00), maa://59378 (95.56), maa://65511 (86.67)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6660,7 +6656,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), maa://56237 (81.72)</t>
+          <t>maa://25176 (100.00), *maa://56237 (75.27)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6696,7 +6692,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (100.00), maa://27746 (83.52)</t>
+          <t>maa://31270 (100.00), maa://27746 (82.61)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6750,7 +6746,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (100.00), maa://56228 (85.39), maa://43903 (91.01)</t>
+          <t>maa://42981 (100.00), maa://43903 (90.00), maa://56228 (88.89)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6768,7 +6764,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), maa://59413 (80.85)</t>
+          <t>maa://59534 (100.00), maa://59413 (85.11)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7090,7 +7086,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.31 13:19:07</t>
+          <t>更新日期：2025.09.02 13:21:02</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8494,7 +8490,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (55.42), *maa://65357 (78.31), maa://30285 (81.93)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (57.83), maa://65357 (80.72), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8764,7 +8760,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (98.88), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (100.00), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -10492,7 +10488,7 @@
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (92.63), maa://45144 (100.00), maa://33504 (94.74), **maa://43531 (35.79)</t>
+          <t>maa://28187 (91.67), maa://45144 (100.00), maa://33504 (93.75), **maa://43531 (35.42)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -12544,7 +12540,7 @@
       </c>
       <c r="D102" s="13" t="inlineStr">
         <is>
-          <t>maa://40517 (100.00), **maa://39240 (42.86)</t>
+          <t>maa://40517 (100.00), **maa://39240 (44.59)</t>
         </is>
       </c>
       <c r="E102" s="14" t="inlineStr">
@@ -12598,7 +12594,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (84.00), maa://28904 (100.00), **maa://20931 (41.33)</t>
+          <t>maa://29094 (85.33), maa://28904 (100.00), **maa://20931 (44.00)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -13300,7 +13296,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (97.37), maa://29031 (100.00)</t>
+          <t>maa://29659 (96.10), maa://29031 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13570,7 +13566,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (85.57)</t>
+          <t>maa://20869 (100.00), maa://44690 (87.63)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -14488,7 +14484,7 @@
       </c>
       <c r="D138" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (100.00), **maa://21000 (44.62)</t>
+          <t>maa://29025 (100.00), **maa://21000 (43.94)</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
@@ -14542,7 +14538,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>maa://45258 (100.00), **maa://30679 (44.29)</t>
+          <t>maa://45258 (100.00), **maa://30679 (43.66)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -14758,7 +14754,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (84.95), **maa://45066 (38.71), *maa://61380 (75.27), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (100.00), maa://31470 (86.02), **maa://45066 (38.71), *maa://61380 (77.42), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -16432,7 +16428,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), maa://64200 (85.11)</t>
+          <t>maa://59681 (100.00), maa://64200 (86.17)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -17674,7 +17670,7 @@
       </c>
       <c r="D197" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.63), maa://35854 (83.16), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (86.32)</t>
+          <t>maa://44224 (92.63), maa://35854 (81.05), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (82.11)</t>
         </is>
       </c>
       <c r="E197" s="14" t="inlineStr">
@@ -20050,7 +20046,7 @@
       </c>
       <c r="D241" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (86.08), **maa://65726 (43.04)</t>
+          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (87.34), **maa://65726 (43.04)</t>
         </is>
       </c>
       <c r="E241" s="14" t="inlineStr">
@@ -20104,7 +20100,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), ***maa://62764 (23.86)</t>
+          <t>maa://62759 (100.00), ***maa://62764 (23.60)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -21670,7 +21666,7 @@
       </c>
       <c r="D271" s="13" t="inlineStr">
         <is>
-          <t>maa://20825 (100.00), maa://21445 (90.74), *maa://35726 (66.67), ***maa://20891 (20.37)</t>
+          <t>maa://20825 (100.00), maa://21445 (87.50), *maa://35726 (64.29), ***maa://20891 (19.64)</t>
         </is>
       </c>
       <c r="E271" s="14" t="inlineStr">
@@ -24262,7 +24258,7 @@
       </c>
       <c r="D319" s="13" t="inlineStr">
         <is>
-          <t>*maa://62755 (70.00), maa://62761 (100.00)</t>
+          <t>*maa://62755 (73.33), maa://62761 (100.00)</t>
         </is>
       </c>
       <c r="E319" s="14" t="inlineStr">
@@ -24478,7 +24474,7 @@
       </c>
       <c r="D323" s="13" t="inlineStr">
         <is>
-          <t>maa://25773 (100.00), **maa://26088 (41.86)</t>
+          <t>maa://25773 (100.00), **maa://26088 (47.67)</t>
         </is>
       </c>
       <c r="E323" s="14" t="inlineStr">
@@ -26692,7 +26688,7 @@
       </c>
       <c r="D364" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), **maa://50629 (35.71), **maa://48859 (40.48)</t>
+          <t>maa://42635 (100.00), **maa://50629 (45.24), **maa://48859 (40.48)</t>
         </is>
       </c>
       <c r="E364" s="22" t="inlineStr">
@@ -26962,7 +26958,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://63883 (100.00), maa://64045 (82.76), **maa://64041 (34.48)</t>
+          <t>maa://63883 (100.00), maa://64045 (81.82), **maa://64041 (34.09)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -28366,7 +28362,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51898 (100.00), *maa://57241 (80.00)</t>
+          <t>maa://51898 (100.00), maa://57241 (82.35)</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -28393,7 +28389,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://51880 (100.00), maa://56651 (94.90), maa://51878 (92.86)</t>
+          <t>maa://51880 (100.00), maa://56651 (95.92), maa://51878 (92.86)</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -28582,7 +28578,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00), *maa://66377 (53.12), ***maa://66376 (21.88)</t>
+          <t>maa://64040 (100.00), *maa://66377 (67.71), ***maa://66376 (9.38)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (100.00), maa://58660 (94.25), *maa://34787 (74.71)</t>
+          <t>maa://39402 (100.00), maa://58660 (94.19), *maa://34787 (75.58)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (100.00), *maa://66635 (64.77)</t>
+          <t>maa://22742 (100.00), maa://66635 (86.36)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://59087 (87.36), maa://25251 (100.00)</t>
+          <t>maa://59087 (88.51), maa://25251 (100.00)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (95.65), *maa://39849 (60.87)</t>
+          <t>maa://40192 (100.00), maa://36987 (94.62), *maa://39849 (60.22)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (76.14), *maa://22746 (69.32)</t>
+          <t>maa://24632 (100.00), *maa://22499 (75.28), *maa://22746 (68.54)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (98.86)</t>
+          <t>maa://49983 (100.00), maa://50121 (97.75)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (100.00), maa://27295 (92.22), maa://22754 (87.78), *maa://31008 (72.22)</t>
+          <t>maa://32509 (100.00), maa://27295 (93.33), maa://22754 (87.78), *maa://31008 (72.22)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (100.00), maa://54105 (100.00), *maa://22744 (78.48)</t>
+          <t>maa://21245 (100.00), maa://54105 (96.25), *maa://22744 (77.50)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.02 13:21:02</t>
+          <t>更新日期：2025.09.03 13:18:59</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (85.39), maa://23252 (93.26), maa://37496 (100.00)</t>
+          <t>maa://32931 (83.33), maa://23252 (92.22), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (63.22)</t>
+          <t>maa://22762 (100.00), *maa://39552 (65.52)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://52237 (90.53), maa://26223 (100.00)</t>
+          <t>maa://52237 (91.58), maa://26223 (100.00)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (95.18)</t>
+          <t>maa://28711 (100.00), maa://40166 (94.05)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="AE9" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (100.00)</t>
+          <t>maa://26206 (100.00), ***maa://66916 (24.71)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>***maa://25695 (25.49), ***maa://39951 (11.76), maa://45271 (100.00), ***maa://34206 (21.57), maa://54000 (88.24), ***maa://39243 (13.73)</t>
+          <t>***maa://25695 (25.00), ***maa://39951 (11.54), maa://45271 (100.00), ***maa://34206 (19.23), maa://54000 (86.54), ***maa://39243 (13.46)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), maa://36669 (83.12), *maa://23264 (63.64)</t>
+          <t>maa://28977 (100.00), maa://36669 (82.67), *maa://23264 (65.33)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://45828 (91.58), maa://22301 (100.00), maa://22726 (82.11)</t>
+          <t>maa://45828 (90.53), maa://22301 (100.00), maa://22726 (82.11)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (90.53), maa://22501 (100.00), maa://45521 (89.47), *maa://64808 (75.79)</t>
+          <t>maa://22747 (91.49), maa://22501 (100.00), maa://45521 (90.43), maa://64808 (81.91)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), *maa://54294 (76.74)</t>
+          <t>maa://21867 (100.00), *maa://54294 (74.42)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://36677 (96.74), maa://23669 (100.00), maa://39872 (89.13)</t>
+          <t>maa://36677 (96.74), maa://23669 (100.00), maa://39872 (90.22)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>maa://21248 (100.00), maa://66545 (86.57)</t>
+          <t>maa://21248 (100.00), maa://66545 (92.54)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), *maa://48321 (60.00), *maa://22583 (78.89)</t>
+          <t>maa://22676 (100.00), *maa://48321 (64.44), *maa://22583 (78.89)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://22521 (100.00), maa://42751 (88.76)</t>
+          <t>maa://22521 (100.00), maa://42751 (87.78)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (94.81), maa://22734 (100.00), *maa://30808 (67.53), maa://45058 (90.91), maa://36048 (85.71)</t>
+          <t>maa://22743 (94.81), maa://45058 (92.21), maa://22734 (100.00), *maa://30808 (67.53), maa://36048 (84.42)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://36666 (100.00), maa://21364 (100.00), *maa://22766 (78.21)</t>
+          <t>maa://36666 (100.00), maa://21364 (98.73), *maa://22766 (77.22)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="O17" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (100.00), maa://56238 (84.93)</t>
+          <t>maa://23890 (100.00), *maa://56238 (75.34), *maa://24940 (67.12)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2955,12 +2955,12 @@
       </c>
       <c r="K19" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="8" t="inlineStr">
         <is>
-          <t>maa://39347 (100.00)</t>
+          <t>maa://39347 (100.00), ***maa://56392 (27.63)</t>
         </is>
       </c>
       <c r="M19" s="19" t="n"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (74.63)</t>
+          <t>maa://30709 (100.00), *maa://36668 (76.12)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22524 (98.73), maa://22432 (100.00), *maa://64221 (77.22)</t>
+          <t>maa://22524 (98.73), maa://22432 (100.00), maa://64221 (83.54)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>maa://27127 (100.00), maa://22751 (88.24), **maa://66865 (30.88)</t>
+          <t>maa://27127 (100.00), maa://22751 (89.55), *maa://66865 (50.75)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (77.53), *maa://37566 (73.03)</t>
+          <t>maa://30587 (100.00), *maa://29748 (77.53), *maa://37566 (74.16)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
-          <t>maa://31212 (100.00), maa://24387 (93.24)</t>
+          <t>maa://31212 (100.00), maa://24387 (92.00)</t>
         </is>
       </c>
       <c r="U23" s="19" t="n"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), *maa://46650 (73.68)</t>
+          <t>maa://24368 (100.00), *maa://46650 (72.37)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://22523 (87.21), *maa://36672 (68.60), maa://64165 (91.86), maa://29910 (100.00), maa://45831 (89.53)</t>
+          <t>maa://22523 (87.21), maa://64165 (88.37), *maa://36672 (68.60), maa://29910 (100.00), maa://45831 (89.53)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.31), maa://25311 (100.00), ***maa://22725 (3.12), *maa://45047 (79.69)</t>
+          <t>maa://29063 (95.31), maa://25311 (100.00), *maa://45047 (79.69), ***maa://22725 (3.12)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (84.52), maa://26001 (85.71)</t>
+          <t>maa://31215 (100.00), maa://24516 (85.54), maa://26001 (86.75)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (97.87), maa://24621 (100.00), maa://36676 (91.49), *maa://22771 (65.96), **maa://37772 (40.43)</t>
+          <t>maa://20108 (98.92), maa://24621 (100.00), maa://36676 (93.55), *maa://22771 (66.67), **maa://37772 (40.86)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://56374 (89.16), maa://41802 (100.00)</t>
+          <t>maa://56374 (91.57), maa://41802 (100.00)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (75.00), maa://34494 (100.00)</t>
+          <t>*maa://39601 (73.86), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (100.00), maa://25725 (82.02)</t>
+          <t>maa://24465 (100.00), maa://25725 (83.15)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (100.00), *maa://65700 (59.55)</t>
+          <t>maa://36660 (100.00), *maa://65700 (65.17)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (97.85), maa://31400 (100.00), maa://28440 (84.95)</t>
+          <t>maa://28432 (98.92), maa://31400 (100.00), maa://28440 (84.95)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://24080 (88.89), maa://42865 (100.00), ***maa://34960 (2.78)</t>
+          <t>maa://24080 (87.67), maa://42865 (100.00), ***maa://34960 (2.74)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), maa://64191 (84.42)</t>
+          <t>maa://45792 (100.00), maa://64191 (88.31)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (100.00), maa://45822 (89.47), **maa://45045 (46.32)</t>
+          <t>maa://42979 (100.00), maa://45822 (89.47), *maa://45045 (51.58)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (92.31), *maa://43904 (60.44)</t>
+          <t>maa://35926 (100.00), maa://36258 (92.31), *maa://43904 (62.64)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
-          <t>maa://30711 (100.00), **maa://30768 (50.00)</t>
+          <t>maa://30711 (100.00), **maa://30768 (49.44)</t>
         </is>
       </c>
       <c r="U31" s="19" t="n"/>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (100.00), maa://56235 (82.80)</t>
+          <t>maa://48817 (100.00), maa://56235 (86.02)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), maa://56336 (80.41), *maa://47069 (61.86), *maa://45789 (67.01)</t>
+          <t>maa://45718 (100.00), *maa://56336 (79.38), *maa://47069 (61.86), *maa://45789 (67.01)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (87.78), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (67.78), **maa://44165 (42.22)</t>
+          <t>maa://36670 (87.78), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (66.67), **maa://44165 (42.22)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45788 (72.50), maa://45790 (81.25)</t>
+          <t>maa://47079 (100.00), *maa://45788 (72.15), maa://45790 (82.28)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>*maa://65283 (78.82), maa://64205 (100.00)</t>
+          <t>maa://65283 (83.72), maa://64205 (100.00)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
-          <t>maa://66727 (100.00), maa://66675 (100.00)</t>
+          <t>maa://66727 (100.00), maa://66675 (86.27)</t>
         </is>
       </c>
       <c r="U41" s="19" t="n"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://27728 (94.79), maa://56386 (80.21)</t>
+          <t>maa://29768 (100.00), maa://27728 (94.79), maa://56386 (82.29)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://21229 (90.80), maa://30807 (100.00), maa://42459 (86.21)</t>
+          <t>maa://21229 (90.80), maa://42459 (86.21), maa://30807 (100.00)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (95.56), maa://65511 (86.67)</t>
+          <t>maa://59394 (100.00), maa://59378 (95.56), maa://65511 (91.11)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), *maa://56237 (75.27)</t>
+          <t>maa://25176 (100.00), *maa://56237 (77.42)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6759,12 +6759,12 @@
       </c>
       <c r="G63" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), maa://59413 (85.11)</t>
+          <t>maa://59534 (100.00), *maa://59693 (55.32), *maa://59413 (76.60)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7086,7 +7086,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.02 13:21:02</t>
+          <t>更新日期：2025.09.03 13:18:59</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (57.83), maa://65357 (80.72), maa://30285 (81.93)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (57.83), maa://65357 (86.75), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>maa://20845 (80.65), maa://38727 (100.00)</t>
+          <t>*maa://20845 (76.92), maa://38727 (100.00)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (89.36), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (36.17)</t>
+          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (89.36), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (46.81)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), **maa://66335 (35.05)</t>
+          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), **maa://66335 (45.36)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="D81" s="13" t="inlineStr">
         <is>
-          <t>maa://30525 (96.55), maa://20859 (100.00), **maa://28188 (45.98), **maa://30524 (39.08)</t>
+          <t>maa://30525 (96.55), maa://20859 (100.00), **maa://28188 (45.98), *maa://30524 (50.57)</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (85.33), maa://28904 (100.00), **maa://20931 (44.00)</t>
+          <t>maa://29094 (84.21), maa://28904 (100.00), **maa://20931 (43.42)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12864,7 +12864,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://32653 (63.27), *maa://25161 (62.24), *maa://61839 (73.47), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
+          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://32653 (58.16), *maa://25161 (62.24), *maa://61839 (75.51), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -16428,7 +16428,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), maa://64200 (86.17)</t>
+          <t>maa://59681 (100.00), maa://64200 (87.23)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="D297" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (100.00), *maa://32505 (67.01), maa://39155 (89.69)</t>
+          <t>maa://32414 (100.00), maa://39155 (89.69), *maa://32505 (67.01)</t>
         </is>
       </c>
       <c r="E297" s="14" t="inlineStr">
@@ -25824,7 +25824,7 @@
       </c>
       <c r="D348" s="22" t="inlineStr">
         <is>
-          <t>maa://32647 (100.00), maa://32415 (85.42), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (64.58), *maa://61839 (75.00), *maa://61275 (53.12)</t>
+          <t>maa://32647 (100.00), maa://32415 (85.42), maa://34677 (96.88), maa://32892 (88.54), *maa://32653 (59.38), *maa://61839 (77.08), *maa://61275 (53.12)</t>
         </is>
       </c>
       <c r="E348" s="22" t="inlineStr">
@@ -28416,7 +28416,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (74.74), maa://51873 (97.89), *maa://62047 (76.84)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (74.74), maa://51873 (97.89), *maa://62047 (77.89)</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28578,7 +28578,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00), *maa://66377 (67.71), ***maa://66376 (9.38)</t>
+          <t>maa://64040 (100.00), *maa://66377 (70.83), ***maa://66376 (6.25)</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (100.00), maa://24702 (97.87), maa://36681 (81.91)</t>
+          <t>maa://25390 (100.00), maa://24702 (95.83), maa://36681 (80.21)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (91.58), maa://58660 (100.00), *maa://34787 (68.42)</t>
+          <t>maa://39402 (91.67), maa://58660 (100.00), *maa://34787 (67.71)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (95.83), maa://66635 (100.00)</t>
+          <t>maa://22742 (95.92), maa://66635 (100.00)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://36684 (100.00), maa://21246 (93.62)</t>
+          <t>maa://36684 (100.00), maa://21246 (91.67)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://59087 (100.00), maa://25251 (97.75)</t>
+          <t>maa://59087 (100.00), maa://25251 (93.55)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (91.75), *maa://39849 (57.73)</t>
+          <t>maa://40192 (100.00), maa://36987 (90.82), *maa://39849 (57.14)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>maa://22880 (88.51), maa://20276 (100.00), *maa://22749 (72.41)</t>
+          <t>maa://22880 (92.13), maa://20276 (100.00), *maa://22749 (70.79)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -890,7 +890,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (100.00), maa://26254 (93.68), **maa://22738 (31.58)</t>
+          <t>maa://21249 (100.00), maa://26254 (93.75), **maa://22738 (31.25)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>maa://45854 (80.43), maa://60545 (100.00), maa://24617 (92.39)</t>
+          <t>*maa://45854 (78.12), maa://60545 (100.00), maa://24617 (88.54)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (85.57), maa://27484 (100.00), *maa://27480 (75.26)</t>
+          <t>maa://27396 (87.63), maa://27484 (100.00), *maa://27480 (75.26)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://52241 (100.00), maa://24390 (96.81)</t>
+          <t>maa://52241 (100.00), maa://24390 (94.79)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (71.28), *maa://22746 (69.15)</t>
+          <t>maa://24632 (100.00), *maa://22499 (70.53), *maa://22746 (68.42)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (91.67)</t>
+          <t>maa://49983 (100.00), maa://50121 (91.75)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://32509 (97.83), maa://27295 (100.00), maa://31008 (84.78), maa://22754 (85.87)</t>
+          <t>maa://27295 (100.00), maa://32509 (95.79), maa://31008 (90.53), maa://22754 (83.16)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (88.17), maa://54105 (100.00), *maa://22744 (66.67)</t>
+          <t>maa://21245 (89.47), maa://54105 (100.00), *maa://22744 (65.26)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (84.44)</t>
+          <t>maa://31836 (100.00), maa://30381 (81.72)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="AF6" s="8" t="inlineStr">
         <is>
-          <t>maa://33152 (100.00), ***maa://22770 (21.31)</t>
+          <t>maa://33152 (100.00), ***maa://22770 (20.00)</t>
         </is>
       </c>
       <c r="AG6" s="16" t="n"/>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="G7" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>maa://64972 (100.00)</t>
+          <t>*maa://22763 (78.38), maa://64972 (100.00)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (100.00), maa://24957 (91.58)</t>
+          <t>maa://28624 (100.00), maa://24957 (87.63)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (76.34)</t>
+          <t>maa://22399 (100.00), *maa://22758 (76.60)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.06 13:18:41</t>
+          <t>更新日期：2025.09.08 13:20:19</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>maa://21476 (100.00), **maa://39431 (46.58), **maa://37551 (30.14)</t>
+          <t>maa://21476 (100.00), **maa://39431 (40.51), ***maa://37551 (27.85)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (88.89), maa://23252 (92.22), maa://37496 (100.00)</t>
+          <t>maa://32931 (93.41), maa://23252 (91.21), maa://37496 (100.00)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="W8" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (100.00)</t>
+          <t>maa://21411 (100.00), *maa://67587 (74.47)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (46.48)</t>
+          <t>maa://24479 (100.00), **maa://21990 (45.33)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>maa://22765 (100.00), *maa://21915 (69.77)</t>
+          <t>maa://22765 (100.00), *maa://21915 (70.45)</t>
         </is>
       </c>
       <c r="E9" s="19" t="n"/>
@@ -1643,12 +1643,12 @@
       </c>
       <c r="G9" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>maa://56348 (100.00)</t>
+          <t>*maa://47450 (69.23), maa://56348 (100.00)</t>
         </is>
       </c>
       <c r="I9" s="19" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (75.00)</t>
+          <t>maa://22762 (100.00), *maa://39552 (78.89)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>maa://22736 (82.61), maa://64516 (100.00)</t>
+          <t>maa://64516 (100.00), *maa://22736 (80.00)</t>
         </is>
       </c>
       <c r="Q9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://52237 (100.00), maa://26223 (100.00)</t>
+          <t>maa://52237 (100.00), maa://26223 (97.94)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (96.55)</t>
+          <t>maa://28711 (100.00), maa://40166 (97.78)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (98.85), maa://66916 (100.00)</t>
+          <t>maa://26206 (91.49), maa://66916 (100.00)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), *maa://36669 (77.50), *maa://23264 (65.00)</t>
+          <t>maa://28977 (100.00), *maa://36669 (75.00), *maa://23264 (61.90)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (86.60), *maa://63521 (77.32)</t>
+          <t>maa://27395 (100.00), maa://22755 (86.73), maa://63521 (89.80)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://45828 (98.95), maa://22301 (100.00), maa://22726 (82.11)</t>
+          <t>maa://45828 (100.00), maa://22301 (97.94), maa://22726 (80.41)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>maa://25021 (81.48), maa://22733 (100.00), ***maa://22761 (11.11)</t>
+          <t>*maa://25021 (80.00), maa://22733 (100.00), ***maa://22761 (10.91)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.69), maa://22501 (100.00), maa://64808 (96.91), maa://45521 (87.63)</t>
+          <t>maa://22747 (89.80), maa://22501 (100.00), maa://64808 (97.96), maa://45521 (86.73)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (100.00), maa://22516 (80.41)</t>
+          <t>maa://29912 (100.00), *maa://22516 (79.59)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>maa://36678 (100.00), maa://30766 (98.70)</t>
+          <t>maa://36678 (100.00), maa://30766 (90.48)</t>
         </is>
       </c>
       <c r="E12" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), maa://54294 (89.66)</t>
+          <t>maa://21867 (100.00), maa://54294 (98.86)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (100.00), maa://64046 (100.00)</t>
+          <t>maa://63896 (100.00), maa://64046 (98.96)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>*maa://21485 (77.42), maa://37962 (100.00), maa://22753 (94.62)</t>
+          <t>*maa://21485 (77.08), maa://37962 (100.00), maa://22753 (92.71)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://36677 (100.00), maa://23669 (97.87), maa://39872 (93.62)</t>
+          <t>maa://36677 (100.00), maa://23669 (95.88), maa://39872 (92.78)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="AE12" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>maa://28932 (100.00), *maa://20106 (65.48), *maa://22769 (52.38)</t>
+          <t>maa://28932 (100.00)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (100.00), maa://36673 (93.55), maa://25001 (83.87)</t>
+          <t>maa://24999 (100.00), maa://36673 (92.55), maa://25001 (84.04)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (73.12), maa://66545 (100.00)</t>
+          <t>*maa://21248 (72.63), maa://66545 (100.00)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="O13" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://48321 (100.00), maa://22676 (100.00), *maa://22583 (80.00)</t>
+          <t>maa://22676 (100.00), maa://22583 (81.52)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="AE13" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (100.00), **maa://39885 (42.86)</t>
+          <t>maa://39883 (100.00)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (100.00), maa://26245 (97.92), maa://21288 (95.83), maa://36682 (91.67)</t>
+          <t>maa://39841 (100.00), maa://26245 (96.91), maa://21288 (94.85), maa://36682 (95.88)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="P14" s="8" t="inlineStr">
         <is>
-          <t>maa://23250 (100.00), *maa://20107 (73.47), *maa://22772 (58.16)</t>
+          <t>maa://23250 (100.00), *maa://20107 (72.73), *maa://22772 (57.58)</t>
         </is>
       </c>
       <c r="Q14" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://42751 (100.00), maa://22521 (98.90)</t>
+          <t>maa://42751 (100.00), maa://22521 (95.79)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (84.78), maa://45058 (100.00), maa://22734 (83.70), *maa://36048 (72.83)</t>
+          <t>maa://22743 (84.21), maa://45058 (100.00), maa://22734 (81.05), *maa://36048 (70.53)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (100.00), maa://21478 (84.62)</t>
+          <t>maa://24304 (100.00), maa://21478 (82.80)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (100.00), **maa://22727 (43.48)</t>
+          <t>maa://24762 (100.00), **maa://22727 (42.55)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="X15" s="8" t="inlineStr">
         <is>
-          <t>maa://38786 (100.00), maa://56102 (86.44)</t>
+          <t>maa://38786 (100.00), maa://56102 (82.61)</t>
         </is>
       </c>
       <c r="Y15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://36666 (100.00), maa://21364 (89.77)</t>
+          <t>maa://36666 (100.00), maa://21364 (85.87)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://37650 (100.00), maa://21441 (96.88), maa://36679 (88.54)</t>
+          <t>maa://37650 (100.00), maa://21441 (94.90), maa://36679 (86.73)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://22729 (100.00), maa://36674 (98.90), *maa://28648 (74.73)</t>
+          <t>maa://36674 (100.00), maa://22729 (97.87), *maa://28648 (72.34)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (100.00), maa://28051 (85.42)</t>
+          <t>maa://28501 (100.00), maa://28051 (86.60)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="AE16" s="19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>maa://23911 (88.51), maa://27755 (100.00)</t>
+          <t>maa://23911 (95.40), maa://27755 (100.00), *maa://67613 (50.57)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>maa://21624 (100.00), *maa://56358 (68.00)</t>
+          <t>maa://21624 (100.00), *maa://56358 (75.00)</t>
         </is>
       </c>
       <c r="E17" s="19" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://39599 (100.00), maa://22430 (93.48)</t>
+          <t>maa://39599 (100.00), maa://22430 (90.53)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (89.16), maa://56238 (100.00)</t>
+          <t>maa://23890 (84.09), maa://56238 (100.00)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://52226 (100.00), maa://22466 (91.75)</t>
+          <t>maa://52226 (100.00), maa://22466 (90.82)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (100.00), *maa://24380 (67.71)</t>
+          <t>maa://24379 (100.00), maa://54153 (100.00), *maa://24380 (67.01)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (100.00), *maa://22741 (59.57)</t>
+          <t>maa://21917 (100.00), *maa://22741 (65.26)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://47854 (100.00), *maa://24313 (70.67)</t>
+          <t>maa://47854 (100.00), *maa://24313 (67.50)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L19" s="8" t="inlineStr">
         <is>
-          <t>maa://39347 (100.00), ***maa://56392 (26.25)</t>
+          <t>maa://39347 (100.00), *maa://56392 (51.76)</t>
         </is>
       </c>
       <c r="M19" s="19" t="n"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="X19" s="8" t="inlineStr">
         <is>
-          <t>maa://31386 (100.00), *maa://58490 (54.65)</t>
+          <t>maa://31386 (100.00), *maa://58490 (59.77)</t>
         </is>
       </c>
       <c r="Y19" s="19" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (76.71)</t>
+          <t>maa://30709 (100.00), *maa://36668 (75.32)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://21663 (100.00), *maa://52239 (77.78)</t>
+          <t>maa://21663 (90.00), maa://52239 (100.00)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://25198 (96.88), maa://36680 (100.00), maa://21432 (90.62)</t>
+          <t>maa://25198 (98.96), maa://36680 (100.00), maa://21432 (90.62)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (95.79), maa://56241 (100.00), maa://49976 (84.21)</t>
+          <t>maa://50085 (94.85), maa://56241 (100.00), maa://49976 (83.51)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://34946 (100.00), maa://20110 (84.62)</t>
+          <t>maa://34946 (100.00), maa://20110 (82.80)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (100.00), *maa://52223 (61.73)</t>
+          <t>maa://21443 (100.00), maa://52223 (82.72)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22432 (93.33), maa://22524 (86.67), maa://64221 (100.00)</t>
+          <t>maa://22432 (93.62), maa://22524 (82.98), maa://64221 (100.00)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (74.74), *maa://22751 (64.21), maa://66865 (100.00)</t>
+          <t>*maa://27127 (76.84), *maa://22751 (64.21), maa://66865 (100.00)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://37649 (82.47), maa://21282 (100.00)</t>
+          <t>maa://37649 (89.69), maa://21282 (100.00)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>*maa://28036 (52.50), maa://41753 (100.00)</t>
+          <t>**maa://28036 (48.84), maa://41753 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (100.00), maa://39875 (92.71)</t>
+          <t>maa://39756 (100.00), maa://39875 (91.75)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (79.12), *maa://37566 (74.73)</t>
+          <t>maa://30587 (100.00), *maa://29748 (79.57), *maa://37566 (70.97)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
-          <t>maa://31212 (100.00), maa://24387 (84.15), *maa://67084 (53.66)</t>
+          <t>maa://31212 (100.00), maa://24387 (81.40), *maa://67084 (66.28)</t>
         </is>
       </c>
       <c r="U23" s="19" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (100.00), maa://46650 (97.44)</t>
+          <t>maa://24368 (98.77), maa://46650 (100.00)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (97.80), maa://23504 (100.00), *maa://25141 (78.02), *maa://36663 (76.92), maa://52227 (100.00)</t>
+          <t>maa://29988 (97.87), maa://23504 (97.87), *maa://25141 (75.53), *maa://36663 (74.47), maa://52227 (100.00)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>*maa://22523 (78.95), maa://64165 (100.00), maa://29910 (90.53), maa://45831 (81.05)</t>
+          <t>maa://64165 (100.00), *maa://22523 (77.32), maa://29910 (88.66), maa://45831 (80.41)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (100.00), maa://63016 (98.92)</t>
+          <t>maa://29753 (98.95), maa://63016 (100.00)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (97.01), maa://25311 (94.03), maa://45047 (100.00)</t>
+          <t>maa://29063 (95.77), maa://25311 (88.73), maa://45047 (100.00)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (90.91), maa://22545 (100.00)</t>
+          <t>maa://20109 (92.93), maa://22545 (100.00)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), maa://24516 (80.68), maa://26001 (81.82)</t>
+          <t>maa://31215 (100.00), *maa://24516 (79.78), maa://26001 (80.90)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (95.88), maa://36676 (100.00), maa://24621 (95.88), *maa://22771 (65.98), **maa://37772 (39.18)</t>
+          <t>maa://20108 (95.92), maa://36676 (100.00), maa://24621 (94.90), *maa://22771 (65.31), **maa://37772 (44.90)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://56374 (100.00), maa://41802 (94.38)</t>
+          <t>maa://56374 (100.00), maa://41802 (92.39)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>maa://56240 (96.47), maa://24913 (100.00)</t>
+          <t>maa://56240 (100.00), maa://24913 (97.70)</t>
         </is>
       </c>
       <c r="I26" s="19" t="n"/>
@@ -3869,12 +3869,12 @@
       </c>
       <c r="K26" s="19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67563 (100.00)</t>
         </is>
       </c>
       <c r="M26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (83.91), maa://56625 (100.00)</t>
+          <t>maa://39870 (86.81), maa://56625 (100.00)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (44.83)</t>
+          <t>maa://30511 (100.00), **maa://29760 (47.46)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>*maa://39601 (79.12), maa://34494 (100.00)</t>
+          <t>maa://39601 (84.78), maa://34494 (100.00)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (100.00), maa://25725 (81.52)</t>
+          <t>maa://24465 (100.00), maa://25725 (81.72)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
-          <t>maa://29765 (86.81), maa://23263 (100.00)</t>
+          <t>maa://29765 (94.51), maa://23263 (100.00)</t>
         </is>
       </c>
       <c r="U28" s="19" t="n"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (100.00), maa://41749 (98.92)</t>
+          <t>maa://39929 (100.00), maa://41749 (98.95)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (97.83), maa://65700 (100.00)</t>
+          <t>maa://36660 (94.79), maa://65700 (100.00)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (98.95), maa://31400 (100.00), maa://28440 (84.21)</t>
+          <t>maa://28432 (100.00), maa://31400 (100.00), maa://28440 (84.21)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://42865 (100.00), *maa://24080 (78.05)</t>
+          <t>maa://42865 (100.00), *maa://24080 (74.42)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (100.00), maa://64191 (98.78)</t>
+          <t>maa://45792 (95.45), maa://64191 (100.00)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (100.00), maa://66611 (86.73)</t>
+          <t>maa://21442 (100.00), maa://66611 (91.84)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
-          <t>*maa://32940 (58.44), maa://24388 (100.00)</t>
+          <t>*maa://32940 (67.09), maa://24388 (100.00)</t>
         </is>
       </c>
       <c r="U30" s="19" t="n"/>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (100.00), maa://45822 (91.84), **maa://45045 (50.00)</t>
+          <t>maa://42979 (100.00), maa://45822 (91.92), **maa://45045 (49.49)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (91.49), *maa://43904 (72.34)</t>
+          <t>maa://35926 (100.00), maa://36258 (91.67), *maa://43904 (72.92)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
-          <t>maa://30711 (100.00), *maa://30768 (56.67)</t>
+          <t>maa://30711 (100.00), *maa://30768 (56.04)</t>
         </is>
       </c>
       <c r="U31" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://36667 (100.00), maa://21895 (96.94), **maa://22760 (34.69)</t>
+          <t>maa://36667 (100.00), maa://21895 (96.97), **maa://22760 (44.44)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>maa://26203 (100.00), *maa://56429 (66.28)</t>
+          <t>maa://26203 (100.00), *maa://56429 (75.58)</t>
         </is>
       </c>
       <c r="Q32" s="19" t="n"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (100.00), *maa://41108 (77.55), maa://41238 (97.96), maa://45523 (95.92)</t>
+          <t>maa://42859 (100.00), *maa://41108 (77.55), maa://41238 (96.94), maa://45523 (95.92)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (100.00), *maa://22730 (64.29)</t>
+          <t>maa://21956 (100.00), *maa://22730 (61.36)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.94), maa://56235 (100.00)</t>
+          <t>maa://48817 (97.96), maa://56235 (100.00)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), maa://56336 (98.98), *maa://47069 (69.39), *maa://45789 (73.47)</t>
+          <t>maa://45718 (100.00), maa://56336 (100.00), *maa://47069 (71.43), *maa://45789 (73.47)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
-          <t>maa://39384 (100.00), *maa://49735 (71.58)</t>
+          <t>maa://39384 (100.00), *maa://49735 (70.83)</t>
         </is>
       </c>
       <c r="M38" s="19" t="n"/>
@@ -5498,12 +5498,12 @@
       </c>
       <c r="G39" s="19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://36670 (97.78), maa://25199 (86.67), maa://30434 (100.00), *maa://45059 (66.67), **maa://44165 (42.22)</t>
+          <t>maa://25199 (85.71), maa://30434 (100.00), *maa://45059 (75.82), **maa://44165 (41.76)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://24709 (97.80), maa://47093 (100.00)</t>
+          <t>maa://47093 (100.00), maa://24709 (94.68)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), *maa://45790 (79.55)</t>
+          <t>maa://47079 (100.00), maa://45790 (81.32)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (97.87), maa://36664 (82.98), *maa://45550 (52.13)</t>
+          <t>maa://23278 (100.00), maa://21386 (95.83), maa://36664 (83.33), *maa://45550 (51.04)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://65283 (100.00), maa://64205 (95.40)</t>
+          <t>maa://65283 (100.00), maa://64205 (91.21)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
-          <t>maa://66727 (100.00), *maa://66675 (62.86)</t>
+          <t>maa://66727 (100.00), *maa://66675 (53.66)</t>
         </is>
       </c>
       <c r="U41" s="19" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>*maa://22525 (73.86), maa://21284 (100.00)</t>
+          <t>*maa://22525 (70.65), maa://21284 (100.00)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>maa://43198 (100.00), *maa://46286 (57.95)</t>
+          <t>maa://43198 (100.00), *maa://46286 (72.22)</t>
         </is>
       </c>
       <c r="U43" s="19" t="n"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (100.00), maa://56386 (100.00), maa://27728 (94.79)</t>
+          <t>maa://29768 (97.96), maa://56386 (100.00), maa://27728 (92.86)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://42459 (100.00), maa://21229 (84.95), maa://30807 (94.62)</t>
+          <t>maa://42459 (100.00), maa://21229 (83.16), maa://30807 (92.63)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (96.94), maa://29661 (95.92), maa://56236 (100.00), *maa://28038 (59.18)</t>
+          <t>maa://27410 (95.96), maa://29661 (94.95), maa://56236 (100.00), *maa://28038 (58.59)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (88.66), maa://65511 (96.91)</t>
+          <t>maa://59394 (100.00), maa://59378 (87.76), maa://65511 (97.96)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), maa://56237 (95.70)</t>
+          <t>maa://25176 (100.00), maa://56237 (100.00)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (100.00), maa://27746 (83.16)</t>
+          <t>maa://31270 (100.00), maa://27746 (85.42)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (98.90), maa://43903 (94.51), maa://56228 (100.00)</t>
+          <t>maa://42981 (96.81), maa://43903 (94.68), maa://56228 (100.00)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59693 (56.70), maa://59413 (84.54)</t>
+          <t>maa://59534 (100.00), *maa://59693 (59.18), maa://59413 (89.80)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -7174,7 +7174,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.06 13:18:41</t>
+          <t>更新日期：2025.09.08 13:20:19</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (60.24), maa://65357 (86.75), maa://30285 (81.93)</t>
+          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (60.24), maa://65357 (89.16), maa://30285 (81.93)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://31559 (86.32), maa://24093 (100.00), maa://20924 (81.05), *maa://25777 (64.21), *maa://20631 (64.21), **maa://28241 (46.32)</t>
+          <t>maa://20841 (100.00), maa://31559 (85.42), maa://24093 (98.96), maa://20924 (80.21), *maa://25777 (63.54), *maa://20631 (63.54), **maa://28241 (45.83)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.00), maa://45606 (92.63), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
+          <t>maa://20993 (100.00), maa://45606 (93.68), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (94.57), maa://35393 (100.00)</t>
+          <t>maa://20944 (93.55), maa://35393 (100.00)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), *maa://66335 (58.76)</t>
+          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), *maa://66335 (62.89)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="D109" s="13" t="inlineStr">
         <is>
-          <t>maa://36646 (100.00), maa://25774 (90.82), maa://35996 (94.90), maa://22469 (84.69), *maa://30668 (71.43), *maa://67286 (58.16)</t>
+          <t>maa://36646 (100.00), maa://25774 (90.82), maa://35996 (94.90), maa://22469 (84.69), *maa://30668 (71.43), *maa://67286 (62.24)</t>
         </is>
       </c>
       <c r="E109" s="14" t="inlineStr">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (44.68), *maa://31185 (65.96), *maa://30306 (54.26)</t>
+          <t>maa://28484 (100.00), **maa://23736 (44.68), *maa://31185 (69.15), *maa://30306 (54.26)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (87.10), **maa://45066 (38.71), *maa://61380 (77.42), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (100.00), maa://31470 (87.10), **maa://45066 (38.71), *maa://61380 (79.57), ***maa://30867 (12.90)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://46108 (89.69), maa://44119 (89.69), *maa://37300 (58.76), *maa://64408 (72.16), **maa://42917 (35.05)</t>
+          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://46108 (89.69), maa://44119 (89.69), *maa://37300 (58.76), *maa://64408 (74.23), **maa://42917 (35.05)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), ***maa://65963 (21.65)</t>
+          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), **maa://65963 (30.93)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (98.89), maa://29627 (98.89), maa://29659 (82.22), maa://49074 (100.00), **maa://30679 (34.44), maa://29861 (86.67), *maa://42343 (77.78)</t>
+          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (83.15), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.63), maa://35854 (81.05), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (83.16)</t>
+          <t>maa://44224 (92.63), maa://35854 (81.05), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (84.21)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (56.32)</t>
+          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (60.92)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
+          <t>maa://27823 (100.00), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (98.72), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
+          <t>maa://27823 (100.00), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (87.34), *maa://65726 (55.70)</t>
+          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (88.61), *maa://65726 (64.56)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="D276" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.86), maa://56588 (84.69), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (19.39), **maa://66758 (30.61)</t>
+          <t>maa://51881 (100.00), maa://51630 (92.86), maa://56588 (84.69), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (19.39), **maa://66758 (41.84)</t>
         </is>
       </c>
       <c r="E276" s="14" t="inlineStr">
@@ -26560,7 +26560,7 @@
       </c>
       <c r="D360" s="22" t="inlineStr">
         <is>
-          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (92.00), **maa://59402 (41.00), **maa://52357 (48.00), ***maa://63091 (25.00)</t>
+          <t>maa://49696 (99.00), maa://49695 (100.00), maa://49758 (93.00), **maa://59402 (41.00), **maa://52357 (48.00), **maa://63091 (31.00)</t>
         </is>
       </c>
       <c r="E360" s="22" t="inlineStr">
@@ -26884,7 +26884,7 @@
       </c>
       <c r="D366" s="22" t="inlineStr">
         <is>
-          <t>maa://42635 (100.00), **maa://50629 (45.24), **maa://48859 (40.48)</t>
+          <t>maa://42635 (100.00), *maa://50629 (52.38), **maa://48859 (40.48)</t>
         </is>
       </c>
       <c r="E366" s="22" t="inlineStr">
@@ -27046,7 +27046,7 @@
       </c>
       <c r="D369" s="22" t="inlineStr">
         <is>
-          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (92.47), maa://44660 (87.10), *maa://60251 (56.99), *maa://41128 (75.27)</t>
+          <t>maa://40957 (100.00), maa://48026 (95.70), maa://44635 (87.10), maa://41035 (92.47), *maa://60251 (56.99), maa://44660 (87.10), *maa://41128 (75.27)</t>
         </is>
       </c>
       <c r="E369" s="22" t="inlineStr">
@@ -28558,7 +28558,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (75.79), maa://51873 (97.89), *maa://62047 (78.95)</t>
+          <t>maa://51872 (100.00), maa://51876 (100.00), *maa://63228 (76.84), maa://51873 (97.89), *maa://62047 (78.95)</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -28715,12 +28715,12 @@
       </c>
       <c r="C407" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>maa://64040 (100.00), *maa://66377 (62.50), ***maa://66376 (6.25)</t>
+          <t>maa://64040 (98.97), maa://52505 (100.00), *maa://66377 (67.01), ***maa://66376 (6.19)</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -28801,7 +28801,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://67089 (100.00), ***maa://67271 (14.75)</t>
+          <t>maa://67089 (100.00), *maa://67271 (64.47)</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://67087 (100.00), maa://67268 (82.43), *maa://67269 (77.03)</t>
+          <t>maa://67087 (100.00), maa://67268 (97.50), maa://67269 (81.25)</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">

--- a/Excel/悖论&模组作业作者版.xlsx
+++ b/Excel/悖论&模组作业作者版.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>maa://25390 (100.00), maa://24702 (95.83), maa://36681 (80.21)</t>
+          <t>maa://25390 (97.26), maa://24702 (95.02), maa://36681 (86.21)</t>
         </is>
       </c>
       <c r="E2" s="19" t="n"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="L2" s="8" t="inlineStr">
         <is>
-          <t>maa://39402 (91.67), maa://58660 (100.00), *maa://34787 (67.71)</t>
+          <t>maa://39402 (92.99), maa://58660 (98.16), *maa://34787 (74.49)</t>
         </is>
       </c>
       <c r="M2" s="19" t="n"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
-          <t>maa://22742 (95.92), maa://66635 (100.00)</t>
+          <t>maa://22742 (96.09), maa://66635 (99.64)</t>
         </is>
       </c>
       <c r="U2" s="19" t="n"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>maa://36684 (100.00), maa://21246 (91.67)</t>
+          <t>maa://36684 (97.34), maa://21246 (91.29)</t>
         </is>
       </c>
       <c r="AC2" s="19" t="n"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="AF2" s="8" t="inlineStr">
         <is>
-          <t>maa://59087 (100.00), maa://25251 (93.55)</t>
+          <t>maa://59087 (95.81), maa://25251 (92.20)</t>
         </is>
       </c>
       <c r="AG2" s="16" t="n"/>
@@ -842,7 +842,7 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>maa://40192 (100.00), maa://36987 (90.82), *maa://39849 (57.14)</t>
+          <t>maa://40192 (99.14), maa://36987 (96.92), maa://39849 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="19" t="n"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>maa://21247 (100.00)</t>
+          <t>maa://21247 (99.17)</t>
         </is>
       </c>
       <c r="I3" s="19" t="n"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="L3" s="8" t="inlineStr">
         <is>
-          <t>maa://22880 (92.13), maa://20276 (100.00), *maa://22749 (70.79)</t>
+          <t>maa://22880 (85.76), maa://20276 (92.49), maa://22749 (82.61)</t>
         </is>
       </c>
       <c r="M3" s="19" t="n"/>
@@ -890,7 +890,7 @@
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>maa://21249 (100.00), maa://26254 (93.75), **maa://22738 (31.25)</t>
+          <t>maa://21249 (97.79), maa://26254 (98.00), *maa://22738 (75.00)</t>
         </is>
       </c>
       <c r="Q3" s="19" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
-          <t>*maa://45854 (78.12), maa://60545 (100.00), maa://24617 (88.54)</t>
+          <t>maa://45854 (82.76), maa://60545 (97.72), maa://24617 (91.18)</t>
         </is>
       </c>
       <c r="U3" s="19" t="n"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="X3" s="8" t="inlineStr">
         <is>
-          <t>maa://27396 (87.63), maa://27484 (100.00), *maa://27480 (75.26)</t>
+          <t>maa://27396 (88.77), maa://27484 (98.89), maa://27480 (85.71)</t>
         </is>
       </c>
       <c r="Y3" s="19" t="n"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="AB3" s="8" t="inlineStr">
         <is>
-          <t>maa://52241 (100.00), maa://24390 (94.79)</t>
+          <t>maa://52241 (98.94), maa://24390 (96.49)</t>
         </is>
       </c>
       <c r="AC3" s="19" t="n"/>
@@ -954,7 +954,7 @@
       </c>
       <c r="AF3" s="8" t="inlineStr">
         <is>
-          <t>maa://21289 (100.00)</t>
+          <t>maa://21289 (89.47)</t>
         </is>
       </c>
       <c r="AG3" s="16" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>maa://24632 (100.00), *maa://22499 (70.53), *maa://22746 (68.42)</t>
+          <t>maa://24632 (97.00), maa://22499 (88.89), maa://22746 (100.00)</t>
         </is>
       </c>
       <c r="E4" s="19" t="n"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>maa://49983 (100.00), maa://50121 (91.75)</t>
+          <t>maa://49983 (98.56), maa://50121 (95.60)</t>
         </is>
       </c>
       <c r="Q4" s="19" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
-          <t>maa://27295 (100.00), maa://32509 (95.79), maa://31008 (90.53), maa://22754 (83.16)</t>
+          <t>maa://27295 (96.95), maa://32509 (95.18), maa://31008 (92.86), maa://22754 (88.00)</t>
         </is>
       </c>
       <c r="U4" s="19" t="n"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="X4" s="8" t="inlineStr">
         <is>
-          <t>maa://43217 (100.00)</t>
+          <t>maa://43217 (98.32)</t>
         </is>
       </c>
       <c r="Y4" s="19" t="n"/>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="AB4" s="8" t="inlineStr">
         <is>
-          <t>maa://32658 (100.00)</t>
+          <t>*maa://32658 (79.07)</t>
         </is>
       </c>
       <c r="AC4" s="19" t="n"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AF4" s="8" t="inlineStr">
         <is>
-          <t>maa://39394 (92.16), maa://30062 (100.00), ***maa://26209 (9.80)</t>
+          <t>*maa://39394 (60.00), *maa://30062 (63.33), ***maa://26209 (13.04)</t>
         </is>
       </c>
       <c r="AG4" s="16" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>maa://21245 (89.47), maa://54105 (100.00), *maa://22744 (65.26)</t>
+          <t>maa://21245 (88.82), maa://54105 (97.59), *maa://22744 (79.31)</t>
         </is>
       </c>
       <c r="E5" s="19" t="n"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="L5" s="8" t="inlineStr">
         <is>
-          <t>maa://22757 (100.00)</t>
+          <t>maa://22757 (88.24)</t>
         </is>
       </c>
       <c r="M5" s="19" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>maa://21919 (100.00), *maa://21281 (60.00)</t>
+          <t>maa://21919 (98.71), maa://21281 (81.25)</t>
         </is>
       </c>
       <c r="Q5" s="19" t="n"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="AB5" s="8" t="inlineStr">
         <is>
-          <t>maa://29863 (100.00), ***maa://22752 (6.12), **maa://26013 (30.61)</t>
+          <t>*maa://29863 (63.04), ***maa://22752 (12.50), **maa://26013 (36.36)</t>
         </is>
       </c>
       <c r="AC5" s="19" t="n"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>maa://42407 (100.00)</t>
+          <t>maa://42407 (96.18)</t>
         </is>
       </c>
       <c r="E6" s="19" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>maa://24370 (100.00)</t>
+          <t>maa://24370 (96.74)</t>
         </is>
       </c>
       <c r="I6" s="19" t="n"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>maa://24839 (100.00)</t>
+          <t>maa://24839 (99.16)</t>
         </is>
       </c>
       <c r="M6" s="19" t="n"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>maa://31836 (100.00), maa://30381 (81.72)</t>
+          <t>maa://31836 (98.20), maa://30381 (95.00)</t>
         </is>
       </c>
       <c r="Q6" s="19" t="n"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
-          <t>maa://37411 (100.00)</t>
+          <t>*maa://37411 (80.00)</t>
         </is>
       </c>
       <c r="U6" s="19" t="n"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="X6" s="8" t="inlineStr">
         <is>
-          <t>maa://52754 (100.00)</t>
+          <t>maa://52754 (95.00)</t>
         </is>
       </c>
       <c r="Y6" s="19" t="n"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="AB6" s="8" t="inlineStr">
         <is>
-          <t>maa://22739 (100.00)</t>
+          <t>maa://22739 (91.14)</t>
         </is>
       </c>
       <c r="AC6" s="19" t="n"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="AF6" s="8" t="inlineStr">
         <is>
-          <t>maa://33152 (100.00), ***maa://22770 (20.00)</t>
+          <t>*maa://33152 (75.45), ***maa://22770 (26.09)</t>
         </is>
       </c>
       <c r="AG6" s="16" t="n"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>maa://21955 (100.00)</t>
+          <t>maa://21955 (97.35)</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>*maa://22763 (78.38), maa://64972 (100.00)</t>
+          <t>*maa://22763 (71.70), maa://64972 (100.00)</t>
         </is>
       </c>
       <c r="I7" s="19" t="n"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>maa://28624 (100.00), maa://24957 (87.63)</t>
+          <t>maa://28624 (98.18), maa://24957 (94.34)</t>
         </is>
       </c>
       <c r="M7" s="19" t="n"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>maa://22750 (100.00)</t>
+          <t>maa://22750 (95.50)</t>
         </is>
       </c>
       <c r="Q7" s="19" t="n"/>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
-          <t>maa://21291 (100.00)</t>
+          <t>maa://21291 (91.38)</t>
         </is>
       </c>
       <c r="U7" s="19" t="n"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="X7" s="8" t="inlineStr">
         <is>
-          <t>maa://22399 (100.00), *maa://22758 (76.60)</t>
+          <t>maa://22399 (96.77), maa://22758 (80.85)</t>
         </is>
       </c>
       <c r="Y7" s="19" t="n"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AF7" s="8" t="inlineStr">
         <is>
-          <t>maa://45272 (100.00)</t>
+          <t>maa://45272 (98.82)</t>
         </is>
       </c>
       <c r="AG7" s="16" t="n"/>
@@ -1487,7 +1487,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 13:20:19</t>
+          <t>更新日期：2025.09.08 23:48:05</t>
         </is>
       </c>
       <c r="B8" s="19" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>maa://21476 (100.00), **maa://39431 (40.51), ***maa://37551 (27.85)</t>
+          <t>maa://21476 (86.73), *maa://39431 (52.38), **maa://37551 (50.00)</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>maa://24371 (100.00)</t>
+          <t>*maa://24371 (72.03)</t>
         </is>
       </c>
       <c r="I8" s="19" t="n"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>maa://32931 (93.41), maa://23252 (91.21), maa://37496 (100.00)</t>
+          <t>maa://32931 (89.34), maa://23252 (91.67), maa://37496 (98.21)</t>
         </is>
       </c>
       <c r="Q8" s="19" t="n"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="X8" s="8" t="inlineStr">
         <is>
-          <t>maa://21411 (100.00), *maa://67587 (74.47)</t>
+          <t>maa://21411 (95.83), maa://67587 (100.00)</t>
         </is>
       </c>
       <c r="Y8" s="19" t="n"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="AB8" s="8" t="inlineStr">
         <is>
-          <t>maa://25389 (100.00)</t>
+          <t>maa://25389 (93.02)</t>
         </is>
       </c>
       <c r="AC8" s="19" t="n"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AF8" s="8" t="inlineStr">
         <is>
-          <t>maa://24479 (100.00), **maa://21990 (45.33)</t>
+          <t>maa://24479 (82.00), *maa://21990 (51.72)</t>
         </is>
       </c>
       <c r="AG8" s="16" t="n"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>maa://22765 (100.00), *maa://21915 (70.45)</t>
+          <t>maa://22765 (93.41), *maa://21915 (78.05)</t>
         </is>
       </c>
       <c r="E9" s="19" t="n"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>*maa://47450 (69.23), maa://56348 (100.00)</t>
+          <t>*maa://47450 (73.33), maa://56348 (92.31)</t>
         </is>
       </c>
       <c r="I9" s="19" t="n"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>maa://22762 (100.00), *maa://39552 (78.89)</t>
+          <t>maa://22762 (94.97), maa://39552 (85.37)</t>
         </is>
       </c>
       <c r="M9" s="19" t="n"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>maa://64516 (100.00), *maa://22736 (80.00)</t>
+          <t>maa://64516 (100.00), maa://22736 (83.74)</t>
         </is>
       </c>
       <c r="Q9" s="19" t="n"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
-          <t>maa://26222 (100.00)</t>
+          <t>maa://26222 (99.20)</t>
         </is>
       </c>
       <c r="U9" s="19" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="X9" s="8" t="inlineStr">
         <is>
-          <t>maa://52237 (100.00), maa://26223 (97.94)</t>
+          <t>maa://52237 (99.53), maa://26223 (98.28)</t>
         </is>
       </c>
       <c r="Y9" s="19" t="n"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB9" s="8" t="inlineStr">
         <is>
-          <t>maa://28711 (100.00), maa://40166 (97.78)</t>
+          <t>maa://28711 (93.50), maa://40166 (92.99)</t>
         </is>
       </c>
       <c r="AC9" s="19" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF9" s="8" t="inlineStr">
         <is>
-          <t>maa://26206 (91.49), maa://66916 (100.00)</t>
+          <t>maa://26206 (90.65), maa://66916 (97.73)</t>
         </is>
       </c>
       <c r="AG9" s="16" t="n"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>maa://54000 (100.00)</t>
+          <t>maa://54000 (95.00)</t>
         </is>
       </c>
       <c r="E10" s="19" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>maa://32651 (100.00)</t>
+          <t>maa://32651 (97.06)</t>
         </is>
       </c>
       <c r="I10" s="19" t="n"/>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="L10" s="8" t="inlineStr">
         <is>
-          <t>maa://24395 (100.00)</t>
+          <t>**maa://24395 (40.00)</t>
         </is>
       </c>
       <c r="M10" s="19" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="P10" s="8" t="inlineStr">
         <is>
-          <t>maa://28977 (100.00), *maa://36669 (75.00), *maa://23264 (61.90)</t>
+          <t>maa://28977 (89.34), *maa://36669 (74.32), *maa://23264 (64.52)</t>
         </is>
       </c>
       <c r="Q10" s="19" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
-          <t>maa://27395 (100.00), maa://22755 (86.73), maa://63521 (89.80)</t>
+          <t>maa://27395 (98.81), maa://22755 (90.85), maa://63521 (93.29)</t>
         </is>
       </c>
       <c r="U10" s="19" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="X10" s="8" t="inlineStr">
         <is>
-          <t>maa://45828 (100.00), maa://22301 (97.94), maa://22726 (80.41)</t>
+          <t>maa://45828 (98.64), maa://22301 (97.63), maa://22726 (100.00)</t>
         </is>
       </c>
       <c r="Y10" s="19" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="AF10" s="8" t="inlineStr">
         <is>
-          <t>*maa://25021 (80.00), maa://22733 (100.00), ***maa://22761 (10.91)</t>
+          <t>*maa://25021 (53.24), *maa://22733 (67.80), **maa://22761 (33.33)</t>
         </is>
       </c>
       <c r="AG10" s="16" t="n"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>maa://36707 (100.00)</t>
+          <t>maa://36707 (99.67)</t>
         </is>
       </c>
       <c r="E11" s="19" t="n"/>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="L11" s="8" t="inlineStr">
         <is>
-          <t>maa://21287 (100.00)</t>
+          <t>maa://21287 (92.11)</t>
         </is>
       </c>
       <c r="M11" s="19" t="n"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="P11" s="8" t="inlineStr">
         <is>
-          <t>maa://45557 (100.00)</t>
+          <t>maa://45557 (93.55)</t>
         </is>
       </c>
       <c r="Q11" s="19" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
-          <t>maa://22747 (89.80), maa://22501 (100.00), maa://64808 (97.96), maa://45521 (86.73)</t>
+          <t>maa://22747 (91.92), maa://22501 (99.28), maa://64808 (100.00), maa://45521 (94.74)</t>
         </is>
       </c>
       <c r="U11" s="19" t="n"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="X11" s="8" t="inlineStr">
         <is>
-          <t>maa://36713 (100.00)</t>
+          <t>maa://36713 (98.95)</t>
         </is>
       </c>
       <c r="Y11" s="19" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t>maa://29912 (100.00), *maa://22516 (79.59)</t>
+          <t>maa://29912 (99.51), maa://22516 (86.52)</t>
         </is>
       </c>
       <c r="AC11" s="19" t="n"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="AF11" s="8" t="inlineStr">
         <is>
-          <t>maa://31203 (100.00)</t>
+          <t>maa://31203 (98.15)</t>
         </is>
       </c>
       <c r="AG11" s="16" t="n"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>maa://36678 (100.00), maa://30766 (90.48)</t>
+          <t>maa://36678 (95.24), maa://30766 (90.91)</t>
         </is>
       </c>
       <c r="E12" s="19" t="n"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>maa://21867 (100.00), maa://54294 (98.86)</t>
+          <t>maa://21867 (92.54), maa://54294 (94.62)</t>
         </is>
       </c>
       <c r="I12" s="19" t="n"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="L12" s="8" t="inlineStr">
         <is>
-          <t>maa://63896 (100.00), maa://64046 (98.96)</t>
+          <t>maa://63896 (97.02), maa://64046 (97.93)</t>
         </is>
       </c>
       <c r="M12" s="19" t="n"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>maa://57541 (100.00)</t>
+          <t>maa://57541 (95.65)</t>
         </is>
       </c>
       <c r="Q12" s="19" t="n"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="X12" s="8" t="inlineStr">
         <is>
-          <t>*maa://21485 (77.08), maa://37962 (100.00), maa://22753 (92.71)</t>
+          <t>*maa://21485 (79.51), maa://37962 (97.91), maa://22753 (92.67)</t>
         </is>
       </c>
       <c r="Y12" s="19" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t>maa://36677 (100.00), maa://23669 (95.88), maa://39872 (92.78)</t>
+          <t>maa://36677 (98.50), maa://23669 (95.37), maa://39872 (97.37)</t>
         </is>
       </c>
       <c r="AC12" s="19" t="n"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AF12" s="8" t="inlineStr">
         <is>
-          <t>maa://28932 (100.00)</t>
+          <t>maa://28932 (91.62)</t>
         </is>
       </c>
       <c r="AG12" s="16" t="n"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>maa://24999 (100.00), maa://36673 (92.55), maa://25001 (84.04)</t>
+          <t>maa://24999 (95.51), maa://36673 (93.22), maa://25001 (87.80)</t>
         </is>
       </c>
       <c r="E13" s="19" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>*maa://21248 (72.63), maa://66545 (100.00)</t>
+          <t>*maa://21248 (73.42), maa://66545 (98.52)</t>
         </is>
       </c>
       <c r="I13" s="19" t="n"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>maa://22676 (100.00), maa://22583 (81.52)</t>
+          <t>maa://22676 (95.83), maa://22583 (83.19)</t>
         </is>
       </c>
       <c r="Q13" s="19" t="n"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="X13" s="8" t="inlineStr">
         <is>
-          <t>maa://34957 (100.00)</t>
+          <t>maa://34957 (92.81)</t>
         </is>
       </c>
       <c r="Y13" s="19" t="n"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="AF13" s="8" t="inlineStr">
         <is>
-          <t>maa://39883 (100.00)</t>
+          <t>maa://39883 (91.35)</t>
         </is>
       </c>
       <c r="AG13" s="16" t="n"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>maa://30764 (100.00)</t>
+          <t>maa://30764 (93.27)</t>
         </is>
       </c>
       <c r="E14" s="19" t="n"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
-          <t>maa://32656 (100.00)</t>
+          <t>*maa://32656 (62.50)</t>
         </is>
       </c>
       <c r="I14" s="19" t="n"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L14" s="8" t="inlineStr">
         <is>
-          <t>maa://39841 (100.00), maa://26245 (96.91), maa://21288 (94.85), maa://36682 (95.88)</t>
+          <t>maa://39841 (98.30), maa://26245 (96.98), maa://21288 (96.38), maa://36682 (97.35)</t>
         </is>
       </c>
       <c r="M14" s="19" t="n"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="P14" s="8" t="inlineStr">
         <is>
-          <t>maa://23250 (100.00), *maa://20107 (72.73), *maa://22772 (57.58)</t>
+          <t>maa://23250 (99.58), maa://20107 (87.50), maa://22772 (100.00)</t>
         </is>
       </c>
       <c r="Q14" s="19" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t>maa://42751 (100.00), maa://22521 (95.79)</t>
+          <t>maa://42751 (98.29), maa://22521 (95.15)</t>
         </is>
       </c>
       <c r="U14" s="19" t="n"/>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="X14" s="8" t="inlineStr">
         <is>
-          <t>maa://37468 (100.00)</t>
+          <t>maa://37468 (96.97)</t>
         </is>
       </c>
       <c r="Y14" s="19" t="n"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AB14" s="8" t="inlineStr">
         <is>
-          <t>maa://22764 (100.00)</t>
+          <t>maa://22764 (98.46)</t>
         </is>
       </c>
       <c r="AC14" s="19" t="n"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>maa://22743 (84.21), maa://45058 (100.00), maa://22734 (81.05), *maa://36048 (70.53)</t>
+          <t>maa://22743 (84.09), maa://45058 (97.69), maa://22734 (84.50), *maa://36048 (74.10)</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>maa://24304 (100.00), maa://21478 (82.80)</t>
+          <t>maa://24304 (95.20), maa://21478 (90.24)</t>
         </is>
       </c>
       <c r="I15" s="19" t="n"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="L15" s="8" t="inlineStr">
         <is>
-          <t>maa://21334 (100.00)</t>
+          <t>*maa://21334 (65.31)</t>
         </is>
       </c>
       <c r="M15" s="19" t="n"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>maa://24762 (100.00), **maa://22727 (42.55)</t>
+          <t>maa://24762 (96.30), *maa://22727 (70.00)</t>
         </is>
       </c>
       <c r="Q15" s="19" t="n"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
-          <t>maa://23892 (100.00)</t>
+          <t>maa://23892 (96.97)</t>
         </is>
       </c>
       <c r="U15" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="X15" s="8" t="inlineStr">
         <is>
-          <t>maa://38786 (100.00), maa://56102 (82.61)</t>
+          <t>maa://38786 (88.00), maa://56102 (100.00)</t>
         </is>
       </c>
       <c r="Y15" s="19" t="n"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AF15" s="8" t="inlineStr">
         <is>
-          <t>maa://36666 (100.00), maa://21364 (85.87)</t>
+          <t>maa://36666 (94.75), maa://21364 (83.01)</t>
         </is>
       </c>
       <c r="AG15" s="16" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>maa://37650 (100.00), maa://21441 (94.90), maa://36679 (86.73)</t>
+          <t>maa://37650 (99.55), maa://21441 (96.62), maa://36679 (94.55)</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="P16" s="8" t="inlineStr">
         <is>
-          <t>maa://28504 (100.00)</t>
+          <t>maa://28504 (95.15)</t>
         </is>
       </c>
       <c r="Q16" s="19" t="n"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t>maa://36674 (100.00), maa://22729 (97.87), *maa://28648 (72.34)</t>
+          <t>maa://36674 (96.57), maa://22729 (95.52), *maa://28648 (77.42)</t>
         </is>
       </c>
       <c r="U16" s="19" t="n"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="X16" s="8" t="inlineStr">
         <is>
-          <t>maa://28501 (100.00), maa://28051 (86.60)</t>
+          <t>maa://28501 (98.95), maa://28051 (96.77)</t>
         </is>
       </c>
       <c r="Y16" s="19" t="n"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AB16" s="8" t="inlineStr">
         <is>
-          <t>maa://26228 (100.00)</t>
+          <t>maa://26228 (97.53)</t>
         </is>
       </c>
       <c r="AC16" s="19" t="n"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="AF16" s="8" t="inlineStr">
         <is>
-          <t>maa://23911 (95.40), maa://27755 (100.00), *maa://67613 (50.57)</t>
+          <t>maa://23911 (88.09), maa://27755 (93.64), maa://67613 (100.00)</t>
         </is>
       </c>
       <c r="AG16" s="16" t="n"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>maa://21624 (100.00), *maa://56358 (75.00)</t>
+          <t>maa://21624 (87.76), maa://56358 (100.00)</t>
         </is>
       </c>
       <c r="E17" s="19" t="n"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>maa://39599 (100.00), maa://22430 (90.53)</t>
+          <t>maa://39599 (96.58), maa://22430 (90.13)</t>
         </is>
       </c>
       <c r="I17" s="19" t="n"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="L17" s="8" t="inlineStr">
         <is>
-          <t>maa://21679 (100.00)</t>
+          <t>maa://21679 (84.62)</t>
         </is>
       </c>
       <c r="M17" s="19" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="P17" s="8" t="inlineStr">
         <is>
-          <t>maa://23890 (84.09), maa://56238 (100.00)</t>
+          <t>maa://23890 (82.20), maa://56238 (96.88)</t>
         </is>
       </c>
       <c r="Q17" s="19" t="n"/>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
-          <t>maa://42324 (100.00)</t>
+          <t>*maa://42324 (66.23)</t>
         </is>
       </c>
       <c r="U17" s="19" t="n"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AF17" s="8" t="inlineStr">
         <is>
-          <t>maa://50136 (100.00)</t>
+          <t>maa://50136 (98.44)</t>
         </is>
       </c>
       <c r="AG17" s="16" t="n"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>maa://24570 (100.00)</t>
+          <t>maa://24570 (97.83)</t>
         </is>
       </c>
       <c r="E18" s="19" t="n"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>maa://24421 (100.00)</t>
+          <t>maa://24421 (93.46)</t>
         </is>
       </c>
       <c r="I18" s="19" t="n"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
-          <t>maa://52226 (100.00), maa://22466 (90.82)</t>
+          <t>maa://52226 (99.36), maa://22466 (92.79)</t>
         </is>
       </c>
       <c r="M18" s="19" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P18" s="8" t="inlineStr">
         <is>
-          <t>maa://24379 (100.00), maa://54153 (100.00), *maa://24380 (67.01)</t>
+          <t>maa://24379 (100.00), maa://54153 (99.41), maa://24380 (100.00)</t>
         </is>
       </c>
       <c r="Q18" s="19" t="n"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t>maa://24385 (100.00)</t>
+          <t>maa://24385 (98.21)</t>
         </is>
       </c>
       <c r="U18" s="19" t="n"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="X18" s="8" t="inlineStr">
         <is>
-          <t>maa://21917 (100.00), *maa://22741 (65.26)</t>
+          <t>maa://21917 (98.14), maa://22741 (90.91)</t>
         </is>
       </c>
       <c r="Y18" s="19" t="n"/>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="AB18" s="8" t="inlineStr">
         <is>
-          <t>maa://24393 (100.00)</t>
+          <t>maa://24393 (98.52)</t>
         </is>
       </c>
       <c r="AC18" s="19" t="n"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="AF18" s="8" t="inlineStr">
         <is>
-          <t>maa://47854 (100.00), *maa://24313 (67.50)</t>
+          <t>maa://47854 (89.02), *maa://24313 (61.02)</t>
         </is>
       </c>
       <c r="AG18" s="16" t="n"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>maa://62850 (100.00)</t>
+          <t>maa://62850 (99.10)</t>
         </is>
       </c>
       <c r="E19" s="19" t="n"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
-          <t>maa://66740 (100.00)</t>
+          <t>maa://66740 (88.89)</t>
         </is>
       </c>
       <c r="I19" s="19" t="n"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L19" s="8" t="inlineStr">
         <is>
-          <t>maa://39347 (100.00), *maa://56392 (51.76)</t>
+          <t>maa://39347 (97.06), maa://56392 (100.00)</t>
         </is>
       </c>
       <c r="M19" s="19" t="n"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
-          <t>maa://24386 (100.00)</t>
+          <t>maa://24386 (99.48)</t>
         </is>
       </c>
       <c r="U19" s="19" t="n"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="X19" s="8" t="inlineStr">
         <is>
-          <t>maa://31386 (100.00), *maa://58490 (59.77)</t>
+          <t>maa://31386 (100.00), *maa://58490 (78.57)</t>
         </is>
       </c>
       <c r="Y19" s="19" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="AB19" s="8" t="inlineStr">
         <is>
-          <t>maa://30709 (100.00), *maa://36668 (75.32)</t>
+          <t>maa://30709 (81.06), *maa://36668 (67.29)</t>
         </is>
       </c>
       <c r="AC19" s="19" t="n"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="AF19" s="8" t="inlineStr">
         <is>
-          <t>maa://21663 (90.00), maa://52239 (100.00)</t>
+          <t>*maa://21663 (64.71), maa://52239 (80.95)</t>
         </is>
       </c>
       <c r="AG19" s="16" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>maa://25198 (98.96), maa://36680 (100.00), maa://21432 (90.62)</t>
+          <t>maa://25198 (97.22), maa://36680 (98.37), maa://21432 (91.30)</t>
         </is>
       </c>
       <c r="E20" s="19" t="n"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>maa://22864 (100.00)</t>
+          <t>maa://22864 (94.03)</t>
         </is>
       </c>
       <c r="I20" s="19" t="n"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="L20" s="8" t="inlineStr">
         <is>
-          <t>maa://41331 (100.00)</t>
+          <t>maa://41331 (93.35)</t>
         </is>
       </c>
       <c r="M20" s="19" t="n"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
-          <t>maa://37442 (100.00)</t>
+          <t>maa://37442 (97.80)</t>
         </is>
       </c>
       <c r="Q20" s="19" t="n"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
-          <t>maa://29113 (100.00)</t>
+          <t>maa://29113 (91.80)</t>
         </is>
       </c>
       <c r="U20" s="19" t="n"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="X20" s="8" t="inlineStr">
         <is>
-          <t>maa://50085 (94.85), maa://56241 (100.00), maa://49976 (83.51)</t>
+          <t>maa://50085 (94.88), maa://56241 (97.97), maa://49976 (88.24)</t>
         </is>
       </c>
       <c r="Y20" s="19" t="n"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>maa://21261 (100.00)</t>
+          <t>maa://21261 (98.78)</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>maa://24372 (100.00)</t>
+          <t>maa://24372 (98.34)</t>
         </is>
       </c>
       <c r="I21" s="19" t="n"/>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="L21" s="8" t="inlineStr">
         <is>
-          <t>maa://31731 (100.00)</t>
+          <t>maa://31731 (97.75)</t>
         </is>
       </c>
       <c r="M21" s="19" t="n"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
-          <t>maa://24381 (100.00)</t>
+          <t>maa://24381 (86.21)</t>
         </is>
       </c>
       <c r="Q21" s="19" t="n"/>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
-          <t>maa://21993 (100.00)</t>
+          <t>maa://21993 (87.50)</t>
         </is>
       </c>
       <c r="U21" s="19" t="n"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="X21" s="8" t="inlineStr">
         <is>
-          <t>maa://34946 (100.00), maa://20110 (82.80)</t>
+          <t>maa://34946 (97.42), maa://20110 (86.67)</t>
         </is>
       </c>
       <c r="Y21" s="19" t="n"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>maa://21443 (100.00), maa://52223 (82.72)</t>
+          <t>maa://21443 (85.09), *maa://52223 (74.81)</t>
         </is>
       </c>
       <c r="AC21" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AF21" s="8" t="inlineStr">
         <is>
-          <t>maa://22432 (93.62), maa://22524 (82.98), maa://64221 (100.00)</t>
+          <t>maa://22432 (91.62), maa://22524 (82.67), maa://64221 (97.22)</t>
         </is>
       </c>
       <c r="AG21" s="16" t="n"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>maa://25236 (100.00)</t>
+          <t>maa://25236 (98.61)</t>
         </is>
       </c>
       <c r="I22" s="19" t="n"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
-          <t>*maa://27127 (76.84), *maa://22751 (64.21), maa://66865 (100.00)</t>
+          <t>*maa://27127 (79.58), *maa://22751 (70.93), maa://66865 (98.78)</t>
         </is>
       </c>
       <c r="M22" s="19" t="n"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
-          <t>maa://38495 (100.00)</t>
+          <t>maa://38495 (85.71)</t>
         </is>
       </c>
       <c r="U22" s="19" t="n"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X22" s="8" t="inlineStr">
         <is>
-          <t>maa://37649 (89.69), maa://21282 (100.00)</t>
+          <t>maa://37649 (91.43), maa://21282 (98.87)</t>
         </is>
       </c>
       <c r="Y22" s="19" t="n"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="AB22" s="8" t="inlineStr">
         <is>
-          <t>maa://23656 (100.00)</t>
+          <t>maa://23656 (99.33)</t>
         </is>
       </c>
       <c r="AC22" s="19" t="n"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="AF22" s="8" t="inlineStr">
         <is>
-          <t>maa://29658 (100.00)</t>
+          <t>maa://29658 (96.25)</t>
         </is>
       </c>
       <c r="AG22" s="16" t="n"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>**maa://28036 (48.84), maa://41753 (100.00)</t>
+          <t>***maa://28036 (29.21), *maa://41753 (58.49)</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
-          <t>maa://39756 (100.00), maa://39875 (91.75)</t>
+          <t>maa://39756 (98.03), maa://39875 (95.24)</t>
         </is>
       </c>
       <c r="M23" s="19" t="n"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
-          <t>maa://30587 (100.00), *maa://29748 (79.57), *maa://37566 (70.97)</t>
+          <t>maa://30587 (95.72), maa://29748 (81.14), *maa://37566 (78.95)</t>
         </is>
       </c>
       <c r="Q23" s="19" t="n"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
-          <t>maa://31212 (100.00), maa://24387 (81.40), *maa://67084 (66.28)</t>
+          <t>maa://31212 (93.83), maa://24387 (83.72), maa://67084 (100.00)</t>
         </is>
       </c>
       <c r="U23" s="19" t="n"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="X23" s="8" t="inlineStr">
         <is>
-          <t>maa://28503 (100.00)</t>
+          <t>*maa://28503 (59.15)</t>
         </is>
       </c>
       <c r="Y23" s="19" t="n"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="AB23" s="8" t="inlineStr">
         <is>
-          <t>maa://29652 (100.00)</t>
+          <t>maa://29652 (95.83)</t>
         </is>
       </c>
       <c r="AC23" s="19" t="n"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="AF23" s="8" t="inlineStr">
         <is>
-          <t>maa://31489 (100.00)</t>
+          <t>maa://31489 (97.06)</t>
         </is>
       </c>
       <c r="AG23" s="16" t="n"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>maa://24368 (98.77), maa://46650 (100.00)</t>
+          <t>maa://24368 (83.27), maa://46650 (86.55)</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="X24" s="8" t="inlineStr">
         <is>
-          <t>maa://29988 (97.87), maa://23504 (97.87), *maa://25141 (75.53), *maa://36663 (74.47), maa://52227 (100.00)</t>
+          <t>maa://29988 (94.44), maa://23504 (93.96), *maa://25141 (78.47), *maa://36663 (79.25), maa://52227 (97.73)</t>
         </is>
       </c>
       <c r="Y24" s="19" t="n"/>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="AB24" s="8" t="inlineStr">
         <is>
-          <t>maa://39349 (100.00)</t>
+          <t>maa://39349 (96.15)</t>
         </is>
       </c>
       <c r="AC24" s="19" t="n"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF24" s="8" t="inlineStr">
         <is>
-          <t>maa://64165 (100.00), *maa://22523 (77.32), maa://29910 (88.66), maa://45831 (80.41)</t>
+          <t>maa://64165 (98.69), maa://22523 (80.09), maa://29910 (94.20), maa://45831 (93.10)</t>
         </is>
       </c>
       <c r="AG24" s="16" t="n"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>maa://29753 (98.95), maa://63016 (100.00)</t>
+          <t>maa://29753 (96.11), maa://63016 (98.47)</t>
         </is>
       </c>
       <c r="E25" s="19" t="n"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>maa://29063 (95.77), maa://25311 (88.73), maa://45047 (100.00)</t>
+          <t>*maa://29063 (73.26), *maa://25311 (71.53), maa://45047 (83.64)</t>
         </is>
       </c>
       <c r="I25" s="19" t="n"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L25" s="8" t="inlineStr">
         <is>
-          <t>maa://24378 (100.00)</t>
+          <t>maa://24378 (92.75)</t>
         </is>
       </c>
       <c r="M25" s="19" t="n"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="P25" s="8" t="inlineStr">
         <is>
-          <t>maa://24382 (100.00)</t>
+          <t>maa://24382 (95.35)</t>
         </is>
       </c>
       <c r="Q25" s="19" t="n"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
-          <t>maa://20109 (92.93), maa://22545 (100.00)</t>
+          <t>maa://20109 (95.24), maa://22545 (100.00)</t>
         </is>
       </c>
       <c r="U25" s="19" t="n"/>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="X25" s="8" t="inlineStr">
         <is>
-          <t>maa://29890 (100.00)</t>
+          <t>maa://29890 (88.78)</t>
         </is>
       </c>
       <c r="Y25" s="19" t="n"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="AB25" s="8" t="inlineStr">
         <is>
-          <t>maa://31215 (100.00), *maa://24516 (79.78), maa://26001 (80.90)</t>
+          <t>maa://31215 (92.70), *maa://24516 (79.59), maa://26001 (83.33)</t>
         </is>
       </c>
       <c r="AC25" s="19" t="n"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AF25" s="8" t="inlineStr">
         <is>
-          <t>maa://20108 (95.92), maa://36676 (100.00), maa://24621 (94.90), *maa://22771 (65.31), **maa://37772 (44.90)</t>
+          <t>maa://20108 (97.48), maa://36676 (99.74), maa://24621 (96.82), maa://22771 (87.50), maa://37772 (83.33)</t>
         </is>
       </c>
       <c r="AG25" s="16" t="n"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>maa://56374 (100.00), maa://41802 (92.39)</t>
+          <t>maa://56374 (100.00), maa://41802 (95.35)</t>
         </is>
       </c>
       <c r="E26" s="19" t="n"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>maa://56240 (100.00), maa://24913 (97.70)</t>
+          <t>maa://56240 (93.97), maa://24913 (91.89)</t>
         </is>
       </c>
       <c r="I26" s="19" t="n"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P26" s="8" t="inlineStr">
         <is>
-          <t>maa://39870 (86.81), maa://56625 (100.00)</t>
+          <t>maa://39870 (93.55), maa://56625 (100.00)</t>
         </is>
       </c>
       <c r="Q26" s="19" t="n"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="X26" s="8" t="inlineStr">
         <is>
-          <t>maa://24389 (100.00)</t>
+          <t>maa://24389 (97.87)</t>
         </is>
       </c>
       <c r="Y26" s="19" t="n"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="AB26" s="8" t="inlineStr">
         <is>
-          <t>maa://42235 (100.00)</t>
+          <t>maa://42235 (97.83)</t>
         </is>
       </c>
       <c r="AC26" s="19" t="n"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AF26" s="8" t="inlineStr">
         <is>
-          <t>maa://30511 (100.00), **maa://29760 (47.46)</t>
+          <t>*maa://30511 (70.83), **maa://29760 (47.62)</t>
         </is>
       </c>
       <c r="AG26" s="16" t="n"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>maa://39601 (84.78), maa://34494 (100.00)</t>
+          <t>maa://39601 (88.24), maa://34494 (98.57)</t>
         </is>
       </c>
       <c r="I27" s="19" t="n"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
-          <t>maa://28071 (100.00)</t>
+          <t>maa://28071 (86.05)</t>
         </is>
       </c>
       <c r="M27" s="19" t="n"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="P27" s="8" t="inlineStr">
         <is>
-          <t>maa://56400 (100.00)</t>
+          <t>maa://56400 (87.50)</t>
         </is>
       </c>
       <c r="Q27" s="19" t="n"/>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
-          <t>maa://30624 (100.00)</t>
+          <t>maa://30624 (86.76)</t>
         </is>
       </c>
       <c r="U27" s="19" t="n"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="AF27" s="8" t="inlineStr">
         <is>
-          <t>maa://24023 (100.00)</t>
+          <t>maa://24023 (97.22)</t>
         </is>
       </c>
       <c r="AG27" s="16" t="n"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>maa://24465 (100.00), maa://25725 (81.72)</t>
+          <t>maa://24465 (94.62), maa://25725 (84.03)</t>
         </is>
       </c>
       <c r="E28" s="19" t="n"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="L28" s="8" t="inlineStr">
         <is>
-          <t>maa://30770 (100.00)</t>
+          <t>maa://30770 (87.84)</t>
         </is>
       </c>
       <c r="M28" s="19" t="n"/>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
-          <t>maa://29765 (94.51), maa://23263 (100.00)</t>
+          <t>maa://29765 (90.09), maa://23263 (96.00)</t>
         </is>
       </c>
       <c r="U28" s="19" t="n"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="X28" s="8" t="inlineStr">
         <is>
-          <t>maa://39929 (100.00), maa://41749 (98.95)</t>
+          <t>maa://39929 (96.24), maa://41749 (96.73)</t>
         </is>
       </c>
       <c r="Y28" s="19" t="n"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="AF28" s="8" t="inlineStr">
         <is>
-          <t>maa://36660 (94.79), maa://65700 (100.00)</t>
+          <t>maa://36660 (93.15), maa://65700 (97.98)</t>
         </is>
       </c>
       <c r="AG28" s="16" t="n"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>maa://31694 (100.00)</t>
+          <t>maa://31694 (99.11)</t>
         </is>
       </c>
       <c r="E29" s="19" t="n"/>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>maa://25175 (100.00)</t>
+          <t>**maa://25175 (49.51)</t>
         </is>
       </c>
       <c r="I29" s="19" t="n"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>maa://28432 (100.00), maa://31400 (100.00), maa://28440 (84.21)</t>
+          <t>maa://28432 (96.88), maa://31400 (98.16), maa://28440 (86.08)</t>
         </is>
       </c>
       <c r="M29" s="19" t="n"/>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>maa://54169 (100.00)</t>
+          <t>maa://54169 (97.26)</t>
         </is>
       </c>
       <c r="Q29" s="19" t="n"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AF29" s="8" t="inlineStr">
         <is>
-          <t>maa://42865 (100.00), *maa://24080 (74.42)</t>
+          <t>maa://42865 (89.40), *maa://24080 (68.86)</t>
         </is>
       </c>
       <c r="AG29" s="16" t="n"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>maa://45792 (95.45), maa://64191 (100.00)</t>
+          <t>maa://45792 (94.12), maa://64191 (100.00)</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="L30" s="8" t="inlineStr">
         <is>
-          <t>maa://30442 (100.00)</t>
+          <t>maa://30442 (96.94)</t>
         </is>
       </c>
       <c r="M30" s="19" t="n"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>maa://21442 (100.00), maa://66611 (91.84)</t>
+          <t>maa://21442 (99.43), maa://66611 (100.00)</t>
         </is>
       </c>
       <c r="Q30" s="19" t="n"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
-          <t>*maa://32940 (67.09), maa://24388 (100.00)</t>
+          <t>*maa://32940 (76.47), maa://24388 (95.65)</t>
         </is>
       </c>
       <c r="U30" s="19" t="n"/>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="X30" s="8" t="inlineStr">
         <is>
-          <t>maa://39477 (100.00)</t>
+          <t>maa://39477 (94.87)</t>
         </is>
       </c>
       <c r="Y30" s="19" t="n"/>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>maa://42979 (100.00), maa://45822 (91.92), **maa://45045 (49.49)</t>
+          <t>maa://42979 (99.32), maa://45822 (100.00), maa://45045 (85.71)</t>
         </is>
       </c>
       <c r="AC30" s="19" t="n"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="L31" s="8" t="inlineStr">
         <is>
-          <t>maa://35926 (100.00), maa://36258 (91.67), *maa://43904 (72.92)</t>
+          <t>maa://35926 (97.10), maa://36258 (91.97), maa://43904 (86.67)</t>
         </is>
       </c>
       <c r="M31" s="19" t="n"/>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
-          <t>maa://30711 (100.00), *maa://30768 (56.04)</t>
+          <t>maa://30711 (96.67), maa://30768 (100.00)</t>
         </is>
       </c>
       <c r="U31" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>maa://36667 (100.00), maa://21895 (96.97), **maa://22760 (44.44)</t>
+          <t>maa://36667 (99.53), maa://21895 (97.91), maa://22760 (100.00)</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="L32" s="8" t="inlineStr">
         <is>
-          <t>maa://28065 (100.00)</t>
+          <t>maa://28065 (96.15)</t>
         </is>
       </c>
       <c r="M32" s="19" t="n"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>maa://26203 (100.00), *maa://56429 (75.58)</t>
+          <t>maa://26203 (100.00), maa://56429 (100.00)</t>
         </is>
       </c>
       <c r="Q32" s="19" t="n"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
-          <t>maa://42859 (100.00), *maa://41108 (77.55), maa://41238 (96.94), maa://45523 (95.92)</t>
+          <t>maa://42859 (99.09), maa://41108 (87.50), maa://41238 (98.07), maa://45523 (100.00)</t>
         </is>
       </c>
       <c r="U32" s="19" t="n"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="X32" s="8" t="inlineStr">
         <is>
-          <t>maa://64104 (100.00)</t>
+          <t>maa://64104 (96.20)</t>
         </is>
       </c>
       <c r="Y32" s="19" t="n"/>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="AF32" s="8" t="inlineStr">
         <is>
-          <t>maa://42408 (100.00)</t>
+          <t>maa://42408 (92.86)</t>
         </is>
       </c>
       <c r="AG32" s="16" t="n"/>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>maa://39351 (100.00)</t>
+          <t>***maa://39351 (30.00)</t>
         </is>
       </c>
       <c r="I33" s="19" t="n"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="P33" s="8" t="inlineStr">
         <is>
-          <t>maa://21956 (100.00), *maa://22730 (61.36)</t>
+          <t>maa://21956 (91.55), *maa://22730 (70.59)</t>
         </is>
       </c>
       <c r="Q33" s="19" t="n"/>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
-          <t>maa://45558 (100.00)</t>
+          <t>maa://45558 (91.30)</t>
         </is>
       </c>
       <c r="U33" s="19" t="n"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="P34" s="8" t="inlineStr">
         <is>
-          <t>maa://48817 (97.96), maa://56235 (100.00)</t>
+          <t>maa://48817 (98.86), maa://56235 (100.00)</t>
         </is>
       </c>
       <c r="Q34" s="19" t="n"/>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
-          <t>maa://24526 (100.00)</t>
+          <t>maa://24526 (95.94)</t>
         </is>
       </c>
       <c r="U34" s="19" t="n"/>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AB34" s="8" t="inlineStr">
         <is>
-          <t>maa://64329 (100.00)</t>
+          <t>maa://64329 (96.43)</t>
         </is>
       </c>
       <c r="AC34" s="19" t="n"/>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="AF34" s="8" t="inlineStr">
         <is>
-          <t>maa://32650 (100.00)</t>
+          <t>maa://32650 (84.62)</t>
         </is>
       </c>
       <c r="AG34" s="16" t="n"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
-          <t>maa://41296 (100.00)</t>
+          <t>maa://41296 (98.97)</t>
         </is>
       </c>
       <c r="M35" s="19" t="n"/>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
-          <t>maa://24842 (100.00)</t>
+          <t>maa://24842 (96.25)</t>
         </is>
       </c>
       <c r="U35" s="19" t="n"/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="AF35" s="8" t="inlineStr">
         <is>
-          <t>maa://39479 (100.00)</t>
+          <t>maa://39479 (95.00)</t>
         </is>
       </c>
       <c r="AG35" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>maa://24375 (100.00)</t>
+          <t>maa://24375 (93.10)</t>
         </is>
       </c>
       <c r="I36" s="19" t="n"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
-          <t>maa://27613 (100.00)</t>
+          <t>maa://27613 (99.43)</t>
         </is>
       </c>
       <c r="U36" s="19" t="n"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="AB36" s="19" t="inlineStr">
         <is>
-          <t>maa://64106 (100.00)</t>
+          <t>maa://64106 (95.24)</t>
         </is>
       </c>
       <c r="AC36" s="19" t="n"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>maa://24374 (100.00)</t>
+          <t>*maa://24374 (56.90)</t>
         </is>
       </c>
       <c r="I37" s="19" t="n"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
-          <t>maa://45718 (100.00), maa://56336 (100.00), *maa://47069 (71.43), *maa://45789 (73.47)</t>
+          <t>maa://45718 (99.20), maa://56336 (98.88), maa://47069 (85.71), maa://45789 (100.00)</t>
         </is>
       </c>
       <c r="M37" s="19" t="n"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>maa://21280 (100.00)</t>
+          <t>maa://21280 (96.36)</t>
         </is>
       </c>
       <c r="Q37" s="19" t="n"/>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="T37" s="8" t="inlineStr">
         <is>
-          <t>maa://39354 (100.00)</t>
+          <t>**maa://39354 (44.44)</t>
         </is>
       </c>
       <c r="U37" s="19" t="n"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
-          <t>maa://39384 (100.00), *maa://49735 (70.83)</t>
+          <t>maa://39384 (100.00), maa://49735 (100.00)</t>
         </is>
       </c>
       <c r="M38" s="19" t="n"/>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="P38" s="8" t="inlineStr">
         <is>
-          <t>maa://24383 (100.00)</t>
+          <t>*maa://24383 (77.78)</t>
         </is>
       </c>
       <c r="Q38" s="19" t="n"/>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
-          <t>maa://30713 (100.00)</t>
+          <t>maa://30713 (97.96)</t>
         </is>
       </c>
       <c r="U38" s="19" t="n"/>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="AF38" s="8" t="inlineStr">
         <is>
-          <t>maa://36697 (100.00)</t>
+          <t>maa://36697 (94.59)</t>
         </is>
       </c>
       <c r="AG38" s="16" t="n"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>maa://25199 (85.71), maa://30434 (100.00), *maa://45059 (75.82), **maa://44165 (41.76)</t>
+          <t>maa://25199 (84.92), maa://30434 (94.94), maa://45059 (81.43), *maa://44165 (80.00)</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>maa://47093 (100.00), maa://24709 (94.68)</t>
+          <t>maa://47093 (97.47), maa://24709 (93.18)</t>
         </is>
       </c>
       <c r="Q39" s="19" t="n"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
-          <t>maa://47079 (100.00), maa://45790 (81.32)</t>
+          <t>maa://47079 (94.09), maa://45790 (86.21)</t>
         </is>
       </c>
       <c r="U39" s="19" t="n"/>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="AF39" s="8" t="inlineStr">
         <is>
-          <t>maa://62953 (100.00)</t>
+          <t>maa://62953 (96.25)</t>
         </is>
       </c>
       <c r="AG39" s="16" t="n"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P40" s="8" t="inlineStr">
         <is>
-          <t>maa://23278 (100.00), maa://21386 (95.83), maa://36664 (83.33), *maa://45550 (51.04)</t>
+          <t>maa://23278 (97.45), maa://21386 (95.90), maa://36664 (89.19), *maa://45550 (80.00)</t>
         </is>
       </c>
       <c r="Q40" s="19" t="n"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AF40" s="19" t="inlineStr">
         <is>
-          <t>maa://65283 (100.00), maa://64205 (91.21)</t>
+          <t>maa://65283 (96.33), maa://64205 (96.55)</t>
         </is>
       </c>
       <c r="AG40" s="16" t="n"/>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
-          <t>maa://24466 (100.00)</t>
+          <t>maa://24466 (92.06)</t>
         </is>
       </c>
       <c r="I41" s="19" t="n"/>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P41" s="8" t="inlineStr">
         <is>
-          <t>maa://43177 (100.00)</t>
+          <t>maa://43177 (93.98)</t>
         </is>
       </c>
       <c r="Q41" s="19" t="n"/>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
-          <t>maa://66727 (100.00), *maa://66675 (53.66)</t>
+          <t>maa://66727 (100.00), maa://66675 (100.00)</t>
         </is>
       </c>
       <c r="U41" s="19" t="n"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>*maa://22525 (70.65), maa://21284 (100.00)</t>
+          <t>*maa://22525 (71.49), maa://21284 (96.20)</t>
         </is>
       </c>
       <c r="I43" s="19" t="n"/>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="P43" s="8" t="inlineStr">
         <is>
-          <t>maa://47403 (100.00)</t>
+          <t>maa://47403 (83.33)</t>
         </is>
       </c>
       <c r="Q43" s="19" t="n"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
-          <t>maa://43198 (100.00), *maa://46286 (72.22)</t>
+          <t>maa://43198 (100.00), maa://46286 (100.00)</t>
         </is>
       </c>
       <c r="U43" s="19" t="n"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>maa://29768 (97.96), maa://56386 (100.00), maa://27728 (92.86)</t>
+          <t>maa://29768 (98.02), maa://56386 (99.45), maa://27728 (96.33)</t>
         </is>
       </c>
       <c r="I44" s="19" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
-          <t>maa://39366 (100.00)</t>
+          <t>maa://39366 (92.65)</t>
         </is>
       </c>
       <c r="U44" s="19" t="n"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>maa://42459 (100.00), maa://21229 (83.16), maa://30807 (92.63)</t>
+          <t>maa://42459 (97.94), maa://21229 (84.86), maa://30807 (94.51)</t>
         </is>
       </c>
       <c r="I45" s="19" t="n"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="P45" s="8" t="inlineStr">
         <is>
-          <t>maa://36237 (100.00)</t>
+          <t>*maa://36237 (80.00)</t>
         </is>
       </c>
       <c r="Q45" s="19" t="n"/>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
-          <t>maa://39364 (100.00)</t>
+          <t>*maa://39364 (60.48)</t>
         </is>
       </c>
       <c r="U45" s="19" t="n"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
-          <t>maa://35931 (100.00), maa://43901 (100.00)</t>
+          <t>maa://35931 (93.95), maa://43901 (96.04)</t>
         </is>
       </c>
       <c r="I46" s="19" t="n"/>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>maa://27410 (95.96), maa://29661 (94.95), maa://56236 (100.00), *maa://28038 (58.59)</t>
+          <t>maa://27410 (97.27), maa://29661 (97.55), maa://56236 (99.80), maa://28038 (84.62)</t>
         </is>
       </c>
       <c r="I47" s="19" t="n"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
-          <t>maa://67476 (100.00)</t>
+          <t>maa://67476 (99.27)</t>
         </is>
       </c>
       <c r="U47" s="19" t="n"/>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="P49" s="8" t="inlineStr">
         <is>
-          <t>maa://39643 (100.00)</t>
+          <t>*maa://39643 (75.00)</t>
         </is>
       </c>
       <c r="Q49" s="19" t="n"/>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="T49" s="19" t="inlineStr">
         <is>
-          <t>maa://67231 (100.00)</t>
+          <t>maa://67231 (99.09)</t>
         </is>
       </c>
       <c r="U49" s="19" t="n"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="P50" s="8" t="inlineStr">
         <is>
-          <t>maa://62852 (100.00)</t>
+          <t>maa://62852 (90.77)</t>
         </is>
       </c>
       <c r="Q50" s="19" t="n"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
-          <t>maa://30769 (100.00)</t>
+          <t>maa://30769 (86.96)</t>
         </is>
       </c>
       <c r="I51" s="19" t="n"/>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
-          <t>maa://24376 (100.00)</t>
+          <t>maa://24376 (98.65)</t>
         </is>
       </c>
       <c r="I52" s="19" t="n"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="P52" s="8" t="inlineStr">
         <is>
-          <t>maa://59394 (100.00), maa://59378 (87.76), maa://65511 (97.96)</t>
+          <t>maa://59394 (99.01), maa://59378 (93.75), maa://65511 (100.00)</t>
         </is>
       </c>
       <c r="Q52" s="19" t="n"/>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>maa://32534 (100.00)</t>
+          <t>maa://32534 (97.06)</t>
         </is>
       </c>
       <c r="I53" s="19" t="n"/>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>maa://32532 (100.00)</t>
+          <t>maa://32532 (96.82)</t>
         </is>
       </c>
       <c r="I55" s="19" t="n"/>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
-          <t>maa://25176 (100.00), maa://56237 (100.00)</t>
+          <t>maa://25176 (98.75), maa://56237 (98.80)</t>
         </is>
       </c>
       <c r="I57" s="19" t="n"/>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>maa://37964 (100.00)</t>
+          <t>*maa://37964 (61.70)</t>
         </is>
       </c>
       <c r="I58" s="19" t="n"/>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>maa://31270 (100.00), maa://27746 (85.42)</t>
+          <t>maa://31270 (97.78), maa://27746 (87.88)</t>
         </is>
       </c>
       <c r="I59" s="19" t="n"/>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>maa://40438 (100.00)</t>
+          <t>maa://40438 (88.46)</t>
         </is>
       </c>
       <c r="I60" s="19" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>maa://42981 (96.81), maa://43903 (94.68), maa://56228 (100.00)</t>
+          <t>maa://42981 (97.26), maa://43903 (100.00), maa://56228 (98.88)</t>
         </is>
       </c>
       <c r="I62" s="19" t="n"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>maa://59534 (100.00), *maa://59693 (59.18), maa://59413 (89.80)</t>
+          <t>maa://59534 (99.18), *maa://59693 (73.81), maa://59413 (95.65)</t>
         </is>
       </c>
       <c r="I63" s="19" t="n"/>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>maa://44405 (100.00)</t>
+          <t>maa://44405 (89.83)</t>
         </is>
       </c>
       <c r="I64" s="19" t="n"/>
@@ -7174,7 +7174,7 @@
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22">
       <c r="A1" s="21" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 13:20:19</t>
+          <t>更新日期：2025.09.08 23:48:05</t>
         </is>
       </c>
       <c r="E1" s="9" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>maa://20990 (100.00)</t>
+          <t>maa://20990 (88.89)</t>
         </is>
       </c>
       <c r="E3" s="14" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>maa://20996 (100.00)</t>
+          <t>*maa://20996 (60.00)</t>
         </is>
       </c>
       <c r="E4" s="14" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>maa://20925 (100.00)</t>
+          <t>maa://20925 (81.82)</t>
         </is>
       </c>
       <c r="E6" s="14" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>maa://20850 (100.00)</t>
+          <t>maa://20850 (88.89)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>maa://20888 (100.00)</t>
+          <t>*maa://20888 (80.00)</t>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>maa://20857 (100.00)</t>
+          <t>**maa://20857 (50.00)</t>
         </is>
       </c>
       <c r="E12" s="14" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>maa://20919 (100.00), *maa://31611 (52.22)</t>
+          <t>maa://20919 (98.00), *maa://31611 (75.00)</t>
         </is>
       </c>
       <c r="E16" s="14" t="inlineStr">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>maa://20848 (100.00)</t>
+          <t>maa://20848 (83.33)</t>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>maa://20930 (100.00)</t>
+          <t>maa://20930 (88.89)</t>
         </is>
       </c>
       <c r="E18" s="14" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>maa://20865 (100.00), *maa://20826 (73.13)</t>
+          <t>maa://20865 (92.31), maa://20826 (85.71)</t>
         </is>
       </c>
       <c r="E20" s="14" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>maa://20948 (91.80), maa://30844 (100.00), *maa://63387 (55.74), **maa://58691 (34.43)</t>
+          <t>maa://20948 (88.89), maa://30844 (100.00), maa://63387 (100.00), maa://58691 (100.00)</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>maa://20876 (100.00), *maa://63498 (65.52)</t>
+          <t>maa://20876 (96.15), maa://63498 (100.00)</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>*maa://20849 (72.29), *maa://28758 (67.47), maa://29036 (100.00), *maa://42172 (60.24), maa://65357 (89.16), maa://30285 (81.93)</t>
+          <t>*maa://20849 (73.21), *maa://28758 (71.11), maa://29036 (96.55), *maa://42172 (71.43), maa://65357 (94.74), maa://30285 (100.00)</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>maa://20863 (89.58), maa://20832 (100.00), *maa://20727 (75.00)</t>
+          <t>maa://20863 (90.31), maa://20832 (99.20), maa://20727 (100.00)</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>maa://20871 (100.00)</t>
+          <t>maa://20871 (83.33)</t>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>maa://39024 (100.00)</t>
+          <t>*maa://39024 (60.00)</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>maa://36644 (95.51), maa://36866 (100.00), maa://62759 (100.00), *maa://45572 (74.16), *maa://27794 (64.04), *maa://20960 (78.65), **maa://20843 (49.44), ***maa://24483 (10.11), **maa://20862 (49.44), *maa://20893 (61.80)</t>
+          <t>maa://36644 (89.88), maa://36866 (96.92), maa://62759 (100.00), maa://45572 (88.24), maa://27794 (100.00), maa://20960 (100.00), maa://20843 (100.00), **maa://24483 (50.00), maa://20862 (83.33), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>maa://30500 (100.00), *maa://27290 (52.13), ***maa://42154 (1.06)</t>
+          <t>maa://30500 (98.95), *maa://27290 (72.22), ***maa://42154 (8.33)</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>maa://20916 (97.10), maa://52658 (100.00)</t>
+          <t>maa://20916 (82.86), maa://52658 (92.86)</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>maa://20847 (100.00)</t>
+          <t>maa://20847 (96.77)</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="D37" s="13" t="inlineStr">
         <is>
-          <t>maa://27376 (100.00), maa://42635 (100.00), **maa://20838 (40.48)</t>
+          <t>maa://27376 (93.33), maa://42635 (94.12), *maa://20838 (55.00)</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="D39" s="13" t="inlineStr">
         <is>
-          <t>*maa://29012 (61.25), maa://20928 (100.00)</t>
+          <t>maa://29012 (85.71), maa://20928 (100.00)</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>maa://20892 (100.00)</t>
+          <t>maa://20892 (82.18)</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (90.00), maa://20918 (100.00), maa://20824 (96.25)</t>
+          <t>maa://34883 (93.75), maa://20918 (96.00), maa://20824 (100.00)</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="D43" s="13" t="inlineStr">
         <is>
-          <t>maa://20889 (100.00)</t>
+          <t>maa://20889 (91.67)</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="D46" s="13" t="inlineStr">
         <is>
-          <t>maa://39025 (100.00)</t>
+          <t>*maa://39025 (77.78)</t>
         </is>
       </c>
       <c r="E46" s="14" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="D48" s="13" t="inlineStr">
         <is>
-          <t>maa://20954 (100.00)</t>
+          <t>maa://20954 (92.86)</t>
         </is>
       </c>
       <c r="E48" s="14" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="D49" s="13" t="inlineStr">
         <is>
-          <t>maa://32845 (100.00), *maa://20982 (51.72)</t>
+          <t>*maa://32845 (80.00), *maa://20982 (75.00)</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>maa://20953 (100.00), maa://31173 (95.29)</t>
+          <t>maa://20953 (97.14), maa://31173 (94.29)</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
@@ -10090,7 +10090,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>maa://20932 (100.00), maa://42415 (88.04), maa://40838 (82.61)</t>
+          <t>maa://20932 (96.13), maa://42415 (96.15), maa://40838 (100.00)</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>maa://44235 (100.00), maa://45604 (82.11), maa://20961 (84.21), ***maa://44220 (22.11), maa://20910 (82.11)</t>
+          <t>maa://44235 (98.38), maa://45604 (100.00), maa://20961 (100.00), maa://44220 (100.00), maa://20910 (100.00)</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="D57" s="13" t="inlineStr">
         <is>
-          <t>maa://20965 (100.00)</t>
+          <t>*maa://20965 (71.79)</t>
         </is>
       </c>
       <c r="E57" s="14" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="D58" s="13" t="inlineStr">
         <is>
-          <t>maa://28900 (100.00), *maa://30126 (74.73)</t>
+          <t>maa://28900 (96.94), maa://30126 (100.00)</t>
         </is>
       </c>
       <c r="E58" s="14" t="inlineStr">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="D59" s="13" t="inlineStr">
         <is>
-          <t>maa://27970 (100.00), *maa://41118 (56.38)</t>
+          <t>maa://27970 (98.84), maa://41118 (87.50)</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="D60" s="13" t="inlineStr">
         <is>
-          <t>maa://38298 (100.00)</t>
+          <t>maa://38298 (88.29)</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="D61" s="13" t="inlineStr">
         <is>
-          <t>maa://20841 (100.00), maa://31559 (85.42), maa://24093 (98.96), maa://20924 (80.21), *maa://25777 (63.54), *maa://20631 (63.54), **maa://28241 (45.83)</t>
+          <t>maa://20841 (99.18), maa://31559 (93.48), maa://24093 (100.00), maa://20924 (95.24), maa://25777 (100.00), maa://20631 (100.00), maa://28241 (100.00)</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="D62" s="13" t="inlineStr">
         <is>
-          <t>maa://20844 (100.00)</t>
+          <t>maa://20844 (97.06)</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="D63" s="13" t="inlineStr">
         <is>
-          <t>*maa://20845 (76.92), maa://38727 (100.00)</t>
+          <t>*maa://20845 (69.23), maa://38727 (91.67)</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="D64" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (91.67), maa://45144 (100.00), maa://33504 (93.75), **maa://43531 (35.42)</t>
+          <t>maa://28187 (97.73), maa://45144 (100.00), maa://33504 (100.00), maa://43531 (100.00)</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>maa://28567 (96.81), **maa://20947 (31.91), maa://30525 (89.36), maa://38735 (100.00), **maa://28188 (42.55), **maa://30524 (46.81)</t>
+          <t>maa://28567 (97.44), **maa://20947 (45.71), maa://30525 (100.00), maa://38735 (100.00), *maa://28188 (70.00), maa://30524 (100.00)</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="D66" s="13" t="inlineStr">
         <is>
-          <t>maa://20993 (100.00), maa://45606 (93.68), **maa://20914 (46.32), maa://20829 (81.05), maa://20900 (85.26), **maa://40159 (46.32)</t>
+          <t>maa://20993 (100.00), maa://45606 (100.00), maa://20914 (100.00), maa://20829 (100.00), maa://20900 (100.00), maa://40159 (100.00)</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="D67" s="13" t="inlineStr">
         <is>
-          <t>maa://39693 (100.00), **maa://49348 (35.79)</t>
+          <t>maa://39693 (100.00), maa://49348 (100.00)</t>
         </is>
       </c>
       <c r="E67" s="14" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>maa://20976 (100.00), maa://20815 (84.21)</t>
+          <t>maa://20976 (97.70), maa://20815 (100.00)</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="D69" s="13" t="inlineStr">
         <is>
-          <t>maa://20974 (100.00), *maa://29079 (73.63), maa://29096 (86.81), maa://29087 (92.31), **maa://20823 (45.05), maa://20855 (80.22), maa://20904 (84.62), **maa://63722 (32.97)</t>
+          <t>maa://20974 (96.88), maa://29079 (80.95), maa://29096 (95.65), maa://29087 (100.00), *maa://20823 (75.00), maa://20855 (94.12), maa://20904 (100.00), *maa://63722 (75.00)</t>
         </is>
       </c>
       <c r="E69" s="14" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="D70" s="13" t="inlineStr">
         <is>
-          <t>maa://20944 (93.55), maa://35393 (100.00)</t>
+          <t>maa://20944 (96.08), maa://35393 (100.00)</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="D71" s="13" t="inlineStr">
         <is>
-          <t>maa://20943 (100.00), *maa://30673 (73.47), *maa://30672 (66.33), maa://20856 (82.65)</t>
+          <t>maa://20943 (99.47), maa://30673 (100.00), maa://30672 (100.00), maa://20856 (100.00)</t>
         </is>
       </c>
       <c r="E71" s="14" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="D72" s="13" t="inlineStr">
         <is>
-          <t>maa://36643 (100.00), maa://36864 (95.88), maa://39140 (94.85), *maa://66335 (62.89)</t>
+          <t>maa://36643 (98.43), maa://36864 (98.10), maa://39140 (100.00), maa://66335 (100.00)</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="D77" s="13" t="inlineStr">
         <is>
-          <t>maa://20958 (100.00), ***maa://39769 (4.82)</t>
+          <t>maa://20958 (94.87), ***maa://39769 (20.00)</t>
         </is>
       </c>
       <c r="E77" s="14" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="D79" s="13" t="inlineStr">
         <is>
-          <t>maa://20875 (100.00)</t>
+          <t>maa://20875 (92.86)</t>
         </is>
       </c>
       <c r="E79" s="14" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="D81" s="13" t="inlineStr">
         <is>
-          <t>maa://30525 (96.55), maa://20859 (100.00), **maa://28188 (45.98), *maa://30524 (50.57)</t>
+          <t>maa://30525 (100.00), maa://20859 (100.00), *maa://28188 (70.00), maa://30524 (100.00)</t>
         </is>
       </c>
       <c r="E81" s="14" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="D83" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (94.29), maa://27794 (81.43), maa://20960 (100.00)</t>
+          <t>maa://45572 (88.24), maa://27794 (100.00), maa://20960 (100.00)</t>
         </is>
       </c>
       <c r="E83" s="14" t="inlineStr">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="D87" s="13" t="inlineStr">
         <is>
-          <t>maa://20886 (100.00), ***maa://60772 (25.61)</t>
+          <t>maa://20886 (94.44), maa://60772 (100.00)</t>
         </is>
       </c>
       <c r="E87" s="14" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="D88" s="13" t="inlineStr">
         <is>
-          <t>maa://24472 (100.00), *maa://35841 (51.72)</t>
+          <t>maa://24472 (90.97), *maa://35841 (65.22)</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="D90" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (58.97), maa://20880 (100.00)</t>
+          <t>*maa://28190 (62.86), maa://20880 (93.10)</t>
         </is>
       </c>
       <c r="E90" s="14" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="D91" s="13" t="inlineStr">
         <is>
-          <t>maa://24609 (100.00)</t>
+          <t>maa://24609 (92.86)</t>
         </is>
       </c>
       <c r="E91" s="14" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="D94" s="13" t="inlineStr">
         <is>
-          <t>maa://40157 (100.00)</t>
+          <t>maa://40157 (87.50)</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="D95" s="13" t="inlineStr">
         <is>
-          <t>maa://20927 (100.00)</t>
+          <t>maa://20927 (93.33)</t>
         </is>
       </c>
       <c r="E95" s="14" t="inlineStr">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="D96" s="13" t="inlineStr">
         <is>
-          <t>maa://20926 (100.00)</t>
+          <t>maa://20926 (83.33)</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="D97" s="13" t="inlineStr">
         <is>
-          <t>maa://20991 (100.00), *maa://51015 (77.32)</t>
+          <t>maa://20991 (100.00), maa://51015 (88.10)</t>
         </is>
       </c>
       <c r="E97" s="14" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="D99" s="13" t="inlineStr">
         <is>
-          <t>maa://20929 (100.00)</t>
+          <t>maa://20929 (92.59)</t>
         </is>
       </c>
       <c r="E99" s="14" t="inlineStr">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="D101" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (86.36), maa://20893 (83.33)</t>
+          <t>maa://45572 (88.24), maa://27794 (100.00), *maa://20893 (77.78)</t>
         </is>
       </c>
       <c r="E101" s="14" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D102" s="13" t="inlineStr">
         <is>
-          <t>maa://40517 (100.00), **maa://39240 (44.59)</t>
+          <t>maa://40517 (90.00), *maa://39240 (56.25)</t>
         </is>
       </c>
       <c r="E102" s="14" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="D103" s="13" t="inlineStr">
         <is>
-          <t>maa://29094 (84.21), maa://28904 (100.00), **maa://20931 (43.42)</t>
+          <t>*maa://29094 (76.27), maa://28904 (88.37), **maa://20931 (48.57)</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="D104" s="13" t="inlineStr">
         <is>
-          <t>maa://20966 (100.00)</t>
+          <t>maa://20966 (87.50)</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="D106" s="13" t="inlineStr">
         <is>
-          <t>maa://45572 (100.00), maa://27794 (86.36), *maa://20843 (66.67), ***maa://24483 (13.64)</t>
+          <t>maa://45572 (88.24), maa://27794 (100.00), maa://20843 (100.00), **maa://24483 (50.00)</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://25018 (96.94), maa://25776 (85.71), maa://28361 (86.73), maa://25772 (85.71), maa://56588 (84.69), *maa://45194 (66.33), *maa://32653 (58.16), *maa://25161 (62.24), *maa://61839 (75.51), ***maa://60902 (19.39), *maa://61275 (52.04)</t>
+          <t>maa://51881 (98.83), maa://25018 (96.90), maa://25776 (92.21), maa://28361 (95.35), maa://25772 (94.12), maa://56588 (96.55), maa://45194 (85.71), maa://32653 (81.25), maa://25161 (83.33), maa://61839 (100.00), **maa://60902 (41.67), maa://61275 (100.00)</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="D109" s="13" t="inlineStr">
         <is>
-          <t>maa://36646 (100.00), maa://25774 (90.82), maa://35996 (94.90), maa://22469 (84.69), *maa://30668 (71.43), *maa://67286 (62.24)</t>
+          <t>maa://36646 (98.88), maa://25774 (95.89), maa://35996 (97.89), maa://22469 (92.98), maa://30668 (86.67), maa://67286 (100.00)</t>
         </is>
       </c>
       <c r="E109" s="14" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="D112" s="13" t="inlineStr">
         <is>
-          <t>maa://28554 (100.00)</t>
+          <t>maa://28554 (80.77)</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>maa://20933 (100.00), maa://20822 (87.18)</t>
+          <t>maa://20933 (86.52), maa://20822 (100.00)</t>
         </is>
       </c>
       <c r="E113" s="14" t="inlineStr">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="D114" s="13" t="inlineStr">
         <is>
-          <t>maa://29037 (100.00)</t>
+          <t>maa://29037 (97.40)</t>
         </is>
       </c>
       <c r="E114" s="14" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="D116" s="13" t="inlineStr">
         <is>
-          <t>maa://20908 (100.00), maa://35723 (90.62), **maa://23346 (46.88), maa://38822 (92.71), *maa://58659 (70.83)</t>
+          <t>maa://20908 (98.17), maa://35723 (96.08), *maa://23346 (77.78), maa://38822 (100.00), maa://58659 (100.00)</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="D117" s="13" t="inlineStr">
         <is>
-          <t>maa://29659 (96.10), maa://29031 (100.00)</t>
+          <t>maa://29659 (87.50), maa://29031 (89.13)</t>
         </is>
       </c>
       <c r="E117" s="14" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="D118" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), maa://20940 (89.86)</t>
+          <t>maa://31560 (92.86), maa://20940 (86.67)</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="D119" s="13" t="inlineStr">
         <is>
-          <t>maa://20986 (100.00)</t>
+          <t>maa://20986 (94.12)</t>
         </is>
       </c>
       <c r="E119" s="14" t="inlineStr">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="D120" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), *maa://20851 (63.77)</t>
+          <t>maa://31560 (92.86), maa://20851 (100.00)</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="D121" s="13" t="inlineStr">
         <is>
-          <t>maa://20949 (100.00)</t>
+          <t>maa://20949 (92.86)</t>
         </is>
       </c>
       <c r="E121" s="14" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="D122" s="13" t="inlineStr">
         <is>
-          <t>maa://20869 (100.00), maa://44690 (87.63)</t>
+          <t>maa://20869 (100.00), maa://44690 (95.65)</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="D123" s="13" t="inlineStr">
         <is>
-          <t>maa://29650 (100.00), maa://45570 (96.74)</t>
+          <t>maa://29650 (98.51), maa://45570 (96.72)</t>
         </is>
       </c>
       <c r="E123" s="14" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="D125" s="13" t="inlineStr">
         <is>
-          <t>maa://20909 (100.00)</t>
+          <t>*maa://20909 (71.43)</t>
         </is>
       </c>
       <c r="E125" s="14" t="inlineStr">
@@ -14032,7 +14032,7 @@
       </c>
       <c r="D128" s="13" t="inlineStr">
         <is>
-          <t>*maa://20914 (57.14), **maa://31937 (49.35), maa://20829 (100.00)</t>
+          <t>maa://20914 (100.00), *maa://31937 (80.00), maa://20829 (100.00)</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="D129" s="13" t="inlineStr">
         <is>
-          <t>maa://37484 (100.00), maa://24611 (90.48)</t>
+          <t>maa://37484 (94.23), maa://24611 (90.91)</t>
         </is>
       </c>
       <c r="E129" s="14" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="D130" s="13" t="inlineStr">
         <is>
-          <t>maa://24491 (100.00), *maa://24493 (75.56)</t>
+          <t>maa://24491 (100.00), maa://24493 (100.00)</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="D131" s="13" t="inlineStr">
         <is>
-          <t>maa://21422 (100.00)</t>
+          <t>maa://21422 (99.22)</t>
         </is>
       </c>
       <c r="E131" s="14" t="inlineStr">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="D133" s="13" t="inlineStr">
         <is>
-          <t>maa://20837 (100.00), *maa://37666 (72.94)</t>
+          <t>maa://20837 (100.00), maa://37666 (90.91)</t>
         </is>
       </c>
       <c r="E133" s="14" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="D134" s="13" t="inlineStr">
         <is>
-          <t>maa://29023 (100.00), *maa://39515 (74.71)</t>
+          <t>maa://29023 (100.00), maa://39515 (91.67)</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="D139" s="13" t="inlineStr">
         <is>
-          <t>maa://29025 (100.00), **maa://21000 (43.94)</t>
+          <t>maa://29025 (83.33), **maa://21000 (45.16)</t>
         </is>
       </c>
       <c r="E139" s="14" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="D140" s="13" t="inlineStr">
         <is>
-          <t>maa://45258 (100.00), **maa://30679 (43.66)</t>
+          <t>maa://45258 (90.48), **maa://30679 (50.00)</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="D141" s="13" t="inlineStr">
         <is>
-          <t>maa://20981 (100.00)</t>
+          <t>maa://20981 (92.86)</t>
         </is>
       </c>
       <c r="E141" s="14" t="inlineStr">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="D143" s="13" t="inlineStr">
         <is>
-          <t>maa://28484 (100.00), **maa://23736 (44.68), *maa://31185 (69.15), *maa://30306 (54.26)</t>
+          <t>maa://28484 (97.75), *maa://23736 (52.44), maa://31185 (91.67), maa://30306 (100.00)</t>
         </is>
       </c>
       <c r="E143" s="14" t="inlineStr">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="D144" s="13" t="inlineStr">
         <is>
-          <t>maa://30670 (100.00), maa://31470 (87.10), **maa://45066 (38.71), *maa://61380 (79.57), ***maa://30867 (12.90)</t>
+          <t>maa://30670 (96.89), maa://31470 (94.12), *maa://45066 (71.43), maa://61380 (100.00), **maa://30867 (40.00)</t>
         </is>
       </c>
       <c r="E144" s="14" t="inlineStr">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="D145" s="13" t="inlineStr">
         <is>
-          <t>maa://20971 (100.00)</t>
+          <t>maa://20971 (92.86)</t>
         </is>
       </c>
       <c r="E145" s="14" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="D148" s="13" t="inlineStr">
         <is>
-          <t>maa://29056 (100.00), ***maa://20901 (1.18)</t>
+          <t>maa://29056 (100.00), ***maa://20901 (7.14)</t>
         </is>
       </c>
       <c r="E148" s="14" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="D149" s="13" t="inlineStr">
         <is>
-          <t>maa://28828 (82.50), maa://20846 (100.00), **maa://47286 (37.50)</t>
+          <t>maa://28828 (88.24), maa://20846 (95.83), *maa://47286 (75.00)</t>
         </is>
       </c>
       <c r="E149" s="14" t="inlineStr">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr">
         <is>
-          <t>maa://40957 (95.88), maa://36641 (100.00), maa://36865 (93.81), maa://44635 (83.51), maa://44660 (83.51), *maa://41128 (72.16), maa://42918 (92.78), maa://46108 (89.69), maa://44119 (89.69), *maa://37300 (58.76), *maa://64408 (74.23), **maa://42917 (35.05)</t>
+          <t>maa://40957 (94.77), maa://36641 (98.48), maa://36865 (95.40), maa://44635 (88.07), maa://44660 (92.68), maa://41128 (84.21), maa://42918 (100.00), maa://46108 (100.00), maa://44119 (97.44), maa://37300 (100.00), maa://64408 (100.00), maa://42917 (100.00)</t>
         </is>
       </c>
       <c r="E150" s="14" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="D151" s="13" t="inlineStr">
         <is>
-          <t>maa://51549 (100.00), maa://51923 (92.13)</t>
+          <t>maa://51549 (96.77), maa://51923 (96.30)</t>
         </is>
       </c>
       <c r="E151" s="14" t="inlineStr">
@@ -15490,7 +15490,7 @@
       </c>
       <c r="D155" s="13" t="inlineStr">
         <is>
-          <t>maa://20946 (100.00), maa://20833 (86.36)</t>
+          <t>maa://20946 (100.00), maa://20833 (100.00)</t>
         </is>
       </c>
       <c r="E155" s="14" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="D156" s="13" t="inlineStr">
         <is>
-          <t>maa://20945 (100.00)</t>
+          <t>maa://20945 (86.21)</t>
         </is>
       </c>
       <c r="E156" s="14" t="inlineStr">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="D158" s="13" t="inlineStr">
         <is>
-          <t>maa://39149 (100.00)</t>
+          <t>*maa://39149 (66.67)</t>
         </is>
       </c>
       <c r="E158" s="14" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D159" s="13" t="inlineStr">
         <is>
-          <t>maa://20959 (100.00)</t>
+          <t>maa://20959 (90.91)</t>
         </is>
       </c>
       <c r="E159" s="14" t="inlineStr">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="D160" s="13" t="inlineStr">
         <is>
-          <t>maa://44232 (100.00), *maa://45603 (78.35), ***maa://63114 (21.65), **maa://65963 (30.93)</t>
+          <t>maa://44232 (98.47), maa://45603 (90.62), *maa://63114 (66.67), *maa://65963 (75.00)</t>
         </is>
       </c>
       <c r="E160" s="14" t="inlineStr">
@@ -15814,7 +15814,7 @@
       </c>
       <c r="D161" s="13" t="inlineStr">
         <is>
-          <t>maa://20936 (100.00)</t>
+          <t>maa://20936 (92.86)</t>
         </is>
       </c>
       <c r="E161" s="14" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="D162" s="13" t="inlineStr">
         <is>
-          <t>maa://20855 (100.00)</t>
+          <t>maa://20855 (94.12)</t>
         </is>
       </c>
       <c r="E162" s="14" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="D164" s="13" t="inlineStr">
         <is>
-          <t>*maa://32845 (65.17), maa://29054 (100.00)</t>
+          <t>*maa://32845 (80.00), maa://29054 (100.00)</t>
         </is>
       </c>
       <c r="E164" s="14" t="inlineStr">
@@ -16138,7 +16138,7 @@
       </c>
       <c r="D167" s="13" t="inlineStr">
         <is>
-          <t>maa://20975 (100.00), *maa://47950 (79.03), maa://30806 (91.94)</t>
+          <t>maa://20975 (90.91), maa://47950 (85.71), maa://30806 (100.00)</t>
         </is>
       </c>
       <c r="E167" s="14" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="D168" s="13" t="inlineStr">
         <is>
-          <t>maa://29633 (100.00), maa://29627 (100.00), maa://29659 (83.15), maa://49074 (98.88), **maa://30679 (34.83), maa://29861 (87.64), *maa://42343 (78.65)</t>
+          <t>maa://29633 (92.18), maa://29627 (92.95), maa://29659 (87.50), maa://49074 (95.59), **maa://30679 (50.00), maa://29861 (100.00), maa://42343 (100.00)</t>
         </is>
       </c>
       <c r="E168" s="14" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="D169" s="13" t="inlineStr">
         <is>
-          <t>maa://49867 (98.86), maa://49655 (100.00)</t>
+          <t>maa://49867 (94.67), maa://49655 (97.73)</t>
         </is>
       </c>
       <c r="E169" s="14" t="inlineStr">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="D174" s="13" t="inlineStr">
         <is>
-          <t>maa://20905 (100.00), **maa://52268 (38.18)</t>
+          <t>*maa://20905 (76.19), *maa://52268 (66.67)</t>
         </is>
       </c>
       <c r="E174" s="14" t="inlineStr">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="D175" s="13" t="inlineStr">
         <is>
-          <t>maa://59681 (100.00), maa://64200 (87.23)</t>
+          <t>maa://59681 (100.00), maa://64200 (100.00)</t>
         </is>
       </c>
       <c r="E175" s="14" t="inlineStr">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="D176" s="13" t="inlineStr">
         <is>
-          <t>maa://32418 (100.00), maa://51440 (89.90), maa://63320 (90.91)</t>
+          <t>maa://32418 (99.70), maa://51440 (100.00), maa://63320 (100.00)</t>
         </is>
       </c>
       <c r="E176" s="14" t="inlineStr">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="D177" s="13" t="inlineStr">
         <is>
-          <t>maa://37690 (100.00)</t>
+          <t>maa://37690 (93.33)</t>
         </is>
       </c>
       <c r="E177" s="14" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="D178" s="13" t="inlineStr">
         <is>
-          <t>maa://20842 (100.00)</t>
+          <t>maa://20842 (94.12)</t>
         </is>
       </c>
       <c r="E178" s="14" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="D180" s="13" t="inlineStr">
         <is>
-          <t>maa://20911 (100.00), *maa://29012 (61.25)</t>
+          <t>maa://20911 (96.00), maa://29012 (85.71)</t>
         </is>
       </c>
       <c r="E180" s="14" t="inlineStr">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="D183" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (100.00), **maa://20968 (30.43)</t>
+          <t>maa://31560 (92.86), *maa://20968 (66.67)</t>
         </is>
       </c>
       <c r="E183" s="14" t="inlineStr">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
-          <t>maa://20969 (85.19), maa://41303 (100.00)</t>
+          <t>maa://20969 (86.21), maa://41303 (100.00)</t>
         </is>
       </c>
       <c r="E187" s="14" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="D191" s="13" t="inlineStr">
         <is>
-          <t>maa://34866 (100.00), maa://34714 (100.00)</t>
+          <t>maa://34866 (93.75), maa://34714 (96.67)</t>
         </is>
       </c>
       <c r="E191" s="14" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="D192" s="13" t="inlineStr">
         <is>
-          <t>maa://34883 (100.00), maa://20895 (84.72)</t>
+          <t>maa://34883 (93.75), maa://20895 (100.00)</t>
         </is>
       </c>
       <c r="E192" s="14" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="D196" s="13" t="inlineStr">
         <is>
-          <t>*maa://28190 (63.89), maa://20994 (100.00)</t>
+          <t>*maa://28190 (62.86), maa://20994 (100.00)</t>
         </is>
       </c>
       <c r="E196" s="14" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="D198" s="13" t="inlineStr">
         <is>
-          <t>maa://44224 (92.63), maa://35854 (81.05), maa://50388 (100.00), maa://25760 (83.16), ***maa://43911 (4.21), **maa://20872 (34.74), *maa://51066 (55.79), maa://63024 (84.21)</t>
+          <t>maa://44224 (90.31), maa://35854 (84.75), maa://50388 (98.22), maa://25760 (86.55), ***maa://43911 (11.11), *maa://20872 (52.00), maa://51066 (87.50), maa://63024 (93.94)</t>
         </is>
       </c>
       <c r="E198" s="14" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="D199" s="13" t="inlineStr">
         <is>
-          <t>maa://39156 (100.00), **maa://39550 (39.08), **maa://53417 (47.13), *maa://63806 (60.92)</t>
+          <t>maa://39156 (94.19), *maa://39550 (55.00), *maa://53417 (75.00), maa://63806 (87.50)</t>
         </is>
       </c>
       <c r="E199" s="14" t="inlineStr">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="D200" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (100.00), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
+          <t>maa://27823 (86.17), *maa://28190 (62.86), maa://22894 (91.67), *maa://20906 (72.22), **maa://20907 (34.38)</t>
         </is>
       </c>
       <c r="E200" s="14" t="inlineStr">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="D201" s="13" t="inlineStr">
         <is>
-          <t>maa://27823 (100.00), *maa://28190 (58.97), maa://22894 (100.00), *maa://20906 (62.82), ***maa://20907 (25.64)</t>
+          <t>maa://27823 (86.17), *maa://28190 (62.86), maa://22894 (91.67), *maa://20906 (72.22), **maa://20907 (34.38)</t>
         </is>
       </c>
       <c r="E201" s="14" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="D202" s="13" t="inlineStr">
         <is>
-          <t>maa://42223 (100.00), maa://49077 (85.71), maa://42292 (87.76), *maa://42402 (69.39)</t>
+          <t>maa://42223 (99.62), maa://49077 (94.23), maa://42292 (97.22), maa://42402 (100.00)</t>
         </is>
       </c>
       <c r="E202" s="14" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="D204" s="13" t="inlineStr">
         <is>
-          <t>maa://20854 (100.00)</t>
+          <t>maa://20854 (92.86)</t>
         </is>
       </c>
       <c r="E204" s="14" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="D207" s="13" t="inlineStr">
         <is>
-          <t>maa://30673 (100.00), maa://30672 (90.28)</t>
+          <t>maa://30673 (100.00), maa://30672 (100.00)</t>
         </is>
       </c>
       <c r="E207" s="14" t="inlineStr">
@@ -18352,7 +18352,7 @@
       </c>
       <c r="D208" s="13" t="inlineStr">
         <is>
-          <t>maa://20934 (97.44), maa://20827 (98.72), maa://20828 (100.00)</t>
+          <t>maa://20934 (100.00), maa://20827 (100.00), maa://20828 (100.00)</t>
         </is>
       </c>
       <c r="E208" s="14" t="inlineStr">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="D211" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (100.00), ***maa://39217 (23.81), maa://25369 (100.00)</t>
+          <t>maa://28133 (93.33), **maa://39217 (38.89), maa://25369 (95.12)</t>
         </is>
       </c>
       <c r="E211" s="14" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="D212" s="13" t="inlineStr">
         <is>
-          <t>maa://20956 (100.00), *maa://20830 (62.37), *maa://44703 (72.04)</t>
+          <t>maa://20956 (96.14), *maa://20830 (80.00), maa://44703 (92.31)</t>
         </is>
       </c>
       <c r="E212" s="14" t="inlineStr">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="D213" s="13" t="inlineStr">
         <is>
-          <t>maa://20955 (100.00)</t>
+          <t>maa://20955 (81.82)</t>
         </is>
       </c>
       <c r="E213" s="14" t="inlineStr">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="D214" s="13" t="inlineStr">
         <is>
-          <t>maa://39238 (100.00)</t>
+          <t>maa://39238 (99.10)</t>
         </is>
       </c>
       <c r="E214" s="14" t="inlineStr">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="D215" s="13" t="inlineStr">
         <is>
-          <t>maa://64044 (100.00)</t>
+          <t>maa://64044 (94.74)</t>
         </is>
       </c>
       <c r="E215" s="14" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="D216" s="13" t="inlineStr">
         <is>
-          <t>maa://45261 (100.00)</t>
+          <t>maa://45261 (88.89)</t>
         </is>
       </c>
       <c r="E216" s="14" t="inlineStr">
@@ -18892,7 +18892,7 @@
       </c>
       <c r="D218" s="13" t="inlineStr">
         <is>
-          <t>maa://24636 (100.00), maa://25778 (85.11)</t>
+          <t>maa://24636 (100.00), maa://25778 (100.00)</t>
         </is>
       </c>
       <c r="E218" s="14" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="D220" s="13" t="inlineStr">
         <is>
-          <t>maa://39157 (100.00)</t>
+          <t>maa://39157 (85.71)</t>
         </is>
       </c>
       <c r="E220" s="14" t="inlineStr">
@@ -19054,7 +19054,7 @@
       </c>
       <c r="D221" s="13" t="inlineStr">
         <is>
-          <t>**maa://26496 (39.29), maa://20995 (100.00)</t>
+          <t>***maa://26496 (30.00), *maa://20995 (54.55)</t>
         </is>
       </c>
       <c r="E221" s="14" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="D222" s="13" t="inlineStr">
         <is>
-          <t>maa://26499 (100.00), ***maa://20998 (2.78)</t>
+          <t>maa://26499 (100.00), ***maa://20998 (12.50)</t>
         </is>
       </c>
       <c r="E222" s="14" t="inlineStr">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="D224" s="13" t="inlineStr">
         <is>
-          <t>maa://39695 (100.00), ***maa://39911 (4.08)</t>
+          <t>maa://39695 (100.00), ***maa://39911 (20.00)</t>
         </is>
       </c>
       <c r="E224" s="14" t="inlineStr">
@@ -19270,7 +19270,7 @@
       </c>
       <c r="D225" s="13" t="inlineStr">
         <is>
-          <t>maa://20988 (100.00)</t>
+          <t>maa://20988 (90.91)</t>
         </is>
       </c>
       <c r="E225" s="14" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="D227" s="13" t="inlineStr">
         <is>
-          <t>maa://28187 (100.00), **maa://43531 (38.64), *maa://39520 (57.95)</t>
+          <t>maa://28187 (97.73), maa://43531 (100.00), maa://39520 (100.00)</t>
         </is>
       </c>
       <c r="E227" s="14" t="inlineStr">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="D229" s="13" t="inlineStr">
         <is>
-          <t>maa://20987 (100.00), *maa://35801 (51.14)</t>
+          <t>maa://20987 (94.06), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E229" s="14" t="inlineStr">
@@ -19540,7 +19540,7 @@
       </c>
       <c r="D230" s="13" t="inlineStr">
         <is>
-          <t>*maa://29644 (71.43), maa://39159 (100.00), ***maa://30061 (11.90)</t>
+          <t>*maa://29644 (73.08), maa://39159 (96.88), ***maa://30061 (27.27)</t>
         </is>
       </c>
       <c r="E230" s="14" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="D233" s="13" t="inlineStr">
         <is>
-          <t>maa://29058 (97.83), maa://39140 (100.00), *maa://38723 (73.91)</t>
+          <t>maa://29058 (96.30), maa://39140 (100.00), maa://38723 (100.00)</t>
         </is>
       </c>
       <c r="E233" s="14" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="D234" s="13" t="inlineStr">
         <is>
-          <t>maa://48263 (100.00)</t>
+          <t>*maa://48263 (76.92)</t>
         </is>
       </c>
       <c r="E234" s="14" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="D236" s="13" t="inlineStr">
         <is>
-          <t>maa://49491 (100.00)</t>
+          <t>maa://49491 (91.67)</t>
         </is>
       </c>
       <c r="E236" s="14" t="inlineStr">
@@ -19972,7 +19972,7 @@
       </c>
       <c r="D238" s="13" t="inlineStr">
         <is>
-          <t>maa://20917 (100.00)</t>
+          <t>maa://20917 (98.39)</t>
         </is>
       </c>
       <c r="E238" s="14" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="D239" s="13" t="inlineStr">
         <is>
-          <t>maa://30714 (100.00), maa://30675 (87.50)</t>
+          <t>maa://30714 (97.78), maa://30675 (100.00)</t>
         </is>
       </c>
       <c r="E239" s="14" t="inlineStr">
@@ -20080,7 +20080,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr">
         <is>
-          <t>maa://20922 (100.00), *maa://32623 (66.28), *maa://34242 (56.98)</t>
+          <t>maa://20922 (94.37), *maa://32623 (77.27), maa://34242 (85.71)</t>
         </is>
       </c>
       <c r="E240" s="14" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="D242" s="13" t="inlineStr">
         <is>
-          <t>maa://30667 (94.94), maa://30666 (100.00), **maa://30739 (35.44), *maa://30723 (56.96), maa://39588 (97.47), maa://64079 (88.61), *maa://65726 (64.56)</t>
+          <t>*maa://30667 (78.88), maa://30666 (83.90), **maa://30739 (42.11), *maa://30723 (57.14), maa://39588 (88.14), maa://64079 (84.62), maa://65726 (100.00)</t>
         </is>
       </c>
       <c r="E242" s="14" t="inlineStr">
@@ -20242,7 +20242,7 @@
       </c>
       <c r="D243" s="13" t="inlineStr">
         <is>
-          <t>maa://62759 (100.00), **maa://62764 (33.71)</t>
+          <t>maa://62759 (100.00), *maa://62764 (75.00)</t>
         </is>
       </c>
       <c r="E243" s="14" t="inlineStr">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="D247" s="13" t="inlineStr">
         <is>
-          <t>maa://20867 (85.37), maa://38485 (100.00), **maa://32202 (46.34)</t>
+          <t>maa://20867 (93.33), maa://38485 (96.43), *maa://32202 (80.00)</t>
         </is>
       </c>
       <c r="E247" s="14" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="D250" s="13" t="inlineStr">
         <is>
-          <t>maa://30674 (100.00)</t>
+          <t>maa://30674 (90.00)</t>
         </is>
       </c>
       <c r="E250" s="14" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="D251" s="13" t="inlineStr">
         <is>
-          <t>maa://28923 (95.60), maa://28906 (100.00), ***maa://28825 (4.40), **maa://65613 (37.36)</t>
+          <t>maa://28923 (91.83), maa://28906 (98.28), ***maa://28825 (11.54), maa://65613 (100.00)</t>
         </is>
       </c>
       <c r="E251" s="14" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="D252" s="13" t="inlineStr">
         <is>
-          <t>maa://42287 (95.51), maa://45570 (100.00), *maa://60678 (77.53), maa://42225 (87.64)</t>
+          <t>maa://42287 (91.74), maa://45570 (96.72), maa://60678 (92.86), maa://42225 (100.00)</t>
         </is>
       </c>
       <c r="E252" s="14" t="inlineStr">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>maa://20923 (100.00), **maa://60577 (38.46)</t>
+          <t>maa://20923 (93.10), *maa://60577 (75.00)</t>
         </is>
       </c>
       <c r="E254" s="14" t="inlineStr">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="D255" s="13" t="inlineStr">
         <is>
-          <t>maa://31559 (86.32), maa://24093 (100.00), maa://20924 (81.05), ***maa://49440 (16.84)</t>
+          <t>maa://31559 (93.48), maa://24093 (100.00), maa://20924 (95.24), **maa://49440 (42.86)</t>
         </is>
       </c>
       <c r="E255" s="14" t="inlineStr">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="D256" s="13" t="inlineStr">
         <is>
-          <t>maa://40958 (100.00), *maa://45067 (54.67)</t>
+          <t>maa://40958 (90.32), *maa://45067 (75.00)</t>
         </is>
       </c>
       <c r="E256" s="14" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="D258" s="13" t="inlineStr">
         <is>
-          <t>maa://20877 (100.00), **maa://45067 (44.09), **maa://20836 (47.31), ***maa://20632 (22.58)</t>
+          <t>maa://20877 (98.75), *maa://45067 (75.00), maa://20836 (100.00), maa://20632 (100.00)</t>
         </is>
       </c>
       <c r="E258" s="14" t="inlineStr">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="D259" s="13" t="inlineStr">
         <is>
-          <t>maa://20879 (100.00), maa://20834 (88.46)</t>
+          <t>maa://20879 (86.14), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E259" s="14" t="inlineStr">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="D262" s="13" t="inlineStr">
         <is>
-          <t>maa://31560 (84.15), maa://20884 (100.00)</t>
+          <t>maa://31560 (92.86), maa://20884 (96.30)</t>
         </is>
       </c>
       <c r="E262" s="14" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="D264" s="13" t="inlineStr">
         <is>
-          <t>maa://29027 (100.00)</t>
+          <t>maa://29027 (98.28)</t>
         </is>
       </c>
       <c r="E264" s="14" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="D266" s="13" t="inlineStr">
         <is>
-          <t>maa://39162 (100.00)</t>
+          <t>maa://39162 (97.22)</t>
         </is>
       </c>
       <c r="E266" s="14" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="D268" s="13" t="inlineStr">
         <is>
-          <t>maa://22467 (100.00)</t>
+          <t>maa://22467 (95.92)</t>
         </is>
       </c>
       <c r="E268" s="14" t="inlineStr">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="D269" s="13" t="inlineStr">
         <is>
-          <t>*maa://30678 (66.67), maa://59689 (100.00)</t>
+          <t>**maa://30678 (37.50), maa://59689 (100.00)</t>
         </is>
       </c>
       <c r="E269" s="14" t="inlineStr">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="D270" s="13" t="inlineStr">
         <is>
-          <t>maa://49643 (100.00)</t>
+          <t>maa://49643 (90.48)</t>
         </is>
       </c>
       <c r="E270" s="14" t="inlineStr">
@@ -21754,7 +21754,7 @@
       </c>
       <c r="D271" s="13" t="inlineStr">
         <is>
-          <t>maa://48265 (100.00)</t>
+          <t>maa://48265 (84.62)</t>
         </is>
       </c>
       <c r="E271" s="14" t="inlineStr">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="D272" s="13" t="inlineStr">
         <is>
-          <t>maa://20825 (100.00), maa://21445 (87.50), *maa://35726 (64.29), ***maa://20891 (19.64)</t>
+          <t>*maa://20825 (73.33), *maa://21445 (72.22), *maa://35726 (61.54), ***maa://20891 (30.00)</t>
         </is>
       </c>
       <c r="E272" s="14" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="D273" s="13" t="inlineStr">
         <is>
-          <t>maa://25769 (100.00)</t>
+          <t>maa://25769 (97.52)</t>
         </is>
       </c>
       <c r="E273" s="14" t="inlineStr">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="D274" s="13" t="inlineStr">
         <is>
-          <t>maa://62757 (100.00)</t>
+          <t>**maa://62757 (41.18)</t>
         </is>
       </c>
       <c r="E274" s="14" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="D275" s="13" t="inlineStr">
         <is>
-          <t>maa://20862 (100.00)</t>
+          <t>maa://20862 (83.33)</t>
         </is>
       </c>
       <c r="E275" s="14" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="D276" s="13" t="inlineStr">
         <is>
-          <t>maa://51881 (100.00), maa://51630 (92.86), maa://56588 (84.69), **maa://55171 (41.84), *maa://51893 (61.22), ***maa://60902 (19.39), **maa://66758 (41.84)</t>
+          <t>maa://51881 (98.83), maa://51630 (96.19), maa://56588 (96.55), *maa://55171 (60.87), maa://51893 (90.00), **maa://60902 (41.67), *maa://66758 (75.00)</t>
         </is>
       </c>
       <c r="E276" s="14" t="inlineStr">
@@ -22186,7 +22186,7 @@
       </c>
       <c r="D279" s="13" t="inlineStr">
         <is>
-          <t>maa://20939 (100.00)</t>
+          <t>maa://20939 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="14" t="inlineStr">
@@ -22294,7 +22294,7 @@
       </c>
       <c r="D281" s="13" t="inlineStr">
         <is>
-          <t>maa://28133 (100.00), maa://33394 (92.86)</t>
+          <t>maa://28133 (93.33), maa://33394 (100.00)</t>
         </is>
       </c>
       <c r="E281" s="14" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="D282" s="13" t="inlineStr">
         <is>
-          <t>maa://42311 (100.00)</t>
+          <t>maa://42311 (90.91)</t>
         </is>
       </c>
       <c r="E282" s="14" t="inlineStr">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="D286" s="13" t="inlineStr">
         <is>
-          <t>maa://39165 (100.00)</t>
+          <t>*maa://39165 (66.67)</t>
         </is>
       </c>
       <c r="E286" s="14" t="inlineStr">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="D287" s="13" t="inlineStr">
         <is>
-          <t>maa://48267 (100.00), maa://48266 (89.71)</t>
+          <t>maa://48267 (100.00), maa://48266 (100.00)</t>
         </is>
       </c>
       <c r="E287" s="14" t="inlineStr">
@@ -22726,7 +22726,7 @@
       </c>
       <c r="D289" s="13" t="inlineStr">
         <is>
-          <t>maa://38296 (100.00)</t>
+          <t>maa://38296 (90.91)</t>
         </is>
       </c>
       <c r="E289" s="14" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="D290" s="13" t="inlineStr">
         <is>
-          <t>maa://20899 (100.00), maa://46332 (95.29), ***maa://44744 (5.88)</t>
+          <t>maa://20899 (90.00), maa://46332 (96.15), ***maa://44744 (25.00)</t>
         </is>
       </c>
       <c r="E290" s="14" t="inlineStr">
@@ -22834,7 +22834,7 @@
       </c>
       <c r="D291" s="13" t="inlineStr">
         <is>
-          <t>maa://53353 (100.00)</t>
+          <t>maa://53353 (83.33)</t>
         </is>
       </c>
       <c r="E291" s="14" t="inlineStr">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="D293" s="13" t="inlineStr">
         <is>
-          <t>maa://30710 (100.00), maa://36845 (96.81), maa://31558 (90.43), ***maa://39217 (21.28), *maa://30668 (74.47)</t>
+          <t>maa://30710 (97.92), maa://36845 (95.86), maa://31558 (97.14), **maa://39217 (38.89), maa://30668 (86.67)</t>
         </is>
       </c>
       <c r="E293" s="14" t="inlineStr">
@@ -23104,7 +23104,7 @@
       </c>
       <c r="D296" s="13" t="inlineStr">
         <is>
-          <t>maa://25774 (100.00), maa://28133 (94.38), maa://22469 (93.26), ***maa://39217 (22.47), ***maa://31349 (28.09)</t>
+          <t>maa://25774 (95.89), maa://28133 (93.33), maa://22469 (92.98), **maa://39217 (38.89), **maa://31349 (50.00)</t>
         </is>
       </c>
       <c r="E296" s="14" t="inlineStr">
@@ -23212,7 +23212,7 @@
       </c>
       <c r="D298" s="13" t="inlineStr">
         <is>
-          <t>maa://32414 (100.00), maa://39155 (89.69), *maa://32505 (67.01)</t>
+          <t>maa://32414 (98.81), maa://39155 (97.50), maa://32505 (100.00)</t>
         </is>
       </c>
       <c r="E298" s="14" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="D299" s="13" t="inlineStr">
         <is>
-          <t>maa://45799 (100.00), maa://57199 (92.55)</t>
+          <t>maa://45799 (100.00), maa://57199 (100.00)</t>
         </is>
       </c>
       <c r="E299" s="14" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D301" s="13" t="inlineStr">
         <is>
-          <t>maa://36642 (100.00), maa://36867 (86.73), maa://39155 (88.78)</t>
+          <t>maa://36642 (100.00), maa://36867 (97.06), maa://39155 (97.50)</t>
         </is>
       </c>
       <c r="E301" s="14" t="inlineStr">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="D302" s="13" t="inlineStr">
         <is>
-          <t>***maa://39166 (26.47), maa://39167 (100.00)</t>
+          <t>**maa://39166 (50.00), maa://39167 (100.00)</t>
         </is>
       </c>
       <c r="E302" s="14" t="inlineStr">
@@ -23482,7 +23482,7 @@
       </c>
       <c r="D303" s="13" t="inlineStr">
         <is>
-          <t>maa://29005 (100.00), *maa://31560 (74.19)</t>
+          <t>maa://29005 (98.78), maa://31560 (92.86)</t>
         </is>
       </c>
       <c r="E303" s="14" t="inlineStr">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="D307" s="13" t="inlineStr">
         <is>
-          <t>maa://50280 (100.00), maa://49642 (95.88), maa://49660 (85.57), *maa://50517 (50.52)</t>
+          <t>maa://50280 (98.46), maa://49642 (97.54), maa://49660 (93.62), maa://50517 (85.71)</t>
         </is>
       </c>
       <c r="E307" s="14" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>maa://36005 (100.00)</t>
+          <t>maa://36005 (94.12)</t>
         </is>
       </c>
       <c r="E312" s="14" t="inlineStr">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="D313" s="13" t="inlineStr">
         <is>
-          <t>maa://35859 (100.00)</t>
+          <t>maa://35859 (97.83)</t>
         </is>
       </c>
       <c r="E313" s="14" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="D314" s="13" t="inlineStr">
         <is>
-          <t>maa://53348 (100.00)</t>
+          <t>maa://53348 (89.29)</t>
         </is>
       </c>
       <c r="E314" s="14" t="inlineStr">
@@ -24130,7 +24130,7 @@
       </c>
       <c r="D315" s="13" t="inlineStr">
         <is>
-          <t>maa://39172 (100.00)</t>
+          <t>**maa://39172 (50.00)</t>
         </is>
       </c>
       <c r="E315" s="14" t="inlineStr">
@@ -24238,7 +24238,7 @@
       </c>
